--- a/Config/Population_data.xlsx
+++ b/Config/Population_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\CISNET\HHCoM\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\HHCoM\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,9 +14,6 @@
   <sheets>
     <sheet name="Demographics" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1532,17 +1529,65 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1553,25 +1598,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1580,12 +1606,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1596,48 +1616,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="28" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="28" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5827,369 +5824,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Targets"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="U2" t="str">
-            <v>Population Size</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="M3" t="str">
-            <v>Total Population</v>
-          </cell>
-          <cell r="T3">
-            <v>1985</v>
-          </cell>
-          <cell r="U3">
-            <v>5420315</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="L4">
-            <v>1985</v>
-          </cell>
-          <cell r="M4">
-            <v>5420315</v>
-          </cell>
-          <cell r="N4">
-            <v>1107298</v>
-          </cell>
-          <cell r="O4">
-            <v>1108238</v>
-          </cell>
-          <cell r="P4">
-            <v>1549446</v>
-          </cell>
-          <cell r="Q4">
-            <v>1655333</v>
-          </cell>
-          <cell r="T4">
-            <v>1996</v>
-          </cell>
-          <cell r="U4">
-            <v>8068284</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="L5">
-            <v>1996</v>
-          </cell>
-          <cell r="M5">
-            <v>8068284</v>
-          </cell>
-          <cell r="N5">
-            <v>1526597</v>
-          </cell>
-          <cell r="O5">
-            <v>1537145</v>
-          </cell>
-          <cell r="P5">
-            <v>2292625</v>
-          </cell>
-          <cell r="Q5">
-            <v>2711917</v>
-          </cell>
-          <cell r="T5">
-            <v>2001</v>
-          </cell>
-          <cell r="U5">
-            <v>9138179</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="L6">
-            <v>2001</v>
-          </cell>
-          <cell r="M6">
-            <v>9138179</v>
-          </cell>
-          <cell r="N6">
-            <v>1669704</v>
-          </cell>
-          <cell r="O6">
-            <v>1675104</v>
-          </cell>
-          <cell r="P6">
-            <v>2659850</v>
-          </cell>
-          <cell r="Q6">
-            <v>3133521</v>
-          </cell>
-          <cell r="T6">
-            <v>2011</v>
-          </cell>
-          <cell r="U6">
-            <v>10267300</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="L7">
-            <v>2011</v>
-          </cell>
-          <cell r="M7">
-            <v>9759249</v>
-          </cell>
-          <cell r="N7">
-            <v>1658047</v>
-          </cell>
-          <cell r="O7">
-            <v>1621472</v>
-          </cell>
-          <cell r="P7">
-            <v>3046456</v>
-          </cell>
-          <cell r="Q7">
-            <v>3433274</v>
-          </cell>
-          <cell r="T7">
-            <v>2013</v>
-          </cell>
-          <cell r="U7">
-            <v>10456909</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="T8">
-            <v>2014</v>
-          </cell>
-          <cell r="U8">
-            <v>10571313</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="T9">
-            <v>2015</v>
-          </cell>
-          <cell r="U9">
-            <v>10688168</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="T10">
-            <v>2016</v>
-          </cell>
-          <cell r="U10">
-            <v>10806536</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="T11">
-            <v>2017</v>
-          </cell>
-          <cell r="U11">
-            <v>10924776</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="T12">
-            <v>2018</v>
-          </cell>
-          <cell r="U12">
-            <v>11039740</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="T13">
-            <v>2019</v>
-          </cell>
-          <cell r="U13">
-            <v>11155657</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="B21" t="str">
-            <v>Prevalence</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22">
-            <v>1990</v>
-          </cell>
-          <cell r="B22">
-            <v>5.0000000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23">
-            <v>1991</v>
-          </cell>
-          <cell r="B23">
-            <v>1.0999999999999999E-2</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24">
-            <v>1992</v>
-          </cell>
-          <cell r="B24">
-            <v>1.4999999999999999E-2</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25">
-            <v>1993</v>
-          </cell>
-          <cell r="B25">
-            <v>2.7E-2</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26">
-            <v>1994</v>
-          </cell>
-          <cell r="B26">
-            <v>5.0999999999999997E-2</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27">
-            <v>1995</v>
-          </cell>
-          <cell r="B27">
-            <v>6.9000000000000006E-2</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28">
-            <v>1996</v>
-          </cell>
-          <cell r="B28">
-            <v>9.5000000000000001E-2</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29">
-            <v>1997</v>
-          </cell>
-          <cell r="B29">
-            <v>0.113</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30">
-            <v>1998</v>
-          </cell>
-          <cell r="B30">
-            <v>0.152</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31">
-            <v>1999</v>
-          </cell>
-          <cell r="B31">
-            <v>0.14899999999999999</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32">
-            <v>2000</v>
-          </cell>
-          <cell r="B32">
-            <v>0.16300000000000001</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="A33">
-            <v>2001</v>
-          </cell>
-          <cell r="B33">
-            <v>0.223</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34">
-            <v>2002</v>
-          </cell>
-          <cell r="B34">
-            <v>0.24299999999999999</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="A35">
-            <v>2003</v>
-          </cell>
-          <cell r="B35">
-            <v>0.25</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="A36">
-            <v>2004</v>
-          </cell>
-          <cell r="B36">
-            <v>0.27100000000000002</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="A37">
-            <v>2005</v>
-          </cell>
-          <cell r="B37">
-            <v>0.26100000000000001</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="A38">
-            <v>2006</v>
-          </cell>
-          <cell r="B38">
-            <v>0.26100000000000001</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="A39">
-            <v>2007</v>
-          </cell>
-          <cell r="B39">
-            <v>0.25800000000000001</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="A40">
-            <v>2008</v>
-          </cell>
-          <cell r="B40">
-            <v>0.25800000000000001</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="A41">
-            <v>2009</v>
-          </cell>
-          <cell r="B41">
-            <v>0.26300000000000001</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="A42">
-            <v>2010</v>
-          </cell>
-          <cell r="B42">
-            <v>0.26300000000000001</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="A43">
-            <v>2012</v>
-          </cell>
-          <cell r="B43">
-            <v>0.318</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -6454,144 +6088,144 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AF241"/>
+  <dimension ref="A1:AF239"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A217" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F236" sqref="F236"/>
+    <sheetView tabSelected="1" topLeftCell="A220" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B241" sqref="B241"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.453125" customWidth="1"/>
-    <col min="2" max="2" width="14.36328125" customWidth="1"/>
-    <col min="3" max="3" width="13.90625" customWidth="1"/>
-    <col min="4" max="4" width="13.26953125" customWidth="1"/>
-    <col min="5" max="5" width="16.54296875" customWidth="1"/>
-    <col min="6" max="6" width="16.81640625" customWidth="1"/>
-    <col min="8" max="8" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="25" customWidth="1"/>
-    <col min="16" max="16" width="17.7265625" customWidth="1"/>
-    <col min="17" max="17" width="19.81640625" customWidth="1"/>
-    <col min="18" max="18" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.81640625" customWidth="1"/>
-    <col min="21" max="21" width="15.453125" customWidth="1"/>
-    <col min="22" max="22" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.1796875" customWidth="1"/>
-    <col min="26" max="26" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.26953125" customWidth="1"/>
-    <col min="28" max="29" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.81640625" customWidth="1"/>
-    <col min="31" max="31" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.1796875" customWidth="1"/>
-    <col min="33" max="33" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="37" max="38" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="15.81640625" customWidth="1"/>
+    <col min="16" max="16" width="17.7109375" customWidth="1"/>
+    <col min="17" max="17" width="19.85546875" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.85546875" customWidth="1"/>
+    <col min="21" max="21" width="15.42578125" customWidth="1"/>
+    <col min="22" max="22" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.140625" customWidth="1"/>
+    <col min="26" max="26" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.28515625" customWidth="1"/>
+    <col min="28" max="29" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.85546875" customWidth="1"/>
+    <col min="31" max="31" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.140625" customWidth="1"/>
+    <col min="33" max="33" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="37" max="38" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="63" t="s">
+    <row r="1" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="64"/>
-      <c r="S1" s="64"/>
-      <c r="T1" s="64"/>
-      <c r="U1" s="64"/>
-      <c r="V1" s="64"/>
-      <c r="W1" s="64"/>
-      <c r="X1" s="64"/>
-      <c r="Y1" s="64"/>
-    </row>
-    <row r="2" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="65" t="s">
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
+      <c r="S1" s="57"/>
+      <c r="T1" s="57"/>
+      <c r="U1" s="57"/>
+      <c r="V1" s="57"/>
+      <c r="W1" s="57"/>
+      <c r="X1" s="57"/>
+      <c r="Y1" s="57"/>
+    </row>
+    <row r="2" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64"/>
-      <c r="P2" s="64"/>
-      <c r="Q2" s="64"/>
-      <c r="R2" s="64"/>
-      <c r="S2" s="64"/>
-      <c r="T2" s="64"/>
-      <c r="U2" s="64"/>
-      <c r="V2" s="64"/>
-      <c r="W2" s="64"/>
-      <c r="X2" s="64"/>
-      <c r="Y2" s="64"/>
-    </row>
-    <row r="3" spans="1:25" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="65" t="s">
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="57"/>
+      <c r="S2" s="57"/>
+      <c r="T2" s="57"/>
+      <c r="U2" s="57"/>
+      <c r="V2" s="57"/>
+      <c r="W2" s="57"/>
+      <c r="X2" s="57"/>
+      <c r="Y2" s="57"/>
+    </row>
+    <row r="3" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="58" t="s">
         <v>97</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="64"/>
-      <c r="M3" s="64"/>
-      <c r="N3" s="64"/>
-      <c r="O3" s="64"/>
-      <c r="P3" s="64"/>
-      <c r="Q3" s="64"/>
-      <c r="R3" s="64"/>
-      <c r="S3" s="64"/>
-      <c r="T3" s="64"/>
-      <c r="U3" s="64"/>
-      <c r="V3" s="64"/>
-      <c r="W3" s="64"/>
-      <c r="X3" s="64"/>
-      <c r="Y3" s="64"/>
-    </row>
-    <row r="4" spans="1:25" s="66" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="57"/>
+      <c r="R3" s="57"/>
+      <c r="S3" s="57"/>
+      <c r="T3" s="57"/>
+      <c r="U3" s="57"/>
+      <c r="V3" s="57"/>
+      <c r="W3" s="57"/>
+      <c r="X3" s="57"/>
+      <c r="Y3" s="57"/>
+    </row>
+    <row r="4" spans="1:25" s="59" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="96" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="67"/>
-    </row>
-    <row r="5" spans="1:25" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="69"/>
+      <c r="C4" s="97"/>
+    </row>
+    <row r="5" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="60"/>
       <c r="B5" s="54" t="s">
         <v>0</v>
       </c>
@@ -6599,7 +6233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
@@ -6610,7 +6244,7 @@
         <v>417311</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="33.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:25" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
@@ -6621,7 +6255,7 @@
         <v>361594</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>17</v>
       </c>
@@ -6632,7 +6266,7 @@
         <v>329333</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>18</v>
       </c>
@@ -6643,7 +6277,7 @@
         <v>296947</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>19</v>
       </c>
@@ -6654,7 +6288,7 @@
         <v>273204</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>20</v>
       </c>
@@ -6665,7 +6299,7 @@
         <v>249396</v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>21</v>
       </c>
@@ -6676,7 +6310,7 @@
         <v>211839</v>
       </c>
     </row>
-    <row r="13" spans="1:25" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>22</v>
       </c>
@@ -6687,7 +6321,7 @@
         <v>176470</v>
       </c>
     </row>
-    <row r="14" spans="1:25" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>24</v>
       </c>
@@ -6698,7 +6332,7 @@
         <v>143351</v>
       </c>
     </row>
-    <row r="15" spans="1:25" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>25</v>
       </c>
@@ -6709,7 +6343,7 @@
         <v>123441</v>
       </c>
     </row>
-    <row r="16" spans="1:25" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>26</v>
       </c>
@@ -6720,7 +6354,7 @@
         <v>98355</v>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
         <v>27</v>
       </c>
@@ -6731,7 +6365,7 @@
         <v>82330</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
         <v>49</v>
       </c>
@@ -6744,7 +6378,7 @@
         <v>57671.85534591195</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="21" t="s">
         <v>50</v>
       </c>
@@ -6757,7 +6391,7 @@
         <v>44482.861635220121</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>51</v>
       </c>
@@ -6770,7 +6404,7 @@
         <v>33878.773584905655</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>52</v>
       </c>
@@ -6783,7 +6417,7 @@
         <v>22783.176100628931</v>
       </c>
     </row>
-    <row r="22" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="26" t="s">
         <v>28</v>
       </c>
@@ -6801,11 +6435,11 @@
       </c>
       <c r="X22" s="17"/>
     </row>
-    <row r="23" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
     </row>
-    <row r="24" spans="1:24" ht="29" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="27" t="s">
         <v>59</v>
       </c>
@@ -6818,19 +6452,19 @@
         <v>6.3660571774707435</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="F26" s="43"/>
     </row>
-    <row r="27" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="71" t="s">
+      <c r="B27" s="85" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="72"/>
-    </row>
-    <row r="28" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="C27" s="98"/>
+    </row>
+    <row r="28" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="12"/>
       <c r="B28" s="52" t="s">
         <v>0</v>
@@ -6840,7 +6474,7 @@
       </c>
       <c r="F28" s="20"/>
     </row>
-    <row r="29" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>11</v>
       </c>
@@ -6852,7 +6486,7 @@
         <v>417311</v>
       </c>
     </row>
-    <row r="30" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>14</v>
       </c>
@@ -6863,7 +6497,7 @@
         <v>361594</v>
       </c>
     </row>
-    <row r="31" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>17</v>
       </c>
@@ -6875,7 +6509,7 @@
       </c>
       <c r="L31" s="11"/>
     </row>
-    <row r="32" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>18</v>
       </c>
@@ -6886,7 +6520,7 @@
         <v>296947</v>
       </c>
     </row>
-    <row r="33" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>19</v>
       </c>
@@ -6897,7 +6531,7 @@
         <v>273204</v>
       </c>
     </row>
-    <row r="34" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>20</v>
       </c>
@@ -6908,7 +6542,7 @@
         <v>249396</v>
       </c>
     </row>
-    <row r="35" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>21</v>
       </c>
@@ -6919,7 +6553,7 @@
         <v>211839</v>
       </c>
     </row>
-    <row r="36" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>22</v>
       </c>
@@ -6939,7 +6573,7 @@
       <c r="AE36" s="9"/>
       <c r="AF36" s="17"/>
     </row>
-    <row r="37" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>24</v>
       </c>
@@ -6958,7 +6592,7 @@
       <c r="AD37" s="18"/>
       <c r="AE37" s="18"/>
     </row>
-    <row r="38" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>25</v>
       </c>
@@ -6977,7 +6611,7 @@
       <c r="AD38" s="34"/>
       <c r="AE38" s="34"/>
     </row>
-    <row r="39" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>26</v>
       </c>
@@ -6996,7 +6630,7 @@
       <c r="AD39" s="35"/>
       <c r="AE39" s="35"/>
     </row>
-    <row r="40" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>27</v>
       </c>
@@ -7015,14 +6649,14 @@
       <c r="AD40" s="35"/>
       <c r="AE40" s="35"/>
     </row>
-    <row r="41" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="B41" s="70">
+      <c r="B41" s="61">
         <v>-50094.736842105267</v>
       </c>
-      <c r="C41" s="70">
+      <c r="C41" s="61">
         <f>366793/6.36</f>
         <v>57671.85534591195</v>
       </c>
@@ -7035,14 +6669,14 @@
       <c r="AD41" s="35"/>
       <c r="AE41" s="35"/>
     </row>
-    <row r="42" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="B42" s="70">
+      <c r="B42" s="61">
         <v>-35803.827751196171</v>
       </c>
-      <c r="C42" s="70">
+      <c r="C42" s="61">
         <f>282911/6.36</f>
         <v>44482.861635220121</v>
       </c>
@@ -7055,14 +6689,14 @@
       <c r="AD42" s="36"/>
       <c r="AE42" s="36"/>
     </row>
-    <row r="43" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="B43" s="70">
+      <c r="B43" s="61">
         <v>-24102.551834130783</v>
       </c>
-      <c r="C43" s="70">
+      <c r="C43" s="61">
         <f>215469/6.36</f>
         <v>33878.773584905655</v>
       </c>
@@ -7075,14 +6709,14 @@
       <c r="AD43" s="36"/>
       <c r="AE43" s="36"/>
     </row>
-    <row r="44" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="B44" s="70">
+      <c r="B44" s="61">
         <v>-14240.510366826158</v>
       </c>
-      <c r="C44" s="70">
+      <c r="C44" s="61">
         <f>144901/6.36</f>
         <v>22783.176100628931</v>
       </c>
@@ -7095,7 +6729,7 @@
       <c r="AD44" s="36"/>
       <c r="AE44" s="36"/>
     </row>
-    <row r="45" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="X45" s="36"/>
       <c r="Y45" s="36"/>
       <c r="Z45" s="36"/>
@@ -7105,7 +6739,7 @@
       <c r="AD45" s="36"/>
       <c r="AE45" s="36"/>
     </row>
-    <row r="46" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="X46" s="36"/>
       <c r="Y46" s="36"/>
       <c r="Z46" s="36"/>
@@ -7115,7 +6749,7 @@
       <c r="AD46" s="36"/>
       <c r="AE46" s="36"/>
     </row>
-    <row r="47" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="X47" s="36"/>
       <c r="Y47" s="36"/>
       <c r="Z47" s="36"/>
@@ -7125,7 +6759,7 @@
       <c r="AD47" s="36"/>
       <c r="AE47" s="36"/>
     </row>
-    <row r="48" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="X48" s="36"/>
       <c r="Y48" s="36"/>
       <c r="Z48" s="36"/>
@@ -7135,7 +6769,7 @@
       <c r="AD48" s="36"/>
       <c r="AE48" s="36"/>
     </row>
-    <row r="49" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="X49" s="36"/>
       <c r="Y49" s="36"/>
       <c r="Z49" s="36"/>
@@ -7145,32 +6779,32 @@
       <c r="AD49" s="36"/>
       <c r="AE49" s="36"/>
     </row>
-    <row r="50" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A50" s="63" t="s">
+    <row r="50" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="B50" s="64"/>
-      <c r="C50" s="64"/>
-      <c r="D50" s="64"/>
-      <c r="E50" s="64"/>
-      <c r="F50" s="64"/>
-      <c r="G50" s="64"/>
-      <c r="H50" s="64"/>
-      <c r="I50" s="64"/>
-      <c r="J50" s="64"/>
-      <c r="K50" s="64"/>
-      <c r="L50" s="64"/>
-      <c r="M50" s="64"/>
-      <c r="N50" s="64"/>
-      <c r="O50" s="64"/>
-      <c r="P50" s="64"/>
-      <c r="Q50" s="64"/>
-      <c r="R50" s="64"/>
-      <c r="S50" s="64"/>
-      <c r="T50" s="64"/>
-      <c r="U50" s="64"/>
-      <c r="V50" s="64"/>
-      <c r="W50" s="64"/>
+      <c r="B50" s="57"/>
+      <c r="C50" s="57"/>
+      <c r="D50" s="57"/>
+      <c r="E50" s="57"/>
+      <c r="F50" s="57"/>
+      <c r="G50" s="57"/>
+      <c r="H50" s="57"/>
+      <c r="I50" s="57"/>
+      <c r="J50" s="57"/>
+      <c r="K50" s="57"/>
+      <c r="L50" s="57"/>
+      <c r="M50" s="57"/>
+      <c r="N50" s="57"/>
+      <c r="O50" s="57"/>
+      <c r="P50" s="57"/>
+      <c r="Q50" s="57"/>
+      <c r="R50" s="57"/>
+      <c r="S50" s="57"/>
+      <c r="T50" s="57"/>
+      <c r="U50" s="57"/>
+      <c r="V50" s="57"/>
+      <c r="W50" s="57"/>
       <c r="X50" s="36"/>
       <c r="Y50" s="36"/>
       <c r="Z50" s="36"/>
@@ -7180,32 +6814,32 @@
       <c r="AD50" s="36"/>
       <c r="AE50" s="36"/>
     </row>
-    <row r="51" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A51" s="65" t="s">
+    <row r="51" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="B51" s="64"/>
-      <c r="C51" s="64"/>
-      <c r="D51" s="64"/>
-      <c r="E51" s="64"/>
-      <c r="F51" s="64"/>
-      <c r="G51" s="64"/>
-      <c r="H51" s="64"/>
-      <c r="I51" s="64"/>
-      <c r="J51" s="64"/>
-      <c r="K51" s="64"/>
-      <c r="L51" s="64"/>
-      <c r="M51" s="64"/>
-      <c r="N51" s="64"/>
-      <c r="O51" s="64"/>
-      <c r="P51" s="64"/>
-      <c r="Q51" s="64"/>
-      <c r="R51" s="64"/>
-      <c r="S51" s="64"/>
-      <c r="T51" s="64"/>
-      <c r="U51" s="64"/>
-      <c r="V51" s="64"/>
-      <c r="W51" s="64"/>
+      <c r="B51" s="57"/>
+      <c r="C51" s="57"/>
+      <c r="D51" s="57"/>
+      <c r="E51" s="57"/>
+      <c r="F51" s="57"/>
+      <c r="G51" s="57"/>
+      <c r="H51" s="57"/>
+      <c r="I51" s="57"/>
+      <c r="J51" s="57"/>
+      <c r="K51" s="57"/>
+      <c r="L51" s="57"/>
+      <c r="M51" s="57"/>
+      <c r="N51" s="57"/>
+      <c r="O51" s="57"/>
+      <c r="P51" s="57"/>
+      <c r="Q51" s="57"/>
+      <c r="R51" s="57"/>
+      <c r="S51" s="57"/>
+      <c r="T51" s="57"/>
+      <c r="U51" s="57"/>
+      <c r="V51" s="57"/>
+      <c r="W51" s="57"/>
       <c r="X51" s="36"/>
       <c r="Y51" s="36"/>
       <c r="Z51" s="36"/>
@@ -7215,20 +6849,20 @@
       <c r="AD51" s="36"/>
       <c r="AE51" s="36"/>
     </row>
-    <row r="52" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A52" s="58" t="s">
+    <row r="52" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="B52" s="58" t="s">
+      <c r="B52" s="102" t="s">
         <v>67</v>
       </c>
-      <c r="C52" s="58"/>
-      <c r="D52" s="58"/>
-      <c r="E52" s="58" t="s">
+      <c r="C52" s="102"/>
+      <c r="D52" s="102"/>
+      <c r="E52" s="102" t="s">
         <v>68</v>
       </c>
-      <c r="F52" s="58"/>
-      <c r="G52" s="58"/>
+      <c r="F52" s="102"/>
+      <c r="G52" s="102"/>
       <c r="X52" s="34"/>
       <c r="Y52" s="34"/>
       <c r="Z52" s="34"/>
@@ -7238,8 +6872,8 @@
       <c r="AD52" s="34"/>
       <c r="AE52" s="34"/>
     </row>
-    <row r="53" spans="1:31" ht="30" x14ac:dyDescent="0.35">
-      <c r="A53" s="58"/>
+    <row r="53" spans="1:31" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A53" s="102"/>
       <c r="B53" s="52" t="s">
         <v>6</v>
       </c>
@@ -7267,7 +6901,7 @@
       <c r="AD53" s="37"/>
       <c r="AE53" s="37"/>
     </row>
-    <row r="54" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
         <v>11</v>
       </c>
@@ -7291,7 +6925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
         <v>14</v>
       </c>
@@ -7315,7 +6949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
         <v>17</v>
       </c>
@@ -7340,7 +6974,7 @@
         <v>5.0000000000000183E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
         <v>18</v>
       </c>
@@ -7363,7 +6997,7 @@
         <v>2.4213075060532689E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
         <v>19</v>
       </c>
@@ -7386,7 +7020,7 @@
         <v>1.6393442622950817E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:31" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
         <v>20</v>
       </c>
@@ -7410,7 +7044,7 @@
       </c>
       <c r="O59" s="16"/>
     </row>
-    <row r="60" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
         <v>23</v>
       </c>
@@ -7434,7 +7068,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
         <v>22</v>
       </c>
@@ -7457,7 +7091,7 @@
         <v>1.1547344110854503E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
         <v>24</v>
       </c>
@@ -7482,7 +7116,7 @@
         <v>9.9999999999988987E-5</v>
       </c>
     </row>
-    <row r="63" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
         <v>25</v>
       </c>
@@ -7506,7 +7140,7 @@
         <v>1.4367816091954023E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
         <v>26</v>
       </c>
@@ -7530,7 +7164,7 @@
         <v>1.4367816091954023E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
         <v>27</v>
       </c>
@@ -7554,7 +7188,7 @@
         <v>1.4367816091954023E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="21" t="s">
         <v>49</v>
       </c>
@@ -7578,7 +7212,7 @@
         <v>1.4367816091954023E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="21" t="s">
         <v>50</v>
       </c>
@@ -7602,7 +7236,7 @@
         <v>1.4367816091954023E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="21" t="s">
         <v>51</v>
       </c>
@@ -7626,7 +7260,7 @@
         <v>1.4367816091954023E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="21" t="s">
         <v>52</v>
       </c>
@@ -7650,7 +7284,7 @@
         <v>1.4367816091954023E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A71" s="43" t="s">
         <v>60</v>
       </c>
@@ -7679,7 +7313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A72" s="43" t="s">
         <v>61</v>
       </c>
@@ -7688,112 +7322,112 @@
         <v>0.83084071366534329</v>
       </c>
     </row>
-    <row r="78" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A78" s="63" t="s">
+    <row r="78" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A78" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="B78" s="64"/>
-      <c r="C78" s="64"/>
-      <c r="D78" s="64"/>
-      <c r="E78" s="64"/>
-      <c r="F78" s="64"/>
-      <c r="G78" s="64"/>
-      <c r="H78" s="64"/>
-      <c r="I78" s="64"/>
-      <c r="J78" s="64"/>
-      <c r="K78" s="64"/>
-      <c r="L78" s="64"/>
-      <c r="M78" s="64"/>
-      <c r="N78" s="64"/>
-      <c r="O78" s="64"/>
-      <c r="P78" s="64"/>
-      <c r="Q78" s="64"/>
-      <c r="R78" s="64"/>
-      <c r="S78" s="64"/>
-      <c r="T78" s="64"/>
-      <c r="U78" s="64"/>
-      <c r="V78" s="64"/>
-      <c r="W78" s="64"/>
-      <c r="X78" s="64"/>
-    </row>
-    <row r="79" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A79" s="65" t="s">
+      <c r="B78" s="57"/>
+      <c r="C78" s="57"/>
+      <c r="D78" s="57"/>
+      <c r="E78" s="57"/>
+      <c r="F78" s="57"/>
+      <c r="G78" s="57"/>
+      <c r="H78" s="57"/>
+      <c r="I78" s="57"/>
+      <c r="J78" s="57"/>
+      <c r="K78" s="57"/>
+      <c r="L78" s="57"/>
+      <c r="M78" s="57"/>
+      <c r="N78" s="57"/>
+      <c r="O78" s="57"/>
+      <c r="P78" s="57"/>
+      <c r="Q78" s="57"/>
+      <c r="R78" s="57"/>
+      <c r="S78" s="57"/>
+      <c r="T78" s="57"/>
+      <c r="U78" s="57"/>
+      <c r="V78" s="57"/>
+      <c r="W78" s="57"/>
+      <c r="X78" s="57"/>
+    </row>
+    <row r="79" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A79" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="B79" s="64"/>
-      <c r="C79" s="64"/>
-      <c r="D79" s="64"/>
-      <c r="E79" s="64"/>
-      <c r="F79" s="64"/>
-      <c r="G79" s="64"/>
-      <c r="H79" s="64"/>
-      <c r="I79" s="64"/>
-      <c r="J79" s="64"/>
-      <c r="K79" s="64"/>
-      <c r="L79" s="64"/>
-      <c r="M79" s="64"/>
-      <c r="N79" s="64"/>
-      <c r="O79" s="64"/>
-      <c r="P79" s="64"/>
-      <c r="Q79" s="64"/>
-      <c r="R79" s="64"/>
-      <c r="S79" s="64"/>
-      <c r="T79" s="64"/>
-      <c r="U79" s="64"/>
-      <c r="V79" s="64"/>
-      <c r="W79" s="64"/>
-      <c r="X79" s="64"/>
-    </row>
-    <row r="80" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A80" s="65" t="s">
+      <c r="B79" s="57"/>
+      <c r="C79" s="57"/>
+      <c r="D79" s="57"/>
+      <c r="E79" s="57"/>
+      <c r="F79" s="57"/>
+      <c r="G79" s="57"/>
+      <c r="H79" s="57"/>
+      <c r="I79" s="57"/>
+      <c r="J79" s="57"/>
+      <c r="K79" s="57"/>
+      <c r="L79" s="57"/>
+      <c r="M79" s="57"/>
+      <c r="N79" s="57"/>
+      <c r="O79" s="57"/>
+      <c r="P79" s="57"/>
+      <c r="Q79" s="57"/>
+      <c r="R79" s="57"/>
+      <c r="S79" s="57"/>
+      <c r="T79" s="57"/>
+      <c r="U79" s="57"/>
+      <c r="V79" s="57"/>
+      <c r="W79" s="57"/>
+      <c r="X79" s="57"/>
+    </row>
+    <row r="80" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="B80" s="64"/>
-      <c r="C80" s="64"/>
-      <c r="D80" s="64"/>
-      <c r="E80" s="64"/>
-      <c r="F80" s="64"/>
-      <c r="G80" s="64"/>
-      <c r="H80" s="64"/>
-      <c r="I80" s="64"/>
-      <c r="J80" s="64"/>
-      <c r="K80" s="64"/>
-      <c r="L80" s="64"/>
-      <c r="M80" s="64"/>
-      <c r="N80" s="64"/>
-      <c r="O80" s="64"/>
-      <c r="P80" s="64"/>
-      <c r="Q80" s="64"/>
-      <c r="R80" s="64"/>
-      <c r="S80" s="64"/>
-      <c r="T80" s="64"/>
-      <c r="U80" s="64"/>
-      <c r="V80" s="64"/>
-      <c r="W80" s="64"/>
-      <c r="X80" s="64"/>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A81" s="59" t="s">
+      <c r="B80" s="57"/>
+      <c r="C80" s="57"/>
+      <c r="D80" s="57"/>
+      <c r="E80" s="57"/>
+      <c r="F80" s="57"/>
+      <c r="G80" s="57"/>
+      <c r="H80" s="57"/>
+      <c r="I80" s="57"/>
+      <c r="J80" s="57"/>
+      <c r="K80" s="57"/>
+      <c r="L80" s="57"/>
+      <c r="M80" s="57"/>
+      <c r="N80" s="57"/>
+      <c r="O80" s="57"/>
+      <c r="P80" s="57"/>
+      <c r="Q80" s="57"/>
+      <c r="R80" s="57"/>
+      <c r="S80" s="57"/>
+      <c r="T80" s="57"/>
+      <c r="U80" s="57"/>
+      <c r="V80" s="57"/>
+      <c r="W80" s="57"/>
+      <c r="X80" s="57"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="B81" s="55" t="s">
+      <c r="B81" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="C81" s="55" t="s">
+      <c r="C81" s="99" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A82" s="60"/>
-      <c r="B82" s="57"/>
-      <c r="C82" s="57"/>
-    </row>
-    <row r="83" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A83" s="61"/>
-      <c r="B83" s="56"/>
-      <c r="C83" s="56"/>
-    </row>
-    <row r="84" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="88"/>
+      <c r="B82" s="100"/>
+      <c r="C82" s="100"/>
+    </row>
+    <row r="83" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="89"/>
+      <c r="B83" s="101"/>
+      <c r="C83" s="101"/>
+    </row>
+    <row r="84" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
         <v>11</v>
       </c>
@@ -7804,7 +7438,7 @@
         <v>8.8057230624727749E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
         <v>14</v>
       </c>
@@ -7815,7 +7449,7 @@
         <v>5.2457282047517039E-4</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
         <v>17</v>
       </c>
@@ -7826,7 +7460,7 @@
         <v>4.8877879149405545E-4</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
         <v>18</v>
       </c>
@@ -7837,7 +7471,7 @@
         <v>9.035280767087482E-4</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
         <v>19</v>
       </c>
@@ -7848,7 +7482,7 @@
         <v>1.6915946235478447E-3</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
         <v>20</v>
       </c>
@@ -7859,7 +7493,7 @@
         <v>2.0719480819543991E-3</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
         <v>23</v>
       </c>
@@ -7870,7 +7504,7 @@
         <v>2.4601074470881829E-3</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
         <v>22</v>
       </c>
@@ -7881,7 +7515,7 @@
         <v>2.9925533571735037E-3</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="s">
         <v>24</v>
       </c>
@@ -7892,7 +7526,7 @@
         <v>3.9413474052092329E-3</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
         <v>25</v>
       </c>
@@ -7903,7 +7537,7 @@
         <v>5.3575989334735206E-3</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
         <v>26</v>
       </c>
@@ -7914,7 +7548,7 @@
         <v>7.5410818923787939E-3</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
         <v>27</v>
       </c>
@@ -7925,7 +7559,7 @@
         <v>1.0540154917424747E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="21" t="s">
         <v>49</v>
       </c>
@@ -7936,7 +7570,7 @@
         <v>1.5759592316689931E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="21" t="s">
         <v>50</v>
       </c>
@@ -7947,7 +7581,7 @@
         <v>2.2837523063216215E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="21" t="s">
         <v>51</v>
       </c>
@@ -7958,7 +7592,7 @@
         <v>3.3336893194863555E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="21" t="s">
         <v>52</v>
       </c>
@@ -7969,133 +7603,133 @@
         <v>6.1722846856347699E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A105" s="63" t="s">
+    <row r="105" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A105" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="B105" s="64"/>
-      <c r="C105" s="64"/>
-      <c r="D105" s="64"/>
-      <c r="E105" s="64"/>
-      <c r="F105" s="64"/>
-      <c r="G105" s="64"/>
-      <c r="H105" s="64"/>
-      <c r="I105" s="64"/>
-      <c r="J105" s="64"/>
-      <c r="K105" s="64"/>
-      <c r="L105" s="64"/>
-      <c r="M105" s="64"/>
-      <c r="N105" s="64"/>
-      <c r="O105" s="64"/>
-      <c r="P105" s="64"/>
-      <c r="Q105" s="64"/>
-      <c r="R105" s="64"/>
-      <c r="S105" s="64"/>
-      <c r="T105" s="64"/>
-      <c r="U105" s="64"/>
-      <c r="V105" s="64"/>
-      <c r="W105" s="64"/>
-      <c r="X105" s="64"/>
-    </row>
-    <row r="106" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A106" s="65" t="s">
+      <c r="B105" s="57"/>
+      <c r="C105" s="57"/>
+      <c r="D105" s="57"/>
+      <c r="E105" s="57"/>
+      <c r="F105" s="57"/>
+      <c r="G105" s="57"/>
+      <c r="H105" s="57"/>
+      <c r="I105" s="57"/>
+      <c r="J105" s="57"/>
+      <c r="K105" s="57"/>
+      <c r="L105" s="57"/>
+      <c r="M105" s="57"/>
+      <c r="N105" s="57"/>
+      <c r="O105" s="57"/>
+      <c r="P105" s="57"/>
+      <c r="Q105" s="57"/>
+      <c r="R105" s="57"/>
+      <c r="S105" s="57"/>
+      <c r="T105" s="57"/>
+      <c r="U105" s="57"/>
+      <c r="V105" s="57"/>
+      <c r="W105" s="57"/>
+      <c r="X105" s="57"/>
+    </row>
+    <row r="106" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A106" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="B106" s="64"/>
-      <c r="C106" s="64"/>
-      <c r="D106" s="64"/>
-      <c r="E106" s="64"/>
-      <c r="F106" s="64"/>
-      <c r="G106" s="64"/>
-      <c r="H106" s="64"/>
-      <c r="I106" s="64"/>
-      <c r="J106" s="64"/>
-      <c r="K106" s="64"/>
-      <c r="L106" s="64"/>
-      <c r="M106" s="64"/>
-      <c r="N106" s="64"/>
-      <c r="O106" s="64"/>
-      <c r="P106" s="64"/>
-      <c r="Q106" s="64"/>
-      <c r="R106" s="64"/>
-      <c r="S106" s="64"/>
-      <c r="T106" s="64"/>
-      <c r="U106" s="64"/>
-      <c r="V106" s="64"/>
-      <c r="W106" s="64"/>
-      <c r="X106" s="64"/>
-    </row>
-    <row r="107" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A107" s="65" t="s">
+      <c r="B106" s="57"/>
+      <c r="C106" s="57"/>
+      <c r="D106" s="57"/>
+      <c r="E106" s="57"/>
+      <c r="F106" s="57"/>
+      <c r="G106" s="57"/>
+      <c r="H106" s="57"/>
+      <c r="I106" s="57"/>
+      <c r="J106" s="57"/>
+      <c r="K106" s="57"/>
+      <c r="L106" s="57"/>
+      <c r="M106" s="57"/>
+      <c r="N106" s="57"/>
+      <c r="O106" s="57"/>
+      <c r="P106" s="57"/>
+      <c r="Q106" s="57"/>
+      <c r="R106" s="57"/>
+      <c r="S106" s="57"/>
+      <c r="T106" s="57"/>
+      <c r="U106" s="57"/>
+      <c r="V106" s="57"/>
+      <c r="W106" s="57"/>
+      <c r="X106" s="57"/>
+    </row>
+    <row r="107" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A107" s="58" t="s">
         <v>75</v>
       </c>
-      <c r="B107" s="64"/>
-      <c r="C107" s="64"/>
-      <c r="D107" s="64"/>
-      <c r="E107" s="64"/>
-      <c r="F107" s="64"/>
-      <c r="G107" s="64"/>
-      <c r="H107" s="64"/>
-      <c r="I107" s="64"/>
-      <c r="J107" s="64"/>
-      <c r="K107" s="64"/>
-      <c r="L107" s="64"/>
-      <c r="M107" s="64"/>
-      <c r="N107" s="64"/>
-      <c r="O107" s="64"/>
-      <c r="P107" s="64"/>
-      <c r="Q107" s="64"/>
-      <c r="R107" s="64"/>
-      <c r="S107" s="64"/>
-      <c r="T107" s="64"/>
-      <c r="U107" s="64"/>
-      <c r="V107" s="64"/>
-      <c r="W107" s="64"/>
-      <c r="X107" s="64"/>
-    </row>
-    <row r="108" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A108" s="63" t="s">
+      <c r="B107" s="57"/>
+      <c r="C107" s="57"/>
+      <c r="D107" s="57"/>
+      <c r="E107" s="57"/>
+      <c r="F107" s="57"/>
+      <c r="G107" s="57"/>
+      <c r="H107" s="57"/>
+      <c r="I107" s="57"/>
+      <c r="J107" s="57"/>
+      <c r="K107" s="57"/>
+      <c r="L107" s="57"/>
+      <c r="M107" s="57"/>
+      <c r="N107" s="57"/>
+      <c r="O107" s="57"/>
+      <c r="P107" s="57"/>
+      <c r="Q107" s="57"/>
+      <c r="R107" s="57"/>
+      <c r="S107" s="57"/>
+      <c r="T107" s="57"/>
+      <c r="U107" s="57"/>
+      <c r="V107" s="57"/>
+      <c r="W107" s="57"/>
+      <c r="X107" s="57"/>
+    </row>
+    <row r="108" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="B108" s="64"/>
-      <c r="C108" s="64"/>
-      <c r="D108" s="64"/>
-      <c r="E108" s="64"/>
-      <c r="F108" s="64"/>
-      <c r="G108" s="64"/>
-      <c r="H108" s="64"/>
-      <c r="I108" s="64"/>
-      <c r="J108" s="64"/>
-      <c r="K108" s="64"/>
-      <c r="L108" s="64"/>
-      <c r="M108" s="64"/>
-      <c r="N108" s="64"/>
-      <c r="O108" s="64"/>
-      <c r="P108" s="64"/>
-      <c r="Q108" s="64"/>
-      <c r="R108" s="64"/>
-      <c r="S108" s="64"/>
-      <c r="T108" s="64"/>
-      <c r="U108" s="64"/>
-      <c r="V108" s="64"/>
-      <c r="W108" s="64"/>
-      <c r="X108" s="64"/>
-    </row>
-    <row r="109" spans="1:24" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A109" s="59" t="s">
+      <c r="B108" s="57"/>
+      <c r="C108" s="57"/>
+      <c r="D108" s="57"/>
+      <c r="E108" s="57"/>
+      <c r="F108" s="57"/>
+      <c r="G108" s="57"/>
+      <c r="H108" s="57"/>
+      <c r="I108" s="57"/>
+      <c r="J108" s="57"/>
+      <c r="K108" s="57"/>
+      <c r="L108" s="57"/>
+      <c r="M108" s="57"/>
+      <c r="N108" s="57"/>
+      <c r="O108" s="57"/>
+      <c r="P108" s="57"/>
+      <c r="Q108" s="57"/>
+      <c r="R108" s="57"/>
+      <c r="S108" s="57"/>
+      <c r="T108" s="57"/>
+      <c r="U108" s="57"/>
+      <c r="V108" s="57"/>
+      <c r="W108" s="57"/>
+      <c r="X108" s="57"/>
+    </row>
+    <row r="109" spans="1:24" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="B109" s="73" t="s">
+      <c r="B109" s="90" t="s">
         <v>85</v>
       </c>
-      <c r="C109" s="74"/>
-      <c r="D109" s="74"/>
-      <c r="E109" s="74"/>
-      <c r="F109" s="74"/>
-      <c r="G109" s="75"/>
-    </row>
-    <row r="110" spans="1:24" ht="46" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="60"/>
+      <c r="C109" s="91"/>
+      <c r="D109" s="91"/>
+      <c r="E109" s="91"/>
+      <c r="F109" s="91"/>
+      <c r="G109" s="92"/>
+    </row>
+    <row r="110" spans="1:24" ht="45.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="88"/>
       <c r="B110" s="51" t="s">
         <v>83</v>
       </c>
@@ -8115,8 +7749,8 @@
         <v>81</v>
       </c>
     </row>
-    <row r="111" spans="1:24" ht="47" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A111" s="61"/>
+    <row r="111" spans="1:24" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="89"/>
       <c r="B111" s="53" t="s">
         <v>76</v>
       </c>
@@ -8136,7 +7770,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="112" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="4" t="s">
         <v>11</v>
       </c>
@@ -8159,7 +7793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="4" t="s">
         <v>14</v>
       </c>
@@ -8182,7 +7816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="4" t="s">
         <v>17</v>
       </c>
@@ -8204,7 +7838,7 @@
       <c r="G114" s="13">
         <v>0</v>
       </c>
-      <c r="I114" s="100"/>
+      <c r="I114" s="75"/>
       <c r="J114" s="18" t="s">
         <v>33</v>
       </c>
@@ -8221,7 +7855,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="115" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="4" t="s">
         <v>18</v>
       </c>
@@ -8246,28 +7880,28 @@
       <c r="I115" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="J115" s="99">
+      <c r="J115" s="74">
         <f>C115/$B$115</f>
         <v>1</v>
       </c>
-      <c r="K115" s="99">
+      <c r="K115" s="74">
         <f>D115/$B$115</f>
         <v>1</v>
       </c>
-      <c r="L115" s="99">
+      <c r="L115" s="74">
         <f>E115/$B$115</f>
         <v>0.58000000000000007</v>
       </c>
-      <c r="M115" s="99">
+      <c r="M115" s="74">
         <f>F115/$B$115</f>
         <v>0.58000000000000007</v>
       </c>
-      <c r="N115" s="99">
+      <c r="N115" s="74">
         <f>G115/$B$115</f>
         <v>0.41000000000000003</v>
       </c>
     </row>
-    <row r="116" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="4" t="s">
         <v>19</v>
       </c>
@@ -8290,7 +7924,7 @@
         <v>0.11398000000000003</v>
       </c>
     </row>
-    <row r="117" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="4" t="s">
         <v>20</v>
       </c>
@@ -8313,7 +7947,7 @@
         <v>0.11627600000000002</v>
       </c>
     </row>
-    <row r="118" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="4" t="s">
         <v>23</v>
       </c>
@@ -8336,7 +7970,7 @@
         <v>8.6592000000000002E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="4" t="s">
         <v>22</v>
       </c>
@@ -8359,7 +7993,7 @@
         <v>5.5268000000000005E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="4" t="s">
         <v>24</v>
       </c>
@@ -8382,7 +8016,7 @@
         <v>2.2222000000000002E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="4" t="s">
         <v>25</v>
       </c>
@@ -8405,7 +8039,7 @@
         <v>7.2160000000000011E-3</v>
       </c>
     </row>
-    <row r="122" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="4" t="s">
         <v>26</v>
       </c>
@@ -8428,7 +8062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="4" t="s">
         <v>27</v>
       </c>
@@ -8451,7 +8085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="21" t="s">
         <v>49</v>
       </c>
@@ -8474,7 +8108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="21" t="s">
         <v>50</v>
       </c>
@@ -8497,7 +8131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="21" t="s">
         <v>51</v>
       </c>
@@ -8520,7 +8154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="21" t="s">
         <v>52</v>
       </c>
@@ -8543,48 +8177,48 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B128">
-        <f>5*SUM(B115:B121)</f>
+        <f t="shared" ref="B128:G128" si="3">5*SUM(B115:B121)</f>
         <v>5.604000000000001</v>
       </c>
       <c r="C128">
-        <f>5*SUM(C115:C121)</f>
+        <f t="shared" si="3"/>
         <v>5.604000000000001</v>
       </c>
       <c r="D128">
-        <f>5*SUM(D115:D121)</f>
+        <f t="shared" si="3"/>
         <v>5.604000000000001</v>
       </c>
       <c r="E128">
-        <f>5*SUM(E115:E121)</f>
+        <f t="shared" si="3"/>
         <v>3.2503200000000003</v>
       </c>
       <c r="F128">
-        <f>5*SUM(F115:F121)</f>
+        <f t="shared" si="3"/>
         <v>3.2503200000000003</v>
       </c>
       <c r="G128">
-        <f>5*SUM(G115:G121)</f>
+        <f t="shared" si="3"/>
         <v>2.2976400000000003</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="130" spans="1:7" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A130" s="78" t="s">
+    <row r="129" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="130" spans="1:7" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="B130" s="73" t="s">
+      <c r="B130" s="90" t="s">
         <v>87</v>
       </c>
-      <c r="C130" s="74"/>
-      <c r="D130" s="74"/>
-      <c r="E130" s="74"/>
-      <c r="F130" s="74"/>
-      <c r="G130" s="75"/>
-    </row>
-    <row r="131" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A131" s="79"/>
+      <c r="C130" s="91"/>
+      <c r="D130" s="91"/>
+      <c r="E130" s="91"/>
+      <c r="F130" s="91"/>
+      <c r="G130" s="92"/>
+    </row>
+    <row r="131" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="94"/>
       <c r="B131" s="38" t="s">
         <v>86</v>
       </c>
@@ -8604,15 +8238,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="47" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A132" s="80"/>
-      <c r="B132" s="76" t="s">
+    <row r="132" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="95"/>
+      <c r="B132" s="62" t="s">
         <v>76</v>
       </c>
-      <c r="C132" s="77" t="s">
+      <c r="C132" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="D132" s="77" t="s">
+      <c r="D132" s="63" t="s">
         <v>80</v>
       </c>
       <c r="E132" s="42" t="s">
@@ -8625,7 +8259,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="4" t="s">
         <v>11</v>
       </c>
@@ -8648,7 +8282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="4" t="s">
         <v>14</v>
       </c>
@@ -8671,7 +8305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="4" t="s">
         <v>17</v>
       </c>
@@ -8694,7 +8328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="4" t="s">
         <v>18</v>
       </c>
@@ -8717,7 +8351,7 @@
         <v>2.8987000000000002E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="4" t="s">
         <v>19</v>
       </c>
@@ -8740,7 +8374,7 @@
         <v>5.6990000000000013E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="4" t="s">
         <v>20</v>
       </c>
@@ -8763,7 +8397,7 @@
         <v>5.8138000000000009E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="4" t="s">
         <v>23</v>
       </c>
@@ -8786,7 +8420,7 @@
         <v>4.3296000000000001E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="4" t="s">
         <v>22</v>
       </c>
@@ -8809,7 +8443,7 @@
         <v>2.7634000000000002E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="4" t="s">
         <v>24</v>
       </c>
@@ -8832,7 +8466,7 @@
         <v>1.1111000000000001E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="4" t="s">
         <v>25</v>
       </c>
@@ -8855,7 +8489,7 @@
         <v>3.6080000000000005E-3</v>
       </c>
     </row>
-    <row r="143" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="4" t="s">
         <v>26</v>
       </c>
@@ -8878,7 +8512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="4" t="s">
         <v>27</v>
       </c>
@@ -8901,7 +8535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A145" s="21" t="s">
         <v>49</v>
       </c>
@@ -8924,7 +8558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A146" s="21" t="s">
         <v>50</v>
       </c>
@@ -8947,7 +8581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A147" s="21" t="s">
         <v>51</v>
       </c>
@@ -8970,7 +8604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A148" s="21" t="s">
         <v>52</v>
       </c>
@@ -8993,114 +8627,114 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B149">
-        <f>5*SUM(B133:B148)</f>
+        <f t="shared" ref="B149:G149" si="4">5*SUM(B133:B148)</f>
         <v>2.8020000000000005</v>
       </c>
       <c r="C149">
-        <f>5*SUM(C133:C148)</f>
+        <f t="shared" si="4"/>
         <v>2.8020000000000005</v>
       </c>
       <c r="D149">
-        <f>5*SUM(D133:D148)</f>
+        <f t="shared" si="4"/>
         <v>2.8020000000000005</v>
       </c>
       <c r="E149">
-        <f>5*SUM(E133:E148)</f>
+        <f t="shared" si="4"/>
         <v>1.6251600000000002</v>
       </c>
       <c r="F149">
-        <f>5*SUM(F133:F148)</f>
+        <f t="shared" si="4"/>
         <v>1.6251600000000002</v>
       </c>
       <c r="G149">
-        <f>5*SUM(G133:G148)</f>
+        <f t="shared" si="4"/>
         <v>1.1488200000000002</v>
       </c>
     </row>
-    <row r="155" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A155" s="63" t="s">
+    <row r="155" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A155" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="B155" s="64"/>
-      <c r="C155" s="64"/>
-      <c r="D155" s="64"/>
-      <c r="E155" s="64"/>
-      <c r="F155" s="64"/>
-      <c r="G155" s="64"/>
-      <c r="H155" s="64"/>
-      <c r="I155" s="64"/>
-      <c r="J155" s="64"/>
-      <c r="K155" s="64"/>
-      <c r="L155" s="64"/>
-      <c r="M155" s="64"/>
-      <c r="N155" s="64"/>
-      <c r="O155" s="64"/>
-      <c r="P155" s="64"/>
-      <c r="Q155" s="64"/>
-      <c r="R155" s="64"/>
-      <c r="S155" s="64"/>
-      <c r="T155" s="64"/>
-      <c r="U155" s="64"/>
-      <c r="V155" s="64"/>
-      <c r="W155" s="64"/>
-    </row>
-    <row r="156" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A156" s="65" t="s">
+      <c r="B155" s="57"/>
+      <c r="C155" s="57"/>
+      <c r="D155" s="57"/>
+      <c r="E155" s="57"/>
+      <c r="F155" s="57"/>
+      <c r="G155" s="57"/>
+      <c r="H155" s="57"/>
+      <c r="I155" s="57"/>
+      <c r="J155" s="57"/>
+      <c r="K155" s="57"/>
+      <c r="L155" s="57"/>
+      <c r="M155" s="57"/>
+      <c r="N155" s="57"/>
+      <c r="O155" s="57"/>
+      <c r="P155" s="57"/>
+      <c r="Q155" s="57"/>
+      <c r="R155" s="57"/>
+      <c r="S155" s="57"/>
+      <c r="T155" s="57"/>
+      <c r="U155" s="57"/>
+      <c r="V155" s="57"/>
+      <c r="W155" s="57"/>
+    </row>
+    <row r="156" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A156" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="B156" s="64"/>
-      <c r="C156" s="64"/>
-      <c r="D156" s="64"/>
-      <c r="E156" s="64"/>
-      <c r="F156" s="64"/>
-      <c r="G156" s="64"/>
-      <c r="H156" s="64"/>
-      <c r="I156" s="64"/>
-      <c r="J156" s="64"/>
-      <c r="K156" s="64"/>
-      <c r="L156" s="64"/>
-      <c r="M156" s="64"/>
-      <c r="N156" s="64"/>
-      <c r="O156" s="64"/>
-      <c r="P156" s="64"/>
-      <c r="Q156" s="64"/>
-      <c r="R156" s="64"/>
-      <c r="S156" s="64"/>
-      <c r="T156" s="64"/>
-      <c r="U156" s="64"/>
-      <c r="V156" s="64"/>
-      <c r="W156" s="64"/>
-    </row>
-    <row r="157" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A157" s="63" t="s">
+      <c r="B156" s="57"/>
+      <c r="C156" s="57"/>
+      <c r="D156" s="57"/>
+      <c r="E156" s="57"/>
+      <c r="F156" s="57"/>
+      <c r="G156" s="57"/>
+      <c r="H156" s="57"/>
+      <c r="I156" s="57"/>
+      <c r="J156" s="57"/>
+      <c r="K156" s="57"/>
+      <c r="L156" s="57"/>
+      <c r="M156" s="57"/>
+      <c r="N156" s="57"/>
+      <c r="O156" s="57"/>
+      <c r="P156" s="57"/>
+      <c r="Q156" s="57"/>
+      <c r="R156" s="57"/>
+      <c r="S156" s="57"/>
+      <c r="T156" s="57"/>
+      <c r="U156" s="57"/>
+      <c r="V156" s="57"/>
+      <c r="W156" s="57"/>
+    </row>
+    <row r="157" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="56" t="s">
         <v>89</v>
       </c>
-      <c r="B157" s="64"/>
-      <c r="C157" s="64"/>
-      <c r="D157" s="64"/>
-      <c r="E157" s="64"/>
-      <c r="F157" s="64"/>
-      <c r="G157" s="64"/>
-      <c r="H157" s="64"/>
-      <c r="I157" s="64"/>
-      <c r="J157" s="64"/>
-      <c r="K157" s="64"/>
-      <c r="L157" s="64"/>
-      <c r="M157" s="64"/>
-      <c r="N157" s="64"/>
-      <c r="O157" s="64"/>
-      <c r="P157" s="64"/>
-      <c r="Q157" s="64"/>
-      <c r="R157" s="64"/>
-      <c r="S157" s="64"/>
-      <c r="T157" s="64"/>
-      <c r="U157" s="64"/>
-      <c r="V157" s="64"/>
-      <c r="W157" s="64"/>
-    </row>
-    <row r="158" spans="1:23" ht="31" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B157" s="57"/>
+      <c r="C157" s="57"/>
+      <c r="D157" s="57"/>
+      <c r="E157" s="57"/>
+      <c r="F157" s="57"/>
+      <c r="G157" s="57"/>
+      <c r="H157" s="57"/>
+      <c r="I157" s="57"/>
+      <c r="J157" s="57"/>
+      <c r="K157" s="57"/>
+      <c r="L157" s="57"/>
+      <c r="M157" s="57"/>
+      <c r="N157" s="57"/>
+      <c r="O157" s="57"/>
+      <c r="P157" s="57"/>
+      <c r="Q157" s="57"/>
+      <c r="R157" s="57"/>
+      <c r="S157" s="57"/>
+      <c r="T157" s="57"/>
+      <c r="U157" s="57"/>
+      <c r="V157" s="57"/>
+      <c r="W157" s="57"/>
+    </row>
+    <row r="158" spans="1:23" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="3" t="s">
         <v>5</v>
       </c>
@@ -9115,7 +8749,7 @@
       <c r="F158" s="82"/>
       <c r="G158" s="83"/>
     </row>
-    <row r="159" spans="1:23" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:23" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="6"/>
       <c r="B159" s="7" t="s">
         <v>6</v>
@@ -9136,20 +8770,20 @@
         <v>8</v>
       </c>
     </row>
-    <row r="160" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B160" s="44">
-        <f t="shared" ref="B160:G161" si="3">10^-5</f>
+        <f t="shared" ref="B160:G161" si="5">10^-5</f>
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="C160" s="44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="D160" s="44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="E160" s="44">
@@ -9157,44 +8791,44 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="F160" s="44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="G160" s="44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="161" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B161" s="44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="C161" s="44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="D161" s="44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="E161" s="44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="F161" s="44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="G161" s="44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="162" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="4" t="s">
         <v>17</v>
       </c>
@@ -9217,7 +8851,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="163" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="4" t="s">
         <v>18</v>
       </c>
@@ -9240,7 +8874,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="164" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="4" t="s">
         <v>19</v>
       </c>
@@ -9263,7 +8897,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="165" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="4" t="s">
         <v>20</v>
       </c>
@@ -9286,7 +8920,7 @@
         <v>5.333333333333333</v>
       </c>
     </row>
-    <row r="166" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="4" t="s">
         <v>23</v>
       </c>
@@ -9309,7 +8943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="4" t="s">
         <v>22</v>
       </c>
@@ -9332,7 +8966,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="168" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="4" t="s">
         <v>24</v>
       </c>
@@ -9355,7 +8989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="4" t="s">
         <v>25</v>
       </c>
@@ -9378,7 +9012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="4" t="s">
         <v>26</v>
       </c>
@@ -9401,7 +9035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="4" t="s">
         <v>27</v>
       </c>
@@ -9424,7 +9058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="21" t="s">
         <v>49</v>
       </c>
@@ -9447,7 +9081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="21" t="s">
         <v>50</v>
       </c>
@@ -9470,7 +9104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="21" t="s">
         <v>51</v>
       </c>
@@ -9493,7 +9127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="21" t="s">
         <v>52</v>
       </c>
@@ -9516,49 +9150,49 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="180" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A180" s="10"/>
     </row>
-    <row r="182" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A182" s="63" t="s">
+    <row r="182" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A182" s="56" t="s">
         <v>91</v>
       </c>
-      <c r="B182" s="64"/>
-      <c r="C182" s="64"/>
-      <c r="D182" s="64"/>
-      <c r="E182" s="64"/>
-      <c r="F182" s="64"/>
-      <c r="G182" s="64"/>
-      <c r="H182" s="64"/>
-      <c r="I182" s="64"/>
-      <c r="J182" s="64"/>
-      <c r="K182" s="64"/>
-      <c r="L182" s="64"/>
-      <c r="M182" s="64"/>
-      <c r="N182" s="64"/>
-      <c r="O182" s="64"/>
-      <c r="P182" s="64"/>
-      <c r="Q182" s="64"/>
-      <c r="R182" s="64"/>
-      <c r="S182" s="64"/>
-      <c r="T182" s="64"/>
-      <c r="U182" s="64"/>
-      <c r="V182" s="64"/>
-      <c r="W182" s="64"/>
-    </row>
-    <row r="183" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A183" s="85" t="s">
+      <c r="B182" s="57"/>
+      <c r="C182" s="57"/>
+      <c r="D182" s="57"/>
+      <c r="E182" s="57"/>
+      <c r="F182" s="57"/>
+      <c r="G182" s="57"/>
+      <c r="H182" s="57"/>
+      <c r="I182" s="57"/>
+      <c r="J182" s="57"/>
+      <c r="K182" s="57"/>
+      <c r="L182" s="57"/>
+      <c r="M182" s="57"/>
+      <c r="N182" s="57"/>
+      <c r="O182" s="57"/>
+      <c r="P182" s="57"/>
+      <c r="Q182" s="57"/>
+      <c r="R182" s="57"/>
+      <c r="S182" s="57"/>
+      <c r="T182" s="57"/>
+      <c r="U182" s="57"/>
+      <c r="V182" s="57"/>
+      <c r="W182" s="57"/>
+    </row>
+    <row r="183" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A183" s="84" t="s">
         <v>92</v>
       </c>
-      <c r="B183" s="85"/>
-      <c r="C183" s="85"/>
-    </row>
-    <row r="184" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B183" s="84"/>
+      <c r="C183" s="84"/>
+    </row>
+    <row r="184" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
         <v>29</v>
       </c>
@@ -9569,7 +9203,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="185" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="15">
         <v>1985</v>
       </c>
@@ -9580,7 +9214,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="186" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="15">
         <v>1990</v>
       </c>
@@ -9591,7 +9225,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="187" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="15">
         <v>2000</v>
       </c>
@@ -9602,941 +9236,917 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="194" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A194" s="63" t="s">
+    <row r="194" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A194" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="B194" s="64"/>
-      <c r="C194" s="64"/>
-      <c r="D194" s="64"/>
-      <c r="E194" s="64"/>
-      <c r="F194" s="64"/>
-      <c r="G194" s="64"/>
-      <c r="H194" s="64"/>
-      <c r="I194" s="64"/>
-      <c r="J194" s="64"/>
-      <c r="K194" s="64"/>
-      <c r="L194" s="64"/>
-      <c r="M194" s="64"/>
-      <c r="N194" s="64"/>
-      <c r="O194" s="64"/>
-      <c r="P194" s="64"/>
-      <c r="Q194" s="64"/>
-      <c r="R194" s="64"/>
-      <c r="S194" s="64"/>
-      <c r="T194" s="64"/>
-      <c r="U194" s="64"/>
-      <c r="V194" s="64"/>
-      <c r="W194" s="64"/>
-    </row>
-    <row r="195" spans="1:23" s="66" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A195" s="71" t="s">
+      <c r="B194" s="57"/>
+      <c r="C194" s="57"/>
+      <c r="D194" s="57"/>
+      <c r="E194" s="57"/>
+      <c r="F194" s="57"/>
+      <c r="G194" s="57"/>
+      <c r="H194" s="57"/>
+      <c r="I194" s="57"/>
+      <c r="J194" s="57"/>
+      <c r="K194" s="57"/>
+      <c r="L194" s="57"/>
+      <c r="M194" s="57"/>
+      <c r="N194" s="57"/>
+      <c r="O194" s="57"/>
+      <c r="P194" s="57"/>
+      <c r="Q194" s="57"/>
+      <c r="R194" s="57"/>
+      <c r="S194" s="57"/>
+      <c r="T194" s="57"/>
+      <c r="U194" s="57"/>
+      <c r="V194" s="57"/>
+      <c r="W194" s="57"/>
+    </row>
+    <row r="195" spans="1:23" s="59" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A195" s="85" t="s">
         <v>93</v>
       </c>
-      <c r="B195" s="71"/>
-      <c r="C195" s="71"/>
-      <c r="D195" s="71"/>
-      <c r="E195" s="71"/>
-      <c r="F195" s="71"/>
-    </row>
-    <row r="196" spans="1:23" s="66" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A196" s="87" t="s">
+      <c r="B195" s="85"/>
+      <c r="C195" s="85"/>
+      <c r="D195" s="85"/>
+      <c r="E195" s="85"/>
+      <c r="F195" s="85"/>
+    </row>
+    <row r="196" spans="1:23" s="59" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A196" s="86" t="s">
         <v>94</v>
       </c>
-      <c r="B196" s="87"/>
-      <c r="C196" s="87"/>
-      <c r="D196" s="87"/>
-      <c r="E196" s="87"/>
-      <c r="F196" s="87"/>
-    </row>
-    <row r="197" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A197" s="88" t="s">
+      <c r="B196" s="86"/>
+      <c r="C196" s="86"/>
+      <c r="D196" s="86"/>
+      <c r="E196" s="86"/>
+      <c r="F196" s="86"/>
+    </row>
+    <row r="197" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A197" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="B197" s="89"/>
-      <c r="C197" s="89"/>
-      <c r="D197" s="88" t="s">
+      <c r="B197" s="66"/>
+      <c r="C197" s="66"/>
+      <c r="D197" s="78" t="s">
         <v>58</v>
       </c>
-      <c r="E197" s="88"/>
-      <c r="F197" s="88"/>
-    </row>
-    <row r="198" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A198" s="88"/>
-      <c r="B198" s="89"/>
-      <c r="C198" s="90" t="s">
+      <c r="E197" s="78"/>
+      <c r="F197" s="78"/>
+    </row>
+    <row r="198" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A198" s="78"/>
+      <c r="B198" s="66"/>
+      <c r="C198" s="67" t="s">
         <v>54</v>
       </c>
-      <c r="D198" s="90" t="s">
+      <c r="D198" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="E198" s="90" t="s">
+      <c r="E198" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="F198" s="90" t="s">
+      <c r="F198" s="67" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="199" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A199" s="91" t="s">
+    <row r="199" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A199" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="B199" s="89"/>
-      <c r="C199" s="89"/>
-      <c r="D199" s="92">
-        <v>0</v>
-      </c>
-      <c r="E199" s="92">
-        <v>0</v>
-      </c>
-      <c r="F199" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A200" s="91" t="s">
+      <c r="B199" s="66"/>
+      <c r="C199" s="66"/>
+      <c r="D199" s="69">
+        <v>0</v>
+      </c>
+      <c r="E199" s="69">
+        <v>0</v>
+      </c>
+      <c r="F199" s="69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A200" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="B200" s="89"/>
-      <c r="C200" s="89"/>
-      <c r="D200" s="92">
-        <v>0</v>
-      </c>
-      <c r="E200" s="92">
-        <v>0</v>
-      </c>
-      <c r="F200" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A201" s="91" t="s">
+      <c r="B200" s="66"/>
+      <c r="C200" s="66"/>
+      <c r="D200" s="69">
+        <v>0</v>
+      </c>
+      <c r="E200" s="69">
+        <v>0</v>
+      </c>
+      <c r="F200" s="69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A201" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="B201" s="89"/>
-      <c r="C201" s="89">
+      <c r="B201" s="66"/>
+      <c r="C201" s="66">
         <v>0.05</v>
       </c>
-      <c r="D201" s="93">
+      <c r="D201" s="70">
         <f>C201*D203</f>
         <v>3.1200000000000006</v>
       </c>
-      <c r="E201" s="93">
+      <c r="E201" s="70">
         <f>E203*$C$201</f>
         <v>1.8719999999999999</v>
       </c>
-      <c r="F201" s="93">
+      <c r="F201" s="70">
         <f>F203*$C$201</f>
         <v>1.1232</v>
       </c>
     </row>
-    <row r="202" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A202" s="91" t="s">
+    <row r="202" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A202" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="B202" s="89"/>
-      <c r="C202" s="89">
+      <c r="B202" s="66"/>
+      <c r="C202" s="66">
         <v>0.1</v>
       </c>
-      <c r="D202" s="93">
+      <c r="D202" s="70">
         <f>D204*$C$202</f>
         <v>15.600000000000001</v>
       </c>
-      <c r="E202" s="93">
+      <c r="E202" s="70">
         <f>E204*$C$202</f>
         <v>9.36</v>
       </c>
-      <c r="F202" s="93">
+      <c r="F202" s="70">
         <f>F204*$C$202</f>
         <v>5.6159999999999997</v>
       </c>
     </row>
-    <row r="203" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A203" s="91" t="s">
+    <row r="203" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A203" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="B203" s="94">
+      <c r="B203" s="71">
         <v>1</v>
       </c>
-      <c r="C203" s="89">
+      <c r="C203" s="66">
         <v>0.4</v>
       </c>
-      <c r="D203" s="92">
+      <c r="D203" s="69">
         <f>D204*$C$203</f>
         <v>62.400000000000006</v>
       </c>
-      <c r="E203" s="92">
+      <c r="E203" s="69">
         <f>E204*$C$203</f>
         <v>37.44</v>
       </c>
-      <c r="F203" s="92">
+      <c r="F203" s="69">
         <f>F204*$C$203</f>
         <v>22.463999999999999</v>
       </c>
     </row>
-    <row r="204" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A204" s="91" t="s">
+    <row r="204" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A204" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="B204" s="94">
+      <c r="B204" s="71">
         <v>5</v>
       </c>
-      <c r="C204" s="95"/>
-      <c r="D204" s="93">
-        <f>B240</f>
+      <c r="C204" s="72"/>
+      <c r="D204" s="70">
+        <f>B238</f>
         <v>156</v>
       </c>
-      <c r="E204" s="93">
-        <f>C240</f>
+      <c r="E204" s="70">
+        <f>C238</f>
         <v>93.6</v>
       </c>
-      <c r="F204" s="93">
-        <f>D240</f>
+      <c r="F204" s="70">
+        <f>D238</f>
         <v>56.16</v>
       </c>
     </row>
-    <row r="205" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A205" s="91" t="s">
+    <row r="205" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A205" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="B205" s="94">
+      <c r="B205" s="71">
         <v>10</v>
       </c>
-      <c r="C205" s="89">
-        <f t="shared" ref="C205:C215" si="4">EXP(LN(0.5)*B204/10)</f>
+      <c r="C205" s="66">
+        <f t="shared" ref="C205:C214" si="6">EXP(LN(0.5)*B204/10)</f>
         <v>0.70710678118654757</v>
       </c>
-      <c r="D205" s="93">
-        <f>$D$204*C205</f>
+      <c r="D205" s="70">
+        <f t="shared" ref="D205:D210" si="7">$D$204*C205</f>
         <v>110.30865786510142</v>
       </c>
-      <c r="E205" s="93">
-        <f>$E$204*C205</f>
+      <c r="E205" s="70">
+        <f t="shared" ref="E205:E210" si="8">$E$204*C205</f>
         <v>66.185194719060846</v>
       </c>
-      <c r="F205" s="93">
-        <f>$F$204*C205</f>
+      <c r="F205" s="70">
+        <f t="shared" ref="F205:F210" si="9">$F$204*C205</f>
         <v>39.711116831436506</v>
       </c>
-      <c r="M205" s="66"/>
-    </row>
-    <row r="206" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A206" s="91" t="s">
+      <c r="M205" s="59"/>
+    </row>
+    <row r="206" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A206" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="B206" s="94">
+      <c r="B206" s="71">
         <v>15</v>
       </c>
-      <c r="C206" s="89">
-        <f t="shared" si="4"/>
+      <c r="C206" s="66">
+        <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
-      <c r="D206" s="93">
-        <f>$D$204*C206</f>
+      <c r="D206" s="70">
+        <f t="shared" si="7"/>
         <v>78</v>
       </c>
-      <c r="E206" s="93">
-        <f>$E$204*C206</f>
+      <c r="E206" s="70">
+        <f t="shared" si="8"/>
         <v>46.8</v>
       </c>
-      <c r="F206" s="93">
-        <f>$F$204*C206</f>
+      <c r="F206" s="70">
+        <f t="shared" si="9"/>
         <v>28.08</v>
       </c>
-      <c r="N206" s="66"/>
-      <c r="O206" s="66"/>
-      <c r="P206" s="66"/>
-    </row>
-    <row r="207" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A207" s="91" t="s">
+      <c r="N206" s="59"/>
+      <c r="O206" s="59"/>
+      <c r="P206" s="59"/>
+    </row>
+    <row r="207" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A207" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="B207" s="94">
+      <c r="B207" s="71">
         <v>20</v>
       </c>
-      <c r="C207" s="89">
-        <f t="shared" si="4"/>
+      <c r="C207" s="66">
+        <f t="shared" si="6"/>
         <v>0.35355339059327379</v>
       </c>
-      <c r="D207" s="93">
-        <f>$D$204*C207</f>
+      <c r="D207" s="70">
+        <f t="shared" si="7"/>
         <v>55.154328932550712</v>
       </c>
-      <c r="E207" s="93">
-        <f>$E$204*C207</f>
+      <c r="E207" s="70">
+        <f t="shared" si="8"/>
         <v>33.092597359530423</v>
       </c>
-      <c r="F207" s="93">
-        <f>$F$204*C207</f>
+      <c r="F207" s="70">
+        <f t="shared" si="9"/>
         <v>19.855558415718253</v>
       </c>
     </row>
-    <row r="208" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A208" s="91" t="s">
+    <row r="208" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A208" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="B208" s="94">
+      <c r="B208" s="71">
         <v>25</v>
       </c>
-      <c r="C208" s="89">
-        <f t="shared" si="4"/>
+      <c r="C208" s="66">
+        <f t="shared" si="6"/>
         <v>0.25</v>
       </c>
-      <c r="D208" s="93">
-        <f>$D$204*C208</f>
+      <c r="D208" s="70">
+        <f t="shared" si="7"/>
         <v>39</v>
       </c>
-      <c r="E208" s="93">
-        <f>$E$204*C208</f>
+      <c r="E208" s="70">
+        <f t="shared" si="8"/>
         <v>23.4</v>
       </c>
-      <c r="F208" s="93">
-        <f>$F$204*C208</f>
+      <c r="F208" s="70">
+        <f t="shared" si="9"/>
         <v>14.04</v>
       </c>
     </row>
-    <row r="209" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A209" s="91" t="s">
+    <row r="209" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A209" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="B209" s="94">
+      <c r="B209" s="71">
         <v>30</v>
       </c>
-      <c r="C209" s="89">
-        <f t="shared" si="4"/>
+      <c r="C209" s="66">
+        <f t="shared" si="6"/>
         <v>0.17677669529663689</v>
       </c>
-      <c r="D209" s="93">
-        <f>$D$204*C209</f>
+      <c r="D209" s="70">
+        <f t="shared" si="7"/>
         <v>27.577164466275356</v>
       </c>
-      <c r="E209" s="93">
-        <f>$E$204*C209</f>
+      <c r="E209" s="70">
+        <f t="shared" si="8"/>
         <v>16.546298679765211</v>
       </c>
-      <c r="F209" s="93">
-        <f>$F$204*C209</f>
+      <c r="F209" s="70">
+        <f t="shared" si="9"/>
         <v>9.9277792078591265</v>
       </c>
     </row>
-    <row r="210" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A210" s="91" t="s">
+    <row r="210" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A210" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="B210" s="94">
+      <c r="B210" s="71">
         <v>35</v>
       </c>
-      <c r="C210" s="89">
-        <f t="shared" si="4"/>
+      <c r="C210" s="66">
+        <f t="shared" si="6"/>
         <v>0.12500000000000003</v>
       </c>
-      <c r="D210" s="93">
-        <f>$D$204*C210</f>
+      <c r="D210" s="70">
+        <f t="shared" si="7"/>
         <v>19.500000000000004</v>
       </c>
-      <c r="E210" s="93">
-        <f>$E$204*C210</f>
+      <c r="E210" s="70">
+        <f t="shared" si="8"/>
         <v>11.700000000000001</v>
       </c>
-      <c r="F210" s="93">
-        <f>$F$204*C210</f>
+      <c r="F210" s="70">
+        <f t="shared" si="9"/>
         <v>7.0200000000000014</v>
       </c>
     </row>
-    <row r="211" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A211" s="91"/>
-      <c r="B211" s="94"/>
-      <c r="C211" s="89"/>
-      <c r="D211" s="93"/>
-      <c r="E211" s="93"/>
-      <c r="F211" s="93"/>
-    </row>
-    <row r="212" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A212" s="91" t="s">
+    <row r="211" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A211" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="B212" s="94">
+      <c r="B211" s="71">
         <v>40</v>
       </c>
-      <c r="C212" s="89">
+      <c r="C211" s="66">
         <f>EXP(LN(0.5)*B210/10)</f>
         <v>8.8388347648318447E-2</v>
       </c>
-      <c r="D212" s="93">
+      <c r="D211" s="70">
+        <f>$D$204*C211</f>
+        <v>13.788582233137678</v>
+      </c>
+      <c r="E211" s="70">
+        <f>$E$204*C211</f>
+        <v>8.2731493398826057</v>
+      </c>
+      <c r="F211" s="70">
+        <f>$F$204*C211</f>
+        <v>4.9638896039295632</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A212" s="68" t="s">
+        <v>50</v>
+      </c>
+      <c r="B212" s="71">
+        <v>45</v>
+      </c>
+      <c r="C212" s="66">
+        <f t="shared" si="6"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="D212" s="70">
         <f>$D$204*C212</f>
+        <v>9.75</v>
+      </c>
+      <c r="E212" s="70">
+        <f>$E$204*C212</f>
+        <v>5.85</v>
+      </c>
+      <c r="F212" s="70">
+        <f>$F$204*C212</f>
+        <v>3.51</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A213" s="68" t="s">
+        <v>51</v>
+      </c>
+      <c r="B213" s="71">
+        <v>50</v>
+      </c>
+      <c r="C213" s="66">
+        <f t="shared" si="6"/>
+        <v>4.4194173824159223E-2</v>
+      </c>
+      <c r="D213" s="70">
+        <f>$D$204*C213</f>
+        <v>6.894291116568839</v>
+      </c>
+      <c r="E213" s="70">
+        <f>$E$204*C213</f>
+        <v>4.1365746699413029</v>
+      </c>
+      <c r="F213" s="70">
+        <f>$F$204*C213</f>
+        <v>2.4819448019647816</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A214" s="68" t="s">
+        <v>52</v>
+      </c>
+      <c r="B214" s="71">
+        <v>55</v>
+      </c>
+      <c r="C214" s="66">
+        <f t="shared" si="6"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="D214" s="70">
+        <f>$D$204*C214</f>
+        <v>4.875</v>
+      </c>
+      <c r="E214" s="70">
+        <f>$E$204*C214</f>
+        <v>2.9249999999999998</v>
+      </c>
+      <c r="F214" s="70">
+        <f>$F$204*C214</f>
+        <v>1.7549999999999999</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A215" s="66"/>
+      <c r="B215" s="71"/>
+      <c r="C215" s="66"/>
+      <c r="D215" s="73"/>
+      <c r="E215" s="73"/>
+      <c r="F215" s="73"/>
+    </row>
+    <row r="216" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A216" s="79" t="s">
+        <v>95</v>
+      </c>
+      <c r="B216" s="79"/>
+      <c r="C216" s="79"/>
+      <c r="D216" s="79"/>
+      <c r="E216" s="79"/>
+      <c r="F216" s="79"/>
+    </row>
+    <row r="217" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A217" s="80" t="s">
+        <v>2</v>
+      </c>
+      <c r="B217" s="66"/>
+      <c r="C217" s="66"/>
+      <c r="D217" s="78" t="s">
+        <v>58</v>
+      </c>
+      <c r="E217" s="78"/>
+      <c r="F217" s="78"/>
+    </row>
+    <row r="218" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A218" s="80"/>
+      <c r="B218" s="66"/>
+      <c r="C218" s="67" t="s">
+        <v>54</v>
+      </c>
+      <c r="D218" s="67" t="s">
+        <v>55</v>
+      </c>
+      <c r="E218" s="67" t="s">
+        <v>56</v>
+      </c>
+      <c r="F218" s="67" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A219" s="68" t="s">
+        <v>31</v>
+      </c>
+      <c r="B219" s="66"/>
+      <c r="C219" s="66"/>
+      <c r="D219" s="69">
+        <v>0</v>
+      </c>
+      <c r="E219" s="69">
+        <v>0</v>
+      </c>
+      <c r="F219" s="69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A220" s="68" t="s">
+        <v>30</v>
+      </c>
+      <c r="B220" s="66"/>
+      <c r="C220" s="66"/>
+      <c r="D220" s="69">
+        <v>0</v>
+      </c>
+      <c r="E220" s="69">
+        <v>0</v>
+      </c>
+      <c r="F220" s="69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A221" s="68" t="s">
+        <v>39</v>
+      </c>
+      <c r="B221" s="66"/>
+      <c r="C221" s="66">
+        <v>0.05</v>
+      </c>
+      <c r="D221" s="69">
+        <f>$C$221*D224</f>
+        <v>7.8000000000000007</v>
+      </c>
+      <c r="E221" s="69">
+        <f>$C$221*E224</f>
+        <v>4.68</v>
+      </c>
+      <c r="F221" s="69">
+        <f>$C$221*F224</f>
+        <v>2.8079999999999998</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A222" s="68" t="s">
+        <v>40</v>
+      </c>
+      <c r="B222" s="66"/>
+      <c r="C222" s="66">
+        <v>0.1</v>
+      </c>
+      <c r="D222" s="70">
+        <f>D224*$C$222</f>
+        <v>15.600000000000001</v>
+      </c>
+      <c r="E222" s="70">
+        <f>E224*$C$222</f>
+        <v>9.36</v>
+      </c>
+      <c r="F222" s="70">
+        <f>F224*$C$222</f>
+        <v>5.6159999999999997</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A223" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="B223" s="71">
+        <v>1</v>
+      </c>
+      <c r="C223" s="66">
+        <v>0.4</v>
+      </c>
+      <c r="D223" s="69">
+        <f>D224*$C$223</f>
+        <v>62.400000000000006</v>
+      </c>
+      <c r="E223" s="69">
+        <f>E224*$C$223</f>
+        <v>37.44</v>
+      </c>
+      <c r="F223" s="69">
+        <f>F224*$C$223</f>
+        <v>22.463999999999999</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A224" s="68" t="s">
+        <v>42</v>
+      </c>
+      <c r="B224" s="71">
+        <v>5</v>
+      </c>
+      <c r="C224" s="72"/>
+      <c r="D224" s="69">
+        <f>B239</f>
+        <v>156</v>
+      </c>
+      <c r="E224" s="69">
+        <f>C239</f>
+        <v>93.6</v>
+      </c>
+      <c r="F224" s="69">
+        <f>D239</f>
+        <v>56.16</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A225" s="68" t="s">
+        <v>43</v>
+      </c>
+      <c r="B225" s="71">
+        <v>10</v>
+      </c>
+      <c r="C225" s="66">
+        <f t="shared" ref="C225:C234" si="10">EXP(LN(0.5)*B224/10)</f>
+        <v>0.70710678118654757</v>
+      </c>
+      <c r="D225" s="69">
+        <f>D$224*$C$225</f>
+        <v>110.30865786510142</v>
+      </c>
+      <c r="E225" s="69">
+        <f>E$224*$C$225</f>
+        <v>66.185194719060846</v>
+      </c>
+      <c r="F225" s="69">
+        <f>F$224*$C$225</f>
+        <v>39.711116831436506</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A226" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="B226" s="71">
+        <v>15</v>
+      </c>
+      <c r="C226" s="66">
+        <f t="shared" si="10"/>
+        <v>0.5</v>
+      </c>
+      <c r="D226" s="69">
+        <f t="shared" ref="D226:D232" si="11">$D$224*C226</f>
+        <v>78</v>
+      </c>
+      <c r="E226" s="69">
+        <f t="shared" ref="E226:E232" si="12">$E$224*C226</f>
+        <v>46.8</v>
+      </c>
+      <c r="F226" s="69">
+        <f t="shared" ref="F226:F232" si="13">$F$224*C226</f>
+        <v>28.08</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A227" s="68" t="s">
+        <v>45</v>
+      </c>
+      <c r="B227" s="71">
+        <v>20</v>
+      </c>
+      <c r="C227" s="66">
+        <f t="shared" si="10"/>
+        <v>0.35355339059327379</v>
+      </c>
+      <c r="D227" s="69">
+        <f t="shared" si="11"/>
+        <v>55.154328932550712</v>
+      </c>
+      <c r="E227" s="69">
+        <f t="shared" si="12"/>
+        <v>33.092597359530423</v>
+      </c>
+      <c r="F227" s="69">
+        <f t="shared" si="13"/>
+        <v>19.855558415718253</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A228" s="68" t="s">
+        <v>46</v>
+      </c>
+      <c r="B228" s="71">
+        <v>25</v>
+      </c>
+      <c r="C228" s="66">
+        <f t="shared" si="10"/>
+        <v>0.25</v>
+      </c>
+      <c r="D228" s="69">
+        <f t="shared" si="11"/>
+        <v>39</v>
+      </c>
+      <c r="E228" s="69">
+        <f t="shared" si="12"/>
+        <v>23.4</v>
+      </c>
+      <c r="F228" s="69">
+        <f t="shared" si="13"/>
+        <v>14.04</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A229" s="68" t="s">
+        <v>47</v>
+      </c>
+      <c r="B229" s="71">
+        <v>30</v>
+      </c>
+      <c r="C229" s="66">
+        <f t="shared" si="10"/>
+        <v>0.17677669529663689</v>
+      </c>
+      <c r="D229" s="69">
+        <f t="shared" si="11"/>
+        <v>27.577164466275356</v>
+      </c>
+      <c r="E229" s="69">
+        <f t="shared" si="12"/>
+        <v>16.546298679765211</v>
+      </c>
+      <c r="F229" s="69">
+        <f t="shared" si="13"/>
+        <v>9.9277792078591265</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A230" s="68" t="s">
+        <v>48</v>
+      </c>
+      <c r="B230" s="71">
+        <v>35</v>
+      </c>
+      <c r="C230" s="66">
+        <f t="shared" si="10"/>
+        <v>0.12500000000000003</v>
+      </c>
+      <c r="D230" s="69">
+        <f t="shared" si="11"/>
+        <v>19.500000000000004</v>
+      </c>
+      <c r="E230" s="69">
+        <f t="shared" si="12"/>
+        <v>11.700000000000001</v>
+      </c>
+      <c r="F230" s="69">
+        <f t="shared" si="13"/>
+        <v>7.0200000000000014</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A231" s="68" t="s">
+        <v>49</v>
+      </c>
+      <c r="B231" s="71">
+        <v>40</v>
+      </c>
+      <c r="C231" s="66">
+        <f t="shared" si="10"/>
+        <v>8.8388347648318447E-2</v>
+      </c>
+      <c r="D231" s="69">
+        <f t="shared" si="11"/>
         <v>13.788582233137678</v>
       </c>
-      <c r="E212" s="93">
-        <f>$E$204*C212</f>
+      <c r="E231" s="69">
+        <f t="shared" si="12"/>
         <v>8.2731493398826057</v>
       </c>
-      <c r="F212" s="93">
-        <f>$F$204*C212</f>
+      <c r="F231" s="69">
+        <f t="shared" si="13"/>
         <v>4.9638896039295632</v>
       </c>
     </row>
-    <row r="213" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A213" s="91" t="s">
+    <row r="232" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A232" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="B213" s="94">
+      <c r="B232" s="71">
         <v>45</v>
       </c>
-      <c r="C213" s="89">
-        <f t="shared" si="4"/>
+      <c r="C232" s="66">
+        <f t="shared" si="10"/>
         <v>6.25E-2</v>
       </c>
-      <c r="D213" s="93">
-        <f>$D$204*C213</f>
+      <c r="D232" s="69">
+        <f t="shared" si="11"/>
         <v>9.75</v>
       </c>
-      <c r="E213" s="93">
-        <f>$E$204*C213</f>
+      <c r="E232" s="69">
+        <f t="shared" si="12"/>
         <v>5.85</v>
       </c>
-      <c r="F213" s="93">
-        <f>$F$204*C213</f>
+      <c r="F232" s="69">
+        <f t="shared" si="13"/>
         <v>3.51</v>
       </c>
     </row>
-    <row r="214" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A214" s="91" t="s">
+    <row r="233" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A233" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="B214" s="94">
+      <c r="B233" s="71">
         <v>50</v>
       </c>
-      <c r="C214" s="89">
-        <f t="shared" si="4"/>
+      <c r="C233" s="66">
+        <f>EXP(LN(0.5)*B232/10)</f>
         <v>4.4194173824159223E-2</v>
       </c>
-      <c r="D214" s="93">
-        <f>$D$204*C214</f>
+      <c r="D233" s="69">
+        <f>$D$224*C233</f>
         <v>6.894291116568839</v>
       </c>
-      <c r="E214" s="93">
-        <f>$E$204*C214</f>
+      <c r="E233" s="69">
+        <f>$E$224*C233</f>
         <v>4.1365746699413029</v>
       </c>
-      <c r="F214" s="93">
-        <f>$F$204*C214</f>
+      <c r="F233" s="69">
+        <f>$F$224*C233</f>
         <v>2.4819448019647816</v>
       </c>
     </row>
-    <row r="215" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A215" s="91" t="s">
+    <row r="234" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A234" s="68" t="s">
         <v>52</v>
       </c>
-      <c r="B215" s="94">
+      <c r="B234" s="71">
         <v>55</v>
       </c>
-      <c r="C215" s="89">
-        <f t="shared" si="4"/>
+      <c r="C234" s="66">
+        <f t="shared" si="10"/>
         <v>3.125E-2</v>
       </c>
-      <c r="D215" s="93">
-        <f>$D$204*C215</f>
+      <c r="D234" s="69">
+        <f>$D$224*C234</f>
         <v>4.875</v>
       </c>
-      <c r="E215" s="93">
-        <f>$E$204*C215</f>
+      <c r="E234" s="69">
+        <f>$E$224*C234</f>
         <v>2.9249999999999998</v>
       </c>
-      <c r="F215" s="93">
-        <f>$F$204*C215</f>
+      <c r="F234" s="69">
+        <f>$F$224*C234</f>
         <v>1.7549999999999999</v>
       </c>
     </row>
-    <row r="216" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A216" s="89"/>
-      <c r="B216" s="94"/>
-      <c r="C216" s="89"/>
-      <c r="D216" s="96"/>
-      <c r="E216" s="96"/>
-      <c r="F216" s="96"/>
-    </row>
-    <row r="217" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A217" s="97" t="s">
-        <v>95</v>
-      </c>
-      <c r="B217" s="97"/>
-      <c r="C217" s="97"/>
-      <c r="D217" s="97"/>
-      <c r="E217" s="97"/>
-      <c r="F217" s="97"/>
-    </row>
-    <row r="218" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A218" s="98" t="s">
-        <v>2</v>
-      </c>
-      <c r="B218" s="89"/>
-      <c r="C218" s="89"/>
-      <c r="D218" s="88" t="s">
-        <v>58</v>
-      </c>
-      <c r="E218" s="88"/>
-      <c r="F218" s="88"/>
-    </row>
-    <row r="219" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A219" s="98"/>
-      <c r="B219" s="89"/>
-      <c r="C219" s="90" t="s">
-        <v>54</v>
-      </c>
-      <c r="D219" s="90" t="s">
-        <v>55</v>
-      </c>
-      <c r="E219" s="90" t="s">
-        <v>56</v>
-      </c>
-      <c r="F219" s="90" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A220" s="91" t="s">
-        <v>31</v>
-      </c>
-      <c r="B220" s="89"/>
-      <c r="C220" s="89"/>
-      <c r="D220" s="92">
-        <v>0</v>
-      </c>
-      <c r="E220" s="92">
-        <v>0</v>
-      </c>
-      <c r="F220" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A221" s="91" t="s">
-        <v>30</v>
-      </c>
-      <c r="B221" s="89"/>
-      <c r="C221" s="89"/>
-      <c r="D221" s="92">
-        <v>0</v>
-      </c>
-      <c r="E221" s="92">
-        <v>0</v>
-      </c>
-      <c r="F221" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A222" s="91" t="s">
-        <v>39</v>
-      </c>
-      <c r="B222" s="89"/>
-      <c r="C222" s="89">
-        <v>0.05</v>
-      </c>
-      <c r="D222" s="92">
-        <f>$C$222*D225</f>
-        <v>7.8000000000000007</v>
-      </c>
-      <c r="E222" s="92">
-        <f>$C$222*E225</f>
-        <v>4.68</v>
-      </c>
-      <c r="F222" s="92">
-        <f>$C$222*F225</f>
-        <v>2.8079999999999998</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A223" s="91" t="s">
-        <v>40</v>
-      </c>
-      <c r="B223" s="89"/>
-      <c r="C223" s="89">
-        <v>0.1</v>
-      </c>
-      <c r="D223" s="93">
-        <f>D225*$C$223</f>
-        <v>15.600000000000001</v>
-      </c>
-      <c r="E223" s="93">
-        <f>E225*$C$223</f>
-        <v>9.36</v>
-      </c>
-      <c r="F223" s="93">
-        <f>F225*$C$223</f>
-        <v>5.6159999999999997</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A224" s="91" t="s">
-        <v>41</v>
-      </c>
-      <c r="B224" s="94">
-        <v>1</v>
-      </c>
-      <c r="C224" s="89">
-        <v>0.4</v>
-      </c>
-      <c r="D224" s="92">
-        <f>D225*$C$224</f>
-        <v>62.400000000000006</v>
-      </c>
-      <c r="E224" s="92">
-        <f>E225*$C$224</f>
-        <v>37.44</v>
-      </c>
-      <c r="F224" s="92">
-        <f>F225*$C$224</f>
-        <v>22.463999999999999</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A225" s="91" t="s">
-        <v>42</v>
-      </c>
-      <c r="B225" s="94">
-        <v>5</v>
-      </c>
-      <c r="C225" s="95"/>
-      <c r="D225" s="92">
-        <f>B241</f>
-        <v>156</v>
-      </c>
-      <c r="E225" s="92">
-        <f>C241</f>
-        <v>93.6</v>
-      </c>
-      <c r="F225" s="92">
-        <f>D241</f>
-        <v>56.16</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A226" s="91" t="s">
-        <v>43</v>
-      </c>
-      <c r="B226" s="94">
-        <v>10</v>
-      </c>
-      <c r="C226" s="89">
-        <f t="shared" ref="C226:C236" si="5">EXP(LN(0.5)*B225/10)</f>
-        <v>0.70710678118654757</v>
-      </c>
-      <c r="D226" s="92">
-        <f>D$225*$C$226</f>
-        <v>110.30865786510142</v>
-      </c>
-      <c r="E226" s="92">
-        <f>E$225*$C$226</f>
-        <v>66.185194719060846</v>
-      </c>
-      <c r="F226" s="92">
-        <f>F$225*$C$226</f>
-        <v>39.711116831436506</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A227" s="91" t="s">
-        <v>44</v>
-      </c>
-      <c r="B227" s="94">
-        <v>15</v>
-      </c>
-      <c r="C227" s="89">
-        <f t="shared" si="5"/>
-        <v>0.5</v>
-      </c>
-      <c r="D227" s="92">
-        <f>$D$225*C227</f>
-        <v>78</v>
-      </c>
-      <c r="E227" s="92">
-        <f>$E$225*C227</f>
-        <v>46.8</v>
-      </c>
-      <c r="F227" s="92">
-        <f>$F$225*C227</f>
-        <v>28.08</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A228" s="91" t="s">
-        <v>45</v>
-      </c>
-      <c r="B228" s="94">
-        <v>20</v>
-      </c>
-      <c r="C228" s="89">
-        <f t="shared" si="5"/>
-        <v>0.35355339059327379</v>
-      </c>
-      <c r="D228" s="92">
-        <f>$D$225*C228</f>
-        <v>55.154328932550712</v>
-      </c>
-      <c r="E228" s="92">
-        <f>$E$225*C228</f>
-        <v>33.092597359530423</v>
-      </c>
-      <c r="F228" s="92">
-        <f>$F$225*C228</f>
-        <v>19.855558415718253</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A229" s="91" t="s">
-        <v>46</v>
-      </c>
-      <c r="B229" s="94">
-        <v>25</v>
-      </c>
-      <c r="C229" s="89">
-        <f t="shared" si="5"/>
-        <v>0.25</v>
-      </c>
-      <c r="D229" s="92">
-        <f>$D$225*C229</f>
-        <v>39</v>
-      </c>
-      <c r="E229" s="92">
-        <f>$E$225*C229</f>
-        <v>23.4</v>
-      </c>
-      <c r="F229" s="92">
-        <f>$F$225*C229</f>
-        <v>14.04</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A230" s="91" t="s">
-        <v>47</v>
-      </c>
-      <c r="B230" s="94">
-        <v>30</v>
-      </c>
-      <c r="C230" s="89">
-        <f t="shared" si="5"/>
-        <v>0.17677669529663689</v>
-      </c>
-      <c r="D230" s="92">
-        <f>$D$225*C230</f>
-        <v>27.577164466275356</v>
-      </c>
-      <c r="E230" s="92">
-        <f>$E$225*C230</f>
-        <v>16.546298679765211</v>
-      </c>
-      <c r="F230" s="92">
-        <f>$F$225*C230</f>
-        <v>9.9277792078591265</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A231" s="91" t="s">
-        <v>48</v>
-      </c>
-      <c r="B231" s="94">
-        <v>35</v>
-      </c>
-      <c r="C231" s="89">
-        <f t="shared" si="5"/>
-        <v>0.12500000000000003</v>
-      </c>
-      <c r="D231" s="92">
-        <f>$D$225*C231</f>
-        <v>19.500000000000004</v>
-      </c>
-      <c r="E231" s="92">
-        <f>$E$225*C231</f>
-        <v>11.700000000000001</v>
-      </c>
-      <c r="F231" s="92">
-        <f>$F$225*C231</f>
-        <v>7.0200000000000014</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A232" s="91" t="s">
-        <v>49</v>
-      </c>
-      <c r="B232" s="94">
-        <v>40</v>
-      </c>
-      <c r="C232" s="89">
-        <f t="shared" si="5"/>
-        <v>8.8388347648318447E-2</v>
-      </c>
-      <c r="D232" s="92">
-        <f>$D$225*C232</f>
-        <v>13.788582233137678</v>
-      </c>
-      <c r="E232" s="92">
-        <f>$E$225*C232</f>
-        <v>8.2731493398826057</v>
-      </c>
-      <c r="F232" s="92">
-        <f>$F$225*C232</f>
-        <v>4.9638896039295632</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A233" s="91" t="s">
-        <v>50</v>
-      </c>
-      <c r="B233" s="94">
-        <v>45</v>
-      </c>
-      <c r="C233" s="89">
-        <f t="shared" si="5"/>
-        <v>6.25E-2</v>
-      </c>
-      <c r="D233" s="92">
-        <f>$D$225*C233</f>
-        <v>9.75</v>
-      </c>
-      <c r="E233" s="92">
-        <f>$E$225*C233</f>
-        <v>5.85</v>
-      </c>
-      <c r="F233" s="92">
-        <f>$F$225*C233</f>
-        <v>3.51</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A234" s="91"/>
-      <c r="B234" s="94"/>
-      <c r="C234" s="89"/>
-      <c r="D234" s="92"/>
-      <c r="E234" s="92"/>
-      <c r="F234" s="92"/>
-    </row>
-    <row r="235" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A235" s="91" t="s">
-        <v>51</v>
-      </c>
-      <c r="B235" s="94">
-        <v>50</v>
-      </c>
-      <c r="C235" s="89">
-        <f>EXP(LN(0.5)*B233/10)</f>
-        <v>4.4194173824159223E-2</v>
-      </c>
-      <c r="D235" s="92">
-        <f>$D$225*C235</f>
-        <v>6.894291116568839</v>
-      </c>
-      <c r="E235" s="92">
-        <f>$E$225*C235</f>
-        <v>4.1365746699413029</v>
-      </c>
-      <c r="F235" s="92">
-        <f>$F$225*C235</f>
-        <v>2.4819448019647816</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A236" s="91" t="s">
-        <v>52</v>
-      </c>
-      <c r="B236" s="94">
-        <v>55</v>
-      </c>
-      <c r="C236" s="89">
-        <f t="shared" si="5"/>
-        <v>3.125E-2</v>
-      </c>
-      <c r="D236" s="92">
-        <f>$D$225*C236</f>
-        <v>4.875</v>
-      </c>
-      <c r="E236" s="92">
-        <f>$E$225*C236</f>
-        <v>2.9249999999999998</v>
-      </c>
-      <c r="F236" s="92">
-        <f>$F$225*C236</f>
-        <v>1.7549999999999999</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A237" s="62"/>
-      <c r="B237" s="62"/>
-      <c r="C237" s="86"/>
-      <c r="D237" s="62"/>
-      <c r="E237" s="62"/>
-      <c r="F237" s="62"/>
-    </row>
-    <row r="238" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A238" s="84" t="s">
+    <row r="235" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A235" s="55"/>
+      <c r="B235" s="55"/>
+      <c r="C235" s="65"/>
+      <c r="D235" s="55"/>
+      <c r="E235" s="55"/>
+      <c r="F235" s="55"/>
+    </row>
+    <row r="236" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A236" s="64" t="s">
         <v>96</v>
       </c>
-      <c r="B238" s="66"/>
-      <c r="C238" s="66"/>
-      <c r="D238" s="66"/>
-      <c r="E238" s="62"/>
-      <c r="F238" s="62"/>
-    </row>
-    <row r="239" spans="1:6" ht="31" x14ac:dyDescent="0.35">
-      <c r="A239" s="101" t="s">
+      <c r="B236" s="59"/>
+      <c r="C236" s="59"/>
+      <c r="D236" s="59"/>
+      <c r="E236" s="55"/>
+      <c r="F236" s="55"/>
+    </row>
+    <row r="237" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A237" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="B239" s="102" t="s">
+      <c r="B237" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="C239" s="102" t="s">
+      <c r="C237" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="D239" s="102" t="s">
+      <c r="D237" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="E239" s="62"/>
-      <c r="F239" s="62"/>
-    </row>
-    <row r="240" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A240" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B240" s="94">
+      <c r="E237" s="55"/>
+      <c r="F237" s="55"/>
+    </row>
+    <row r="238" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A238" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B238" s="71">
         <f>52*3</f>
         <v>156</v>
       </c>
-      <c r="C240" s="94">
-        <f>B240*0.6</f>
+      <c r="C238" s="71">
+        <f>B238*0.6</f>
         <v>93.6</v>
       </c>
-      <c r="D240" s="94">
-        <f>C240*0.6</f>
+      <c r="D238" s="71">
+        <f>C238*0.6</f>
         <v>56.16</v>
       </c>
     </row>
-    <row r="241" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A241" s="26" t="s">
+    <row r="239" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A239" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B241" s="94">
+      <c r="B239" s="71">
         <f>52*3</f>
         <v>156</v>
       </c>
-      <c r="C241" s="94">
-        <f>B241*0.6</f>
+      <c r="C239" s="71">
+        <f>B239*0.6</f>
         <v>93.6</v>
       </c>
-      <c r="D241" s="94">
-        <f>C241*0.6</f>
+      <c r="D239" s="71">
+        <f>C239*0.6</f>
         <v>56.16</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A197:A198"/>
-    <mergeCell ref="A217:F217"/>
-    <mergeCell ref="A218:A219"/>
-    <mergeCell ref="B158:D158"/>
-    <mergeCell ref="E158:G158"/>
-    <mergeCell ref="A183:C183"/>
-    <mergeCell ref="A195:F195"/>
-    <mergeCell ref="A196:F196"/>
     <mergeCell ref="A109:A111"/>
     <mergeCell ref="B109:G109"/>
     <mergeCell ref="B130:G130"/>
@@ -10549,8 +10159,16 @@
     <mergeCell ref="E52:G52"/>
     <mergeCell ref="A81:A83"/>
     <mergeCell ref="B81:B83"/>
+    <mergeCell ref="A197:A198"/>
+    <mergeCell ref="A216:F216"/>
+    <mergeCell ref="A217:A218"/>
+    <mergeCell ref="B158:D158"/>
+    <mergeCell ref="E158:G158"/>
+    <mergeCell ref="A183:C183"/>
+    <mergeCell ref="A195:F195"/>
+    <mergeCell ref="A196:F196"/>
     <mergeCell ref="D197:F197"/>
-    <mergeCell ref="D218:F218"/>
+    <mergeCell ref="D217:F217"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Config/Population_data.xlsx
+++ b/Config/Population_data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15840" windowHeight="8190"/>
   </bookViews>
   <sheets>
     <sheet name="Demographics" sheetId="1" r:id="rId1"/>
@@ -1562,33 +1562,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="28" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="28" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1622,6 +1595,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1636,6 +1612,30 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="48">
@@ -6090,8 +6090,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AF239"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A220" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B241" sqref="B241"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B163" sqref="B163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6103,7 +6103,7 @@
     <col min="5" max="5" width="16.5703125" customWidth="1"/>
     <col min="6" max="6" width="16.85546875" customWidth="1"/>
     <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" customWidth="1"/>
     <col min="11" max="11" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="25" customWidth="1"/>
@@ -6219,10 +6219,10 @@
       <c r="A4" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="96" t="s">
+      <c r="B4" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="97"/>
+      <c r="C4" s="88"/>
     </row>
     <row r="5" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="60"/>
@@ -6459,10 +6459,10 @@
       <c r="A27" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="85" t="s">
+      <c r="B27" s="89" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="98"/>
+      <c r="C27" s="90"/>
     </row>
     <row r="28" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="12"/>
@@ -6850,19 +6850,19 @@
       <c r="AE51" s="36"/>
     </row>
     <row r="52" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="102" t="s">
+      <c r="A52" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="B52" s="102" t="s">
+      <c r="B52" s="94" t="s">
         <v>67</v>
       </c>
-      <c r="C52" s="102"/>
-      <c r="D52" s="102"/>
-      <c r="E52" s="102" t="s">
+      <c r="C52" s="94"/>
+      <c r="D52" s="94"/>
+      <c r="E52" s="94" t="s">
         <v>68</v>
       </c>
-      <c r="F52" s="102"/>
-      <c r="G52" s="102"/>
+      <c r="F52" s="94"/>
+      <c r="G52" s="94"/>
       <c r="X52" s="34"/>
       <c r="Y52" s="34"/>
       <c r="Z52" s="34"/>
@@ -6873,7 +6873,7 @@
       <c r="AE52" s="34"/>
     </row>
     <row r="53" spans="1:31" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="102"/>
+      <c r="A53" s="94"/>
       <c r="B53" s="52" t="s">
         <v>6</v>
       </c>
@@ -7407,25 +7407,25 @@
       <c r="X80" s="57"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="87" t="s">
+      <c r="A81" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="B81" s="99" t="s">
+      <c r="B81" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="C81" s="99" t="s">
+      <c r="C81" s="91" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="88"/>
-      <c r="B82" s="100"/>
-      <c r="C82" s="100"/>
+      <c r="A82" s="79"/>
+      <c r="B82" s="92"/>
+      <c r="C82" s="92"/>
     </row>
     <row r="83" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="89"/>
-      <c r="B83" s="101"/>
-      <c r="C83" s="101"/>
+      <c r="A83" s="80"/>
+      <c r="B83" s="93"/>
+      <c r="C83" s="93"/>
     </row>
     <row r="84" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
@@ -7716,20 +7716,20 @@
       <c r="X108" s="57"/>
     </row>
     <row r="109" spans="1:24" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="87" t="s">
+      <c r="A109" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="B109" s="90" t="s">
+      <c r="B109" s="81" t="s">
         <v>85</v>
       </c>
-      <c r="C109" s="91"/>
-      <c r="D109" s="91"/>
-      <c r="E109" s="91"/>
-      <c r="F109" s="91"/>
-      <c r="G109" s="92"/>
+      <c r="C109" s="82"/>
+      <c r="D109" s="82"/>
+      <c r="E109" s="82"/>
+      <c r="F109" s="82"/>
+      <c r="G109" s="83"/>
     </row>
     <row r="110" spans="1:24" ht="45.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="88"/>
+      <c r="A110" s="79"/>
       <c r="B110" s="51" t="s">
         <v>83</v>
       </c>
@@ -7750,7 +7750,7 @@
       </c>
     </row>
     <row r="111" spans="1:24" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="89"/>
+      <c r="A111" s="80"/>
       <c r="B111" s="53" t="s">
         <v>76</v>
       </c>
@@ -8205,20 +8205,20 @@
     </row>
     <row r="129" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="130" spans="1:7" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="93" t="s">
+      <c r="A130" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="B130" s="90" t="s">
+      <c r="B130" s="81" t="s">
         <v>87</v>
       </c>
-      <c r="C130" s="91"/>
-      <c r="D130" s="91"/>
-      <c r="E130" s="91"/>
-      <c r="F130" s="91"/>
-      <c r="G130" s="92"/>
+      <c r="C130" s="82"/>
+      <c r="D130" s="82"/>
+      <c r="E130" s="82"/>
+      <c r="F130" s="82"/>
+      <c r="G130" s="83"/>
     </row>
     <row r="131" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="94"/>
+      <c r="A131" s="85"/>
       <c r="B131" s="38" t="s">
         <v>86</v>
       </c>
@@ -8239,7 +8239,7 @@
       </c>
     </row>
     <row r="132" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="95"/>
+      <c r="A132" s="86"/>
       <c r="B132" s="62" t="s">
         <v>76</v>
       </c>
@@ -8738,16 +8738,16 @@
       <c r="A158" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B158" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="C158" s="82"/>
-      <c r="D158" s="83"/>
-      <c r="E158" s="81" t="s">
+      <c r="B158" s="98" t="s">
+        <v>0</v>
+      </c>
+      <c r="C158" s="99"/>
+      <c r="D158" s="100"/>
+      <c r="E158" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="F158" s="82"/>
-      <c r="G158" s="83"/>
+      <c r="F158" s="99"/>
+      <c r="G158" s="100"/>
     </row>
     <row r="159" spans="1:23" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="6"/>
@@ -8798,8 +8798,20 @@
         <f t="shared" si="5"/>
         <v>1.0000000000000001E-5</v>
       </c>
-    </row>
-    <row r="161" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J160">
+        <f>B160*B54</f>
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K160">
+        <f t="shared" ref="K160:L175" si="6">C160*C54</f>
+        <v>0</v>
+      </c>
+      <c r="L160">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="4" t="s">
         <v>14</v>
       </c>
@@ -8827,8 +8839,20 @@
         <f t="shared" si="5"/>
         <v>1.0000000000000001E-5</v>
       </c>
-    </row>
-    <row r="162" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J161">
+        <f t="shared" ref="J161:J175" si="7">B161*B55</f>
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K161">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L161">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="4" t="s">
         <v>17</v>
       </c>
@@ -8850,8 +8874,28 @@
       <c r="G162" s="46">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="163" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J162">
+        <f t="shared" si="7"/>
+        <v>1.176E-2</v>
+      </c>
+      <c r="K162">
+        <f t="shared" si="6"/>
+        <v>1.8E-3</v>
+      </c>
+      <c r="L162">
+        <f t="shared" si="6"/>
+        <v>6.0000000000000218E-3</v>
+      </c>
+      <c r="M162">
+        <f>SUM(J162:L162)</f>
+        <v>1.9560000000000022E-2</v>
+      </c>
+      <c r="N162">
+        <f>1/M162</f>
+        <v>51.124744376278059</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="4" t="s">
         <v>18</v>
       </c>
@@ -8873,8 +8917,28 @@
       <c r="G163" s="47">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="164" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J163">
+        <f t="shared" si="7"/>
+        <v>0.33787878787878783</v>
+      </c>
+      <c r="K163">
+        <f t="shared" si="6"/>
+        <v>1.040909090909091</v>
+      </c>
+      <c r="L163">
+        <f t="shared" si="6"/>
+        <v>0.58030303030303021</v>
+      </c>
+      <c r="M163">
+        <f t="shared" ref="M163:M175" si="8">SUM(J163:L163)</f>
+        <v>1.959090909090909</v>
+      </c>
+      <c r="N163">
+        <f t="shared" ref="N163:N175" si="9">1/M163</f>
+        <v>0.51044083526682138</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="4" t="s">
         <v>19</v>
       </c>
@@ -8896,8 +8960,28 @@
       <c r="G164" s="47">
         <v>10</v>
       </c>
-    </row>
-    <row r="165" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J164">
+        <f t="shared" si="7"/>
+        <v>0.33193277310924363</v>
+      </c>
+      <c r="K164">
+        <f t="shared" si="6"/>
+        <v>1.1274509803921566</v>
+      </c>
+      <c r="L164">
+        <f t="shared" si="6"/>
+        <v>0.65546218487394958</v>
+      </c>
+      <c r="M164">
+        <f t="shared" si="8"/>
+        <v>2.1148459383753497</v>
+      </c>
+      <c r="N164">
+        <f t="shared" si="9"/>
+        <v>0.47284768211920541</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="4" t="s">
         <v>20</v>
       </c>
@@ -8919,8 +9003,28 @@
       <c r="G165" s="47">
         <v>5.333333333333333</v>
       </c>
-    </row>
-    <row r="166" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J165">
+        <f t="shared" si="7"/>
+        <v>0.39310344827586208</v>
+      </c>
+      <c r="K165">
+        <f t="shared" si="6"/>
+        <v>1.0551724137931036</v>
+      </c>
+      <c r="L165">
+        <f t="shared" si="6"/>
+        <v>0.54482758620689653</v>
+      </c>
+      <c r="M165">
+        <f t="shared" si="8"/>
+        <v>1.9931034482758623</v>
+      </c>
+      <c r="N165">
+        <f t="shared" si="9"/>
+        <v>0.50173010380622829</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="4" t="s">
         <v>23</v>
       </c>
@@ -8942,8 +9046,28 @@
       <c r="G166" s="47">
         <v>1</v>
       </c>
-    </row>
-    <row r="167" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J166">
+        <f t="shared" si="7"/>
+        <v>0.46610169491525422</v>
+      </c>
+      <c r="K166">
+        <f t="shared" si="6"/>
+        <v>0.84745762711864414</v>
+      </c>
+      <c r="L166">
+        <f t="shared" si="6"/>
+        <v>0.3135593220338983</v>
+      </c>
+      <c r="M166">
+        <f t="shared" si="8"/>
+        <v>1.6271186440677967</v>
+      </c>
+      <c r="N166">
+        <f t="shared" si="9"/>
+        <v>0.61458333333333326</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="4" t="s">
         <v>22</v>
       </c>
@@ -8965,8 +9089,28 @@
       <c r="G167" s="47">
         <v>9</v>
       </c>
-    </row>
-    <row r="168" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J167">
+        <f t="shared" si="7"/>
+        <v>0.59655172413793101</v>
+      </c>
+      <c r="K167">
+        <f t="shared" si="6"/>
+        <v>0.48965517241379303</v>
+      </c>
+      <c r="L167">
+        <f t="shared" si="6"/>
+        <v>0.19310344827586207</v>
+      </c>
+      <c r="M167">
+        <f t="shared" si="8"/>
+        <v>1.279310344827586</v>
+      </c>
+      <c r="N167">
+        <f t="shared" si="9"/>
+        <v>0.78167115902964968</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="4" t="s">
         <v>24</v>
       </c>
@@ -8988,8 +9132,28 @@
       <c r="G168" s="47">
         <v>1</v>
       </c>
-    </row>
-    <row r="169" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J168">
+        <f t="shared" si="7"/>
+        <v>0.68881118881118875</v>
+      </c>
+      <c r="K168">
+        <f t="shared" si="6"/>
+        <v>0.40559440559440557</v>
+      </c>
+      <c r="L168">
+        <f t="shared" si="6"/>
+        <v>0.10839160839160839</v>
+      </c>
+      <c r="M168">
+        <f t="shared" si="8"/>
+        <v>1.2027972027972027</v>
+      </c>
+      <c r="N168">
+        <f t="shared" si="9"/>
+        <v>0.83139534883720934</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="4" t="s">
         <v>25</v>
       </c>
@@ -9011,8 +9175,28 @@
       <c r="G169" s="47">
         <v>1</v>
       </c>
-    </row>
-    <row r="170" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J169">
+        <f t="shared" si="7"/>
+        <v>0.61194029850746268</v>
+      </c>
+      <c r="K169">
+        <f t="shared" si="6"/>
+        <v>0.34468992537313536</v>
+      </c>
+      <c r="L169">
+        <f t="shared" si="6"/>
+        <v>1E-3</v>
+      </c>
+      <c r="M169">
+        <f t="shared" si="8"/>
+        <v>0.95763022388059804</v>
+      </c>
+      <c r="N169">
+        <f t="shared" si="9"/>
+        <v>1.0442444015057371</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="4" t="s">
         <v>26</v>
       </c>
@@ -9034,8 +9218,28 @@
       <c r="G170" s="47">
         <v>1</v>
       </c>
-    </row>
-    <row r="171" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J170">
+        <f t="shared" si="7"/>
+        <v>0.61194029850746268</v>
+      </c>
+      <c r="K170">
+        <f t="shared" si="6"/>
+        <v>0.34468992537313536</v>
+      </c>
+      <c r="L170">
+        <f t="shared" si="6"/>
+        <v>1E-3</v>
+      </c>
+      <c r="M170">
+        <f t="shared" si="8"/>
+        <v>0.95763022388059804</v>
+      </c>
+      <c r="N170">
+        <f t="shared" si="9"/>
+        <v>1.0442444015057371</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="4" t="s">
         <v>27</v>
       </c>
@@ -9057,8 +9261,28 @@
       <c r="G171" s="47">
         <v>1</v>
       </c>
-    </row>
-    <row r="172" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J171">
+        <f t="shared" si="7"/>
+        <v>0.61194029850746268</v>
+      </c>
+      <c r="K171">
+        <f t="shared" si="6"/>
+        <v>0.34468992537313536</v>
+      </c>
+      <c r="L171">
+        <f t="shared" si="6"/>
+        <v>1E-3</v>
+      </c>
+      <c r="M171">
+        <f t="shared" si="8"/>
+        <v>0.95763022388059804</v>
+      </c>
+      <c r="N171">
+        <f t="shared" si="9"/>
+        <v>1.0442444015057371</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="21" t="s">
         <v>49</v>
       </c>
@@ -9080,8 +9304,28 @@
       <c r="G172" s="50">
         <v>1</v>
       </c>
-    </row>
-    <row r="173" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J172">
+        <f t="shared" si="7"/>
+        <v>0.61194029850746268</v>
+      </c>
+      <c r="K172">
+        <f t="shared" si="6"/>
+        <v>0.34468992537313536</v>
+      </c>
+      <c r="L172">
+        <f t="shared" si="6"/>
+        <v>1E-3</v>
+      </c>
+      <c r="M172">
+        <f t="shared" si="8"/>
+        <v>0.95763022388059804</v>
+      </c>
+      <c r="N172">
+        <f t="shared" si="9"/>
+        <v>1.0442444015057371</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="21" t="s">
         <v>50</v>
       </c>
@@ -9103,8 +9347,28 @@
       <c r="G173" s="50">
         <v>1</v>
       </c>
-    </row>
-    <row r="174" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J173">
+        <f t="shared" si="7"/>
+        <v>0.61194029850746268</v>
+      </c>
+      <c r="K173">
+        <f t="shared" si="6"/>
+        <v>0.34468992537313536</v>
+      </c>
+      <c r="L173">
+        <f t="shared" si="6"/>
+        <v>1E-3</v>
+      </c>
+      <c r="M173">
+        <f t="shared" si="8"/>
+        <v>0.95763022388059804</v>
+      </c>
+      <c r="N173">
+        <f t="shared" si="9"/>
+        <v>1.0442444015057371</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="21" t="s">
         <v>51</v>
       </c>
@@ -9126,8 +9390,28 @@
       <c r="G174" s="50">
         <v>1</v>
       </c>
-    </row>
-    <row r="175" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J174">
+        <f t="shared" si="7"/>
+        <v>0.61194029850746268</v>
+      </c>
+      <c r="K174">
+        <f t="shared" si="6"/>
+        <v>0.34468992537313536</v>
+      </c>
+      <c r="L174">
+        <f t="shared" si="6"/>
+        <v>1E-3</v>
+      </c>
+      <c r="M174">
+        <f t="shared" si="8"/>
+        <v>0.95763022388059804</v>
+      </c>
+      <c r="N174">
+        <f t="shared" si="9"/>
+        <v>1.0442444015057371</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="21" t="s">
         <v>52</v>
       </c>
@@ -9149,10 +9433,38 @@
       <c r="G175" s="50">
         <v>1</v>
       </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H175">
+        <f>SUM(B160:D175)/(3*16)</f>
+        <v>1.8866801277495602</v>
+      </c>
+      <c r="J175">
+        <f t="shared" si="7"/>
+        <v>0.61194029850746268</v>
+      </c>
+      <c r="K175">
+        <f t="shared" si="6"/>
+        <v>0.34468992537313536</v>
+      </c>
+      <c r="L175">
+        <f t="shared" si="6"/>
+        <v>1E-3</v>
+      </c>
+      <c r="M175">
+        <f t="shared" si="8"/>
+        <v>0.95763022388059804</v>
+      </c>
+      <c r="N175">
+        <f t="shared" si="9"/>
+        <v>1.0442444015057371</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>37</v>
+      </c>
+      <c r="N176">
+        <f>AVERAGE(N162:N175)</f>
+        <v>4.4390802606579047</v>
       </c>
     </row>
     <row r="180" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
@@ -9186,11 +9498,11 @@
       <c r="W182" s="57"/>
     </row>
     <row r="183" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="84" t="s">
+      <c r="A183" s="101" t="s">
         <v>92</v>
       </c>
-      <c r="B183" s="84"/>
-      <c r="C183" s="84"/>
+      <c r="B183" s="101"/>
+      <c r="C183" s="101"/>
     </row>
     <row r="184" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
@@ -9264,39 +9576,39 @@
       <c r="W194" s="57"/>
     </row>
     <row r="195" spans="1:23" s="59" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A195" s="85" t="s">
+      <c r="A195" s="89" t="s">
         <v>93</v>
       </c>
-      <c r="B195" s="85"/>
-      <c r="C195" s="85"/>
-      <c r="D195" s="85"/>
-      <c r="E195" s="85"/>
-      <c r="F195" s="85"/>
+      <c r="B195" s="89"/>
+      <c r="C195" s="89"/>
+      <c r="D195" s="89"/>
+      <c r="E195" s="89"/>
+      <c r="F195" s="89"/>
     </row>
     <row r="196" spans="1:23" s="59" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A196" s="86" t="s">
+      <c r="A196" s="102" t="s">
         <v>94</v>
       </c>
-      <c r="B196" s="86"/>
-      <c r="C196" s="86"/>
-      <c r="D196" s="86"/>
-      <c r="E196" s="86"/>
-      <c r="F196" s="86"/>
+      <c r="B196" s="102"/>
+      <c r="C196" s="102"/>
+      <c r="D196" s="102"/>
+      <c r="E196" s="102"/>
+      <c r="F196" s="102"/>
     </row>
     <row r="197" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A197" s="78" t="s">
+      <c r="A197" s="95" t="s">
         <v>53</v>
       </c>
       <c r="B197" s="66"/>
       <c r="C197" s="66"/>
-      <c r="D197" s="78" t="s">
+      <c r="D197" s="95" t="s">
         <v>58</v>
       </c>
-      <c r="E197" s="78"/>
-      <c r="F197" s="78"/>
+      <c r="E197" s="95"/>
+      <c r="F197" s="95"/>
     </row>
     <row r="198" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A198" s="78"/>
+      <c r="A198" s="95"/>
       <c r="B198" s="66"/>
       <c r="C198" s="67" t="s">
         <v>54</v>
@@ -9310,6 +9622,10 @@
       <c r="F198" s="67" t="s">
         <v>57</v>
       </c>
+      <c r="H198">
+        <f>(365.25/7)*2.4</f>
+        <v>125.22857142857143</v>
+      </c>
     </row>
     <row r="199" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A199" s="68" t="s">
@@ -9326,6 +9642,18 @@
       <c r="F199" s="69">
         <v>0</v>
       </c>
+      <c r="H199">
+        <f>D199*B54</f>
+        <v>0</v>
+      </c>
+      <c r="I199">
+        <f t="shared" ref="I199:J214" si="10">E199*C54</f>
+        <v>0</v>
+      </c>
+      <c r="J199">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="200" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A200" s="68" t="s">
@@ -9342,6 +9670,18 @@
       <c r="F200" s="69">
         <v>0</v>
       </c>
+      <c r="H200">
+        <f t="shared" ref="H200:H214" si="11">D200*B55</f>
+        <v>0</v>
+      </c>
+      <c r="I200">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J200">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="201" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A201" s="68" t="s">
@@ -9363,6 +9703,22 @@
         <f>F203*$C$201</f>
         <v>1.1232</v>
       </c>
+      <c r="H201">
+        <f t="shared" si="11"/>
+        <v>3.0576000000000003</v>
+      </c>
+      <c r="I201">
+        <f t="shared" si="10"/>
+        <v>2.8079999999999997E-2</v>
+      </c>
+      <c r="J201">
+        <f t="shared" si="10"/>
+        <v>5.6160000000000203E-3</v>
+      </c>
+      <c r="K201">
+        <f>SUM(H201:J201)</f>
+        <v>3.0912960000000003</v>
+      </c>
     </row>
     <row r="202" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A202" s="68" t="s">
@@ -9384,6 +9740,22 @@
         <f>F204*$C$202</f>
         <v>5.6159999999999997</v>
       </c>
+      <c r="H202">
+        <f t="shared" si="11"/>
+        <v>7.9418181818181814</v>
+      </c>
+      <c r="I202">
+        <f t="shared" si="10"/>
+        <v>3.814909090909091</v>
+      </c>
+      <c r="J202">
+        <f t="shared" si="10"/>
+        <v>0.46799999999999986</v>
+      </c>
+      <c r="K202">
+        <f t="shared" ref="K202:K214" si="12">SUM(H202:J202)</f>
+        <v>12.224727272727272</v>
+      </c>
     </row>
     <row r="203" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A203" s="68" t="s">
@@ -9406,6 +9778,22 @@
       <c r="F203" s="69">
         <f>F204*$C$203</f>
         <v>22.463999999999999</v>
+      </c>
+      <c r="H203">
+        <f t="shared" si="11"/>
+        <v>29.452100840336133</v>
+      </c>
+      <c r="I203">
+        <f t="shared" si="10"/>
+        <v>16.570084033613444</v>
+      </c>
+      <c r="J203">
+        <f t="shared" si="10"/>
+        <v>1.9191932773109244</v>
+      </c>
+      <c r="K203">
+        <f t="shared" si="12"/>
+        <v>47.941378151260501</v>
       </c>
     </row>
     <row r="204" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
@@ -9428,6 +9816,22 @@
         <f>D238</f>
         <v>56.16</v>
       </c>
+      <c r="H204">
+        <f t="shared" si="11"/>
+        <v>79.613793103448273</v>
+      </c>
+      <c r="I204">
+        <f t="shared" si="10"/>
+        <v>38.515862068965518</v>
+      </c>
+      <c r="J204">
+        <f t="shared" si="10"/>
+        <v>4.38951724137931</v>
+      </c>
+      <c r="K204">
+        <f t="shared" si="12"/>
+        <v>122.5191724137931</v>
+      </c>
     </row>
     <row r="205" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A205" s="68" t="s">
@@ -9437,20 +9841,36 @@
         <v>10</v>
       </c>
       <c r="C205" s="66">
-        <f t="shared" ref="C205:C214" si="6">EXP(LN(0.5)*B204/10)</f>
+        <f t="shared" ref="C205:C214" si="13">EXP(LN(0.5)*B204/10)</f>
         <v>0.70710678118654757</v>
       </c>
       <c r="D205" s="70">
-        <f t="shared" ref="D205:D210" si="7">$D$204*C205</f>
+        <f t="shared" ref="D205:D210" si="14">$D$204*C205</f>
         <v>110.30865786510142</v>
       </c>
       <c r="E205" s="70">
-        <f t="shared" ref="E205:E210" si="8">$E$204*C205</f>
+        <f t="shared" ref="E205:E210" si="15">$E$204*C205</f>
         <v>66.185194719060846</v>
       </c>
       <c r="F205" s="70">
-        <f t="shared" ref="F205:F210" si="9">$F$204*C205</f>
+        <f t="shared" ref="F205:F210" si="16">$F$204*C205</f>
         <v>39.711116831436506</v>
+      </c>
+      <c r="H205">
+        <f t="shared" si="11"/>
+        <v>66.683764924100856</v>
+      </c>
+      <c r="I205">
+        <f t="shared" si="10"/>
+        <v>22.62262305369029</v>
+      </c>
+      <c r="J205">
+        <f t="shared" si="10"/>
+        <v>2.1313876265460272</v>
+      </c>
+      <c r="K205">
+        <f t="shared" si="12"/>
+        <v>91.437775604337176</v>
       </c>
       <c r="M205" s="59"/>
     </row>
@@ -9462,20 +9882,36 @@
         <v>15</v>
       </c>
       <c r="C206" s="66">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0.5</v>
       </c>
       <c r="D206" s="70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>78</v>
       </c>
       <c r="E206" s="70">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>46.8</v>
       </c>
       <c r="F206" s="70">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>28.08</v>
+      </c>
+      <c r="H206">
+        <f t="shared" si="11"/>
+        <v>59.710344827586205</v>
+      </c>
+      <c r="I206">
+        <f t="shared" si="10"/>
+        <v>9.5213793103448268</v>
+      </c>
+      <c r="J206">
+        <f t="shared" si="10"/>
+        <v>0.87144827586206886</v>
+      </c>
+      <c r="K206">
+        <f t="shared" si="12"/>
+        <v>70.103172413793089</v>
       </c>
       <c r="N206" s="59"/>
       <c r="O206" s="59"/>
@@ -9489,20 +9925,36 @@
         <v>20</v>
       </c>
       <c r="C207" s="66">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0.35355339059327379</v>
       </c>
       <c r="D207" s="70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>55.154328932550712</v>
       </c>
       <c r="E207" s="70">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>33.092597359530423</v>
       </c>
       <c r="F207" s="70">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>19.855558415718253</v>
+      </c>
+      <c r="H207">
+        <f t="shared" si="11"/>
+        <v>45.126269126632394</v>
+      </c>
+      <c r="I207">
+        <f t="shared" si="10"/>
+        <v>5.5540023540470642</v>
+      </c>
+      <c r="J207">
+        <f t="shared" si="10"/>
+        <v>0.2777001177023532</v>
+      </c>
+      <c r="K207">
+        <f t="shared" si="12"/>
+        <v>50.95797159838181</v>
       </c>
     </row>
     <row r="208" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
@@ -9513,23 +9965,39 @@
         <v>25</v>
       </c>
       <c r="C208" s="66">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0.25</v>
       </c>
       <c r="D208" s="70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>39</v>
       </c>
       <c r="E208" s="70">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>23.4</v>
       </c>
       <c r="F208" s="70">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>14.04</v>
       </c>
-    </row>
-    <row r="209" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H208">
+        <f t="shared" si="11"/>
+        <v>33.179104477611936</v>
+      </c>
+      <c r="I208">
+        <f t="shared" si="10"/>
+        <v>3.4691373134328458</v>
+      </c>
+      <c r="J208">
+        <f t="shared" si="10"/>
+        <v>1.4039999999999999E-2</v>
+      </c>
+      <c r="K208">
+        <f t="shared" si="12"/>
+        <v>36.662281791044784</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A209" s="68" t="s">
         <v>47</v>
       </c>
@@ -9537,23 +10005,39 @@
         <v>30</v>
       </c>
       <c r="C209" s="66">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0.17677669529663689</v>
       </c>
       <c r="D209" s="70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>27.577164466275356</v>
       </c>
       <c r="E209" s="70">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>16.546298679765211</v>
       </c>
       <c r="F209" s="70">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>9.9277792078591265</v>
       </c>
-    </row>
-    <row r="210" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H209">
+        <f t="shared" si="11"/>
+        <v>23.461169769816344</v>
+      </c>
+      <c r="I209">
+        <f t="shared" si="10"/>
+        <v>2.4530505191956467</v>
+      </c>
+      <c r="J209">
+        <f t="shared" si="10"/>
+        <v>9.9277792078591269E-3</v>
+      </c>
+      <c r="K209">
+        <f t="shared" si="12"/>
+        <v>25.92414806821985</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A210" s="68" t="s">
         <v>48</v>
       </c>
@@ -9561,23 +10045,39 @@
         <v>35</v>
       </c>
       <c r="C210" s="66">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0.12500000000000003</v>
       </c>
       <c r="D210" s="70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>19.500000000000004</v>
       </c>
       <c r="E210" s="70">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>11.700000000000001</v>
       </c>
       <c r="F210" s="70">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>7.0200000000000014</v>
       </c>
-    </row>
-    <row r="211" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H210">
+        <f t="shared" si="11"/>
+        <v>16.589552238805972</v>
+      </c>
+      <c r="I210">
+        <f t="shared" si="10"/>
+        <v>1.7345686567164231</v>
+      </c>
+      <c r="J210">
+        <f t="shared" si="10"/>
+        <v>7.0200000000000011E-3</v>
+      </c>
+      <c r="K210">
+        <f t="shared" si="12"/>
+        <v>18.331140895522395</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A211" s="68" t="s">
         <v>49</v>
       </c>
@@ -9600,8 +10100,24 @@
         <f>$F$204*C211</f>
         <v>4.9638896039295632</v>
       </c>
-    </row>
-    <row r="212" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H211">
+        <f t="shared" si="11"/>
+        <v>11.730584884908172</v>
+      </c>
+      <c r="I211">
+        <f t="shared" si="10"/>
+        <v>1.2265252595978233</v>
+      </c>
+      <c r="J211">
+        <f t="shared" si="10"/>
+        <v>4.9638896039295635E-3</v>
+      </c>
+      <c r="K211">
+        <f t="shared" si="12"/>
+        <v>12.962074034109925</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A212" s="68" t="s">
         <v>50</v>
       </c>
@@ -9609,7 +10125,7 @@
         <v>45</v>
       </c>
       <c r="C212" s="66">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>6.25E-2</v>
       </c>
       <c r="D212" s="70">
@@ -9624,8 +10140,24 @@
         <f>$F$204*C212</f>
         <v>3.51</v>
       </c>
-    </row>
-    <row r="213" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H212">
+        <f t="shared" si="11"/>
+        <v>8.2947761194029841</v>
+      </c>
+      <c r="I212">
+        <f t="shared" si="10"/>
+        <v>0.86728432835821145</v>
+      </c>
+      <c r="J212">
+        <f t="shared" si="10"/>
+        <v>3.5099999999999997E-3</v>
+      </c>
+      <c r="K212">
+        <f t="shared" si="12"/>
+        <v>9.1655704477611959</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A213" s="68" t="s">
         <v>51</v>
       </c>
@@ -9633,7 +10165,7 @@
         <v>50</v>
       </c>
       <c r="C213" s="66">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>4.4194173824159223E-2</v>
       </c>
       <c r="D213" s="70">
@@ -9648,8 +10180,24 @@
         <f>$F$204*C213</f>
         <v>2.4819448019647816</v>
       </c>
-    </row>
-    <row r="214" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H213">
+        <f t="shared" si="11"/>
+        <v>5.865292442454086</v>
+      </c>
+      <c r="I213">
+        <f t="shared" si="10"/>
+        <v>0.61326262979891166</v>
+      </c>
+      <c r="J213">
+        <f t="shared" si="10"/>
+        <v>2.4819448019647817E-3</v>
+      </c>
+      <c r="K213">
+        <f t="shared" si="12"/>
+        <v>6.4810370170549625</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A214" s="68" t="s">
         <v>52</v>
       </c>
@@ -9657,7 +10205,7 @@
         <v>55</v>
       </c>
       <c r="C214" s="66">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>3.125E-2</v>
       </c>
       <c r="D214" s="70">
@@ -9672,39 +10220,63 @@
         <f>$F$204*C214</f>
         <v>1.7549999999999999</v>
       </c>
-    </row>
-    <row r="215" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H214">
+        <f t="shared" si="11"/>
+        <v>4.147388059701492</v>
+      </c>
+      <c r="I214">
+        <f t="shared" si="10"/>
+        <v>0.43364216417910573</v>
+      </c>
+      <c r="J214">
+        <f t="shared" si="10"/>
+        <v>1.7549999999999998E-3</v>
+      </c>
+      <c r="K214">
+        <f t="shared" si="12"/>
+        <v>4.5827852238805979</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A215" s="66"/>
       <c r="B215" s="71"/>
       <c r="C215" s="66"/>
       <c r="D215" s="73"/>
       <c r="E215" s="73"/>
       <c r="F215" s="73"/>
-    </row>
-    <row r="216" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A216" s="79" t="s">
+      <c r="K215">
+        <f>AVERAGE(K201:K214)</f>
+        <v>36.59889506656333</v>
+      </c>
+      <c r="L215">
+        <f>K215/(365.25/7)</f>
+        <v>0.7014161956630891</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A216" s="96" t="s">
         <v>95</v>
       </c>
-      <c r="B216" s="79"/>
-      <c r="C216" s="79"/>
-      <c r="D216" s="79"/>
-      <c r="E216" s="79"/>
-      <c r="F216" s="79"/>
-    </row>
-    <row r="217" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A217" s="80" t="s">
+      <c r="B216" s="96"/>
+      <c r="C216" s="96"/>
+      <c r="D216" s="96"/>
+      <c r="E216" s="96"/>
+      <c r="F216" s="96"/>
+    </row>
+    <row r="217" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A217" s="97" t="s">
         <v>2</v>
       </c>
       <c r="B217" s="66"/>
       <c r="C217" s="66"/>
-      <c r="D217" s="78" t="s">
+      <c r="D217" s="95" t="s">
         <v>58</v>
       </c>
-      <c r="E217" s="78"/>
-      <c r="F217" s="78"/>
-    </row>
-    <row r="218" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A218" s="80"/>
+      <c r="E217" s="95"/>
+      <c r="F217" s="95"/>
+    </row>
+    <row r="218" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A218" s="97"/>
       <c r="B218" s="66"/>
       <c r="C218" s="67" t="s">
         <v>54</v>
@@ -9719,7 +10291,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="219" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A219" s="68" t="s">
         <v>31</v>
       </c>
@@ -9735,7 +10307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A220" s="68" t="s">
         <v>30</v>
       </c>
@@ -9751,7 +10323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A221" s="68" t="s">
         <v>39</v>
       </c>
@@ -9772,7 +10344,7 @@
         <v>2.8079999999999998</v>
       </c>
     </row>
-    <row r="222" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A222" s="68" t="s">
         <v>40</v>
       </c>
@@ -9793,7 +10365,7 @@
         <v>5.6159999999999997</v>
       </c>
     </row>
-    <row r="223" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A223" s="68" t="s">
         <v>41</v>
       </c>
@@ -9816,7 +10388,7 @@
         <v>22.463999999999999</v>
       </c>
     </row>
-    <row r="224" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A224" s="68" t="s">
         <v>42</v>
       </c>
@@ -9845,7 +10417,7 @@
         <v>10</v>
       </c>
       <c r="C225" s="66">
-        <f t="shared" ref="C225:C234" si="10">EXP(LN(0.5)*B224/10)</f>
+        <f t="shared" ref="C225:C234" si="17">EXP(LN(0.5)*B224/10)</f>
         <v>0.70710678118654757</v>
       </c>
       <c r="D225" s="69">
@@ -9869,19 +10441,19 @@
         <v>15</v>
       </c>
       <c r="C226" s="66">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>0.5</v>
       </c>
       <c r="D226" s="69">
-        <f t="shared" ref="D226:D232" si="11">$D$224*C226</f>
+        <f t="shared" ref="D226:D232" si="18">$D$224*C226</f>
         <v>78</v>
       </c>
       <c r="E226" s="69">
-        <f t="shared" ref="E226:E232" si="12">$E$224*C226</f>
+        <f t="shared" ref="E226:E232" si="19">$E$224*C226</f>
         <v>46.8</v>
       </c>
       <c r="F226" s="69">
-        <f t="shared" ref="F226:F232" si="13">$F$224*C226</f>
+        <f t="shared" ref="F226:F232" si="20">$F$224*C226</f>
         <v>28.08</v>
       </c>
     </row>
@@ -9893,19 +10465,19 @@
         <v>20</v>
       </c>
       <c r="C227" s="66">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>0.35355339059327379</v>
       </c>
       <c r="D227" s="69">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>55.154328932550712</v>
       </c>
       <c r="E227" s="69">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>33.092597359530423</v>
       </c>
       <c r="F227" s="69">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>19.855558415718253</v>
       </c>
     </row>
@@ -9917,19 +10489,19 @@
         <v>25</v>
       </c>
       <c r="C228" s="66">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>0.25</v>
       </c>
       <c r="D228" s="69">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>39</v>
       </c>
       <c r="E228" s="69">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>23.4</v>
       </c>
       <c r="F228" s="69">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>14.04</v>
       </c>
     </row>
@@ -9941,19 +10513,19 @@
         <v>30</v>
       </c>
       <c r="C229" s="66">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>0.17677669529663689</v>
       </c>
       <c r="D229" s="69">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>27.577164466275356</v>
       </c>
       <c r="E229" s="69">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>16.546298679765211</v>
       </c>
       <c r="F229" s="69">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>9.9277792078591265</v>
       </c>
     </row>
@@ -9965,19 +10537,19 @@
         <v>35</v>
       </c>
       <c r="C230" s="66">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>0.12500000000000003</v>
       </c>
       <c r="D230" s="69">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>19.500000000000004</v>
       </c>
       <c r="E230" s="69">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>11.700000000000001</v>
       </c>
       <c r="F230" s="69">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>7.0200000000000014</v>
       </c>
     </row>
@@ -9989,19 +10561,19 @@
         <v>40</v>
       </c>
       <c r="C231" s="66">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>8.8388347648318447E-2</v>
       </c>
       <c r="D231" s="69">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>13.788582233137678</v>
       </c>
       <c r="E231" s="69">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>8.2731493398826057</v>
       </c>
       <c r="F231" s="69">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>4.9638896039295632</v>
       </c>
     </row>
@@ -10013,19 +10585,19 @@
         <v>45</v>
       </c>
       <c r="C232" s="66">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>6.25E-2</v>
       </c>
       <c r="D232" s="69">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>9.75</v>
       </c>
       <c r="E232" s="69">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>5.85</v>
       </c>
       <c r="F232" s="69">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>3.51</v>
       </c>
     </row>
@@ -10061,7 +10633,7 @@
         <v>55</v>
       </c>
       <c r="C234" s="66">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>3.125E-2</v>
       </c>
       <c r="D234" s="69">
@@ -10147,6 +10719,16 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A197:A198"/>
+    <mergeCell ref="A216:F216"/>
+    <mergeCell ref="A217:A218"/>
+    <mergeCell ref="B158:D158"/>
+    <mergeCell ref="E158:G158"/>
+    <mergeCell ref="A183:C183"/>
+    <mergeCell ref="A195:F195"/>
+    <mergeCell ref="A196:F196"/>
+    <mergeCell ref="D197:F197"/>
+    <mergeCell ref="D217:F217"/>
     <mergeCell ref="A109:A111"/>
     <mergeCell ref="B109:G109"/>
     <mergeCell ref="B130:G130"/>
@@ -10159,16 +10741,6 @@
     <mergeCell ref="E52:G52"/>
     <mergeCell ref="A81:A83"/>
     <mergeCell ref="B81:B83"/>
-    <mergeCell ref="A197:A198"/>
-    <mergeCell ref="A216:F216"/>
-    <mergeCell ref="A217:A218"/>
-    <mergeCell ref="B158:D158"/>
-    <mergeCell ref="E158:G158"/>
-    <mergeCell ref="A183:C183"/>
-    <mergeCell ref="A195:F195"/>
-    <mergeCell ref="A196:F196"/>
-    <mergeCell ref="D197:F197"/>
-    <mergeCell ref="D217:F217"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Config/Population_data.xlsx
+++ b/Config/Population_data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="137">
   <si>
     <t>Male</t>
   </si>
@@ -415,9 +415,6 @@
     <t>HIV-</t>
   </si>
   <si>
-    <t>Note: fertility rates changed linearly from 1995 to 2005 so that the model's population growth resembles actual population growth patterns. Fertility rate for 2005 onwards is 1/2 the fertility rate before 1995.</t>
-  </si>
-  <si>
     <t>Fertility Rate (per year) before 1995</t>
   </si>
   <si>
@@ -532,12 +529,132 @@
   <si>
     <t>Statistics South Africa. Primary tables KwaZulu-Natal: Census '96 and 2001 compared. . (2004). (http://www.statssa.gov.za/census/census_2011/census_products/KZN_Municipal_Report.pdf, page 120)</t>
   </si>
+  <si>
+    <t>Population (both sexes, 0-100+)</t>
+  </si>
+  <si>
+    <t>SA</t>
+  </si>
+  <si>
+    <t>KZN</t>
+  </si>
+  <si>
+    <t>2011 Census</t>
+  </si>
+  <si>
+    <t>US Census</t>
+  </si>
+  <si>
+    <t>US Census Bureau</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Male Population</t>
+  </si>
+  <si>
+    <t>Female Population</t>
+  </si>
+  <si>
+    <t>0-4</t>
+  </si>
+  <si>
+    <t>15-19</t>
+  </si>
+  <si>
+    <t>20-24</t>
+  </si>
+  <si>
+    <t>30-34</t>
+  </si>
+  <si>
+    <t>35-39</t>
+  </si>
+  <si>
+    <t>40-44</t>
+  </si>
+  <si>
+    <t>45-49</t>
+  </si>
+  <si>
+    <t>50-54</t>
+  </si>
+  <si>
+    <t>55-59</t>
+  </si>
+  <si>
+    <t>60-64</t>
+  </si>
+  <si>
+    <t>65-69</t>
+  </si>
+  <si>
+    <t>70-74</t>
+  </si>
+  <si>
+    <t>75-79</t>
+  </si>
+  <si>
+    <t>5-9</t>
+  </si>
+  <si>
+    <t>10-14</t>
+  </si>
+  <si>
+    <t>80-84</t>
+  </si>
+  <si>
+    <t>85-89</t>
+  </si>
+  <si>
+    <t>90-94</t>
+  </si>
+  <si>
+    <t>95-99</t>
+  </si>
+  <si>
+    <t>100+</t>
+  </si>
+  <si>
+    <t>Total Population</t>
+  </si>
+  <si>
+    <t>M Ratio</t>
+  </si>
+  <si>
+    <t>F Ratio</t>
+  </si>
+  <si>
+    <t>KZN 1996 by age group</t>
+  </si>
+  <si>
+    <t>SA 1985 by age group</t>
+  </si>
+  <si>
+    <t>KZN: SA</t>
+  </si>
+  <si>
+    <t>(ages 0-14)</t>
+  </si>
+  <si>
+    <t>(ages 15-64)</t>
+  </si>
+  <si>
+    <t>(ages 65-100+)</t>
+  </si>
+  <si>
+    <t>Anderson</t>
+  </si>
+  <si>
+    <t>Note: fertility rates changed linearly from 1990 to 2015 so that the model's population growth resembles actual population growth patterns. Fertility rate for 2015 onwards is 1/2 the fertility rate before 1990. Anderson source defines fertility for ages 15-49; Ross defines mults by HIV status.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -747,8 +864,30 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13.5"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -944,6 +1083,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1331,7 +1476,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="48">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1386,8 +1531,9 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="28">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1454,9 +1600,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1562,6 +1705,33 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1595,9 +1765,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1613,32 +1780,77 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="48"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="28" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="28" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="48" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="48">
+  <cellStyles count="49">
     <cellStyle name="20% - Accent1" xfId="18" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="22" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="26" builtinId="38" customBuiltin="1"/>
@@ -1675,6 +1887,7 @@
     <cellStyle name="Heading 2" xfId="2" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="3" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="4" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
     <cellStyle name="Input" xfId="8" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="11" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="7" builtinId="28" customBuiltin="1"/>
@@ -1690,6 +1903,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFFCC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -3975,6 +4193,316 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12871559349687808"/>
+          <c:y val="0.14784257427234199"/>
+          <c:w val="0.81838157142458989"/>
+          <c:h val="0.75968798334772913"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Demographics!$E$9:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2011</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Demographics!$F$9:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>8452868</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9584129</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10267300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-99AB-4B28-B58F-2A4AF8E6847B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="571929520"/>
+        <c:axId val="571930352"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="571929520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="1910"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="571930352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="571930352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="571929520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -4056,6 +4584,46 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5583,6 +6151,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -5816,6 +6900,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>202405</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1428750</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>19048</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6090,8 +7204,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AF239"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B163" sqref="B163"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A108" sqref="A108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6102,18 +7216,20 @@
     <col min="4" max="4" width="13.28515625" customWidth="1"/>
     <col min="5" max="5" width="16.5703125" customWidth="1"/>
     <col min="6" max="6" width="16.85546875" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.85546875" customWidth="1"/>
     <col min="11" max="11" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="25" customWidth="1"/>
-    <col min="16" max="16" width="17.7109375" customWidth="1"/>
-    <col min="17" max="17" width="19.85546875" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="11.85546875" customWidth="1"/>
     <col min="21" max="21" width="15.42578125" customWidth="1"/>
-    <col min="22" max="22" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="14.140625" customWidth="1"/>
     <col min="26" max="26" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="12.28515625" customWidth="1"/>
@@ -6129,108 +7245,141 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="57"/>
-      <c r="Q1" s="57"/>
-      <c r="R1" s="57"/>
-      <c r="S1" s="57"/>
-      <c r="T1" s="57"/>
-      <c r="U1" s="57"/>
-      <c r="V1" s="57"/>
-      <c r="W1" s="57"/>
-      <c r="X1" s="57"/>
-      <c r="Y1" s="57"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="56"/>
+      <c r="W1" s="56"/>
+      <c r="X1" s="56"/>
+      <c r="Y1" s="56"/>
     </row>
     <row r="2" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="57"/>
-      <c r="S2" s="57"/>
-      <c r="T2" s="57"/>
-      <c r="U2" s="57"/>
-      <c r="V2" s="57"/>
-      <c r="W2" s="57"/>
-      <c r="X2" s="57"/>
-      <c r="Y2" s="57"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="56"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="56"/>
+      <c r="W2" s="56"/>
+      <c r="X2" s="56"/>
+      <c r="Y2" s="56"/>
     </row>
     <row r="3" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="58" t="s">
-        <v>97</v>
-      </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="57"/>
-      <c r="O3" s="57"/>
-      <c r="P3" s="57"/>
-      <c r="Q3" s="57"/>
-      <c r="R3" s="57"/>
-      <c r="S3" s="57"/>
-      <c r="T3" s="57"/>
-      <c r="U3" s="57"/>
-      <c r="V3" s="57"/>
-      <c r="W3" s="57"/>
-      <c r="X3" s="57"/>
-      <c r="Y3" s="57"/>
-    </row>
-    <row r="4" spans="1:25" s="59" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="57" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="56"/>
+      <c r="P3" s="56"/>
+      <c r="Q3" s="56"/>
+      <c r="R3" s="56"/>
+      <c r="S3" s="56"/>
+      <c r="T3" s="56"/>
+      <c r="U3" s="56"/>
+      <c r="V3" s="56"/>
+      <c r="W3" s="56"/>
+      <c r="X3" s="56"/>
+      <c r="Y3" s="56"/>
+    </row>
+    <row r="4" spans="1:25" s="58" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="87" t="s">
+      <c r="B4" s="95" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="88"/>
+      <c r="C4" s="96"/>
+      <c r="O4" s="58" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="5" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="60"/>
-      <c r="B5" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="54" t="s">
+      <c r="A5" s="59"/>
+      <c r="B5" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="53" t="s">
         <v>1</v>
+      </c>
+      <c r="O5" s="122" t="s">
+        <v>29</v>
+      </c>
+      <c r="P5" s="122" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q5" s="123" t="s">
+        <v>126</v>
+      </c>
+      <c r="R5" s="122" t="s">
+        <v>104</v>
+      </c>
+      <c r="S5" s="122" t="s">
+        <v>105</v>
+      </c>
+      <c r="T5" s="118" t="s">
+        <v>127</v>
+      </c>
+      <c r="U5" s="118" t="s">
+        <v>128</v>
+      </c>
+      <c r="V5" s="118" t="s">
+        <v>130</v>
+      </c>
+      <c r="W5" s="114" t="s">
+        <v>129</v>
+      </c>
+      <c r="X5" s="118" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -6243,8 +7392,31 @@
       <c r="C6" s="13">
         <v>417311</v>
       </c>
-    </row>
-    <row r="7" spans="1:25" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O6" s="124">
+        <v>1985</v>
+      </c>
+      <c r="P6" s="125" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q6" s="126">
+        <v>4975738</v>
+      </c>
+      <c r="R6" s="126">
+        <v>2490485</v>
+      </c>
+      <c r="S6" s="126">
+        <v>2485253</v>
+      </c>
+      <c r="T6">
+        <f>R6/B6</f>
+        <v>5.9554053310823578</v>
+      </c>
+      <c r="U6">
+        <f>S6/C6</f>
+        <v>5.9553977728840124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
@@ -6254,6 +7426,41 @@
       <c r="C7" s="13">
         <v>361594</v>
       </c>
+      <c r="E7" s="71" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="104" t="s">
+        <v>97</v>
+      </c>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="O7" s="124">
+        <v>1985</v>
+      </c>
+      <c r="P7" s="127" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q7" s="126">
+        <v>4309401</v>
+      </c>
+      <c r="R7" s="126">
+        <v>2155962</v>
+      </c>
+      <c r="S7" s="126">
+        <v>2153439</v>
+      </c>
+      <c r="T7">
+        <f>R7/B7</f>
+        <v>5.9567163436831718</v>
+      </c>
+      <c r="U7">
+        <f>S7/C7</f>
+        <v>5.9554057866004415</v>
+      </c>
+      <c r="V7" s="121" t="s">
+        <v>132</v>
+      </c>
+      <c r="W7" s="121"/>
     </row>
     <row r="8" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
@@ -6265,6 +7472,48 @@
       <c r="C8" s="13">
         <v>329333</v>
       </c>
+      <c r="E8" s="71">
+        <v>1985</v>
+      </c>
+      <c r="F8" s="105">
+        <v>34254092</v>
+      </c>
+      <c r="G8" s="71" t="s">
+        <v>98</v>
+      </c>
+      <c r="H8" s="71" t="s">
+        <v>100</v>
+      </c>
+      <c r="O8" s="124">
+        <v>1985</v>
+      </c>
+      <c r="P8" s="127" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q8" s="126">
+        <v>3909744</v>
+      </c>
+      <c r="R8" s="126">
+        <v>1948437</v>
+      </c>
+      <c r="S8" s="126">
+        <v>1961307</v>
+      </c>
+      <c r="T8">
+        <f>R8/B8</f>
+        <v>5.955408639518784</v>
+      </c>
+      <c r="U8">
+        <f>S8/C8</f>
+        <v>5.9553916552547115</v>
+      </c>
+      <c r="V8" s="115">
+        <f>SUM(Q6:Q8)</f>
+        <v>13194883</v>
+      </c>
+      <c r="W8" s="116">
+        <v>3063742</v>
+      </c>
     </row>
     <row r="9" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
@@ -6276,6 +7525,53 @@
       <c r="C9" s="13">
         <v>296947</v>
       </c>
+      <c r="E9" s="71">
+        <v>1996</v>
+      </c>
+      <c r="F9" s="105">
+        <v>8452868</v>
+      </c>
+      <c r="G9" s="71" t="s">
+        <v>99</v>
+      </c>
+      <c r="H9" s="71" t="s">
+        <v>102</v>
+      </c>
+      <c r="O9" s="124">
+        <v>1985</v>
+      </c>
+      <c r="P9" s="125" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q9" s="126">
+        <v>3493280</v>
+      </c>
+      <c r="R9" s="126">
+        <v>1724844</v>
+      </c>
+      <c r="S9" s="126">
+        <v>1768436</v>
+      </c>
+      <c r="T9">
+        <f>R9/B9</f>
+        <v>5.9553978047626774</v>
+      </c>
+      <c r="U9">
+        <f>S9/C9</f>
+        <v>5.9553927131777726</v>
+      </c>
+      <c r="V9" s="108">
+        <f>V8/(V8+V18+V26)</f>
+        <v>0.38520603611387511</v>
+      </c>
+      <c r="W9" s="108">
+        <f>W8/(W18+W8+W26)</f>
+        <v>0.36244995634026744</v>
+      </c>
+      <c r="X9" s="119">
+        <f>W9/V9</f>
+        <v>0.94092491383784937</v>
+      </c>
     </row>
     <row r="10" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
@@ -6287,6 +7583,43 @@
       <c r="C10" s="13">
         <v>273204</v>
       </c>
+      <c r="E10" s="71">
+        <v>2001</v>
+      </c>
+      <c r="F10" s="105">
+        <v>9584129</v>
+      </c>
+      <c r="G10" s="71" t="s">
+        <v>99</v>
+      </c>
+      <c r="H10" s="71" t="s">
+        <v>102</v>
+      </c>
+      <c r="O10" s="124">
+        <v>1985</v>
+      </c>
+      <c r="P10" s="125" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q10" s="126">
+        <v>3191549</v>
+      </c>
+      <c r="R10" s="126">
+        <v>1564509</v>
+      </c>
+      <c r="S10" s="126">
+        <v>1627040</v>
+      </c>
+      <c r="T10">
+        <f>R10/B10</f>
+        <v>5.9554060844143981</v>
+      </c>
+      <c r="U10">
+        <f>S10/C10</f>
+        <v>5.9554032883852361</v>
+      </c>
+      <c r="V10" s="108"/>
+      <c r="W10" s="108"/>
     </row>
     <row r="11" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
@@ -6298,6 +7631,43 @@
       <c r="C11" s="13">
         <v>249396</v>
       </c>
+      <c r="E11" s="71">
+        <v>2011</v>
+      </c>
+      <c r="F11" s="105">
+        <v>10267300</v>
+      </c>
+      <c r="G11" s="71" t="s">
+        <v>99</v>
+      </c>
+      <c r="H11" s="71" t="s">
+        <v>102</v>
+      </c>
+      <c r="O11" s="124">
+        <v>1985</v>
+      </c>
+      <c r="P11" s="125" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q11" s="126">
+        <v>2888777</v>
+      </c>
+      <c r="R11" s="126">
+        <v>1403525</v>
+      </c>
+      <c r="S11" s="126">
+        <v>1485252</v>
+      </c>
+      <c r="T11">
+        <f>R11/B11</f>
+        <v>5.9553915807071665</v>
+      </c>
+      <c r="U11">
+        <f>S11/C11</f>
+        <v>5.9553962373093396</v>
+      </c>
+      <c r="V11" s="108"/>
+      <c r="W11" s="108"/>
     </row>
     <row r="12" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
@@ -6309,6 +7679,35 @@
       <c r="C12" s="13">
         <v>211839</v>
       </c>
+      <c r="E12" s="110"/>
+      <c r="F12" s="111"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="O12" s="124">
+        <v>1985</v>
+      </c>
+      <c r="P12" s="125" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q12" s="126">
+        <v>2439661</v>
+      </c>
+      <c r="R12" s="126">
+        <v>1178076</v>
+      </c>
+      <c r="S12" s="126">
+        <v>1261585</v>
+      </c>
+      <c r="T12">
+        <f>R12/B12</f>
+        <v>5.9554131111740203</v>
+      </c>
+      <c r="U12">
+        <f>S12/C12</f>
+        <v>5.9553953710128917</v>
+      </c>
+      <c r="V12" s="108"/>
+      <c r="W12" s="108"/>
     </row>
     <row r="13" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
@@ -6320,6 +7719,33 @@
       <c r="C13" s="13">
         <v>176470</v>
       </c>
+      <c r="E13" s="119"/>
+      <c r="F13" s="119"/>
+      <c r="O13" s="124">
+        <v>1985</v>
+      </c>
+      <c r="P13" s="125" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q13" s="126">
+        <v>2009486</v>
+      </c>
+      <c r="R13" s="126">
+        <v>958536</v>
+      </c>
+      <c r="S13" s="126">
+        <v>1050950</v>
+      </c>
+      <c r="T13">
+        <f>R13/B13</f>
+        <v>5.9554152790894177</v>
+      </c>
+      <c r="U13">
+        <f>S13/C13</f>
+        <v>5.9554031846772819</v>
+      </c>
+      <c r="V13" s="108"/>
+      <c r="W13" s="108"/>
     </row>
     <row r="14" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
@@ -6331,6 +7757,31 @@
       <c r="C14" s="13">
         <v>143351</v>
       </c>
+      <c r="O14" s="124">
+        <v>1985</v>
+      </c>
+      <c r="P14" s="125" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q14" s="126">
+        <v>1641675</v>
+      </c>
+      <c r="R14" s="126">
+        <v>787963</v>
+      </c>
+      <c r="S14" s="126">
+        <v>853712</v>
+      </c>
+      <c r="T14">
+        <f>R14/B14</f>
+        <v>5.9553854176901391</v>
+      </c>
+      <c r="U14">
+        <f>S14/C14</f>
+        <v>5.955396195352666</v>
+      </c>
+      <c r="V14" s="108"/>
+      <c r="W14" s="108"/>
     </row>
     <row r="15" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
@@ -6342,6 +7793,32 @@
       <c r="C15" s="13">
         <v>123441</v>
       </c>
+      <c r="E15" s="110"/>
+      <c r="O15" s="124">
+        <v>1985</v>
+      </c>
+      <c r="P15" s="125" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q15" s="126">
+        <v>1395292</v>
+      </c>
+      <c r="R15" s="126">
+        <v>660150</v>
+      </c>
+      <c r="S15" s="126">
+        <v>735142</v>
+      </c>
+      <c r="T15">
+        <f>R15/B15</f>
+        <v>5.9553987857355501</v>
+      </c>
+      <c r="U15">
+        <f>S15/C15</f>
+        <v>5.9554118971816496</v>
+      </c>
+      <c r="V15" s="108"/>
+      <c r="W15" s="108"/>
     </row>
     <row r="16" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
@@ -6353,8 +7830,33 @@
       <c r="C16" s="13">
         <v>98355</v>
       </c>
-    </row>
-    <row r="17" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O16" s="124">
+        <v>1985</v>
+      </c>
+      <c r="P16" s="125" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q16" s="126">
+        <v>1115933</v>
+      </c>
+      <c r="R16" s="126">
+        <v>530191</v>
+      </c>
+      <c r="S16" s="126">
+        <v>585742</v>
+      </c>
+      <c r="T16">
+        <f>R16/B16</f>
+        <v>5.955395554157727</v>
+      </c>
+      <c r="U16">
+        <f>S16/C16</f>
+        <v>5.9553861013674956</v>
+      </c>
+      <c r="V16" s="108"/>
+      <c r="W16" s="108"/>
+    </row>
+    <row r="17" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
         <v>27</v>
       </c>
@@ -6364,8 +7866,35 @@
       <c r="C17" s="24">
         <v>82330</v>
       </c>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="O17" s="124">
+        <v>1985</v>
+      </c>
+      <c r="P17" s="125" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q17" s="126">
+        <v>910746</v>
+      </c>
+      <c r="R17" s="126">
+        <v>419780</v>
+      </c>
+      <c r="S17" s="126">
+        <v>490966</v>
+      </c>
+      <c r="T17">
+        <f>R17/B17</f>
+        <v>5.9554244045001203</v>
+      </c>
+      <c r="U17">
+        <f>S17/C17</f>
+        <v>5.9633912304141869</v>
+      </c>
+      <c r="V17" s="106" t="s">
+        <v>133</v>
+      </c>
+      <c r="W17" s="106"/>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
         <v>49</v>
       </c>
@@ -6377,8 +7906,38 @@
         <f>366793/6.36</f>
         <v>57671.85534591195</v>
       </c>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="O18" s="124">
+        <v>1985</v>
+      </c>
+      <c r="P18" s="125" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q18" s="126">
+        <v>680887</v>
+      </c>
+      <c r="R18" s="126">
+        <v>314094</v>
+      </c>
+      <c r="S18" s="126">
+        <v>366793</v>
+      </c>
+      <c r="T18">
+        <f>R18/B18</f>
+        <v>6.27</v>
+      </c>
+      <c r="U18">
+        <f>S18/C18</f>
+        <v>6.36</v>
+      </c>
+      <c r="V18" s="109">
+        <f>SUM(Q9:Q18)</f>
+        <v>19767286</v>
+      </c>
+      <c r="W18" s="108">
+        <v>5004543</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="21" t="s">
         <v>50</v>
       </c>
@@ -6390,8 +7949,43 @@
         <f>282911/6.36</f>
         <v>44482.861635220121</v>
       </c>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="O19" s="124">
+        <v>1985</v>
+      </c>
+      <c r="P19" s="125" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q19" s="126">
+        <v>507401</v>
+      </c>
+      <c r="R19" s="126">
+        <v>224490</v>
+      </c>
+      <c r="S19" s="126">
+        <v>282911</v>
+      </c>
+      <c r="T19">
+        <f>R19/B19</f>
+        <v>6.2700000000000005</v>
+      </c>
+      <c r="U19">
+        <f>S19/C19</f>
+        <v>6.36</v>
+      </c>
+      <c r="V19" s="108">
+        <f>V18/(V8+V18+V26)</f>
+        <v>0.57707809040741764</v>
+      </c>
+      <c r="W19" s="108">
+        <f>W18/(W8+W18+W26)</f>
+        <v>0.59205259184780934</v>
+      </c>
+      <c r="X19" s="119">
+        <f>W19/V19</f>
+        <v>1.0259488303044388</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>51</v>
       </c>
@@ -6403,8 +7997,33 @@
         <f>215469/6.36</f>
         <v>33878.773584905655</v>
       </c>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="O20" s="124">
+        <v>1985</v>
+      </c>
+      <c r="P20" s="125" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q20" s="126">
+        <v>366592</v>
+      </c>
+      <c r="R20" s="126">
+        <v>151123</v>
+      </c>
+      <c r="S20" s="126">
+        <v>215469</v>
+      </c>
+      <c r="T20">
+        <f>R20/B20</f>
+        <v>6.27</v>
+      </c>
+      <c r="U20">
+        <f>S20/C20</f>
+        <v>6.3600000000000012</v>
+      </c>
+      <c r="V20" s="108"/>
+      <c r="W20" s="108"/>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>52</v>
       </c>
@@ -6416,8 +8035,33 @@
         <f>144901/6.36</f>
         <v>22783.176100628931</v>
       </c>
-    </row>
-    <row r="22" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O21" s="124">
+        <v>1985</v>
+      </c>
+      <c r="P21" s="125" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q21" s="126">
+        <v>234189</v>
+      </c>
+      <c r="R21" s="126">
+        <v>89288</v>
+      </c>
+      <c r="S21" s="126">
+        <v>144901</v>
+      </c>
+      <c r="T21">
+        <f>R21/B21</f>
+        <v>6.27</v>
+      </c>
+      <c r="U21">
+        <f>S21/C21</f>
+        <v>6.36</v>
+      </c>
+      <c r="V21" s="108"/>
+      <c r="W21" s="108"/>
+    </row>
+    <row r="22" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="26" t="s">
         <v>28</v>
       </c>
@@ -6433,48 +8077,202 @@
         <f>SUM(B22:C22)</f>
         <v>5703373.2934609242</v>
       </c>
-      <c r="X22" s="17"/>
-    </row>
-    <row r="23" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O22" s="124">
+        <v>1985</v>
+      </c>
+      <c r="P22" s="125" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q22" s="126">
+        <v>123670</v>
+      </c>
+      <c r="R22" s="126">
+        <v>42404</v>
+      </c>
+      <c r="S22" s="126">
+        <v>81266</v>
+      </c>
+      <c r="T22" s="108"/>
+      <c r="V22" s="108"/>
+      <c r="W22" s="108"/>
+    </row>
+    <row r="23" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
-    </row>
-    <row r="24" spans="1:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="27" t="s">
+      <c r="O23" s="124">
+        <v>1985</v>
+      </c>
+      <c r="P23" s="125" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q23" s="126">
+        <v>47083</v>
+      </c>
+      <c r="R23" s="126">
+        <v>14020</v>
+      </c>
+      <c r="S23" s="126">
+        <v>33063</v>
+      </c>
+      <c r="T23" s="108"/>
+      <c r="V23" s="108"/>
+      <c r="W23" s="108"/>
+      <c r="X23" s="30"/>
+    </row>
+    <row r="24" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="129" t="s">
         <v>59</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="130">
         <f>16661041/2656744</f>
         <v>6.2712256054779836</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="130">
         <f>17593051/2763571</f>
         <v>6.3660571774707435</v>
       </c>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F26" s="43"/>
-    </row>
-    <row r="27" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="52" t="s">
+      <c r="E24" s="130">
+        <v>2656744</v>
+      </c>
+      <c r="F24" s="130">
+        <v>2763571</v>
+      </c>
+      <c r="G24" s="130">
+        <f>E24+F24</f>
+        <v>5420315</v>
+      </c>
+      <c r="O24" s="124">
+        <v>1985</v>
+      </c>
+      <c r="P24" s="125" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q24" s="126">
+        <v>11366</v>
+      </c>
+      <c r="R24" s="126">
+        <v>2837</v>
+      </c>
+      <c r="S24" s="126">
+        <v>8529</v>
+      </c>
+      <c r="T24" s="108"/>
+      <c r="V24" s="108"/>
+      <c r="W24" s="108"/>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="E25" s="131">
+        <f>R27/T17</f>
+        <v>2797624.4627352422</v>
+      </c>
+      <c r="F25" s="131">
+        <f>S27/U17</f>
+        <v>2950175.5494881519</v>
+      </c>
+      <c r="G25" s="131">
+        <f>E25+F25</f>
+        <v>5747800.0122233946</v>
+      </c>
+      <c r="O25" s="124">
+        <v>1985</v>
+      </c>
+      <c r="P25" s="125" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q25" s="126">
+        <v>1518</v>
+      </c>
+      <c r="R25" s="125">
+        <v>310</v>
+      </c>
+      <c r="S25" s="126">
+        <v>1208</v>
+      </c>
+      <c r="T25" s="108"/>
+      <c r="V25" s="106" t="s">
+        <v>134</v>
+      </c>
+      <c r="W25" s="106"/>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="F26" s="42"/>
+      <c r="O26" s="124">
+        <v>1985</v>
+      </c>
+      <c r="P26" s="125" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q26" s="125">
+        <v>104</v>
+      </c>
+      <c r="R26" s="125">
+        <v>17</v>
+      </c>
+      <c r="S26" s="125">
+        <v>87</v>
+      </c>
+      <c r="T26" s="108"/>
+      <c r="V26" s="109">
+        <f>SUM(Q19:Q26)</f>
+        <v>1291923</v>
+      </c>
+      <c r="W26" s="108">
+        <v>384584</v>
+      </c>
+      <c r="Y26" s="108"/>
+    </row>
+    <row r="27" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="89" t="s">
+      <c r="B27" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="90"/>
-    </row>
-    <row r="28" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C27" s="97"/>
+      <c r="O27" s="132" t="s">
+        <v>28</v>
+      </c>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="103">
+        <f>SUM(Q6:Q26)</f>
+        <v>34254092</v>
+      </c>
+      <c r="R27" s="103">
+        <f>SUM(R6:R26)</f>
+        <v>16661041</v>
+      </c>
+      <c r="S27" s="103">
+        <f>SUM(S6:S26)</f>
+        <v>17593051</v>
+      </c>
+      <c r="V27">
+        <f>V26/(V8+V18+V26)</f>
+        <v>3.77158734787073E-2</v>
+      </c>
+      <c r="W27">
+        <f>W26/(W8+W18+W26)</f>
+        <v>4.5497451811923266E-2</v>
+      </c>
+      <c r="X27" s="120">
+        <f>W27/V27</f>
+        <v>1.2063210424546869</v>
+      </c>
+      <c r="Y27" s="108"/>
+    </row>
+    <row r="28" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="12"/>
-      <c r="B28" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="C28" s="52" t="s">
+      <c r="B28" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="51" t="s">
         <v>1</v>
       </c>
       <c r="F28" s="20"/>
-    </row>
-    <row r="29" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V28" s="102"/>
+      <c r="X28" s="108"/>
+      <c r="Y28" s="108"/>
+    </row>
+    <row r="29" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>11</v>
       </c>
@@ -6485,8 +8283,10 @@
       <c r="C29" s="26">
         <v>417311</v>
       </c>
-    </row>
-    <row r="30" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="X29" s="108"/>
+      <c r="Y29" s="108"/>
+    </row>
+    <row r="30" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>14</v>
       </c>
@@ -6496,8 +8296,10 @@
       <c r="C30" s="26">
         <v>361594</v>
       </c>
-    </row>
-    <row r="31" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="X30" s="108"/>
+      <c r="Y30" s="108"/>
+    </row>
+    <row r="31" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>17</v>
       </c>
@@ -6508,8 +8310,10 @@
         <v>329333</v>
       </c>
       <c r="L31" s="11"/>
-    </row>
-    <row r="32" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="X31" s="108"/>
+      <c r="Y31" s="108"/>
+    </row>
+    <row r="32" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>18</v>
       </c>
@@ -6519,6 +8323,8 @@
       <c r="C32" s="26">
         <v>296947</v>
       </c>
+      <c r="X32" s="108"/>
+      <c r="Y32" s="108"/>
     </row>
     <row r="33" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
@@ -6530,8 +8336,10 @@
       <c r="C33" s="26">
         <v>273204</v>
       </c>
-    </row>
-    <row r="34" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="X33" s="108"/>
+      <c r="Y33" s="108"/>
+    </row>
+    <row r="34" spans="1:32" ht="18" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>20</v>
       </c>
@@ -6541,6 +8349,9 @@
       <c r="C34" s="26">
         <v>249396</v>
       </c>
+      <c r="O34" s="113"/>
+      <c r="X34" s="108"/>
+      <c r="Y34" s="108"/>
     </row>
     <row r="35" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
@@ -6552,6 +8363,8 @@
       <c r="C35" s="26">
         <v>211839</v>
       </c>
+      <c r="X35" s="108"/>
+      <c r="Y35" s="108"/>
     </row>
     <row r="36" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
@@ -6563,8 +8376,9 @@
       <c r="C36" s="26">
         <v>176470</v>
       </c>
-      <c r="X36" s="17"/>
-      <c r="Y36" s="17"/>
+      <c r="O36" s="112"/>
+      <c r="X36" s="108"/>
+      <c r="Y36" s="108"/>
       <c r="Z36" s="9"/>
       <c r="AA36" s="9"/>
       <c r="AB36" s="9"/>
@@ -6583,8 +8397,15 @@
       <c r="C37" s="26">
         <v>143351</v>
       </c>
-      <c r="X37" s="18"/>
-      <c r="Y37" s="18"/>
+      <c r="Q37" s="107"/>
+      <c r="R37" s="108"/>
+      <c r="S37" s="109"/>
+      <c r="T37" s="109"/>
+      <c r="U37" s="109"/>
+      <c r="V37" s="108"/>
+      <c r="W37" s="108"/>
+      <c r="X37" s="108"/>
+      <c r="Y37" s="108"/>
       <c r="Z37" s="18"/>
       <c r="AA37" s="18"/>
       <c r="AB37" s="18"/>
@@ -6602,14 +8423,21 @@
       <c r="C38" s="26">
         <v>123441</v>
       </c>
-      <c r="X38" s="34"/>
-      <c r="Y38" s="34"/>
-      <c r="Z38" s="34"/>
-      <c r="AA38" s="34"/>
-      <c r="AB38" s="34"/>
-      <c r="AC38" s="34"/>
-      <c r="AD38" s="34"/>
-      <c r="AE38" s="34"/>
+      <c r="Q38" s="117"/>
+      <c r="R38" s="108"/>
+      <c r="S38" s="109"/>
+      <c r="T38" s="109"/>
+      <c r="U38" s="109"/>
+      <c r="V38" s="108"/>
+      <c r="W38" s="108"/>
+      <c r="X38" s="108"/>
+      <c r="Y38" s="108"/>
+      <c r="Z38" s="33"/>
+      <c r="AA38" s="33"/>
+      <c r="AB38" s="33"/>
+      <c r="AC38" s="33"/>
+      <c r="AD38" s="33"/>
+      <c r="AE38" s="33"/>
     </row>
     <row r="39" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
@@ -6621,14 +8449,21 @@
       <c r="C39" s="26">
         <v>98355</v>
       </c>
-      <c r="X39" s="35"/>
-      <c r="Y39" s="35"/>
-      <c r="Z39" s="35"/>
-      <c r="AA39" s="35"/>
-      <c r="AB39" s="35"/>
-      <c r="AC39" s="35"/>
-      <c r="AD39" s="35"/>
-      <c r="AE39" s="35"/>
+      <c r="Q39" s="107"/>
+      <c r="R39" s="108"/>
+      <c r="S39" s="109"/>
+      <c r="T39" s="109"/>
+      <c r="U39" s="109"/>
+      <c r="V39" s="108"/>
+      <c r="W39" s="108"/>
+      <c r="X39" s="108"/>
+      <c r="Y39" s="108"/>
+      <c r="Z39" s="34"/>
+      <c r="AA39" s="34"/>
+      <c r="AB39" s="34"/>
+      <c r="AC39" s="34"/>
+      <c r="AD39" s="34"/>
+      <c r="AE39" s="34"/>
     </row>
     <row r="40" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
@@ -6640,266 +8475,316 @@
       <c r="C40" s="26">
         <v>82330</v>
       </c>
-      <c r="X40" s="35"/>
-      <c r="Y40" s="35"/>
-      <c r="Z40" s="35"/>
-      <c r="AA40" s="35"/>
-      <c r="AB40" s="35"/>
-      <c r="AC40" s="35"/>
-      <c r="AD40" s="35"/>
-      <c r="AE40" s="35"/>
+      <c r="Q40" s="107"/>
+      <c r="R40" s="108"/>
+      <c r="S40" s="109"/>
+      <c r="T40" s="109"/>
+      <c r="U40" s="109"/>
+      <c r="V40" s="108"/>
+      <c r="W40" s="108"/>
+      <c r="X40" s="108"/>
+      <c r="Y40" s="108"/>
+      <c r="Z40" s="34"/>
+      <c r="AA40" s="34"/>
+      <c r="AB40" s="34"/>
+      <c r="AC40" s="34"/>
+      <c r="AD40" s="34"/>
+      <c r="AE40" s="34"/>
     </row>
     <row r="41" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="B41" s="61">
+      <c r="B41" s="60">
         <v>-50094.736842105267</v>
       </c>
-      <c r="C41" s="61">
+      <c r="C41" s="60">
         <f>366793/6.36</f>
         <v>57671.85534591195</v>
       </c>
-      <c r="X41" s="35"/>
-      <c r="Y41" s="35"/>
-      <c r="Z41" s="35"/>
-      <c r="AA41" s="35"/>
-      <c r="AB41" s="35"/>
-      <c r="AC41" s="35"/>
-      <c r="AD41" s="35"/>
-      <c r="AE41" s="35"/>
+      <c r="Q41" s="107"/>
+      <c r="R41" s="108"/>
+      <c r="S41" s="109"/>
+      <c r="T41" s="109"/>
+      <c r="U41" s="109"/>
+      <c r="V41" s="108"/>
+      <c r="W41" s="108"/>
+      <c r="X41" s="108"/>
+      <c r="Y41" s="108"/>
+      <c r="Z41" s="34"/>
+      <c r="AA41" s="34"/>
+      <c r="AB41" s="34"/>
+      <c r="AC41" s="34"/>
+      <c r="AD41" s="34"/>
+      <c r="AE41" s="34"/>
     </row>
     <row r="42" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="B42" s="61">
+      <c r="B42" s="60">
         <v>-35803.827751196171</v>
       </c>
-      <c r="C42" s="61">
+      <c r="C42" s="60">
         <f>282911/6.36</f>
         <v>44482.861635220121</v>
       </c>
-      <c r="X42" s="36"/>
-      <c r="Y42" s="36"/>
-      <c r="Z42" s="36"/>
-      <c r="AA42" s="36"/>
-      <c r="AB42" s="36"/>
-      <c r="AC42" s="36"/>
-      <c r="AD42" s="36"/>
-      <c r="AE42" s="36"/>
+      <c r="Q42" s="107"/>
+      <c r="R42" s="108"/>
+      <c r="S42" s="109"/>
+      <c r="T42" s="109"/>
+      <c r="U42" s="109"/>
+      <c r="V42" s="108"/>
+      <c r="W42" s="108"/>
+      <c r="X42" s="108"/>
+      <c r="Y42" s="108"/>
+      <c r="Z42" s="35"/>
+      <c r="AA42" s="35"/>
+      <c r="AB42" s="35"/>
+      <c r="AC42" s="35"/>
+      <c r="AD42" s="35"/>
+      <c r="AE42" s="35"/>
     </row>
     <row r="43" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="B43" s="61">
+      <c r="B43" s="60">
         <v>-24102.551834130783</v>
       </c>
-      <c r="C43" s="61">
+      <c r="C43" s="60">
         <f>215469/6.36</f>
         <v>33878.773584905655</v>
       </c>
-      <c r="X43" s="36"/>
-      <c r="Y43" s="36"/>
-      <c r="Z43" s="36"/>
-      <c r="AA43" s="36"/>
-      <c r="AB43" s="36"/>
-      <c r="AC43" s="36"/>
-      <c r="AD43" s="36"/>
-      <c r="AE43" s="36"/>
+      <c r="Q43" s="107"/>
+      <c r="R43" s="108"/>
+      <c r="S43" s="109"/>
+      <c r="T43" s="109"/>
+      <c r="U43" s="109"/>
+      <c r="V43" s="108"/>
+      <c r="W43" s="108"/>
+      <c r="X43" s="108"/>
+      <c r="Y43" s="108"/>
+      <c r="Z43" s="35"/>
+      <c r="AA43" s="35"/>
+      <c r="AB43" s="35"/>
+      <c r="AC43" s="35"/>
+      <c r="AD43" s="35"/>
+      <c r="AE43" s="35"/>
     </row>
     <row r="44" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="B44" s="61">
+      <c r="B44" s="60">
         <v>-14240.510366826158</v>
       </c>
-      <c r="C44" s="61">
+      <c r="C44" s="60">
         <f>144901/6.36</f>
         <v>22783.176100628931</v>
       </c>
-      <c r="X44" s="36"/>
-      <c r="Y44" s="36"/>
-      <c r="Z44" s="36"/>
-      <c r="AA44" s="36"/>
-      <c r="AB44" s="36"/>
-      <c r="AC44" s="36"/>
-      <c r="AD44" s="36"/>
-      <c r="AE44" s="36"/>
+      <c r="Q44" s="107"/>
+      <c r="R44" s="108"/>
+      <c r="S44" s="109"/>
+      <c r="T44" s="109"/>
+      <c r="U44" s="109"/>
+      <c r="V44" s="108"/>
+      <c r="W44" s="108"/>
+      <c r="X44" s="108"/>
+      <c r="Y44" s="108"/>
+      <c r="Z44" s="35"/>
+      <c r="AA44" s="35"/>
+      <c r="AB44" s="35"/>
+      <c r="AC44" s="35"/>
+      <c r="AD44" s="35"/>
+      <c r="AE44" s="35"/>
     </row>
     <row r="45" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="X45" s="36"/>
-      <c r="Y45" s="36"/>
-      <c r="Z45" s="36"/>
-      <c r="AA45" s="36"/>
-      <c r="AB45" s="36"/>
-      <c r="AC45" s="36"/>
-      <c r="AD45" s="36"/>
-      <c r="AE45" s="36"/>
+      <c r="Q45" s="107"/>
+      <c r="R45" s="108"/>
+      <c r="S45" s="109"/>
+      <c r="T45" s="109"/>
+      <c r="U45" s="109"/>
+      <c r="V45" s="108"/>
+      <c r="W45" s="108"/>
+      <c r="X45" s="108"/>
+      <c r="Y45" s="108"/>
+      <c r="Z45" s="35"/>
+      <c r="AA45" s="35"/>
+      <c r="AB45" s="35"/>
+      <c r="AC45" s="35"/>
+      <c r="AD45" s="35"/>
+      <c r="AE45" s="35"/>
     </row>
     <row r="46" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="X46" s="36"/>
-      <c r="Y46" s="36"/>
-      <c r="Z46" s="36"/>
-      <c r="AA46" s="36"/>
-      <c r="AB46" s="36"/>
-      <c r="AC46" s="36"/>
-      <c r="AD46" s="36"/>
-      <c r="AE46" s="36"/>
+      <c r="Q46" s="107"/>
+      <c r="R46" s="108"/>
+      <c r="S46" s="109"/>
+      <c r="T46" s="108"/>
+      <c r="U46" s="109"/>
+      <c r="V46" s="108"/>
+      <c r="W46" s="108"/>
+      <c r="X46" s="108"/>
+      <c r="Y46" s="108"/>
+      <c r="Z46" s="35"/>
+      <c r="AA46" s="35"/>
+      <c r="AB46" s="35"/>
+      <c r="AC46" s="35"/>
+      <c r="AD46" s="35"/>
+      <c r="AE46" s="35"/>
     </row>
     <row r="47" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="X47" s="36"/>
-      <c r="Y47" s="36"/>
-      <c r="Z47" s="36"/>
-      <c r="AA47" s="36"/>
-      <c r="AB47" s="36"/>
-      <c r="AC47" s="36"/>
-      <c r="AD47" s="36"/>
-      <c r="AE47" s="36"/>
+      <c r="Q47" s="107"/>
+      <c r="R47" s="108"/>
+      <c r="S47" s="108"/>
+      <c r="Z47" s="35"/>
+      <c r="AA47" s="35"/>
+      <c r="AB47" s="35"/>
+      <c r="AC47" s="35"/>
+      <c r="AD47" s="35"/>
+      <c r="AE47" s="35"/>
     </row>
     <row r="48" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="X48" s="36"/>
-      <c r="Y48" s="36"/>
-      <c r="Z48" s="36"/>
-      <c r="AA48" s="36"/>
-      <c r="AB48" s="36"/>
-      <c r="AC48" s="36"/>
-      <c r="AD48" s="36"/>
-      <c r="AE48" s="36"/>
+      <c r="X48" s="35"/>
+      <c r="Y48" s="35"/>
+      <c r="Z48" s="35"/>
+      <c r="AA48" s="35"/>
+      <c r="AB48" s="35"/>
+      <c r="AC48" s="35"/>
+      <c r="AD48" s="35"/>
+      <c r="AE48" s="35"/>
     </row>
     <row r="49" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="X49" s="36"/>
-      <c r="Y49" s="36"/>
-      <c r="Z49" s="36"/>
-      <c r="AA49" s="36"/>
-      <c r="AB49" s="36"/>
-      <c r="AC49" s="36"/>
-      <c r="AD49" s="36"/>
-      <c r="AE49" s="36"/>
+      <c r="X49" s="35"/>
+      <c r="Y49" s="35"/>
+      <c r="Z49" s="35"/>
+      <c r="AA49" s="35"/>
+      <c r="AB49" s="35"/>
+      <c r="AC49" s="35"/>
+      <c r="AD49" s="35"/>
+      <c r="AE49" s="35"/>
     </row>
     <row r="50" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="56" t="s">
+      <c r="A50" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="B50" s="57"/>
-      <c r="C50" s="57"/>
-      <c r="D50" s="57"/>
-      <c r="E50" s="57"/>
-      <c r="F50" s="57"/>
-      <c r="G50" s="57"/>
-      <c r="H50" s="57"/>
-      <c r="I50" s="57"/>
-      <c r="J50" s="57"/>
-      <c r="K50" s="57"/>
-      <c r="L50" s="57"/>
-      <c r="M50" s="57"/>
-      <c r="N50" s="57"/>
-      <c r="O50" s="57"/>
-      <c r="P50" s="57"/>
-      <c r="Q50" s="57"/>
-      <c r="R50" s="57"/>
-      <c r="S50" s="57"/>
-      <c r="T50" s="57"/>
-      <c r="U50" s="57"/>
-      <c r="V50" s="57"/>
-      <c r="W50" s="57"/>
-      <c r="X50" s="36"/>
-      <c r="Y50" s="36"/>
-      <c r="Z50" s="36"/>
-      <c r="AA50" s="36"/>
-      <c r="AB50" s="36"/>
-      <c r="AC50" s="36"/>
-      <c r="AD50" s="36"/>
-      <c r="AE50" s="36"/>
+      <c r="B50" s="56"/>
+      <c r="C50" s="56"/>
+      <c r="D50" s="56"/>
+      <c r="E50" s="56"/>
+      <c r="F50" s="56"/>
+      <c r="G50" s="56"/>
+      <c r="H50" s="56"/>
+      <c r="I50" s="56"/>
+      <c r="J50" s="56"/>
+      <c r="K50" s="56"/>
+      <c r="L50" s="56"/>
+      <c r="M50" s="56"/>
+      <c r="N50" s="56"/>
+      <c r="O50" s="56"/>
+      <c r="P50" s="56"/>
+      <c r="Q50" s="56"/>
+      <c r="R50" s="56"/>
+      <c r="S50" s="56"/>
+      <c r="T50" s="56"/>
+      <c r="U50" s="56"/>
+      <c r="V50" s="56"/>
+      <c r="W50" s="56"/>
+      <c r="X50" s="35"/>
+      <c r="Y50" s="35"/>
+      <c r="Z50" s="35"/>
+      <c r="AA50" s="35"/>
+      <c r="AB50" s="35"/>
+      <c r="AC50" s="35"/>
+      <c r="AD50" s="35"/>
+      <c r="AE50" s="35"/>
     </row>
     <row r="51" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="58" t="s">
+      <c r="A51" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="B51" s="57"/>
-      <c r="C51" s="57"/>
-      <c r="D51" s="57"/>
-      <c r="E51" s="57"/>
-      <c r="F51" s="57"/>
-      <c r="G51" s="57"/>
-      <c r="H51" s="57"/>
-      <c r="I51" s="57"/>
-      <c r="J51" s="57"/>
-      <c r="K51" s="57"/>
-      <c r="L51" s="57"/>
-      <c r="M51" s="57"/>
-      <c r="N51" s="57"/>
-      <c r="O51" s="57"/>
-      <c r="P51" s="57"/>
-      <c r="Q51" s="57"/>
-      <c r="R51" s="57"/>
-      <c r="S51" s="57"/>
-      <c r="T51" s="57"/>
-      <c r="U51" s="57"/>
-      <c r="V51" s="57"/>
-      <c r="W51" s="57"/>
-      <c r="X51" s="36"/>
-      <c r="Y51" s="36"/>
-      <c r="Z51" s="36"/>
-      <c r="AA51" s="36"/>
-      <c r="AB51" s="36"/>
-      <c r="AC51" s="36"/>
-      <c r="AD51" s="36"/>
-      <c r="AE51" s="36"/>
+      <c r="B51" s="56"/>
+      <c r="C51" s="56"/>
+      <c r="D51" s="56"/>
+      <c r="E51" s="56"/>
+      <c r="F51" s="56"/>
+      <c r="G51" s="56"/>
+      <c r="H51" s="56"/>
+      <c r="I51" s="56"/>
+      <c r="J51" s="56"/>
+      <c r="K51" s="56"/>
+      <c r="L51" s="56"/>
+      <c r="M51" s="56"/>
+      <c r="N51" s="56"/>
+      <c r="O51" s="56"/>
+      <c r="P51" s="56"/>
+      <c r="Q51" s="56"/>
+      <c r="R51" s="56"/>
+      <c r="S51" s="56"/>
+      <c r="T51" s="56"/>
+      <c r="U51" s="56"/>
+      <c r="V51" s="56"/>
+      <c r="W51" s="56"/>
+      <c r="X51" s="35"/>
+      <c r="Y51" s="35"/>
+      <c r="Z51" s="35"/>
+      <c r="AA51" s="35"/>
+      <c r="AB51" s="35"/>
+      <c r="AC51" s="35"/>
+      <c r="AD51" s="35"/>
+      <c r="AE51" s="35"/>
     </row>
     <row r="52" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="94" t="s">
+      <c r="A52" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="B52" s="94" t="s">
+      <c r="B52" s="101" t="s">
         <v>67</v>
       </c>
-      <c r="C52" s="94"/>
-      <c r="D52" s="94"/>
-      <c r="E52" s="94" t="s">
+      <c r="C52" s="101"/>
+      <c r="D52" s="101"/>
+      <c r="E52" s="101" t="s">
         <v>68</v>
       </c>
-      <c r="F52" s="94"/>
-      <c r="G52" s="94"/>
-      <c r="X52" s="34"/>
-      <c r="Y52" s="34"/>
-      <c r="Z52" s="34"/>
-      <c r="AA52" s="34"/>
-      <c r="AB52" s="34"/>
-      <c r="AC52" s="34"/>
-      <c r="AD52" s="34"/>
-      <c r="AE52" s="34"/>
+      <c r="F52" s="101"/>
+      <c r="G52" s="101"/>
+      <c r="X52" s="33"/>
+      <c r="Y52" s="33"/>
+      <c r="Z52" s="33"/>
+      <c r="AA52" s="33"/>
+      <c r="AB52" s="33"/>
+      <c r="AC52" s="33"/>
+      <c r="AD52" s="33"/>
+      <c r="AE52" s="33"/>
     </row>
     <row r="53" spans="1:31" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="94"/>
-      <c r="B53" s="52" t="s">
+      <c r="A53" s="101"/>
+      <c r="B53" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="C53" s="52" t="s">
+      <c r="C53" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="D53" s="52" t="s">
+      <c r="D53" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="E53" s="52" t="s">
+      <c r="E53" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="F53" s="52" t="s">
+      <c r="F53" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="G53" s="52" t="s">
+      <c r="G53" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="X53" s="32"/>
-      <c r="Y53" s="32"/>
-      <c r="Z53" s="31"/>
-      <c r="AA53" s="37"/>
-      <c r="AB53" s="37"/>
-      <c r="AC53" s="37"/>
-      <c r="AD53" s="37"/>
-      <c r="AE53" s="37"/>
+      <c r="X53" s="31"/>
+      <c r="Y53" s="31"/>
+      <c r="Z53" s="30"/>
+      <c r="AA53" s="36"/>
+      <c r="AB53" s="36"/>
+      <c r="AC53" s="36"/>
+      <c r="AD53" s="36"/>
+      <c r="AE53" s="36"/>
     </row>
     <row r="54" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
@@ -7285,7 +9170,7 @@
       </c>
     </row>
     <row r="71" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A71" s="43" t="s">
+      <c r="A71" s="42" t="s">
         <v>60</v>
       </c>
       <c r="B71">
@@ -7314,7 +9199,7 @@
       </c>
     </row>
     <row r="72" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A72" s="43" t="s">
+      <c r="A72" s="42" t="s">
         <v>61</v>
       </c>
       <c r="B72">
@@ -7323,109 +9208,109 @@
       </c>
     </row>
     <row r="78" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="56" t="s">
+      <c r="A78" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="B78" s="57"/>
-      <c r="C78" s="57"/>
-      <c r="D78" s="57"/>
-      <c r="E78" s="57"/>
-      <c r="F78" s="57"/>
-      <c r="G78" s="57"/>
-      <c r="H78" s="57"/>
-      <c r="I78" s="57"/>
-      <c r="J78" s="57"/>
-      <c r="K78" s="57"/>
-      <c r="L78" s="57"/>
-      <c r="M78" s="57"/>
-      <c r="N78" s="57"/>
-      <c r="O78" s="57"/>
-      <c r="P78" s="57"/>
-      <c r="Q78" s="57"/>
-      <c r="R78" s="57"/>
-      <c r="S78" s="57"/>
-      <c r="T78" s="57"/>
-      <c r="U78" s="57"/>
-      <c r="V78" s="57"/>
-      <c r="W78" s="57"/>
-      <c r="X78" s="57"/>
+      <c r="B78" s="56"/>
+      <c r="C78" s="56"/>
+      <c r="D78" s="56"/>
+      <c r="E78" s="56"/>
+      <c r="F78" s="56"/>
+      <c r="G78" s="56"/>
+      <c r="H78" s="56"/>
+      <c r="I78" s="56"/>
+      <c r="J78" s="56"/>
+      <c r="K78" s="56"/>
+      <c r="L78" s="56"/>
+      <c r="M78" s="56"/>
+      <c r="N78" s="56"/>
+      <c r="O78" s="56"/>
+      <c r="P78" s="56"/>
+      <c r="Q78" s="56"/>
+      <c r="R78" s="56"/>
+      <c r="S78" s="56"/>
+      <c r="T78" s="56"/>
+      <c r="U78" s="56"/>
+      <c r="V78" s="56"/>
+      <c r="W78" s="56"/>
+      <c r="X78" s="56"/>
     </row>
     <row r="79" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="58" t="s">
+      <c r="A79" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="B79" s="57"/>
-      <c r="C79" s="57"/>
-      <c r="D79" s="57"/>
-      <c r="E79" s="57"/>
-      <c r="F79" s="57"/>
-      <c r="G79" s="57"/>
-      <c r="H79" s="57"/>
-      <c r="I79" s="57"/>
-      <c r="J79" s="57"/>
-      <c r="K79" s="57"/>
-      <c r="L79" s="57"/>
-      <c r="M79" s="57"/>
-      <c r="N79" s="57"/>
-      <c r="O79" s="57"/>
-      <c r="P79" s="57"/>
-      <c r="Q79" s="57"/>
-      <c r="R79" s="57"/>
-      <c r="S79" s="57"/>
-      <c r="T79" s="57"/>
-      <c r="U79" s="57"/>
-      <c r="V79" s="57"/>
-      <c r="W79" s="57"/>
-      <c r="X79" s="57"/>
+      <c r="B79" s="56"/>
+      <c r="C79" s="56"/>
+      <c r="D79" s="56"/>
+      <c r="E79" s="56"/>
+      <c r="F79" s="56"/>
+      <c r="G79" s="56"/>
+      <c r="H79" s="56"/>
+      <c r="I79" s="56"/>
+      <c r="J79" s="56"/>
+      <c r="K79" s="56"/>
+      <c r="L79" s="56"/>
+      <c r="M79" s="56"/>
+      <c r="N79" s="56"/>
+      <c r="O79" s="56"/>
+      <c r="P79" s="56"/>
+      <c r="Q79" s="56"/>
+      <c r="R79" s="56"/>
+      <c r="S79" s="56"/>
+      <c r="T79" s="56"/>
+      <c r="U79" s="56"/>
+      <c r="V79" s="56"/>
+      <c r="W79" s="56"/>
+      <c r="X79" s="56"/>
     </row>
     <row r="80" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="58" t="s">
+      <c r="A80" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="B80" s="57"/>
-      <c r="C80" s="57"/>
-      <c r="D80" s="57"/>
-      <c r="E80" s="57"/>
-      <c r="F80" s="57"/>
-      <c r="G80" s="57"/>
-      <c r="H80" s="57"/>
-      <c r="I80" s="57"/>
-      <c r="J80" s="57"/>
-      <c r="K80" s="57"/>
-      <c r="L80" s="57"/>
-      <c r="M80" s="57"/>
-      <c r="N80" s="57"/>
-      <c r="O80" s="57"/>
-      <c r="P80" s="57"/>
-      <c r="Q80" s="57"/>
-      <c r="R80" s="57"/>
-      <c r="S80" s="57"/>
-      <c r="T80" s="57"/>
-      <c r="U80" s="57"/>
-      <c r="V80" s="57"/>
-      <c r="W80" s="57"/>
-      <c r="X80" s="57"/>
+      <c r="B80" s="56"/>
+      <c r="C80" s="56"/>
+      <c r="D80" s="56"/>
+      <c r="E80" s="56"/>
+      <c r="F80" s="56"/>
+      <c r="G80" s="56"/>
+      <c r="H80" s="56"/>
+      <c r="I80" s="56"/>
+      <c r="J80" s="56"/>
+      <c r="K80" s="56"/>
+      <c r="L80" s="56"/>
+      <c r="M80" s="56"/>
+      <c r="N80" s="56"/>
+      <c r="O80" s="56"/>
+      <c r="P80" s="56"/>
+      <c r="Q80" s="56"/>
+      <c r="R80" s="56"/>
+      <c r="S80" s="56"/>
+      <c r="T80" s="56"/>
+      <c r="U80" s="56"/>
+      <c r="V80" s="56"/>
+      <c r="W80" s="56"/>
+      <c r="X80" s="56"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="78" t="s">
+      <c r="A81" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="B81" s="91" t="s">
+      <c r="B81" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="C81" s="91" t="s">
+      <c r="C81" s="98" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="79"/>
-      <c r="B82" s="92"/>
-      <c r="C82" s="92"/>
+      <c r="A82" s="87"/>
+      <c r="B82" s="99"/>
+      <c r="C82" s="99"/>
     </row>
     <row r="83" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="80"/>
-      <c r="B83" s="93"/>
-      <c r="C83" s="93"/>
+      <c r="A83" s="88"/>
+      <c r="B83" s="100"/>
+      <c r="C83" s="100"/>
     </row>
     <row r="84" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
@@ -7563,10 +9448,10 @@
       <c r="A96" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="B96" s="28">
+      <c r="B96" s="27">
         <v>2.6650488106048104E-2</v>
       </c>
-      <c r="C96" s="28">
+      <c r="C96" s="27">
         <v>1.5759592316689931E-2</v>
       </c>
     </row>
@@ -7574,10 +9459,10 @@
       <c r="A97" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="B97" s="28">
+      <c r="B97" s="27">
         <v>3.6763608595780588E-2</v>
       </c>
-      <c r="C97" s="28">
+      <c r="C97" s="27">
         <v>2.2837523063216215E-2</v>
       </c>
     </row>
@@ -7585,10 +9470,10 @@
       <c r="A98" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="B98" s="28">
+      <c r="B98" s="27">
         <v>5.1790400883394136E-2</v>
       </c>
-      <c r="C98" s="28">
+      <c r="C98" s="27">
         <v>3.3336893194863555E-2</v>
       </c>
     </row>
@@ -7596,147 +9481,147 @@
       <c r="A99" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="B99" s="28">
+      <c r="B99" s="27">
         <v>8.3577387695122712E-2</v>
       </c>
-      <c r="C99" s="28">
+      <c r="C99" s="27">
         <v>6.1722846856347699E-2</v>
       </c>
     </row>
     <row r="105" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A105" s="56" t="s">
+      <c r="A105" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="B105" s="57"/>
-      <c r="C105" s="57"/>
-      <c r="D105" s="57"/>
-      <c r="E105" s="57"/>
-      <c r="F105" s="57"/>
-      <c r="G105" s="57"/>
-      <c r="H105" s="57"/>
-      <c r="I105" s="57"/>
-      <c r="J105" s="57"/>
-      <c r="K105" s="57"/>
-      <c r="L105" s="57"/>
-      <c r="M105" s="57"/>
-      <c r="N105" s="57"/>
-      <c r="O105" s="57"/>
-      <c r="P105" s="57"/>
-      <c r="Q105" s="57"/>
-      <c r="R105" s="57"/>
-      <c r="S105" s="57"/>
-      <c r="T105" s="57"/>
-      <c r="U105" s="57"/>
-      <c r="V105" s="57"/>
-      <c r="W105" s="57"/>
-      <c r="X105" s="57"/>
+      <c r="B105" s="56"/>
+      <c r="C105" s="56"/>
+      <c r="D105" s="56"/>
+      <c r="E105" s="56"/>
+      <c r="F105" s="56"/>
+      <c r="G105" s="56"/>
+      <c r="H105" s="56"/>
+      <c r="I105" s="56"/>
+      <c r="J105" s="56"/>
+      <c r="K105" s="56"/>
+      <c r="L105" s="56"/>
+      <c r="M105" s="56"/>
+      <c r="N105" s="56"/>
+      <c r="O105" s="56"/>
+      <c r="P105" s="56"/>
+      <c r="Q105" s="56"/>
+      <c r="R105" s="56"/>
+      <c r="S105" s="56"/>
+      <c r="T105" s="56"/>
+      <c r="U105" s="56"/>
+      <c r="V105" s="56"/>
+      <c r="W105" s="56"/>
+      <c r="X105" s="56"/>
     </row>
     <row r="106" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A106" s="58" t="s">
+      <c r="A106" s="57" t="s">
         <v>74</v>
       </c>
-      <c r="B106" s="57"/>
-      <c r="C106" s="57"/>
-      <c r="D106" s="57"/>
-      <c r="E106" s="57"/>
-      <c r="F106" s="57"/>
-      <c r="G106" s="57"/>
-      <c r="H106" s="57"/>
-      <c r="I106" s="57"/>
-      <c r="J106" s="57"/>
-      <c r="K106" s="57"/>
-      <c r="L106" s="57"/>
-      <c r="M106" s="57"/>
-      <c r="N106" s="57"/>
-      <c r="O106" s="57"/>
-      <c r="P106" s="57"/>
-      <c r="Q106" s="57"/>
-      <c r="R106" s="57"/>
-      <c r="S106" s="57"/>
-      <c r="T106" s="57"/>
-      <c r="U106" s="57"/>
-      <c r="V106" s="57"/>
-      <c r="W106" s="57"/>
-      <c r="X106" s="57"/>
+      <c r="B106" s="56"/>
+      <c r="C106" s="56"/>
+      <c r="D106" s="56"/>
+      <c r="E106" s="56"/>
+      <c r="F106" s="56"/>
+      <c r="G106" s="56"/>
+      <c r="H106" s="56"/>
+      <c r="I106" s="56"/>
+      <c r="J106" s="56"/>
+      <c r="K106" s="56"/>
+      <c r="L106" s="56"/>
+      <c r="M106" s="56"/>
+      <c r="N106" s="56"/>
+      <c r="O106" s="56"/>
+      <c r="P106" s="56"/>
+      <c r="Q106" s="56"/>
+      <c r="R106" s="56"/>
+      <c r="S106" s="56"/>
+      <c r="T106" s="56"/>
+      <c r="U106" s="56"/>
+      <c r="V106" s="56"/>
+      <c r="W106" s="56"/>
+      <c r="X106" s="56"/>
     </row>
     <row r="107" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A107" s="58" t="s">
+      <c r="A107" s="57" t="s">
         <v>75</v>
       </c>
-      <c r="B107" s="57"/>
-      <c r="C107" s="57"/>
-      <c r="D107" s="57"/>
-      <c r="E107" s="57"/>
-      <c r="F107" s="57"/>
-      <c r="G107" s="57"/>
-      <c r="H107" s="57"/>
-      <c r="I107" s="57"/>
-      <c r="J107" s="57"/>
-      <c r="K107" s="57"/>
-      <c r="L107" s="57"/>
-      <c r="M107" s="57"/>
-      <c r="N107" s="57"/>
-      <c r="O107" s="57"/>
-      <c r="P107" s="57"/>
-      <c r="Q107" s="57"/>
-      <c r="R107" s="57"/>
-      <c r="S107" s="57"/>
-      <c r="T107" s="57"/>
-      <c r="U107" s="57"/>
-      <c r="V107" s="57"/>
-      <c r="W107" s="57"/>
-      <c r="X107" s="57"/>
+      <c r="B107" s="56"/>
+      <c r="C107" s="56"/>
+      <c r="D107" s="56"/>
+      <c r="E107" s="56"/>
+      <c r="F107" s="56"/>
+      <c r="G107" s="56"/>
+      <c r="H107" s="56"/>
+      <c r="I107" s="56"/>
+      <c r="J107" s="56"/>
+      <c r="K107" s="56"/>
+      <c r="L107" s="56"/>
+      <c r="M107" s="56"/>
+      <c r="N107" s="56"/>
+      <c r="O107" s="56"/>
+      <c r="P107" s="56"/>
+      <c r="Q107" s="56"/>
+      <c r="R107" s="56"/>
+      <c r="S107" s="56"/>
+      <c r="T107" s="56"/>
+      <c r="U107" s="56"/>
+      <c r="V107" s="56"/>
+      <c r="W107" s="56"/>
+      <c r="X107" s="56"/>
     </row>
     <row r="108" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="56" t="s">
+      <c r="A108" s="55" t="s">
+        <v>136</v>
+      </c>
+      <c r="B108" s="56"/>
+      <c r="C108" s="56"/>
+      <c r="D108" s="56"/>
+      <c r="E108" s="56"/>
+      <c r="F108" s="56"/>
+      <c r="G108" s="56"/>
+      <c r="H108" s="56"/>
+      <c r="I108" s="56"/>
+      <c r="J108" s="56"/>
+      <c r="K108" s="56"/>
+      <c r="L108" s="56"/>
+      <c r="M108" s="56"/>
+      <c r="N108" s="56"/>
+      <c r="O108" s="56"/>
+      <c r="P108" s="56"/>
+      <c r="Q108" s="56"/>
+      <c r="R108" s="56"/>
+      <c r="S108" s="56"/>
+      <c r="T108" s="56"/>
+      <c r="U108" s="56"/>
+      <c r="V108" s="56"/>
+      <c r="W108" s="56"/>
+      <c r="X108" s="56"/>
+    </row>
+    <row r="109" spans="1:24" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="86" t="s">
+        <v>2</v>
+      </c>
+      <c r="B109" s="89" t="s">
         <v>84</v>
       </c>
-      <c r="B108" s="57"/>
-      <c r="C108" s="57"/>
-      <c r="D108" s="57"/>
-      <c r="E108" s="57"/>
-      <c r="F108" s="57"/>
-      <c r="G108" s="57"/>
-      <c r="H108" s="57"/>
-      <c r="I108" s="57"/>
-      <c r="J108" s="57"/>
-      <c r="K108" s="57"/>
-      <c r="L108" s="57"/>
-      <c r="M108" s="57"/>
-      <c r="N108" s="57"/>
-      <c r="O108" s="57"/>
-      <c r="P108" s="57"/>
-      <c r="Q108" s="57"/>
-      <c r="R108" s="57"/>
-      <c r="S108" s="57"/>
-      <c r="T108" s="57"/>
-      <c r="U108" s="57"/>
-      <c r="V108" s="57"/>
-      <c r="W108" s="57"/>
-      <c r="X108" s="57"/>
-    </row>
-    <row r="109" spans="1:24" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="78" t="s">
-        <v>2</v>
-      </c>
-      <c r="B109" s="81" t="s">
-        <v>85</v>
-      </c>
-      <c r="C109" s="82"/>
-      <c r="D109" s="82"/>
-      <c r="E109" s="82"/>
-      <c r="F109" s="82"/>
-      <c r="G109" s="83"/>
+      <c r="C109" s="90"/>
+      <c r="D109" s="90"/>
+      <c r="E109" s="90"/>
+      <c r="F109" s="90"/>
+      <c r="G109" s="91"/>
     </row>
     <row r="110" spans="1:24" ht="45.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="79"/>
-      <c r="B110" s="51" t="s">
+      <c r="A110" s="87"/>
+      <c r="B110" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="C110" s="51" t="s">
+      <c r="C110" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="D110" s="51" t="s">
+      <c r="D110" s="50" t="s">
         <v>79</v>
       </c>
       <c r="E110" s="5" t="s">
@@ -7750,14 +9635,14 @@
       </c>
     </row>
     <row r="111" spans="1:24" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="80"/>
-      <c r="B111" s="53" t="s">
+      <c r="A111" s="88"/>
+      <c r="B111" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="C111" s="53" t="s">
+      <c r="C111" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="D111" s="53" t="s">
+      <c r="D111" s="52" t="s">
         <v>80</v>
       </c>
       <c r="E111" s="7" t="s">
@@ -7766,7 +9651,7 @@
       <c r="F111" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G111" s="53" t="s">
+      <c r="G111" s="52" t="s">
         <v>82</v>
       </c>
     </row>
@@ -7838,7 +9723,10 @@
       <c r="G114" s="13">
         <v>0</v>
       </c>
-      <c r="I114" s="75"/>
+      <c r="H114" s="128" t="s">
+        <v>135</v>
+      </c>
+      <c r="I114" s="74"/>
       <c r="J114" s="18" t="s">
         <v>33</v>
       </c>
@@ -7877,26 +9765,29 @@
       <c r="G115" s="13">
         <v>5.7974000000000005E-2</v>
       </c>
+      <c r="H115" s="9">
+        <v>0.17499999999999999</v>
+      </c>
       <c r="I115" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="J115" s="74">
+      <c r="J115" s="73">
         <f>C115/$B$115</f>
         <v>1</v>
       </c>
-      <c r="K115" s="74">
+      <c r="K115" s="73">
         <f>D115/$B$115</f>
         <v>1</v>
       </c>
-      <c r="L115" s="74">
+      <c r="L115" s="73">
         <f>E115/$B$115</f>
         <v>0.58000000000000007</v>
       </c>
-      <c r="M115" s="74">
+      <c r="M115" s="73">
         <f>F115/$B$115</f>
         <v>0.58000000000000007</v>
       </c>
-      <c r="N115" s="74">
+      <c r="N115" s="73">
         <f>G115/$B$115</f>
         <v>0.41000000000000003</v>
       </c>
@@ -7923,6 +9814,11 @@
       <c r="G116" s="13">
         <v>0.11398000000000003</v>
       </c>
+      <c r="H116" s="9">
+        <v>0.313</v>
+      </c>
+      <c r="I116" s="36"/>
+      <c r="J116" s="73"/>
     </row>
     <row r="117" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="4" t="s">
@@ -7946,6 +9842,11 @@
       <c r="G117" s="13">
         <v>0.11627600000000002</v>
       </c>
+      <c r="H117" s="9">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="I117" s="36"/>
+      <c r="J117" s="73"/>
     </row>
     <row r="118" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="4" t="s">
@@ -7969,6 +9870,11 @@
       <c r="G118" s="13">
         <v>8.6592000000000002E-2</v>
       </c>
+      <c r="H118" s="9">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="I118" s="36"/>
+      <c r="J118" s="73"/>
     </row>
     <row r="119" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="4" t="s">
@@ -7992,6 +9898,11 @@
       <c r="G119" s="13">
         <v>5.5268000000000005E-2</v>
       </c>
+      <c r="H119" s="9">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="I119" s="36"/>
+      <c r="J119" s="73"/>
     </row>
     <row r="120" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="4" t="s">
@@ -8015,6 +9926,11 @@
       <c r="G120" s="13">
         <v>2.2222000000000002E-2</v>
       </c>
+      <c r="H120" s="9">
+        <v>0.125</v>
+      </c>
+      <c r="I120" s="36"/>
+      <c r="J120" s="73"/>
     </row>
     <row r="121" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="4" t="s">
@@ -8038,6 +9954,11 @@
       <c r="G121" s="13">
         <v>7.2160000000000011E-3</v>
       </c>
+      <c r="H121" s="9">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="I121" s="36"/>
+      <c r="J121" s="73"/>
     </row>
     <row r="122" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="4" t="s">
@@ -8089,22 +10010,22 @@
       <c r="A124" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="B124" s="28">
-        <v>0</v>
-      </c>
-      <c r="C124" s="28">
-        <v>0</v>
-      </c>
-      <c r="D124" s="28">
-        <v>0</v>
-      </c>
-      <c r="E124" s="28">
-        <v>0</v>
-      </c>
-      <c r="F124" s="28">
-        <v>0</v>
-      </c>
-      <c r="G124" s="28">
+      <c r="B124" s="27">
+        <v>0</v>
+      </c>
+      <c r="C124" s="27">
+        <v>0</v>
+      </c>
+      <c r="D124" s="27">
+        <v>0</v>
+      </c>
+      <c r="E124" s="27">
+        <v>0</v>
+      </c>
+      <c r="F124" s="27">
+        <v>0</v>
+      </c>
+      <c r="G124" s="27">
         <v>0</v>
       </c>
     </row>
@@ -8112,22 +10033,22 @@
       <c r="A125" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="B125" s="28">
-        <v>0</v>
-      </c>
-      <c r="C125" s="28">
-        <v>0</v>
-      </c>
-      <c r="D125" s="28">
-        <v>0</v>
-      </c>
-      <c r="E125" s="28">
-        <v>0</v>
-      </c>
-      <c r="F125" s="28">
-        <v>0</v>
-      </c>
-      <c r="G125" s="28">
+      <c r="B125" s="27">
+        <v>0</v>
+      </c>
+      <c r="C125" s="27">
+        <v>0</v>
+      </c>
+      <c r="D125" s="27">
+        <v>0</v>
+      </c>
+      <c r="E125" s="27">
+        <v>0</v>
+      </c>
+      <c r="F125" s="27">
+        <v>0</v>
+      </c>
+      <c r="G125" s="27">
         <v>0</v>
       </c>
     </row>
@@ -8135,22 +10056,22 @@
       <c r="A126" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="B126" s="28">
-        <v>0</v>
-      </c>
-      <c r="C126" s="28">
-        <v>0</v>
-      </c>
-      <c r="D126" s="28">
-        <v>0</v>
-      </c>
-      <c r="E126" s="28">
-        <v>0</v>
-      </c>
-      <c r="F126" s="28">
-        <v>0</v>
-      </c>
-      <c r="G126" s="28">
+      <c r="B126" s="27">
+        <v>0</v>
+      </c>
+      <c r="C126" s="27">
+        <v>0</v>
+      </c>
+      <c r="D126" s="27">
+        <v>0</v>
+      </c>
+      <c r="E126" s="27">
+        <v>0</v>
+      </c>
+      <c r="F126" s="27">
+        <v>0</v>
+      </c>
+      <c r="G126" s="27">
         <v>0</v>
       </c>
     </row>
@@ -8158,22 +10079,22 @@
       <c r="A127" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="B127" s="28">
-        <v>0</v>
-      </c>
-      <c r="C127" s="28">
-        <v>0</v>
-      </c>
-      <c r="D127" s="28">
-        <v>0</v>
-      </c>
-      <c r="E127" s="28">
-        <v>0</v>
-      </c>
-      <c r="F127" s="28">
-        <v>0</v>
-      </c>
-      <c r="G127" s="28">
+      <c r="B127" s="27">
+        <v>0</v>
+      </c>
+      <c r="C127" s="27">
+        <v>0</v>
+      </c>
+      <c r="D127" s="27">
+        <v>0</v>
+      </c>
+      <c r="E127" s="27">
+        <v>0</v>
+      </c>
+      <c r="F127" s="27">
+        <v>0</v>
+      </c>
+      <c r="G127" s="27">
         <v>0</v>
       </c>
     </row>
@@ -8205,57 +10126,57 @@
     </row>
     <row r="129" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="130" spans="1:7" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="84" t="s">
+      <c r="A130" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="B130" s="81" t="s">
-        <v>87</v>
-      </c>
-      <c r="C130" s="82"/>
-      <c r="D130" s="82"/>
-      <c r="E130" s="82"/>
-      <c r="F130" s="82"/>
-      <c r="G130" s="83"/>
+      <c r="B130" s="89" t="s">
+        <v>86</v>
+      </c>
+      <c r="C130" s="90"/>
+      <c r="D130" s="90"/>
+      <c r="E130" s="90"/>
+      <c r="F130" s="90"/>
+      <c r="G130" s="91"/>
     </row>
     <row r="131" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="85"/>
-      <c r="B131" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="C131" s="39" t="s">
+      <c r="A131" s="93"/>
+      <c r="B131" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="C131" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="D131" s="39" t="s">
+      <c r="D131" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="E131" s="40" t="s">
+      <c r="E131" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="F131" s="40" t="s">
+      <c r="F131" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="G131" s="41" t="s">
+      <c r="G131" s="40" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="86"/>
-      <c r="B132" s="62" t="s">
+      <c r="A132" s="94"/>
+      <c r="B132" s="61" t="s">
         <v>76</v>
       </c>
-      <c r="C132" s="63" t="s">
+      <c r="C132" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="D132" s="63" t="s">
+      <c r="D132" s="62" t="s">
         <v>80</v>
       </c>
-      <c r="E132" s="42" t="s">
+      <c r="E132" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="F132" s="42" t="s">
+      <c r="F132" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="G132" s="53" t="s">
+      <c r="G132" s="52" t="s">
         <v>82</v>
       </c>
     </row>
@@ -8263,22 +10184,22 @@
       <c r="A133" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B133" s="30">
-        <v>0</v>
-      </c>
-      <c r="C133" s="30">
-        <v>0</v>
-      </c>
-      <c r="D133" s="30">
-        <v>0</v>
-      </c>
-      <c r="E133" s="30">
-        <v>0</v>
-      </c>
-      <c r="F133" s="30">
-        <v>0</v>
-      </c>
-      <c r="G133" s="30">
+      <c r="B133" s="29">
+        <v>0</v>
+      </c>
+      <c r="C133" s="29">
+        <v>0</v>
+      </c>
+      <c r="D133" s="29">
+        <v>0</v>
+      </c>
+      <c r="E133" s="29">
+        <v>0</v>
+      </c>
+      <c r="F133" s="29">
+        <v>0</v>
+      </c>
+      <c r="G133" s="29">
         <v>0</v>
       </c>
     </row>
@@ -8286,22 +10207,22 @@
       <c r="A134" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B134" s="30">
-        <v>0</v>
-      </c>
-      <c r="C134" s="30">
-        <v>0</v>
-      </c>
-      <c r="D134" s="30">
-        <v>0</v>
-      </c>
-      <c r="E134" s="30">
-        <v>0</v>
-      </c>
-      <c r="F134" s="30">
-        <v>0</v>
-      </c>
-      <c r="G134" s="30">
+      <c r="B134" s="29">
+        <v>0</v>
+      </c>
+      <c r="C134" s="29">
+        <v>0</v>
+      </c>
+      <c r="D134" s="29">
+        <v>0</v>
+      </c>
+      <c r="E134" s="29">
+        <v>0</v>
+      </c>
+      <c r="F134" s="29">
+        <v>0</v>
+      </c>
+      <c r="G134" s="29">
         <v>0</v>
       </c>
     </row>
@@ -8309,22 +10230,22 @@
       <c r="A135" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B135" s="30">
-        <v>0</v>
-      </c>
-      <c r="C135" s="30">
-        <v>0</v>
-      </c>
-      <c r="D135" s="30">
-        <v>0</v>
-      </c>
-      <c r="E135" s="30">
-        <v>0</v>
-      </c>
-      <c r="F135" s="30">
-        <v>0</v>
-      </c>
-      <c r="G135" s="30">
+      <c r="B135" s="29">
+        <v>0</v>
+      </c>
+      <c r="C135" s="29">
+        <v>0</v>
+      </c>
+      <c r="D135" s="29">
+        <v>0</v>
+      </c>
+      <c r="E135" s="29">
+        <v>0</v>
+      </c>
+      <c r="F135" s="29">
+        <v>0</v>
+      </c>
+      <c r="G135" s="29">
         <v>0</v>
       </c>
     </row>
@@ -8332,22 +10253,22 @@
       <c r="A136" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B136" s="30">
+      <c r="B136" s="29">
         <v>7.0699999999999999E-2</v>
       </c>
-      <c r="C136" s="30">
+      <c r="C136" s="29">
         <v>7.0699999999999999E-2</v>
       </c>
-      <c r="D136" s="30">
+      <c r="D136" s="29">
         <v>7.0699999999999999E-2</v>
       </c>
-      <c r="E136" s="30">
+      <c r="E136" s="29">
         <v>4.1006000000000008E-2</v>
       </c>
-      <c r="F136" s="30">
+      <c r="F136" s="29">
         <v>4.1006000000000008E-2</v>
       </c>
-      <c r="G136" s="30">
+      <c r="G136" s="29">
         <v>2.8987000000000002E-2</v>
       </c>
     </row>
@@ -8355,22 +10276,22 @@
       <c r="A137" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B137" s="30">
+      <c r="B137" s="29">
         <v>0.13900000000000001</v>
       </c>
-      <c r="C137" s="30">
+      <c r="C137" s="29">
         <v>0.13900000000000001</v>
       </c>
-      <c r="D137" s="30">
+      <c r="D137" s="29">
         <v>0.13900000000000001</v>
       </c>
-      <c r="E137" s="30">
+      <c r="E137" s="29">
         <v>8.0620000000000011E-2</v>
       </c>
-      <c r="F137" s="30">
+      <c r="F137" s="29">
         <v>8.0620000000000011E-2</v>
       </c>
-      <c r="G137" s="30">
+      <c r="G137" s="29">
         <v>5.6990000000000013E-2</v>
       </c>
     </row>
@@ -8378,22 +10299,22 @@
       <c r="A138" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B138" s="30">
+      <c r="B138" s="29">
         <v>0.14180000000000001</v>
       </c>
-      <c r="C138" s="30">
+      <c r="C138" s="29">
         <v>0.14180000000000001</v>
       </c>
-      <c r="D138" s="30">
+      <c r="D138" s="29">
         <v>0.14180000000000001</v>
       </c>
-      <c r="E138" s="30">
+      <c r="E138" s="29">
         <v>8.2244000000000012E-2</v>
       </c>
-      <c r="F138" s="30">
+      <c r="F138" s="29">
         <v>8.2244000000000012E-2</v>
       </c>
-      <c r="G138" s="30">
+      <c r="G138" s="29">
         <v>5.8138000000000009E-2</v>
       </c>
     </row>
@@ -8401,22 +10322,22 @@
       <c r="A139" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B139" s="30">
+      <c r="B139" s="29">
         <v>0.1056</v>
       </c>
-      <c r="C139" s="30">
+      <c r="C139" s="29">
         <v>0.1056</v>
       </c>
-      <c r="D139" s="30">
+      <c r="D139" s="29">
         <v>0.1056</v>
       </c>
-      <c r="E139" s="30">
+      <c r="E139" s="29">
         <v>6.1248000000000004E-2</v>
       </c>
-      <c r="F139" s="30">
+      <c r="F139" s="29">
         <v>6.1248000000000004E-2</v>
       </c>
-      <c r="G139" s="30">
+      <c r="G139" s="29">
         <v>4.3296000000000001E-2</v>
       </c>
     </row>
@@ -8424,22 +10345,22 @@
       <c r="A140" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B140" s="30">
+      <c r="B140" s="29">
         <v>6.7400000000000002E-2</v>
       </c>
-      <c r="C140" s="30">
+      <c r="C140" s="29">
         <v>6.7400000000000002E-2</v>
       </c>
-      <c r="D140" s="30">
+      <c r="D140" s="29">
         <v>6.7400000000000002E-2</v>
       </c>
-      <c r="E140" s="30">
+      <c r="E140" s="29">
         <v>3.9092000000000009E-2</v>
       </c>
-      <c r="F140" s="30">
+      <c r="F140" s="29">
         <v>3.9092000000000009E-2</v>
       </c>
-      <c r="G140" s="30">
+      <c r="G140" s="29">
         <v>2.7634000000000002E-2</v>
       </c>
     </row>
@@ -8447,22 +10368,22 @@
       <c r="A141" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B141" s="30">
+      <c r="B141" s="29">
         <v>2.7100000000000003E-2</v>
       </c>
-      <c r="C141" s="30">
+      <c r="C141" s="29">
         <v>2.7100000000000003E-2</v>
       </c>
-      <c r="D141" s="30">
+      <c r="D141" s="29">
         <v>2.7100000000000003E-2</v>
       </c>
-      <c r="E141" s="30">
+      <c r="E141" s="29">
         <v>1.5718000000000003E-2</v>
       </c>
-      <c r="F141" s="30">
+      <c r="F141" s="29">
         <v>1.5718000000000003E-2</v>
       </c>
-      <c r="G141" s="30">
+      <c r="G141" s="29">
         <v>1.1111000000000001E-2</v>
       </c>
     </row>
@@ -8470,22 +10391,22 @@
       <c r="A142" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B142" s="30">
+      <c r="B142" s="29">
         <v>8.8000000000000005E-3</v>
       </c>
-      <c r="C142" s="30">
+      <c r="C142" s="29">
         <v>8.8000000000000005E-3</v>
       </c>
-      <c r="D142" s="30">
+      <c r="D142" s="29">
         <v>8.8000000000000005E-3</v>
       </c>
-      <c r="E142" s="30">
+      <c r="E142" s="29">
         <v>5.1040000000000009E-3</v>
       </c>
-      <c r="F142" s="30">
+      <c r="F142" s="29">
         <v>5.1040000000000009E-3</v>
       </c>
-      <c r="G142" s="30">
+      <c r="G142" s="29">
         <v>3.6080000000000005E-3</v>
       </c>
     </row>
@@ -8493,22 +10414,22 @@
       <c r="A143" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B143" s="30">
-        <v>0</v>
-      </c>
-      <c r="C143" s="30">
-        <v>0</v>
-      </c>
-      <c r="D143" s="30">
-        <v>0</v>
-      </c>
-      <c r="E143" s="30">
-        <v>0</v>
-      </c>
-      <c r="F143" s="30">
-        <v>0</v>
-      </c>
-      <c r="G143" s="30">
+      <c r="B143" s="29">
+        <v>0</v>
+      </c>
+      <c r="C143" s="29">
+        <v>0</v>
+      </c>
+      <c r="D143" s="29">
+        <v>0</v>
+      </c>
+      <c r="E143" s="29">
+        <v>0</v>
+      </c>
+      <c r="F143" s="29">
+        <v>0</v>
+      </c>
+      <c r="G143" s="29">
         <v>0</v>
       </c>
     </row>
@@ -8516,22 +10437,22 @@
       <c r="A144" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B144" s="30">
-        <v>0</v>
-      </c>
-      <c r="C144" s="30">
-        <v>0</v>
-      </c>
-      <c r="D144" s="30">
-        <v>0</v>
-      </c>
-      <c r="E144" s="30">
-        <v>0</v>
-      </c>
-      <c r="F144" s="30">
-        <v>0</v>
-      </c>
-      <c r="G144" s="30">
+      <c r="B144" s="29">
+        <v>0</v>
+      </c>
+      <c r="C144" s="29">
+        <v>0</v>
+      </c>
+      <c r="D144" s="29">
+        <v>0</v>
+      </c>
+      <c r="E144" s="29">
+        <v>0</v>
+      </c>
+      <c r="F144" s="29">
+        <v>0</v>
+      </c>
+      <c r="G144" s="29">
         <v>0</v>
       </c>
     </row>
@@ -8539,22 +10460,22 @@
       <c r="A145" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="B145" s="33">
-        <v>0</v>
-      </c>
-      <c r="C145" s="33">
-        <v>0</v>
-      </c>
-      <c r="D145" s="33">
-        <v>0</v>
-      </c>
-      <c r="E145" s="33">
-        <v>0</v>
-      </c>
-      <c r="F145" s="33">
-        <v>0</v>
-      </c>
-      <c r="G145" s="33">
+      <c r="B145" s="32">
+        <v>0</v>
+      </c>
+      <c r="C145" s="32">
+        <v>0</v>
+      </c>
+      <c r="D145" s="32">
+        <v>0</v>
+      </c>
+      <c r="E145" s="32">
+        <v>0</v>
+      </c>
+      <c r="F145" s="32">
+        <v>0</v>
+      </c>
+      <c r="G145" s="32">
         <v>0</v>
       </c>
     </row>
@@ -8562,22 +10483,22 @@
       <c r="A146" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="B146" s="33">
-        <v>0</v>
-      </c>
-      <c r="C146" s="33">
-        <v>0</v>
-      </c>
-      <c r="D146" s="33">
-        <v>0</v>
-      </c>
-      <c r="E146" s="33">
-        <v>0</v>
-      </c>
-      <c r="F146" s="33">
-        <v>0</v>
-      </c>
-      <c r="G146" s="33">
+      <c r="B146" s="32">
+        <v>0</v>
+      </c>
+      <c r="C146" s="32">
+        <v>0</v>
+      </c>
+      <c r="D146" s="32">
+        <v>0</v>
+      </c>
+      <c r="E146" s="32">
+        <v>0</v>
+      </c>
+      <c r="F146" s="32">
+        <v>0</v>
+      </c>
+      <c r="G146" s="32">
         <v>0</v>
       </c>
     </row>
@@ -8585,22 +10506,22 @@
       <c r="A147" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="B147" s="33">
-        <v>0</v>
-      </c>
-      <c r="C147" s="33">
-        <v>0</v>
-      </c>
-      <c r="D147" s="33">
-        <v>0</v>
-      </c>
-      <c r="E147" s="33">
-        <v>0</v>
-      </c>
-      <c r="F147" s="33">
-        <v>0</v>
-      </c>
-      <c r="G147" s="33">
+      <c r="B147" s="32">
+        <v>0</v>
+      </c>
+      <c r="C147" s="32">
+        <v>0</v>
+      </c>
+      <c r="D147" s="32">
+        <v>0</v>
+      </c>
+      <c r="E147" s="32">
+        <v>0</v>
+      </c>
+      <c r="F147" s="32">
+        <v>0</v>
+      </c>
+      <c r="G147" s="32">
         <v>0</v>
       </c>
     </row>
@@ -8608,22 +10529,22 @@
       <c r="A148" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="B148" s="33">
-        <v>0</v>
-      </c>
-      <c r="C148" s="33">
-        <v>0</v>
-      </c>
-      <c r="D148" s="33">
-        <v>0</v>
-      </c>
-      <c r="E148" s="33">
-        <v>0</v>
-      </c>
-      <c r="F148" s="33">
-        <v>0</v>
-      </c>
-      <c r="G148" s="33">
+      <c r="B148" s="32">
+        <v>0</v>
+      </c>
+      <c r="C148" s="32">
+        <v>0</v>
+      </c>
+      <c r="D148" s="32">
+        <v>0</v>
+      </c>
+      <c r="E148" s="32">
+        <v>0</v>
+      </c>
+      <c r="F148" s="32">
+        <v>0</v>
+      </c>
+      <c r="G148" s="32">
         <v>0</v>
       </c>
     </row>
@@ -8654,100 +10575,100 @@
       </c>
     </row>
     <row r="155" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A155" s="56" t="s">
+      <c r="A155" s="55" t="s">
+        <v>87</v>
+      </c>
+      <c r="B155" s="56"/>
+      <c r="C155" s="56"/>
+      <c r="D155" s="56"/>
+      <c r="E155" s="56"/>
+      <c r="F155" s="56"/>
+      <c r="G155" s="56"/>
+      <c r="H155" s="56"/>
+      <c r="I155" s="56"/>
+      <c r="J155" s="56"/>
+      <c r="K155" s="56"/>
+      <c r="L155" s="56"/>
+      <c r="M155" s="56"/>
+      <c r="N155" s="56"/>
+      <c r="O155" s="56"/>
+      <c r="P155" s="56"/>
+      <c r="Q155" s="56"/>
+      <c r="R155" s="56"/>
+      <c r="S155" s="56"/>
+      <c r="T155" s="56"/>
+      <c r="U155" s="56"/>
+      <c r="V155" s="56"/>
+      <c r="W155" s="56"/>
+    </row>
+    <row r="156" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A156" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="B156" s="56"/>
+      <c r="C156" s="56"/>
+      <c r="D156" s="56"/>
+      <c r="E156" s="56"/>
+      <c r="F156" s="56"/>
+      <c r="G156" s="56"/>
+      <c r="H156" s="56"/>
+      <c r="I156" s="56"/>
+      <c r="J156" s="56"/>
+      <c r="K156" s="56"/>
+      <c r="L156" s="56"/>
+      <c r="M156" s="56"/>
+      <c r="N156" s="56"/>
+      <c r="O156" s="56"/>
+      <c r="P156" s="56"/>
+      <c r="Q156" s="56"/>
+      <c r="R156" s="56"/>
+      <c r="S156" s="56"/>
+      <c r="T156" s="56"/>
+      <c r="U156" s="56"/>
+      <c r="V156" s="56"/>
+      <c r="W156" s="56"/>
+    </row>
+    <row r="157" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="B155" s="57"/>
-      <c r="C155" s="57"/>
-      <c r="D155" s="57"/>
-      <c r="E155" s="57"/>
-      <c r="F155" s="57"/>
-      <c r="G155" s="57"/>
-      <c r="H155" s="57"/>
-      <c r="I155" s="57"/>
-      <c r="J155" s="57"/>
-      <c r="K155" s="57"/>
-      <c r="L155" s="57"/>
-      <c r="M155" s="57"/>
-      <c r="N155" s="57"/>
-      <c r="O155" s="57"/>
-      <c r="P155" s="57"/>
-      <c r="Q155" s="57"/>
-      <c r="R155" s="57"/>
-      <c r="S155" s="57"/>
-      <c r="T155" s="57"/>
-      <c r="U155" s="57"/>
-      <c r="V155" s="57"/>
-      <c r="W155" s="57"/>
-    </row>
-    <row r="156" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A156" s="58" t="s">
-        <v>69</v>
-      </c>
-      <c r="B156" s="57"/>
-      <c r="C156" s="57"/>
-      <c r="D156" s="57"/>
-      <c r="E156" s="57"/>
-      <c r="F156" s="57"/>
-      <c r="G156" s="57"/>
-      <c r="H156" s="57"/>
-      <c r="I156" s="57"/>
-      <c r="J156" s="57"/>
-      <c r="K156" s="57"/>
-      <c r="L156" s="57"/>
-      <c r="M156" s="57"/>
-      <c r="N156" s="57"/>
-      <c r="O156" s="57"/>
-      <c r="P156" s="57"/>
-      <c r="Q156" s="57"/>
-      <c r="R156" s="57"/>
-      <c r="S156" s="57"/>
-      <c r="T156" s="57"/>
-      <c r="U156" s="57"/>
-      <c r="V156" s="57"/>
-      <c r="W156" s="57"/>
-    </row>
-    <row r="157" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="56" t="s">
-        <v>89</v>
-      </c>
-      <c r="B157" s="57"/>
-      <c r="C157" s="57"/>
-      <c r="D157" s="57"/>
-      <c r="E157" s="57"/>
-      <c r="F157" s="57"/>
-      <c r="G157" s="57"/>
-      <c r="H157" s="57"/>
-      <c r="I157" s="57"/>
-      <c r="J157" s="57"/>
-      <c r="K157" s="57"/>
-      <c r="L157" s="57"/>
-      <c r="M157" s="57"/>
-      <c r="N157" s="57"/>
-      <c r="O157" s="57"/>
-      <c r="P157" s="57"/>
-      <c r="Q157" s="57"/>
-      <c r="R157" s="57"/>
-      <c r="S157" s="57"/>
-      <c r="T157" s="57"/>
-      <c r="U157" s="57"/>
-      <c r="V157" s="57"/>
-      <c r="W157" s="57"/>
+      <c r="B157" s="56"/>
+      <c r="C157" s="56"/>
+      <c r="D157" s="56"/>
+      <c r="E157" s="56"/>
+      <c r="F157" s="56"/>
+      <c r="G157" s="56"/>
+      <c r="H157" s="56"/>
+      <c r="I157" s="56"/>
+      <c r="J157" s="56"/>
+      <c r="K157" s="56"/>
+      <c r="L157" s="56"/>
+      <c r="M157" s="56"/>
+      <c r="N157" s="56"/>
+      <c r="O157" s="56"/>
+      <c r="P157" s="56"/>
+      <c r="Q157" s="56"/>
+      <c r="R157" s="56"/>
+      <c r="S157" s="56"/>
+      <c r="T157" s="56"/>
+      <c r="U157" s="56"/>
+      <c r="V157" s="56"/>
+      <c r="W157" s="56"/>
     </row>
     <row r="158" spans="1:23" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B158" s="98" t="s">
-        <v>0</v>
-      </c>
-      <c r="C158" s="99"/>
-      <c r="D158" s="100"/>
-      <c r="E158" s="98" t="s">
+      <c r="B158" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="C158" s="81"/>
+      <c r="D158" s="82"/>
+      <c r="E158" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="F158" s="99"/>
-      <c r="G158" s="100"/>
+      <c r="F158" s="81"/>
+      <c r="G158" s="82"/>
     </row>
     <row r="159" spans="1:23" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="6"/>
@@ -8774,27 +10695,27 @@
       <c r="A160" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B160" s="44">
+      <c r="B160" s="43">
         <f t="shared" ref="B160:G161" si="5">10^-5</f>
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="C160" s="44">
+      <c r="C160" s="43">
         <f t="shared" si="5"/>
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="D160" s="44">
+      <c r="D160" s="43">
         <f t="shared" si="5"/>
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="E160" s="44">
+      <c r="E160" s="43">
         <f>10^-5</f>
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="F160" s="44">
+      <c r="F160" s="43">
         <f t="shared" si="5"/>
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="G160" s="44">
+      <c r="G160" s="43">
         <f t="shared" si="5"/>
         <v>1.0000000000000001E-5</v>
       </c>
@@ -8815,27 +10736,27 @@
       <c r="A161" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B161" s="44">
+      <c r="B161" s="43">
         <f t="shared" si="5"/>
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="C161" s="44">
+      <c r="C161" s="43">
         <f t="shared" si="5"/>
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="D161" s="44">
+      <c r="D161" s="43">
         <f t="shared" si="5"/>
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="E161" s="44">
+      <c r="E161" s="43">
         <f t="shared" si="5"/>
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="F161" s="44">
+      <c r="F161" s="43">
         <f t="shared" si="5"/>
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="G161" s="44">
+      <c r="G161" s="43">
         <f t="shared" si="5"/>
         <v>1.0000000000000001E-5</v>
       </c>
@@ -8856,22 +10777,22 @@
       <c r="A162" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B162" s="44">
+      <c r="B162" s="43">
         <v>1.2E-2</v>
       </c>
-      <c r="C162" s="44">
+      <c r="C162" s="43">
         <v>0.12</v>
       </c>
-      <c r="D162" s="44">
+      <c r="D162" s="43">
         <v>1.2</v>
       </c>
-      <c r="E162" s="44">
+      <c r="E162" s="43">
         <v>1.2E-2</v>
       </c>
-      <c r="F162" s="45">
+      <c r="F162" s="44">
         <v>0.12</v>
       </c>
-      <c r="G162" s="46">
+      <c r="G162" s="45">
         <v>1.2</v>
       </c>
       <c r="J162">
@@ -8899,22 +10820,22 @@
       <c r="A163" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B163" s="44">
+      <c r="B163" s="43">
         <v>0.66369047619047616</v>
       </c>
-      <c r="C163" s="44">
+      <c r="C163" s="43">
         <v>2.553903345724907</v>
       </c>
-      <c r="D163" s="44">
+      <c r="D163" s="43">
         <v>6.9636363636363638</v>
       </c>
-      <c r="E163" s="44">
+      <c r="E163" s="43">
         <v>0.66959798994974873</v>
       </c>
-      <c r="F163" s="45">
+      <c r="F163" s="44">
         <v>2.2142857142857144</v>
       </c>
-      <c r="G163" s="47">
+      <c r="G163" s="46">
         <v>6.5</v>
       </c>
       <c r="J163">
@@ -8942,22 +10863,22 @@
       <c r="A164" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B164" s="44">
+      <c r="B164" s="43">
         <v>0.70326409495548958</v>
       </c>
-      <c r="C164" s="44">
+      <c r="C164" s="43">
         <v>2.5474683544303796</v>
       </c>
-      <c r="D164" s="44">
+      <c r="D164" s="43">
         <v>7.6721311475409832</v>
       </c>
-      <c r="E164" s="44">
+      <c r="E164" s="43">
         <v>0.79487179487179482</v>
       </c>
-      <c r="F164" s="45">
+      <c r="F164" s="44">
         <v>2.25</v>
       </c>
-      <c r="G164" s="47">
+      <c r="G164" s="46">
         <v>10</v>
       </c>
       <c r="J164">
@@ -8985,22 +10906,22 @@
       <c r="A165" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B165" s="44">
+      <c r="B165" s="43">
         <v>0.77027027027027029</v>
       </c>
-      <c r="C165" s="44">
+      <c r="C165" s="43">
         <v>2.564245810055866</v>
       </c>
-      <c r="D165" s="44">
+      <c r="D165" s="43">
         <v>6.9705882352941178</v>
       </c>
-      <c r="E165" s="44">
+      <c r="E165" s="43">
         <v>0.80509304603330067</v>
       </c>
-      <c r="F165" s="45">
+      <c r="F165" s="44">
         <v>2.2666666666666666</v>
       </c>
-      <c r="G165" s="47">
+      <c r="G165" s="46">
         <v>5.333333333333333</v>
       </c>
       <c r="J165">
@@ -9028,22 +10949,22 @@
       <c r="A166" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B166" s="44">
+      <c r="B166" s="43">
         <v>0.7710280373831776</v>
       </c>
-      <c r="C166" s="44">
+      <c r="C166" s="43">
         <v>2.4793388429752068</v>
       </c>
-      <c r="D166" s="44">
+      <c r="D166" s="43">
         <v>5.8421052631578947</v>
       </c>
-      <c r="E166" s="44">
+      <c r="E166" s="43">
         <v>0.75512405609492983</v>
       </c>
-      <c r="F166" s="45">
+      <c r="F166" s="44">
         <v>2.0625</v>
       </c>
-      <c r="G166" s="47">
+      <c r="G166" s="46">
         <v>1</v>
       </c>
       <c r="J166">
@@ -9071,22 +10992,22 @@
       <c r="A167" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B167" s="44">
+      <c r="B167" s="43">
         <v>0.77927927927927931</v>
       </c>
-      <c r="C167" s="44">
+      <c r="C167" s="43">
         <v>2.406779661016949</v>
       </c>
-      <c r="D167" s="44">
+      <c r="D167" s="43">
         <v>6.2222222222222223</v>
       </c>
-      <c r="E167" s="44">
+      <c r="E167" s="43">
         <v>0.75529411764705878</v>
       </c>
-      <c r="F167" s="45">
+      <c r="F167" s="44">
         <v>2.2666666666666666</v>
       </c>
-      <c r="G167" s="47">
+      <c r="G167" s="46">
         <v>9</v>
       </c>
       <c r="J167">
@@ -9114,22 +11035,22 @@
       <c r="A168" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B168" s="44">
+      <c r="B168" s="43">
         <v>0.84188034188034189</v>
       </c>
-      <c r="C168" s="44">
+      <c r="C168" s="43">
         <v>2.4166666666666665</v>
       </c>
-      <c r="D168" s="44">
+      <c r="D168" s="43">
         <v>7.75</v>
       </c>
-      <c r="E168" s="44">
+      <c r="E168" s="43">
         <v>0.68708971553610498</v>
       </c>
-      <c r="F168" s="45">
+      <c r="F168" s="44">
         <v>2.2666666666666666</v>
       </c>
-      <c r="G168" s="47">
+      <c r="G168" s="46">
         <v>1</v>
       </c>
       <c r="J168">
@@ -9157,22 +11078,22 @@
       <c r="A169" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B169" s="44">
+      <c r="B169" s="43">
         <v>0.7192982456140351</v>
       </c>
-      <c r="C169" s="44">
+      <c r="C169" s="43">
         <v>2.3250000000000002</v>
       </c>
-      <c r="D169" s="44">
+      <c r="D169" s="43">
         <v>1</v>
       </c>
-      <c r="E169" s="44">
+      <c r="E169" s="43">
         <v>0.68708971553610498</v>
       </c>
-      <c r="F169" s="45">
+      <c r="F169" s="44">
         <v>2.2666666666666666</v>
       </c>
-      <c r="G169" s="47">
+      <c r="G169" s="46">
         <v>1</v>
       </c>
       <c r="J169">
@@ -9200,22 +11121,22 @@
       <c r="A170" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B170" s="44">
+      <c r="B170" s="43">
         <v>0.7192982456140351</v>
       </c>
-      <c r="C170" s="44">
+      <c r="C170" s="43">
         <v>2.3250000000000002</v>
       </c>
-      <c r="D170" s="44">
+      <c r="D170" s="43">
         <v>1</v>
       </c>
-      <c r="E170" s="44">
+      <c r="E170" s="43">
         <v>0.68708971553610498</v>
       </c>
-      <c r="F170" s="45">
+      <c r="F170" s="44">
         <v>2.2666666666666666</v>
       </c>
-      <c r="G170" s="47">
+      <c r="G170" s="46">
         <v>1</v>
       </c>
       <c r="J170">
@@ -9243,22 +11164,22 @@
       <c r="A171" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B171" s="44">
+      <c r="B171" s="43">
         <v>0.7192982456140351</v>
       </c>
-      <c r="C171" s="44">
+      <c r="C171" s="43">
         <v>2.3250000000000002</v>
       </c>
-      <c r="D171" s="44">
+      <c r="D171" s="43">
         <v>1</v>
       </c>
-      <c r="E171" s="44">
+      <c r="E171" s="43">
         <v>0.68708971553610498</v>
       </c>
-      <c r="F171" s="45">
+      <c r="F171" s="44">
         <v>2.2666666666666666</v>
       </c>
-      <c r="G171" s="47">
+      <c r="G171" s="46">
         <v>1</v>
       </c>
       <c r="J171">
@@ -9286,22 +11207,22 @@
       <c r="A172" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="B172" s="48">
+      <c r="B172" s="47">
         <v>0.7192982456140351</v>
       </c>
-      <c r="C172" s="48">
+      <c r="C172" s="47">
         <v>2.3250000000000002</v>
       </c>
-      <c r="D172" s="48">
+      <c r="D172" s="47">
         <v>1</v>
       </c>
-      <c r="E172" s="48">
+      <c r="E172" s="47">
         <v>0.68708971553610498</v>
       </c>
-      <c r="F172" s="49">
+      <c r="F172" s="48">
         <v>2.2666666666666666</v>
       </c>
-      <c r="G172" s="50">
+      <c r="G172" s="49">
         <v>1</v>
       </c>
       <c r="J172">
@@ -9329,22 +11250,22 @@
       <c r="A173" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="B173" s="48">
+      <c r="B173" s="47">
         <v>0.7192982456140351</v>
       </c>
-      <c r="C173" s="48">
+      <c r="C173" s="47">
         <v>2.3250000000000002</v>
       </c>
-      <c r="D173" s="48">
+      <c r="D173" s="47">
         <v>1</v>
       </c>
-      <c r="E173" s="48">
+      <c r="E173" s="47">
         <v>0.68708971553610498</v>
       </c>
-      <c r="F173" s="49">
+      <c r="F173" s="48">
         <v>2.2666666666666666</v>
       </c>
-      <c r="G173" s="50">
+      <c r="G173" s="49">
         <v>1</v>
       </c>
       <c r="J173">
@@ -9372,22 +11293,22 @@
       <c r="A174" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="B174" s="48">
+      <c r="B174" s="47">
         <v>0.7192982456140351</v>
       </c>
-      <c r="C174" s="48">
+      <c r="C174" s="47">
         <v>2.3250000000000002</v>
       </c>
-      <c r="D174" s="48">
+      <c r="D174" s="47">
         <v>1</v>
       </c>
-      <c r="E174" s="48">
+      <c r="E174" s="47">
         <v>0.68708971553610498</v>
       </c>
-      <c r="F174" s="49">
+      <c r="F174" s="48">
         <v>2.2666666666666666</v>
       </c>
-      <c r="G174" s="50">
+      <c r="G174" s="49">
         <v>1</v>
       </c>
       <c r="J174">
@@ -9415,22 +11336,22 @@
       <c r="A175" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="B175" s="48">
+      <c r="B175" s="47">
         <v>0.7192982456140351</v>
       </c>
-      <c r="C175" s="48">
+      <c r="C175" s="47">
         <v>2.3250000000000002</v>
       </c>
-      <c r="D175" s="48">
+      <c r="D175" s="47">
         <v>1</v>
       </c>
-      <c r="E175" s="48">
+      <c r="E175" s="47">
         <v>0.68708971553610498</v>
       </c>
-      <c r="F175" s="49">
+      <c r="F175" s="48">
         <v>2.2666666666666666</v>
       </c>
-      <c r="G175" s="50">
+      <c r="G175" s="49">
         <v>1</v>
       </c>
       <c r="H175">
@@ -9471,38 +11392,38 @@
       <c r="A180" s="10"/>
     </row>
     <row r="182" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A182" s="56" t="s">
+      <c r="A182" s="55" t="s">
+        <v>90</v>
+      </c>
+      <c r="B182" s="56"/>
+      <c r="C182" s="56"/>
+      <c r="D182" s="56"/>
+      <c r="E182" s="56"/>
+      <c r="F182" s="56"/>
+      <c r="G182" s="56"/>
+      <c r="H182" s="56"/>
+      <c r="I182" s="56"/>
+      <c r="J182" s="56"/>
+      <c r="K182" s="56"/>
+      <c r="L182" s="56"/>
+      <c r="M182" s="56"/>
+      <c r="N182" s="56"/>
+      <c r="O182" s="56"/>
+      <c r="P182" s="56"/>
+      <c r="Q182" s="56"/>
+      <c r="R182" s="56"/>
+      <c r="S182" s="56"/>
+      <c r="T182" s="56"/>
+      <c r="U182" s="56"/>
+      <c r="V182" s="56"/>
+      <c r="W182" s="56"/>
+    </row>
+    <row r="183" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A183" s="83" t="s">
         <v>91</v>
       </c>
-      <c r="B182" s="57"/>
-      <c r="C182" s="57"/>
-      <c r="D182" s="57"/>
-      <c r="E182" s="57"/>
-      <c r="F182" s="57"/>
-      <c r="G182" s="57"/>
-      <c r="H182" s="57"/>
-      <c r="I182" s="57"/>
-      <c r="J182" s="57"/>
-      <c r="K182" s="57"/>
-      <c r="L182" s="57"/>
-      <c r="M182" s="57"/>
-      <c r="N182" s="57"/>
-      <c r="O182" s="57"/>
-      <c r="P182" s="57"/>
-      <c r="Q182" s="57"/>
-      <c r="R182" s="57"/>
-      <c r="S182" s="57"/>
-      <c r="T182" s="57"/>
-      <c r="U182" s="57"/>
-      <c r="V182" s="57"/>
-      <c r="W182" s="57"/>
-    </row>
-    <row r="183" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="101" t="s">
-        <v>92</v>
-      </c>
-      <c r="B183" s="101"/>
-      <c r="C183" s="101"/>
+      <c r="B183" s="83"/>
+      <c r="C183" s="83"/>
     </row>
     <row r="184" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
@@ -9519,10 +11440,10 @@
       <c r="A185" s="15">
         <v>1985</v>
       </c>
-      <c r="B185" s="29">
+      <c r="B185" s="28">
         <v>0.3</v>
       </c>
-      <c r="C185" s="29">
+      <c r="C185" s="28">
         <v>0.3</v>
       </c>
     </row>
@@ -9530,10 +11451,10 @@
       <c r="A186" s="15">
         <v>1990</v>
       </c>
-      <c r="B186" s="29">
+      <c r="B186" s="28">
         <v>0.4</v>
       </c>
-      <c r="C186" s="29">
+      <c r="C186" s="28">
         <v>0.4</v>
       </c>
     </row>
@@ -9541,85 +11462,85 @@
       <c r="A187" s="15">
         <v>2000</v>
       </c>
-      <c r="B187" s="29">
+      <c r="B187" s="28">
         <v>0.1</v>
       </c>
-      <c r="C187" s="29">
+      <c r="C187" s="28">
         <v>0.1</v>
       </c>
     </row>
     <row r="194" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A194" s="56" t="s">
-        <v>90</v>
-      </c>
-      <c r="B194" s="57"/>
-      <c r="C194" s="57"/>
-      <c r="D194" s="57"/>
-      <c r="E194" s="57"/>
-      <c r="F194" s="57"/>
-      <c r="G194" s="57"/>
-      <c r="H194" s="57"/>
-      <c r="I194" s="57"/>
-      <c r="J194" s="57"/>
-      <c r="K194" s="57"/>
-      <c r="L194" s="57"/>
-      <c r="M194" s="57"/>
-      <c r="N194" s="57"/>
-      <c r="O194" s="57"/>
-      <c r="P194" s="57"/>
-      <c r="Q194" s="57"/>
-      <c r="R194" s="57"/>
-      <c r="S194" s="57"/>
-      <c r="T194" s="57"/>
-      <c r="U194" s="57"/>
-      <c r="V194" s="57"/>
-      <c r="W194" s="57"/>
-    </row>
-    <row r="195" spans="1:23" s="59" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A195" s="89" t="s">
+      <c r="A194" s="55" t="s">
+        <v>89</v>
+      </c>
+      <c r="B194" s="56"/>
+      <c r="C194" s="56"/>
+      <c r="D194" s="56"/>
+      <c r="E194" s="56"/>
+      <c r="F194" s="56"/>
+      <c r="G194" s="56"/>
+      <c r="H194" s="56"/>
+      <c r="I194" s="56"/>
+      <c r="J194" s="56"/>
+      <c r="K194" s="56"/>
+      <c r="L194" s="56"/>
+      <c r="M194" s="56"/>
+      <c r="N194" s="56"/>
+      <c r="O194" s="56"/>
+      <c r="P194" s="56"/>
+      <c r="Q194" s="56"/>
+      <c r="R194" s="56"/>
+      <c r="S194" s="56"/>
+      <c r="T194" s="56"/>
+      <c r="U194" s="56"/>
+      <c r="V194" s="56"/>
+      <c r="W194" s="56"/>
+    </row>
+    <row r="195" spans="1:23" s="58" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A195" s="84" t="s">
+        <v>92</v>
+      </c>
+      <c r="B195" s="84"/>
+      <c r="C195" s="84"/>
+      <c r="D195" s="84"/>
+      <c r="E195" s="84"/>
+      <c r="F195" s="84"/>
+    </row>
+    <row r="196" spans="1:23" s="58" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A196" s="85" t="s">
         <v>93</v>
       </c>
-      <c r="B195" s="89"/>
-      <c r="C195" s="89"/>
-      <c r="D195" s="89"/>
-      <c r="E195" s="89"/>
-      <c r="F195" s="89"/>
-    </row>
-    <row r="196" spans="1:23" s="59" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A196" s="102" t="s">
-        <v>94</v>
-      </c>
-      <c r="B196" s="102"/>
-      <c r="C196" s="102"/>
-      <c r="D196" s="102"/>
-      <c r="E196" s="102"/>
-      <c r="F196" s="102"/>
+      <c r="B196" s="85"/>
+      <c r="C196" s="85"/>
+      <c r="D196" s="85"/>
+      <c r="E196" s="85"/>
+      <c r="F196" s="85"/>
     </row>
     <row r="197" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A197" s="95" t="s">
+      <c r="A197" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="B197" s="66"/>
-      <c r="C197" s="66"/>
-      <c r="D197" s="95" t="s">
+      <c r="B197" s="65"/>
+      <c r="C197" s="65"/>
+      <c r="D197" s="77" t="s">
         <v>58</v>
       </c>
-      <c r="E197" s="95"/>
-      <c r="F197" s="95"/>
+      <c r="E197" s="77"/>
+      <c r="F197" s="77"/>
     </row>
     <row r="198" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A198" s="95"/>
-      <c r="B198" s="66"/>
-      <c r="C198" s="67" t="s">
+      <c r="A198" s="77"/>
+      <c r="B198" s="65"/>
+      <c r="C198" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="D198" s="67" t="s">
+      <c r="D198" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="E198" s="67" t="s">
+      <c r="E198" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="F198" s="67" t="s">
+      <c r="F198" s="66" t="s">
         <v>57</v>
       </c>
       <c r="H198">
@@ -9628,18 +11549,18 @@
       </c>
     </row>
     <row r="199" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A199" s="68" t="s">
+      <c r="A199" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="B199" s="66"/>
-      <c r="C199" s="66"/>
-      <c r="D199" s="69">
-        <v>0</v>
-      </c>
-      <c r="E199" s="69">
-        <v>0</v>
-      </c>
-      <c r="F199" s="69">
+      <c r="B199" s="65"/>
+      <c r="C199" s="65"/>
+      <c r="D199" s="68">
+        <v>0</v>
+      </c>
+      <c r="E199" s="68">
+        <v>0</v>
+      </c>
+      <c r="F199" s="68">
         <v>0</v>
       </c>
       <c r="H199">
@@ -9656,18 +11577,18 @@
       </c>
     </row>
     <row r="200" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A200" s="68" t="s">
+      <c r="A200" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="B200" s="66"/>
-      <c r="C200" s="66"/>
-      <c r="D200" s="69">
-        <v>0</v>
-      </c>
-      <c r="E200" s="69">
-        <v>0</v>
-      </c>
-      <c r="F200" s="69">
+      <c r="B200" s="65"/>
+      <c r="C200" s="65"/>
+      <c r="D200" s="68">
+        <v>0</v>
+      </c>
+      <c r="E200" s="68">
+        <v>0</v>
+      </c>
+      <c r="F200" s="68">
         <v>0</v>
       </c>
       <c r="H200">
@@ -9684,22 +11605,22 @@
       </c>
     </row>
     <row r="201" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A201" s="68" t="s">
+      <c r="A201" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="B201" s="66"/>
-      <c r="C201" s="66">
+      <c r="B201" s="65"/>
+      <c r="C201" s="65">
         <v>0.05</v>
       </c>
-      <c r="D201" s="70">
+      <c r="D201" s="69">
         <f>C201*D203</f>
         <v>3.1200000000000006</v>
       </c>
-      <c r="E201" s="70">
+      <c r="E201" s="69">
         <f>E203*$C$201</f>
         <v>1.8719999999999999</v>
       </c>
-      <c r="F201" s="70">
+      <c r="F201" s="69">
         <f>F203*$C$201</f>
         <v>1.1232</v>
       </c>
@@ -9721,22 +11642,22 @@
       </c>
     </row>
     <row r="202" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A202" s="68" t="s">
+      <c r="A202" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="B202" s="66"/>
-      <c r="C202" s="66">
+      <c r="B202" s="65"/>
+      <c r="C202" s="65">
         <v>0.1</v>
       </c>
-      <c r="D202" s="70">
+      <c r="D202" s="69">
         <f>D204*$C$202</f>
         <v>15.600000000000001</v>
       </c>
-      <c r="E202" s="70">
+      <c r="E202" s="69">
         <f>E204*$C$202</f>
         <v>9.36</v>
       </c>
-      <c r="F202" s="70">
+      <c r="F202" s="69">
         <f>F204*$C$202</f>
         <v>5.6159999999999997</v>
       </c>
@@ -9758,24 +11679,24 @@
       </c>
     </row>
     <row r="203" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A203" s="68" t="s">
+      <c r="A203" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="B203" s="71">
+      <c r="B203" s="70">
         <v>1</v>
       </c>
-      <c r="C203" s="66">
+      <c r="C203" s="65">
         <v>0.4</v>
       </c>
-      <c r="D203" s="69">
+      <c r="D203" s="68">
         <f>D204*$C$203</f>
         <v>62.400000000000006</v>
       </c>
-      <c r="E203" s="69">
+      <c r="E203" s="68">
         <f>E204*$C$203</f>
         <v>37.44</v>
       </c>
-      <c r="F203" s="69">
+      <c r="F203" s="68">
         <f>F204*$C$203</f>
         <v>22.463999999999999</v>
       </c>
@@ -9797,22 +11718,22 @@
       </c>
     </row>
     <row r="204" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A204" s="68" t="s">
+      <c r="A204" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="B204" s="71">
+      <c r="B204" s="70">
         <v>5</v>
       </c>
-      <c r="C204" s="72"/>
-      <c r="D204" s="70">
+      <c r="C204" s="71"/>
+      <c r="D204" s="69">
         <f>B238</f>
         <v>156</v>
       </c>
-      <c r="E204" s="70">
+      <c r="E204" s="69">
         <f>C238</f>
         <v>93.6</v>
       </c>
-      <c r="F204" s="70">
+      <c r="F204" s="69">
         <f>D238</f>
         <v>56.16</v>
       </c>
@@ -9834,25 +11755,25 @@
       </c>
     </row>
     <row r="205" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A205" s="68" t="s">
+      <c r="A205" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="B205" s="71">
+      <c r="B205" s="70">
         <v>10</v>
       </c>
-      <c r="C205" s="66">
+      <c r="C205" s="65">
         <f t="shared" ref="C205:C214" si="13">EXP(LN(0.5)*B204/10)</f>
         <v>0.70710678118654757</v>
       </c>
-      <c r="D205" s="70">
+      <c r="D205" s="69">
         <f t="shared" ref="D205:D210" si="14">$D$204*C205</f>
         <v>110.30865786510142</v>
       </c>
-      <c r="E205" s="70">
+      <c r="E205" s="69">
         <f t="shared" ref="E205:E210" si="15">$E$204*C205</f>
         <v>66.185194719060846</v>
       </c>
-      <c r="F205" s="70">
+      <c r="F205" s="69">
         <f t="shared" ref="F205:F210" si="16">$F$204*C205</f>
         <v>39.711116831436506</v>
       </c>
@@ -9872,28 +11793,28 @@
         <f t="shared" si="12"/>
         <v>91.437775604337176</v>
       </c>
-      <c r="M205" s="59"/>
+      <c r="M205" s="58"/>
     </row>
     <row r="206" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A206" s="68" t="s">
+      <c r="A206" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="B206" s="71">
+      <c r="B206" s="70">
         <v>15</v>
       </c>
-      <c r="C206" s="66">
+      <c r="C206" s="65">
         <f t="shared" si="13"/>
         <v>0.5</v>
       </c>
-      <c r="D206" s="70">
+      <c r="D206" s="69">
         <f t="shared" si="14"/>
         <v>78</v>
       </c>
-      <c r="E206" s="70">
+      <c r="E206" s="69">
         <f t="shared" si="15"/>
         <v>46.8</v>
       </c>
-      <c r="F206" s="70">
+      <c r="F206" s="69">
         <f t="shared" si="16"/>
         <v>28.08</v>
       </c>
@@ -9913,30 +11834,30 @@
         <f t="shared" si="12"/>
         <v>70.103172413793089</v>
       </c>
-      <c r="N206" s="59"/>
-      <c r="O206" s="59"/>
-      <c r="P206" s="59"/>
+      <c r="N206" s="58"/>
+      <c r="O206" s="58"/>
+      <c r="P206" s="58"/>
     </row>
     <row r="207" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A207" s="68" t="s">
+      <c r="A207" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="B207" s="71">
+      <c r="B207" s="70">
         <v>20</v>
       </c>
-      <c r="C207" s="66">
+      <c r="C207" s="65">
         <f t="shared" si="13"/>
         <v>0.35355339059327379</v>
       </c>
-      <c r="D207" s="70">
+      <c r="D207" s="69">
         <f t="shared" si="14"/>
         <v>55.154328932550712</v>
       </c>
-      <c r="E207" s="70">
+      <c r="E207" s="69">
         <f t="shared" si="15"/>
         <v>33.092597359530423</v>
       </c>
-      <c r="F207" s="70">
+      <c r="F207" s="69">
         <f t="shared" si="16"/>
         <v>19.855558415718253</v>
       </c>
@@ -9958,25 +11879,25 @@
       </c>
     </row>
     <row r="208" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A208" s="68" t="s">
+      <c r="A208" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="B208" s="71">
+      <c r="B208" s="70">
         <v>25</v>
       </c>
-      <c r="C208" s="66">
+      <c r="C208" s="65">
         <f t="shared" si="13"/>
         <v>0.25</v>
       </c>
-      <c r="D208" s="70">
+      <c r="D208" s="69">
         <f t="shared" si="14"/>
         <v>39</v>
       </c>
-      <c r="E208" s="70">
+      <c r="E208" s="69">
         <f t="shared" si="15"/>
         <v>23.4</v>
       </c>
-      <c r="F208" s="70">
+      <c r="F208" s="69">
         <f t="shared" si="16"/>
         <v>14.04</v>
       </c>
@@ -9998,25 +11919,25 @@
       </c>
     </row>
     <row r="209" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A209" s="68" t="s">
+      <c r="A209" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="B209" s="71">
+      <c r="B209" s="70">
         <v>30</v>
       </c>
-      <c r="C209" s="66">
+      <c r="C209" s="65">
         <f t="shared" si="13"/>
         <v>0.17677669529663689</v>
       </c>
-      <c r="D209" s="70">
+      <c r="D209" s="69">
         <f t="shared" si="14"/>
         <v>27.577164466275356</v>
       </c>
-      <c r="E209" s="70">
+      <c r="E209" s="69">
         <f t="shared" si="15"/>
         <v>16.546298679765211</v>
       </c>
-      <c r="F209" s="70">
+      <c r="F209" s="69">
         <f t="shared" si="16"/>
         <v>9.9277792078591265</v>
       </c>
@@ -10038,25 +11959,25 @@
       </c>
     </row>
     <row r="210" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A210" s="68" t="s">
+      <c r="A210" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="B210" s="71">
+      <c r="B210" s="70">
         <v>35</v>
       </c>
-      <c r="C210" s="66">
+      <c r="C210" s="65">
         <f t="shared" si="13"/>
         <v>0.12500000000000003</v>
       </c>
-      <c r="D210" s="70">
+      <c r="D210" s="69">
         <f t="shared" si="14"/>
         <v>19.500000000000004</v>
       </c>
-      <c r="E210" s="70">
+      <c r="E210" s="69">
         <f t="shared" si="15"/>
         <v>11.700000000000001</v>
       </c>
-      <c r="F210" s="70">
+      <c r="F210" s="69">
         <f t="shared" si="16"/>
         <v>7.0200000000000014</v>
       </c>
@@ -10078,25 +11999,25 @@
       </c>
     </row>
     <row r="211" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A211" s="68" t="s">
+      <c r="A211" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="B211" s="71">
+      <c r="B211" s="70">
         <v>40</v>
       </c>
-      <c r="C211" s="66">
+      <c r="C211" s="65">
         <f>EXP(LN(0.5)*B210/10)</f>
         <v>8.8388347648318447E-2</v>
       </c>
-      <c r="D211" s="70">
+      <c r="D211" s="69">
         <f>$D$204*C211</f>
         <v>13.788582233137678</v>
       </c>
-      <c r="E211" s="70">
+      <c r="E211" s="69">
         <f>$E$204*C211</f>
         <v>8.2731493398826057</v>
       </c>
-      <c r="F211" s="70">
+      <c r="F211" s="69">
         <f>$F$204*C211</f>
         <v>4.9638896039295632</v>
       </c>
@@ -10118,25 +12039,25 @@
       </c>
     </row>
     <row r="212" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A212" s="68" t="s">
+      <c r="A212" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="B212" s="71">
+      <c r="B212" s="70">
         <v>45</v>
       </c>
-      <c r="C212" s="66">
+      <c r="C212" s="65">
         <f t="shared" si="13"/>
         <v>6.25E-2</v>
       </c>
-      <c r="D212" s="70">
+      <c r="D212" s="69">
         <f>$D$204*C212</f>
         <v>9.75</v>
       </c>
-      <c r="E212" s="70">
+      <c r="E212" s="69">
         <f>$E$204*C212</f>
         <v>5.85</v>
       </c>
-      <c r="F212" s="70">
+      <c r="F212" s="69">
         <f>$F$204*C212</f>
         <v>3.51</v>
       </c>
@@ -10158,25 +12079,25 @@
       </c>
     </row>
     <row r="213" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A213" s="68" t="s">
+      <c r="A213" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="B213" s="71">
+      <c r="B213" s="70">
         <v>50</v>
       </c>
-      <c r="C213" s="66">
+      <c r="C213" s="65">
         <f t="shared" si="13"/>
         <v>4.4194173824159223E-2</v>
       </c>
-      <c r="D213" s="70">
+      <c r="D213" s="69">
         <f>$D$204*C213</f>
         <v>6.894291116568839</v>
       </c>
-      <c r="E213" s="70">
+      <c r="E213" s="69">
         <f>$E$204*C213</f>
         <v>4.1365746699413029</v>
       </c>
-      <c r="F213" s="70">
+      <c r="F213" s="69">
         <f>$F$204*C213</f>
         <v>2.4819448019647816</v>
       </c>
@@ -10198,25 +12119,25 @@
       </c>
     </row>
     <row r="214" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A214" s="68" t="s">
+      <c r="A214" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="B214" s="71">
+      <c r="B214" s="70">
         <v>55</v>
       </c>
-      <c r="C214" s="66">
+      <c r="C214" s="65">
         <f t="shared" si="13"/>
         <v>3.125E-2</v>
       </c>
-      <c r="D214" s="70">
+      <c r="D214" s="69">
         <f>$D$204*C214</f>
         <v>4.875</v>
       </c>
-      <c r="E214" s="70">
+      <c r="E214" s="69">
         <f>$E$204*C214</f>
         <v>2.9249999999999998</v>
       </c>
-      <c r="F214" s="70">
+      <c r="F214" s="69">
         <f>$F$204*C214</f>
         <v>1.7549999999999999</v>
       </c>
@@ -10238,12 +12159,12 @@
       </c>
     </row>
     <row r="215" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A215" s="66"/>
-      <c r="B215" s="71"/>
-      <c r="C215" s="66"/>
-      <c r="D215" s="73"/>
-      <c r="E215" s="73"/>
-      <c r="F215" s="73"/>
+      <c r="A215" s="65"/>
+      <c r="B215" s="70"/>
+      <c r="C215" s="65"/>
+      <c r="D215" s="72"/>
+      <c r="E215" s="72"/>
+      <c r="F215" s="72"/>
       <c r="K215">
         <f>AVERAGE(K201:K214)</f>
         <v>36.59889506656333</v>
@@ -10254,448 +12175,448 @@
       </c>
     </row>
     <row r="216" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A216" s="96" t="s">
-        <v>95</v>
-      </c>
-      <c r="B216" s="96"/>
-      <c r="C216" s="96"/>
-      <c r="D216" s="96"/>
-      <c r="E216" s="96"/>
-      <c r="F216" s="96"/>
+      <c r="A216" s="78" t="s">
+        <v>94</v>
+      </c>
+      <c r="B216" s="78"/>
+      <c r="C216" s="78"/>
+      <c r="D216" s="78"/>
+      <c r="E216" s="78"/>
+      <c r="F216" s="78"/>
     </row>
     <row r="217" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A217" s="97" t="s">
+      <c r="A217" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="B217" s="66"/>
-      <c r="C217" s="66"/>
-      <c r="D217" s="95" t="s">
+      <c r="B217" s="65"/>
+      <c r="C217" s="65"/>
+      <c r="D217" s="77" t="s">
         <v>58</v>
       </c>
-      <c r="E217" s="95"/>
-      <c r="F217" s="95"/>
+      <c r="E217" s="77"/>
+      <c r="F217" s="77"/>
     </row>
     <row r="218" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A218" s="97"/>
-      <c r="B218" s="66"/>
-      <c r="C218" s="67" t="s">
+      <c r="A218" s="79"/>
+      <c r="B218" s="65"/>
+      <c r="C218" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="D218" s="67" t="s">
+      <c r="D218" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="E218" s="67" t="s">
+      <c r="E218" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="F218" s="67" t="s">
+      <c r="F218" s="66" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="219" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A219" s="68" t="s">
+      <c r="A219" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="B219" s="66"/>
-      <c r="C219" s="66"/>
-      <c r="D219" s="69">
-        <v>0</v>
-      </c>
-      <c r="E219" s="69">
-        <v>0</v>
-      </c>
-      <c r="F219" s="69">
+      <c r="B219" s="65"/>
+      <c r="C219" s="65"/>
+      <c r="D219" s="68">
+        <v>0</v>
+      </c>
+      <c r="E219" s="68">
+        <v>0</v>
+      </c>
+      <c r="F219" s="68">
         <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A220" s="68" t="s">
+      <c r="A220" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="B220" s="66"/>
-      <c r="C220" s="66"/>
-      <c r="D220" s="69">
-        <v>0</v>
-      </c>
-      <c r="E220" s="69">
-        <v>0</v>
-      </c>
-      <c r="F220" s="69">
+      <c r="B220" s="65"/>
+      <c r="C220" s="65"/>
+      <c r="D220" s="68">
+        <v>0</v>
+      </c>
+      <c r="E220" s="68">
+        <v>0</v>
+      </c>
+      <c r="F220" s="68">
         <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A221" s="68" t="s">
+      <c r="A221" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="B221" s="66"/>
-      <c r="C221" s="66">
+      <c r="B221" s="65"/>
+      <c r="C221" s="65">
         <v>0.05</v>
       </c>
-      <c r="D221" s="69">
+      <c r="D221" s="68">
         <f>$C$221*D224</f>
         <v>7.8000000000000007</v>
       </c>
-      <c r="E221" s="69">
+      <c r="E221" s="68">
         <f>$C$221*E224</f>
         <v>4.68</v>
       </c>
-      <c r="F221" s="69">
+      <c r="F221" s="68">
         <f>$C$221*F224</f>
         <v>2.8079999999999998</v>
       </c>
     </row>
     <row r="222" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A222" s="68" t="s">
+      <c r="A222" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="B222" s="66"/>
-      <c r="C222" s="66">
+      <c r="B222" s="65"/>
+      <c r="C222" s="65">
         <v>0.1</v>
       </c>
-      <c r="D222" s="70">
+      <c r="D222" s="69">
         <f>D224*$C$222</f>
         <v>15.600000000000001</v>
       </c>
-      <c r="E222" s="70">
+      <c r="E222" s="69">
         <f>E224*$C$222</f>
         <v>9.36</v>
       </c>
-      <c r="F222" s="70">
+      <c r="F222" s="69">
         <f>F224*$C$222</f>
         <v>5.6159999999999997</v>
       </c>
     </row>
     <row r="223" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A223" s="68" t="s">
+      <c r="A223" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="B223" s="71">
+      <c r="B223" s="70">
         <v>1</v>
       </c>
-      <c r="C223" s="66">
+      <c r="C223" s="65">
         <v>0.4</v>
       </c>
-      <c r="D223" s="69">
+      <c r="D223" s="68">
         <f>D224*$C$223</f>
         <v>62.400000000000006</v>
       </c>
-      <c r="E223" s="69">
+      <c r="E223" s="68">
         <f>E224*$C$223</f>
         <v>37.44</v>
       </c>
-      <c r="F223" s="69">
+      <c r="F223" s="68">
         <f>F224*$C$223</f>
         <v>22.463999999999999</v>
       </c>
     </row>
     <row r="224" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A224" s="68" t="s">
+      <c r="A224" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="B224" s="71">
+      <c r="B224" s="70">
         <v>5</v>
       </c>
-      <c r="C224" s="72"/>
-      <c r="D224" s="69">
+      <c r="C224" s="71"/>
+      <c r="D224" s="68">
         <f>B239</f>
         <v>156</v>
       </c>
-      <c r="E224" s="69">
+      <c r="E224" s="68">
         <f>C239</f>
         <v>93.6</v>
       </c>
-      <c r="F224" s="69">
+      <c r="F224" s="68">
         <f>D239</f>
         <v>56.16</v>
       </c>
     </row>
     <row r="225" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A225" s="68" t="s">
+      <c r="A225" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="B225" s="71">
+      <c r="B225" s="70">
         <v>10</v>
       </c>
-      <c r="C225" s="66">
+      <c r="C225" s="65">
         <f t="shared" ref="C225:C234" si="17">EXP(LN(0.5)*B224/10)</f>
         <v>0.70710678118654757</v>
       </c>
-      <c r="D225" s="69">
+      <c r="D225" s="68">
         <f>D$224*$C$225</f>
         <v>110.30865786510142</v>
       </c>
-      <c r="E225" s="69">
+      <c r="E225" s="68">
         <f>E$224*$C$225</f>
         <v>66.185194719060846</v>
       </c>
-      <c r="F225" s="69">
+      <c r="F225" s="68">
         <f>F$224*$C$225</f>
         <v>39.711116831436506</v>
       </c>
     </row>
     <row r="226" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A226" s="68" t="s">
+      <c r="A226" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="B226" s="71">
+      <c r="B226" s="70">
         <v>15</v>
       </c>
-      <c r="C226" s="66">
+      <c r="C226" s="65">
         <f t="shared" si="17"/>
         <v>0.5</v>
       </c>
-      <c r="D226" s="69">
+      <c r="D226" s="68">
         <f t="shared" ref="D226:D232" si="18">$D$224*C226</f>
         <v>78</v>
       </c>
-      <c r="E226" s="69">
+      <c r="E226" s="68">
         <f t="shared" ref="E226:E232" si="19">$E$224*C226</f>
         <v>46.8</v>
       </c>
-      <c r="F226" s="69">
+      <c r="F226" s="68">
         <f t="shared" ref="F226:F232" si="20">$F$224*C226</f>
         <v>28.08</v>
       </c>
     </row>
     <row r="227" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A227" s="68" t="s">
+      <c r="A227" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="B227" s="71">
+      <c r="B227" s="70">
         <v>20</v>
       </c>
-      <c r="C227" s="66">
+      <c r="C227" s="65">
         <f t="shared" si="17"/>
         <v>0.35355339059327379</v>
       </c>
-      <c r="D227" s="69">
+      <c r="D227" s="68">
         <f t="shared" si="18"/>
         <v>55.154328932550712</v>
       </c>
-      <c r="E227" s="69">
+      <c r="E227" s="68">
         <f t="shared" si="19"/>
         <v>33.092597359530423</v>
       </c>
-      <c r="F227" s="69">
+      <c r="F227" s="68">
         <f t="shared" si="20"/>
         <v>19.855558415718253</v>
       </c>
     </row>
     <row r="228" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A228" s="68" t="s">
+      <c r="A228" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="B228" s="71">
+      <c r="B228" s="70">
         <v>25</v>
       </c>
-      <c r="C228" s="66">
+      <c r="C228" s="65">
         <f t="shared" si="17"/>
         <v>0.25</v>
       </c>
-      <c r="D228" s="69">
+      <c r="D228" s="68">
         <f t="shared" si="18"/>
         <v>39</v>
       </c>
-      <c r="E228" s="69">
+      <c r="E228" s="68">
         <f t="shared" si="19"/>
         <v>23.4</v>
       </c>
-      <c r="F228" s="69">
+      <c r="F228" s="68">
         <f t="shared" si="20"/>
         <v>14.04</v>
       </c>
     </row>
     <row r="229" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A229" s="68" t="s">
+      <c r="A229" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="B229" s="71">
+      <c r="B229" s="70">
         <v>30</v>
       </c>
-      <c r="C229" s="66">
+      <c r="C229" s="65">
         <f t="shared" si="17"/>
         <v>0.17677669529663689</v>
       </c>
-      <c r="D229" s="69">
+      <c r="D229" s="68">
         <f t="shared" si="18"/>
         <v>27.577164466275356</v>
       </c>
-      <c r="E229" s="69">
+      <c r="E229" s="68">
         <f t="shared" si="19"/>
         <v>16.546298679765211</v>
       </c>
-      <c r="F229" s="69">
+      <c r="F229" s="68">
         <f t="shared" si="20"/>
         <v>9.9277792078591265</v>
       </c>
     </row>
     <row r="230" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A230" s="68" t="s">
+      <c r="A230" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="B230" s="71">
+      <c r="B230" s="70">
         <v>35</v>
       </c>
-      <c r="C230" s="66">
+      <c r="C230" s="65">
         <f t="shared" si="17"/>
         <v>0.12500000000000003</v>
       </c>
-      <c r="D230" s="69">
+      <c r="D230" s="68">
         <f t="shared" si="18"/>
         <v>19.500000000000004</v>
       </c>
-      <c r="E230" s="69">
+      <c r="E230" s="68">
         <f t="shared" si="19"/>
         <v>11.700000000000001</v>
       </c>
-      <c r="F230" s="69">
+      <c r="F230" s="68">
         <f t="shared" si="20"/>
         <v>7.0200000000000014</v>
       </c>
     </row>
     <row r="231" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A231" s="68" t="s">
+      <c r="A231" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="B231" s="71">
+      <c r="B231" s="70">
         <v>40</v>
       </c>
-      <c r="C231" s="66">
+      <c r="C231" s="65">
         <f t="shared" si="17"/>
         <v>8.8388347648318447E-2</v>
       </c>
-      <c r="D231" s="69">
+      <c r="D231" s="68">
         <f t="shared" si="18"/>
         <v>13.788582233137678</v>
       </c>
-      <c r="E231" s="69">
+      <c r="E231" s="68">
         <f t="shared" si="19"/>
         <v>8.2731493398826057</v>
       </c>
-      <c r="F231" s="69">
+      <c r="F231" s="68">
         <f t="shared" si="20"/>
         <v>4.9638896039295632</v>
       </c>
     </row>
     <row r="232" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A232" s="68" t="s">
+      <c r="A232" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="B232" s="71">
+      <c r="B232" s="70">
         <v>45</v>
       </c>
-      <c r="C232" s="66">
+      <c r="C232" s="65">
         <f t="shared" si="17"/>
         <v>6.25E-2</v>
       </c>
-      <c r="D232" s="69">
+      <c r="D232" s="68">
         <f t="shared" si="18"/>
         <v>9.75</v>
       </c>
-      <c r="E232" s="69">
+      <c r="E232" s="68">
         <f t="shared" si="19"/>
         <v>5.85</v>
       </c>
-      <c r="F232" s="69">
+      <c r="F232" s="68">
         <f t="shared" si="20"/>
         <v>3.51</v>
       </c>
     </row>
     <row r="233" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A233" s="68" t="s">
+      <c r="A233" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="B233" s="71">
+      <c r="B233" s="70">
         <v>50</v>
       </c>
-      <c r="C233" s="66">
+      <c r="C233" s="65">
         <f>EXP(LN(0.5)*B232/10)</f>
         <v>4.4194173824159223E-2</v>
       </c>
-      <c r="D233" s="69">
+      <c r="D233" s="68">
         <f>$D$224*C233</f>
         <v>6.894291116568839</v>
       </c>
-      <c r="E233" s="69">
+      <c r="E233" s="68">
         <f>$E$224*C233</f>
         <v>4.1365746699413029</v>
       </c>
-      <c r="F233" s="69">
+      <c r="F233" s="68">
         <f>$F$224*C233</f>
         <v>2.4819448019647816</v>
       </c>
     </row>
     <row r="234" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A234" s="68" t="s">
+      <c r="A234" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="B234" s="71">
+      <c r="B234" s="70">
         <v>55</v>
       </c>
-      <c r="C234" s="66">
+      <c r="C234" s="65">
         <f t="shared" si="17"/>
         <v>3.125E-2</v>
       </c>
-      <c r="D234" s="69">
+      <c r="D234" s="68">
         <f>$D$224*C234</f>
         <v>4.875</v>
       </c>
-      <c r="E234" s="69">
+      <c r="E234" s="68">
         <f>$E$224*C234</f>
         <v>2.9249999999999998</v>
       </c>
-      <c r="F234" s="69">
+      <c r="F234" s="68">
         <f>$F$224*C234</f>
         <v>1.7549999999999999</v>
       </c>
     </row>
     <row r="235" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A235" s="55"/>
-      <c r="B235" s="55"/>
-      <c r="C235" s="65"/>
-      <c r="D235" s="55"/>
-      <c r="E235" s="55"/>
-      <c r="F235" s="55"/>
+      <c r="A235" s="54"/>
+      <c r="B235" s="54"/>
+      <c r="C235" s="64"/>
+      <c r="D235" s="54"/>
+      <c r="E235" s="54"/>
+      <c r="F235" s="54"/>
     </row>
     <row r="236" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A236" s="64" t="s">
-        <v>96</v>
-      </c>
-      <c r="B236" s="59"/>
-      <c r="C236" s="59"/>
-      <c r="D236" s="59"/>
-      <c r="E236" s="55"/>
-      <c r="F236" s="55"/>
+      <c r="A236" s="63" t="s">
+        <v>95</v>
+      </c>
+      <c r="B236" s="58"/>
+      <c r="C236" s="58"/>
+      <c r="D236" s="58"/>
+      <c r="E236" s="54"/>
+      <c r="F236" s="54"/>
     </row>
     <row r="237" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A237" s="76" t="s">
+      <c r="A237" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="B237" s="77" t="s">
+      <c r="B237" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="C237" s="77" t="s">
+      <c r="C237" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="D237" s="77" t="s">
+      <c r="D237" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="E237" s="55"/>
-      <c r="F237" s="55"/>
+      <c r="E237" s="54"/>
+      <c r="F237" s="54"/>
     </row>
     <row r="238" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A238" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B238" s="71">
+      <c r="B238" s="70">
         <f>52*3</f>
         <v>156</v>
       </c>
-      <c r="C238" s="71">
+      <c r="C238" s="70">
         <f>B238*0.6</f>
         <v>93.6</v>
       </c>
-      <c r="D238" s="71">
+      <c r="D238" s="70">
         <f>C238*0.6</f>
         <v>56.16</v>
       </c>
@@ -10704,31 +12625,21 @@
       <c r="A239" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B239" s="71">
+      <c r="B239" s="70">
         <f>52*3</f>
         <v>156</v>
       </c>
-      <c r="C239" s="71">
+      <c r="C239" s="70">
         <f>B239*0.6</f>
         <v>93.6</v>
       </c>
-      <c r="D239" s="71">
+      <c r="D239" s="70">
         <f>C239*0.6</f>
         <v>56.16</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A197:A198"/>
-    <mergeCell ref="A216:F216"/>
-    <mergeCell ref="A217:A218"/>
-    <mergeCell ref="B158:D158"/>
-    <mergeCell ref="E158:G158"/>
-    <mergeCell ref="A183:C183"/>
-    <mergeCell ref="A195:F195"/>
-    <mergeCell ref="A196:F196"/>
-    <mergeCell ref="D197:F197"/>
-    <mergeCell ref="D217:F217"/>
     <mergeCell ref="A109:A111"/>
     <mergeCell ref="B109:G109"/>
     <mergeCell ref="B130:G130"/>
@@ -10741,6 +12652,16 @@
     <mergeCell ref="E52:G52"/>
     <mergeCell ref="A81:A83"/>
     <mergeCell ref="B81:B83"/>
+    <mergeCell ref="A197:A198"/>
+    <mergeCell ref="A216:F216"/>
+    <mergeCell ref="A217:A218"/>
+    <mergeCell ref="B158:D158"/>
+    <mergeCell ref="E158:G158"/>
+    <mergeCell ref="A183:C183"/>
+    <mergeCell ref="A195:F195"/>
+    <mergeCell ref="A196:F196"/>
+    <mergeCell ref="D197:F197"/>
+    <mergeCell ref="D217:F217"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Config/Population_data.xlsx
+++ b/Config/Population_data.xlsx
@@ -748,7 +748,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -764,12 +764,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1337,42 +1331,42 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1387,7 +1381,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1442,24 +1436,17 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1469,9 +1456,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1510,13 +1494,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1562,6 +1539,33 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1595,9 +1599,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1613,30 +1614,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="28" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="28" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="48">
     <cellStyle name="20% - Accent1" xfId="18" builtinId="30" customBuiltin="1"/>
@@ -6090,8 +6068,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AF239"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B163" sqref="B163"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6129,107 +6107,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="57"/>
-      <c r="Q1" s="57"/>
-      <c r="R1" s="57"/>
-      <c r="S1" s="57"/>
-      <c r="T1" s="57"/>
-      <c r="U1" s="57"/>
-      <c r="V1" s="57"/>
-      <c r="W1" s="57"/>
-      <c r="X1" s="57"/>
-      <c r="Y1" s="57"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
     </row>
     <row r="2" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="57"/>
-      <c r="S2" s="57"/>
-      <c r="T2" s="57"/>
-      <c r="U2" s="57"/>
-      <c r="V2" s="57"/>
-      <c r="W2" s="57"/>
-      <c r="X2" s="57"/>
-      <c r="Y2" s="57"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="50"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="50"/>
+      <c r="V2" s="50"/>
+      <c r="W2" s="50"/>
+      <c r="X2" s="50"/>
+      <c r="Y2" s="50"/>
     </row>
     <row r="3" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="51" t="s">
         <v>97</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="57"/>
-      <c r="O3" s="57"/>
-      <c r="P3" s="57"/>
-      <c r="Q3" s="57"/>
-      <c r="R3" s="57"/>
-      <c r="S3" s="57"/>
-      <c r="T3" s="57"/>
-      <c r="U3" s="57"/>
-      <c r="V3" s="57"/>
-      <c r="W3" s="57"/>
-      <c r="X3" s="57"/>
-      <c r="Y3" s="57"/>
-    </row>
-    <row r="4" spans="1:25" s="59" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="50"/>
+      <c r="Q3" s="50"/>
+      <c r="R3" s="50"/>
+      <c r="S3" s="50"/>
+      <c r="T3" s="50"/>
+      <c r="U3" s="50"/>
+      <c r="V3" s="50"/>
+      <c r="W3" s="50"/>
+      <c r="X3" s="50"/>
+      <c r="Y3" s="50"/>
+    </row>
+    <row r="4" spans="1:25" s="52" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="87" t="s">
+      <c r="B4" s="89" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="88"/>
+      <c r="C4" s="90"/>
     </row>
     <row r="5" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="60"/>
-      <c r="B5" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="54" t="s">
+      <c r="A5" s="53"/>
+      <c r="B5" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="47" t="s">
         <v>1</v>
       </c>
     </row>
@@ -6355,13 +6333,13 @@
       </c>
     </row>
     <row r="17" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="24">
+      <c r="B17" s="23">
         <v>70487</v>
       </c>
-      <c r="C17" s="24">
+      <c r="C17" s="23">
         <v>82330</v>
       </c>
     </row>
@@ -6369,11 +6347,11 @@
       <c r="A18" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="25">
+      <c r="B18" s="96">
         <f>314094/6.27</f>
         <v>50094.736842105267</v>
       </c>
-      <c r="C18" s="25">
+      <c r="C18" s="96">
         <f>366793/6.36</f>
         <v>57671.85534591195</v>
       </c>
@@ -6382,11 +6360,11 @@
       <c r="A19" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="25">
+      <c r="B19" s="96">
         <f>224490/6.27</f>
         <v>35803.827751196171</v>
       </c>
-      <c r="C19" s="25">
+      <c r="C19" s="96">
         <f>282911/6.36</f>
         <v>44482.861635220121</v>
       </c>
@@ -6395,11 +6373,11 @@
       <c r="A20" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="25">
+      <c r="B20" s="96">
         <f>151123/6.27</f>
         <v>24102.551834130783</v>
       </c>
-      <c r="C20" s="25">
+      <c r="C20" s="96">
         <f>215469/6.36</f>
         <v>33878.773584905655</v>
       </c>
@@ -6408,17 +6386,17 @@
       <c r="A21" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="B21" s="25">
+      <c r="B21" s="96">
         <f>89288/6.27</f>
         <v>14240.510366826158</v>
       </c>
-      <c r="C21" s="25">
+      <c r="C21" s="96">
         <f>144901/6.36</f>
         <v>22783.176100628931</v>
       </c>
     </row>
     <row r="22" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="24" t="s">
         <v>28</v>
       </c>
       <c r="B22" s="12">
@@ -6440,7 +6418,7 @@
       <c r="B23" s="9"/>
     </row>
     <row r="24" spans="1:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="27" t="s">
+      <c r="A24" s="25" t="s">
         <v>59</v>
       </c>
       <c r="B24">
@@ -6453,23 +6431,23 @@
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F26" s="43"/>
+      <c r="F26" s="39"/>
     </row>
     <row r="27" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="52" t="s">
+      <c r="A27" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="89" t="s">
+      <c r="B27" s="78" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="90"/>
+      <c r="C27" s="91"/>
     </row>
     <row r="28" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="12"/>
-      <c r="B28" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="C28" s="52" t="s">
+      <c r="B28" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="45" t="s">
         <v>1</v>
       </c>
       <c r="F28" s="20"/>
@@ -6478,11 +6456,11 @@
       <c r="A29" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="26">
+      <c r="B29" s="24">
         <f t="array" ref="B29:B44">-1*B6:B22</f>
         <v>-418189</v>
       </c>
-      <c r="C29" s="26">
+      <c r="C29" s="24">
         <v>417311</v>
       </c>
     </row>
@@ -6490,10 +6468,10 @@
       <c r="A30" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="26">
+      <c r="B30" s="24">
         <v>-361938</v>
       </c>
-      <c r="C30" s="26">
+      <c r="C30" s="24">
         <v>361594</v>
       </c>
     </row>
@@ -6501,10 +6479,10 @@
       <c r="A31" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B31" s="26">
+      <c r="B31" s="24">
         <v>-327171</v>
       </c>
-      <c r="C31" s="26">
+      <c r="C31" s="24">
         <v>329333</v>
       </c>
       <c r="L31" s="11"/>
@@ -6513,10 +6491,10 @@
       <c r="A32" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B32" s="26">
+      <c r="B32" s="24">
         <v>-289627</v>
       </c>
-      <c r="C32" s="26">
+      <c r="C32" s="24">
         <v>296947</v>
       </c>
     </row>
@@ -6524,10 +6502,10 @@
       <c r="A33" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B33" s="26">
+      <c r="B33" s="24">
         <v>-262704</v>
       </c>
-      <c r="C33" s="26">
+      <c r="C33" s="24">
         <v>273204</v>
       </c>
     </row>
@@ -6535,10 +6513,10 @@
       <c r="A34" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B34" s="26">
+      <c r="B34" s="24">
         <v>-235673</v>
       </c>
-      <c r="C34" s="26">
+      <c r="C34" s="24">
         <v>249396</v>
       </c>
     </row>
@@ -6546,10 +6524,10 @@
       <c r="A35" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B35" s="26">
+      <c r="B35" s="24">
         <v>-197816</v>
       </c>
-      <c r="C35" s="26">
+      <c r="C35" s="24">
         <v>211839</v>
       </c>
     </row>
@@ -6557,10 +6535,10 @@
       <c r="A36" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B36" s="26">
+      <c r="B36" s="24">
         <v>-160952</v>
       </c>
-      <c r="C36" s="26">
+      <c r="C36" s="24">
         <v>176470</v>
       </c>
       <c r="X36" s="17"/>
@@ -6577,10 +6555,10 @@
       <c r="A37" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B37" s="26">
+      <c r="B37" s="24">
         <v>-132311</v>
       </c>
-      <c r="C37" s="26">
+      <c r="C37" s="24">
         <v>143351</v>
       </c>
       <c r="X37" s="18"/>
@@ -6596,310 +6574,310 @@
       <c r="A38" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B38" s="26">
+      <c r="B38" s="24">
         <v>-110849</v>
       </c>
-      <c r="C38" s="26">
+      <c r="C38" s="24">
         <v>123441</v>
       </c>
-      <c r="X38" s="34"/>
-      <c r="Y38" s="34"/>
-      <c r="Z38" s="34"/>
-      <c r="AA38" s="34"/>
-      <c r="AB38" s="34"/>
-      <c r="AC38" s="34"/>
-      <c r="AD38" s="34"/>
-      <c r="AE38" s="34"/>
+      <c r="X38" s="30"/>
+      <c r="Y38" s="30"/>
+      <c r="Z38" s="30"/>
+      <c r="AA38" s="30"/>
+      <c r="AB38" s="30"/>
+      <c r="AC38" s="30"/>
+      <c r="AD38" s="30"/>
+      <c r="AE38" s="30"/>
     </row>
     <row r="39" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B39" s="26">
+      <c r="B39" s="24">
         <v>-89027</v>
       </c>
-      <c r="C39" s="26">
+      <c r="C39" s="24">
         <v>98355</v>
       </c>
-      <c r="X39" s="35"/>
-      <c r="Y39" s="35"/>
-      <c r="Z39" s="35"/>
-      <c r="AA39" s="35"/>
-      <c r="AB39" s="35"/>
-      <c r="AC39" s="35"/>
-      <c r="AD39" s="35"/>
-      <c r="AE39" s="35"/>
+      <c r="X39" s="31"/>
+      <c r="Y39" s="31"/>
+      <c r="Z39" s="31"/>
+      <c r="AA39" s="31"/>
+      <c r="AB39" s="31"/>
+      <c r="AC39" s="31"/>
+      <c r="AD39" s="31"/>
+      <c r="AE39" s="31"/>
     </row>
     <row r="40" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B40" s="26">
+      <c r="B40" s="24">
         <v>-70487</v>
       </c>
-      <c r="C40" s="26">
+      <c r="C40" s="24">
         <v>82330</v>
       </c>
-      <c r="X40" s="35"/>
-      <c r="Y40" s="35"/>
-      <c r="Z40" s="35"/>
-      <c r="AA40" s="35"/>
-      <c r="AB40" s="35"/>
-      <c r="AC40" s="35"/>
-      <c r="AD40" s="35"/>
-      <c r="AE40" s="35"/>
+      <c r="X40" s="31"/>
+      <c r="Y40" s="31"/>
+      <c r="Z40" s="31"/>
+      <c r="AA40" s="31"/>
+      <c r="AB40" s="31"/>
+      <c r="AC40" s="31"/>
+      <c r="AD40" s="31"/>
+      <c r="AE40" s="31"/>
     </row>
     <row r="41" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="B41" s="61">
+      <c r="B41" s="54">
         <v>-50094.736842105267</v>
       </c>
-      <c r="C41" s="61">
+      <c r="C41" s="54">
         <f>366793/6.36</f>
         <v>57671.85534591195</v>
       </c>
-      <c r="X41" s="35"/>
-      <c r="Y41" s="35"/>
-      <c r="Z41" s="35"/>
-      <c r="AA41" s="35"/>
-      <c r="AB41" s="35"/>
-      <c r="AC41" s="35"/>
-      <c r="AD41" s="35"/>
-      <c r="AE41" s="35"/>
+      <c r="X41" s="31"/>
+      <c r="Y41" s="31"/>
+      <c r="Z41" s="31"/>
+      <c r="AA41" s="31"/>
+      <c r="AB41" s="31"/>
+      <c r="AC41" s="31"/>
+      <c r="AD41" s="31"/>
+      <c r="AE41" s="31"/>
     </row>
     <row r="42" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="B42" s="61">
+      <c r="B42" s="54">
         <v>-35803.827751196171</v>
       </c>
-      <c r="C42" s="61">
+      <c r="C42" s="54">
         <f>282911/6.36</f>
         <v>44482.861635220121</v>
       </c>
-      <c r="X42" s="36"/>
-      <c r="Y42" s="36"/>
-      <c r="Z42" s="36"/>
-      <c r="AA42" s="36"/>
-      <c r="AB42" s="36"/>
-      <c r="AC42" s="36"/>
-      <c r="AD42" s="36"/>
-      <c r="AE42" s="36"/>
+      <c r="X42" s="32"/>
+      <c r="Y42" s="32"/>
+      <c r="Z42" s="32"/>
+      <c r="AA42" s="32"/>
+      <c r="AB42" s="32"/>
+      <c r="AC42" s="32"/>
+      <c r="AD42" s="32"/>
+      <c r="AE42" s="32"/>
     </row>
     <row r="43" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="B43" s="61">
+      <c r="B43" s="54">
         <v>-24102.551834130783</v>
       </c>
-      <c r="C43" s="61">
+      <c r="C43" s="54">
         <f>215469/6.36</f>
         <v>33878.773584905655</v>
       </c>
-      <c r="X43" s="36"/>
-      <c r="Y43" s="36"/>
-      <c r="Z43" s="36"/>
-      <c r="AA43" s="36"/>
-      <c r="AB43" s="36"/>
-      <c r="AC43" s="36"/>
-      <c r="AD43" s="36"/>
-      <c r="AE43" s="36"/>
+      <c r="X43" s="32"/>
+      <c r="Y43" s="32"/>
+      <c r="Z43" s="32"/>
+      <c r="AA43" s="32"/>
+      <c r="AB43" s="32"/>
+      <c r="AC43" s="32"/>
+      <c r="AD43" s="32"/>
+      <c r="AE43" s="32"/>
     </row>
     <row r="44" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="B44" s="61">
+      <c r="B44" s="54">
         <v>-14240.510366826158</v>
       </c>
-      <c r="C44" s="61">
+      <c r="C44" s="54">
         <f>144901/6.36</f>
         <v>22783.176100628931</v>
       </c>
-      <c r="X44" s="36"/>
-      <c r="Y44" s="36"/>
-      <c r="Z44" s="36"/>
-      <c r="AA44" s="36"/>
-      <c r="AB44" s="36"/>
-      <c r="AC44" s="36"/>
-      <c r="AD44" s="36"/>
-      <c r="AE44" s="36"/>
+      <c r="X44" s="32"/>
+      <c r="Y44" s="32"/>
+      <c r="Z44" s="32"/>
+      <c r="AA44" s="32"/>
+      <c r="AB44" s="32"/>
+      <c r="AC44" s="32"/>
+      <c r="AD44" s="32"/>
+      <c r="AE44" s="32"/>
     </row>
     <row r="45" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="X45" s="36"/>
-      <c r="Y45" s="36"/>
-      <c r="Z45" s="36"/>
-      <c r="AA45" s="36"/>
-      <c r="AB45" s="36"/>
-      <c r="AC45" s="36"/>
-      <c r="AD45" s="36"/>
-      <c r="AE45" s="36"/>
+      <c r="X45" s="32"/>
+      <c r="Y45" s="32"/>
+      <c r="Z45" s="32"/>
+      <c r="AA45" s="32"/>
+      <c r="AB45" s="32"/>
+      <c r="AC45" s="32"/>
+      <c r="AD45" s="32"/>
+      <c r="AE45" s="32"/>
     </row>
     <row r="46" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="X46" s="36"/>
-      <c r="Y46" s="36"/>
-      <c r="Z46" s="36"/>
-      <c r="AA46" s="36"/>
-      <c r="AB46" s="36"/>
-      <c r="AC46" s="36"/>
-      <c r="AD46" s="36"/>
-      <c r="AE46" s="36"/>
+      <c r="X46" s="32"/>
+      <c r="Y46" s="32"/>
+      <c r="Z46" s="32"/>
+      <c r="AA46" s="32"/>
+      <c r="AB46" s="32"/>
+      <c r="AC46" s="32"/>
+      <c r="AD46" s="32"/>
+      <c r="AE46" s="32"/>
     </row>
     <row r="47" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="X47" s="36"/>
-      <c r="Y47" s="36"/>
-      <c r="Z47" s="36"/>
-      <c r="AA47" s="36"/>
-      <c r="AB47" s="36"/>
-      <c r="AC47" s="36"/>
-      <c r="AD47" s="36"/>
-      <c r="AE47" s="36"/>
+      <c r="X47" s="32"/>
+      <c r="Y47" s="32"/>
+      <c r="Z47" s="32"/>
+      <c r="AA47" s="32"/>
+      <c r="AB47" s="32"/>
+      <c r="AC47" s="32"/>
+      <c r="AD47" s="32"/>
+      <c r="AE47" s="32"/>
     </row>
     <row r="48" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="X48" s="36"/>
-      <c r="Y48" s="36"/>
-      <c r="Z48" s="36"/>
-      <c r="AA48" s="36"/>
-      <c r="AB48" s="36"/>
-      <c r="AC48" s="36"/>
-      <c r="AD48" s="36"/>
-      <c r="AE48" s="36"/>
+      <c r="X48" s="32"/>
+      <c r="Y48" s="32"/>
+      <c r="Z48" s="32"/>
+      <c r="AA48" s="32"/>
+      <c r="AB48" s="32"/>
+      <c r="AC48" s="32"/>
+      <c r="AD48" s="32"/>
+      <c r="AE48" s="32"/>
     </row>
     <row r="49" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="X49" s="36"/>
-      <c r="Y49" s="36"/>
-      <c r="Z49" s="36"/>
-      <c r="AA49" s="36"/>
-      <c r="AB49" s="36"/>
-      <c r="AC49" s="36"/>
-      <c r="AD49" s="36"/>
-      <c r="AE49" s="36"/>
+      <c r="X49" s="32"/>
+      <c r="Y49" s="32"/>
+      <c r="Z49" s="32"/>
+      <c r="AA49" s="32"/>
+      <c r="AB49" s="32"/>
+      <c r="AC49" s="32"/>
+      <c r="AD49" s="32"/>
+      <c r="AE49" s="32"/>
     </row>
     <row r="50" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="56" t="s">
+      <c r="A50" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="B50" s="57"/>
-      <c r="C50" s="57"/>
-      <c r="D50" s="57"/>
-      <c r="E50" s="57"/>
-      <c r="F50" s="57"/>
-      <c r="G50" s="57"/>
-      <c r="H50" s="57"/>
-      <c r="I50" s="57"/>
-      <c r="J50" s="57"/>
-      <c r="K50" s="57"/>
-      <c r="L50" s="57"/>
-      <c r="M50" s="57"/>
-      <c r="N50" s="57"/>
-      <c r="O50" s="57"/>
-      <c r="P50" s="57"/>
-      <c r="Q50" s="57"/>
-      <c r="R50" s="57"/>
-      <c r="S50" s="57"/>
-      <c r="T50" s="57"/>
-      <c r="U50" s="57"/>
-      <c r="V50" s="57"/>
-      <c r="W50" s="57"/>
-      <c r="X50" s="36"/>
-      <c r="Y50" s="36"/>
-      <c r="Z50" s="36"/>
-      <c r="AA50" s="36"/>
-      <c r="AB50" s="36"/>
-      <c r="AC50" s="36"/>
-      <c r="AD50" s="36"/>
-      <c r="AE50" s="36"/>
+      <c r="B50" s="50"/>
+      <c r="C50" s="50"/>
+      <c r="D50" s="50"/>
+      <c r="E50" s="50"/>
+      <c r="F50" s="50"/>
+      <c r="G50" s="50"/>
+      <c r="H50" s="50"/>
+      <c r="I50" s="50"/>
+      <c r="J50" s="50"/>
+      <c r="K50" s="50"/>
+      <c r="L50" s="50"/>
+      <c r="M50" s="50"/>
+      <c r="N50" s="50"/>
+      <c r="O50" s="50"/>
+      <c r="P50" s="50"/>
+      <c r="Q50" s="50"/>
+      <c r="R50" s="50"/>
+      <c r="S50" s="50"/>
+      <c r="T50" s="50"/>
+      <c r="U50" s="50"/>
+      <c r="V50" s="50"/>
+      <c r="W50" s="50"/>
+      <c r="X50" s="32"/>
+      <c r="Y50" s="32"/>
+      <c r="Z50" s="32"/>
+      <c r="AA50" s="32"/>
+      <c r="AB50" s="32"/>
+      <c r="AC50" s="32"/>
+      <c r="AD50" s="32"/>
+      <c r="AE50" s="32"/>
     </row>
     <row r="51" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="58" t="s">
+      <c r="A51" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="B51" s="57"/>
-      <c r="C51" s="57"/>
-      <c r="D51" s="57"/>
-      <c r="E51" s="57"/>
-      <c r="F51" s="57"/>
-      <c r="G51" s="57"/>
-      <c r="H51" s="57"/>
-      <c r="I51" s="57"/>
-      <c r="J51" s="57"/>
-      <c r="K51" s="57"/>
-      <c r="L51" s="57"/>
-      <c r="M51" s="57"/>
-      <c r="N51" s="57"/>
-      <c r="O51" s="57"/>
-      <c r="P51" s="57"/>
-      <c r="Q51" s="57"/>
-      <c r="R51" s="57"/>
-      <c r="S51" s="57"/>
-      <c r="T51" s="57"/>
-      <c r="U51" s="57"/>
-      <c r="V51" s="57"/>
-      <c r="W51" s="57"/>
-      <c r="X51" s="36"/>
-      <c r="Y51" s="36"/>
-      <c r="Z51" s="36"/>
-      <c r="AA51" s="36"/>
-      <c r="AB51" s="36"/>
-      <c r="AC51" s="36"/>
-      <c r="AD51" s="36"/>
-      <c r="AE51" s="36"/>
+      <c r="B51" s="50"/>
+      <c r="C51" s="50"/>
+      <c r="D51" s="50"/>
+      <c r="E51" s="50"/>
+      <c r="F51" s="50"/>
+      <c r="G51" s="50"/>
+      <c r="H51" s="50"/>
+      <c r="I51" s="50"/>
+      <c r="J51" s="50"/>
+      <c r="K51" s="50"/>
+      <c r="L51" s="50"/>
+      <c r="M51" s="50"/>
+      <c r="N51" s="50"/>
+      <c r="O51" s="50"/>
+      <c r="P51" s="50"/>
+      <c r="Q51" s="50"/>
+      <c r="R51" s="50"/>
+      <c r="S51" s="50"/>
+      <c r="T51" s="50"/>
+      <c r="U51" s="50"/>
+      <c r="V51" s="50"/>
+      <c r="W51" s="50"/>
+      <c r="X51" s="32"/>
+      <c r="Y51" s="32"/>
+      <c r="Z51" s="32"/>
+      <c r="AA51" s="32"/>
+      <c r="AB51" s="32"/>
+      <c r="AC51" s="32"/>
+      <c r="AD51" s="32"/>
+      <c r="AE51" s="32"/>
     </row>
     <row r="52" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="94" t="s">
+      <c r="A52" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="B52" s="94" t="s">
+      <c r="B52" s="95" t="s">
         <v>67</v>
       </c>
-      <c r="C52" s="94"/>
-      <c r="D52" s="94"/>
-      <c r="E52" s="94" t="s">
+      <c r="C52" s="95"/>
+      <c r="D52" s="95"/>
+      <c r="E52" s="95" t="s">
         <v>68</v>
       </c>
-      <c r="F52" s="94"/>
-      <c r="G52" s="94"/>
-      <c r="X52" s="34"/>
-      <c r="Y52" s="34"/>
-      <c r="Z52" s="34"/>
-      <c r="AA52" s="34"/>
-      <c r="AB52" s="34"/>
-      <c r="AC52" s="34"/>
-      <c r="AD52" s="34"/>
-      <c r="AE52" s="34"/>
+      <c r="F52" s="95"/>
+      <c r="G52" s="95"/>
+      <c r="X52" s="30"/>
+      <c r="Y52" s="30"/>
+      <c r="Z52" s="30"/>
+      <c r="AA52" s="30"/>
+      <c r="AB52" s="30"/>
+      <c r="AC52" s="30"/>
+      <c r="AD52" s="30"/>
+      <c r="AE52" s="30"/>
     </row>
     <row r="53" spans="1:31" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="94"/>
-      <c r="B53" s="52" t="s">
+      <c r="A53" s="95"/>
+      <c r="B53" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="C53" s="52" t="s">
+      <c r="C53" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="D53" s="52" t="s">
+      <c r="D53" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="E53" s="52" t="s">
+      <c r="E53" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="F53" s="52" t="s">
+      <c r="F53" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="G53" s="52" t="s">
+      <c r="G53" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="X53" s="32"/>
-      <c r="Y53" s="32"/>
-      <c r="Z53" s="31"/>
-      <c r="AA53" s="37"/>
-      <c r="AB53" s="37"/>
-      <c r="AC53" s="37"/>
-      <c r="AD53" s="37"/>
-      <c r="AE53" s="37"/>
+      <c r="X53" s="29"/>
+      <c r="Y53" s="29"/>
+      <c r="Z53" s="28"/>
+      <c r="AA53" s="33"/>
+      <c r="AB53" s="33"/>
+      <c r="AC53" s="33"/>
+      <c r="AD53" s="33"/>
+      <c r="AE53" s="33"/>
     </row>
     <row r="54" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
@@ -7192,23 +7170,23 @@
       <c r="A66" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="B66" s="22">
+      <c r="B66" s="27">
         <v>0.85074626865671632</v>
       </c>
-      <c r="C66" s="22">
+      <c r="C66" s="27">
         <f t="shared" si="1"/>
         <v>0.14825373134328401</v>
       </c>
-      <c r="D66" s="22">
+      <c r="D66" s="27">
         <v>1E-3</v>
       </c>
-      <c r="E66" s="22">
+      <c r="E66" s="27">
         <v>0.99568965517241381</v>
       </c>
-      <c r="F66" s="22">
+      <c r="F66" s="27">
         <v>2.8735632183908046E-3</v>
       </c>
-      <c r="G66" s="22">
+      <c r="G66" s="27">
         <v>1.4367816091954023E-3</v>
       </c>
     </row>
@@ -7216,23 +7194,23 @@
       <c r="A67" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="B67" s="22">
+      <c r="B67" s="27">
         <v>0.85074626865671632</v>
       </c>
-      <c r="C67" s="22">
+      <c r="C67" s="27">
         <f t="shared" si="1"/>
         <v>0.14825373134328401</v>
       </c>
-      <c r="D67" s="22">
+      <c r="D67" s="27">
         <v>1E-3</v>
       </c>
-      <c r="E67" s="22">
+      <c r="E67" s="27">
         <v>0.99568965517241381</v>
       </c>
-      <c r="F67" s="22">
+      <c r="F67" s="27">
         <v>2.8735632183908046E-3</v>
       </c>
-      <c r="G67" s="22">
+      <c r="G67" s="27">
         <v>1.4367816091954023E-3</v>
       </c>
     </row>
@@ -7240,23 +7218,23 @@
       <c r="A68" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="B68" s="22">
+      <c r="B68" s="27">
         <v>0.85074626865671632</v>
       </c>
-      <c r="C68" s="22">
+      <c r="C68" s="27">
         <f t="shared" si="1"/>
         <v>0.14825373134328401</v>
       </c>
-      <c r="D68" s="22">
+      <c r="D68" s="27">
         <v>1E-3</v>
       </c>
-      <c r="E68" s="22">
+      <c r="E68" s="27">
         <v>0.99568965517241381</v>
       </c>
-      <c r="F68" s="22">
+      <c r="F68" s="27">
         <v>2.8735632183908046E-3</v>
       </c>
-      <c r="G68" s="22">
+      <c r="G68" s="27">
         <v>1.4367816091954023E-3</v>
       </c>
     </row>
@@ -7264,28 +7242,28 @@
       <c r="A69" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="B69" s="22">
+      <c r="B69" s="27">
         <v>0.85074626865671632</v>
       </c>
-      <c r="C69" s="22">
+      <c r="C69" s="27">
         <f t="shared" si="1"/>
         <v>0.14825373134328401</v>
       </c>
-      <c r="D69" s="22">
+      <c r="D69" s="27">
         <v>1E-3</v>
       </c>
-      <c r="E69" s="22">
+      <c r="E69" s="27">
         <v>0.99568965517241381</v>
       </c>
-      <c r="F69" s="22">
+      <c r="F69" s="27">
         <v>2.8735632183908046E-3</v>
       </c>
-      <c r="G69" s="22">
+      <c r="G69" s="27">
         <v>1.4367816091954023E-3</v>
       </c>
     </row>
     <row r="71" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A71" s="43" t="s">
+      <c r="A71" s="39" t="s">
         <v>60</v>
       </c>
       <c r="B71">
@@ -7314,7 +7292,7 @@
       </c>
     </row>
     <row r="72" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A72" s="43" t="s">
+      <c r="A72" s="39" t="s">
         <v>61</v>
       </c>
       <c r="B72">
@@ -7323,109 +7301,109 @@
       </c>
     </row>
     <row r="78" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="56" t="s">
+      <c r="A78" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="B78" s="57"/>
-      <c r="C78" s="57"/>
-      <c r="D78" s="57"/>
-      <c r="E78" s="57"/>
-      <c r="F78" s="57"/>
-      <c r="G78" s="57"/>
-      <c r="H78" s="57"/>
-      <c r="I78" s="57"/>
-      <c r="J78" s="57"/>
-      <c r="K78" s="57"/>
-      <c r="L78" s="57"/>
-      <c r="M78" s="57"/>
-      <c r="N78" s="57"/>
-      <c r="O78" s="57"/>
-      <c r="P78" s="57"/>
-      <c r="Q78" s="57"/>
-      <c r="R78" s="57"/>
-      <c r="S78" s="57"/>
-      <c r="T78" s="57"/>
-      <c r="U78" s="57"/>
-      <c r="V78" s="57"/>
-      <c r="W78" s="57"/>
-      <c r="X78" s="57"/>
+      <c r="B78" s="50"/>
+      <c r="C78" s="50"/>
+      <c r="D78" s="50"/>
+      <c r="E78" s="50"/>
+      <c r="F78" s="50"/>
+      <c r="G78" s="50"/>
+      <c r="H78" s="50"/>
+      <c r="I78" s="50"/>
+      <c r="J78" s="50"/>
+      <c r="K78" s="50"/>
+      <c r="L78" s="50"/>
+      <c r="M78" s="50"/>
+      <c r="N78" s="50"/>
+      <c r="O78" s="50"/>
+      <c r="P78" s="50"/>
+      <c r="Q78" s="50"/>
+      <c r="R78" s="50"/>
+      <c r="S78" s="50"/>
+      <c r="T78" s="50"/>
+      <c r="U78" s="50"/>
+      <c r="V78" s="50"/>
+      <c r="W78" s="50"/>
+      <c r="X78" s="50"/>
     </row>
     <row r="79" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="58" t="s">
+      <c r="A79" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="B79" s="57"/>
-      <c r="C79" s="57"/>
-      <c r="D79" s="57"/>
-      <c r="E79" s="57"/>
-      <c r="F79" s="57"/>
-      <c r="G79" s="57"/>
-      <c r="H79" s="57"/>
-      <c r="I79" s="57"/>
-      <c r="J79" s="57"/>
-      <c r="K79" s="57"/>
-      <c r="L79" s="57"/>
-      <c r="M79" s="57"/>
-      <c r="N79" s="57"/>
-      <c r="O79" s="57"/>
-      <c r="P79" s="57"/>
-      <c r="Q79" s="57"/>
-      <c r="R79" s="57"/>
-      <c r="S79" s="57"/>
-      <c r="T79" s="57"/>
-      <c r="U79" s="57"/>
-      <c r="V79" s="57"/>
-      <c r="W79" s="57"/>
-      <c r="X79" s="57"/>
+      <c r="B79" s="50"/>
+      <c r="C79" s="50"/>
+      <c r="D79" s="50"/>
+      <c r="E79" s="50"/>
+      <c r="F79" s="50"/>
+      <c r="G79" s="50"/>
+      <c r="H79" s="50"/>
+      <c r="I79" s="50"/>
+      <c r="J79" s="50"/>
+      <c r="K79" s="50"/>
+      <c r="L79" s="50"/>
+      <c r="M79" s="50"/>
+      <c r="N79" s="50"/>
+      <c r="O79" s="50"/>
+      <c r="P79" s="50"/>
+      <c r="Q79" s="50"/>
+      <c r="R79" s="50"/>
+      <c r="S79" s="50"/>
+      <c r="T79" s="50"/>
+      <c r="U79" s="50"/>
+      <c r="V79" s="50"/>
+      <c r="W79" s="50"/>
+      <c r="X79" s="50"/>
     </row>
     <row r="80" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="58" t="s">
+      <c r="A80" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="B80" s="57"/>
-      <c r="C80" s="57"/>
-      <c r="D80" s="57"/>
-      <c r="E80" s="57"/>
-      <c r="F80" s="57"/>
-      <c r="G80" s="57"/>
-      <c r="H80" s="57"/>
-      <c r="I80" s="57"/>
-      <c r="J80" s="57"/>
-      <c r="K80" s="57"/>
-      <c r="L80" s="57"/>
-      <c r="M80" s="57"/>
-      <c r="N80" s="57"/>
-      <c r="O80" s="57"/>
-      <c r="P80" s="57"/>
-      <c r="Q80" s="57"/>
-      <c r="R80" s="57"/>
-      <c r="S80" s="57"/>
-      <c r="T80" s="57"/>
-      <c r="U80" s="57"/>
-      <c r="V80" s="57"/>
-      <c r="W80" s="57"/>
-      <c r="X80" s="57"/>
+      <c r="B80" s="50"/>
+      <c r="C80" s="50"/>
+      <c r="D80" s="50"/>
+      <c r="E80" s="50"/>
+      <c r="F80" s="50"/>
+      <c r="G80" s="50"/>
+      <c r="H80" s="50"/>
+      <c r="I80" s="50"/>
+      <c r="J80" s="50"/>
+      <c r="K80" s="50"/>
+      <c r="L80" s="50"/>
+      <c r="M80" s="50"/>
+      <c r="N80" s="50"/>
+      <c r="O80" s="50"/>
+      <c r="P80" s="50"/>
+      <c r="Q80" s="50"/>
+      <c r="R80" s="50"/>
+      <c r="S80" s="50"/>
+      <c r="T80" s="50"/>
+      <c r="U80" s="50"/>
+      <c r="V80" s="50"/>
+      <c r="W80" s="50"/>
+      <c r="X80" s="50"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="78" t="s">
+      <c r="A81" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="B81" s="91" t="s">
+      <c r="B81" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="C81" s="91" t="s">
+      <c r="C81" s="92" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="79"/>
-      <c r="B82" s="92"/>
-      <c r="C82" s="92"/>
+      <c r="A82" s="81"/>
+      <c r="B82" s="93"/>
+      <c r="C82" s="93"/>
     </row>
     <row r="83" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="80"/>
-      <c r="B83" s="93"/>
-      <c r="C83" s="93"/>
+      <c r="A83" s="82"/>
+      <c r="B83" s="94"/>
+      <c r="C83" s="94"/>
     </row>
     <row r="84" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
@@ -7563,10 +7541,10 @@
       <c r="A96" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="B96" s="28">
+      <c r="B96" s="13">
         <v>2.6650488106048104E-2</v>
       </c>
-      <c r="C96" s="28">
+      <c r="C96" s="13">
         <v>1.5759592316689931E-2</v>
       </c>
     </row>
@@ -7574,10 +7552,10 @@
       <c r="A97" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="B97" s="28">
+      <c r="B97" s="13">
         <v>3.6763608595780588E-2</v>
       </c>
-      <c r="C97" s="28">
+      <c r="C97" s="13">
         <v>2.2837523063216215E-2</v>
       </c>
     </row>
@@ -7585,10 +7563,10 @@
       <c r="A98" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="B98" s="28">
+      <c r="B98" s="13">
         <v>5.1790400883394136E-2</v>
       </c>
-      <c r="C98" s="28">
+      <c r="C98" s="13">
         <v>3.3336893194863555E-2</v>
       </c>
     </row>
@@ -7596,147 +7574,147 @@
       <c r="A99" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="B99" s="28">
+      <c r="B99" s="13">
         <v>8.3577387695122712E-2</v>
       </c>
-      <c r="C99" s="28">
+      <c r="C99" s="13">
         <v>6.1722846856347699E-2</v>
       </c>
     </row>
     <row r="105" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A105" s="56" t="s">
+      <c r="A105" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="B105" s="57"/>
-      <c r="C105" s="57"/>
-      <c r="D105" s="57"/>
-      <c r="E105" s="57"/>
-      <c r="F105" s="57"/>
-      <c r="G105" s="57"/>
-      <c r="H105" s="57"/>
-      <c r="I105" s="57"/>
-      <c r="J105" s="57"/>
-      <c r="K105" s="57"/>
-      <c r="L105" s="57"/>
-      <c r="M105" s="57"/>
-      <c r="N105" s="57"/>
-      <c r="O105" s="57"/>
-      <c r="P105" s="57"/>
-      <c r="Q105" s="57"/>
-      <c r="R105" s="57"/>
-      <c r="S105" s="57"/>
-      <c r="T105" s="57"/>
-      <c r="U105" s="57"/>
-      <c r="V105" s="57"/>
-      <c r="W105" s="57"/>
-      <c r="X105" s="57"/>
+      <c r="B105" s="50"/>
+      <c r="C105" s="50"/>
+      <c r="D105" s="50"/>
+      <c r="E105" s="50"/>
+      <c r="F105" s="50"/>
+      <c r="G105" s="50"/>
+      <c r="H105" s="50"/>
+      <c r="I105" s="50"/>
+      <c r="J105" s="50"/>
+      <c r="K105" s="50"/>
+      <c r="L105" s="50"/>
+      <c r="M105" s="50"/>
+      <c r="N105" s="50"/>
+      <c r="O105" s="50"/>
+      <c r="P105" s="50"/>
+      <c r="Q105" s="50"/>
+      <c r="R105" s="50"/>
+      <c r="S105" s="50"/>
+      <c r="T105" s="50"/>
+      <c r="U105" s="50"/>
+      <c r="V105" s="50"/>
+      <c r="W105" s="50"/>
+      <c r="X105" s="50"/>
     </row>
     <row r="106" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A106" s="58" t="s">
+      <c r="A106" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="B106" s="57"/>
-      <c r="C106" s="57"/>
-      <c r="D106" s="57"/>
-      <c r="E106" s="57"/>
-      <c r="F106" s="57"/>
-      <c r="G106" s="57"/>
-      <c r="H106" s="57"/>
-      <c r="I106" s="57"/>
-      <c r="J106" s="57"/>
-      <c r="K106" s="57"/>
-      <c r="L106" s="57"/>
-      <c r="M106" s="57"/>
-      <c r="N106" s="57"/>
-      <c r="O106" s="57"/>
-      <c r="P106" s="57"/>
-      <c r="Q106" s="57"/>
-      <c r="R106" s="57"/>
-      <c r="S106" s="57"/>
-      <c r="T106" s="57"/>
-      <c r="U106" s="57"/>
-      <c r="V106" s="57"/>
-      <c r="W106" s="57"/>
-      <c r="X106" s="57"/>
+      <c r="B106" s="50"/>
+      <c r="C106" s="50"/>
+      <c r="D106" s="50"/>
+      <c r="E106" s="50"/>
+      <c r="F106" s="50"/>
+      <c r="G106" s="50"/>
+      <c r="H106" s="50"/>
+      <c r="I106" s="50"/>
+      <c r="J106" s="50"/>
+      <c r="K106" s="50"/>
+      <c r="L106" s="50"/>
+      <c r="M106" s="50"/>
+      <c r="N106" s="50"/>
+      <c r="O106" s="50"/>
+      <c r="P106" s="50"/>
+      <c r="Q106" s="50"/>
+      <c r="R106" s="50"/>
+      <c r="S106" s="50"/>
+      <c r="T106" s="50"/>
+      <c r="U106" s="50"/>
+      <c r="V106" s="50"/>
+      <c r="W106" s="50"/>
+      <c r="X106" s="50"/>
     </row>
     <row r="107" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A107" s="58" t="s">
+      <c r="A107" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="B107" s="57"/>
-      <c r="C107" s="57"/>
-      <c r="D107" s="57"/>
-      <c r="E107" s="57"/>
-      <c r="F107" s="57"/>
-      <c r="G107" s="57"/>
-      <c r="H107" s="57"/>
-      <c r="I107" s="57"/>
-      <c r="J107" s="57"/>
-      <c r="K107" s="57"/>
-      <c r="L107" s="57"/>
-      <c r="M107" s="57"/>
-      <c r="N107" s="57"/>
-      <c r="O107" s="57"/>
-      <c r="P107" s="57"/>
-      <c r="Q107" s="57"/>
-      <c r="R107" s="57"/>
-      <c r="S107" s="57"/>
-      <c r="T107" s="57"/>
-      <c r="U107" s="57"/>
-      <c r="V107" s="57"/>
-      <c r="W107" s="57"/>
-      <c r="X107" s="57"/>
+      <c r="B107" s="50"/>
+      <c r="C107" s="50"/>
+      <c r="D107" s="50"/>
+      <c r="E107" s="50"/>
+      <c r="F107" s="50"/>
+      <c r="G107" s="50"/>
+      <c r="H107" s="50"/>
+      <c r="I107" s="50"/>
+      <c r="J107" s="50"/>
+      <c r="K107" s="50"/>
+      <c r="L107" s="50"/>
+      <c r="M107" s="50"/>
+      <c r="N107" s="50"/>
+      <c r="O107" s="50"/>
+      <c r="P107" s="50"/>
+      <c r="Q107" s="50"/>
+      <c r="R107" s="50"/>
+      <c r="S107" s="50"/>
+      <c r="T107" s="50"/>
+      <c r="U107" s="50"/>
+      <c r="V107" s="50"/>
+      <c r="W107" s="50"/>
+      <c r="X107" s="50"/>
     </row>
     <row r="108" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="56" t="s">
+      <c r="A108" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="B108" s="57"/>
-      <c r="C108" s="57"/>
-      <c r="D108" s="57"/>
-      <c r="E108" s="57"/>
-      <c r="F108" s="57"/>
-      <c r="G108" s="57"/>
-      <c r="H108" s="57"/>
-      <c r="I108" s="57"/>
-      <c r="J108" s="57"/>
-      <c r="K108" s="57"/>
-      <c r="L108" s="57"/>
-      <c r="M108" s="57"/>
-      <c r="N108" s="57"/>
-      <c r="O108" s="57"/>
-      <c r="P108" s="57"/>
-      <c r="Q108" s="57"/>
-      <c r="R108" s="57"/>
-      <c r="S108" s="57"/>
-      <c r="T108" s="57"/>
-      <c r="U108" s="57"/>
-      <c r="V108" s="57"/>
-      <c r="W108" s="57"/>
-      <c r="X108" s="57"/>
+      <c r="B108" s="50"/>
+      <c r="C108" s="50"/>
+      <c r="D108" s="50"/>
+      <c r="E108" s="50"/>
+      <c r="F108" s="50"/>
+      <c r="G108" s="50"/>
+      <c r="H108" s="50"/>
+      <c r="I108" s="50"/>
+      <c r="J108" s="50"/>
+      <c r="K108" s="50"/>
+      <c r="L108" s="50"/>
+      <c r="M108" s="50"/>
+      <c r="N108" s="50"/>
+      <c r="O108" s="50"/>
+      <c r="P108" s="50"/>
+      <c r="Q108" s="50"/>
+      <c r="R108" s="50"/>
+      <c r="S108" s="50"/>
+      <c r="T108" s="50"/>
+      <c r="U108" s="50"/>
+      <c r="V108" s="50"/>
+      <c r="W108" s="50"/>
+      <c r="X108" s="50"/>
     </row>
     <row r="109" spans="1:24" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="78" t="s">
+      <c r="A109" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="B109" s="81" t="s">
+      <c r="B109" s="83" t="s">
         <v>85</v>
       </c>
-      <c r="C109" s="82"/>
-      <c r="D109" s="82"/>
-      <c r="E109" s="82"/>
-      <c r="F109" s="82"/>
-      <c r="G109" s="83"/>
+      <c r="C109" s="84"/>
+      <c r="D109" s="84"/>
+      <c r="E109" s="84"/>
+      <c r="F109" s="84"/>
+      <c r="G109" s="85"/>
     </row>
     <row r="110" spans="1:24" ht="45.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="79"/>
-      <c r="B110" s="51" t="s">
+      <c r="A110" s="81"/>
+      <c r="B110" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="C110" s="51" t="s">
+      <c r="C110" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="D110" s="51" t="s">
+      <c r="D110" s="44" t="s">
         <v>79</v>
       </c>
       <c r="E110" s="5" t="s">
@@ -7750,14 +7728,14 @@
       </c>
     </row>
     <row r="111" spans="1:24" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="80"/>
-      <c r="B111" s="53" t="s">
+      <c r="A111" s="82"/>
+      <c r="B111" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="C111" s="53" t="s">
+      <c r="C111" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="D111" s="53" t="s">
+      <c r="D111" s="46" t="s">
         <v>80</v>
       </c>
       <c r="E111" s="7" t="s">
@@ -7766,7 +7744,7 @@
       <c r="F111" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G111" s="53" t="s">
+      <c r="G111" s="46" t="s">
         <v>82</v>
       </c>
     </row>
@@ -7838,7 +7816,7 @@
       <c r="G114" s="13">
         <v>0</v>
       </c>
-      <c r="I114" s="75"/>
+      <c r="I114" s="68"/>
       <c r="J114" s="18" t="s">
         <v>33</v>
       </c>
@@ -7880,23 +7858,23 @@
       <c r="I115" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="J115" s="74">
+      <c r="J115" s="67">
         <f>C115/$B$115</f>
         <v>1</v>
       </c>
-      <c r="K115" s="74">
+      <c r="K115" s="67">
         <f>D115/$B$115</f>
         <v>1</v>
       </c>
-      <c r="L115" s="74">
+      <c r="L115" s="67">
         <f>E115/$B$115</f>
         <v>0.58000000000000007</v>
       </c>
-      <c r="M115" s="74">
+      <c r="M115" s="67">
         <f>F115/$B$115</f>
         <v>0.58000000000000007</v>
       </c>
-      <c r="N115" s="74">
+      <c r="N115" s="67">
         <f>G115/$B$115</f>
         <v>0.41000000000000003</v>
       </c>
@@ -8089,22 +8067,22 @@
       <c r="A124" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="B124" s="28">
-        <v>0</v>
-      </c>
-      <c r="C124" s="28">
-        <v>0</v>
-      </c>
-      <c r="D124" s="28">
-        <v>0</v>
-      </c>
-      <c r="E124" s="28">
-        <v>0</v>
-      </c>
-      <c r="F124" s="28">
-        <v>0</v>
-      </c>
-      <c r="G124" s="28">
+      <c r="B124" s="13">
+        <v>0</v>
+      </c>
+      <c r="C124" s="13">
+        <v>0</v>
+      </c>
+      <c r="D124" s="13">
+        <v>0</v>
+      </c>
+      <c r="E124" s="13">
+        <v>0</v>
+      </c>
+      <c r="F124" s="13">
+        <v>0</v>
+      </c>
+      <c r="G124" s="13">
         <v>0</v>
       </c>
     </row>
@@ -8112,22 +8090,22 @@
       <c r="A125" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="B125" s="28">
-        <v>0</v>
-      </c>
-      <c r="C125" s="28">
-        <v>0</v>
-      </c>
-      <c r="D125" s="28">
-        <v>0</v>
-      </c>
-      <c r="E125" s="28">
-        <v>0</v>
-      </c>
-      <c r="F125" s="28">
-        <v>0</v>
-      </c>
-      <c r="G125" s="28">
+      <c r="B125" s="13">
+        <v>0</v>
+      </c>
+      <c r="C125" s="13">
+        <v>0</v>
+      </c>
+      <c r="D125" s="13">
+        <v>0</v>
+      </c>
+      <c r="E125" s="13">
+        <v>0</v>
+      </c>
+      <c r="F125" s="13">
+        <v>0</v>
+      </c>
+      <c r="G125" s="13">
         <v>0</v>
       </c>
     </row>
@@ -8135,22 +8113,22 @@
       <c r="A126" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="B126" s="28">
-        <v>0</v>
-      </c>
-      <c r="C126" s="28">
-        <v>0</v>
-      </c>
-      <c r="D126" s="28">
-        <v>0</v>
-      </c>
-      <c r="E126" s="28">
-        <v>0</v>
-      </c>
-      <c r="F126" s="28">
-        <v>0</v>
-      </c>
-      <c r="G126" s="28">
+      <c r="B126" s="13">
+        <v>0</v>
+      </c>
+      <c r="C126" s="13">
+        <v>0</v>
+      </c>
+      <c r="D126" s="13">
+        <v>0</v>
+      </c>
+      <c r="E126" s="13">
+        <v>0</v>
+      </c>
+      <c r="F126" s="13">
+        <v>0</v>
+      </c>
+      <c r="G126" s="13">
         <v>0</v>
       </c>
     </row>
@@ -8158,22 +8136,22 @@
       <c r="A127" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="B127" s="28">
-        <v>0</v>
-      </c>
-      <c r="C127" s="28">
-        <v>0</v>
-      </c>
-      <c r="D127" s="28">
-        <v>0</v>
-      </c>
-      <c r="E127" s="28">
-        <v>0</v>
-      </c>
-      <c r="F127" s="28">
-        <v>0</v>
-      </c>
-      <c r="G127" s="28">
+      <c r="B127" s="13">
+        <v>0</v>
+      </c>
+      <c r="C127" s="13">
+        <v>0</v>
+      </c>
+      <c r="D127" s="13">
+        <v>0</v>
+      </c>
+      <c r="E127" s="13">
+        <v>0</v>
+      </c>
+      <c r="F127" s="13">
+        <v>0</v>
+      </c>
+      <c r="G127" s="13">
         <v>0</v>
       </c>
     </row>
@@ -8205,57 +8183,57 @@
     </row>
     <row r="129" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="130" spans="1:7" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="84" t="s">
+      <c r="A130" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="B130" s="81" t="s">
+      <c r="B130" s="83" t="s">
         <v>87</v>
       </c>
-      <c r="C130" s="82"/>
-      <c r="D130" s="82"/>
-      <c r="E130" s="82"/>
-      <c r="F130" s="82"/>
-      <c r="G130" s="83"/>
+      <c r="C130" s="84"/>
+      <c r="D130" s="84"/>
+      <c r="E130" s="84"/>
+      <c r="F130" s="84"/>
+      <c r="G130" s="85"/>
     </row>
     <row r="131" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="85"/>
-      <c r="B131" s="38" t="s">
+      <c r="A131" s="87"/>
+      <c r="B131" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="C131" s="39" t="s">
+      <c r="C131" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="D131" s="39" t="s">
+      <c r="D131" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="E131" s="40" t="s">
+      <c r="E131" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="F131" s="40" t="s">
+      <c r="F131" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="G131" s="41" t="s">
+      <c r="G131" s="37" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="86"/>
-      <c r="B132" s="62" t="s">
+      <c r="A132" s="88"/>
+      <c r="B132" s="55" t="s">
         <v>76</v>
       </c>
-      <c r="C132" s="63" t="s">
+      <c r="C132" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="D132" s="63" t="s">
+      <c r="D132" s="56" t="s">
         <v>80</v>
       </c>
-      <c r="E132" s="42" t="s">
+      <c r="E132" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="F132" s="42" t="s">
+      <c r="F132" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="G132" s="53" t="s">
+      <c r="G132" s="46" t="s">
         <v>82</v>
       </c>
     </row>
@@ -8263,22 +8241,22 @@
       <c r="A133" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B133" s="30">
-        <v>0</v>
-      </c>
-      <c r="C133" s="30">
-        <v>0</v>
-      </c>
-      <c r="D133" s="30">
-        <v>0</v>
-      </c>
-      <c r="E133" s="30">
-        <v>0</v>
-      </c>
-      <c r="F133" s="30">
-        <v>0</v>
-      </c>
-      <c r="G133" s="30">
+      <c r="B133" s="27">
+        <v>0</v>
+      </c>
+      <c r="C133" s="27">
+        <v>0</v>
+      </c>
+      <c r="D133" s="27">
+        <v>0</v>
+      </c>
+      <c r="E133" s="27">
+        <v>0</v>
+      </c>
+      <c r="F133" s="27">
+        <v>0</v>
+      </c>
+      <c r="G133" s="27">
         <v>0</v>
       </c>
     </row>
@@ -8286,22 +8264,22 @@
       <c r="A134" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B134" s="30">
-        <v>0</v>
-      </c>
-      <c r="C134" s="30">
-        <v>0</v>
-      </c>
-      <c r="D134" s="30">
-        <v>0</v>
-      </c>
-      <c r="E134" s="30">
-        <v>0</v>
-      </c>
-      <c r="F134" s="30">
-        <v>0</v>
-      </c>
-      <c r="G134" s="30">
+      <c r="B134" s="27">
+        <v>0</v>
+      </c>
+      <c r="C134" s="27">
+        <v>0</v>
+      </c>
+      <c r="D134" s="27">
+        <v>0</v>
+      </c>
+      <c r="E134" s="27">
+        <v>0</v>
+      </c>
+      <c r="F134" s="27">
+        <v>0</v>
+      </c>
+      <c r="G134" s="27">
         <v>0</v>
       </c>
     </row>
@@ -8309,22 +8287,22 @@
       <c r="A135" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B135" s="30">
-        <v>0</v>
-      </c>
-      <c r="C135" s="30">
-        <v>0</v>
-      </c>
-      <c r="D135" s="30">
-        <v>0</v>
-      </c>
-      <c r="E135" s="30">
-        <v>0</v>
-      </c>
-      <c r="F135" s="30">
-        <v>0</v>
-      </c>
-      <c r="G135" s="30">
+      <c r="B135" s="27">
+        <v>0</v>
+      </c>
+      <c r="C135" s="27">
+        <v>0</v>
+      </c>
+      <c r="D135" s="27">
+        <v>0</v>
+      </c>
+      <c r="E135" s="27">
+        <v>0</v>
+      </c>
+      <c r="F135" s="27">
+        <v>0</v>
+      </c>
+      <c r="G135" s="27">
         <v>0</v>
       </c>
     </row>
@@ -8332,22 +8310,22 @@
       <c r="A136" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B136" s="30">
+      <c r="B136" s="27">
         <v>7.0699999999999999E-2</v>
       </c>
-      <c r="C136" s="30">
+      <c r="C136" s="27">
         <v>7.0699999999999999E-2</v>
       </c>
-      <c r="D136" s="30">
+      <c r="D136" s="27">
         <v>7.0699999999999999E-2</v>
       </c>
-      <c r="E136" s="30">
+      <c r="E136" s="27">
         <v>4.1006000000000008E-2</v>
       </c>
-      <c r="F136" s="30">
+      <c r="F136" s="27">
         <v>4.1006000000000008E-2</v>
       </c>
-      <c r="G136" s="30">
+      <c r="G136" s="27">
         <v>2.8987000000000002E-2</v>
       </c>
     </row>
@@ -8355,22 +8333,22 @@
       <c r="A137" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B137" s="30">
+      <c r="B137" s="27">
         <v>0.13900000000000001</v>
       </c>
-      <c r="C137" s="30">
+      <c r="C137" s="27">
         <v>0.13900000000000001</v>
       </c>
-      <c r="D137" s="30">
+      <c r="D137" s="27">
         <v>0.13900000000000001</v>
       </c>
-      <c r="E137" s="30">
+      <c r="E137" s="27">
         <v>8.0620000000000011E-2</v>
       </c>
-      <c r="F137" s="30">
+      <c r="F137" s="27">
         <v>8.0620000000000011E-2</v>
       </c>
-      <c r="G137" s="30">
+      <c r="G137" s="27">
         <v>5.6990000000000013E-2</v>
       </c>
     </row>
@@ -8378,22 +8356,22 @@
       <c r="A138" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B138" s="30">
+      <c r="B138" s="27">
         <v>0.14180000000000001</v>
       </c>
-      <c r="C138" s="30">
+      <c r="C138" s="27">
         <v>0.14180000000000001</v>
       </c>
-      <c r="D138" s="30">
+      <c r="D138" s="27">
         <v>0.14180000000000001</v>
       </c>
-      <c r="E138" s="30">
+      <c r="E138" s="27">
         <v>8.2244000000000012E-2</v>
       </c>
-      <c r="F138" s="30">
+      <c r="F138" s="27">
         <v>8.2244000000000012E-2</v>
       </c>
-      <c r="G138" s="30">
+      <c r="G138" s="27">
         <v>5.8138000000000009E-2</v>
       </c>
     </row>
@@ -8401,22 +8379,22 @@
       <c r="A139" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B139" s="30">
+      <c r="B139" s="27">
         <v>0.1056</v>
       </c>
-      <c r="C139" s="30">
+      <c r="C139" s="27">
         <v>0.1056</v>
       </c>
-      <c r="D139" s="30">
+      <c r="D139" s="27">
         <v>0.1056</v>
       </c>
-      <c r="E139" s="30">
+      <c r="E139" s="27">
         <v>6.1248000000000004E-2</v>
       </c>
-      <c r="F139" s="30">
+      <c r="F139" s="27">
         <v>6.1248000000000004E-2</v>
       </c>
-      <c r="G139" s="30">
+      <c r="G139" s="27">
         <v>4.3296000000000001E-2</v>
       </c>
     </row>
@@ -8424,22 +8402,22 @@
       <c r="A140" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B140" s="30">
+      <c r="B140" s="27">
         <v>6.7400000000000002E-2</v>
       </c>
-      <c r="C140" s="30">
+      <c r="C140" s="27">
         <v>6.7400000000000002E-2</v>
       </c>
-      <c r="D140" s="30">
+      <c r="D140" s="27">
         <v>6.7400000000000002E-2</v>
       </c>
-      <c r="E140" s="30">
+      <c r="E140" s="27">
         <v>3.9092000000000009E-2</v>
       </c>
-      <c r="F140" s="30">
+      <c r="F140" s="27">
         <v>3.9092000000000009E-2</v>
       </c>
-      <c r="G140" s="30">
+      <c r="G140" s="27">
         <v>2.7634000000000002E-2</v>
       </c>
     </row>
@@ -8447,22 +8425,22 @@
       <c r="A141" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B141" s="30">
+      <c r="B141" s="27">
         <v>2.7100000000000003E-2</v>
       </c>
-      <c r="C141" s="30">
+      <c r="C141" s="27">
         <v>2.7100000000000003E-2</v>
       </c>
-      <c r="D141" s="30">
+      <c r="D141" s="27">
         <v>2.7100000000000003E-2</v>
       </c>
-      <c r="E141" s="30">
+      <c r="E141" s="27">
         <v>1.5718000000000003E-2</v>
       </c>
-      <c r="F141" s="30">
+      <c r="F141" s="27">
         <v>1.5718000000000003E-2</v>
       </c>
-      <c r="G141" s="30">
+      <c r="G141" s="27">
         <v>1.1111000000000001E-2</v>
       </c>
     </row>
@@ -8470,22 +8448,22 @@
       <c r="A142" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B142" s="30">
+      <c r="B142" s="27">
         <v>8.8000000000000005E-3</v>
       </c>
-      <c r="C142" s="30">
+      <c r="C142" s="27">
         <v>8.8000000000000005E-3</v>
       </c>
-      <c r="D142" s="30">
+      <c r="D142" s="27">
         <v>8.8000000000000005E-3</v>
       </c>
-      <c r="E142" s="30">
+      <c r="E142" s="27">
         <v>5.1040000000000009E-3</v>
       </c>
-      <c r="F142" s="30">
+      <c r="F142" s="27">
         <v>5.1040000000000009E-3</v>
       </c>
-      <c r="G142" s="30">
+      <c r="G142" s="27">
         <v>3.6080000000000005E-3</v>
       </c>
     </row>
@@ -8493,22 +8471,22 @@
       <c r="A143" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B143" s="30">
-        <v>0</v>
-      </c>
-      <c r="C143" s="30">
-        <v>0</v>
-      </c>
-      <c r="D143" s="30">
-        <v>0</v>
-      </c>
-      <c r="E143" s="30">
-        <v>0</v>
-      </c>
-      <c r="F143" s="30">
-        <v>0</v>
-      </c>
-      <c r="G143" s="30">
+      <c r="B143" s="27">
+        <v>0</v>
+      </c>
+      <c r="C143" s="27">
+        <v>0</v>
+      </c>
+      <c r="D143" s="27">
+        <v>0</v>
+      </c>
+      <c r="E143" s="27">
+        <v>0</v>
+      </c>
+      <c r="F143" s="27">
+        <v>0</v>
+      </c>
+      <c r="G143" s="27">
         <v>0</v>
       </c>
     </row>
@@ -8516,22 +8494,22 @@
       <c r="A144" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B144" s="30">
-        <v>0</v>
-      </c>
-      <c r="C144" s="30">
-        <v>0</v>
-      </c>
-      <c r="D144" s="30">
-        <v>0</v>
-      </c>
-      <c r="E144" s="30">
-        <v>0</v>
-      </c>
-      <c r="F144" s="30">
-        <v>0</v>
-      </c>
-      <c r="G144" s="30">
+      <c r="B144" s="27">
+        <v>0</v>
+      </c>
+      <c r="C144" s="27">
+        <v>0</v>
+      </c>
+      <c r="D144" s="27">
+        <v>0</v>
+      </c>
+      <c r="E144" s="27">
+        <v>0</v>
+      </c>
+      <c r="F144" s="27">
+        <v>0</v>
+      </c>
+      <c r="G144" s="27">
         <v>0</v>
       </c>
     </row>
@@ -8539,22 +8517,22 @@
       <c r="A145" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="B145" s="33">
-        <v>0</v>
-      </c>
-      <c r="C145" s="33">
-        <v>0</v>
-      </c>
-      <c r="D145" s="33">
-        <v>0</v>
-      </c>
-      <c r="E145" s="33">
-        <v>0</v>
-      </c>
-      <c r="F145" s="33">
-        <v>0</v>
-      </c>
-      <c r="G145" s="33">
+      <c r="B145" s="27">
+        <v>0</v>
+      </c>
+      <c r="C145" s="27">
+        <v>0</v>
+      </c>
+      <c r="D145" s="27">
+        <v>0</v>
+      </c>
+      <c r="E145" s="27">
+        <v>0</v>
+      </c>
+      <c r="F145" s="27">
+        <v>0</v>
+      </c>
+      <c r="G145" s="27">
         <v>0</v>
       </c>
     </row>
@@ -8562,22 +8540,22 @@
       <c r="A146" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="B146" s="33">
-        <v>0</v>
-      </c>
-      <c r="C146" s="33">
-        <v>0</v>
-      </c>
-      <c r="D146" s="33">
-        <v>0</v>
-      </c>
-      <c r="E146" s="33">
-        <v>0</v>
-      </c>
-      <c r="F146" s="33">
-        <v>0</v>
-      </c>
-      <c r="G146" s="33">
+      <c r="B146" s="27">
+        <v>0</v>
+      </c>
+      <c r="C146" s="27">
+        <v>0</v>
+      </c>
+      <c r="D146" s="27">
+        <v>0</v>
+      </c>
+      <c r="E146" s="27">
+        <v>0</v>
+      </c>
+      <c r="F146" s="27">
+        <v>0</v>
+      </c>
+      <c r="G146" s="27">
         <v>0</v>
       </c>
     </row>
@@ -8585,22 +8563,22 @@
       <c r="A147" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="B147" s="33">
-        <v>0</v>
-      </c>
-      <c r="C147" s="33">
-        <v>0</v>
-      </c>
-      <c r="D147" s="33">
-        <v>0</v>
-      </c>
-      <c r="E147" s="33">
-        <v>0</v>
-      </c>
-      <c r="F147" s="33">
-        <v>0</v>
-      </c>
-      <c r="G147" s="33">
+      <c r="B147" s="27">
+        <v>0</v>
+      </c>
+      <c r="C147" s="27">
+        <v>0</v>
+      </c>
+      <c r="D147" s="27">
+        <v>0</v>
+      </c>
+      <c r="E147" s="27">
+        <v>0</v>
+      </c>
+      <c r="F147" s="27">
+        <v>0</v>
+      </c>
+      <c r="G147" s="27">
         <v>0</v>
       </c>
     </row>
@@ -8608,22 +8586,22 @@
       <c r="A148" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="B148" s="33">
-        <v>0</v>
-      </c>
-      <c r="C148" s="33">
-        <v>0</v>
-      </c>
-      <c r="D148" s="33">
-        <v>0</v>
-      </c>
-      <c r="E148" s="33">
-        <v>0</v>
-      </c>
-      <c r="F148" s="33">
-        <v>0</v>
-      </c>
-      <c r="G148" s="33">
+      <c r="B148" s="27">
+        <v>0</v>
+      </c>
+      <c r="C148" s="27">
+        <v>0</v>
+      </c>
+      <c r="D148" s="27">
+        <v>0</v>
+      </c>
+      <c r="E148" s="27">
+        <v>0</v>
+      </c>
+      <c r="F148" s="27">
+        <v>0</v>
+      </c>
+      <c r="G148" s="27">
         <v>0</v>
       </c>
     </row>
@@ -8654,100 +8632,100 @@
       </c>
     </row>
     <row r="155" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A155" s="56" t="s">
+      <c r="A155" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="B155" s="57"/>
-      <c r="C155" s="57"/>
-      <c r="D155" s="57"/>
-      <c r="E155" s="57"/>
-      <c r="F155" s="57"/>
-      <c r="G155" s="57"/>
-      <c r="H155" s="57"/>
-      <c r="I155" s="57"/>
-      <c r="J155" s="57"/>
-      <c r="K155" s="57"/>
-      <c r="L155" s="57"/>
-      <c r="M155" s="57"/>
-      <c r="N155" s="57"/>
-      <c r="O155" s="57"/>
-      <c r="P155" s="57"/>
-      <c r="Q155" s="57"/>
-      <c r="R155" s="57"/>
-      <c r="S155" s="57"/>
-      <c r="T155" s="57"/>
-      <c r="U155" s="57"/>
-      <c r="V155" s="57"/>
-      <c r="W155" s="57"/>
+      <c r="B155" s="50"/>
+      <c r="C155" s="50"/>
+      <c r="D155" s="50"/>
+      <c r="E155" s="50"/>
+      <c r="F155" s="50"/>
+      <c r="G155" s="50"/>
+      <c r="H155" s="50"/>
+      <c r="I155" s="50"/>
+      <c r="J155" s="50"/>
+      <c r="K155" s="50"/>
+      <c r="L155" s="50"/>
+      <c r="M155" s="50"/>
+      <c r="N155" s="50"/>
+      <c r="O155" s="50"/>
+      <c r="P155" s="50"/>
+      <c r="Q155" s="50"/>
+      <c r="R155" s="50"/>
+      <c r="S155" s="50"/>
+      <c r="T155" s="50"/>
+      <c r="U155" s="50"/>
+      <c r="V155" s="50"/>
+      <c r="W155" s="50"/>
     </row>
     <row r="156" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A156" s="58" t="s">
+      <c r="A156" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="B156" s="57"/>
-      <c r="C156" s="57"/>
-      <c r="D156" s="57"/>
-      <c r="E156" s="57"/>
-      <c r="F156" s="57"/>
-      <c r="G156" s="57"/>
-      <c r="H156" s="57"/>
-      <c r="I156" s="57"/>
-      <c r="J156" s="57"/>
-      <c r="K156" s="57"/>
-      <c r="L156" s="57"/>
-      <c r="M156" s="57"/>
-      <c r="N156" s="57"/>
-      <c r="O156" s="57"/>
-      <c r="P156" s="57"/>
-      <c r="Q156" s="57"/>
-      <c r="R156" s="57"/>
-      <c r="S156" s="57"/>
-      <c r="T156" s="57"/>
-      <c r="U156" s="57"/>
-      <c r="V156" s="57"/>
-      <c r="W156" s="57"/>
+      <c r="B156" s="50"/>
+      <c r="C156" s="50"/>
+      <c r="D156" s="50"/>
+      <c r="E156" s="50"/>
+      <c r="F156" s="50"/>
+      <c r="G156" s="50"/>
+      <c r="H156" s="50"/>
+      <c r="I156" s="50"/>
+      <c r="J156" s="50"/>
+      <c r="K156" s="50"/>
+      <c r="L156" s="50"/>
+      <c r="M156" s="50"/>
+      <c r="N156" s="50"/>
+      <c r="O156" s="50"/>
+      <c r="P156" s="50"/>
+      <c r="Q156" s="50"/>
+      <c r="R156" s="50"/>
+      <c r="S156" s="50"/>
+      <c r="T156" s="50"/>
+      <c r="U156" s="50"/>
+      <c r="V156" s="50"/>
+      <c r="W156" s="50"/>
     </row>
     <row r="157" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="56" t="s">
+      <c r="A157" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="B157" s="57"/>
-      <c r="C157" s="57"/>
-      <c r="D157" s="57"/>
-      <c r="E157" s="57"/>
-      <c r="F157" s="57"/>
-      <c r="G157" s="57"/>
-      <c r="H157" s="57"/>
-      <c r="I157" s="57"/>
-      <c r="J157" s="57"/>
-      <c r="K157" s="57"/>
-      <c r="L157" s="57"/>
-      <c r="M157" s="57"/>
-      <c r="N157" s="57"/>
-      <c r="O157" s="57"/>
-      <c r="P157" s="57"/>
-      <c r="Q157" s="57"/>
-      <c r="R157" s="57"/>
-      <c r="S157" s="57"/>
-      <c r="T157" s="57"/>
-      <c r="U157" s="57"/>
-      <c r="V157" s="57"/>
-      <c r="W157" s="57"/>
+      <c r="B157" s="50"/>
+      <c r="C157" s="50"/>
+      <c r="D157" s="50"/>
+      <c r="E157" s="50"/>
+      <c r="F157" s="50"/>
+      <c r="G157" s="50"/>
+      <c r="H157" s="50"/>
+      <c r="I157" s="50"/>
+      <c r="J157" s="50"/>
+      <c r="K157" s="50"/>
+      <c r="L157" s="50"/>
+      <c r="M157" s="50"/>
+      <c r="N157" s="50"/>
+      <c r="O157" s="50"/>
+      <c r="P157" s="50"/>
+      <c r="Q157" s="50"/>
+      <c r="R157" s="50"/>
+      <c r="S157" s="50"/>
+      <c r="T157" s="50"/>
+      <c r="U157" s="50"/>
+      <c r="V157" s="50"/>
+      <c r="W157" s="50"/>
     </row>
     <row r="158" spans="1:23" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B158" s="98" t="s">
-        <v>0</v>
-      </c>
-      <c r="C158" s="99"/>
-      <c r="D158" s="100"/>
-      <c r="E158" s="98" t="s">
+      <c r="B158" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="C158" s="75"/>
+      <c r="D158" s="76"/>
+      <c r="E158" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="F158" s="99"/>
-      <c r="G158" s="100"/>
+      <c r="F158" s="75"/>
+      <c r="G158" s="76"/>
     </row>
     <row r="159" spans="1:23" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="6"/>
@@ -8774,27 +8752,27 @@
       <c r="A160" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B160" s="44">
+      <c r="B160" s="40">
         <f t="shared" ref="B160:G161" si="5">10^-5</f>
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="C160" s="44">
+      <c r="C160" s="40">
         <f t="shared" si="5"/>
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="D160" s="44">
+      <c r="D160" s="40">
         <f t="shared" si="5"/>
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="E160" s="44">
+      <c r="E160" s="40">
         <f>10^-5</f>
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="F160" s="44">
+      <c r="F160" s="40">
         <f t="shared" si="5"/>
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="G160" s="44">
+      <c r="G160" s="40">
         <f t="shared" si="5"/>
         <v>1.0000000000000001E-5</v>
       </c>
@@ -8815,27 +8793,27 @@
       <c r="A161" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B161" s="44">
+      <c r="B161" s="40">
         <f t="shared" si="5"/>
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="C161" s="44">
+      <c r="C161" s="40">
         <f t="shared" si="5"/>
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="D161" s="44">
+      <c r="D161" s="40">
         <f t="shared" si="5"/>
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="E161" s="44">
+      <c r="E161" s="40">
         <f t="shared" si="5"/>
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="F161" s="44">
+      <c r="F161" s="40">
         <f t="shared" si="5"/>
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="G161" s="44">
+      <c r="G161" s="40">
         <f t="shared" si="5"/>
         <v>1.0000000000000001E-5</v>
       </c>
@@ -8856,22 +8834,22 @@
       <c r="A162" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B162" s="44">
+      <c r="B162" s="40">
         <v>1.2E-2</v>
       </c>
-      <c r="C162" s="44">
+      <c r="C162" s="40">
         <v>0.12</v>
       </c>
-      <c r="D162" s="44">
+      <c r="D162" s="40">
         <v>1.2</v>
       </c>
-      <c r="E162" s="44">
+      <c r="E162" s="40">
         <v>1.2E-2</v>
       </c>
-      <c r="F162" s="45">
+      <c r="F162" s="41">
         <v>0.12</v>
       </c>
-      <c r="G162" s="46">
+      <c r="G162" s="42">
         <v>1.2</v>
       </c>
       <c r="J162">
@@ -8899,22 +8877,22 @@
       <c r="A163" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B163" s="44">
+      <c r="B163" s="40">
         <v>0.66369047619047616</v>
       </c>
-      <c r="C163" s="44">
+      <c r="C163" s="40">
         <v>2.553903345724907</v>
       </c>
-      <c r="D163" s="44">
+      <c r="D163" s="40">
         <v>6.9636363636363638</v>
       </c>
-      <c r="E163" s="44">
+      <c r="E163" s="40">
         <v>0.66959798994974873</v>
       </c>
-      <c r="F163" s="45">
+      <c r="F163" s="41">
         <v>2.2142857142857144</v>
       </c>
-      <c r="G163" s="47">
+      <c r="G163" s="43">
         <v>6.5</v>
       </c>
       <c r="J163">
@@ -8942,22 +8920,22 @@
       <c r="A164" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B164" s="44">
+      <c r="B164" s="40">
         <v>0.70326409495548958</v>
       </c>
-      <c r="C164" s="44">
+      <c r="C164" s="40">
         <v>2.5474683544303796</v>
       </c>
-      <c r="D164" s="44">
+      <c r="D164" s="40">
         <v>7.6721311475409832</v>
       </c>
-      <c r="E164" s="44">
+      <c r="E164" s="40">
         <v>0.79487179487179482</v>
       </c>
-      <c r="F164" s="45">
+      <c r="F164" s="41">
         <v>2.25</v>
       </c>
-      <c r="G164" s="47">
+      <c r="G164" s="43">
         <v>10</v>
       </c>
       <c r="J164">
@@ -8985,22 +8963,22 @@
       <c r="A165" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B165" s="44">
+      <c r="B165" s="40">
         <v>0.77027027027027029</v>
       </c>
-      <c r="C165" s="44">
+      <c r="C165" s="40">
         <v>2.564245810055866</v>
       </c>
-      <c r="D165" s="44">
+      <c r="D165" s="40">
         <v>6.9705882352941178</v>
       </c>
-      <c r="E165" s="44">
+      <c r="E165" s="40">
         <v>0.80509304603330067</v>
       </c>
-      <c r="F165" s="45">
+      <c r="F165" s="41">
         <v>2.2666666666666666</v>
       </c>
-      <c r="G165" s="47">
+      <c r="G165" s="43">
         <v>5.333333333333333</v>
       </c>
       <c r="J165">
@@ -9028,22 +9006,22 @@
       <c r="A166" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B166" s="44">
+      <c r="B166" s="40">
         <v>0.7710280373831776</v>
       </c>
-      <c r="C166" s="44">
+      <c r="C166" s="40">
         <v>2.4793388429752068</v>
       </c>
-      <c r="D166" s="44">
+      <c r="D166" s="40">
         <v>5.8421052631578947</v>
       </c>
-      <c r="E166" s="44">
+      <c r="E166" s="40">
         <v>0.75512405609492983</v>
       </c>
-      <c r="F166" s="45">
+      <c r="F166" s="41">
         <v>2.0625</v>
       </c>
-      <c r="G166" s="47">
+      <c r="G166" s="43">
         <v>1</v>
       </c>
       <c r="J166">
@@ -9071,22 +9049,22 @@
       <c r="A167" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B167" s="44">
+      <c r="B167" s="40">
         <v>0.77927927927927931</v>
       </c>
-      <c r="C167" s="44">
+      <c r="C167" s="40">
         <v>2.406779661016949</v>
       </c>
-      <c r="D167" s="44">
+      <c r="D167" s="40">
         <v>6.2222222222222223</v>
       </c>
-      <c r="E167" s="44">
+      <c r="E167" s="40">
         <v>0.75529411764705878</v>
       </c>
-      <c r="F167" s="45">
+      <c r="F167" s="41">
         <v>2.2666666666666666</v>
       </c>
-      <c r="G167" s="47">
+      <c r="G167" s="43">
         <v>9</v>
       </c>
       <c r="J167">
@@ -9114,22 +9092,22 @@
       <c r="A168" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B168" s="44">
+      <c r="B168" s="40">
         <v>0.84188034188034189</v>
       </c>
-      <c r="C168" s="44">
+      <c r="C168" s="40">
         <v>2.4166666666666665</v>
       </c>
-      <c r="D168" s="44">
+      <c r="D168" s="40">
         <v>7.75</v>
       </c>
-      <c r="E168" s="44">
+      <c r="E168" s="40">
         <v>0.68708971553610498</v>
       </c>
-      <c r="F168" s="45">
+      <c r="F168" s="41">
         <v>2.2666666666666666</v>
       </c>
-      <c r="G168" s="47">
+      <c r="G168" s="43">
         <v>1</v>
       </c>
       <c r="J168">
@@ -9157,22 +9135,22 @@
       <c r="A169" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B169" s="44">
+      <c r="B169" s="40">
         <v>0.7192982456140351</v>
       </c>
-      <c r="C169" s="44">
+      <c r="C169" s="40">
         <v>2.3250000000000002</v>
       </c>
-      <c r="D169" s="44">
+      <c r="D169" s="40">
         <v>1</v>
       </c>
-      <c r="E169" s="44">
+      <c r="E169" s="40">
         <v>0.68708971553610498</v>
       </c>
-      <c r="F169" s="45">
+      <c r="F169" s="41">
         <v>2.2666666666666666</v>
       </c>
-      <c r="G169" s="47">
+      <c r="G169" s="43">
         <v>1</v>
       </c>
       <c r="J169">
@@ -9200,22 +9178,22 @@
       <c r="A170" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B170" s="44">
+      <c r="B170" s="40">
         <v>0.7192982456140351</v>
       </c>
-      <c r="C170" s="44">
+      <c r="C170" s="40">
         <v>2.3250000000000002</v>
       </c>
-      <c r="D170" s="44">
+      <c r="D170" s="40">
         <v>1</v>
       </c>
-      <c r="E170" s="44">
+      <c r="E170" s="40">
         <v>0.68708971553610498</v>
       </c>
-      <c r="F170" s="45">
+      <c r="F170" s="41">
         <v>2.2666666666666666</v>
       </c>
-      <c r="G170" s="47">
+      <c r="G170" s="43">
         <v>1</v>
       </c>
       <c r="J170">
@@ -9243,22 +9221,22 @@
       <c r="A171" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B171" s="44">
+      <c r="B171" s="40">
         <v>0.7192982456140351</v>
       </c>
-      <c r="C171" s="44">
+      <c r="C171" s="40">
         <v>2.3250000000000002</v>
       </c>
-      <c r="D171" s="44">
+      <c r="D171" s="40">
         <v>1</v>
       </c>
-      <c r="E171" s="44">
+      <c r="E171" s="40">
         <v>0.68708971553610498</v>
       </c>
-      <c r="F171" s="45">
+      <c r="F171" s="41">
         <v>2.2666666666666666</v>
       </c>
-      <c r="G171" s="47">
+      <c r="G171" s="43">
         <v>1</v>
       </c>
       <c r="J171">
@@ -9286,22 +9264,22 @@
       <c r="A172" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="B172" s="48">
+      <c r="B172" s="40">
         <v>0.7192982456140351</v>
       </c>
-      <c r="C172" s="48">
+      <c r="C172" s="40">
         <v>2.3250000000000002</v>
       </c>
-      <c r="D172" s="48">
+      <c r="D172" s="40">
         <v>1</v>
       </c>
-      <c r="E172" s="48">
+      <c r="E172" s="40">
         <v>0.68708971553610498</v>
       </c>
-      <c r="F172" s="49">
+      <c r="F172" s="41">
         <v>2.2666666666666666</v>
       </c>
-      <c r="G172" s="50">
+      <c r="G172" s="43">
         <v>1</v>
       </c>
       <c r="J172">
@@ -9329,22 +9307,22 @@
       <c r="A173" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="B173" s="48">
+      <c r="B173" s="40">
         <v>0.7192982456140351</v>
       </c>
-      <c r="C173" s="48">
+      <c r="C173" s="40">
         <v>2.3250000000000002</v>
       </c>
-      <c r="D173" s="48">
+      <c r="D173" s="40">
         <v>1</v>
       </c>
-      <c r="E173" s="48">
+      <c r="E173" s="40">
         <v>0.68708971553610498</v>
       </c>
-      <c r="F173" s="49">
+      <c r="F173" s="41">
         <v>2.2666666666666666</v>
       </c>
-      <c r="G173" s="50">
+      <c r="G173" s="43">
         <v>1</v>
       </c>
       <c r="J173">
@@ -9372,22 +9350,22 @@
       <c r="A174" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="B174" s="48">
+      <c r="B174" s="40">
         <v>0.7192982456140351</v>
       </c>
-      <c r="C174" s="48">
+      <c r="C174" s="40">
         <v>2.3250000000000002</v>
       </c>
-      <c r="D174" s="48">
+      <c r="D174" s="40">
         <v>1</v>
       </c>
-      <c r="E174" s="48">
+      <c r="E174" s="40">
         <v>0.68708971553610498</v>
       </c>
-      <c r="F174" s="49">
+      <c r="F174" s="41">
         <v>2.2666666666666666</v>
       </c>
-      <c r="G174" s="50">
+      <c r="G174" s="43">
         <v>1</v>
       </c>
       <c r="J174">
@@ -9415,22 +9393,22 @@
       <c r="A175" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="B175" s="48">
+      <c r="B175" s="40">
         <v>0.7192982456140351</v>
       </c>
-      <c r="C175" s="48">
+      <c r="C175" s="40">
         <v>2.3250000000000002</v>
       </c>
-      <c r="D175" s="48">
+      <c r="D175" s="40">
         <v>1</v>
       </c>
-      <c r="E175" s="48">
+      <c r="E175" s="40">
         <v>0.68708971553610498</v>
       </c>
-      <c r="F175" s="49">
+      <c r="F175" s="41">
         <v>2.2666666666666666</v>
       </c>
-      <c r="G175" s="50">
+      <c r="G175" s="43">
         <v>1</v>
       </c>
       <c r="H175">
@@ -9471,38 +9449,38 @@
       <c r="A180" s="10"/>
     </row>
     <row r="182" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A182" s="56" t="s">
+      <c r="A182" s="49" t="s">
         <v>91</v>
       </c>
-      <c r="B182" s="57"/>
-      <c r="C182" s="57"/>
-      <c r="D182" s="57"/>
-      <c r="E182" s="57"/>
-      <c r="F182" s="57"/>
-      <c r="G182" s="57"/>
-      <c r="H182" s="57"/>
-      <c r="I182" s="57"/>
-      <c r="J182" s="57"/>
-      <c r="K182" s="57"/>
-      <c r="L182" s="57"/>
-      <c r="M182" s="57"/>
-      <c r="N182" s="57"/>
-      <c r="O182" s="57"/>
-      <c r="P182" s="57"/>
-      <c r="Q182" s="57"/>
-      <c r="R182" s="57"/>
-      <c r="S182" s="57"/>
-      <c r="T182" s="57"/>
-      <c r="U182" s="57"/>
-      <c r="V182" s="57"/>
-      <c r="W182" s="57"/>
+      <c r="B182" s="50"/>
+      <c r="C182" s="50"/>
+      <c r="D182" s="50"/>
+      <c r="E182" s="50"/>
+      <c r="F182" s="50"/>
+      <c r="G182" s="50"/>
+      <c r="H182" s="50"/>
+      <c r="I182" s="50"/>
+      <c r="J182" s="50"/>
+      <c r="K182" s="50"/>
+      <c r="L182" s="50"/>
+      <c r="M182" s="50"/>
+      <c r="N182" s="50"/>
+      <c r="O182" s="50"/>
+      <c r="P182" s="50"/>
+      <c r="Q182" s="50"/>
+      <c r="R182" s="50"/>
+      <c r="S182" s="50"/>
+      <c r="T182" s="50"/>
+      <c r="U182" s="50"/>
+      <c r="V182" s="50"/>
+      <c r="W182" s="50"/>
     </row>
     <row r="183" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="101" t="s">
+      <c r="A183" s="77" t="s">
         <v>92</v>
       </c>
-      <c r="B183" s="101"/>
-      <c r="C183" s="101"/>
+      <c r="B183" s="77"/>
+      <c r="C183" s="77"/>
     </row>
     <row r="184" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
@@ -9519,10 +9497,10 @@
       <c r="A185" s="15">
         <v>1985</v>
       </c>
-      <c r="B185" s="29">
+      <c r="B185" s="26">
         <v>0.3</v>
       </c>
-      <c r="C185" s="29">
+      <c r="C185" s="26">
         <v>0.3</v>
       </c>
     </row>
@@ -9530,10 +9508,10 @@
       <c r="A186" s="15">
         <v>1990</v>
       </c>
-      <c r="B186" s="29">
+      <c r="B186" s="26">
         <v>0.4</v>
       </c>
-      <c r="C186" s="29">
+      <c r="C186" s="26">
         <v>0.4</v>
       </c>
     </row>
@@ -9541,85 +9519,85 @@
       <c r="A187" s="15">
         <v>2000</v>
       </c>
-      <c r="B187" s="29">
+      <c r="B187" s="26">
         <v>0.1</v>
       </c>
-      <c r="C187" s="29">
+      <c r="C187" s="26">
         <v>0.1</v>
       </c>
     </row>
     <row r="194" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A194" s="56" t="s">
+      <c r="A194" s="49" t="s">
         <v>90</v>
       </c>
-      <c r="B194" s="57"/>
-      <c r="C194" s="57"/>
-      <c r="D194" s="57"/>
-      <c r="E194" s="57"/>
-      <c r="F194" s="57"/>
-      <c r="G194" s="57"/>
-      <c r="H194" s="57"/>
-      <c r="I194" s="57"/>
-      <c r="J194" s="57"/>
-      <c r="K194" s="57"/>
-      <c r="L194" s="57"/>
-      <c r="M194" s="57"/>
-      <c r="N194" s="57"/>
-      <c r="O194" s="57"/>
-      <c r="P194" s="57"/>
-      <c r="Q194" s="57"/>
-      <c r="R194" s="57"/>
-      <c r="S194" s="57"/>
-      <c r="T194" s="57"/>
-      <c r="U194" s="57"/>
-      <c r="V194" s="57"/>
-      <c r="W194" s="57"/>
-    </row>
-    <row r="195" spans="1:23" s="59" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A195" s="89" t="s">
+      <c r="B194" s="50"/>
+      <c r="C194" s="50"/>
+      <c r="D194" s="50"/>
+      <c r="E194" s="50"/>
+      <c r="F194" s="50"/>
+      <c r="G194" s="50"/>
+      <c r="H194" s="50"/>
+      <c r="I194" s="50"/>
+      <c r="J194" s="50"/>
+      <c r="K194" s="50"/>
+      <c r="L194" s="50"/>
+      <c r="M194" s="50"/>
+      <c r="N194" s="50"/>
+      <c r="O194" s="50"/>
+      <c r="P194" s="50"/>
+      <c r="Q194" s="50"/>
+      <c r="R194" s="50"/>
+      <c r="S194" s="50"/>
+      <c r="T194" s="50"/>
+      <c r="U194" s="50"/>
+      <c r="V194" s="50"/>
+      <c r="W194" s="50"/>
+    </row>
+    <row r="195" spans="1:23" s="52" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A195" s="78" t="s">
         <v>93</v>
       </c>
-      <c r="B195" s="89"/>
-      <c r="C195" s="89"/>
-      <c r="D195" s="89"/>
-      <c r="E195" s="89"/>
-      <c r="F195" s="89"/>
-    </row>
-    <row r="196" spans="1:23" s="59" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A196" s="102" t="s">
+      <c r="B195" s="78"/>
+      <c r="C195" s="78"/>
+      <c r="D195" s="78"/>
+      <c r="E195" s="78"/>
+      <c r="F195" s="78"/>
+    </row>
+    <row r="196" spans="1:23" s="52" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A196" s="79" t="s">
         <v>94</v>
       </c>
-      <c r="B196" s="102"/>
-      <c r="C196" s="102"/>
-      <c r="D196" s="102"/>
-      <c r="E196" s="102"/>
-      <c r="F196" s="102"/>
+      <c r="B196" s="79"/>
+      <c r="C196" s="79"/>
+      <c r="D196" s="79"/>
+      <c r="E196" s="79"/>
+      <c r="F196" s="79"/>
     </row>
     <row r="197" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A197" s="95" t="s">
+      <c r="A197" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="B197" s="66"/>
-      <c r="C197" s="66"/>
-      <c r="D197" s="95" t="s">
+      <c r="B197" s="59"/>
+      <c r="C197" s="59"/>
+      <c r="D197" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="E197" s="95"/>
-      <c r="F197" s="95"/>
+      <c r="E197" s="71"/>
+      <c r="F197" s="71"/>
     </row>
     <row r="198" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A198" s="95"/>
-      <c r="B198" s="66"/>
-      <c r="C198" s="67" t="s">
+      <c r="A198" s="71"/>
+      <c r="B198" s="59"/>
+      <c r="C198" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="D198" s="67" t="s">
+      <c r="D198" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="E198" s="67" t="s">
+      <c r="E198" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="F198" s="67" t="s">
+      <c r="F198" s="60" t="s">
         <v>57</v>
       </c>
       <c r="H198">
@@ -9628,18 +9606,18 @@
       </c>
     </row>
     <row r="199" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A199" s="68" t="s">
+      <c r="A199" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="B199" s="66"/>
-      <c r="C199" s="66"/>
-      <c r="D199" s="69">
-        <v>0</v>
-      </c>
-      <c r="E199" s="69">
-        <v>0</v>
-      </c>
-      <c r="F199" s="69">
+      <c r="B199" s="59"/>
+      <c r="C199" s="59"/>
+      <c r="D199" s="62">
+        <v>0</v>
+      </c>
+      <c r="E199" s="62">
+        <v>0</v>
+      </c>
+      <c r="F199" s="62">
         <v>0</v>
       </c>
       <c r="H199">
@@ -9656,18 +9634,18 @@
       </c>
     </row>
     <row r="200" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A200" s="68" t="s">
+      <c r="A200" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="B200" s="66"/>
-      <c r="C200" s="66"/>
-      <c r="D200" s="69">
-        <v>0</v>
-      </c>
-      <c r="E200" s="69">
-        <v>0</v>
-      </c>
-      <c r="F200" s="69">
+      <c r="B200" s="59"/>
+      <c r="C200" s="59"/>
+      <c r="D200" s="62">
+        <v>0</v>
+      </c>
+      <c r="E200" s="62">
+        <v>0</v>
+      </c>
+      <c r="F200" s="62">
         <v>0</v>
       </c>
       <c r="H200">
@@ -9684,22 +9662,22 @@
       </c>
     </row>
     <row r="201" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A201" s="68" t="s">
+      <c r="A201" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="B201" s="66"/>
-      <c r="C201" s="66">
+      <c r="B201" s="59"/>
+      <c r="C201" s="59">
         <v>0.05</v>
       </c>
-      <c r="D201" s="70">
+      <c r="D201" s="63">
         <f>C201*D203</f>
         <v>3.1200000000000006</v>
       </c>
-      <c r="E201" s="70">
+      <c r="E201" s="63">
         <f>E203*$C$201</f>
         <v>1.8719999999999999</v>
       </c>
-      <c r="F201" s="70">
+      <c r="F201" s="63">
         <f>F203*$C$201</f>
         <v>1.1232</v>
       </c>
@@ -9721,22 +9699,22 @@
       </c>
     </row>
     <row r="202" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A202" s="68" t="s">
+      <c r="A202" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="B202" s="66"/>
-      <c r="C202" s="66">
+      <c r="B202" s="59"/>
+      <c r="C202" s="59">
         <v>0.1</v>
       </c>
-      <c r="D202" s="70">
+      <c r="D202" s="63">
         <f>D204*$C$202</f>
         <v>15.600000000000001</v>
       </c>
-      <c r="E202" s="70">
+      <c r="E202" s="63">
         <f>E204*$C$202</f>
         <v>9.36</v>
       </c>
-      <c r="F202" s="70">
+      <c r="F202" s="63">
         <f>F204*$C$202</f>
         <v>5.6159999999999997</v>
       </c>
@@ -9758,24 +9736,24 @@
       </c>
     </row>
     <row r="203" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A203" s="68" t="s">
+      <c r="A203" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="B203" s="71">
+      <c r="B203" s="64">
         <v>1</v>
       </c>
-      <c r="C203" s="66">
+      <c r="C203" s="59">
         <v>0.4</v>
       </c>
-      <c r="D203" s="69">
+      <c r="D203" s="62">
         <f>D204*$C$203</f>
         <v>62.400000000000006</v>
       </c>
-      <c r="E203" s="69">
+      <c r="E203" s="62">
         <f>E204*$C$203</f>
         <v>37.44</v>
       </c>
-      <c r="F203" s="69">
+      <c r="F203" s="62">
         <f>F204*$C$203</f>
         <v>22.463999999999999</v>
       </c>
@@ -9797,22 +9775,22 @@
       </c>
     </row>
     <row r="204" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A204" s="68" t="s">
+      <c r="A204" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="B204" s="71">
+      <c r="B204" s="64">
         <v>5</v>
       </c>
-      <c r="C204" s="72"/>
-      <c r="D204" s="70">
+      <c r="C204" s="65"/>
+      <c r="D204" s="63">
         <f>B238</f>
         <v>156</v>
       </c>
-      <c r="E204" s="70">
+      <c r="E204" s="63">
         <f>C238</f>
         <v>93.6</v>
       </c>
-      <c r="F204" s="70">
+      <c r="F204" s="63">
         <f>D238</f>
         <v>56.16</v>
       </c>
@@ -9834,25 +9812,25 @@
       </c>
     </row>
     <row r="205" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A205" s="68" t="s">
+      <c r="A205" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="B205" s="71">
+      <c r="B205" s="64">
         <v>10</v>
       </c>
-      <c r="C205" s="66">
+      <c r="C205" s="59">
         <f t="shared" ref="C205:C214" si="13">EXP(LN(0.5)*B204/10)</f>
         <v>0.70710678118654757</v>
       </c>
-      <c r="D205" s="70">
+      <c r="D205" s="63">
         <f t="shared" ref="D205:D210" si="14">$D$204*C205</f>
         <v>110.30865786510142</v>
       </c>
-      <c r="E205" s="70">
+      <c r="E205" s="63">
         <f t="shared" ref="E205:E210" si="15">$E$204*C205</f>
         <v>66.185194719060846</v>
       </c>
-      <c r="F205" s="70">
+      <c r="F205" s="63">
         <f t="shared" ref="F205:F210" si="16">$F$204*C205</f>
         <v>39.711116831436506</v>
       </c>
@@ -9872,28 +9850,28 @@
         <f t="shared" si="12"/>
         <v>91.437775604337176</v>
       </c>
-      <c r="M205" s="59"/>
+      <c r="M205" s="52"/>
     </row>
     <row r="206" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A206" s="68" t="s">
+      <c r="A206" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="B206" s="71">
+      <c r="B206" s="64">
         <v>15</v>
       </c>
-      <c r="C206" s="66">
+      <c r="C206" s="59">
         <f t="shared" si="13"/>
         <v>0.5</v>
       </c>
-      <c r="D206" s="70">
+      <c r="D206" s="63">
         <f t="shared" si="14"/>
         <v>78</v>
       </c>
-      <c r="E206" s="70">
+      <c r="E206" s="63">
         <f t="shared" si="15"/>
         <v>46.8</v>
       </c>
-      <c r="F206" s="70">
+      <c r="F206" s="63">
         <f t="shared" si="16"/>
         <v>28.08</v>
       </c>
@@ -9913,30 +9891,30 @@
         <f t="shared" si="12"/>
         <v>70.103172413793089</v>
       </c>
-      <c r="N206" s="59"/>
-      <c r="O206" s="59"/>
-      <c r="P206" s="59"/>
+      <c r="N206" s="52"/>
+      <c r="O206" s="52"/>
+      <c r="P206" s="52"/>
     </row>
     <row r="207" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A207" s="68" t="s">
+      <c r="A207" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="B207" s="71">
+      <c r="B207" s="64">
         <v>20</v>
       </c>
-      <c r="C207" s="66">
+      <c r="C207" s="59">
         <f t="shared" si="13"/>
         <v>0.35355339059327379</v>
       </c>
-      <c r="D207" s="70">
+      <c r="D207" s="63">
         <f t="shared" si="14"/>
         <v>55.154328932550712</v>
       </c>
-      <c r="E207" s="70">
+      <c r="E207" s="63">
         <f t="shared" si="15"/>
         <v>33.092597359530423</v>
       </c>
-      <c r="F207" s="70">
+      <c r="F207" s="63">
         <f t="shared" si="16"/>
         <v>19.855558415718253</v>
       </c>
@@ -9958,25 +9936,25 @@
       </c>
     </row>
     <row r="208" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A208" s="68" t="s">
+      <c r="A208" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="B208" s="71">
+      <c r="B208" s="64">
         <v>25</v>
       </c>
-      <c r="C208" s="66">
+      <c r="C208" s="59">
         <f t="shared" si="13"/>
         <v>0.25</v>
       </c>
-      <c r="D208" s="70">
+      <c r="D208" s="63">
         <f t="shared" si="14"/>
         <v>39</v>
       </c>
-      <c r="E208" s="70">
+      <c r="E208" s="63">
         <f t="shared" si="15"/>
         <v>23.4</v>
       </c>
-      <c r="F208" s="70">
+      <c r="F208" s="63">
         <f t="shared" si="16"/>
         <v>14.04</v>
       </c>
@@ -9998,25 +9976,25 @@
       </c>
     </row>
     <row r="209" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A209" s="68" t="s">
+      <c r="A209" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="B209" s="71">
+      <c r="B209" s="64">
         <v>30</v>
       </c>
-      <c r="C209" s="66">
+      <c r="C209" s="59">
         <f t="shared" si="13"/>
         <v>0.17677669529663689</v>
       </c>
-      <c r="D209" s="70">
+      <c r="D209" s="63">
         <f t="shared" si="14"/>
         <v>27.577164466275356</v>
       </c>
-      <c r="E209" s="70">
+      <c r="E209" s="63">
         <f t="shared" si="15"/>
         <v>16.546298679765211</v>
       </c>
-      <c r="F209" s="70">
+      <c r="F209" s="63">
         <f t="shared" si="16"/>
         <v>9.9277792078591265</v>
       </c>
@@ -10038,25 +10016,25 @@
       </c>
     </row>
     <row r="210" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A210" s="68" t="s">
+      <c r="A210" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="B210" s="71">
+      <c r="B210" s="64">
         <v>35</v>
       </c>
-      <c r="C210" s="66">
+      <c r="C210" s="59">
         <f t="shared" si="13"/>
         <v>0.12500000000000003</v>
       </c>
-      <c r="D210" s="70">
+      <c r="D210" s="63">
         <f t="shared" si="14"/>
         <v>19.500000000000004</v>
       </c>
-      <c r="E210" s="70">
+      <c r="E210" s="63">
         <f t="shared" si="15"/>
         <v>11.700000000000001</v>
       </c>
-      <c r="F210" s="70">
+      <c r="F210" s="63">
         <f t="shared" si="16"/>
         <v>7.0200000000000014</v>
       </c>
@@ -10078,25 +10056,25 @@
       </c>
     </row>
     <row r="211" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A211" s="68" t="s">
+      <c r="A211" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="B211" s="71">
+      <c r="B211" s="64">
         <v>40</v>
       </c>
-      <c r="C211" s="66">
+      <c r="C211" s="59">
         <f>EXP(LN(0.5)*B210/10)</f>
         <v>8.8388347648318447E-2</v>
       </c>
-      <c r="D211" s="70">
+      <c r="D211" s="63">
         <f>$D$204*C211</f>
         <v>13.788582233137678</v>
       </c>
-      <c r="E211" s="70">
+      <c r="E211" s="63">
         <f>$E$204*C211</f>
         <v>8.2731493398826057</v>
       </c>
-      <c r="F211" s="70">
+      <c r="F211" s="63">
         <f>$F$204*C211</f>
         <v>4.9638896039295632</v>
       </c>
@@ -10118,25 +10096,25 @@
       </c>
     </row>
     <row r="212" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A212" s="68" t="s">
+      <c r="A212" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="B212" s="71">
+      <c r="B212" s="64">
         <v>45</v>
       </c>
-      <c r="C212" s="66">
+      <c r="C212" s="59">
         <f t="shared" si="13"/>
         <v>6.25E-2</v>
       </c>
-      <c r="D212" s="70">
+      <c r="D212" s="63">
         <f>$D$204*C212</f>
         <v>9.75</v>
       </c>
-      <c r="E212" s="70">
+      <c r="E212" s="63">
         <f>$E$204*C212</f>
         <v>5.85</v>
       </c>
-      <c r="F212" s="70">
+      <c r="F212" s="63">
         <f>$F$204*C212</f>
         <v>3.51</v>
       </c>
@@ -10158,25 +10136,25 @@
       </c>
     </row>
     <row r="213" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A213" s="68" t="s">
+      <c r="A213" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="B213" s="71">
+      <c r="B213" s="64">
         <v>50</v>
       </c>
-      <c r="C213" s="66">
+      <c r="C213" s="59">
         <f t="shared" si="13"/>
         <v>4.4194173824159223E-2</v>
       </c>
-      <c r="D213" s="70">
+      <c r="D213" s="63">
         <f>$D$204*C213</f>
         <v>6.894291116568839</v>
       </c>
-      <c r="E213" s="70">
+      <c r="E213" s="63">
         <f>$E$204*C213</f>
         <v>4.1365746699413029</v>
       </c>
-      <c r="F213" s="70">
+      <c r="F213" s="63">
         <f>$F$204*C213</f>
         <v>2.4819448019647816</v>
       </c>
@@ -10198,25 +10176,25 @@
       </c>
     </row>
     <row r="214" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A214" s="68" t="s">
+      <c r="A214" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="B214" s="71">
+      <c r="B214" s="64">
         <v>55</v>
       </c>
-      <c r="C214" s="66">
+      <c r="C214" s="59">
         <f t="shared" si="13"/>
         <v>3.125E-2</v>
       </c>
-      <c r="D214" s="70">
+      <c r="D214" s="63">
         <f>$D$204*C214</f>
         <v>4.875</v>
       </c>
-      <c r="E214" s="70">
+      <c r="E214" s="63">
         <f>$E$204*C214</f>
         <v>2.9249999999999998</v>
       </c>
-      <c r="F214" s="70">
+      <c r="F214" s="63">
         <f>$F$204*C214</f>
         <v>1.7549999999999999</v>
       </c>
@@ -10238,12 +10216,12 @@
       </c>
     </row>
     <row r="215" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A215" s="66"/>
-      <c r="B215" s="71"/>
-      <c r="C215" s="66"/>
-      <c r="D215" s="73"/>
-      <c r="E215" s="73"/>
-      <c r="F215" s="73"/>
+      <c r="A215" s="59"/>
+      <c r="B215" s="64"/>
+      <c r="C215" s="59"/>
+      <c r="D215" s="66"/>
+      <c r="E215" s="66"/>
+      <c r="F215" s="66"/>
       <c r="K215">
         <f>AVERAGE(K201:K214)</f>
         <v>36.59889506656333</v>
@@ -10254,481 +10232,471 @@
       </c>
     </row>
     <row r="216" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A216" s="96" t="s">
+      <c r="A216" s="72" t="s">
         <v>95</v>
       </c>
-      <c r="B216" s="96"/>
-      <c r="C216" s="96"/>
-      <c r="D216" s="96"/>
-      <c r="E216" s="96"/>
-      <c r="F216" s="96"/>
+      <c r="B216" s="72"/>
+      <c r="C216" s="72"/>
+      <c r="D216" s="72"/>
+      <c r="E216" s="72"/>
+      <c r="F216" s="72"/>
     </row>
     <row r="217" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A217" s="97" t="s">
+      <c r="A217" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="B217" s="66"/>
-      <c r="C217" s="66"/>
-      <c r="D217" s="95" t="s">
+      <c r="B217" s="59"/>
+      <c r="C217" s="59"/>
+      <c r="D217" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="E217" s="95"/>
-      <c r="F217" s="95"/>
+      <c r="E217" s="71"/>
+      <c r="F217" s="71"/>
     </row>
     <row r="218" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A218" s="97"/>
-      <c r="B218" s="66"/>
-      <c r="C218" s="67" t="s">
+      <c r="A218" s="73"/>
+      <c r="B218" s="59"/>
+      <c r="C218" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="D218" s="67" t="s">
+      <c r="D218" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="E218" s="67" t="s">
+      <c r="E218" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="F218" s="67" t="s">
+      <c r="F218" s="60" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="219" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A219" s="68" t="s">
+      <c r="A219" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="B219" s="66"/>
-      <c r="C219" s="66"/>
-      <c r="D219" s="69">
-        <v>0</v>
-      </c>
-      <c r="E219" s="69">
-        <v>0</v>
-      </c>
-      <c r="F219" s="69">
+      <c r="B219" s="59"/>
+      <c r="C219" s="59"/>
+      <c r="D219" s="62">
+        <v>0</v>
+      </c>
+      <c r="E219" s="62">
+        <v>0</v>
+      </c>
+      <c r="F219" s="62">
         <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A220" s="68" t="s">
+      <c r="A220" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="B220" s="66"/>
-      <c r="C220" s="66"/>
-      <c r="D220" s="69">
-        <v>0</v>
-      </c>
-      <c r="E220" s="69">
-        <v>0</v>
-      </c>
-      <c r="F220" s="69">
+      <c r="B220" s="59"/>
+      <c r="C220" s="59"/>
+      <c r="D220" s="62">
+        <v>0</v>
+      </c>
+      <c r="E220" s="62">
+        <v>0</v>
+      </c>
+      <c r="F220" s="62">
         <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A221" s="68" t="s">
+      <c r="A221" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="B221" s="66"/>
-      <c r="C221" s="66">
+      <c r="B221" s="59"/>
+      <c r="C221" s="59">
         <v>0.05</v>
       </c>
-      <c r="D221" s="69">
+      <c r="D221" s="62">
         <f>$C$221*D224</f>
         <v>7.8000000000000007</v>
       </c>
-      <c r="E221" s="69">
+      <c r="E221" s="62">
         <f>$C$221*E224</f>
         <v>4.68</v>
       </c>
-      <c r="F221" s="69">
+      <c r="F221" s="62">
         <f>$C$221*F224</f>
         <v>2.8079999999999998</v>
       </c>
     </row>
     <row r="222" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A222" s="68" t="s">
+      <c r="A222" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="B222" s="66"/>
-      <c r="C222" s="66">
+      <c r="B222" s="59"/>
+      <c r="C222" s="59">
         <v>0.1</v>
       </c>
-      <c r="D222" s="70">
+      <c r="D222" s="63">
         <f>D224*$C$222</f>
         <v>15.600000000000001</v>
       </c>
-      <c r="E222" s="70">
+      <c r="E222" s="63">
         <f>E224*$C$222</f>
         <v>9.36</v>
       </c>
-      <c r="F222" s="70">
+      <c r="F222" s="63">
         <f>F224*$C$222</f>
         <v>5.6159999999999997</v>
       </c>
     </row>
     <row r="223" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A223" s="68" t="s">
+      <c r="A223" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="B223" s="71">
+      <c r="B223" s="64">
         <v>1</v>
       </c>
-      <c r="C223" s="66">
+      <c r="C223" s="59">
         <v>0.4</v>
       </c>
-      <c r="D223" s="69">
+      <c r="D223" s="62">
         <f>D224*$C$223</f>
         <v>62.400000000000006</v>
       </c>
-      <c r="E223" s="69">
+      <c r="E223" s="62">
         <f>E224*$C$223</f>
         <v>37.44</v>
       </c>
-      <c r="F223" s="69">
+      <c r="F223" s="62">
         <f>F224*$C$223</f>
         <v>22.463999999999999</v>
       </c>
     </row>
     <row r="224" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A224" s="68" t="s">
+      <c r="A224" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="B224" s="71">
+      <c r="B224" s="64">
         <v>5</v>
       </c>
-      <c r="C224" s="72"/>
-      <c r="D224" s="69">
+      <c r="C224" s="65"/>
+      <c r="D224" s="62">
         <f>B239</f>
         <v>156</v>
       </c>
-      <c r="E224" s="69">
+      <c r="E224" s="62">
         <f>C239</f>
         <v>93.6</v>
       </c>
-      <c r="F224" s="69">
+      <c r="F224" s="62">
         <f>D239</f>
         <v>56.16</v>
       </c>
     </row>
     <row r="225" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A225" s="68" t="s">
+      <c r="A225" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="B225" s="71">
+      <c r="B225" s="64">
         <v>10</v>
       </c>
-      <c r="C225" s="66">
+      <c r="C225" s="59">
         <f t="shared" ref="C225:C234" si="17">EXP(LN(0.5)*B224/10)</f>
         <v>0.70710678118654757</v>
       </c>
-      <c r="D225" s="69">
+      <c r="D225" s="62">
         <f>D$224*$C$225</f>
         <v>110.30865786510142</v>
       </c>
-      <c r="E225" s="69">
+      <c r="E225" s="62">
         <f>E$224*$C$225</f>
         <v>66.185194719060846</v>
       </c>
-      <c r="F225" s="69">
+      <c r="F225" s="62">
         <f>F$224*$C$225</f>
         <v>39.711116831436506</v>
       </c>
     </row>
     <row r="226" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A226" s="68" t="s">
+      <c r="A226" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="B226" s="71">
+      <c r="B226" s="64">
         <v>15</v>
       </c>
-      <c r="C226" s="66">
+      <c r="C226" s="59">
         <f t="shared" si="17"/>
         <v>0.5</v>
       </c>
-      <c r="D226" s="69">
+      <c r="D226" s="62">
         <f t="shared" ref="D226:D232" si="18">$D$224*C226</f>
         <v>78</v>
       </c>
-      <c r="E226" s="69">
+      <c r="E226" s="62">
         <f t="shared" ref="E226:E232" si="19">$E$224*C226</f>
         <v>46.8</v>
       </c>
-      <c r="F226" s="69">
+      <c r="F226" s="62">
         <f t="shared" ref="F226:F232" si="20">$F$224*C226</f>
         <v>28.08</v>
       </c>
     </row>
     <row r="227" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A227" s="68" t="s">
+      <c r="A227" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="B227" s="71">
+      <c r="B227" s="64">
         <v>20</v>
       </c>
-      <c r="C227" s="66">
+      <c r="C227" s="59">
         <f t="shared" si="17"/>
         <v>0.35355339059327379</v>
       </c>
-      <c r="D227" s="69">
+      <c r="D227" s="62">
         <f t="shared" si="18"/>
         <v>55.154328932550712</v>
       </c>
-      <c r="E227" s="69">
+      <c r="E227" s="62">
         <f t="shared" si="19"/>
         <v>33.092597359530423</v>
       </c>
-      <c r="F227" s="69">
+      <c r="F227" s="62">
         <f t="shared" si="20"/>
         <v>19.855558415718253</v>
       </c>
     </row>
     <row r="228" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A228" s="68" t="s">
+      <c r="A228" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="B228" s="71">
+      <c r="B228" s="64">
         <v>25</v>
       </c>
-      <c r="C228" s="66">
+      <c r="C228" s="59">
         <f t="shared" si="17"/>
         <v>0.25</v>
       </c>
-      <c r="D228" s="69">
+      <c r="D228" s="62">
         <f t="shared" si="18"/>
         <v>39</v>
       </c>
-      <c r="E228" s="69">
+      <c r="E228" s="62">
         <f t="shared" si="19"/>
         <v>23.4</v>
       </c>
-      <c r="F228" s="69">
+      <c r="F228" s="62">
         <f t="shared" si="20"/>
         <v>14.04</v>
       </c>
     </row>
     <row r="229" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A229" s="68" t="s">
+      <c r="A229" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="B229" s="71">
+      <c r="B229" s="64">
         <v>30</v>
       </c>
-      <c r="C229" s="66">
+      <c r="C229" s="59">
         <f t="shared" si="17"/>
         <v>0.17677669529663689</v>
       </c>
-      <c r="D229" s="69">
+      <c r="D229" s="62">
         <f t="shared" si="18"/>
         <v>27.577164466275356</v>
       </c>
-      <c r="E229" s="69">
+      <c r="E229" s="62">
         <f t="shared" si="19"/>
         <v>16.546298679765211</v>
       </c>
-      <c r="F229" s="69">
+      <c r="F229" s="62">
         <f t="shared" si="20"/>
         <v>9.9277792078591265</v>
       </c>
     </row>
     <row r="230" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A230" s="68" t="s">
+      <c r="A230" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="B230" s="71">
+      <c r="B230" s="64">
         <v>35</v>
       </c>
-      <c r="C230" s="66">
+      <c r="C230" s="59">
         <f t="shared" si="17"/>
         <v>0.12500000000000003</v>
       </c>
-      <c r="D230" s="69">
+      <c r="D230" s="62">
         <f t="shared" si="18"/>
         <v>19.500000000000004</v>
       </c>
-      <c r="E230" s="69">
+      <c r="E230" s="62">
         <f t="shared" si="19"/>
         <v>11.700000000000001</v>
       </c>
-      <c r="F230" s="69">
+      <c r="F230" s="62">
         <f t="shared" si="20"/>
         <v>7.0200000000000014</v>
       </c>
     </row>
     <row r="231" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A231" s="68" t="s">
+      <c r="A231" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="B231" s="71">
+      <c r="B231" s="64">
         <v>40</v>
       </c>
-      <c r="C231" s="66">
+      <c r="C231" s="59">
         <f t="shared" si="17"/>
         <v>8.8388347648318447E-2</v>
       </c>
-      <c r="D231" s="69">
+      <c r="D231" s="62">
         <f t="shared" si="18"/>
         <v>13.788582233137678</v>
       </c>
-      <c r="E231" s="69">
+      <c r="E231" s="62">
         <f t="shared" si="19"/>
         <v>8.2731493398826057</v>
       </c>
-      <c r="F231" s="69">
+      <c r="F231" s="62">
         <f t="shared" si="20"/>
         <v>4.9638896039295632</v>
       </c>
     </row>
     <row r="232" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A232" s="68" t="s">
+      <c r="A232" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="B232" s="71">
+      <c r="B232" s="64">
         <v>45</v>
       </c>
-      <c r="C232" s="66">
+      <c r="C232" s="59">
         <f t="shared" si="17"/>
         <v>6.25E-2</v>
       </c>
-      <c r="D232" s="69">
+      <c r="D232" s="62">
         <f t="shared" si="18"/>
         <v>9.75</v>
       </c>
-      <c r="E232" s="69">
+      <c r="E232" s="62">
         <f t="shared" si="19"/>
         <v>5.85</v>
       </c>
-      <c r="F232" s="69">
+      <c r="F232" s="62">
         <f t="shared" si="20"/>
         <v>3.51</v>
       </c>
     </row>
     <row r="233" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A233" s="68" t="s">
+      <c r="A233" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="B233" s="71">
+      <c r="B233" s="64">
         <v>50</v>
       </c>
-      <c r="C233" s="66">
+      <c r="C233" s="59">
         <f>EXP(LN(0.5)*B232/10)</f>
         <v>4.4194173824159223E-2</v>
       </c>
-      <c r="D233" s="69">
+      <c r="D233" s="62">
         <f>$D$224*C233</f>
         <v>6.894291116568839</v>
       </c>
-      <c r="E233" s="69">
+      <c r="E233" s="62">
         <f>$E$224*C233</f>
         <v>4.1365746699413029</v>
       </c>
-      <c r="F233" s="69">
+      <c r="F233" s="62">
         <f>$F$224*C233</f>
         <v>2.4819448019647816</v>
       </c>
     </row>
     <row r="234" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A234" s="68" t="s">
+      <c r="A234" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="B234" s="71">
+      <c r="B234" s="64">
         <v>55</v>
       </c>
-      <c r="C234" s="66">
+      <c r="C234" s="59">
         <f t="shared" si="17"/>
         <v>3.125E-2</v>
       </c>
-      <c r="D234" s="69">
+      <c r="D234" s="62">
         <f>$D$224*C234</f>
         <v>4.875</v>
       </c>
-      <c r="E234" s="69">
+      <c r="E234" s="62">
         <f>$E$224*C234</f>
         <v>2.9249999999999998</v>
       </c>
-      <c r="F234" s="69">
+      <c r="F234" s="62">
         <f>$F$224*C234</f>
         <v>1.7549999999999999</v>
       </c>
     </row>
     <row r="235" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A235" s="55"/>
-      <c r="B235" s="55"/>
-      <c r="C235" s="65"/>
-      <c r="D235" s="55"/>
-      <c r="E235" s="55"/>
-      <c r="F235" s="55"/>
+      <c r="A235" s="48"/>
+      <c r="B235" s="48"/>
+      <c r="C235" s="58"/>
+      <c r="D235" s="48"/>
+      <c r="E235" s="48"/>
+      <c r="F235" s="48"/>
     </row>
     <row r="236" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A236" s="64" t="s">
+      <c r="A236" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="B236" s="59"/>
-      <c r="C236" s="59"/>
-      <c r="D236" s="59"/>
-      <c r="E236" s="55"/>
-      <c r="F236" s="55"/>
+      <c r="B236" s="52"/>
+      <c r="C236" s="52"/>
+      <c r="D236" s="52"/>
+      <c r="E236" s="48"/>
+      <c r="F236" s="48"/>
     </row>
     <row r="237" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A237" s="76" t="s">
+      <c r="A237" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="B237" s="77" t="s">
+      <c r="B237" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="C237" s="77" t="s">
+      <c r="C237" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="D237" s="77" t="s">
+      <c r="D237" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="E237" s="55"/>
-      <c r="F237" s="55"/>
+      <c r="E237" s="48"/>
+      <c r="F237" s="48"/>
     </row>
     <row r="238" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A238" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B238" s="71">
+      <c r="A238" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B238" s="64">
         <f>52*3</f>
         <v>156</v>
       </c>
-      <c r="C238" s="71">
+      <c r="C238" s="64">
         <f>B238*0.6</f>
         <v>93.6</v>
       </c>
-      <c r="D238" s="71">
+      <c r="D238" s="64">
         <f>C238*0.6</f>
         <v>56.16</v>
       </c>
     </row>
     <row r="239" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A239" s="26" t="s">
+      <c r="A239" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B239" s="71">
+      <c r="B239" s="64">
         <f>52*3</f>
         <v>156</v>
       </c>
-      <c r="C239" s="71">
+      <c r="C239" s="64">
         <f>B239*0.6</f>
         <v>93.6</v>
       </c>
-      <c r="D239" s="71">
+      <c r="D239" s="64">
         <f>C239*0.6</f>
         <v>56.16</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A197:A198"/>
-    <mergeCell ref="A216:F216"/>
-    <mergeCell ref="A217:A218"/>
-    <mergeCell ref="B158:D158"/>
-    <mergeCell ref="E158:G158"/>
-    <mergeCell ref="A183:C183"/>
-    <mergeCell ref="A195:F195"/>
-    <mergeCell ref="A196:F196"/>
-    <mergeCell ref="D197:F197"/>
-    <mergeCell ref="D217:F217"/>
     <mergeCell ref="A109:A111"/>
     <mergeCell ref="B109:G109"/>
     <mergeCell ref="B130:G130"/>
@@ -10741,6 +10709,16 @@
     <mergeCell ref="E52:G52"/>
     <mergeCell ref="A81:A83"/>
     <mergeCell ref="B81:B83"/>
+    <mergeCell ref="A197:A198"/>
+    <mergeCell ref="A216:F216"/>
+    <mergeCell ref="A217:A218"/>
+    <mergeCell ref="B158:D158"/>
+    <mergeCell ref="E158:G158"/>
+    <mergeCell ref="A183:C183"/>
+    <mergeCell ref="A195:F195"/>
+    <mergeCell ref="A196:F196"/>
+    <mergeCell ref="D197:F197"/>
+    <mergeCell ref="D217:F217"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Config/Population_data.xlsx
+++ b/Config/Population_data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="98">
   <si>
     <t>Male</t>
   </si>
@@ -415,6 +415,9 @@
     <t>HIV-</t>
   </si>
   <si>
+    <t>Note: fertility rates changed linearly from 1995 to 2005 so that the model's population growth resembles actual population growth patterns. Fertility rate for 2005 onwards is 1/2 the fertility rate before 1995.</t>
+  </si>
+  <si>
     <t>Fertility Rate (per year) before 1995</t>
   </si>
   <si>
@@ -529,132 +532,12 @@
   <si>
     <t>Statistics South Africa. Primary tables KwaZulu-Natal: Census '96 and 2001 compared. . (2004). (http://www.statssa.gov.za/census/census_2011/census_products/KZN_Municipal_Report.pdf, page 120)</t>
   </si>
-  <si>
-    <t>Population (both sexes, 0-100+)</t>
-  </si>
-  <si>
-    <t>SA</t>
-  </si>
-  <si>
-    <t>KZN</t>
-  </si>
-  <si>
-    <t>2011 Census</t>
-  </si>
-  <si>
-    <t>US Census</t>
-  </si>
-  <si>
-    <t>US Census Bureau</t>
-  </si>
-  <si>
-    <t>Age</t>
-  </si>
-  <si>
-    <t>Male Population</t>
-  </si>
-  <si>
-    <t>Female Population</t>
-  </si>
-  <si>
-    <t>0-4</t>
-  </si>
-  <si>
-    <t>15-19</t>
-  </si>
-  <si>
-    <t>20-24</t>
-  </si>
-  <si>
-    <t>30-34</t>
-  </si>
-  <si>
-    <t>35-39</t>
-  </si>
-  <si>
-    <t>40-44</t>
-  </si>
-  <si>
-    <t>45-49</t>
-  </si>
-  <si>
-    <t>50-54</t>
-  </si>
-  <si>
-    <t>55-59</t>
-  </si>
-  <si>
-    <t>60-64</t>
-  </si>
-  <si>
-    <t>65-69</t>
-  </si>
-  <si>
-    <t>70-74</t>
-  </si>
-  <si>
-    <t>75-79</t>
-  </si>
-  <si>
-    <t>5-9</t>
-  </si>
-  <si>
-    <t>10-14</t>
-  </si>
-  <si>
-    <t>80-84</t>
-  </si>
-  <si>
-    <t>85-89</t>
-  </si>
-  <si>
-    <t>90-94</t>
-  </si>
-  <si>
-    <t>95-99</t>
-  </si>
-  <si>
-    <t>100+</t>
-  </si>
-  <si>
-    <t>Total Population</t>
-  </si>
-  <si>
-    <t>M Ratio</t>
-  </si>
-  <si>
-    <t>F Ratio</t>
-  </si>
-  <si>
-    <t>KZN 1996 by age group</t>
-  </si>
-  <si>
-    <t>SA 1985 by age group</t>
-  </si>
-  <si>
-    <t>KZN: SA</t>
-  </si>
-  <si>
-    <t>(ages 0-14)</t>
-  </si>
-  <si>
-    <t>(ages 15-64)</t>
-  </si>
-  <si>
-    <t>(ages 65-100+)</t>
-  </si>
-  <si>
-    <t>Anderson</t>
-  </si>
-  <si>
-    <t>Note: fertility rates changed linearly from 1990 to 2015 so that the model's population growth resembles actual population growth patterns. Fertility rate for 2015 onwards is 1/2 the fertility rate before 1990. Anderson source defines fertility for ages 15-49; Ross defines mults by HIV status.</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -864,30 +747,8 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13.5"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="37">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -903,12 +764,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1083,12 +938,6 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1476,48 +1325,48 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1531,9 +1380,8 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="28">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1588,21 +1436,17 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1612,9 +1456,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1653,13 +1494,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1780,77 +1614,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="48"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="48" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="48">
     <cellStyle name="20% - Accent1" xfId="18" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="22" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="26" builtinId="38" customBuiltin="1"/>
@@ -1887,7 +1653,6 @@
     <cellStyle name="Heading 2" xfId="2" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="3" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="4" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
     <cellStyle name="Input" xfId="8" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="11" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="7" builtinId="28" customBuiltin="1"/>
@@ -1903,11 +1668,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <mruColors>
-      <color rgb="FFFFFFCC"/>
-    </mruColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -4193,316 +3953,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.12871559349687808"/>
-          <c:y val="0.14784257427234199"/>
-          <c:w val="0.81838157142458989"/>
-          <c:h val="0.75968798334772913"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Demographics!$E$9:$E$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1996</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2011</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Demographics!$F$9:$F$11</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>8452868</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9584129</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10267300</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-99AB-4B28-B58F-2A4AF8E6847B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="571929520"/>
-        <c:axId val="571930352"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="571929520"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="1910"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="571930352"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="571930352"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="571929520"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -4584,46 +4034,6 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6151,522 +5561,6 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -6900,36 +5794,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>202405</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>1428750</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>19048</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7204,8 +6068,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AF239"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A108" sqref="A108"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7216,20 +6080,18 @@
     <col min="4" max="4" width="13.28515625" customWidth="1"/>
     <col min="5" max="5" width="16.5703125" customWidth="1"/>
     <col min="6" max="6" width="16.85546875" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.85546875" customWidth="1"/>
     <col min="11" max="11" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="25" customWidth="1"/>
-    <col min="16" max="16" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.7109375" customWidth="1"/>
+    <col min="17" max="17" width="19.85546875" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="11.85546875" customWidth="1"/>
     <col min="21" max="21" width="15.42578125" customWidth="1"/>
-    <col min="22" max="22" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="14.140625" customWidth="1"/>
     <col min="26" max="26" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="12.28515625" customWidth="1"/>
@@ -7245,141 +6107,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="56"/>
-      <c r="T1" s="56"/>
-      <c r="U1" s="56"/>
-      <c r="V1" s="56"/>
-      <c r="W1" s="56"/>
-      <c r="X1" s="56"/>
-      <c r="Y1" s="56"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
     </row>
     <row r="2" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="56"/>
-      <c r="R2" s="56"/>
-      <c r="S2" s="56"/>
-      <c r="T2" s="56"/>
-      <c r="U2" s="56"/>
-      <c r="V2" s="56"/>
-      <c r="W2" s="56"/>
-      <c r="X2" s="56"/>
-      <c r="Y2" s="56"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="50"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="50"/>
+      <c r="V2" s="50"/>
+      <c r="W2" s="50"/>
+      <c r="X2" s="50"/>
+      <c r="Y2" s="50"/>
     </row>
     <row r="3" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="57" t="s">
-        <v>96</v>
-      </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="56"/>
-      <c r="P3" s="56"/>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="56"/>
-      <c r="S3" s="56"/>
-      <c r="T3" s="56"/>
-      <c r="U3" s="56"/>
-      <c r="V3" s="56"/>
-      <c r="W3" s="56"/>
-      <c r="X3" s="56"/>
-      <c r="Y3" s="56"/>
-    </row>
-    <row r="4" spans="1:25" s="58" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="51" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="50"/>
+      <c r="Q3" s="50"/>
+      <c r="R3" s="50"/>
+      <c r="S3" s="50"/>
+      <c r="T3" s="50"/>
+      <c r="U3" s="50"/>
+      <c r="V3" s="50"/>
+      <c r="W3" s="50"/>
+      <c r="X3" s="50"/>
+      <c r="Y3" s="50"/>
+    </row>
+    <row r="4" spans="1:25" s="52" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="95" t="s">
+      <c r="B4" s="89" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="96"/>
-      <c r="O4" s="58" t="s">
-        <v>101</v>
-      </c>
+      <c r="C4" s="90"/>
     </row>
     <row r="5" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="59"/>
-      <c r="B5" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="53" t="s">
+      <c r="A5" s="53"/>
+      <c r="B5" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="47" t="s">
         <v>1</v>
-      </c>
-      <c r="O5" s="122" t="s">
-        <v>29</v>
-      </c>
-      <c r="P5" s="122" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q5" s="123" t="s">
-        <v>126</v>
-      </c>
-      <c r="R5" s="122" t="s">
-        <v>104</v>
-      </c>
-      <c r="S5" s="122" t="s">
-        <v>105</v>
-      </c>
-      <c r="T5" s="118" t="s">
-        <v>127</v>
-      </c>
-      <c r="U5" s="118" t="s">
-        <v>128</v>
-      </c>
-      <c r="V5" s="118" t="s">
-        <v>130</v>
-      </c>
-      <c r="W5" s="114" t="s">
-        <v>129</v>
-      </c>
-      <c r="X5" s="118" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -7392,31 +6221,8 @@
       <c r="C6" s="13">
         <v>417311</v>
       </c>
-      <c r="O6" s="124">
-        <v>1985</v>
-      </c>
-      <c r="P6" s="125" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q6" s="126">
-        <v>4975738</v>
-      </c>
-      <c r="R6" s="126">
-        <v>2490485</v>
-      </c>
-      <c r="S6" s="126">
-        <v>2485253</v>
-      </c>
-      <c r="T6">
-        <f>R6/B6</f>
-        <v>5.9554053310823578</v>
-      </c>
-      <c r="U6">
-        <f>S6/C6</f>
-        <v>5.9553977728840124</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:25" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
@@ -7426,41 +6232,6 @@
       <c r="C7" s="13">
         <v>361594</v>
       </c>
-      <c r="E7" s="71" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="104" t="s">
-        <v>97</v>
-      </c>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71"/>
-      <c r="O7" s="124">
-        <v>1985</v>
-      </c>
-      <c r="P7" s="127" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q7" s="126">
-        <v>4309401</v>
-      </c>
-      <c r="R7" s="126">
-        <v>2155962</v>
-      </c>
-      <c r="S7" s="126">
-        <v>2153439</v>
-      </c>
-      <c r="T7">
-        <f>R7/B7</f>
-        <v>5.9567163436831718</v>
-      </c>
-      <c r="U7">
-        <f>S7/C7</f>
-        <v>5.9554057866004415</v>
-      </c>
-      <c r="V7" s="121" t="s">
-        <v>132</v>
-      </c>
-      <c r="W7" s="121"/>
     </row>
     <row r="8" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
@@ -7472,48 +6243,6 @@
       <c r="C8" s="13">
         <v>329333</v>
       </c>
-      <c r="E8" s="71">
-        <v>1985</v>
-      </c>
-      <c r="F8" s="105">
-        <v>34254092</v>
-      </c>
-      <c r="G8" s="71" t="s">
-        <v>98</v>
-      </c>
-      <c r="H8" s="71" t="s">
-        <v>100</v>
-      </c>
-      <c r="O8" s="124">
-        <v>1985</v>
-      </c>
-      <c r="P8" s="127" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q8" s="126">
-        <v>3909744</v>
-      </c>
-      <c r="R8" s="126">
-        <v>1948437</v>
-      </c>
-      <c r="S8" s="126">
-        <v>1961307</v>
-      </c>
-      <c r="T8">
-        <f>R8/B8</f>
-        <v>5.955408639518784</v>
-      </c>
-      <c r="U8">
-        <f>S8/C8</f>
-        <v>5.9553916552547115</v>
-      </c>
-      <c r="V8" s="115">
-        <f>SUM(Q6:Q8)</f>
-        <v>13194883</v>
-      </c>
-      <c r="W8" s="116">
-        <v>3063742</v>
-      </c>
     </row>
     <row r="9" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
@@ -7525,53 +6254,6 @@
       <c r="C9" s="13">
         <v>296947</v>
       </c>
-      <c r="E9" s="71">
-        <v>1996</v>
-      </c>
-      <c r="F9" s="105">
-        <v>8452868</v>
-      </c>
-      <c r="G9" s="71" t="s">
-        <v>99</v>
-      </c>
-      <c r="H9" s="71" t="s">
-        <v>102</v>
-      </c>
-      <c r="O9" s="124">
-        <v>1985</v>
-      </c>
-      <c r="P9" s="125" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q9" s="126">
-        <v>3493280</v>
-      </c>
-      <c r="R9" s="126">
-        <v>1724844</v>
-      </c>
-      <c r="S9" s="126">
-        <v>1768436</v>
-      </c>
-      <c r="T9">
-        <f>R9/B9</f>
-        <v>5.9553978047626774</v>
-      </c>
-      <c r="U9">
-        <f>S9/C9</f>
-        <v>5.9553927131777726</v>
-      </c>
-      <c r="V9" s="108">
-        <f>V8/(V8+V18+V26)</f>
-        <v>0.38520603611387511</v>
-      </c>
-      <c r="W9" s="108">
-        <f>W8/(W18+W8+W26)</f>
-        <v>0.36244995634026744</v>
-      </c>
-      <c r="X9" s="119">
-        <f>W9/V9</f>
-        <v>0.94092491383784937</v>
-      </c>
     </row>
     <row r="10" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
@@ -7583,43 +6265,6 @@
       <c r="C10" s="13">
         <v>273204</v>
       </c>
-      <c r="E10" s="71">
-        <v>2001</v>
-      </c>
-      <c r="F10" s="105">
-        <v>9584129</v>
-      </c>
-      <c r="G10" s="71" t="s">
-        <v>99</v>
-      </c>
-      <c r="H10" s="71" t="s">
-        <v>102</v>
-      </c>
-      <c r="O10" s="124">
-        <v>1985</v>
-      </c>
-      <c r="P10" s="125" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q10" s="126">
-        <v>3191549</v>
-      </c>
-      <c r="R10" s="126">
-        <v>1564509</v>
-      </c>
-      <c r="S10" s="126">
-        <v>1627040</v>
-      </c>
-      <c r="T10">
-        <f>R10/B10</f>
-        <v>5.9554060844143981</v>
-      </c>
-      <c r="U10">
-        <f>S10/C10</f>
-        <v>5.9554032883852361</v>
-      </c>
-      <c r="V10" s="108"/>
-      <c r="W10" s="108"/>
     </row>
     <row r="11" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
@@ -7631,43 +6276,6 @@
       <c r="C11" s="13">
         <v>249396</v>
       </c>
-      <c r="E11" s="71">
-        <v>2011</v>
-      </c>
-      <c r="F11" s="105">
-        <v>10267300</v>
-      </c>
-      <c r="G11" s="71" t="s">
-        <v>99</v>
-      </c>
-      <c r="H11" s="71" t="s">
-        <v>102</v>
-      </c>
-      <c r="O11" s="124">
-        <v>1985</v>
-      </c>
-      <c r="P11" s="125" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q11" s="126">
-        <v>2888777</v>
-      </c>
-      <c r="R11" s="126">
-        <v>1403525</v>
-      </c>
-      <c r="S11" s="126">
-        <v>1485252</v>
-      </c>
-      <c r="T11">
-        <f>R11/B11</f>
-        <v>5.9553915807071665</v>
-      </c>
-      <c r="U11">
-        <f>S11/C11</f>
-        <v>5.9553962373093396</v>
-      </c>
-      <c r="V11" s="108"/>
-      <c r="W11" s="108"/>
     </row>
     <row r="12" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
@@ -7679,35 +6287,6 @@
       <c r="C12" s="13">
         <v>211839</v>
       </c>
-      <c r="E12" s="110"/>
-      <c r="F12" s="111"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
-      <c r="O12" s="124">
-        <v>1985</v>
-      </c>
-      <c r="P12" s="125" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q12" s="126">
-        <v>2439661</v>
-      </c>
-      <c r="R12" s="126">
-        <v>1178076</v>
-      </c>
-      <c r="S12" s="126">
-        <v>1261585</v>
-      </c>
-      <c r="T12">
-        <f>R12/B12</f>
-        <v>5.9554131111740203</v>
-      </c>
-      <c r="U12">
-        <f>S12/C12</f>
-        <v>5.9553953710128917</v>
-      </c>
-      <c r="V12" s="108"/>
-      <c r="W12" s="108"/>
     </row>
     <row r="13" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
@@ -7719,33 +6298,6 @@
       <c r="C13" s="13">
         <v>176470</v>
       </c>
-      <c r="E13" s="119"/>
-      <c r="F13" s="119"/>
-      <c r="O13" s="124">
-        <v>1985</v>
-      </c>
-      <c r="P13" s="125" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q13" s="126">
-        <v>2009486</v>
-      </c>
-      <c r="R13" s="126">
-        <v>958536</v>
-      </c>
-      <c r="S13" s="126">
-        <v>1050950</v>
-      </c>
-      <c r="T13">
-        <f>R13/B13</f>
-        <v>5.9554152790894177</v>
-      </c>
-      <c r="U13">
-        <f>S13/C13</f>
-        <v>5.9554031846772819</v>
-      </c>
-      <c r="V13" s="108"/>
-      <c r="W13" s="108"/>
     </row>
     <row r="14" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
@@ -7757,31 +6309,6 @@
       <c r="C14" s="13">
         <v>143351</v>
       </c>
-      <c r="O14" s="124">
-        <v>1985</v>
-      </c>
-      <c r="P14" s="125" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q14" s="126">
-        <v>1641675</v>
-      </c>
-      <c r="R14" s="126">
-        <v>787963</v>
-      </c>
-      <c r="S14" s="126">
-        <v>853712</v>
-      </c>
-      <c r="T14">
-        <f>R14/B14</f>
-        <v>5.9553854176901391</v>
-      </c>
-      <c r="U14">
-        <f>S14/C14</f>
-        <v>5.955396195352666</v>
-      </c>
-      <c r="V14" s="108"/>
-      <c r="W14" s="108"/>
     </row>
     <row r="15" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
@@ -7793,32 +6320,6 @@
       <c r="C15" s="13">
         <v>123441</v>
       </c>
-      <c r="E15" s="110"/>
-      <c r="O15" s="124">
-        <v>1985</v>
-      </c>
-      <c r="P15" s="125" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q15" s="126">
-        <v>1395292</v>
-      </c>
-      <c r="R15" s="126">
-        <v>660150</v>
-      </c>
-      <c r="S15" s="126">
-        <v>735142</v>
-      </c>
-      <c r="T15">
-        <f>R15/B15</f>
-        <v>5.9553987857355501</v>
-      </c>
-      <c r="U15">
-        <f>S15/C15</f>
-        <v>5.9554118971816496</v>
-      </c>
-      <c r="V15" s="108"/>
-      <c r="W15" s="108"/>
     </row>
     <row r="16" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
@@ -7830,239 +6331,72 @@
       <c r="C16" s="13">
         <v>98355</v>
       </c>
-      <c r="O16" s="124">
-        <v>1985</v>
-      </c>
-      <c r="P16" s="125" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q16" s="126">
-        <v>1115933</v>
-      </c>
-      <c r="R16" s="126">
-        <v>530191</v>
-      </c>
-      <c r="S16" s="126">
-        <v>585742</v>
-      </c>
-      <c r="T16">
-        <f>R16/B16</f>
-        <v>5.955395554157727</v>
-      </c>
-      <c r="U16">
-        <f>S16/C16</f>
-        <v>5.9553861013674956</v>
-      </c>
-      <c r="V16" s="108"/>
-      <c r="W16" s="108"/>
-    </row>
-    <row r="17" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="23" t="s">
+    </row>
+    <row r="17" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="24">
+      <c r="B17" s="23">
         <v>70487</v>
       </c>
-      <c r="C17" s="24">
+      <c r="C17" s="23">
         <v>82330</v>
       </c>
-      <c r="O17" s="124">
-        <v>1985</v>
-      </c>
-      <c r="P17" s="125" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q17" s="126">
-        <v>910746</v>
-      </c>
-      <c r="R17" s="126">
-        <v>419780</v>
-      </c>
-      <c r="S17" s="126">
-        <v>490966</v>
-      </c>
-      <c r="T17">
-        <f>R17/B17</f>
-        <v>5.9554244045001203</v>
-      </c>
-      <c r="U17">
-        <f>S17/C17</f>
-        <v>5.9633912304141869</v>
-      </c>
-      <c r="V17" s="106" t="s">
-        <v>133</v>
-      </c>
-      <c r="W17" s="106"/>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="25">
+      <c r="B18" s="96">
         <f>314094/6.27</f>
         <v>50094.736842105267</v>
       </c>
-      <c r="C18" s="25">
+      <c r="C18" s="96">
         <f>366793/6.36</f>
         <v>57671.85534591195</v>
       </c>
-      <c r="O18" s="124">
-        <v>1985</v>
-      </c>
-      <c r="P18" s="125" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q18" s="126">
-        <v>680887</v>
-      </c>
-      <c r="R18" s="126">
-        <v>314094</v>
-      </c>
-      <c r="S18" s="126">
-        <v>366793</v>
-      </c>
-      <c r="T18">
-        <f>R18/B18</f>
-        <v>6.27</v>
-      </c>
-      <c r="U18">
-        <f>S18/C18</f>
-        <v>6.36</v>
-      </c>
-      <c r="V18" s="109">
-        <f>SUM(Q9:Q18)</f>
-        <v>19767286</v>
-      </c>
-      <c r="W18" s="108">
-        <v>5004543</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="25">
+      <c r="B19" s="96">
         <f>224490/6.27</f>
         <v>35803.827751196171</v>
       </c>
-      <c r="C19" s="25">
+      <c r="C19" s="96">
         <f>282911/6.36</f>
         <v>44482.861635220121</v>
       </c>
-      <c r="O19" s="124">
-        <v>1985</v>
-      </c>
-      <c r="P19" s="125" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q19" s="126">
-        <v>507401</v>
-      </c>
-      <c r="R19" s="126">
-        <v>224490</v>
-      </c>
-      <c r="S19" s="126">
-        <v>282911</v>
-      </c>
-      <c r="T19">
-        <f>R19/B19</f>
-        <v>6.2700000000000005</v>
-      </c>
-      <c r="U19">
-        <f>S19/C19</f>
-        <v>6.36</v>
-      </c>
-      <c r="V19" s="108">
-        <f>V18/(V8+V18+V26)</f>
-        <v>0.57707809040741764</v>
-      </c>
-      <c r="W19" s="108">
-        <f>W18/(W8+W18+W26)</f>
-        <v>0.59205259184780934</v>
-      </c>
-      <c r="X19" s="119">
-        <f>W19/V19</f>
-        <v>1.0259488303044388</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="25">
+      <c r="B20" s="96">
         <f>151123/6.27</f>
         <v>24102.551834130783</v>
       </c>
-      <c r="C20" s="25">
+      <c r="C20" s="96">
         <f>215469/6.36</f>
         <v>33878.773584905655</v>
       </c>
-      <c r="O20" s="124">
-        <v>1985</v>
-      </c>
-      <c r="P20" s="125" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q20" s="126">
-        <v>366592</v>
-      </c>
-      <c r="R20" s="126">
-        <v>151123</v>
-      </c>
-      <c r="S20" s="126">
-        <v>215469</v>
-      </c>
-      <c r="T20">
-        <f>R20/B20</f>
-        <v>6.27</v>
-      </c>
-      <c r="U20">
-        <f>S20/C20</f>
-        <v>6.3600000000000012</v>
-      </c>
-      <c r="V20" s="108"/>
-      <c r="W20" s="108"/>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="B21" s="25">
+      <c r="B21" s="96">
         <f>89288/6.27</f>
         <v>14240.510366826158</v>
       </c>
-      <c r="C21" s="25">
+      <c r="C21" s="96">
         <f>144901/6.36</f>
         <v>22783.176100628931</v>
       </c>
-      <c r="O21" s="124">
-        <v>1985</v>
-      </c>
-      <c r="P21" s="125" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q21" s="126">
-        <v>234189</v>
-      </c>
-      <c r="R21" s="126">
-        <v>89288</v>
-      </c>
-      <c r="S21" s="126">
-        <v>144901</v>
-      </c>
-      <c r="T21">
-        <f>R21/B21</f>
-        <v>6.27</v>
-      </c>
-      <c r="U21">
-        <f>S21/C21</f>
-        <v>6.36</v>
-      </c>
-      <c r="V21" s="108"/>
-      <c r="W21" s="108"/>
-    </row>
-    <row r="22" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="26" t="s">
+    </row>
+    <row r="22" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="24" t="s">
         <v>28</v>
       </c>
       <c r="B22" s="12">
@@ -8077,308 +6411,138 @@
         <f>SUM(B22:C22)</f>
         <v>5703373.2934609242</v>
       </c>
-      <c r="O22" s="124">
-        <v>1985</v>
-      </c>
-      <c r="P22" s="125" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q22" s="126">
-        <v>123670</v>
-      </c>
-      <c r="R22" s="126">
-        <v>42404</v>
-      </c>
-      <c r="S22" s="126">
-        <v>81266</v>
-      </c>
-      <c r="T22" s="108"/>
-      <c r="V22" s="108"/>
-      <c r="W22" s="108"/>
-    </row>
-    <row r="23" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="X22" s="17"/>
+    </row>
+    <row r="23" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
-      <c r="O23" s="124">
-        <v>1985</v>
-      </c>
-      <c r="P23" s="125" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q23" s="126">
-        <v>47083</v>
-      </c>
-      <c r="R23" s="126">
-        <v>14020</v>
-      </c>
-      <c r="S23" s="126">
-        <v>33063</v>
-      </c>
-      <c r="T23" s="108"/>
-      <c r="V23" s="108"/>
-      <c r="W23" s="108"/>
-      <c r="X23" s="30"/>
-    </row>
-    <row r="24" spans="1:25" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="129" t="s">
+    </row>
+    <row r="24" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="B24" s="130">
+      <c r="B24">
         <f>16661041/2656744</f>
         <v>6.2712256054779836</v>
       </c>
-      <c r="C24" s="130">
+      <c r="C24">
         <f>17593051/2763571</f>
         <v>6.3660571774707435</v>
       </c>
-      <c r="E24" s="130">
-        <v>2656744</v>
-      </c>
-      <c r="F24" s="130">
-        <v>2763571</v>
-      </c>
-      <c r="G24" s="130">
-        <f>E24+F24</f>
-        <v>5420315</v>
-      </c>
-      <c r="O24" s="124">
-        <v>1985</v>
-      </c>
-      <c r="P24" s="125" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q24" s="126">
-        <v>11366</v>
-      </c>
-      <c r="R24" s="126">
-        <v>2837</v>
-      </c>
-      <c r="S24" s="126">
-        <v>8529</v>
-      </c>
-      <c r="T24" s="108"/>
-      <c r="V24" s="108"/>
-      <c r="W24" s="108"/>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="E25" s="131">
-        <f>R27/T17</f>
-        <v>2797624.4627352422</v>
-      </c>
-      <c r="F25" s="131">
-        <f>S27/U17</f>
-        <v>2950175.5494881519</v>
-      </c>
-      <c r="G25" s="131">
-        <f>E25+F25</f>
-        <v>5747800.0122233946</v>
-      </c>
-      <c r="O25" s="124">
-        <v>1985</v>
-      </c>
-      <c r="P25" s="125" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q25" s="126">
-        <v>1518</v>
-      </c>
-      <c r="R25" s="125">
-        <v>310</v>
-      </c>
-      <c r="S25" s="126">
-        <v>1208</v>
-      </c>
-      <c r="T25" s="108"/>
-      <c r="V25" s="106" t="s">
-        <v>134</v>
-      </c>
-      <c r="W25" s="106"/>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="F26" s="42"/>
-      <c r="O26" s="124">
-        <v>1985</v>
-      </c>
-      <c r="P26" s="125" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q26" s="125">
-        <v>104</v>
-      </c>
-      <c r="R26" s="125">
-        <v>17</v>
-      </c>
-      <c r="S26" s="125">
-        <v>87</v>
-      </c>
-      <c r="T26" s="108"/>
-      <c r="V26" s="109">
-        <f>SUM(Q19:Q26)</f>
-        <v>1291923</v>
-      </c>
-      <c r="W26" s="108">
-        <v>384584</v>
-      </c>
-      <c r="Y26" s="108"/>
-    </row>
-    <row r="27" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="51" t="s">
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="F26" s="39"/>
+    </row>
+    <row r="27" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="84" t="s">
+      <c r="B27" s="78" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="97"/>
-      <c r="O27" s="132" t="s">
-        <v>28</v>
-      </c>
-      <c r="P27" s="12"/>
-      <c r="Q27" s="103">
-        <f>SUM(Q6:Q26)</f>
-        <v>34254092</v>
-      </c>
-      <c r="R27" s="103">
-        <f>SUM(R6:R26)</f>
-        <v>16661041</v>
-      </c>
-      <c r="S27" s="103">
-        <f>SUM(S6:S26)</f>
-        <v>17593051</v>
-      </c>
-      <c r="V27">
-        <f>V26/(V8+V18+V26)</f>
-        <v>3.77158734787073E-2</v>
-      </c>
-      <c r="W27">
-        <f>W26/(W8+W18+W26)</f>
-        <v>4.5497451811923266E-2</v>
-      </c>
-      <c r="X27" s="120">
-        <f>W27/V27</f>
-        <v>1.2063210424546869</v>
-      </c>
-      <c r="Y27" s="108"/>
-    </row>
-    <row r="28" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C27" s="91"/>
+    </row>
+    <row r="28" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="12"/>
-      <c r="B28" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="C28" s="51" t="s">
+      <c r="B28" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="45" t="s">
         <v>1</v>
       </c>
       <c r="F28" s="20"/>
-      <c r="V28" s="102"/>
-      <c r="X28" s="108"/>
-      <c r="Y28" s="108"/>
-    </row>
-    <row r="29" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="26">
+      <c r="B29" s="24">
         <f t="array" ref="B29:B44">-1*B6:B22</f>
         <v>-418189</v>
       </c>
-      <c r="C29" s="26">
+      <c r="C29" s="24">
         <v>417311</v>
       </c>
-      <c r="X29" s="108"/>
-      <c r="Y29" s="108"/>
-    </row>
-    <row r="30" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="26">
+      <c r="B30" s="24">
         <v>-361938</v>
       </c>
-      <c r="C30" s="26">
+      <c r="C30" s="24">
         <v>361594</v>
       </c>
-      <c r="X30" s="108"/>
-      <c r="Y30" s="108"/>
-    </row>
-    <row r="31" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B31" s="26">
+      <c r="B31" s="24">
         <v>-327171</v>
       </c>
-      <c r="C31" s="26">
+      <c r="C31" s="24">
         <v>329333</v>
       </c>
       <c r="L31" s="11"/>
-      <c r="X31" s="108"/>
-      <c r="Y31" s="108"/>
-    </row>
-    <row r="32" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B32" s="26">
+      <c r="B32" s="24">
         <v>-289627</v>
       </c>
-      <c r="C32" s="26">
+      <c r="C32" s="24">
         <v>296947</v>
       </c>
-      <c r="X32" s="108"/>
-      <c r="Y32" s="108"/>
     </row>
     <row r="33" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B33" s="26">
+      <c r="B33" s="24">
         <v>-262704</v>
       </c>
-      <c r="C33" s="26">
+      <c r="C33" s="24">
         <v>273204</v>
       </c>
-      <c r="X33" s="108"/>
-      <c r="Y33" s="108"/>
-    </row>
-    <row r="34" spans="1:32" ht="18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B34" s="26">
+      <c r="B34" s="24">
         <v>-235673</v>
       </c>
-      <c r="C34" s="26">
+      <c r="C34" s="24">
         <v>249396</v>
       </c>
-      <c r="O34" s="113"/>
-      <c r="X34" s="108"/>
-      <c r="Y34" s="108"/>
     </row>
     <row r="35" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B35" s="26">
+      <c r="B35" s="24">
         <v>-197816</v>
       </c>
-      <c r="C35" s="26">
+      <c r="C35" s="24">
         <v>211839</v>
       </c>
-      <c r="X35" s="108"/>
-      <c r="Y35" s="108"/>
     </row>
     <row r="36" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B36" s="26">
+      <c r="B36" s="24">
         <v>-160952</v>
       </c>
-      <c r="C36" s="26">
+      <c r="C36" s="24">
         <v>176470</v>
       </c>
-      <c r="O36" s="112"/>
-      <c r="X36" s="108"/>
-      <c r="Y36" s="108"/>
+      <c r="X36" s="17"/>
+      <c r="Y36" s="17"/>
       <c r="Z36" s="9"/>
       <c r="AA36" s="9"/>
       <c r="AB36" s="9"/>
@@ -8391,21 +6555,14 @@
       <c r="A37" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B37" s="26">
+      <c r="B37" s="24">
         <v>-132311</v>
       </c>
-      <c r="C37" s="26">
+      <c r="C37" s="24">
         <v>143351</v>
       </c>
-      <c r="Q37" s="107"/>
-      <c r="R37" s="108"/>
-      <c r="S37" s="109"/>
-      <c r="T37" s="109"/>
-      <c r="U37" s="109"/>
-      <c r="V37" s="108"/>
-      <c r="W37" s="108"/>
-      <c r="X37" s="108"/>
-      <c r="Y37" s="108"/>
+      <c r="X37" s="18"/>
+      <c r="Y37" s="18"/>
       <c r="Z37" s="18"/>
       <c r="AA37" s="18"/>
       <c r="AB37" s="18"/>
@@ -8417,374 +6574,310 @@
       <c r="A38" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B38" s="26">
+      <c r="B38" s="24">
         <v>-110849</v>
       </c>
-      <c r="C38" s="26">
+      <c r="C38" s="24">
         <v>123441</v>
       </c>
-      <c r="Q38" s="117"/>
-      <c r="R38" s="108"/>
-      <c r="S38" s="109"/>
-      <c r="T38" s="109"/>
-      <c r="U38" s="109"/>
-      <c r="V38" s="108"/>
-      <c r="W38" s="108"/>
-      <c r="X38" s="108"/>
-      <c r="Y38" s="108"/>
-      <c r="Z38" s="33"/>
-      <c r="AA38" s="33"/>
-      <c r="AB38" s="33"/>
-      <c r="AC38" s="33"/>
-      <c r="AD38" s="33"/>
-      <c r="AE38" s="33"/>
+      <c r="X38" s="30"/>
+      <c r="Y38" s="30"/>
+      <c r="Z38" s="30"/>
+      <c r="AA38" s="30"/>
+      <c r="AB38" s="30"/>
+      <c r="AC38" s="30"/>
+      <c r="AD38" s="30"/>
+      <c r="AE38" s="30"/>
     </row>
     <row r="39" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B39" s="26">
+      <c r="B39" s="24">
         <v>-89027</v>
       </c>
-      <c r="C39" s="26">
+      <c r="C39" s="24">
         <v>98355</v>
       </c>
-      <c r="Q39" s="107"/>
-      <c r="R39" s="108"/>
-      <c r="S39" s="109"/>
-      <c r="T39" s="109"/>
-      <c r="U39" s="109"/>
-      <c r="V39" s="108"/>
-      <c r="W39" s="108"/>
-      <c r="X39" s="108"/>
-      <c r="Y39" s="108"/>
-      <c r="Z39" s="34"/>
-      <c r="AA39" s="34"/>
-      <c r="AB39" s="34"/>
-      <c r="AC39" s="34"/>
-      <c r="AD39" s="34"/>
-      <c r="AE39" s="34"/>
+      <c r="X39" s="31"/>
+      <c r="Y39" s="31"/>
+      <c r="Z39" s="31"/>
+      <c r="AA39" s="31"/>
+      <c r="AB39" s="31"/>
+      <c r="AC39" s="31"/>
+      <c r="AD39" s="31"/>
+      <c r="AE39" s="31"/>
     </row>
     <row r="40" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B40" s="26">
+      <c r="B40" s="24">
         <v>-70487</v>
       </c>
-      <c r="C40" s="26">
+      <c r="C40" s="24">
         <v>82330</v>
       </c>
-      <c r="Q40" s="107"/>
-      <c r="R40" s="108"/>
-      <c r="S40" s="109"/>
-      <c r="T40" s="109"/>
-      <c r="U40" s="109"/>
-      <c r="V40" s="108"/>
-      <c r="W40" s="108"/>
-      <c r="X40" s="108"/>
-      <c r="Y40" s="108"/>
-      <c r="Z40" s="34"/>
-      <c r="AA40" s="34"/>
-      <c r="AB40" s="34"/>
-      <c r="AC40" s="34"/>
-      <c r="AD40" s="34"/>
-      <c r="AE40" s="34"/>
+      <c r="X40" s="31"/>
+      <c r="Y40" s="31"/>
+      <c r="Z40" s="31"/>
+      <c r="AA40" s="31"/>
+      <c r="AB40" s="31"/>
+      <c r="AC40" s="31"/>
+      <c r="AD40" s="31"/>
+      <c r="AE40" s="31"/>
     </row>
     <row r="41" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="B41" s="60">
+      <c r="B41" s="54">
         <v>-50094.736842105267</v>
       </c>
-      <c r="C41" s="60">
+      <c r="C41" s="54">
         <f>366793/6.36</f>
         <v>57671.85534591195</v>
       </c>
-      <c r="Q41" s="107"/>
-      <c r="R41" s="108"/>
-      <c r="S41" s="109"/>
-      <c r="T41" s="109"/>
-      <c r="U41" s="109"/>
-      <c r="V41" s="108"/>
-      <c r="W41" s="108"/>
-      <c r="X41" s="108"/>
-      <c r="Y41" s="108"/>
-      <c r="Z41" s="34"/>
-      <c r="AA41" s="34"/>
-      <c r="AB41" s="34"/>
-      <c r="AC41" s="34"/>
-      <c r="AD41" s="34"/>
-      <c r="AE41" s="34"/>
+      <c r="X41" s="31"/>
+      <c r="Y41" s="31"/>
+      <c r="Z41" s="31"/>
+      <c r="AA41" s="31"/>
+      <c r="AB41" s="31"/>
+      <c r="AC41" s="31"/>
+      <c r="AD41" s="31"/>
+      <c r="AE41" s="31"/>
     </row>
     <row r="42" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="B42" s="60">
+      <c r="B42" s="54">
         <v>-35803.827751196171</v>
       </c>
-      <c r="C42" s="60">
+      <c r="C42" s="54">
         <f>282911/6.36</f>
         <v>44482.861635220121</v>
       </c>
-      <c r="Q42" s="107"/>
-      <c r="R42" s="108"/>
-      <c r="S42" s="109"/>
-      <c r="T42" s="109"/>
-      <c r="U42" s="109"/>
-      <c r="V42" s="108"/>
-      <c r="W42" s="108"/>
-      <c r="X42" s="108"/>
-      <c r="Y42" s="108"/>
-      <c r="Z42" s="35"/>
-      <c r="AA42" s="35"/>
-      <c r="AB42" s="35"/>
-      <c r="AC42" s="35"/>
-      <c r="AD42" s="35"/>
-      <c r="AE42" s="35"/>
+      <c r="X42" s="32"/>
+      <c r="Y42" s="32"/>
+      <c r="Z42" s="32"/>
+      <c r="AA42" s="32"/>
+      <c r="AB42" s="32"/>
+      <c r="AC42" s="32"/>
+      <c r="AD42" s="32"/>
+      <c r="AE42" s="32"/>
     </row>
     <row r="43" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="B43" s="60">
+      <c r="B43" s="54">
         <v>-24102.551834130783</v>
       </c>
-      <c r="C43" s="60">
+      <c r="C43" s="54">
         <f>215469/6.36</f>
         <v>33878.773584905655</v>
       </c>
-      <c r="Q43" s="107"/>
-      <c r="R43" s="108"/>
-      <c r="S43" s="109"/>
-      <c r="T43" s="109"/>
-      <c r="U43" s="109"/>
-      <c r="V43" s="108"/>
-      <c r="W43" s="108"/>
-      <c r="X43" s="108"/>
-      <c r="Y43" s="108"/>
-      <c r="Z43" s="35"/>
-      <c r="AA43" s="35"/>
-      <c r="AB43" s="35"/>
-      <c r="AC43" s="35"/>
-      <c r="AD43" s="35"/>
-      <c r="AE43" s="35"/>
+      <c r="X43" s="32"/>
+      <c r="Y43" s="32"/>
+      <c r="Z43" s="32"/>
+      <c r="AA43" s="32"/>
+      <c r="AB43" s="32"/>
+      <c r="AC43" s="32"/>
+      <c r="AD43" s="32"/>
+      <c r="AE43" s="32"/>
     </row>
     <row r="44" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="B44" s="60">
+      <c r="B44" s="54">
         <v>-14240.510366826158</v>
       </c>
-      <c r="C44" s="60">
+      <c r="C44" s="54">
         <f>144901/6.36</f>
         <v>22783.176100628931</v>
       </c>
-      <c r="Q44" s="107"/>
-      <c r="R44" s="108"/>
-      <c r="S44" s="109"/>
-      <c r="T44" s="109"/>
-      <c r="U44" s="109"/>
-      <c r="V44" s="108"/>
-      <c r="W44" s="108"/>
-      <c r="X44" s="108"/>
-      <c r="Y44" s="108"/>
-      <c r="Z44" s="35"/>
-      <c r="AA44" s="35"/>
-      <c r="AB44" s="35"/>
-      <c r="AC44" s="35"/>
-      <c r="AD44" s="35"/>
-      <c r="AE44" s="35"/>
+      <c r="X44" s="32"/>
+      <c r="Y44" s="32"/>
+      <c r="Z44" s="32"/>
+      <c r="AA44" s="32"/>
+      <c r="AB44" s="32"/>
+      <c r="AC44" s="32"/>
+      <c r="AD44" s="32"/>
+      <c r="AE44" s="32"/>
     </row>
     <row r="45" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q45" s="107"/>
-      <c r="R45" s="108"/>
-      <c r="S45" s="109"/>
-      <c r="T45" s="109"/>
-      <c r="U45" s="109"/>
-      <c r="V45" s="108"/>
-      <c r="W45" s="108"/>
-      <c r="X45" s="108"/>
-      <c r="Y45" s="108"/>
-      <c r="Z45" s="35"/>
-      <c r="AA45" s="35"/>
-      <c r="AB45" s="35"/>
-      <c r="AC45" s="35"/>
-      <c r="AD45" s="35"/>
-      <c r="AE45" s="35"/>
+      <c r="X45" s="32"/>
+      <c r="Y45" s="32"/>
+      <c r="Z45" s="32"/>
+      <c r="AA45" s="32"/>
+      <c r="AB45" s="32"/>
+      <c r="AC45" s="32"/>
+      <c r="AD45" s="32"/>
+      <c r="AE45" s="32"/>
     </row>
     <row r="46" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q46" s="107"/>
-      <c r="R46" s="108"/>
-      <c r="S46" s="109"/>
-      <c r="T46" s="108"/>
-      <c r="U46" s="109"/>
-      <c r="V46" s="108"/>
-      <c r="W46" s="108"/>
-      <c r="X46" s="108"/>
-      <c r="Y46" s="108"/>
-      <c r="Z46" s="35"/>
-      <c r="AA46" s="35"/>
-      <c r="AB46" s="35"/>
-      <c r="AC46" s="35"/>
-      <c r="AD46" s="35"/>
-      <c r="AE46" s="35"/>
+      <c r="X46" s="32"/>
+      <c r="Y46" s="32"/>
+      <c r="Z46" s="32"/>
+      <c r="AA46" s="32"/>
+      <c r="AB46" s="32"/>
+      <c r="AC46" s="32"/>
+      <c r="AD46" s="32"/>
+      <c r="AE46" s="32"/>
     </row>
     <row r="47" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q47" s="107"/>
-      <c r="R47" s="108"/>
-      <c r="S47" s="108"/>
-      <c r="Z47" s="35"/>
-      <c r="AA47" s="35"/>
-      <c r="AB47" s="35"/>
-      <c r="AC47" s="35"/>
-      <c r="AD47" s="35"/>
-      <c r="AE47" s="35"/>
+      <c r="X47" s="32"/>
+      <c r="Y47" s="32"/>
+      <c r="Z47" s="32"/>
+      <c r="AA47" s="32"/>
+      <c r="AB47" s="32"/>
+      <c r="AC47" s="32"/>
+      <c r="AD47" s="32"/>
+      <c r="AE47" s="32"/>
     </row>
     <row r="48" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="X48" s="35"/>
-      <c r="Y48" s="35"/>
-      <c r="Z48" s="35"/>
-      <c r="AA48" s="35"/>
-      <c r="AB48" s="35"/>
-      <c r="AC48" s="35"/>
-      <c r="AD48" s="35"/>
-      <c r="AE48" s="35"/>
+      <c r="X48" s="32"/>
+      <c r="Y48" s="32"/>
+      <c r="Z48" s="32"/>
+      <c r="AA48" s="32"/>
+      <c r="AB48" s="32"/>
+      <c r="AC48" s="32"/>
+      <c r="AD48" s="32"/>
+      <c r="AE48" s="32"/>
     </row>
     <row r="49" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="X49" s="35"/>
-      <c r="Y49" s="35"/>
-      <c r="Z49" s="35"/>
-      <c r="AA49" s="35"/>
-      <c r="AB49" s="35"/>
-      <c r="AC49" s="35"/>
-      <c r="AD49" s="35"/>
-      <c r="AE49" s="35"/>
+      <c r="X49" s="32"/>
+      <c r="Y49" s="32"/>
+      <c r="Z49" s="32"/>
+      <c r="AA49" s="32"/>
+      <c r="AB49" s="32"/>
+      <c r="AC49" s="32"/>
+      <c r="AD49" s="32"/>
+      <c r="AE49" s="32"/>
     </row>
     <row r="50" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="55" t="s">
+      <c r="A50" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="B50" s="56"/>
-      <c r="C50" s="56"/>
-      <c r="D50" s="56"/>
-      <c r="E50" s="56"/>
-      <c r="F50" s="56"/>
-      <c r="G50" s="56"/>
-      <c r="H50" s="56"/>
-      <c r="I50" s="56"/>
-      <c r="J50" s="56"/>
-      <c r="K50" s="56"/>
-      <c r="L50" s="56"/>
-      <c r="M50" s="56"/>
-      <c r="N50" s="56"/>
-      <c r="O50" s="56"/>
-      <c r="P50" s="56"/>
-      <c r="Q50" s="56"/>
-      <c r="R50" s="56"/>
-      <c r="S50" s="56"/>
-      <c r="T50" s="56"/>
-      <c r="U50" s="56"/>
-      <c r="V50" s="56"/>
-      <c r="W50" s="56"/>
-      <c r="X50" s="35"/>
-      <c r="Y50" s="35"/>
-      <c r="Z50" s="35"/>
-      <c r="AA50" s="35"/>
-      <c r="AB50" s="35"/>
-      <c r="AC50" s="35"/>
-      <c r="AD50" s="35"/>
-      <c r="AE50" s="35"/>
+      <c r="B50" s="50"/>
+      <c r="C50" s="50"/>
+      <c r="D50" s="50"/>
+      <c r="E50" s="50"/>
+      <c r="F50" s="50"/>
+      <c r="G50" s="50"/>
+      <c r="H50" s="50"/>
+      <c r="I50" s="50"/>
+      <c r="J50" s="50"/>
+      <c r="K50" s="50"/>
+      <c r="L50" s="50"/>
+      <c r="M50" s="50"/>
+      <c r="N50" s="50"/>
+      <c r="O50" s="50"/>
+      <c r="P50" s="50"/>
+      <c r="Q50" s="50"/>
+      <c r="R50" s="50"/>
+      <c r="S50" s="50"/>
+      <c r="T50" s="50"/>
+      <c r="U50" s="50"/>
+      <c r="V50" s="50"/>
+      <c r="W50" s="50"/>
+      <c r="X50" s="32"/>
+      <c r="Y50" s="32"/>
+      <c r="Z50" s="32"/>
+      <c r="AA50" s="32"/>
+      <c r="AB50" s="32"/>
+      <c r="AC50" s="32"/>
+      <c r="AD50" s="32"/>
+      <c r="AE50" s="32"/>
     </row>
     <row r="51" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="57" t="s">
+      <c r="A51" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="B51" s="56"/>
-      <c r="C51" s="56"/>
-      <c r="D51" s="56"/>
-      <c r="E51" s="56"/>
-      <c r="F51" s="56"/>
-      <c r="G51" s="56"/>
-      <c r="H51" s="56"/>
-      <c r="I51" s="56"/>
-      <c r="J51" s="56"/>
-      <c r="K51" s="56"/>
-      <c r="L51" s="56"/>
-      <c r="M51" s="56"/>
-      <c r="N51" s="56"/>
-      <c r="O51" s="56"/>
-      <c r="P51" s="56"/>
-      <c r="Q51" s="56"/>
-      <c r="R51" s="56"/>
-      <c r="S51" s="56"/>
-      <c r="T51" s="56"/>
-      <c r="U51" s="56"/>
-      <c r="V51" s="56"/>
-      <c r="W51" s="56"/>
-      <c r="X51" s="35"/>
-      <c r="Y51" s="35"/>
-      <c r="Z51" s="35"/>
-      <c r="AA51" s="35"/>
-      <c r="AB51" s="35"/>
-      <c r="AC51" s="35"/>
-      <c r="AD51" s="35"/>
-      <c r="AE51" s="35"/>
+      <c r="B51" s="50"/>
+      <c r="C51" s="50"/>
+      <c r="D51" s="50"/>
+      <c r="E51" s="50"/>
+      <c r="F51" s="50"/>
+      <c r="G51" s="50"/>
+      <c r="H51" s="50"/>
+      <c r="I51" s="50"/>
+      <c r="J51" s="50"/>
+      <c r="K51" s="50"/>
+      <c r="L51" s="50"/>
+      <c r="M51" s="50"/>
+      <c r="N51" s="50"/>
+      <c r="O51" s="50"/>
+      <c r="P51" s="50"/>
+      <c r="Q51" s="50"/>
+      <c r="R51" s="50"/>
+      <c r="S51" s="50"/>
+      <c r="T51" s="50"/>
+      <c r="U51" s="50"/>
+      <c r="V51" s="50"/>
+      <c r="W51" s="50"/>
+      <c r="X51" s="32"/>
+      <c r="Y51" s="32"/>
+      <c r="Z51" s="32"/>
+      <c r="AA51" s="32"/>
+      <c r="AB51" s="32"/>
+      <c r="AC51" s="32"/>
+      <c r="AD51" s="32"/>
+      <c r="AE51" s="32"/>
     </row>
     <row r="52" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="101" t="s">
+      <c r="A52" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="B52" s="101" t="s">
+      <c r="B52" s="95" t="s">
         <v>67</v>
       </c>
-      <c r="C52" s="101"/>
-      <c r="D52" s="101"/>
-      <c r="E52" s="101" t="s">
+      <c r="C52" s="95"/>
+      <c r="D52" s="95"/>
+      <c r="E52" s="95" t="s">
         <v>68</v>
       </c>
-      <c r="F52" s="101"/>
-      <c r="G52" s="101"/>
-      <c r="X52" s="33"/>
-      <c r="Y52" s="33"/>
-      <c r="Z52" s="33"/>
-      <c r="AA52" s="33"/>
-      <c r="AB52" s="33"/>
-      <c r="AC52" s="33"/>
-      <c r="AD52" s="33"/>
-      <c r="AE52" s="33"/>
+      <c r="F52" s="95"/>
+      <c r="G52" s="95"/>
+      <c r="X52" s="30"/>
+      <c r="Y52" s="30"/>
+      <c r="Z52" s="30"/>
+      <c r="AA52" s="30"/>
+      <c r="AB52" s="30"/>
+      <c r="AC52" s="30"/>
+      <c r="AD52" s="30"/>
+      <c r="AE52" s="30"/>
     </row>
     <row r="53" spans="1:31" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="101"/>
-      <c r="B53" s="51" t="s">
+      <c r="A53" s="95"/>
+      <c r="B53" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="C53" s="51" t="s">
+      <c r="C53" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="D53" s="51" t="s">
+      <c r="D53" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="E53" s="51" t="s">
+      <c r="E53" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="F53" s="51" t="s">
+      <c r="F53" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="G53" s="51" t="s">
+      <c r="G53" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="X53" s="31"/>
-      <c r="Y53" s="31"/>
-      <c r="Z53" s="30"/>
-      <c r="AA53" s="36"/>
-      <c r="AB53" s="36"/>
-      <c r="AC53" s="36"/>
-      <c r="AD53" s="36"/>
-      <c r="AE53" s="36"/>
+      <c r="X53" s="29"/>
+      <c r="Y53" s="29"/>
+      <c r="Z53" s="28"/>
+      <c r="AA53" s="33"/>
+      <c r="AB53" s="33"/>
+      <c r="AC53" s="33"/>
+      <c r="AD53" s="33"/>
+      <c r="AE53" s="33"/>
     </row>
     <row r="54" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
@@ -9077,23 +7170,23 @@
       <c r="A66" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="B66" s="22">
+      <c r="B66" s="27">
         <v>0.85074626865671632</v>
       </c>
-      <c r="C66" s="22">
+      <c r="C66" s="27">
         <f t="shared" si="1"/>
         <v>0.14825373134328401</v>
       </c>
-      <c r="D66" s="22">
+      <c r="D66" s="27">
         <v>1E-3</v>
       </c>
-      <c r="E66" s="22">
+      <c r="E66" s="27">
         <v>0.99568965517241381</v>
       </c>
-      <c r="F66" s="22">
+      <c r="F66" s="27">
         <v>2.8735632183908046E-3</v>
       </c>
-      <c r="G66" s="22">
+      <c r="G66" s="27">
         <v>1.4367816091954023E-3</v>
       </c>
     </row>
@@ -9101,23 +7194,23 @@
       <c r="A67" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="B67" s="22">
+      <c r="B67" s="27">
         <v>0.85074626865671632</v>
       </c>
-      <c r="C67" s="22">
+      <c r="C67" s="27">
         <f t="shared" si="1"/>
         <v>0.14825373134328401</v>
       </c>
-      <c r="D67" s="22">
+      <c r="D67" s="27">
         <v>1E-3</v>
       </c>
-      <c r="E67" s="22">
+      <c r="E67" s="27">
         <v>0.99568965517241381</v>
       </c>
-      <c r="F67" s="22">
+      <c r="F67" s="27">
         <v>2.8735632183908046E-3</v>
       </c>
-      <c r="G67" s="22">
+      <c r="G67" s="27">
         <v>1.4367816091954023E-3</v>
       </c>
     </row>
@@ -9125,23 +7218,23 @@
       <c r="A68" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="B68" s="22">
+      <c r="B68" s="27">
         <v>0.85074626865671632</v>
       </c>
-      <c r="C68" s="22">
+      <c r="C68" s="27">
         <f t="shared" si="1"/>
         <v>0.14825373134328401</v>
       </c>
-      <c r="D68" s="22">
+      <c r="D68" s="27">
         <v>1E-3</v>
       </c>
-      <c r="E68" s="22">
+      <c r="E68" s="27">
         <v>0.99568965517241381</v>
       </c>
-      <c r="F68" s="22">
+      <c r="F68" s="27">
         <v>2.8735632183908046E-3</v>
       </c>
-      <c r="G68" s="22">
+      <c r="G68" s="27">
         <v>1.4367816091954023E-3</v>
       </c>
     </row>
@@ -9149,28 +7242,28 @@
       <c r="A69" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="B69" s="22">
+      <c r="B69" s="27">
         <v>0.85074626865671632</v>
       </c>
-      <c r="C69" s="22">
+      <c r="C69" s="27">
         <f t="shared" si="1"/>
         <v>0.14825373134328401</v>
       </c>
-      <c r="D69" s="22">
+      <c r="D69" s="27">
         <v>1E-3</v>
       </c>
-      <c r="E69" s="22">
+      <c r="E69" s="27">
         <v>0.99568965517241381</v>
       </c>
-      <c r="F69" s="22">
+      <c r="F69" s="27">
         <v>2.8735632183908046E-3</v>
       </c>
-      <c r="G69" s="22">
+      <c r="G69" s="27">
         <v>1.4367816091954023E-3</v>
       </c>
     </row>
     <row r="71" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A71" s="42" t="s">
+      <c r="A71" s="39" t="s">
         <v>60</v>
       </c>
       <c r="B71">
@@ -9199,7 +7292,7 @@
       </c>
     </row>
     <row r="72" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A72" s="42" t="s">
+      <c r="A72" s="39" t="s">
         <v>61</v>
       </c>
       <c r="B72">
@@ -9208,109 +7301,109 @@
       </c>
     </row>
     <row r="78" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="55" t="s">
+      <c r="A78" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="B78" s="56"/>
-      <c r="C78" s="56"/>
-      <c r="D78" s="56"/>
-      <c r="E78" s="56"/>
-      <c r="F78" s="56"/>
-      <c r="G78" s="56"/>
-      <c r="H78" s="56"/>
-      <c r="I78" s="56"/>
-      <c r="J78" s="56"/>
-      <c r="K78" s="56"/>
-      <c r="L78" s="56"/>
-      <c r="M78" s="56"/>
-      <c r="N78" s="56"/>
-      <c r="O78" s="56"/>
-      <c r="P78" s="56"/>
-      <c r="Q78" s="56"/>
-      <c r="R78" s="56"/>
-      <c r="S78" s="56"/>
-      <c r="T78" s="56"/>
-      <c r="U78" s="56"/>
-      <c r="V78" s="56"/>
-      <c r="W78" s="56"/>
-      <c r="X78" s="56"/>
+      <c r="B78" s="50"/>
+      <c r="C78" s="50"/>
+      <c r="D78" s="50"/>
+      <c r="E78" s="50"/>
+      <c r="F78" s="50"/>
+      <c r="G78" s="50"/>
+      <c r="H78" s="50"/>
+      <c r="I78" s="50"/>
+      <c r="J78" s="50"/>
+      <c r="K78" s="50"/>
+      <c r="L78" s="50"/>
+      <c r="M78" s="50"/>
+      <c r="N78" s="50"/>
+      <c r="O78" s="50"/>
+      <c r="P78" s="50"/>
+      <c r="Q78" s="50"/>
+      <c r="R78" s="50"/>
+      <c r="S78" s="50"/>
+      <c r="T78" s="50"/>
+      <c r="U78" s="50"/>
+      <c r="V78" s="50"/>
+      <c r="W78" s="50"/>
+      <c r="X78" s="50"/>
     </row>
     <row r="79" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="57" t="s">
+      <c r="A79" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="B79" s="56"/>
-      <c r="C79" s="56"/>
-      <c r="D79" s="56"/>
-      <c r="E79" s="56"/>
-      <c r="F79" s="56"/>
-      <c r="G79" s="56"/>
-      <c r="H79" s="56"/>
-      <c r="I79" s="56"/>
-      <c r="J79" s="56"/>
-      <c r="K79" s="56"/>
-      <c r="L79" s="56"/>
-      <c r="M79" s="56"/>
-      <c r="N79" s="56"/>
-      <c r="O79" s="56"/>
-      <c r="P79" s="56"/>
-      <c r="Q79" s="56"/>
-      <c r="R79" s="56"/>
-      <c r="S79" s="56"/>
-      <c r="T79" s="56"/>
-      <c r="U79" s="56"/>
-      <c r="V79" s="56"/>
-      <c r="W79" s="56"/>
-      <c r="X79" s="56"/>
+      <c r="B79" s="50"/>
+      <c r="C79" s="50"/>
+      <c r="D79" s="50"/>
+      <c r="E79" s="50"/>
+      <c r="F79" s="50"/>
+      <c r="G79" s="50"/>
+      <c r="H79" s="50"/>
+      <c r="I79" s="50"/>
+      <c r="J79" s="50"/>
+      <c r="K79" s="50"/>
+      <c r="L79" s="50"/>
+      <c r="M79" s="50"/>
+      <c r="N79" s="50"/>
+      <c r="O79" s="50"/>
+      <c r="P79" s="50"/>
+      <c r="Q79" s="50"/>
+      <c r="R79" s="50"/>
+      <c r="S79" s="50"/>
+      <c r="T79" s="50"/>
+      <c r="U79" s="50"/>
+      <c r="V79" s="50"/>
+      <c r="W79" s="50"/>
+      <c r="X79" s="50"/>
     </row>
     <row r="80" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="57" t="s">
+      <c r="A80" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="B80" s="56"/>
-      <c r="C80" s="56"/>
-      <c r="D80" s="56"/>
-      <c r="E80" s="56"/>
-      <c r="F80" s="56"/>
-      <c r="G80" s="56"/>
-      <c r="H80" s="56"/>
-      <c r="I80" s="56"/>
-      <c r="J80" s="56"/>
-      <c r="K80" s="56"/>
-      <c r="L80" s="56"/>
-      <c r="M80" s="56"/>
-      <c r="N80" s="56"/>
-      <c r="O80" s="56"/>
-      <c r="P80" s="56"/>
-      <c r="Q80" s="56"/>
-      <c r="R80" s="56"/>
-      <c r="S80" s="56"/>
-      <c r="T80" s="56"/>
-      <c r="U80" s="56"/>
-      <c r="V80" s="56"/>
-      <c r="W80" s="56"/>
-      <c r="X80" s="56"/>
+      <c r="B80" s="50"/>
+      <c r="C80" s="50"/>
+      <c r="D80" s="50"/>
+      <c r="E80" s="50"/>
+      <c r="F80" s="50"/>
+      <c r="G80" s="50"/>
+      <c r="H80" s="50"/>
+      <c r="I80" s="50"/>
+      <c r="J80" s="50"/>
+      <c r="K80" s="50"/>
+      <c r="L80" s="50"/>
+      <c r="M80" s="50"/>
+      <c r="N80" s="50"/>
+      <c r="O80" s="50"/>
+      <c r="P80" s="50"/>
+      <c r="Q80" s="50"/>
+      <c r="R80" s="50"/>
+      <c r="S80" s="50"/>
+      <c r="T80" s="50"/>
+      <c r="U80" s="50"/>
+      <c r="V80" s="50"/>
+      <c r="W80" s="50"/>
+      <c r="X80" s="50"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="86" t="s">
+      <c r="A81" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="B81" s="98" t="s">
+      <c r="B81" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="C81" s="98" t="s">
+      <c r="C81" s="92" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="87"/>
-      <c r="B82" s="99"/>
-      <c r="C82" s="99"/>
+      <c r="A82" s="81"/>
+      <c r="B82" s="93"/>
+      <c r="C82" s="93"/>
     </row>
     <row r="83" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="88"/>
-      <c r="B83" s="100"/>
-      <c r="C83" s="100"/>
+      <c r="A83" s="82"/>
+      <c r="B83" s="94"/>
+      <c r="C83" s="94"/>
     </row>
     <row r="84" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
@@ -9448,10 +7541,10 @@
       <c r="A96" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="B96" s="27">
+      <c r="B96" s="13">
         <v>2.6650488106048104E-2</v>
       </c>
-      <c r="C96" s="27">
+      <c r="C96" s="13">
         <v>1.5759592316689931E-2</v>
       </c>
     </row>
@@ -9459,10 +7552,10 @@
       <c r="A97" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="B97" s="27">
+      <c r="B97" s="13">
         <v>3.6763608595780588E-2</v>
       </c>
-      <c r="C97" s="27">
+      <c r="C97" s="13">
         <v>2.2837523063216215E-2</v>
       </c>
     </row>
@@ -9470,10 +7563,10 @@
       <c r="A98" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="B98" s="27">
+      <c r="B98" s="13">
         <v>5.1790400883394136E-2</v>
       </c>
-      <c r="C98" s="27">
+      <c r="C98" s="13">
         <v>3.3336893194863555E-2</v>
       </c>
     </row>
@@ -9481,147 +7574,147 @@
       <c r="A99" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="B99" s="27">
+      <c r="B99" s="13">
         <v>8.3577387695122712E-2</v>
       </c>
-      <c r="C99" s="27">
+      <c r="C99" s="13">
         <v>6.1722846856347699E-2</v>
       </c>
     </row>
     <row r="105" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A105" s="55" t="s">
+      <c r="A105" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="B105" s="56"/>
-      <c r="C105" s="56"/>
-      <c r="D105" s="56"/>
-      <c r="E105" s="56"/>
-      <c r="F105" s="56"/>
-      <c r="G105" s="56"/>
-      <c r="H105" s="56"/>
-      <c r="I105" s="56"/>
-      <c r="J105" s="56"/>
-      <c r="K105" s="56"/>
-      <c r="L105" s="56"/>
-      <c r="M105" s="56"/>
-      <c r="N105" s="56"/>
-      <c r="O105" s="56"/>
-      <c r="P105" s="56"/>
-      <c r="Q105" s="56"/>
-      <c r="R105" s="56"/>
-      <c r="S105" s="56"/>
-      <c r="T105" s="56"/>
-      <c r="U105" s="56"/>
-      <c r="V105" s="56"/>
-      <c r="W105" s="56"/>
-      <c r="X105" s="56"/>
+      <c r="B105" s="50"/>
+      <c r="C105" s="50"/>
+      <c r="D105" s="50"/>
+      <c r="E105" s="50"/>
+      <c r="F105" s="50"/>
+      <c r="G105" s="50"/>
+      <c r="H105" s="50"/>
+      <c r="I105" s="50"/>
+      <c r="J105" s="50"/>
+      <c r="K105" s="50"/>
+      <c r="L105" s="50"/>
+      <c r="M105" s="50"/>
+      <c r="N105" s="50"/>
+      <c r="O105" s="50"/>
+      <c r="P105" s="50"/>
+      <c r="Q105" s="50"/>
+      <c r="R105" s="50"/>
+      <c r="S105" s="50"/>
+      <c r="T105" s="50"/>
+      <c r="U105" s="50"/>
+      <c r="V105" s="50"/>
+      <c r="W105" s="50"/>
+      <c r="X105" s="50"/>
     </row>
     <row r="106" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A106" s="57" t="s">
+      <c r="A106" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="B106" s="56"/>
-      <c r="C106" s="56"/>
-      <c r="D106" s="56"/>
-      <c r="E106" s="56"/>
-      <c r="F106" s="56"/>
-      <c r="G106" s="56"/>
-      <c r="H106" s="56"/>
-      <c r="I106" s="56"/>
-      <c r="J106" s="56"/>
-      <c r="K106" s="56"/>
-      <c r="L106" s="56"/>
-      <c r="M106" s="56"/>
-      <c r="N106" s="56"/>
-      <c r="O106" s="56"/>
-      <c r="P106" s="56"/>
-      <c r="Q106" s="56"/>
-      <c r="R106" s="56"/>
-      <c r="S106" s="56"/>
-      <c r="T106" s="56"/>
-      <c r="U106" s="56"/>
-      <c r="V106" s="56"/>
-      <c r="W106" s="56"/>
-      <c r="X106" s="56"/>
+      <c r="B106" s="50"/>
+      <c r="C106" s="50"/>
+      <c r="D106" s="50"/>
+      <c r="E106" s="50"/>
+      <c r="F106" s="50"/>
+      <c r="G106" s="50"/>
+      <c r="H106" s="50"/>
+      <c r="I106" s="50"/>
+      <c r="J106" s="50"/>
+      <c r="K106" s="50"/>
+      <c r="L106" s="50"/>
+      <c r="M106" s="50"/>
+      <c r="N106" s="50"/>
+      <c r="O106" s="50"/>
+      <c r="P106" s="50"/>
+      <c r="Q106" s="50"/>
+      <c r="R106" s="50"/>
+      <c r="S106" s="50"/>
+      <c r="T106" s="50"/>
+      <c r="U106" s="50"/>
+      <c r="V106" s="50"/>
+      <c r="W106" s="50"/>
+      <c r="X106" s="50"/>
     </row>
     <row r="107" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A107" s="57" t="s">
+      <c r="A107" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="B107" s="56"/>
-      <c r="C107" s="56"/>
-      <c r="D107" s="56"/>
-      <c r="E107" s="56"/>
-      <c r="F107" s="56"/>
-      <c r="G107" s="56"/>
-      <c r="H107" s="56"/>
-      <c r="I107" s="56"/>
-      <c r="J107" s="56"/>
-      <c r="K107" s="56"/>
-      <c r="L107" s="56"/>
-      <c r="M107" s="56"/>
-      <c r="N107" s="56"/>
-      <c r="O107" s="56"/>
-      <c r="P107" s="56"/>
-      <c r="Q107" s="56"/>
-      <c r="R107" s="56"/>
-      <c r="S107" s="56"/>
-      <c r="T107" s="56"/>
-      <c r="U107" s="56"/>
-      <c r="V107" s="56"/>
-      <c r="W107" s="56"/>
-      <c r="X107" s="56"/>
+      <c r="B107" s="50"/>
+      <c r="C107" s="50"/>
+      <c r="D107" s="50"/>
+      <c r="E107" s="50"/>
+      <c r="F107" s="50"/>
+      <c r="G107" s="50"/>
+      <c r="H107" s="50"/>
+      <c r="I107" s="50"/>
+      <c r="J107" s="50"/>
+      <c r="K107" s="50"/>
+      <c r="L107" s="50"/>
+      <c r="M107" s="50"/>
+      <c r="N107" s="50"/>
+      <c r="O107" s="50"/>
+      <c r="P107" s="50"/>
+      <c r="Q107" s="50"/>
+      <c r="R107" s="50"/>
+      <c r="S107" s="50"/>
+      <c r="T107" s="50"/>
+      <c r="U107" s="50"/>
+      <c r="V107" s="50"/>
+      <c r="W107" s="50"/>
+      <c r="X107" s="50"/>
     </row>
     <row r="108" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="55" t="s">
-        <v>136</v>
-      </c>
-      <c r="B108" s="56"/>
-      <c r="C108" s="56"/>
-      <c r="D108" s="56"/>
-      <c r="E108" s="56"/>
-      <c r="F108" s="56"/>
-      <c r="G108" s="56"/>
-      <c r="H108" s="56"/>
-      <c r="I108" s="56"/>
-      <c r="J108" s="56"/>
-      <c r="K108" s="56"/>
-      <c r="L108" s="56"/>
-      <c r="M108" s="56"/>
-      <c r="N108" s="56"/>
-      <c r="O108" s="56"/>
-      <c r="P108" s="56"/>
-      <c r="Q108" s="56"/>
-      <c r="R108" s="56"/>
-      <c r="S108" s="56"/>
-      <c r="T108" s="56"/>
-      <c r="U108" s="56"/>
-      <c r="V108" s="56"/>
-      <c r="W108" s="56"/>
-      <c r="X108" s="56"/>
+      <c r="A108" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="B108" s="50"/>
+      <c r="C108" s="50"/>
+      <c r="D108" s="50"/>
+      <c r="E108" s="50"/>
+      <c r="F108" s="50"/>
+      <c r="G108" s="50"/>
+      <c r="H108" s="50"/>
+      <c r="I108" s="50"/>
+      <c r="J108" s="50"/>
+      <c r="K108" s="50"/>
+      <c r="L108" s="50"/>
+      <c r="M108" s="50"/>
+      <c r="N108" s="50"/>
+      <c r="O108" s="50"/>
+      <c r="P108" s="50"/>
+      <c r="Q108" s="50"/>
+      <c r="R108" s="50"/>
+      <c r="S108" s="50"/>
+      <c r="T108" s="50"/>
+      <c r="U108" s="50"/>
+      <c r="V108" s="50"/>
+      <c r="W108" s="50"/>
+      <c r="X108" s="50"/>
     </row>
     <row r="109" spans="1:24" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="86" t="s">
+      <c r="A109" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="B109" s="89" t="s">
-        <v>84</v>
-      </c>
-      <c r="C109" s="90"/>
-      <c r="D109" s="90"/>
-      <c r="E109" s="90"/>
-      <c r="F109" s="90"/>
-      <c r="G109" s="91"/>
+      <c r="B109" s="83" t="s">
+        <v>85</v>
+      </c>
+      <c r="C109" s="84"/>
+      <c r="D109" s="84"/>
+      <c r="E109" s="84"/>
+      <c r="F109" s="84"/>
+      <c r="G109" s="85"/>
     </row>
     <row r="110" spans="1:24" ht="45.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="87"/>
-      <c r="B110" s="50" t="s">
+      <c r="A110" s="81"/>
+      <c r="B110" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="C110" s="50" t="s">
+      <c r="C110" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="D110" s="50" t="s">
+      <c r="D110" s="44" t="s">
         <v>79</v>
       </c>
       <c r="E110" s="5" t="s">
@@ -9635,14 +7728,14 @@
       </c>
     </row>
     <row r="111" spans="1:24" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="88"/>
-      <c r="B111" s="52" t="s">
+      <c r="A111" s="82"/>
+      <c r="B111" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="C111" s="52" t="s">
+      <c r="C111" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="D111" s="52" t="s">
+      <c r="D111" s="46" t="s">
         <v>80</v>
       </c>
       <c r="E111" s="7" t="s">
@@ -9651,7 +7744,7 @@
       <c r="F111" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G111" s="52" t="s">
+      <c r="G111" s="46" t="s">
         <v>82</v>
       </c>
     </row>
@@ -9723,10 +7816,7 @@
       <c r="G114" s="13">
         <v>0</v>
       </c>
-      <c r="H114" s="128" t="s">
-        <v>135</v>
-      </c>
-      <c r="I114" s="74"/>
+      <c r="I114" s="68"/>
       <c r="J114" s="18" t="s">
         <v>33</v>
       </c>
@@ -9765,29 +7855,26 @@
       <c r="G115" s="13">
         <v>5.7974000000000005E-2</v>
       </c>
-      <c r="H115" s="9">
-        <v>0.17499999999999999</v>
-      </c>
       <c r="I115" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="J115" s="73">
+      <c r="J115" s="67">
         <f>C115/$B$115</f>
         <v>1</v>
       </c>
-      <c r="K115" s="73">
+      <c r="K115" s="67">
         <f>D115/$B$115</f>
         <v>1</v>
       </c>
-      <c r="L115" s="73">
+      <c r="L115" s="67">
         <f>E115/$B$115</f>
         <v>0.58000000000000007</v>
       </c>
-      <c r="M115" s="73">
+      <c r="M115" s="67">
         <f>F115/$B$115</f>
         <v>0.58000000000000007</v>
       </c>
-      <c r="N115" s="73">
+      <c r="N115" s="67">
         <f>G115/$B$115</f>
         <v>0.41000000000000003</v>
       </c>
@@ -9814,11 +7901,6 @@
       <c r="G116" s="13">
         <v>0.11398000000000003</v>
       </c>
-      <c r="H116" s="9">
-        <v>0.313</v>
-      </c>
-      <c r="I116" s="36"/>
-      <c r="J116" s="73"/>
     </row>
     <row r="117" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="4" t="s">
@@ -9842,11 +7924,6 @@
       <c r="G117" s="13">
         <v>0.11627600000000002</v>
       </c>
-      <c r="H117" s="9">
-        <v>0.32400000000000001</v>
-      </c>
-      <c r="I117" s="36"/>
-      <c r="J117" s="73"/>
     </row>
     <row r="118" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="4" t="s">
@@ -9870,11 +7947,6 @@
       <c r="G118" s="13">
         <v>8.6592000000000002E-2</v>
       </c>
-      <c r="H118" s="9">
-        <v>0.27100000000000002</v>
-      </c>
-      <c r="I118" s="36"/>
-      <c r="J118" s="73"/>
     </row>
     <row r="119" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="4" t="s">
@@ -9898,11 +7970,6 @@
       <c r="G119" s="13">
         <v>5.5268000000000005E-2</v>
       </c>
-      <c r="H119" s="9">
-        <v>0.20100000000000001</v>
-      </c>
-      <c r="I119" s="36"/>
-      <c r="J119" s="73"/>
     </row>
     <row r="120" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="4" t="s">
@@ -9926,11 +7993,6 @@
       <c r="G120" s="13">
         <v>2.2222000000000002E-2</v>
       </c>
-      <c r="H120" s="9">
-        <v>0.125</v>
-      </c>
-      <c r="I120" s="36"/>
-      <c r="J120" s="73"/>
     </row>
     <row r="121" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="4" t="s">
@@ -9954,11 +8016,6 @@
       <c r="G121" s="13">
         <v>7.2160000000000011E-3</v>
       </c>
-      <c r="H121" s="9">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="I121" s="36"/>
-      <c r="J121" s="73"/>
     </row>
     <row r="122" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="4" t="s">
@@ -10010,22 +8067,22 @@
       <c r="A124" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="B124" s="27">
-        <v>0</v>
-      </c>
-      <c r="C124" s="27">
-        <v>0</v>
-      </c>
-      <c r="D124" s="27">
-        <v>0</v>
-      </c>
-      <c r="E124" s="27">
-        <v>0</v>
-      </c>
-      <c r="F124" s="27">
-        <v>0</v>
-      </c>
-      <c r="G124" s="27">
+      <c r="B124" s="13">
+        <v>0</v>
+      </c>
+      <c r="C124" s="13">
+        <v>0</v>
+      </c>
+      <c r="D124" s="13">
+        <v>0</v>
+      </c>
+      <c r="E124" s="13">
+        <v>0</v>
+      </c>
+      <c r="F124" s="13">
+        <v>0</v>
+      </c>
+      <c r="G124" s="13">
         <v>0</v>
       </c>
     </row>
@@ -10033,22 +8090,22 @@
       <c r="A125" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="B125" s="27">
-        <v>0</v>
-      </c>
-      <c r="C125" s="27">
-        <v>0</v>
-      </c>
-      <c r="D125" s="27">
-        <v>0</v>
-      </c>
-      <c r="E125" s="27">
-        <v>0</v>
-      </c>
-      <c r="F125" s="27">
-        <v>0</v>
-      </c>
-      <c r="G125" s="27">
+      <c r="B125" s="13">
+        <v>0</v>
+      </c>
+      <c r="C125" s="13">
+        <v>0</v>
+      </c>
+      <c r="D125" s="13">
+        <v>0</v>
+      </c>
+      <c r="E125" s="13">
+        <v>0</v>
+      </c>
+      <c r="F125" s="13">
+        <v>0</v>
+      </c>
+      <c r="G125" s="13">
         <v>0</v>
       </c>
     </row>
@@ -10056,22 +8113,22 @@
       <c r="A126" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="B126" s="27">
-        <v>0</v>
-      </c>
-      <c r="C126" s="27">
-        <v>0</v>
-      </c>
-      <c r="D126" s="27">
-        <v>0</v>
-      </c>
-      <c r="E126" s="27">
-        <v>0</v>
-      </c>
-      <c r="F126" s="27">
-        <v>0</v>
-      </c>
-      <c r="G126" s="27">
+      <c r="B126" s="13">
+        <v>0</v>
+      </c>
+      <c r="C126" s="13">
+        <v>0</v>
+      </c>
+      <c r="D126" s="13">
+        <v>0</v>
+      </c>
+      <c r="E126" s="13">
+        <v>0</v>
+      </c>
+      <c r="F126" s="13">
+        <v>0</v>
+      </c>
+      <c r="G126" s="13">
         <v>0</v>
       </c>
     </row>
@@ -10079,22 +8136,22 @@
       <c r="A127" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="B127" s="27">
-        <v>0</v>
-      </c>
-      <c r="C127" s="27">
-        <v>0</v>
-      </c>
-      <c r="D127" s="27">
-        <v>0</v>
-      </c>
-      <c r="E127" s="27">
-        <v>0</v>
-      </c>
-      <c r="F127" s="27">
-        <v>0</v>
-      </c>
-      <c r="G127" s="27">
+      <c r="B127" s="13">
+        <v>0</v>
+      </c>
+      <c r="C127" s="13">
+        <v>0</v>
+      </c>
+      <c r="D127" s="13">
+        <v>0</v>
+      </c>
+      <c r="E127" s="13">
+        <v>0</v>
+      </c>
+      <c r="F127" s="13">
+        <v>0</v>
+      </c>
+      <c r="G127" s="13">
         <v>0</v>
       </c>
     </row>
@@ -10126,57 +8183,57 @@
     </row>
     <row r="129" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="130" spans="1:7" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="92" t="s">
+      <c r="A130" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="B130" s="89" t="s">
+      <c r="B130" s="83" t="s">
+        <v>87</v>
+      </c>
+      <c r="C130" s="84"/>
+      <c r="D130" s="84"/>
+      <c r="E130" s="84"/>
+      <c r="F130" s="84"/>
+      <c r="G130" s="85"/>
+    </row>
+    <row r="131" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="87"/>
+      <c r="B131" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="C130" s="90"/>
-      <c r="D130" s="90"/>
-      <c r="E130" s="90"/>
-      <c r="F130" s="90"/>
-      <c r="G130" s="91"/>
-    </row>
-    <row r="131" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="93"/>
-      <c r="B131" s="37" t="s">
-        <v>85</v>
-      </c>
-      <c r="C131" s="38" t="s">
+      <c r="C131" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="D131" s="38" t="s">
+      <c r="D131" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="E131" s="39" t="s">
+      <c r="E131" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="F131" s="39" t="s">
+      <c r="F131" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="G131" s="40" t="s">
+      <c r="G131" s="37" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="94"/>
-      <c r="B132" s="61" t="s">
+      <c r="A132" s="88"/>
+      <c r="B132" s="55" t="s">
         <v>76</v>
       </c>
-      <c r="C132" s="62" t="s">
+      <c r="C132" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="D132" s="62" t="s">
+      <c r="D132" s="56" t="s">
         <v>80</v>
       </c>
-      <c r="E132" s="41" t="s">
+      <c r="E132" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="F132" s="41" t="s">
+      <c r="F132" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="G132" s="52" t="s">
+      <c r="G132" s="46" t="s">
         <v>82</v>
       </c>
     </row>
@@ -10184,22 +8241,22 @@
       <c r="A133" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B133" s="29">
-        <v>0</v>
-      </c>
-      <c r="C133" s="29">
-        <v>0</v>
-      </c>
-      <c r="D133" s="29">
-        <v>0</v>
-      </c>
-      <c r="E133" s="29">
-        <v>0</v>
-      </c>
-      <c r="F133" s="29">
-        <v>0</v>
-      </c>
-      <c r="G133" s="29">
+      <c r="B133" s="27">
+        <v>0</v>
+      </c>
+      <c r="C133" s="27">
+        <v>0</v>
+      </c>
+      <c r="D133" s="27">
+        <v>0</v>
+      </c>
+      <c r="E133" s="27">
+        <v>0</v>
+      </c>
+      <c r="F133" s="27">
+        <v>0</v>
+      </c>
+      <c r="G133" s="27">
         <v>0</v>
       </c>
     </row>
@@ -10207,22 +8264,22 @@
       <c r="A134" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B134" s="29">
-        <v>0</v>
-      </c>
-      <c r="C134" s="29">
-        <v>0</v>
-      </c>
-      <c r="D134" s="29">
-        <v>0</v>
-      </c>
-      <c r="E134" s="29">
-        <v>0</v>
-      </c>
-      <c r="F134" s="29">
-        <v>0</v>
-      </c>
-      <c r="G134" s="29">
+      <c r="B134" s="27">
+        <v>0</v>
+      </c>
+      <c r="C134" s="27">
+        <v>0</v>
+      </c>
+      <c r="D134" s="27">
+        <v>0</v>
+      </c>
+      <c r="E134" s="27">
+        <v>0</v>
+      </c>
+      <c r="F134" s="27">
+        <v>0</v>
+      </c>
+      <c r="G134" s="27">
         <v>0</v>
       </c>
     </row>
@@ -10230,22 +8287,22 @@
       <c r="A135" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B135" s="29">
-        <v>0</v>
-      </c>
-      <c r="C135" s="29">
-        <v>0</v>
-      </c>
-      <c r="D135" s="29">
-        <v>0</v>
-      </c>
-      <c r="E135" s="29">
-        <v>0</v>
-      </c>
-      <c r="F135" s="29">
-        <v>0</v>
-      </c>
-      <c r="G135" s="29">
+      <c r="B135" s="27">
+        <v>0</v>
+      </c>
+      <c r="C135" s="27">
+        <v>0</v>
+      </c>
+      <c r="D135" s="27">
+        <v>0</v>
+      </c>
+      <c r="E135" s="27">
+        <v>0</v>
+      </c>
+      <c r="F135" s="27">
+        <v>0</v>
+      </c>
+      <c r="G135" s="27">
         <v>0</v>
       </c>
     </row>
@@ -10253,22 +8310,22 @@
       <c r="A136" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B136" s="29">
+      <c r="B136" s="27">
         <v>7.0699999999999999E-2</v>
       </c>
-      <c r="C136" s="29">
+      <c r="C136" s="27">
         <v>7.0699999999999999E-2</v>
       </c>
-      <c r="D136" s="29">
+      <c r="D136" s="27">
         <v>7.0699999999999999E-2</v>
       </c>
-      <c r="E136" s="29">
+      <c r="E136" s="27">
         <v>4.1006000000000008E-2</v>
       </c>
-      <c r="F136" s="29">
+      <c r="F136" s="27">
         <v>4.1006000000000008E-2</v>
       </c>
-      <c r="G136" s="29">
+      <c r="G136" s="27">
         <v>2.8987000000000002E-2</v>
       </c>
     </row>
@@ -10276,22 +8333,22 @@
       <c r="A137" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B137" s="29">
+      <c r="B137" s="27">
         <v>0.13900000000000001</v>
       </c>
-      <c r="C137" s="29">
+      <c r="C137" s="27">
         <v>0.13900000000000001</v>
       </c>
-      <c r="D137" s="29">
+      <c r="D137" s="27">
         <v>0.13900000000000001</v>
       </c>
-      <c r="E137" s="29">
+      <c r="E137" s="27">
         <v>8.0620000000000011E-2</v>
       </c>
-      <c r="F137" s="29">
+      <c r="F137" s="27">
         <v>8.0620000000000011E-2</v>
       </c>
-      <c r="G137" s="29">
+      <c r="G137" s="27">
         <v>5.6990000000000013E-2</v>
       </c>
     </row>
@@ -10299,22 +8356,22 @@
       <c r="A138" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B138" s="29">
+      <c r="B138" s="27">
         <v>0.14180000000000001</v>
       </c>
-      <c r="C138" s="29">
+      <c r="C138" s="27">
         <v>0.14180000000000001</v>
       </c>
-      <c r="D138" s="29">
+      <c r="D138" s="27">
         <v>0.14180000000000001</v>
       </c>
-      <c r="E138" s="29">
+      <c r="E138" s="27">
         <v>8.2244000000000012E-2</v>
       </c>
-      <c r="F138" s="29">
+      <c r="F138" s="27">
         <v>8.2244000000000012E-2</v>
       </c>
-      <c r="G138" s="29">
+      <c r="G138" s="27">
         <v>5.8138000000000009E-2</v>
       </c>
     </row>
@@ -10322,22 +8379,22 @@
       <c r="A139" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B139" s="29">
+      <c r="B139" s="27">
         <v>0.1056</v>
       </c>
-      <c r="C139" s="29">
+      <c r="C139" s="27">
         <v>0.1056</v>
       </c>
-      <c r="D139" s="29">
+      <c r="D139" s="27">
         <v>0.1056</v>
       </c>
-      <c r="E139" s="29">
+      <c r="E139" s="27">
         <v>6.1248000000000004E-2</v>
       </c>
-      <c r="F139" s="29">
+      <c r="F139" s="27">
         <v>6.1248000000000004E-2</v>
       </c>
-      <c r="G139" s="29">
+      <c r="G139" s="27">
         <v>4.3296000000000001E-2</v>
       </c>
     </row>
@@ -10345,22 +8402,22 @@
       <c r="A140" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B140" s="29">
+      <c r="B140" s="27">
         <v>6.7400000000000002E-2</v>
       </c>
-      <c r="C140" s="29">
+      <c r="C140" s="27">
         <v>6.7400000000000002E-2</v>
       </c>
-      <c r="D140" s="29">
+      <c r="D140" s="27">
         <v>6.7400000000000002E-2</v>
       </c>
-      <c r="E140" s="29">
+      <c r="E140" s="27">
         <v>3.9092000000000009E-2</v>
       </c>
-      <c r="F140" s="29">
+      <c r="F140" s="27">
         <v>3.9092000000000009E-2</v>
       </c>
-      <c r="G140" s="29">
+      <c r="G140" s="27">
         <v>2.7634000000000002E-2</v>
       </c>
     </row>
@@ -10368,22 +8425,22 @@
       <c r="A141" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B141" s="29">
+      <c r="B141" s="27">
         <v>2.7100000000000003E-2</v>
       </c>
-      <c r="C141" s="29">
+      <c r="C141" s="27">
         <v>2.7100000000000003E-2</v>
       </c>
-      <c r="D141" s="29">
+      <c r="D141" s="27">
         <v>2.7100000000000003E-2</v>
       </c>
-      <c r="E141" s="29">
+      <c r="E141" s="27">
         <v>1.5718000000000003E-2</v>
       </c>
-      <c r="F141" s="29">
+      <c r="F141" s="27">
         <v>1.5718000000000003E-2</v>
       </c>
-      <c r="G141" s="29">
+      <c r="G141" s="27">
         <v>1.1111000000000001E-2</v>
       </c>
     </row>
@@ -10391,22 +8448,22 @@
       <c r="A142" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B142" s="29">
+      <c r="B142" s="27">
         <v>8.8000000000000005E-3</v>
       </c>
-      <c r="C142" s="29">
+      <c r="C142" s="27">
         <v>8.8000000000000005E-3</v>
       </c>
-      <c r="D142" s="29">
+      <c r="D142" s="27">
         <v>8.8000000000000005E-3</v>
       </c>
-      <c r="E142" s="29">
+      <c r="E142" s="27">
         <v>5.1040000000000009E-3</v>
       </c>
-      <c r="F142" s="29">
+      <c r="F142" s="27">
         <v>5.1040000000000009E-3</v>
       </c>
-      <c r="G142" s="29">
+      <c r="G142" s="27">
         <v>3.6080000000000005E-3</v>
       </c>
     </row>
@@ -10414,22 +8471,22 @@
       <c r="A143" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B143" s="29">
-        <v>0</v>
-      </c>
-      <c r="C143" s="29">
-        <v>0</v>
-      </c>
-      <c r="D143" s="29">
-        <v>0</v>
-      </c>
-      <c r="E143" s="29">
-        <v>0</v>
-      </c>
-      <c r="F143" s="29">
-        <v>0</v>
-      </c>
-      <c r="G143" s="29">
+      <c r="B143" s="27">
+        <v>0</v>
+      </c>
+      <c r="C143" s="27">
+        <v>0</v>
+      </c>
+      <c r="D143" s="27">
+        <v>0</v>
+      </c>
+      <c r="E143" s="27">
+        <v>0</v>
+      </c>
+      <c r="F143" s="27">
+        <v>0</v>
+      </c>
+      <c r="G143" s="27">
         <v>0</v>
       </c>
     </row>
@@ -10437,22 +8494,22 @@
       <c r="A144" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B144" s="29">
-        <v>0</v>
-      </c>
-      <c r="C144" s="29">
-        <v>0</v>
-      </c>
-      <c r="D144" s="29">
-        <v>0</v>
-      </c>
-      <c r="E144" s="29">
-        <v>0</v>
-      </c>
-      <c r="F144" s="29">
-        <v>0</v>
-      </c>
-      <c r="G144" s="29">
+      <c r="B144" s="27">
+        <v>0</v>
+      </c>
+      <c r="C144" s="27">
+        <v>0</v>
+      </c>
+      <c r="D144" s="27">
+        <v>0</v>
+      </c>
+      <c r="E144" s="27">
+        <v>0</v>
+      </c>
+      <c r="F144" s="27">
+        <v>0</v>
+      </c>
+      <c r="G144" s="27">
         <v>0</v>
       </c>
     </row>
@@ -10460,22 +8517,22 @@
       <c r="A145" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="B145" s="32">
-        <v>0</v>
-      </c>
-      <c r="C145" s="32">
-        <v>0</v>
-      </c>
-      <c r="D145" s="32">
-        <v>0</v>
-      </c>
-      <c r="E145" s="32">
-        <v>0</v>
-      </c>
-      <c r="F145" s="32">
-        <v>0</v>
-      </c>
-      <c r="G145" s="32">
+      <c r="B145" s="27">
+        <v>0</v>
+      </c>
+      <c r="C145" s="27">
+        <v>0</v>
+      </c>
+      <c r="D145" s="27">
+        <v>0</v>
+      </c>
+      <c r="E145" s="27">
+        <v>0</v>
+      </c>
+      <c r="F145" s="27">
+        <v>0</v>
+      </c>
+      <c r="G145" s="27">
         <v>0</v>
       </c>
     </row>
@@ -10483,22 +8540,22 @@
       <c r="A146" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="B146" s="32">
-        <v>0</v>
-      </c>
-      <c r="C146" s="32">
-        <v>0</v>
-      </c>
-      <c r="D146" s="32">
-        <v>0</v>
-      </c>
-      <c r="E146" s="32">
-        <v>0</v>
-      </c>
-      <c r="F146" s="32">
-        <v>0</v>
-      </c>
-      <c r="G146" s="32">
+      <c r="B146" s="27">
+        <v>0</v>
+      </c>
+      <c r="C146" s="27">
+        <v>0</v>
+      </c>
+      <c r="D146" s="27">
+        <v>0</v>
+      </c>
+      <c r="E146" s="27">
+        <v>0</v>
+      </c>
+      <c r="F146" s="27">
+        <v>0</v>
+      </c>
+      <c r="G146" s="27">
         <v>0</v>
       </c>
     </row>
@@ -10506,22 +8563,22 @@
       <c r="A147" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="B147" s="32">
-        <v>0</v>
-      </c>
-      <c r="C147" s="32">
-        <v>0</v>
-      </c>
-      <c r="D147" s="32">
-        <v>0</v>
-      </c>
-      <c r="E147" s="32">
-        <v>0</v>
-      </c>
-      <c r="F147" s="32">
-        <v>0</v>
-      </c>
-      <c r="G147" s="32">
+      <c r="B147" s="27">
+        <v>0</v>
+      </c>
+      <c r="C147" s="27">
+        <v>0</v>
+      </c>
+      <c r="D147" s="27">
+        <v>0</v>
+      </c>
+      <c r="E147" s="27">
+        <v>0</v>
+      </c>
+      <c r="F147" s="27">
+        <v>0</v>
+      </c>
+      <c r="G147" s="27">
         <v>0</v>
       </c>
     </row>
@@ -10529,22 +8586,22 @@
       <c r="A148" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="B148" s="32">
-        <v>0</v>
-      </c>
-      <c r="C148" s="32">
-        <v>0</v>
-      </c>
-      <c r="D148" s="32">
-        <v>0</v>
-      </c>
-      <c r="E148" s="32">
-        <v>0</v>
-      </c>
-      <c r="F148" s="32">
-        <v>0</v>
-      </c>
-      <c r="G148" s="32">
+      <c r="B148" s="27">
+        <v>0</v>
+      </c>
+      <c r="C148" s="27">
+        <v>0</v>
+      </c>
+      <c r="D148" s="27">
+        <v>0</v>
+      </c>
+      <c r="E148" s="27">
+        <v>0</v>
+      </c>
+      <c r="F148" s="27">
+        <v>0</v>
+      </c>
+      <c r="G148" s="27">
         <v>0</v>
       </c>
     </row>
@@ -10575,100 +8632,100 @@
       </c>
     </row>
     <row r="155" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A155" s="55" t="s">
-        <v>87</v>
-      </c>
-      <c r="B155" s="56"/>
-      <c r="C155" s="56"/>
-      <c r="D155" s="56"/>
-      <c r="E155" s="56"/>
-      <c r="F155" s="56"/>
-      <c r="G155" s="56"/>
-      <c r="H155" s="56"/>
-      <c r="I155" s="56"/>
-      <c r="J155" s="56"/>
-      <c r="K155" s="56"/>
-      <c r="L155" s="56"/>
-      <c r="M155" s="56"/>
-      <c r="N155" s="56"/>
-      <c r="O155" s="56"/>
-      <c r="P155" s="56"/>
-      <c r="Q155" s="56"/>
-      <c r="R155" s="56"/>
-      <c r="S155" s="56"/>
-      <c r="T155" s="56"/>
-      <c r="U155" s="56"/>
-      <c r="V155" s="56"/>
-      <c r="W155" s="56"/>
+      <c r="A155" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="B155" s="50"/>
+      <c r="C155" s="50"/>
+      <c r="D155" s="50"/>
+      <c r="E155" s="50"/>
+      <c r="F155" s="50"/>
+      <c r="G155" s="50"/>
+      <c r="H155" s="50"/>
+      <c r="I155" s="50"/>
+      <c r="J155" s="50"/>
+      <c r="K155" s="50"/>
+      <c r="L155" s="50"/>
+      <c r="M155" s="50"/>
+      <c r="N155" s="50"/>
+      <c r="O155" s="50"/>
+      <c r="P155" s="50"/>
+      <c r="Q155" s="50"/>
+      <c r="R155" s="50"/>
+      <c r="S155" s="50"/>
+      <c r="T155" s="50"/>
+      <c r="U155" s="50"/>
+      <c r="V155" s="50"/>
+      <c r="W155" s="50"/>
     </row>
     <row r="156" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A156" s="57" t="s">
+      <c r="A156" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="B156" s="56"/>
-      <c r="C156" s="56"/>
-      <c r="D156" s="56"/>
-      <c r="E156" s="56"/>
-      <c r="F156" s="56"/>
-      <c r="G156" s="56"/>
-      <c r="H156" s="56"/>
-      <c r="I156" s="56"/>
-      <c r="J156" s="56"/>
-      <c r="K156" s="56"/>
-      <c r="L156" s="56"/>
-      <c r="M156" s="56"/>
-      <c r="N156" s="56"/>
-      <c r="O156" s="56"/>
-      <c r="P156" s="56"/>
-      <c r="Q156" s="56"/>
-      <c r="R156" s="56"/>
-      <c r="S156" s="56"/>
-      <c r="T156" s="56"/>
-      <c r="U156" s="56"/>
-      <c r="V156" s="56"/>
-      <c r="W156" s="56"/>
+      <c r="B156" s="50"/>
+      <c r="C156" s="50"/>
+      <c r="D156" s="50"/>
+      <c r="E156" s="50"/>
+      <c r="F156" s="50"/>
+      <c r="G156" s="50"/>
+      <c r="H156" s="50"/>
+      <c r="I156" s="50"/>
+      <c r="J156" s="50"/>
+      <c r="K156" s="50"/>
+      <c r="L156" s="50"/>
+      <c r="M156" s="50"/>
+      <c r="N156" s="50"/>
+      <c r="O156" s="50"/>
+      <c r="P156" s="50"/>
+      <c r="Q156" s="50"/>
+      <c r="R156" s="50"/>
+      <c r="S156" s="50"/>
+      <c r="T156" s="50"/>
+      <c r="U156" s="50"/>
+      <c r="V156" s="50"/>
+      <c r="W156" s="50"/>
     </row>
     <row r="157" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="55" t="s">
-        <v>88</v>
-      </c>
-      <c r="B157" s="56"/>
-      <c r="C157" s="56"/>
-      <c r="D157" s="56"/>
-      <c r="E157" s="56"/>
-      <c r="F157" s="56"/>
-      <c r="G157" s="56"/>
-      <c r="H157" s="56"/>
-      <c r="I157" s="56"/>
-      <c r="J157" s="56"/>
-      <c r="K157" s="56"/>
-      <c r="L157" s="56"/>
-      <c r="M157" s="56"/>
-      <c r="N157" s="56"/>
-      <c r="O157" s="56"/>
-      <c r="P157" s="56"/>
-      <c r="Q157" s="56"/>
-      <c r="R157" s="56"/>
-      <c r="S157" s="56"/>
-      <c r="T157" s="56"/>
-      <c r="U157" s="56"/>
-      <c r="V157" s="56"/>
-      <c r="W157" s="56"/>
+      <c r="A157" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="B157" s="50"/>
+      <c r="C157" s="50"/>
+      <c r="D157" s="50"/>
+      <c r="E157" s="50"/>
+      <c r="F157" s="50"/>
+      <c r="G157" s="50"/>
+      <c r="H157" s="50"/>
+      <c r="I157" s="50"/>
+      <c r="J157" s="50"/>
+      <c r="K157" s="50"/>
+      <c r="L157" s="50"/>
+      <c r="M157" s="50"/>
+      <c r="N157" s="50"/>
+      <c r="O157" s="50"/>
+      <c r="P157" s="50"/>
+      <c r="Q157" s="50"/>
+      <c r="R157" s="50"/>
+      <c r="S157" s="50"/>
+      <c r="T157" s="50"/>
+      <c r="U157" s="50"/>
+      <c r="V157" s="50"/>
+      <c r="W157" s="50"/>
     </row>
     <row r="158" spans="1:23" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B158" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="C158" s="81"/>
-      <c r="D158" s="82"/>
-      <c r="E158" s="80" t="s">
+      <c r="B158" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="C158" s="75"/>
+      <c r="D158" s="76"/>
+      <c r="E158" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="F158" s="81"/>
-      <c r="G158" s="82"/>
+      <c r="F158" s="75"/>
+      <c r="G158" s="76"/>
     </row>
     <row r="159" spans="1:23" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="6"/>
@@ -10695,27 +8752,27 @@
       <c r="A160" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B160" s="43">
+      <c r="B160" s="40">
         <f t="shared" ref="B160:G161" si="5">10^-5</f>
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="C160" s="43">
+      <c r="C160" s="40">
         <f t="shared" si="5"/>
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="D160" s="43">
+      <c r="D160" s="40">
         <f t="shared" si="5"/>
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="E160" s="43">
+      <c r="E160" s="40">
         <f>10^-5</f>
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="F160" s="43">
+      <c r="F160" s="40">
         <f t="shared" si="5"/>
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="G160" s="43">
+      <c r="G160" s="40">
         <f t="shared" si="5"/>
         <v>1.0000000000000001E-5</v>
       </c>
@@ -10736,27 +8793,27 @@
       <c r="A161" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B161" s="43">
+      <c r="B161" s="40">
         <f t="shared" si="5"/>
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="C161" s="43">
+      <c r="C161" s="40">
         <f t="shared" si="5"/>
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="D161" s="43">
+      <c r="D161" s="40">
         <f t="shared" si="5"/>
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="E161" s="43">
+      <c r="E161" s="40">
         <f t="shared" si="5"/>
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="F161" s="43">
+      <c r="F161" s="40">
         <f t="shared" si="5"/>
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="G161" s="43">
+      <c r="G161" s="40">
         <f t="shared" si="5"/>
         <v>1.0000000000000001E-5</v>
       </c>
@@ -10777,22 +8834,22 @@
       <c r="A162" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B162" s="43">
+      <c r="B162" s="40">
         <v>1.2E-2</v>
       </c>
-      <c r="C162" s="43">
+      <c r="C162" s="40">
         <v>0.12</v>
       </c>
-      <c r="D162" s="43">
+      <c r="D162" s="40">
         <v>1.2</v>
       </c>
-      <c r="E162" s="43">
+      <c r="E162" s="40">
         <v>1.2E-2</v>
       </c>
-      <c r="F162" s="44">
+      <c r="F162" s="41">
         <v>0.12</v>
       </c>
-      <c r="G162" s="45">
+      <c r="G162" s="42">
         <v>1.2</v>
       </c>
       <c r="J162">
@@ -10820,22 +8877,22 @@
       <c r="A163" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B163" s="43">
+      <c r="B163" s="40">
         <v>0.66369047619047616</v>
       </c>
-      <c r="C163" s="43">
+      <c r="C163" s="40">
         <v>2.553903345724907</v>
       </c>
-      <c r="D163" s="43">
+      <c r="D163" s="40">
         <v>6.9636363636363638</v>
       </c>
-      <c r="E163" s="43">
+      <c r="E163" s="40">
         <v>0.66959798994974873</v>
       </c>
-      <c r="F163" s="44">
+      <c r="F163" s="41">
         <v>2.2142857142857144</v>
       </c>
-      <c r="G163" s="46">
+      <c r="G163" s="43">
         <v>6.5</v>
       </c>
       <c r="J163">
@@ -10863,22 +8920,22 @@
       <c r="A164" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B164" s="43">
+      <c r="B164" s="40">
         <v>0.70326409495548958</v>
       </c>
-      <c r="C164" s="43">
+      <c r="C164" s="40">
         <v>2.5474683544303796</v>
       </c>
-      <c r="D164" s="43">
+      <c r="D164" s="40">
         <v>7.6721311475409832</v>
       </c>
-      <c r="E164" s="43">
+      <c r="E164" s="40">
         <v>0.79487179487179482</v>
       </c>
-      <c r="F164" s="44">
+      <c r="F164" s="41">
         <v>2.25</v>
       </c>
-      <c r="G164" s="46">
+      <c r="G164" s="43">
         <v>10</v>
       </c>
       <c r="J164">
@@ -10906,22 +8963,22 @@
       <c r="A165" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B165" s="43">
+      <c r="B165" s="40">
         <v>0.77027027027027029</v>
       </c>
-      <c r="C165" s="43">
+      <c r="C165" s="40">
         <v>2.564245810055866</v>
       </c>
-      <c r="D165" s="43">
+      <c r="D165" s="40">
         <v>6.9705882352941178</v>
       </c>
-      <c r="E165" s="43">
+      <c r="E165" s="40">
         <v>0.80509304603330067</v>
       </c>
-      <c r="F165" s="44">
+      <c r="F165" s="41">
         <v>2.2666666666666666</v>
       </c>
-      <c r="G165" s="46">
+      <c r="G165" s="43">
         <v>5.333333333333333</v>
       </c>
       <c r="J165">
@@ -10949,22 +9006,22 @@
       <c r="A166" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B166" s="43">
+      <c r="B166" s="40">
         <v>0.7710280373831776</v>
       </c>
-      <c r="C166" s="43">
+      <c r="C166" s="40">
         <v>2.4793388429752068</v>
       </c>
-      <c r="D166" s="43">
+      <c r="D166" s="40">
         <v>5.8421052631578947</v>
       </c>
-      <c r="E166" s="43">
+      <c r="E166" s="40">
         <v>0.75512405609492983</v>
       </c>
-      <c r="F166" s="44">
+      <c r="F166" s="41">
         <v>2.0625</v>
       </c>
-      <c r="G166" s="46">
+      <c r="G166" s="43">
         <v>1</v>
       </c>
       <c r="J166">
@@ -10992,22 +9049,22 @@
       <c r="A167" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B167" s="43">
+      <c r="B167" s="40">
         <v>0.77927927927927931</v>
       </c>
-      <c r="C167" s="43">
+      <c r="C167" s="40">
         <v>2.406779661016949</v>
       </c>
-      <c r="D167" s="43">
+      <c r="D167" s="40">
         <v>6.2222222222222223</v>
       </c>
-      <c r="E167" s="43">
+      <c r="E167" s="40">
         <v>0.75529411764705878</v>
       </c>
-      <c r="F167" s="44">
+      <c r="F167" s="41">
         <v>2.2666666666666666</v>
       </c>
-      <c r="G167" s="46">
+      <c r="G167" s="43">
         <v>9</v>
       </c>
       <c r="J167">
@@ -11035,22 +9092,22 @@
       <c r="A168" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B168" s="43">
+      <c r="B168" s="40">
         <v>0.84188034188034189</v>
       </c>
-      <c r="C168" s="43">
+      <c r="C168" s="40">
         <v>2.4166666666666665</v>
       </c>
-      <c r="D168" s="43">
+      <c r="D168" s="40">
         <v>7.75</v>
       </c>
-      <c r="E168" s="43">
+      <c r="E168" s="40">
         <v>0.68708971553610498</v>
       </c>
-      <c r="F168" s="44">
+      <c r="F168" s="41">
         <v>2.2666666666666666</v>
       </c>
-      <c r="G168" s="46">
+      <c r="G168" s="43">
         <v>1</v>
       </c>
       <c r="J168">
@@ -11078,22 +9135,22 @@
       <c r="A169" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B169" s="43">
+      <c r="B169" s="40">
         <v>0.7192982456140351</v>
       </c>
-      <c r="C169" s="43">
+      <c r="C169" s="40">
         <v>2.3250000000000002</v>
       </c>
-      <c r="D169" s="43">
+      <c r="D169" s="40">
         <v>1</v>
       </c>
-      <c r="E169" s="43">
+      <c r="E169" s="40">
         <v>0.68708971553610498</v>
       </c>
-      <c r="F169" s="44">
+      <c r="F169" s="41">
         <v>2.2666666666666666</v>
       </c>
-      <c r="G169" s="46">
+      <c r="G169" s="43">
         <v>1</v>
       </c>
       <c r="J169">
@@ -11121,22 +9178,22 @@
       <c r="A170" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B170" s="43">
+      <c r="B170" s="40">
         <v>0.7192982456140351</v>
       </c>
-      <c r="C170" s="43">
+      <c r="C170" s="40">
         <v>2.3250000000000002</v>
       </c>
-      <c r="D170" s="43">
+      <c r="D170" s="40">
         <v>1</v>
       </c>
-      <c r="E170" s="43">
+      <c r="E170" s="40">
         <v>0.68708971553610498</v>
       </c>
-      <c r="F170" s="44">
+      <c r="F170" s="41">
         <v>2.2666666666666666</v>
       </c>
-      <c r="G170" s="46">
+      <c r="G170" s="43">
         <v>1</v>
       </c>
       <c r="J170">
@@ -11164,22 +9221,22 @@
       <c r="A171" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B171" s="43">
+      <c r="B171" s="40">
         <v>0.7192982456140351</v>
       </c>
-      <c r="C171" s="43">
+      <c r="C171" s="40">
         <v>2.3250000000000002</v>
       </c>
-      <c r="D171" s="43">
+      <c r="D171" s="40">
         <v>1</v>
       </c>
-      <c r="E171" s="43">
+      <c r="E171" s="40">
         <v>0.68708971553610498</v>
       </c>
-      <c r="F171" s="44">
+      <c r="F171" s="41">
         <v>2.2666666666666666</v>
       </c>
-      <c r="G171" s="46">
+      <c r="G171" s="43">
         <v>1</v>
       </c>
       <c r="J171">
@@ -11207,22 +9264,22 @@
       <c r="A172" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="B172" s="47">
+      <c r="B172" s="40">
         <v>0.7192982456140351</v>
       </c>
-      <c r="C172" s="47">
+      <c r="C172" s="40">
         <v>2.3250000000000002</v>
       </c>
-      <c r="D172" s="47">
+      <c r="D172" s="40">
         <v>1</v>
       </c>
-      <c r="E172" s="47">
+      <c r="E172" s="40">
         <v>0.68708971553610498</v>
       </c>
-      <c r="F172" s="48">
+      <c r="F172" s="41">
         <v>2.2666666666666666</v>
       </c>
-      <c r="G172" s="49">
+      <c r="G172" s="43">
         <v>1</v>
       </c>
       <c r="J172">
@@ -11250,22 +9307,22 @@
       <c r="A173" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="B173" s="47">
+      <c r="B173" s="40">
         <v>0.7192982456140351</v>
       </c>
-      <c r="C173" s="47">
+      <c r="C173" s="40">
         <v>2.3250000000000002</v>
       </c>
-      <c r="D173" s="47">
+      <c r="D173" s="40">
         <v>1</v>
       </c>
-      <c r="E173" s="47">
+      <c r="E173" s="40">
         <v>0.68708971553610498</v>
       </c>
-      <c r="F173" s="48">
+      <c r="F173" s="41">
         <v>2.2666666666666666</v>
       </c>
-      <c r="G173" s="49">
+      <c r="G173" s="43">
         <v>1</v>
       </c>
       <c r="J173">
@@ -11293,22 +9350,22 @@
       <c r="A174" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="B174" s="47">
+      <c r="B174" s="40">
         <v>0.7192982456140351</v>
       </c>
-      <c r="C174" s="47">
+      <c r="C174" s="40">
         <v>2.3250000000000002</v>
       </c>
-      <c r="D174" s="47">
+      <c r="D174" s="40">
         <v>1</v>
       </c>
-      <c r="E174" s="47">
+      <c r="E174" s="40">
         <v>0.68708971553610498</v>
       </c>
-      <c r="F174" s="48">
+      <c r="F174" s="41">
         <v>2.2666666666666666</v>
       </c>
-      <c r="G174" s="49">
+      <c r="G174" s="43">
         <v>1</v>
       </c>
       <c r="J174">
@@ -11336,22 +9393,22 @@
       <c r="A175" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="B175" s="47">
+      <c r="B175" s="40">
         <v>0.7192982456140351</v>
       </c>
-      <c r="C175" s="47">
+      <c r="C175" s="40">
         <v>2.3250000000000002</v>
       </c>
-      <c r="D175" s="47">
+      <c r="D175" s="40">
         <v>1</v>
       </c>
-      <c r="E175" s="47">
+      <c r="E175" s="40">
         <v>0.68708971553610498</v>
       </c>
-      <c r="F175" s="48">
+      <c r="F175" s="41">
         <v>2.2666666666666666</v>
       </c>
-      <c r="G175" s="49">
+      <c r="G175" s="43">
         <v>1</v>
       </c>
       <c r="H175">
@@ -11392,38 +9449,38 @@
       <c r="A180" s="10"/>
     </row>
     <row r="182" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A182" s="55" t="s">
-        <v>90</v>
-      </c>
-      <c r="B182" s="56"/>
-      <c r="C182" s="56"/>
-      <c r="D182" s="56"/>
-      <c r="E182" s="56"/>
-      <c r="F182" s="56"/>
-      <c r="G182" s="56"/>
-      <c r="H182" s="56"/>
-      <c r="I182" s="56"/>
-      <c r="J182" s="56"/>
-      <c r="K182" s="56"/>
-      <c r="L182" s="56"/>
-      <c r="M182" s="56"/>
-      <c r="N182" s="56"/>
-      <c r="O182" s="56"/>
-      <c r="P182" s="56"/>
-      <c r="Q182" s="56"/>
-      <c r="R182" s="56"/>
-      <c r="S182" s="56"/>
-      <c r="T182" s="56"/>
-      <c r="U182" s="56"/>
-      <c r="V182" s="56"/>
-      <c r="W182" s="56"/>
+      <c r="A182" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="B182" s="50"/>
+      <c r="C182" s="50"/>
+      <c r="D182" s="50"/>
+      <c r="E182" s="50"/>
+      <c r="F182" s="50"/>
+      <c r="G182" s="50"/>
+      <c r="H182" s="50"/>
+      <c r="I182" s="50"/>
+      <c r="J182" s="50"/>
+      <c r="K182" s="50"/>
+      <c r="L182" s="50"/>
+      <c r="M182" s="50"/>
+      <c r="N182" s="50"/>
+      <c r="O182" s="50"/>
+      <c r="P182" s="50"/>
+      <c r="Q182" s="50"/>
+      <c r="R182" s="50"/>
+      <c r="S182" s="50"/>
+      <c r="T182" s="50"/>
+      <c r="U182" s="50"/>
+      <c r="V182" s="50"/>
+      <c r="W182" s="50"/>
     </row>
     <row r="183" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="83" t="s">
-        <v>91</v>
-      </c>
-      <c r="B183" s="83"/>
-      <c r="C183" s="83"/>
+      <c r="A183" s="77" t="s">
+        <v>92</v>
+      </c>
+      <c r="B183" s="77"/>
+      <c r="C183" s="77"/>
     </row>
     <row r="184" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
@@ -11440,10 +9497,10 @@
       <c r="A185" s="15">
         <v>1985</v>
       </c>
-      <c r="B185" s="28">
+      <c r="B185" s="26">
         <v>0.3</v>
       </c>
-      <c r="C185" s="28">
+      <c r="C185" s="26">
         <v>0.3</v>
       </c>
     </row>
@@ -11451,10 +9508,10 @@
       <c r="A186" s="15">
         <v>1990</v>
       </c>
-      <c r="B186" s="28">
+      <c r="B186" s="26">
         <v>0.4</v>
       </c>
-      <c r="C186" s="28">
+      <c r="C186" s="26">
         <v>0.4</v>
       </c>
     </row>
@@ -11462,85 +9519,85 @@
       <c r="A187" s="15">
         <v>2000</v>
       </c>
-      <c r="B187" s="28">
+      <c r="B187" s="26">
         <v>0.1</v>
       </c>
-      <c r="C187" s="28">
+      <c r="C187" s="26">
         <v>0.1</v>
       </c>
     </row>
     <row r="194" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A194" s="55" t="s">
-        <v>89</v>
-      </c>
-      <c r="B194" s="56"/>
-      <c r="C194" s="56"/>
-      <c r="D194" s="56"/>
-      <c r="E194" s="56"/>
-      <c r="F194" s="56"/>
-      <c r="G194" s="56"/>
-      <c r="H194" s="56"/>
-      <c r="I194" s="56"/>
-      <c r="J194" s="56"/>
-      <c r="K194" s="56"/>
-      <c r="L194" s="56"/>
-      <c r="M194" s="56"/>
-      <c r="N194" s="56"/>
-      <c r="O194" s="56"/>
-      <c r="P194" s="56"/>
-      <c r="Q194" s="56"/>
-      <c r="R194" s="56"/>
-      <c r="S194" s="56"/>
-      <c r="T194" s="56"/>
-      <c r="U194" s="56"/>
-      <c r="V194" s="56"/>
-      <c r="W194" s="56"/>
-    </row>
-    <row r="195" spans="1:23" s="58" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A195" s="84" t="s">
-        <v>92</v>
-      </c>
-      <c r="B195" s="84"/>
-      <c r="C195" s="84"/>
-      <c r="D195" s="84"/>
-      <c r="E195" s="84"/>
-      <c r="F195" s="84"/>
-    </row>
-    <row r="196" spans="1:23" s="58" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A196" s="85" t="s">
+      <c r="A194" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="B194" s="50"/>
+      <c r="C194" s="50"/>
+      <c r="D194" s="50"/>
+      <c r="E194" s="50"/>
+      <c r="F194" s="50"/>
+      <c r="G194" s="50"/>
+      <c r="H194" s="50"/>
+      <c r="I194" s="50"/>
+      <c r="J194" s="50"/>
+      <c r="K194" s="50"/>
+      <c r="L194" s="50"/>
+      <c r="M194" s="50"/>
+      <c r="N194" s="50"/>
+      <c r="O194" s="50"/>
+      <c r="P194" s="50"/>
+      <c r="Q194" s="50"/>
+      <c r="R194" s="50"/>
+      <c r="S194" s="50"/>
+      <c r="T194" s="50"/>
+      <c r="U194" s="50"/>
+      <c r="V194" s="50"/>
+      <c r="W194" s="50"/>
+    </row>
+    <row r="195" spans="1:23" s="52" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A195" s="78" t="s">
         <v>93</v>
       </c>
-      <c r="B196" s="85"/>
-      <c r="C196" s="85"/>
-      <c r="D196" s="85"/>
-      <c r="E196" s="85"/>
-      <c r="F196" s="85"/>
+      <c r="B195" s="78"/>
+      <c r="C195" s="78"/>
+      <c r="D195" s="78"/>
+      <c r="E195" s="78"/>
+      <c r="F195" s="78"/>
+    </row>
+    <row r="196" spans="1:23" s="52" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A196" s="79" t="s">
+        <v>94</v>
+      </c>
+      <c r="B196" s="79"/>
+      <c r="C196" s="79"/>
+      <c r="D196" s="79"/>
+      <c r="E196" s="79"/>
+      <c r="F196" s="79"/>
     </row>
     <row r="197" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A197" s="77" t="s">
+      <c r="A197" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="B197" s="65"/>
-      <c r="C197" s="65"/>
-      <c r="D197" s="77" t="s">
+      <c r="B197" s="59"/>
+      <c r="C197" s="59"/>
+      <c r="D197" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="E197" s="77"/>
-      <c r="F197" s="77"/>
+      <c r="E197" s="71"/>
+      <c r="F197" s="71"/>
     </row>
     <row r="198" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A198" s="77"/>
-      <c r="B198" s="65"/>
-      <c r="C198" s="66" t="s">
+      <c r="A198" s="71"/>
+      <c r="B198" s="59"/>
+      <c r="C198" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="D198" s="66" t="s">
+      <c r="D198" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="E198" s="66" t="s">
+      <c r="E198" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="F198" s="66" t="s">
+      <c r="F198" s="60" t="s">
         <v>57</v>
       </c>
       <c r="H198">
@@ -11549,18 +9606,18 @@
       </c>
     </row>
     <row r="199" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A199" s="67" t="s">
+      <c r="A199" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="B199" s="65"/>
-      <c r="C199" s="65"/>
-      <c r="D199" s="68">
-        <v>0</v>
-      </c>
-      <c r="E199" s="68">
-        <v>0</v>
-      </c>
-      <c r="F199" s="68">
+      <c r="B199" s="59"/>
+      <c r="C199" s="59"/>
+      <c r="D199" s="62">
+        <v>0</v>
+      </c>
+      <c r="E199" s="62">
+        <v>0</v>
+      </c>
+      <c r="F199" s="62">
         <v>0</v>
       </c>
       <c r="H199">
@@ -11577,18 +9634,18 @@
       </c>
     </row>
     <row r="200" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A200" s="67" t="s">
+      <c r="A200" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="B200" s="65"/>
-      <c r="C200" s="65"/>
-      <c r="D200" s="68">
-        <v>0</v>
-      </c>
-      <c r="E200" s="68">
-        <v>0</v>
-      </c>
-      <c r="F200" s="68">
+      <c r="B200" s="59"/>
+      <c r="C200" s="59"/>
+      <c r="D200" s="62">
+        <v>0</v>
+      </c>
+      <c r="E200" s="62">
+        <v>0</v>
+      </c>
+      <c r="F200" s="62">
         <v>0</v>
       </c>
       <c r="H200">
@@ -11605,22 +9662,22 @@
       </c>
     </row>
     <row r="201" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A201" s="67" t="s">
+      <c r="A201" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="B201" s="65"/>
-      <c r="C201" s="65">
+      <c r="B201" s="59"/>
+      <c r="C201" s="59">
         <v>0.05</v>
       </c>
-      <c r="D201" s="69">
+      <c r="D201" s="63">
         <f>C201*D203</f>
         <v>3.1200000000000006</v>
       </c>
-      <c r="E201" s="69">
+      <c r="E201" s="63">
         <f>E203*$C$201</f>
         <v>1.8719999999999999</v>
       </c>
-      <c r="F201" s="69">
+      <c r="F201" s="63">
         <f>F203*$C$201</f>
         <v>1.1232</v>
       </c>
@@ -11642,22 +9699,22 @@
       </c>
     </row>
     <row r="202" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A202" s="67" t="s">
+      <c r="A202" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="B202" s="65"/>
-      <c r="C202" s="65">
+      <c r="B202" s="59"/>
+      <c r="C202" s="59">
         <v>0.1</v>
       </c>
-      <c r="D202" s="69">
+      <c r="D202" s="63">
         <f>D204*$C$202</f>
         <v>15.600000000000001</v>
       </c>
-      <c r="E202" s="69">
+      <c r="E202" s="63">
         <f>E204*$C$202</f>
         <v>9.36</v>
       </c>
-      <c r="F202" s="69">
+      <c r="F202" s="63">
         <f>F204*$C$202</f>
         <v>5.6159999999999997</v>
       </c>
@@ -11679,24 +9736,24 @@
       </c>
     </row>
     <row r="203" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A203" s="67" t="s">
+      <c r="A203" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="B203" s="70">
+      <c r="B203" s="64">
         <v>1</v>
       </c>
-      <c r="C203" s="65">
+      <c r="C203" s="59">
         <v>0.4</v>
       </c>
-      <c r="D203" s="68">
+      <c r="D203" s="62">
         <f>D204*$C$203</f>
         <v>62.400000000000006</v>
       </c>
-      <c r="E203" s="68">
+      <c r="E203" s="62">
         <f>E204*$C$203</f>
         <v>37.44</v>
       </c>
-      <c r="F203" s="68">
+      <c r="F203" s="62">
         <f>F204*$C$203</f>
         <v>22.463999999999999</v>
       </c>
@@ -11718,22 +9775,22 @@
       </c>
     </row>
     <row r="204" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A204" s="67" t="s">
+      <c r="A204" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="B204" s="70">
+      <c r="B204" s="64">
         <v>5</v>
       </c>
-      <c r="C204" s="71"/>
-      <c r="D204" s="69">
+      <c r="C204" s="65"/>
+      <c r="D204" s="63">
         <f>B238</f>
         <v>156</v>
       </c>
-      <c r="E204" s="69">
+      <c r="E204" s="63">
         <f>C238</f>
         <v>93.6</v>
       </c>
-      <c r="F204" s="69">
+      <c r="F204" s="63">
         <f>D238</f>
         <v>56.16</v>
       </c>
@@ -11755,25 +9812,25 @@
       </c>
     </row>
     <row r="205" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A205" s="67" t="s">
+      <c r="A205" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="B205" s="70">
+      <c r="B205" s="64">
         <v>10</v>
       </c>
-      <c r="C205" s="65">
+      <c r="C205" s="59">
         <f t="shared" ref="C205:C214" si="13">EXP(LN(0.5)*B204/10)</f>
         <v>0.70710678118654757</v>
       </c>
-      <c r="D205" s="69">
+      <c r="D205" s="63">
         <f t="shared" ref="D205:D210" si="14">$D$204*C205</f>
         <v>110.30865786510142</v>
       </c>
-      <c r="E205" s="69">
+      <c r="E205" s="63">
         <f t="shared" ref="E205:E210" si="15">$E$204*C205</f>
         <v>66.185194719060846</v>
       </c>
-      <c r="F205" s="69">
+      <c r="F205" s="63">
         <f t="shared" ref="F205:F210" si="16">$F$204*C205</f>
         <v>39.711116831436506</v>
       </c>
@@ -11793,28 +9850,28 @@
         <f t="shared" si="12"/>
         <v>91.437775604337176</v>
       </c>
-      <c r="M205" s="58"/>
+      <c r="M205" s="52"/>
     </row>
     <row r="206" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A206" s="67" t="s">
+      <c r="A206" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="B206" s="70">
+      <c r="B206" s="64">
         <v>15</v>
       </c>
-      <c r="C206" s="65">
+      <c r="C206" s="59">
         <f t="shared" si="13"/>
         <v>0.5</v>
       </c>
-      <c r="D206" s="69">
+      <c r="D206" s="63">
         <f t="shared" si="14"/>
         <v>78</v>
       </c>
-      <c r="E206" s="69">
+      <c r="E206" s="63">
         <f t="shared" si="15"/>
         <v>46.8</v>
       </c>
-      <c r="F206" s="69">
+      <c r="F206" s="63">
         <f t="shared" si="16"/>
         <v>28.08</v>
       </c>
@@ -11834,30 +9891,30 @@
         <f t="shared" si="12"/>
         <v>70.103172413793089</v>
       </c>
-      <c r="N206" s="58"/>
-      <c r="O206" s="58"/>
-      <c r="P206" s="58"/>
+      <c r="N206" s="52"/>
+      <c r="O206" s="52"/>
+      <c r="P206" s="52"/>
     </row>
     <row r="207" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A207" s="67" t="s">
+      <c r="A207" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="B207" s="70">
+      <c r="B207" s="64">
         <v>20</v>
       </c>
-      <c r="C207" s="65">
+      <c r="C207" s="59">
         <f t="shared" si="13"/>
         <v>0.35355339059327379</v>
       </c>
-      <c r="D207" s="69">
+      <c r="D207" s="63">
         <f t="shared" si="14"/>
         <v>55.154328932550712</v>
       </c>
-      <c r="E207" s="69">
+      <c r="E207" s="63">
         <f t="shared" si="15"/>
         <v>33.092597359530423</v>
       </c>
-      <c r="F207" s="69">
+      <c r="F207" s="63">
         <f t="shared" si="16"/>
         <v>19.855558415718253</v>
       </c>
@@ -11879,25 +9936,25 @@
       </c>
     </row>
     <row r="208" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A208" s="67" t="s">
+      <c r="A208" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="B208" s="70">
+      <c r="B208" s="64">
         <v>25</v>
       </c>
-      <c r="C208" s="65">
+      <c r="C208" s="59">
         <f t="shared" si="13"/>
         <v>0.25</v>
       </c>
-      <c r="D208" s="69">
+      <c r="D208" s="63">
         <f t="shared" si="14"/>
         <v>39</v>
       </c>
-      <c r="E208" s="69">
+      <c r="E208" s="63">
         <f t="shared" si="15"/>
         <v>23.4</v>
       </c>
-      <c r="F208" s="69">
+      <c r="F208" s="63">
         <f t="shared" si="16"/>
         <v>14.04</v>
       </c>
@@ -11919,25 +9976,25 @@
       </c>
     </row>
     <row r="209" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A209" s="67" t="s">
+      <c r="A209" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="B209" s="70">
+      <c r="B209" s="64">
         <v>30</v>
       </c>
-      <c r="C209" s="65">
+      <c r="C209" s="59">
         <f t="shared" si="13"/>
         <v>0.17677669529663689</v>
       </c>
-      <c r="D209" s="69">
+      <c r="D209" s="63">
         <f t="shared" si="14"/>
         <v>27.577164466275356</v>
       </c>
-      <c r="E209" s="69">
+      <c r="E209" s="63">
         <f t="shared" si="15"/>
         <v>16.546298679765211</v>
       </c>
-      <c r="F209" s="69">
+      <c r="F209" s="63">
         <f t="shared" si="16"/>
         <v>9.9277792078591265</v>
       </c>
@@ -11959,25 +10016,25 @@
       </c>
     </row>
     <row r="210" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A210" s="67" t="s">
+      <c r="A210" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="B210" s="70">
+      <c r="B210" s="64">
         <v>35</v>
       </c>
-      <c r="C210" s="65">
+      <c r="C210" s="59">
         <f t="shared" si="13"/>
         <v>0.12500000000000003</v>
       </c>
-      <c r="D210" s="69">
+      <c r="D210" s="63">
         <f t="shared" si="14"/>
         <v>19.500000000000004</v>
       </c>
-      <c r="E210" s="69">
+      <c r="E210" s="63">
         <f t="shared" si="15"/>
         <v>11.700000000000001</v>
       </c>
-      <c r="F210" s="69">
+      <c r="F210" s="63">
         <f t="shared" si="16"/>
         <v>7.0200000000000014</v>
       </c>
@@ -11999,25 +10056,25 @@
       </c>
     </row>
     <row r="211" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A211" s="67" t="s">
+      <c r="A211" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="B211" s="70">
+      <c r="B211" s="64">
         <v>40</v>
       </c>
-      <c r="C211" s="65">
+      <c r="C211" s="59">
         <f>EXP(LN(0.5)*B210/10)</f>
         <v>8.8388347648318447E-2</v>
       </c>
-      <c r="D211" s="69">
+      <c r="D211" s="63">
         <f>$D$204*C211</f>
         <v>13.788582233137678</v>
       </c>
-      <c r="E211" s="69">
+      <c r="E211" s="63">
         <f>$E$204*C211</f>
         <v>8.2731493398826057</v>
       </c>
-      <c r="F211" s="69">
+      <c r="F211" s="63">
         <f>$F$204*C211</f>
         <v>4.9638896039295632</v>
       </c>
@@ -12039,25 +10096,25 @@
       </c>
     </row>
     <row r="212" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A212" s="67" t="s">
+      <c r="A212" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="B212" s="70">
+      <c r="B212" s="64">
         <v>45</v>
       </c>
-      <c r="C212" s="65">
+      <c r="C212" s="59">
         <f t="shared" si="13"/>
         <v>6.25E-2</v>
       </c>
-      <c r="D212" s="69">
+      <c r="D212" s="63">
         <f>$D$204*C212</f>
         <v>9.75</v>
       </c>
-      <c r="E212" s="69">
+      <c r="E212" s="63">
         <f>$E$204*C212</f>
         <v>5.85</v>
       </c>
-      <c r="F212" s="69">
+      <c r="F212" s="63">
         <f>$F$204*C212</f>
         <v>3.51</v>
       </c>
@@ -12079,25 +10136,25 @@
       </c>
     </row>
     <row r="213" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A213" s="67" t="s">
+      <c r="A213" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="B213" s="70">
+      <c r="B213" s="64">
         <v>50</v>
       </c>
-      <c r="C213" s="65">
+      <c r="C213" s="59">
         <f t="shared" si="13"/>
         <v>4.4194173824159223E-2</v>
       </c>
-      <c r="D213" s="69">
+      <c r="D213" s="63">
         <f>$D$204*C213</f>
         <v>6.894291116568839</v>
       </c>
-      <c r="E213" s="69">
+      <c r="E213" s="63">
         <f>$E$204*C213</f>
         <v>4.1365746699413029</v>
       </c>
-      <c r="F213" s="69">
+      <c r="F213" s="63">
         <f>$F$204*C213</f>
         <v>2.4819448019647816</v>
       </c>
@@ -12119,25 +10176,25 @@
       </c>
     </row>
     <row r="214" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A214" s="67" t="s">
+      <c r="A214" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="B214" s="70">
+      <c r="B214" s="64">
         <v>55</v>
       </c>
-      <c r="C214" s="65">
+      <c r="C214" s="59">
         <f t="shared" si="13"/>
         <v>3.125E-2</v>
       </c>
-      <c r="D214" s="69">
+      <c r="D214" s="63">
         <f>$D$204*C214</f>
         <v>4.875</v>
       </c>
-      <c r="E214" s="69">
+      <c r="E214" s="63">
         <f>$E$204*C214</f>
         <v>2.9249999999999998</v>
       </c>
-      <c r="F214" s="69">
+      <c r="F214" s="63">
         <f>$F$204*C214</f>
         <v>1.7549999999999999</v>
       </c>
@@ -12159,12 +10216,12 @@
       </c>
     </row>
     <row r="215" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A215" s="65"/>
-      <c r="B215" s="70"/>
-      <c r="C215" s="65"/>
-      <c r="D215" s="72"/>
-      <c r="E215" s="72"/>
-      <c r="F215" s="72"/>
+      <c r="A215" s="59"/>
+      <c r="B215" s="64"/>
+      <c r="C215" s="59"/>
+      <c r="D215" s="66"/>
+      <c r="E215" s="66"/>
+      <c r="F215" s="66"/>
       <c r="K215">
         <f>AVERAGE(K201:K214)</f>
         <v>36.59889506656333</v>
@@ -12175,465 +10232,465 @@
       </c>
     </row>
     <row r="216" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A216" s="78" t="s">
-        <v>94</v>
-      </c>
-      <c r="B216" s="78"/>
-      <c r="C216" s="78"/>
-      <c r="D216" s="78"/>
-      <c r="E216" s="78"/>
-      <c r="F216" s="78"/>
+      <c r="A216" s="72" t="s">
+        <v>95</v>
+      </c>
+      <c r="B216" s="72"/>
+      <c r="C216" s="72"/>
+      <c r="D216" s="72"/>
+      <c r="E216" s="72"/>
+      <c r="F216" s="72"/>
     </row>
     <row r="217" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A217" s="79" t="s">
+      <c r="A217" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="B217" s="65"/>
-      <c r="C217" s="65"/>
-      <c r="D217" s="77" t="s">
+      <c r="B217" s="59"/>
+      <c r="C217" s="59"/>
+      <c r="D217" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="E217" s="77"/>
-      <c r="F217" s="77"/>
+      <c r="E217" s="71"/>
+      <c r="F217" s="71"/>
     </row>
     <row r="218" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A218" s="79"/>
-      <c r="B218" s="65"/>
-      <c r="C218" s="66" t="s">
+      <c r="A218" s="73"/>
+      <c r="B218" s="59"/>
+      <c r="C218" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="D218" s="66" t="s">
+      <c r="D218" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="E218" s="66" t="s">
+      <c r="E218" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="F218" s="66" t="s">
+      <c r="F218" s="60" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="219" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A219" s="67" t="s">
+      <c r="A219" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="B219" s="65"/>
-      <c r="C219" s="65"/>
-      <c r="D219" s="68">
-        <v>0</v>
-      </c>
-      <c r="E219" s="68">
-        <v>0</v>
-      </c>
-      <c r="F219" s="68">
+      <c r="B219" s="59"/>
+      <c r="C219" s="59"/>
+      <c r="D219" s="62">
+        <v>0</v>
+      </c>
+      <c r="E219" s="62">
+        <v>0</v>
+      </c>
+      <c r="F219" s="62">
         <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A220" s="67" t="s">
+      <c r="A220" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="B220" s="65"/>
-      <c r="C220" s="65"/>
-      <c r="D220" s="68">
-        <v>0</v>
-      </c>
-      <c r="E220" s="68">
-        <v>0</v>
-      </c>
-      <c r="F220" s="68">
+      <c r="B220" s="59"/>
+      <c r="C220" s="59"/>
+      <c r="D220" s="62">
+        <v>0</v>
+      </c>
+      <c r="E220" s="62">
+        <v>0</v>
+      </c>
+      <c r="F220" s="62">
         <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A221" s="67" t="s">
+      <c r="A221" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="B221" s="65"/>
-      <c r="C221" s="65">
+      <c r="B221" s="59"/>
+      <c r="C221" s="59">
         <v>0.05</v>
       </c>
-      <c r="D221" s="68">
+      <c r="D221" s="62">
         <f>$C$221*D224</f>
         <v>7.8000000000000007</v>
       </c>
-      <c r="E221" s="68">
+      <c r="E221" s="62">
         <f>$C$221*E224</f>
         <v>4.68</v>
       </c>
-      <c r="F221" s="68">
+      <c r="F221" s="62">
         <f>$C$221*F224</f>
         <v>2.8079999999999998</v>
       </c>
     </row>
     <row r="222" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A222" s="67" t="s">
+      <c r="A222" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="B222" s="65"/>
-      <c r="C222" s="65">
+      <c r="B222" s="59"/>
+      <c r="C222" s="59">
         <v>0.1</v>
       </c>
-      <c r="D222" s="69">
+      <c r="D222" s="63">
         <f>D224*$C$222</f>
         <v>15.600000000000001</v>
       </c>
-      <c r="E222" s="69">
+      <c r="E222" s="63">
         <f>E224*$C$222</f>
         <v>9.36</v>
       </c>
-      <c r="F222" s="69">
+      <c r="F222" s="63">
         <f>F224*$C$222</f>
         <v>5.6159999999999997</v>
       </c>
     </row>
     <row r="223" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A223" s="67" t="s">
+      <c r="A223" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="B223" s="70">
+      <c r="B223" s="64">
         <v>1</v>
       </c>
-      <c r="C223" s="65">
+      <c r="C223" s="59">
         <v>0.4</v>
       </c>
-      <c r="D223" s="68">
+      <c r="D223" s="62">
         <f>D224*$C$223</f>
         <v>62.400000000000006</v>
       </c>
-      <c r="E223" s="68">
+      <c r="E223" s="62">
         <f>E224*$C$223</f>
         <v>37.44</v>
       </c>
-      <c r="F223" s="68">
+      <c r="F223" s="62">
         <f>F224*$C$223</f>
         <v>22.463999999999999</v>
       </c>
     </row>
     <row r="224" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A224" s="67" t="s">
+      <c r="A224" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="B224" s="70">
+      <c r="B224" s="64">
         <v>5</v>
       </c>
-      <c r="C224" s="71"/>
-      <c r="D224" s="68">
+      <c r="C224" s="65"/>
+      <c r="D224" s="62">
         <f>B239</f>
         <v>156</v>
       </c>
-      <c r="E224" s="68">
+      <c r="E224" s="62">
         <f>C239</f>
         <v>93.6</v>
       </c>
-      <c r="F224" s="68">
+      <c r="F224" s="62">
         <f>D239</f>
         <v>56.16</v>
       </c>
     </row>
     <row r="225" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A225" s="67" t="s">
+      <c r="A225" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="B225" s="70">
+      <c r="B225" s="64">
         <v>10</v>
       </c>
-      <c r="C225" s="65">
+      <c r="C225" s="59">
         <f t="shared" ref="C225:C234" si="17">EXP(LN(0.5)*B224/10)</f>
         <v>0.70710678118654757</v>
       </c>
-      <c r="D225" s="68">
+      <c r="D225" s="62">
         <f>D$224*$C$225</f>
         <v>110.30865786510142</v>
       </c>
-      <c r="E225" s="68">
+      <c r="E225" s="62">
         <f>E$224*$C$225</f>
         <v>66.185194719060846</v>
       </c>
-      <c r="F225" s="68">
+      <c r="F225" s="62">
         <f>F$224*$C$225</f>
         <v>39.711116831436506</v>
       </c>
     </row>
     <row r="226" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A226" s="67" t="s">
+      <c r="A226" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="B226" s="70">
+      <c r="B226" s="64">
         <v>15</v>
       </c>
-      <c r="C226" s="65">
+      <c r="C226" s="59">
         <f t="shared" si="17"/>
         <v>0.5</v>
       </c>
-      <c r="D226" s="68">
+      <c r="D226" s="62">
         <f t="shared" ref="D226:D232" si="18">$D$224*C226</f>
         <v>78</v>
       </c>
-      <c r="E226" s="68">
+      <c r="E226" s="62">
         <f t="shared" ref="E226:E232" si="19">$E$224*C226</f>
         <v>46.8</v>
       </c>
-      <c r="F226" s="68">
+      <c r="F226" s="62">
         <f t="shared" ref="F226:F232" si="20">$F$224*C226</f>
         <v>28.08</v>
       </c>
     </row>
     <row r="227" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A227" s="67" t="s">
+      <c r="A227" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="B227" s="70">
+      <c r="B227" s="64">
         <v>20</v>
       </c>
-      <c r="C227" s="65">
+      <c r="C227" s="59">
         <f t="shared" si="17"/>
         <v>0.35355339059327379</v>
       </c>
-      <c r="D227" s="68">
+      <c r="D227" s="62">
         <f t="shared" si="18"/>
         <v>55.154328932550712</v>
       </c>
-      <c r="E227" s="68">
+      <c r="E227" s="62">
         <f t="shared" si="19"/>
         <v>33.092597359530423</v>
       </c>
-      <c r="F227" s="68">
+      <c r="F227" s="62">
         <f t="shared" si="20"/>
         <v>19.855558415718253</v>
       </c>
     </row>
     <row r="228" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A228" s="67" t="s">
+      <c r="A228" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="B228" s="70">
+      <c r="B228" s="64">
         <v>25</v>
       </c>
-      <c r="C228" s="65">
+      <c r="C228" s="59">
         <f t="shared" si="17"/>
         <v>0.25</v>
       </c>
-      <c r="D228" s="68">
+      <c r="D228" s="62">
         <f t="shared" si="18"/>
         <v>39</v>
       </c>
-      <c r="E228" s="68">
+      <c r="E228" s="62">
         <f t="shared" si="19"/>
         <v>23.4</v>
       </c>
-      <c r="F228" s="68">
+      <c r="F228" s="62">
         <f t="shared" si="20"/>
         <v>14.04</v>
       </c>
     </row>
     <row r="229" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A229" s="67" t="s">
+      <c r="A229" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="B229" s="70">
+      <c r="B229" s="64">
         <v>30</v>
       </c>
-      <c r="C229" s="65">
+      <c r="C229" s="59">
         <f t="shared" si="17"/>
         <v>0.17677669529663689</v>
       </c>
-      <c r="D229" s="68">
+      <c r="D229" s="62">
         <f t="shared" si="18"/>
         <v>27.577164466275356</v>
       </c>
-      <c r="E229" s="68">
+      <c r="E229" s="62">
         <f t="shared" si="19"/>
         <v>16.546298679765211</v>
       </c>
-      <c r="F229" s="68">
+      <c r="F229" s="62">
         <f t="shared" si="20"/>
         <v>9.9277792078591265</v>
       </c>
     </row>
     <row r="230" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A230" s="67" t="s">
+      <c r="A230" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="B230" s="70">
+      <c r="B230" s="64">
         <v>35</v>
       </c>
-      <c r="C230" s="65">
+      <c r="C230" s="59">
         <f t="shared" si="17"/>
         <v>0.12500000000000003</v>
       </c>
-      <c r="D230" s="68">
+      <c r="D230" s="62">
         <f t="shared" si="18"/>
         <v>19.500000000000004</v>
       </c>
-      <c r="E230" s="68">
+      <c r="E230" s="62">
         <f t="shared" si="19"/>
         <v>11.700000000000001</v>
       </c>
-      <c r="F230" s="68">
+      <c r="F230" s="62">
         <f t="shared" si="20"/>
         <v>7.0200000000000014</v>
       </c>
     </row>
     <row r="231" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A231" s="67" t="s">
+      <c r="A231" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="B231" s="70">
+      <c r="B231" s="64">
         <v>40</v>
       </c>
-      <c r="C231" s="65">
+      <c r="C231" s="59">
         <f t="shared" si="17"/>
         <v>8.8388347648318447E-2</v>
       </c>
-      <c r="D231" s="68">
+      <c r="D231" s="62">
         <f t="shared" si="18"/>
         <v>13.788582233137678</v>
       </c>
-      <c r="E231" s="68">
+      <c r="E231" s="62">
         <f t="shared" si="19"/>
         <v>8.2731493398826057</v>
       </c>
-      <c r="F231" s="68">
+      <c r="F231" s="62">
         <f t="shared" si="20"/>
         <v>4.9638896039295632</v>
       </c>
     </row>
     <row r="232" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A232" s="67" t="s">
+      <c r="A232" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="B232" s="70">
+      <c r="B232" s="64">
         <v>45</v>
       </c>
-      <c r="C232" s="65">
+      <c r="C232" s="59">
         <f t="shared" si="17"/>
         <v>6.25E-2</v>
       </c>
-      <c r="D232" s="68">
+      <c r="D232" s="62">
         <f t="shared" si="18"/>
         <v>9.75</v>
       </c>
-      <c r="E232" s="68">
+      <c r="E232" s="62">
         <f t="shared" si="19"/>
         <v>5.85</v>
       </c>
-      <c r="F232" s="68">
+      <c r="F232" s="62">
         <f t="shared" si="20"/>
         <v>3.51</v>
       </c>
     </row>
     <row r="233" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A233" s="67" t="s">
+      <c r="A233" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="B233" s="70">
+      <c r="B233" s="64">
         <v>50</v>
       </c>
-      <c r="C233" s="65">
+      <c r="C233" s="59">
         <f>EXP(LN(0.5)*B232/10)</f>
         <v>4.4194173824159223E-2</v>
       </c>
-      <c r="D233" s="68">
+      <c r="D233" s="62">
         <f>$D$224*C233</f>
         <v>6.894291116568839</v>
       </c>
-      <c r="E233" s="68">
+      <c r="E233" s="62">
         <f>$E$224*C233</f>
         <v>4.1365746699413029</v>
       </c>
-      <c r="F233" s="68">
+      <c r="F233" s="62">
         <f>$F$224*C233</f>
         <v>2.4819448019647816</v>
       </c>
     </row>
     <row r="234" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A234" s="67" t="s">
+      <c r="A234" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="B234" s="70">
+      <c r="B234" s="64">
         <v>55</v>
       </c>
-      <c r="C234" s="65">
+      <c r="C234" s="59">
         <f t="shared" si="17"/>
         <v>3.125E-2</v>
       </c>
-      <c r="D234" s="68">
+      <c r="D234" s="62">
         <f>$D$224*C234</f>
         <v>4.875</v>
       </c>
-      <c r="E234" s="68">
+      <c r="E234" s="62">
         <f>$E$224*C234</f>
         <v>2.9249999999999998</v>
       </c>
-      <c r="F234" s="68">
+      <c r="F234" s="62">
         <f>$F$224*C234</f>
         <v>1.7549999999999999</v>
       </c>
     </row>
     <row r="235" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A235" s="54"/>
-      <c r="B235" s="54"/>
-      <c r="C235" s="64"/>
-      <c r="D235" s="54"/>
-      <c r="E235" s="54"/>
-      <c r="F235" s="54"/>
+      <c r="A235" s="48"/>
+      <c r="B235" s="48"/>
+      <c r="C235" s="58"/>
+      <c r="D235" s="48"/>
+      <c r="E235" s="48"/>
+      <c r="F235" s="48"/>
     </row>
     <row r="236" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A236" s="63" t="s">
-        <v>95</v>
-      </c>
-      <c r="B236" s="58"/>
-      <c r="C236" s="58"/>
-      <c r="D236" s="58"/>
-      <c r="E236" s="54"/>
-      <c r="F236" s="54"/>
+      <c r="A236" s="57" t="s">
+        <v>96</v>
+      </c>
+      <c r="B236" s="52"/>
+      <c r="C236" s="52"/>
+      <c r="D236" s="52"/>
+      <c r="E236" s="48"/>
+      <c r="F236" s="48"/>
     </row>
     <row r="237" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A237" s="75" t="s">
+      <c r="A237" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="B237" s="76" t="s">
+      <c r="B237" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="C237" s="76" t="s">
+      <c r="C237" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="D237" s="76" t="s">
+      <c r="D237" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="E237" s="54"/>
-      <c r="F237" s="54"/>
+      <c r="E237" s="48"/>
+      <c r="F237" s="48"/>
     </row>
     <row r="238" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A238" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B238" s="70">
+      <c r="A238" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B238" s="64">
         <f>52*3</f>
         <v>156</v>
       </c>
-      <c r="C238" s="70">
+      <c r="C238" s="64">
         <f>B238*0.6</f>
         <v>93.6</v>
       </c>
-      <c r="D238" s="70">
+      <c r="D238" s="64">
         <f>C238*0.6</f>
         <v>56.16</v>
       </c>
     </row>
     <row r="239" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A239" s="26" t="s">
+      <c r="A239" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B239" s="70">
+      <c r="B239" s="64">
         <f>52*3</f>
         <v>156</v>
       </c>
-      <c r="C239" s="70">
+      <c r="C239" s="64">
         <f>B239*0.6</f>
         <v>93.6</v>
       </c>
-      <c r="D239" s="70">
+      <c r="D239" s="64">
         <f>C239*0.6</f>
         <v>56.16</v>
       </c>

--- a/Config/Population_data.xlsx
+++ b/Config/Population_data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="99">
   <si>
     <t>Male</t>
   </si>
@@ -418,9 +418,6 @@
     <t>Note: fertility rates changed linearly from 1995 to 2005 so that the model's population growth resembles actual population growth patterns. Fertility rate for 2005 onwards is 1/2 the fertility rate before 1995.</t>
   </si>
   <si>
-    <t>Fertility Rate (per year) before 1995</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">HIV- </t>
     </r>
@@ -433,9 +430,6 @@
       </rPr>
       <t/>
     </r>
-  </si>
-  <si>
-    <t>Fertility Rate (per year) after 2005</t>
   </si>
   <si>
     <r>
@@ -531,6 +525,15 @@
   </si>
   <si>
     <t>Statistics South Africa. Primary tables KwaZulu-Natal: Census '96 and 2001 compared. . (2004). (http://www.statssa.gov.za/census/census_2011/census_products/KZN_Municipal_Report.pdf, page 120)</t>
+  </si>
+  <si>
+    <t>Fertility Rate (per year) before 1990</t>
+  </si>
+  <si>
+    <t>Fertility Rate (per year) by 2010</t>
+  </si>
+  <si>
+    <t>Fertility Rate (per year) by 2020</t>
   </si>
 </sst>
 </file>
@@ -1381,7 +1384,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1539,33 +1542,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="28" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="28" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1599,6 +1582,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1614,7 +1600,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="48">
     <cellStyle name="20% - Accent1" xfId="18" builtinId="30" customBuiltin="1"/>
@@ -6068,45 +6077,46 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AF239"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Q142" sqref="Q142"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.453125" customWidth="1"/>
+    <col min="2" max="2" width="14.453125" customWidth="1"/>
+    <col min="3" max="3" width="13.81640625" customWidth="1"/>
+    <col min="4" max="4" width="13.26953125" customWidth="1"/>
+    <col min="5" max="5" width="16.54296875" customWidth="1"/>
+    <col min="6" max="6" width="16.81640625" customWidth="1"/>
+    <col min="8" max="8" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.81640625" customWidth="1"/>
+    <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.26953125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="25" customWidth="1"/>
-    <col min="16" max="16" width="17.7109375" customWidth="1"/>
-    <col min="17" max="17" width="19.85546875" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.85546875" customWidth="1"/>
-    <col min="21" max="21" width="15.42578125" customWidth="1"/>
-    <col min="22" max="22" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.140625" customWidth="1"/>
-    <col min="26" max="26" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.28515625" customWidth="1"/>
-    <col min="28" max="29" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.85546875" customWidth="1"/>
-    <col min="31" max="31" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.140625" customWidth="1"/>
-    <col min="33" max="33" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="37" max="38" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="15.85546875" customWidth="1"/>
+    <col min="16" max="16" width="17.7265625" customWidth="1"/>
+    <col min="17" max="17" width="19.81640625" customWidth="1"/>
+    <col min="18" max="18" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.81640625" customWidth="1"/>
+    <col min="21" max="21" width="15.453125" customWidth="1"/>
+    <col min="22" max="22" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.1796875" customWidth="1"/>
+    <col min="26" max="26" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.26953125" customWidth="1"/>
+    <col min="28" max="29" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.81640625" customWidth="1"/>
+    <col min="31" max="31" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.1796875" customWidth="1"/>
+    <col min="33" max="33" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="37" max="38" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="15.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="49" t="s">
         <v>63</v>
       </c>
@@ -6135,7 +6145,7 @@
       <c r="X1" s="50"/>
       <c r="Y1" s="50"/>
     </row>
-    <row r="2" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="51" t="s">
         <v>62</v>
       </c>
@@ -6164,9 +6174,9 @@
       <c r="X2" s="50"/>
       <c r="Y2" s="50"/>
     </row>
-    <row r="3" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="51" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B3" s="50"/>
       <c r="C3" s="50"/>
@@ -6193,16 +6203,16 @@
       <c r="X3" s="50"/>
       <c r="Y3" s="50"/>
     </row>
-    <row r="4" spans="1:25" s="52" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" s="52" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="89" t="s">
+      <c r="B4" s="83" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="90"/>
-    </row>
-    <row r="5" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="84"/>
+    </row>
+    <row r="5" spans="1:25" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="53"/>
       <c r="B5" s="47" t="s">
         <v>0</v>
@@ -6211,7 +6221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
@@ -6222,7 +6232,7 @@
         <v>417311</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" ht="33.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
@@ -6233,7 +6243,7 @@
         <v>361594</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4" t="s">
         <v>17</v>
       </c>
@@ -6244,7 +6254,7 @@
         <v>329333</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
         <v>18</v>
       </c>
@@ -6255,7 +6265,7 @@
         <v>296947</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4" t="s">
         <v>19</v>
       </c>
@@ -6266,7 +6276,7 @@
         <v>273204</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4" t="s">
         <v>20</v>
       </c>
@@ -6277,7 +6287,7 @@
         <v>249396</v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4" t="s">
         <v>21</v>
       </c>
@@ -6288,7 +6298,7 @@
         <v>211839</v>
       </c>
     </row>
-    <row r="13" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4" t="s">
         <v>22</v>
       </c>
@@ -6299,7 +6309,7 @@
         <v>176470</v>
       </c>
     </row>
-    <row r="14" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4" t="s">
         <v>24</v>
       </c>
@@ -6310,7 +6320,7 @@
         <v>143351</v>
       </c>
     </row>
-    <row r="15" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4" t="s">
         <v>25</v>
       </c>
@@ -6321,7 +6331,7 @@
         <v>123441</v>
       </c>
     </row>
-    <row r="16" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4" t="s">
         <v>26</v>
       </c>
@@ -6332,7 +6342,7 @@
         <v>98355</v>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="22" t="s">
         <v>27</v>
       </c>
@@ -6343,59 +6353,59 @@
         <v>82330</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A18" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="96">
+      <c r="B18" s="73">
         <f>314094/6.27</f>
         <v>50094.736842105267</v>
       </c>
-      <c r="C18" s="96">
+      <c r="C18" s="73">
         <f>366793/6.36</f>
         <v>57671.85534591195</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A19" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="96">
+      <c r="B19" s="73">
         <f>224490/6.27</f>
         <v>35803.827751196171</v>
       </c>
-      <c r="C19" s="96">
+      <c r="C19" s="73">
         <f>282911/6.36</f>
         <v>44482.861635220121</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A20" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="96">
+      <c r="B20" s="73">
         <f>151123/6.27</f>
         <v>24102.551834130783</v>
       </c>
-      <c r="C20" s="96">
+      <c r="C20" s="73">
         <f>215469/6.36</f>
         <v>33878.773584905655</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A21" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="B21" s="96">
+      <c r="B21" s="73">
         <f>89288/6.27</f>
         <v>14240.510366826158</v>
       </c>
-      <c r="C21" s="96">
+      <c r="C21" s="73">
         <f>144901/6.36</f>
         <v>22783.176100628931</v>
       </c>
     </row>
-    <row r="22" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="24" t="s">
         <v>28</v>
       </c>
@@ -6413,11 +6423,11 @@
       </c>
       <c r="X22" s="17"/>
     </row>
-    <row r="23" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
     </row>
-    <row r="24" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="25" t="s">
         <v>59</v>
       </c>
@@ -6430,19 +6440,19 @@
         <v>6.3660571774707435</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.35">
       <c r="F26" s="39"/>
     </row>
-    <row r="27" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="78" t="s">
+      <c r="B27" s="85" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="91"/>
-    </row>
-    <row r="28" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C27" s="86"/>
+    </row>
+    <row r="28" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A28" s="12"/>
       <c r="B28" s="45" t="s">
         <v>0</v>
@@ -6452,7 +6462,7 @@
       </c>
       <c r="F28" s="20"/>
     </row>
-    <row r="29" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="8" t="s">
         <v>11</v>
       </c>
@@ -6464,7 +6474,7 @@
         <v>417311</v>
       </c>
     </row>
-    <row r="30" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="8" t="s">
         <v>14</v>
       </c>
@@ -6475,7 +6485,7 @@
         <v>361594</v>
       </c>
     </row>
-    <row r="31" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="8" t="s">
         <v>17</v>
       </c>
@@ -6487,7 +6497,7 @@
       </c>
       <c r="L31" s="11"/>
     </row>
-    <row r="32" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" s="8" t="s">
         <v>18</v>
       </c>
@@ -6498,7 +6508,7 @@
         <v>296947</v>
       </c>
     </row>
-    <row r="33" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33" s="8" t="s">
         <v>19</v>
       </c>
@@ -6509,7 +6519,7 @@
         <v>273204</v>
       </c>
     </row>
-    <row r="34" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34" s="8" t="s">
         <v>20</v>
       </c>
@@ -6520,7 +6530,7 @@
         <v>249396</v>
       </c>
     </row>
-    <row r="35" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35" s="8" t="s">
         <v>21</v>
       </c>
@@ -6531,7 +6541,7 @@
         <v>211839</v>
       </c>
     </row>
-    <row r="36" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A36" s="8" t="s">
         <v>22</v>
       </c>
@@ -6551,7 +6561,7 @@
       <c r="AE36" s="9"/>
       <c r="AF36" s="17"/>
     </row>
-    <row r="37" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A37" s="8" t="s">
         <v>24</v>
       </c>
@@ -6570,7 +6580,7 @@
       <c r="AD37" s="18"/>
       <c r="AE37" s="18"/>
     </row>
-    <row r="38" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38" s="8" t="s">
         <v>25</v>
       </c>
@@ -6589,7 +6599,7 @@
       <c r="AD38" s="30"/>
       <c r="AE38" s="30"/>
     </row>
-    <row r="39" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A39" s="8" t="s">
         <v>26</v>
       </c>
@@ -6608,7 +6618,7 @@
       <c r="AD39" s="31"/>
       <c r="AE39" s="31"/>
     </row>
-    <row r="40" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A40" s="8" t="s">
         <v>27</v>
       </c>
@@ -6627,7 +6637,7 @@
       <c r="AD40" s="31"/>
       <c r="AE40" s="31"/>
     </row>
-    <row r="41" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A41" s="21" t="s">
         <v>49</v>
       </c>
@@ -6647,7 +6657,7 @@
       <c r="AD41" s="31"/>
       <c r="AE41" s="31"/>
     </row>
-    <row r="42" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A42" s="21" t="s">
         <v>50</v>
       </c>
@@ -6667,7 +6677,7 @@
       <c r="AD42" s="32"/>
       <c r="AE42" s="32"/>
     </row>
-    <row r="43" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="21" t="s">
         <v>51</v>
       </c>
@@ -6687,7 +6697,7 @@
       <c r="AD43" s="32"/>
       <c r="AE43" s="32"/>
     </row>
-    <row r="44" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A44" s="21" t="s">
         <v>52</v>
       </c>
@@ -6707,7 +6717,7 @@
       <c r="AD44" s="32"/>
       <c r="AE44" s="32"/>
     </row>
-    <row r="45" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="X45" s="32"/>
       <c r="Y45" s="32"/>
       <c r="Z45" s="32"/>
@@ -6717,7 +6727,7 @@
       <c r="AD45" s="32"/>
       <c r="AE45" s="32"/>
     </row>
-    <row r="46" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="X46" s="32"/>
       <c r="Y46" s="32"/>
       <c r="Z46" s="32"/>
@@ -6727,7 +6737,7 @@
       <c r="AD46" s="32"/>
       <c r="AE46" s="32"/>
     </row>
-    <row r="47" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="X47" s="32"/>
       <c r="Y47" s="32"/>
       <c r="Z47" s="32"/>
@@ -6737,7 +6747,7 @@
       <c r="AD47" s="32"/>
       <c r="AE47" s="32"/>
     </row>
-    <row r="48" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="X48" s="32"/>
       <c r="Y48" s="32"/>
       <c r="Z48" s="32"/>
@@ -6747,7 +6757,7 @@
       <c r="AD48" s="32"/>
       <c r="AE48" s="32"/>
     </row>
-    <row r="49" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
       <c r="X49" s="32"/>
       <c r="Y49" s="32"/>
       <c r="Z49" s="32"/>
@@ -6757,7 +6767,7 @@
       <c r="AD49" s="32"/>
       <c r="AE49" s="32"/>
     </row>
-    <row r="50" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A50" s="49" t="s">
         <v>66</v>
       </c>
@@ -6792,7 +6802,7 @@
       <c r="AD50" s="32"/>
       <c r="AE50" s="32"/>
     </row>
-    <row r="51" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A51" s="51" t="s">
         <v>69</v>
       </c>
@@ -6827,20 +6837,20 @@
       <c r="AD51" s="32"/>
       <c r="AE51" s="32"/>
     </row>
-    <row r="52" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="95" t="s">
+    <row r="52" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A52" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="B52" s="95" t="s">
+      <c r="B52" s="90" t="s">
         <v>67</v>
       </c>
-      <c r="C52" s="95"/>
-      <c r="D52" s="95"/>
-      <c r="E52" s="95" t="s">
+      <c r="C52" s="90"/>
+      <c r="D52" s="90"/>
+      <c r="E52" s="90" t="s">
         <v>68</v>
       </c>
-      <c r="F52" s="95"/>
-      <c r="G52" s="95"/>
+      <c r="F52" s="90"/>
+      <c r="G52" s="90"/>
       <c r="X52" s="30"/>
       <c r="Y52" s="30"/>
       <c r="Z52" s="30"/>
@@ -6850,8 +6860,8 @@
       <c r="AD52" s="30"/>
       <c r="AE52" s="30"/>
     </row>
-    <row r="53" spans="1:31" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="95"/>
+    <row r="53" spans="1:31" ht="30" x14ac:dyDescent="0.35">
+      <c r="A53" s="90"/>
       <c r="B53" s="45" t="s">
         <v>6</v>
       </c>
@@ -6879,7 +6889,7 @@
       <c r="AD53" s="33"/>
       <c r="AE53" s="33"/>
     </row>
-    <row r="54" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A54" s="8" t="s">
         <v>11</v>
       </c>
@@ -6903,7 +6913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A55" s="8" t="s">
         <v>14</v>
       </c>
@@ -6927,7 +6937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A56" s="8" t="s">
         <v>17</v>
       </c>
@@ -6952,7 +6962,7 @@
         <v>5.0000000000000183E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A57" s="8" t="s">
         <v>18</v>
       </c>
@@ -6975,7 +6985,7 @@
         <v>2.4213075060532689E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A58" s="8" t="s">
         <v>19</v>
       </c>
@@ -6998,7 +7008,7 @@
         <v>1.6393442622950817E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:31" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="8" t="s">
         <v>20</v>
       </c>
@@ -7022,7 +7032,7 @@
       </c>
       <c r="O59" s="16"/>
     </row>
-    <row r="60" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A60" s="8" t="s">
         <v>23</v>
       </c>
@@ -7046,7 +7056,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A61" s="8" t="s">
         <v>22</v>
       </c>
@@ -7069,7 +7079,7 @@
         <v>1.1547344110854503E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A62" s="8" t="s">
         <v>24</v>
       </c>
@@ -7094,7 +7104,7 @@
         <v>9.9999999999988987E-5</v>
       </c>
     </row>
-    <row r="63" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A63" s="8" t="s">
         <v>25</v>
       </c>
@@ -7118,7 +7128,7 @@
         <v>1.4367816091954023E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A64" s="8" t="s">
         <v>26</v>
       </c>
@@ -7142,7 +7152,7 @@
         <v>1.4367816091954023E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A65" s="8" t="s">
         <v>27</v>
       </c>
@@ -7166,7 +7176,7 @@
         <v>1.4367816091954023E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A66" s="21" t="s">
         <v>49</v>
       </c>
@@ -7190,7 +7200,7 @@
         <v>1.4367816091954023E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A67" s="21" t="s">
         <v>50</v>
       </c>
@@ -7214,7 +7224,7 @@
         <v>1.4367816091954023E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A68" s="21" t="s">
         <v>51</v>
       </c>
@@ -7238,7 +7248,7 @@
         <v>1.4367816091954023E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A69" s="21" t="s">
         <v>52</v>
       </c>
@@ -7262,7 +7272,7 @@
         <v>1.4367816091954023E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A71" s="39" t="s">
         <v>60</v>
       </c>
@@ -7291,7 +7301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A72" s="39" t="s">
         <v>61</v>
       </c>
@@ -7300,7 +7310,7 @@
         <v>0.83084071366534329</v>
       </c>
     </row>
-    <row r="78" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A78" s="49" t="s">
         <v>70</v>
       </c>
@@ -7328,7 +7338,7 @@
       <c r="W78" s="50"/>
       <c r="X78" s="50"/>
     </row>
-    <row r="79" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A79" s="51" t="s">
         <v>71</v>
       </c>
@@ -7356,7 +7366,7 @@
       <c r="W79" s="50"/>
       <c r="X79" s="50"/>
     </row>
-    <row r="80" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A80" s="51" t="s">
         <v>72</v>
       </c>
@@ -7384,28 +7394,28 @@
       <c r="W80" s="50"/>
       <c r="X80" s="50"/>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="80" t="s">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A81" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="B81" s="92" t="s">
+      <c r="B81" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="C81" s="92" t="s">
+      <c r="C81" s="87" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="81"/>
-      <c r="B82" s="93"/>
-      <c r="C82" s="93"/>
-    </row>
-    <row r="83" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="82"/>
-      <c r="B83" s="94"/>
-      <c r="C83" s="94"/>
-    </row>
-    <row r="84" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A82" s="75"/>
+      <c r="B82" s="88"/>
+      <c r="C82" s="88"/>
+    </row>
+    <row r="83" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A83" s="76"/>
+      <c r="B83" s="89"/>
+      <c r="C83" s="89"/>
+    </row>
+    <row r="84" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A84" s="4" t="s">
         <v>11</v>
       </c>
@@ -7416,7 +7426,7 @@
         <v>8.8057230624727749E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A85" s="4" t="s">
         <v>14</v>
       </c>
@@ -7427,7 +7437,7 @@
         <v>5.2457282047517039E-4</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A86" s="4" t="s">
         <v>17</v>
       </c>
@@ -7438,7 +7448,7 @@
         <v>4.8877879149405545E-4</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A87" s="4" t="s">
         <v>18</v>
       </c>
@@ -7449,7 +7459,7 @@
         <v>9.035280767087482E-4</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A88" s="4" t="s">
         <v>19</v>
       </c>
@@ -7460,7 +7470,7 @@
         <v>1.6915946235478447E-3</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A89" s="4" t="s">
         <v>20</v>
       </c>
@@ -7471,7 +7481,7 @@
         <v>2.0719480819543991E-3</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="4" t="s">
         <v>23</v>
       </c>
@@ -7482,7 +7492,7 @@
         <v>2.4601074470881829E-3</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A91" s="4" t="s">
         <v>22</v>
       </c>
@@ -7493,7 +7503,7 @@
         <v>2.9925533571735037E-3</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A92" s="4" t="s">
         <v>24</v>
       </c>
@@ -7504,7 +7514,7 @@
         <v>3.9413474052092329E-3</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A93" s="4" t="s">
         <v>25</v>
       </c>
@@ -7515,7 +7525,7 @@
         <v>5.3575989334735206E-3</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A94" s="4" t="s">
         <v>26</v>
       </c>
@@ -7526,7 +7536,7 @@
         <v>7.5410818923787939E-3</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A95" s="4" t="s">
         <v>27</v>
       </c>
@@ -7537,7 +7547,7 @@
         <v>1.0540154917424747E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="21" t="s">
         <v>49</v>
       </c>
@@ -7548,7 +7558,7 @@
         <v>1.5759592316689931E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A97" s="21" t="s">
         <v>50</v>
       </c>
@@ -7559,7 +7569,7 @@
         <v>2.2837523063216215E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98" s="21" t="s">
         <v>51</v>
       </c>
@@ -7570,7 +7580,7 @@
         <v>3.3336893194863555E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="21" t="s">
         <v>52</v>
       </c>
@@ -7581,7 +7591,17 @@
         <v>6.1722846856347699E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="B100">
+        <f>5*SUM(B84:B99)</f>
+        <v>1.4052970667115117</v>
+      </c>
+      <c r="C100">
+        <f>5*SUM(C84:C99)</f>
+        <v>0.90487922420259181</v>
+      </c>
+    </row>
+    <row r="105" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A105" s="49" t="s">
         <v>73</v>
       </c>
@@ -7609,7 +7629,7 @@
       <c r="W105" s="50"/>
       <c r="X105" s="50"/>
     </row>
-    <row r="106" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A106" s="51" t="s">
         <v>74</v>
       </c>
@@ -7637,7 +7657,7 @@
       <c r="W106" s="50"/>
       <c r="X106" s="50"/>
     </row>
-    <row r="107" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A107" s="51" t="s">
         <v>75</v>
       </c>
@@ -7665,7 +7685,7 @@
       <c r="W107" s="50"/>
       <c r="X107" s="50"/>
     </row>
-    <row r="108" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A108" s="49" t="s">
         <v>84</v>
       </c>
@@ -7693,21 +7713,21 @@
       <c r="W108" s="50"/>
       <c r="X108" s="50"/>
     </row>
-    <row r="109" spans="1:24" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="80" t="s">
+    <row r="109" spans="1:24" ht="15.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A109" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="B109" s="83" t="s">
-        <v>85</v>
-      </c>
-      <c r="C109" s="84"/>
-      <c r="D109" s="84"/>
-      <c r="E109" s="84"/>
-      <c r="F109" s="84"/>
-      <c r="G109" s="85"/>
-    </row>
-    <row r="110" spans="1:24" ht="45.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="81"/>
+      <c r="B109" s="77" t="s">
+        <v>96</v>
+      </c>
+      <c r="C109" s="78"/>
+      <c r="D109" s="78"/>
+      <c r="E109" s="78"/>
+      <c r="F109" s="78"/>
+      <c r="G109" s="79"/>
+    </row>
+    <row r="110" spans="1:24" ht="46" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="75"/>
       <c r="B110" s="44" t="s">
         <v>83</v>
       </c>
@@ -7727,8 +7747,8 @@
         <v>81</v>
       </c>
     </row>
-    <row r="111" spans="1:24" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="82"/>
+    <row r="111" spans="1:24" ht="47" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A111" s="76"/>
       <c r="B111" s="46" t="s">
         <v>76</v>
       </c>
@@ -7748,7 +7768,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="112" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A112" s="4" t="s">
         <v>11</v>
       </c>
@@ -7771,7 +7791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A113" s="4" t="s">
         <v>14</v>
       </c>
@@ -7794,7 +7814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A114" s="4" t="s">
         <v>17</v>
       </c>
@@ -7833,7 +7853,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="115" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A115" s="4" t="s">
         <v>18</v>
       </c>
@@ -7879,7 +7899,7 @@
         <v>0.41000000000000003</v>
       </c>
     </row>
-    <row r="116" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A116" s="4" t="s">
         <v>19</v>
       </c>
@@ -7902,7 +7922,7 @@
         <v>0.11398000000000003</v>
       </c>
     </row>
-    <row r="117" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A117" s="4" t="s">
         <v>20</v>
       </c>
@@ -7925,7 +7945,7 @@
         <v>0.11627600000000002</v>
       </c>
     </row>
-    <row r="118" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A118" s="4" t="s">
         <v>23</v>
       </c>
@@ -7948,7 +7968,7 @@
         <v>8.6592000000000002E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A119" s="4" t="s">
         <v>22</v>
       </c>
@@ -7971,7 +7991,7 @@
         <v>5.5268000000000005E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A120" s="4" t="s">
         <v>24</v>
       </c>
@@ -7994,7 +8014,7 @@
         <v>2.2222000000000002E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A121" s="4" t="s">
         <v>25</v>
       </c>
@@ -8017,7 +8037,7 @@
         <v>7.2160000000000011E-3</v>
       </c>
     </row>
-    <row r="122" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A122" s="4" t="s">
         <v>26</v>
       </c>
@@ -8040,7 +8060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A123" s="4" t="s">
         <v>27</v>
       </c>
@@ -8063,7 +8083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A124" s="21" t="s">
         <v>49</v>
       </c>
@@ -8086,7 +8106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A125" s="21" t="s">
         <v>50</v>
       </c>
@@ -8109,7 +8129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A126" s="21" t="s">
         <v>51</v>
       </c>
@@ -8132,7 +8152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A127" s="21" t="s">
         <v>52</v>
       </c>
@@ -8155,7 +8175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B128">
         <f t="shared" ref="B128:G128" si="3">5*SUM(B115:B121)</f>
         <v>5.604000000000001</v>
@@ -8181,24 +8201,35 @@
         <v>2.2976400000000003</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="130" spans="1:7" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="86" t="s">
+    <row r="129" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="130" spans="1:15" ht="15.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A130" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="B130" s="83" t="s">
-        <v>87</v>
-      </c>
-      <c r="C130" s="84"/>
-      <c r="D130" s="84"/>
-      <c r="E130" s="84"/>
-      <c r="F130" s="84"/>
-      <c r="G130" s="85"/>
-    </row>
-    <row r="131" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="87"/>
+      <c r="B130" s="77" t="s">
+        <v>97</v>
+      </c>
+      <c r="C130" s="78"/>
+      <c r="D130" s="78"/>
+      <c r="E130" s="78"/>
+      <c r="F130" s="78"/>
+      <c r="G130" s="79"/>
+      <c r="I130" s="80" t="s">
+        <v>2</v>
+      </c>
+      <c r="J130" s="77" t="s">
+        <v>98</v>
+      </c>
+      <c r="K130" s="78"/>
+      <c r="L130" s="78"/>
+      <c r="M130" s="78"/>
+      <c r="N130" s="78"/>
+      <c r="O130" s="79"/>
+    </row>
+    <row r="131" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A131" s="81"/>
       <c r="B131" s="34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C131" s="35" t="s">
         <v>77</v>
@@ -8215,9 +8246,28 @@
       <c r="G131" s="37" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="132" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="88"/>
+      <c r="I131" s="81"/>
+      <c r="J131" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="K131" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="L131" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="M131" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="N131" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="O131" s="37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" ht="47" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A132" s="82"/>
       <c r="B132" s="55" t="s">
         <v>76</v>
       </c>
@@ -8236,8 +8286,27 @@
       <c r="G132" s="46" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="133" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I132" s="82"/>
+      <c r="J132" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="K132" s="56" t="s">
+        <v>78</v>
+      </c>
+      <c r="L132" s="56" t="s">
+        <v>80</v>
+      </c>
+      <c r="M132" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="N132" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="O132" s="71" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A133" s="4" t="s">
         <v>11</v>
       </c>
@@ -8259,8 +8328,29 @@
       <c r="G133" s="27">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I133" s="72" t="s">
+        <v>11</v>
+      </c>
+      <c r="J133" s="27">
+        <v>0</v>
+      </c>
+      <c r="K133" s="27">
+        <v>0</v>
+      </c>
+      <c r="L133" s="27">
+        <v>0</v>
+      </c>
+      <c r="M133" s="27">
+        <v>0</v>
+      </c>
+      <c r="N133" s="27">
+        <v>0</v>
+      </c>
+      <c r="O133" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A134" s="4" t="s">
         <v>14</v>
       </c>
@@ -8282,8 +8372,29 @@
       <c r="G134" s="27">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I134" s="72" t="s">
+        <v>14</v>
+      </c>
+      <c r="J134" s="27">
+        <v>0</v>
+      </c>
+      <c r="K134" s="27">
+        <v>0</v>
+      </c>
+      <c r="L134" s="27">
+        <v>0</v>
+      </c>
+      <c r="M134" s="27">
+        <v>0</v>
+      </c>
+      <c r="N134" s="27">
+        <v>0</v>
+      </c>
+      <c r="O134" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A135" s="4" t="s">
         <v>17</v>
       </c>
@@ -8305,8 +8416,29 @@
       <c r="G135" s="27">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I135" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="J135" s="27">
+        <v>0</v>
+      </c>
+      <c r="K135" s="27">
+        <v>0</v>
+      </c>
+      <c r="L135" s="27">
+        <v>0</v>
+      </c>
+      <c r="M135" s="27">
+        <v>0</v>
+      </c>
+      <c r="N135" s="27">
+        <v>0</v>
+      </c>
+      <c r="O135" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A136" s="4" t="s">
         <v>18</v>
       </c>
@@ -8328,8 +8460,35 @@
       <c r="G136" s="27">
         <v>2.8987000000000002E-2</v>
       </c>
-    </row>
-    <row r="137" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I136" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="J136" s="27">
+        <f>B136*0.75</f>
+        <v>5.3025000000000003E-2</v>
+      </c>
+      <c r="K136" s="27">
+        <f t="shared" ref="K136:O142" si="4">C136*0.75</f>
+        <v>5.3025000000000003E-2</v>
+      </c>
+      <c r="L136" s="27">
+        <f t="shared" si="4"/>
+        <v>5.3025000000000003E-2</v>
+      </c>
+      <c r="M136" s="27">
+        <f t="shared" si="4"/>
+        <v>3.0754500000000004E-2</v>
+      </c>
+      <c r="N136" s="27">
+        <f t="shared" si="4"/>
+        <v>3.0754500000000004E-2</v>
+      </c>
+      <c r="O136" s="27">
+        <f t="shared" si="4"/>
+        <v>2.1740250000000003E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A137" s="4" t="s">
         <v>19</v>
       </c>
@@ -8351,8 +8510,35 @@
       <c r="G137" s="27">
         <v>5.6990000000000013E-2</v>
       </c>
-    </row>
-    <row r="138" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I137" s="72" t="s">
+        <v>19</v>
+      </c>
+      <c r="J137" s="27">
+        <f t="shared" ref="J137:J142" si="5">B137*0.75</f>
+        <v>0.10425000000000001</v>
+      </c>
+      <c r="K137" s="27">
+        <f t="shared" si="4"/>
+        <v>0.10425000000000001</v>
+      </c>
+      <c r="L137" s="27">
+        <f t="shared" si="4"/>
+        <v>0.10425000000000001</v>
+      </c>
+      <c r="M137" s="27">
+        <f t="shared" si="4"/>
+        <v>6.0465000000000005E-2</v>
+      </c>
+      <c r="N137" s="27">
+        <f t="shared" si="4"/>
+        <v>6.0465000000000005E-2</v>
+      </c>
+      <c r="O137" s="27">
+        <f t="shared" si="4"/>
+        <v>4.274250000000001E-2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A138" s="4" t="s">
         <v>20</v>
       </c>
@@ -8374,8 +8560,35 @@
       <c r="G138" s="27">
         <v>5.8138000000000009E-2</v>
       </c>
-    </row>
-    <row r="139" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I138" s="72" t="s">
+        <v>20</v>
+      </c>
+      <c r="J138" s="27">
+        <f t="shared" si="5"/>
+        <v>0.10635</v>
+      </c>
+      <c r="K138" s="27">
+        <f t="shared" si="4"/>
+        <v>0.10635</v>
+      </c>
+      <c r="L138" s="27">
+        <f t="shared" si="4"/>
+        <v>0.10635</v>
+      </c>
+      <c r="M138" s="27">
+        <f t="shared" si="4"/>
+        <v>6.1683000000000009E-2</v>
+      </c>
+      <c r="N138" s="27">
+        <f t="shared" si="4"/>
+        <v>6.1683000000000009E-2</v>
+      </c>
+      <c r="O138" s="27">
+        <f t="shared" si="4"/>
+        <v>4.3603500000000003E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A139" s="4" t="s">
         <v>23</v>
       </c>
@@ -8397,8 +8610,35 @@
       <c r="G139" s="27">
         <v>4.3296000000000001E-2</v>
       </c>
-    </row>
-    <row r="140" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I139" s="72" t="s">
+        <v>23</v>
+      </c>
+      <c r="J139" s="27">
+        <f t="shared" si="5"/>
+        <v>7.9199999999999993E-2</v>
+      </c>
+      <c r="K139" s="27">
+        <f t="shared" si="4"/>
+        <v>7.9199999999999993E-2</v>
+      </c>
+      <c r="L139" s="27">
+        <f t="shared" si="4"/>
+        <v>7.9199999999999993E-2</v>
+      </c>
+      <c r="M139" s="27">
+        <f t="shared" si="4"/>
+        <v>4.5936000000000005E-2</v>
+      </c>
+      <c r="N139" s="27">
+        <f t="shared" si="4"/>
+        <v>4.5936000000000005E-2</v>
+      </c>
+      <c r="O139" s="27">
+        <f t="shared" si="4"/>
+        <v>3.2472000000000001E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A140" s="4" t="s">
         <v>22</v>
       </c>
@@ -8420,8 +8660,35 @@
       <c r="G140" s="27">
         <v>2.7634000000000002E-2</v>
       </c>
-    </row>
-    <row r="141" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I140" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="J140" s="27">
+        <f t="shared" si="5"/>
+        <v>5.0549999999999998E-2</v>
+      </c>
+      <c r="K140" s="27">
+        <f t="shared" si="4"/>
+        <v>5.0549999999999998E-2</v>
+      </c>
+      <c r="L140" s="27">
+        <f t="shared" si="4"/>
+        <v>5.0549999999999998E-2</v>
+      </c>
+      <c r="M140" s="27">
+        <f t="shared" si="4"/>
+        <v>2.9319000000000005E-2</v>
+      </c>
+      <c r="N140" s="27">
+        <f t="shared" si="4"/>
+        <v>2.9319000000000005E-2</v>
+      </c>
+      <c r="O140" s="27">
+        <f t="shared" si="4"/>
+        <v>2.0725500000000001E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A141" s="4" t="s">
         <v>24</v>
       </c>
@@ -8443,8 +8710,35 @@
       <c r="G141" s="27">
         <v>1.1111000000000001E-2</v>
       </c>
-    </row>
-    <row r="142" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I141" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="J141" s="27">
+        <f t="shared" si="5"/>
+        <v>2.0325000000000003E-2</v>
+      </c>
+      <c r="K141" s="27">
+        <f t="shared" si="4"/>
+        <v>2.0325000000000003E-2</v>
+      </c>
+      <c r="L141" s="27">
+        <f t="shared" si="4"/>
+        <v>2.0325000000000003E-2</v>
+      </c>
+      <c r="M141" s="27">
+        <f t="shared" si="4"/>
+        <v>1.1788500000000002E-2</v>
+      </c>
+      <c r="N141" s="27">
+        <f t="shared" si="4"/>
+        <v>1.1788500000000002E-2</v>
+      </c>
+      <c r="O141" s="27">
+        <f t="shared" si="4"/>
+        <v>8.3332500000000004E-3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A142" s="4" t="s">
         <v>25</v>
       </c>
@@ -8466,8 +8760,35 @@
       <c r="G142" s="27">
         <v>3.6080000000000005E-3</v>
       </c>
-    </row>
-    <row r="143" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I142" s="72" t="s">
+        <v>25</v>
+      </c>
+      <c r="J142" s="27">
+        <f t="shared" si="5"/>
+        <v>6.6E-3</v>
+      </c>
+      <c r="K142" s="27">
+        <f t="shared" si="4"/>
+        <v>6.6E-3</v>
+      </c>
+      <c r="L142" s="27">
+        <f t="shared" si="4"/>
+        <v>6.6E-3</v>
+      </c>
+      <c r="M142" s="27">
+        <f t="shared" si="4"/>
+        <v>3.8280000000000007E-3</v>
+      </c>
+      <c r="N142" s="27">
+        <f t="shared" si="4"/>
+        <v>3.8280000000000007E-3</v>
+      </c>
+      <c r="O142" s="27">
+        <f t="shared" si="4"/>
+        <v>2.7060000000000005E-3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A143" s="4" t="s">
         <v>26</v>
       </c>
@@ -8489,8 +8810,29 @@
       <c r="G143" s="27">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I143" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="J143" s="27">
+        <v>0</v>
+      </c>
+      <c r="K143" s="27">
+        <v>0</v>
+      </c>
+      <c r="L143" s="27">
+        <v>0</v>
+      </c>
+      <c r="M143" s="27">
+        <v>0</v>
+      </c>
+      <c r="N143" s="27">
+        <v>0</v>
+      </c>
+      <c r="O143" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A144" s="4" t="s">
         <v>27</v>
       </c>
@@ -8512,8 +8854,29 @@
       <c r="G144" s="27">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I144" s="72" t="s">
+        <v>27</v>
+      </c>
+      <c r="J144" s="27">
+        <v>0</v>
+      </c>
+      <c r="K144" s="27">
+        <v>0</v>
+      </c>
+      <c r="L144" s="27">
+        <v>0</v>
+      </c>
+      <c r="M144" s="27">
+        <v>0</v>
+      </c>
+      <c r="N144" s="27">
+        <v>0</v>
+      </c>
+      <c r="O144" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A145" s="21" t="s">
         <v>49</v>
       </c>
@@ -8535,8 +8898,29 @@
       <c r="G145" s="27">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I145" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="J145" s="27">
+        <v>0</v>
+      </c>
+      <c r="K145" s="27">
+        <v>0</v>
+      </c>
+      <c r="L145" s="27">
+        <v>0</v>
+      </c>
+      <c r="M145" s="27">
+        <v>0</v>
+      </c>
+      <c r="N145" s="27">
+        <v>0</v>
+      </c>
+      <c r="O145" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A146" s="21" t="s">
         <v>50</v>
       </c>
@@ -8558,8 +8942,29 @@
       <c r="G146" s="27">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I146" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="J146" s="27">
+        <v>0</v>
+      </c>
+      <c r="K146" s="27">
+        <v>0</v>
+      </c>
+      <c r="L146" s="27">
+        <v>0</v>
+      </c>
+      <c r="M146" s="27">
+        <v>0</v>
+      </c>
+      <c r="N146" s="27">
+        <v>0</v>
+      </c>
+      <c r="O146" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A147" s="21" t="s">
         <v>51</v>
       </c>
@@ -8581,8 +8986,29 @@
       <c r="G147" s="27">
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I147" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="J147" s="27">
+        <v>0</v>
+      </c>
+      <c r="K147" s="27">
+        <v>0</v>
+      </c>
+      <c r="L147" s="27">
+        <v>0</v>
+      </c>
+      <c r="M147" s="27">
+        <v>0</v>
+      </c>
+      <c r="N147" s="27">
+        <v>0</v>
+      </c>
+      <c r="O147" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A148" s="21" t="s">
         <v>52</v>
       </c>
@@ -8604,36 +9030,81 @@
       <c r="G148" s="27">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I148" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="J148" s="27">
+        <v>0</v>
+      </c>
+      <c r="K148" s="27">
+        <v>0</v>
+      </c>
+      <c r="L148" s="27">
+        <v>0</v>
+      </c>
+      <c r="M148" s="27">
+        <v>0</v>
+      </c>
+      <c r="N148" s="27">
+        <v>0</v>
+      </c>
+      <c r="O148" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B149">
-        <f t="shared" ref="B149:G149" si="4">5*SUM(B133:B148)</f>
+        <f t="shared" ref="B149:G149" si="6">5*SUM(B133:B148)</f>
         <v>2.8020000000000005</v>
       </c>
       <c r="C149">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.8020000000000005</v>
       </c>
       <c r="D149">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.8020000000000005</v>
       </c>
       <c r="E149">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.6251600000000002</v>
       </c>
       <c r="F149">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.6251600000000002</v>
       </c>
       <c r="G149">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.1488200000000002</v>
       </c>
-    </row>
-    <row r="155" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J149">
+        <f t="shared" ref="J149:O149" si="7">5*SUM(J133:J148)</f>
+        <v>2.1014999999999997</v>
+      </c>
+      <c r="K149">
+        <f t="shared" si="7"/>
+        <v>2.1014999999999997</v>
+      </c>
+      <c r="L149">
+        <f t="shared" si="7"/>
+        <v>2.1014999999999997</v>
+      </c>
+      <c r="M149">
+        <f t="shared" si="7"/>
+        <v>1.2188700000000003</v>
+      </c>
+      <c r="N149">
+        <f t="shared" si="7"/>
+        <v>1.2188700000000003</v>
+      </c>
+      <c r="O149">
+        <f t="shared" si="7"/>
+        <v>0.86161500000000013</v>
+      </c>
+    </row>
+    <row r="155" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A155" s="49" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B155" s="50"/>
       <c r="C155" s="50"/>
@@ -8658,7 +9129,7 @@
       <c r="V155" s="50"/>
       <c r="W155" s="50"/>
     </row>
-    <row r="156" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A156" s="51" t="s">
         <v>69</v>
       </c>
@@ -8685,9 +9156,9 @@
       <c r="V156" s="50"/>
       <c r="W156" s="50"/>
     </row>
-    <row r="157" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A157" s="49" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B157" s="50"/>
       <c r="C157" s="50"/>
@@ -8712,22 +9183,22 @@
       <c r="V157" s="50"/>
       <c r="W157" s="50"/>
     </row>
-    <row r="158" spans="1:23" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:23" ht="31" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A158" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B158" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="C158" s="75"/>
-      <c r="D158" s="76"/>
-      <c r="E158" s="74" t="s">
+      <c r="B158" s="94" t="s">
+        <v>0</v>
+      </c>
+      <c r="C158" s="95"/>
+      <c r="D158" s="96"/>
+      <c r="E158" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="F158" s="75"/>
-      <c r="G158" s="76"/>
-    </row>
-    <row r="159" spans="1:23" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F158" s="95"/>
+      <c r="G158" s="96"/>
+    </row>
+    <row r="159" spans="1:23" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A159" s="6"/>
       <c r="B159" s="7" t="s">
         <v>6</v>
@@ -8748,20 +9219,20 @@
         <v>8</v>
       </c>
     </row>
-    <row r="160" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A160" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B160" s="40">
-        <f t="shared" ref="B160:G161" si="5">10^-5</f>
+        <f t="shared" ref="B160:G161" si="8">10^-5</f>
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="C160" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="D160" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="E160" s="40">
@@ -8769,11 +9240,11 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="F160" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="G160" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="J160">
@@ -8781,56 +9252,56 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="K160">
-        <f t="shared" ref="K160:L175" si="6">C160*C54</f>
+        <f t="shared" ref="K160:L175" si="9">C160*C54</f>
         <v>0</v>
       </c>
       <c r="L160">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A161" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B161" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="C161" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="D161" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="E161" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="F161" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="G161" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="J161">
-        <f t="shared" ref="J161:J175" si="7">B161*B55</f>
+        <f t="shared" ref="J161:J175" si="10">B161*B55</f>
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="K161">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L161">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A162" s="4" t="s">
         <v>17</v>
       </c>
@@ -8853,15 +9324,15 @@
         <v>1.2</v>
       </c>
       <c r="J162">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.176E-2</v>
       </c>
       <c r="K162">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.8E-3</v>
       </c>
       <c r="L162">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>6.0000000000000218E-3</v>
       </c>
       <c r="M162">
@@ -8873,7 +9344,7 @@
         <v>51.124744376278059</v>
       </c>
     </row>
-    <row r="163" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A163" s="4" t="s">
         <v>18</v>
       </c>
@@ -8896,27 +9367,27 @@
         <v>6.5</v>
       </c>
       <c r="J163">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.33787878787878783</v>
       </c>
       <c r="K163">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.040909090909091</v>
       </c>
       <c r="L163">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.58030303030303021</v>
       </c>
       <c r="M163">
-        <f t="shared" ref="M163:M175" si="8">SUM(J163:L163)</f>
+        <f t="shared" ref="M163:M175" si="11">SUM(J163:L163)</f>
         <v>1.959090909090909</v>
       </c>
       <c r="N163">
-        <f t="shared" ref="N163:N175" si="9">1/M163</f>
+        <f t="shared" ref="N163:N175" si="12">1/M163</f>
         <v>0.51044083526682138</v>
       </c>
     </row>
-    <row r="164" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A164" s="4" t="s">
         <v>19</v>
       </c>
@@ -8939,27 +9410,27 @@
         <v>10</v>
       </c>
       <c r="J164">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.33193277310924363</v>
       </c>
       <c r="K164">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.1274509803921566</v>
       </c>
       <c r="L164">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.65546218487394958</v>
       </c>
       <c r="M164">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2.1148459383753497</v>
       </c>
       <c r="N164">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.47284768211920541</v>
       </c>
     </row>
-    <row r="165" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A165" s="4" t="s">
         <v>20</v>
       </c>
@@ -8982,27 +9453,27 @@
         <v>5.333333333333333</v>
       </c>
       <c r="J165">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.39310344827586208</v>
       </c>
       <c r="K165">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.0551724137931036</v>
       </c>
       <c r="L165">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.54482758620689653</v>
       </c>
       <c r="M165">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.9931034482758623</v>
       </c>
       <c r="N165">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.50173010380622829</v>
       </c>
     </row>
-    <row r="166" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A166" s="4" t="s">
         <v>23</v>
       </c>
@@ -9025,27 +9496,27 @@
         <v>1</v>
       </c>
       <c r="J166">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.46610169491525422</v>
       </c>
       <c r="K166">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.84745762711864414</v>
       </c>
       <c r="L166">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.3135593220338983</v>
       </c>
       <c r="M166">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.6271186440677967</v>
       </c>
       <c r="N166">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.61458333333333326</v>
       </c>
     </row>
-    <row r="167" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A167" s="4" t="s">
         <v>22</v>
       </c>
@@ -9068,27 +9539,27 @@
         <v>9</v>
       </c>
       <c r="J167">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.59655172413793101</v>
       </c>
       <c r="K167">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.48965517241379303</v>
       </c>
       <c r="L167">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.19310344827586207</v>
       </c>
       <c r="M167">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.279310344827586</v>
       </c>
       <c r="N167">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.78167115902964968</v>
       </c>
     </row>
-    <row r="168" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A168" s="4" t="s">
         <v>24</v>
       </c>
@@ -9111,27 +9582,27 @@
         <v>1</v>
       </c>
       <c r="J168">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.68881118881118875</v>
       </c>
       <c r="K168">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.40559440559440557</v>
       </c>
       <c r="L168">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.10839160839160839</v>
       </c>
       <c r="M168">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.2027972027972027</v>
       </c>
       <c r="N168">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.83139534883720934</v>
       </c>
     </row>
-    <row r="169" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A169" s="4" t="s">
         <v>25</v>
       </c>
@@ -9154,27 +9625,27 @@
         <v>1</v>
       </c>
       <c r="J169">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.61194029850746268</v>
       </c>
       <c r="K169">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.34468992537313536</v>
       </c>
       <c r="L169">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1E-3</v>
       </c>
       <c r="M169">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.95763022388059804</v>
       </c>
       <c r="N169">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.0442444015057371</v>
       </c>
     </row>
-    <row r="170" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A170" s="4" t="s">
         <v>26</v>
       </c>
@@ -9197,27 +9668,27 @@
         <v>1</v>
       </c>
       <c r="J170">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.61194029850746268</v>
       </c>
       <c r="K170">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.34468992537313536</v>
       </c>
       <c r="L170">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1E-3</v>
       </c>
       <c r="M170">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.95763022388059804</v>
       </c>
       <c r="N170">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.0442444015057371</v>
       </c>
     </row>
-    <row r="171" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A171" s="4" t="s">
         <v>27</v>
       </c>
@@ -9240,27 +9711,27 @@
         <v>1</v>
       </c>
       <c r="J171">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.61194029850746268</v>
       </c>
       <c r="K171">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.34468992537313536</v>
       </c>
       <c r="L171">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1E-3</v>
       </c>
       <c r="M171">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.95763022388059804</v>
       </c>
       <c r="N171">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.0442444015057371</v>
       </c>
     </row>
-    <row r="172" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A172" s="21" t="s">
         <v>49</v>
       </c>
@@ -9283,27 +9754,27 @@
         <v>1</v>
       </c>
       <c r="J172">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.61194029850746268</v>
       </c>
       <c r="K172">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.34468992537313536</v>
       </c>
       <c r="L172">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1E-3</v>
       </c>
       <c r="M172">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.95763022388059804</v>
       </c>
       <c r="N172">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.0442444015057371</v>
       </c>
     </row>
-    <row r="173" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A173" s="21" t="s">
         <v>50</v>
       </c>
@@ -9326,27 +9797,27 @@
         <v>1</v>
       </c>
       <c r="J173">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.61194029850746268</v>
       </c>
       <c r="K173">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.34468992537313536</v>
       </c>
       <c r="L173">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1E-3</v>
       </c>
       <c r="M173">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.95763022388059804</v>
       </c>
       <c r="N173">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.0442444015057371</v>
       </c>
     </row>
-    <row r="174" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A174" s="21" t="s">
         <v>51</v>
       </c>
@@ -9369,27 +9840,27 @@
         <v>1</v>
       </c>
       <c r="J174">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.61194029850746268</v>
       </c>
       <c r="K174">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.34468992537313536</v>
       </c>
       <c r="L174">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1E-3</v>
       </c>
       <c r="M174">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.95763022388059804</v>
       </c>
       <c r="N174">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.0442444015057371</v>
       </c>
     </row>
-    <row r="175" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A175" s="21" t="s">
         <v>52</v>
       </c>
@@ -9416,27 +9887,27 @@
         <v>1.8866801277495602</v>
       </c>
       <c r="J175">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.61194029850746268</v>
       </c>
       <c r="K175">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.34468992537313536</v>
       </c>
       <c r="L175">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1E-3</v>
       </c>
       <c r="M175">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.95763022388059804</v>
       </c>
       <c r="N175">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.0442444015057371</v>
       </c>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>37</v>
       </c>
@@ -9445,12 +9916,12 @@
         <v>4.4390802606579047</v>
       </c>
     </row>
-    <row r="180" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A180" s="10"/>
     </row>
-    <row r="182" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A182" s="49" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B182" s="50"/>
       <c r="C182" s="50"/>
@@ -9475,14 +9946,14 @@
       <c r="V182" s="50"/>
       <c r="W182" s="50"/>
     </row>
-    <row r="183" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="77" t="s">
-        <v>92</v>
-      </c>
-      <c r="B183" s="77"/>
-      <c r="C183" s="77"/>
-    </row>
-    <row r="184" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A183" s="97" t="s">
+        <v>90</v>
+      </c>
+      <c r="B183" s="97"/>
+      <c r="C183" s="97"/>
+    </row>
+    <row r="184" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A184" s="1" t="s">
         <v>29</v>
       </c>
@@ -9493,7 +9964,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="185" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A185" s="15">
         <v>1985</v>
       </c>
@@ -9504,7 +9975,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="186" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A186" s="15">
         <v>1990</v>
       </c>
@@ -9515,7 +9986,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="187" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A187" s="15">
         <v>2000</v>
       </c>
@@ -9526,9 +9997,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="194" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A194" s="49" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B194" s="50"/>
       <c r="C194" s="50"/>
@@ -9553,40 +10024,40 @@
       <c r="V194" s="50"/>
       <c r="W194" s="50"/>
     </row>
-    <row r="195" spans="1:23" s="52" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A195" s="78" t="s">
-        <v>93</v>
-      </c>
-      <c r="B195" s="78"/>
-      <c r="C195" s="78"/>
-      <c r="D195" s="78"/>
-      <c r="E195" s="78"/>
-      <c r="F195" s="78"/>
-    </row>
-    <row r="196" spans="1:23" s="52" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A196" s="79" t="s">
-        <v>94</v>
-      </c>
-      <c r="B196" s="79"/>
-      <c r="C196" s="79"/>
-      <c r="D196" s="79"/>
-      <c r="E196" s="79"/>
-      <c r="F196" s="79"/>
-    </row>
-    <row r="197" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A197" s="71" t="s">
+    <row r="195" spans="1:23" s="52" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A195" s="85" t="s">
+        <v>91</v>
+      </c>
+      <c r="B195" s="85"/>
+      <c r="C195" s="85"/>
+      <c r="D195" s="85"/>
+      <c r="E195" s="85"/>
+      <c r="F195" s="85"/>
+    </row>
+    <row r="196" spans="1:23" s="52" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A196" s="98" t="s">
+        <v>92</v>
+      </c>
+      <c r="B196" s="98"/>
+      <c r="C196" s="98"/>
+      <c r="D196" s="98"/>
+      <c r="E196" s="98"/>
+      <c r="F196" s="98"/>
+    </row>
+    <row r="197" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A197" s="91" t="s">
         <v>53</v>
       </c>
       <c r="B197" s="59"/>
       <c r="C197" s="59"/>
-      <c r="D197" s="71" t="s">
+      <c r="D197" s="91" t="s">
         <v>58</v>
       </c>
-      <c r="E197" s="71"/>
-      <c r="F197" s="71"/>
-    </row>
-    <row r="198" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A198" s="71"/>
+      <c r="E197" s="91"/>
+      <c r="F197" s="91"/>
+    </row>
+    <row r="198" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A198" s="91"/>
       <c r="B198" s="59"/>
       <c r="C198" s="60" t="s">
         <v>54</v>
@@ -9605,7 +10076,7 @@
         <v>125.22857142857143</v>
       </c>
     </row>
-    <row r="199" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A199" s="61" t="s">
         <v>31</v>
       </c>
@@ -9625,15 +10096,15 @@
         <v>0</v>
       </c>
       <c r="I199">
-        <f t="shared" ref="I199:J214" si="10">E199*C54</f>
+        <f t="shared" ref="I199:J214" si="13">E199*C54</f>
         <v>0</v>
       </c>
       <c r="J199">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A200" s="61" t="s">
         <v>30</v>
       </c>
@@ -9649,19 +10120,19 @@
         <v>0</v>
       </c>
       <c r="H200">
-        <f t="shared" ref="H200:H214" si="11">D200*B55</f>
+        <f t="shared" ref="H200:H214" si="14">D200*B55</f>
         <v>0</v>
       </c>
       <c r="I200">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J200">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A201" s="61" t="s">
         <v>39</v>
       </c>
@@ -9682,15 +10153,15 @@
         <v>1.1232</v>
       </c>
       <c r="H201">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>3.0576000000000003</v>
       </c>
       <c r="I201">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>2.8079999999999997E-2</v>
       </c>
       <c r="J201">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>5.6160000000000203E-3</v>
       </c>
       <c r="K201">
@@ -9698,7 +10169,7 @@
         <v>3.0912960000000003</v>
       </c>
     </row>
-    <row r="202" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A202" s="61" t="s">
         <v>40</v>
       </c>
@@ -9719,23 +10190,23 @@
         <v>5.6159999999999997</v>
       </c>
       <c r="H202">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>7.9418181818181814</v>
       </c>
       <c r="I202">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>3.814909090909091</v>
       </c>
       <c r="J202">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.46799999999999986</v>
       </c>
       <c r="K202">
-        <f t="shared" ref="K202:K214" si="12">SUM(H202:J202)</f>
+        <f t="shared" ref="K202:K214" si="15">SUM(H202:J202)</f>
         <v>12.224727272727272</v>
       </c>
     </row>
-    <row r="203" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A203" s="61" t="s">
         <v>41</v>
       </c>
@@ -9758,23 +10229,23 @@
         <v>22.463999999999999</v>
       </c>
       <c r="H203">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>29.452100840336133</v>
       </c>
       <c r="I203">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>16.570084033613444</v>
       </c>
       <c r="J203">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.9191932773109244</v>
       </c>
       <c r="K203">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>47.941378151260501</v>
       </c>
     </row>
-    <row r="204" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A204" s="61" t="s">
         <v>42</v>
       </c>
@@ -9795,23 +10266,23 @@
         <v>56.16</v>
       </c>
       <c r="H204">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>79.613793103448273</v>
       </c>
       <c r="I204">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>38.515862068965518</v>
       </c>
       <c r="J204">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>4.38951724137931</v>
       </c>
       <c r="K204">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>122.5191724137931</v>
       </c>
     </row>
-    <row r="205" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A205" s="61" t="s">
         <v>43</v>
       </c>
@@ -9819,40 +10290,40 @@
         <v>10</v>
       </c>
       <c r="C205" s="59">
-        <f t="shared" ref="C205:C214" si="13">EXP(LN(0.5)*B204/10)</f>
+        <f t="shared" ref="C205:C214" si="16">EXP(LN(0.5)*B204/10)</f>
         <v>0.70710678118654757</v>
       </c>
       <c r="D205" s="63">
-        <f t="shared" ref="D205:D210" si="14">$D$204*C205</f>
+        <f t="shared" ref="D205:D210" si="17">$D$204*C205</f>
         <v>110.30865786510142</v>
       </c>
       <c r="E205" s="63">
-        <f t="shared" ref="E205:E210" si="15">$E$204*C205</f>
+        <f t="shared" ref="E205:E210" si="18">$E$204*C205</f>
         <v>66.185194719060846</v>
       </c>
       <c r="F205" s="63">
-        <f t="shared" ref="F205:F210" si="16">$F$204*C205</f>
+        <f t="shared" ref="F205:F210" si="19">$F$204*C205</f>
         <v>39.711116831436506</v>
       </c>
       <c r="H205">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>66.683764924100856</v>
       </c>
       <c r="I205">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>22.62262305369029</v>
       </c>
       <c r="J205">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>2.1313876265460272</v>
       </c>
       <c r="K205">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>91.437775604337176</v>
       </c>
       <c r="M205" s="52"/>
     </row>
-    <row r="206" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A206" s="61" t="s">
         <v>44</v>
       </c>
@@ -9860,42 +10331,42 @@
         <v>15</v>
       </c>
       <c r="C206" s="59">
+        <f t="shared" si="16"/>
+        <v>0.5</v>
+      </c>
+      <c r="D206" s="63">
+        <f t="shared" si="17"/>
+        <v>78</v>
+      </c>
+      <c r="E206" s="63">
+        <f t="shared" si="18"/>
+        <v>46.8</v>
+      </c>
+      <c r="F206" s="63">
+        <f t="shared" si="19"/>
+        <v>28.08</v>
+      </c>
+      <c r="H206">
+        <f t="shared" si="14"/>
+        <v>59.710344827586205</v>
+      </c>
+      <c r="I206">
         <f t="shared" si="13"/>
-        <v>0.5</v>
-      </c>
-      <c r="D206" s="63">
-        <f t="shared" si="14"/>
-        <v>78</v>
-      </c>
-      <c r="E206" s="63">
+        <v>9.5213793103448268</v>
+      </c>
+      <c r="J206">
+        <f t="shared" si="13"/>
+        <v>0.87144827586206886</v>
+      </c>
+      <c r="K206">
         <f t="shared" si="15"/>
-        <v>46.8</v>
-      </c>
-      <c r="F206" s="63">
-        <f t="shared" si="16"/>
-        <v>28.08</v>
-      </c>
-      <c r="H206">
-        <f t="shared" si="11"/>
-        <v>59.710344827586205</v>
-      </c>
-      <c r="I206">
-        <f t="shared" si="10"/>
-        <v>9.5213793103448268</v>
-      </c>
-      <c r="J206">
-        <f t="shared" si="10"/>
-        <v>0.87144827586206886</v>
-      </c>
-      <c r="K206">
-        <f t="shared" si="12"/>
         <v>70.103172413793089</v>
       </c>
       <c r="N206" s="52"/>
       <c r="O206" s="52"/>
       <c r="P206" s="52"/>
     </row>
-    <row r="207" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A207" s="61" t="s">
         <v>45</v>
       </c>
@@ -9903,39 +10374,39 @@
         <v>20</v>
       </c>
       <c r="C207" s="59">
+        <f t="shared" si="16"/>
+        <v>0.35355339059327379</v>
+      </c>
+      <c r="D207" s="63">
+        <f t="shared" si="17"/>
+        <v>55.154328932550712</v>
+      </c>
+      <c r="E207" s="63">
+        <f t="shared" si="18"/>
+        <v>33.092597359530423</v>
+      </c>
+      <c r="F207" s="63">
+        <f t="shared" si="19"/>
+        <v>19.855558415718253</v>
+      </c>
+      <c r="H207">
+        <f t="shared" si="14"/>
+        <v>45.126269126632394</v>
+      </c>
+      <c r="I207">
         <f t="shared" si="13"/>
-        <v>0.35355339059327379</v>
-      </c>
-      <c r="D207" s="63">
-        <f t="shared" si="14"/>
-        <v>55.154328932550712</v>
-      </c>
-      <c r="E207" s="63">
+        <v>5.5540023540470642</v>
+      </c>
+      <c r="J207">
+        <f t="shared" si="13"/>
+        <v>0.2777001177023532</v>
+      </c>
+      <c r="K207">
         <f t="shared" si="15"/>
-        <v>33.092597359530423</v>
-      </c>
-      <c r="F207" s="63">
-        <f t="shared" si="16"/>
-        <v>19.855558415718253</v>
-      </c>
-      <c r="H207">
-        <f t="shared" si="11"/>
-        <v>45.126269126632394</v>
-      </c>
-      <c r="I207">
-        <f t="shared" si="10"/>
-        <v>5.5540023540470642</v>
-      </c>
-      <c r="J207">
-        <f t="shared" si="10"/>
-        <v>0.2777001177023532</v>
-      </c>
-      <c r="K207">
-        <f t="shared" si="12"/>
         <v>50.95797159838181</v>
       </c>
     </row>
-    <row r="208" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A208" s="61" t="s">
         <v>46</v>
       </c>
@@ -9943,39 +10414,39 @@
         <v>25</v>
       </c>
       <c r="C208" s="59">
+        <f t="shared" si="16"/>
+        <v>0.25</v>
+      </c>
+      <c r="D208" s="63">
+        <f t="shared" si="17"/>
+        <v>39</v>
+      </c>
+      <c r="E208" s="63">
+        <f t="shared" si="18"/>
+        <v>23.4</v>
+      </c>
+      <c r="F208" s="63">
+        <f t="shared" si="19"/>
+        <v>14.04</v>
+      </c>
+      <c r="H208">
+        <f t="shared" si="14"/>
+        <v>33.179104477611936</v>
+      </c>
+      <c r="I208">
         <f t="shared" si="13"/>
-        <v>0.25</v>
-      </c>
-      <c r="D208" s="63">
-        <f t="shared" si="14"/>
-        <v>39</v>
-      </c>
-      <c r="E208" s="63">
+        <v>3.4691373134328458</v>
+      </c>
+      <c r="J208">
+        <f t="shared" si="13"/>
+        <v>1.4039999999999999E-2</v>
+      </c>
+      <c r="K208">
         <f t="shared" si="15"/>
-        <v>23.4</v>
-      </c>
-      <c r="F208" s="63">
-        <f t="shared" si="16"/>
-        <v>14.04</v>
-      </c>
-      <c r="H208">
-        <f t="shared" si="11"/>
-        <v>33.179104477611936</v>
-      </c>
-      <c r="I208">
-        <f t="shared" si="10"/>
-        <v>3.4691373134328458</v>
-      </c>
-      <c r="J208">
-        <f t="shared" si="10"/>
-        <v>1.4039999999999999E-2</v>
-      </c>
-      <c r="K208">
-        <f t="shared" si="12"/>
         <v>36.662281791044784</v>
       </c>
     </row>
-    <row r="209" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A209" s="61" t="s">
         <v>47</v>
       </c>
@@ -9983,39 +10454,39 @@
         <v>30</v>
       </c>
       <c r="C209" s="59">
+        <f t="shared" si="16"/>
+        <v>0.17677669529663689</v>
+      </c>
+      <c r="D209" s="63">
+        <f t="shared" si="17"/>
+        <v>27.577164466275356</v>
+      </c>
+      <c r="E209" s="63">
+        <f t="shared" si="18"/>
+        <v>16.546298679765211</v>
+      </c>
+      <c r="F209" s="63">
+        <f t="shared" si="19"/>
+        <v>9.9277792078591265</v>
+      </c>
+      <c r="H209">
+        <f t="shared" si="14"/>
+        <v>23.461169769816344</v>
+      </c>
+      <c r="I209">
         <f t="shared" si="13"/>
-        <v>0.17677669529663689</v>
-      </c>
-      <c r="D209" s="63">
-        <f t="shared" si="14"/>
-        <v>27.577164466275356</v>
-      </c>
-      <c r="E209" s="63">
+        <v>2.4530505191956467</v>
+      </c>
+      <c r="J209">
+        <f t="shared" si="13"/>
+        <v>9.9277792078591269E-3</v>
+      </c>
+      <c r="K209">
         <f t="shared" si="15"/>
-        <v>16.546298679765211</v>
-      </c>
-      <c r="F209" s="63">
-        <f t="shared" si="16"/>
-        <v>9.9277792078591265</v>
-      </c>
-      <c r="H209">
-        <f t="shared" si="11"/>
-        <v>23.461169769816344</v>
-      </c>
-      <c r="I209">
-        <f t="shared" si="10"/>
-        <v>2.4530505191956467</v>
-      </c>
-      <c r="J209">
-        <f t="shared" si="10"/>
-        <v>9.9277792078591269E-3</v>
-      </c>
-      <c r="K209">
-        <f t="shared" si="12"/>
         <v>25.92414806821985</v>
       </c>
     </row>
-    <row r="210" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A210" s="61" t="s">
         <v>48</v>
       </c>
@@ -10023,39 +10494,39 @@
         <v>35</v>
       </c>
       <c r="C210" s="59">
+        <f t="shared" si="16"/>
+        <v>0.12500000000000003</v>
+      </c>
+      <c r="D210" s="63">
+        <f t="shared" si="17"/>
+        <v>19.500000000000004</v>
+      </c>
+      <c r="E210" s="63">
+        <f t="shared" si="18"/>
+        <v>11.700000000000001</v>
+      </c>
+      <c r="F210" s="63">
+        <f t="shared" si="19"/>
+        <v>7.0200000000000014</v>
+      </c>
+      <c r="H210">
+        <f t="shared" si="14"/>
+        <v>16.589552238805972</v>
+      </c>
+      <c r="I210">
         <f t="shared" si="13"/>
-        <v>0.12500000000000003</v>
-      </c>
-      <c r="D210" s="63">
-        <f t="shared" si="14"/>
-        <v>19.500000000000004</v>
-      </c>
-      <c r="E210" s="63">
+        <v>1.7345686567164231</v>
+      </c>
+      <c r="J210">
+        <f t="shared" si="13"/>
+        <v>7.0200000000000011E-3</v>
+      </c>
+      <c r="K210">
         <f t="shared" si="15"/>
-        <v>11.700000000000001</v>
-      </c>
-      <c r="F210" s="63">
-        <f t="shared" si="16"/>
-        <v>7.0200000000000014</v>
-      </c>
-      <c r="H210">
-        <f t="shared" si="11"/>
-        <v>16.589552238805972</v>
-      </c>
-      <c r="I210">
-        <f t="shared" si="10"/>
-        <v>1.7345686567164231</v>
-      </c>
-      <c r="J210">
-        <f t="shared" si="10"/>
-        <v>7.0200000000000011E-3</v>
-      </c>
-      <c r="K210">
-        <f t="shared" si="12"/>
         <v>18.331140895522395</v>
       </c>
     </row>
-    <row r="211" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A211" s="61" t="s">
         <v>49</v>
       </c>
@@ -10079,23 +10550,23 @@
         <v>4.9638896039295632</v>
       </c>
       <c r="H211">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>11.730584884908172</v>
       </c>
       <c r="I211">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.2265252595978233</v>
       </c>
       <c r="J211">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>4.9638896039295635E-3</v>
       </c>
       <c r="K211">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>12.962074034109925</v>
       </c>
     </row>
-    <row r="212" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A212" s="61" t="s">
         <v>50</v>
       </c>
@@ -10103,7 +10574,7 @@
         <v>45</v>
       </c>
       <c r="C212" s="59">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>6.25E-2</v>
       </c>
       <c r="D212" s="63">
@@ -10119,23 +10590,23 @@
         <v>3.51</v>
       </c>
       <c r="H212">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>8.2947761194029841</v>
       </c>
       <c r="I212">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.86728432835821145</v>
       </c>
       <c r="J212">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>3.5099999999999997E-3</v>
       </c>
       <c r="K212">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>9.1655704477611959</v>
       </c>
     </row>
-    <row r="213" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A213" s="61" t="s">
         <v>51</v>
       </c>
@@ -10143,7 +10614,7 @@
         <v>50</v>
       </c>
       <c r="C213" s="59">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>4.4194173824159223E-2</v>
       </c>
       <c r="D213" s="63">
@@ -10159,23 +10630,23 @@
         <v>2.4819448019647816</v>
       </c>
       <c r="H213">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>5.865292442454086</v>
       </c>
       <c r="I213">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.61326262979891166</v>
       </c>
       <c r="J213">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>2.4819448019647817E-3</v>
       </c>
       <c r="K213">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>6.4810370170549625</v>
       </c>
     </row>
-    <row r="214" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A214" s="61" t="s">
         <v>52</v>
       </c>
@@ -10183,7 +10654,7 @@
         <v>55</v>
       </c>
       <c r="C214" s="59">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>3.125E-2</v>
       </c>
       <c r="D214" s="63">
@@ -10199,23 +10670,23 @@
         <v>1.7549999999999999</v>
       </c>
       <c r="H214">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>4.147388059701492</v>
       </c>
       <c r="I214">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.43364216417910573</v>
       </c>
       <c r="J214">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.7549999999999998E-3</v>
       </c>
       <c r="K214">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>4.5827852238805979</v>
       </c>
     </row>
-    <row r="215" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A215" s="59"/>
       <c r="B215" s="64"/>
       <c r="C215" s="59"/>
@@ -10231,30 +10702,30 @@
         <v>0.7014161956630891</v>
       </c>
     </row>
-    <row r="216" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A216" s="72" t="s">
-        <v>95</v>
-      </c>
-      <c r="B216" s="72"/>
-      <c r="C216" s="72"/>
-      <c r="D216" s="72"/>
-      <c r="E216" s="72"/>
-      <c r="F216" s="72"/>
-    </row>
-    <row r="217" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A217" s="73" t="s">
+    <row r="216" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A216" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="B216" s="92"/>
+      <c r="C216" s="92"/>
+      <c r="D216" s="92"/>
+      <c r="E216" s="92"/>
+      <c r="F216" s="92"/>
+    </row>
+    <row r="217" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A217" s="93" t="s">
         <v>2</v>
       </c>
       <c r="B217" s="59"/>
       <c r="C217" s="59"/>
-      <c r="D217" s="71" t="s">
+      <c r="D217" s="91" t="s">
         <v>58</v>
       </c>
-      <c r="E217" s="71"/>
-      <c r="F217" s="71"/>
-    </row>
-    <row r="218" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A218" s="73"/>
+      <c r="E217" s="91"/>
+      <c r="F217" s="91"/>
+    </row>
+    <row r="218" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A218" s="93"/>
       <c r="B218" s="59"/>
       <c r="C218" s="60" t="s">
         <v>54</v>
@@ -10269,7 +10740,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="219" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A219" s="61" t="s">
         <v>31</v>
       </c>
@@ -10285,7 +10756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A220" s="61" t="s">
         <v>30</v>
       </c>
@@ -10301,7 +10772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A221" s="61" t="s">
         <v>39</v>
       </c>
@@ -10322,7 +10793,7 @@
         <v>2.8079999999999998</v>
       </c>
     </row>
-    <row r="222" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A222" s="61" t="s">
         <v>40</v>
       </c>
@@ -10343,7 +10814,7 @@
         <v>5.6159999999999997</v>
       </c>
     </row>
-    <row r="223" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A223" s="61" t="s">
         <v>41</v>
       </c>
@@ -10366,7 +10837,7 @@
         <v>22.463999999999999</v>
       </c>
     </row>
-    <row r="224" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A224" s="61" t="s">
         <v>42</v>
       </c>
@@ -10387,7 +10858,7 @@
         <v>56.16</v>
       </c>
     </row>
-    <row r="225" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A225" s="61" t="s">
         <v>43</v>
       </c>
@@ -10395,7 +10866,7 @@
         <v>10</v>
       </c>
       <c r="C225" s="59">
-        <f t="shared" ref="C225:C234" si="17">EXP(LN(0.5)*B224/10)</f>
+        <f t="shared" ref="C225:C234" si="20">EXP(LN(0.5)*B224/10)</f>
         <v>0.70710678118654757</v>
       </c>
       <c r="D225" s="62">
@@ -10411,7 +10882,7 @@
         <v>39.711116831436506</v>
       </c>
     </row>
-    <row r="226" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A226" s="61" t="s">
         <v>44</v>
       </c>
@@ -10419,23 +10890,23 @@
         <v>15</v>
       </c>
       <c r="C226" s="59">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0.5</v>
       </c>
       <c r="D226" s="62">
-        <f t="shared" ref="D226:D232" si="18">$D$224*C226</f>
+        <f t="shared" ref="D226:D232" si="21">$D$224*C226</f>
         <v>78</v>
       </c>
       <c r="E226" s="62">
-        <f t="shared" ref="E226:E232" si="19">$E$224*C226</f>
+        <f t="shared" ref="E226:E232" si="22">$E$224*C226</f>
         <v>46.8</v>
       </c>
       <c r="F226" s="62">
-        <f t="shared" ref="F226:F232" si="20">$F$224*C226</f>
+        <f t="shared" ref="F226:F232" si="23">$F$224*C226</f>
         <v>28.08</v>
       </c>
     </row>
-    <row r="227" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A227" s="61" t="s">
         <v>45</v>
       </c>
@@ -10443,23 +10914,23 @@
         <v>20</v>
       </c>
       <c r="C227" s="59">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0.35355339059327379</v>
       </c>
       <c r="D227" s="62">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>55.154328932550712</v>
       </c>
       <c r="E227" s="62">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>33.092597359530423</v>
       </c>
       <c r="F227" s="62">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>19.855558415718253</v>
       </c>
     </row>
-    <row r="228" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A228" s="61" t="s">
         <v>46</v>
       </c>
@@ -10467,23 +10938,23 @@
         <v>25</v>
       </c>
       <c r="C228" s="59">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0.25</v>
       </c>
       <c r="D228" s="62">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>39</v>
       </c>
       <c r="E228" s="62">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>23.4</v>
       </c>
       <c r="F228" s="62">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>14.04</v>
       </c>
     </row>
-    <row r="229" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A229" s="61" t="s">
         <v>47</v>
       </c>
@@ -10491,23 +10962,23 @@
         <v>30</v>
       </c>
       <c r="C229" s="59">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0.17677669529663689</v>
       </c>
       <c r="D229" s="62">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>27.577164466275356</v>
       </c>
       <c r="E229" s="62">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>16.546298679765211</v>
       </c>
       <c r="F229" s="62">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>9.9277792078591265</v>
       </c>
     </row>
-    <row r="230" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A230" s="61" t="s">
         <v>48</v>
       </c>
@@ -10515,23 +10986,23 @@
         <v>35</v>
       </c>
       <c r="C230" s="59">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0.12500000000000003</v>
       </c>
       <c r="D230" s="62">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>19.500000000000004</v>
       </c>
       <c r="E230" s="62">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>11.700000000000001</v>
       </c>
       <c r="F230" s="62">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>7.0200000000000014</v>
       </c>
     </row>
-    <row r="231" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A231" s="61" t="s">
         <v>49</v>
       </c>
@@ -10539,23 +11010,23 @@
         <v>40</v>
       </c>
       <c r="C231" s="59">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>8.8388347648318447E-2</v>
       </c>
       <c r="D231" s="62">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>13.788582233137678</v>
       </c>
       <c r="E231" s="62">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>8.2731493398826057</v>
       </c>
       <c r="F231" s="62">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>4.9638896039295632</v>
       </c>
     </row>
-    <row r="232" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A232" s="61" t="s">
         <v>50</v>
       </c>
@@ -10563,23 +11034,23 @@
         <v>45</v>
       </c>
       <c r="C232" s="59">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>6.25E-2</v>
       </c>
       <c r="D232" s="62">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>9.75</v>
       </c>
       <c r="E232" s="62">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>5.85</v>
       </c>
       <c r="F232" s="62">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>3.51</v>
       </c>
     </row>
-    <row r="233" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A233" s="61" t="s">
         <v>51</v>
       </c>
@@ -10603,7 +11074,7 @@
         <v>2.4819448019647816</v>
       </c>
     </row>
-    <row r="234" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A234" s="61" t="s">
         <v>52</v>
       </c>
@@ -10611,7 +11082,7 @@
         <v>55</v>
       </c>
       <c r="C234" s="59">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>3.125E-2</v>
       </c>
       <c r="D234" s="62">
@@ -10627,7 +11098,7 @@
         <v>1.7549999999999999</v>
       </c>
     </row>
-    <row r="235" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A235" s="48"/>
       <c r="B235" s="48"/>
       <c r="C235" s="58"/>
@@ -10635,9 +11106,9 @@
       <c r="E235" s="48"/>
       <c r="F235" s="48"/>
     </row>
-    <row r="236" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A236" s="57" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B236" s="52"/>
       <c r="C236" s="52"/>
@@ -10645,7 +11116,7 @@
       <c r="E236" s="48"/>
       <c r="F236" s="48"/>
     </row>
-    <row r="237" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A237" s="69" t="s">
         <v>38</v>
       </c>
@@ -10661,7 +11132,7 @@
       <c r="E237" s="48"/>
       <c r="F237" s="48"/>
     </row>
-    <row r="238" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A238" s="24" t="s">
         <v>0</v>
       </c>
@@ -10678,7 +11149,7 @@
         <v>56.16</v>
       </c>
     </row>
-    <row r="239" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A239" s="24" t="s">
         <v>1</v>
       </c>
@@ -10696,7 +11167,19 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="24">
+    <mergeCell ref="I130:I132"/>
+    <mergeCell ref="J130:O130"/>
+    <mergeCell ref="A197:A198"/>
+    <mergeCell ref="A216:F216"/>
+    <mergeCell ref="A217:A218"/>
+    <mergeCell ref="B158:D158"/>
+    <mergeCell ref="E158:G158"/>
+    <mergeCell ref="A183:C183"/>
+    <mergeCell ref="A195:F195"/>
+    <mergeCell ref="A196:F196"/>
+    <mergeCell ref="D197:F197"/>
+    <mergeCell ref="D217:F217"/>
     <mergeCell ref="A109:A111"/>
     <mergeCell ref="B109:G109"/>
     <mergeCell ref="B130:G130"/>
@@ -10709,16 +11192,6 @@
     <mergeCell ref="E52:G52"/>
     <mergeCell ref="A81:A83"/>
     <mergeCell ref="B81:B83"/>
-    <mergeCell ref="A197:A198"/>
-    <mergeCell ref="A216:F216"/>
-    <mergeCell ref="A217:A218"/>
-    <mergeCell ref="B158:D158"/>
-    <mergeCell ref="E158:G158"/>
-    <mergeCell ref="A183:C183"/>
-    <mergeCell ref="A195:F195"/>
-    <mergeCell ref="A196:F196"/>
-    <mergeCell ref="D197:F197"/>
-    <mergeCell ref="D217:F217"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Config/Population_data.xlsx
+++ b/Config/Population_data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="105">
   <si>
     <t>Male</t>
   </si>
@@ -415,9 +415,6 @@
     <t>HIV-</t>
   </si>
   <si>
-    <t>Note: fertility rates changed linearly from 1995 to 2005 so that the model's population growth resembles actual population growth patterns. Fertility rate for 2005 onwards is 1/2 the fertility rate before 1995.</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">HIV- </t>
     </r>
@@ -535,12 +532,37 @@
   <si>
     <t>Fertility Rate (per year) by 2020</t>
   </si>
+  <si>
+    <t>1985-1990</t>
+  </si>
+  <si>
+    <t>Roger Ying paper</t>
+  </si>
+  <si>
+    <t>males</t>
+  </si>
+  <si>
+    <t>females</t>
+  </si>
+  <si>
+    <t>UN World Population Prospects 2019</t>
+  </si>
+  <si>
+    <t>Note: fertility rates changed linearly from 1990 to 2010 so that the model's population growth resembles actual population growth patterns. Fertility rate for 2010 onwards is 1/2 the fertility rate before 1990.</t>
+  </si>
+  <si>
+    <t>&lt;--should use UNICEF data here instead?</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="30" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="168" formatCode="0.00000;\-0.00000;0"/>
+    <numFmt numFmtId="169" formatCode="###;\-###;0"/>
+  </numFmts>
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -749,6 +771,24 @@
       <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="35">
@@ -1384,7 +1424,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1550,13 +1590,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1566,39 +1606,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -1622,7 +1629,72 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="48">
@@ -6077,8 +6149,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AF239"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Q142" sqref="Q142"/>
+    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N101" sqref="N101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6176,7 +6248,7 @@
     </row>
     <row r="3" spans="1:25" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="51" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B3" s="50"/>
       <c r="C3" s="50"/>
@@ -6207,10 +6279,10 @@
       <c r="A4" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="83" t="s">
+      <c r="B4" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="84"/>
+      <c r="C4" s="93"/>
     </row>
     <row r="5" spans="1:25" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="53"/>
@@ -6447,10 +6519,10 @@
       <c r="A27" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="85" t="s">
+      <c r="B27" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="86"/>
+      <c r="C27" s="94"/>
     </row>
     <row r="28" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A28" s="12"/>
@@ -6838,19 +6910,19 @@
       <c r="AE51" s="32"/>
     </row>
     <row r="52" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A52" s="90" t="s">
+      <c r="A52" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="B52" s="90" t="s">
+      <c r="B52" s="98" t="s">
         <v>67</v>
       </c>
-      <c r="C52" s="90"/>
-      <c r="D52" s="90"/>
-      <c r="E52" s="90" t="s">
+      <c r="C52" s="98"/>
+      <c r="D52" s="98"/>
+      <c r="E52" s="98" t="s">
         <v>68</v>
       </c>
-      <c r="F52" s="90"/>
-      <c r="G52" s="90"/>
+      <c r="F52" s="98"/>
+      <c r="G52" s="98"/>
       <c r="X52" s="30"/>
       <c r="Y52" s="30"/>
       <c r="Z52" s="30"/>
@@ -6861,7 +6933,7 @@
       <c r="AE52" s="30"/>
     </row>
     <row r="53" spans="1:31" ht="30" x14ac:dyDescent="0.35">
-      <c r="A53" s="90"/>
+      <c r="A53" s="98"/>
       <c r="B53" s="45" t="s">
         <v>6</v>
       </c>
@@ -7394,28 +7466,58 @@
       <c r="W80" s="50"/>
       <c r="X80" s="50"/>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A81" s="74" t="s">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A81" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="B81" s="87" t="s">
+      <c r="B81" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="C81" s="87" t="s">
+      <c r="C81" s="95" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A82" s="75"/>
-      <c r="B82" s="88"/>
-      <c r="C82" s="88"/>
-    </row>
-    <row r="83" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A83" s="76"/>
-      <c r="B83" s="89"/>
-      <c r="C83" s="89"/>
-    </row>
-    <row r="84" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H81" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A82" s="90"/>
+      <c r="B82" s="96"/>
+      <c r="C82" s="96"/>
+      <c r="I82" s="102" t="s">
+        <v>98</v>
+      </c>
+      <c r="K82" t="s">
+        <v>100</v>
+      </c>
+      <c r="L82" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A83" s="91"/>
+      <c r="B83" s="97"/>
+      <c r="C83" s="97"/>
+      <c r="E83" t="s">
+        <v>99</v>
+      </c>
+      <c r="H83" s="100"/>
+      <c r="I83" s="104">
+        <v>0</v>
+      </c>
+      <c r="J83" s="104">
+        <v>1</v>
+      </c>
+      <c r="K83" s="110">
+        <v>5.1751479000000003E-2</v>
+      </c>
+      <c r="L83" s="110">
+        <v>4.2747080999999999E-2</v>
+      </c>
+      <c r="O83" s="105"/>
+      <c r="P83" s="105"/>
+    </row>
+    <row r="84" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A84" s="4" t="s">
         <v>11</v>
       </c>
@@ -7425,8 +7527,30 @@
       <c r="C84" s="13">
         <v>8.8057230624727749E-3</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E84">
+        <v>0.06</v>
+      </c>
+      <c r="F84">
+        <v>0.06</v>
+      </c>
+      <c r="H84" s="100"/>
+      <c r="I84" s="104">
+        <v>1</v>
+      </c>
+      <c r="J84" s="104">
+        <v>4</v>
+      </c>
+      <c r="K84" s="110">
+        <v>5.2241062999999997E-3</v>
+      </c>
+      <c r="L84" s="110">
+        <v>4.6946237E-3</v>
+      </c>
+      <c r="M84" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A85" s="4" t="s">
         <v>14</v>
       </c>
@@ -7436,8 +7560,30 @@
       <c r="C85" s="13">
         <v>5.2457282047517039E-4</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E85">
+        <v>5.2999999999999998E-4</v>
+      </c>
+      <c r="F85">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="H85" s="100"/>
+      <c r="I85" s="106">
+        <v>0</v>
+      </c>
+      <c r="J85" s="107">
+        <f>SUM(J83:J84)</f>
+        <v>5</v>
+      </c>
+      <c r="K85" s="108">
+        <f>SUM(K83:K84)</f>
+        <v>5.6975585300000006E-2</v>
+      </c>
+      <c r="L85" s="108">
+        <f>SUM(L83:L84)</f>
+        <v>4.7441704699999997E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A86" s="4" t="s">
         <v>17</v>
       </c>
@@ -7447,8 +7593,27 @@
       <c r="C86" s="13">
         <v>4.8877879149405545E-4</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E86">
+        <v>5.5999999999999995E-4</v>
+      </c>
+      <c r="F86">
+        <v>4.2999999999999999E-4</v>
+      </c>
+      <c r="H86" s="100"/>
+      <c r="I86" s="101">
+        <v>5</v>
+      </c>
+      <c r="J86" s="101">
+        <v>5</v>
+      </c>
+      <c r="K86" s="109">
+        <v>2.4750038999999998E-3</v>
+      </c>
+      <c r="L86" s="109">
+        <v>1.8590649E-3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A87" s="4" t="s">
         <v>18</v>
       </c>
@@ -7458,8 +7623,27 @@
       <c r="C87" s="13">
         <v>9.035280767087482E-4</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E87">
+        <v>1.83E-3</v>
+      </c>
+      <c r="F87">
+        <v>7.6000000000000004E-4</v>
+      </c>
+      <c r="H87" s="100"/>
+      <c r="I87" s="101">
+        <v>10</v>
+      </c>
+      <c r="J87" s="101">
+        <v>5</v>
+      </c>
+      <c r="K87" s="109">
+        <v>1.5814690000000001E-3</v>
+      </c>
+      <c r="L87" s="109">
+        <v>1.2227608999999999E-3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A88" s="4" t="s">
         <v>19</v>
       </c>
@@ -7469,8 +7653,27 @@
       <c r="C88" s="13">
         <v>1.6915946235478447E-3</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E88">
+        <v>3.98E-3</v>
+      </c>
+      <c r="F88">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="H88" s="100"/>
+      <c r="I88" s="101">
+        <v>15</v>
+      </c>
+      <c r="J88" s="101">
+        <v>5</v>
+      </c>
+      <c r="K88" s="109">
+        <v>2.5001934000000001E-3</v>
+      </c>
+      <c r="L88" s="109">
+        <v>1.6750273E-3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A89" s="4" t="s">
         <v>20</v>
       </c>
@@ -7480,8 +7683,27 @@
       <c r="C89" s="13">
         <v>2.0719480819543991E-3</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E89">
+        <v>5.1399999999999996E-3</v>
+      </c>
+      <c r="F89">
+        <v>1.83E-3</v>
+      </c>
+      <c r="H89" s="100"/>
+      <c r="I89" s="101">
+        <v>20</v>
+      </c>
+      <c r="J89" s="101">
+        <v>5</v>
+      </c>
+      <c r="K89" s="109">
+        <v>3.7640993E-3</v>
+      </c>
+      <c r="L89" s="109">
+        <v>2.3815536E-3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="4" t="s">
         <v>23</v>
       </c>
@@ -7491,8 +7713,27 @@
       <c r="C90" s="13">
         <v>2.4601074470881829E-3</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E90">
+        <v>6.0600000000000003E-3</v>
+      </c>
+      <c r="F90">
+        <v>2.5200000000000001E-3</v>
+      </c>
+      <c r="H90" s="100"/>
+      <c r="I90" s="101">
+        <v>25</v>
+      </c>
+      <c r="J90" s="101">
+        <v>5</v>
+      </c>
+      <c r="K90" s="109">
+        <v>4.3315932999999996E-3</v>
+      </c>
+      <c r="L90" s="109">
+        <v>3.1198295999999999E-3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A91" s="4" t="s">
         <v>22</v>
       </c>
@@ -7502,8 +7743,27 @@
       <c r="C91" s="13">
         <v>2.9925533571735037E-3</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E91">
+        <v>7.1500000000000001E-3</v>
+      </c>
+      <c r="F91">
+        <v>3.15E-3</v>
+      </c>
+      <c r="H91" s="100"/>
+      <c r="I91" s="101">
+        <v>30</v>
+      </c>
+      <c r="J91" s="101">
+        <v>5</v>
+      </c>
+      <c r="K91" s="109">
+        <v>5.1669517000000002E-3</v>
+      </c>
+      <c r="L91" s="109">
+        <v>3.7817176000000002E-3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A92" s="4" t="s">
         <v>24</v>
       </c>
@@ -7513,8 +7773,27 @@
       <c r="C92" s="13">
         <v>3.9413474052092329E-3</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E92">
+        <v>9.5200000000000007E-3</v>
+      </c>
+      <c r="F92">
+        <v>4.4799999999999996E-3</v>
+      </c>
+      <c r="H92" s="100"/>
+      <c r="I92" s="101">
+        <v>35</v>
+      </c>
+      <c r="J92" s="101">
+        <v>5</v>
+      </c>
+      <c r="K92" s="109">
+        <v>6.4414638999999996E-3</v>
+      </c>
+      <c r="L92" s="109">
+        <v>4.6448573999999998E-3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A93" s="4" t="s">
         <v>25</v>
       </c>
@@ -7524,8 +7803,27 @@
       <c r="C93" s="13">
         <v>5.3575989334735206E-3</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E93">
+        <v>1.1780000000000001E-2</v>
+      </c>
+      <c r="F93">
+        <v>5.7600000000000004E-3</v>
+      </c>
+      <c r="H93" s="100"/>
+      <c r="I93" s="101">
+        <v>40</v>
+      </c>
+      <c r="J93" s="101">
+        <v>5</v>
+      </c>
+      <c r="K93" s="109">
+        <v>8.0432449999999992E-3</v>
+      </c>
+      <c r="L93" s="109">
+        <v>5.6773359000000002E-3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A94" s="4" t="s">
         <v>26</v>
       </c>
@@ -7535,8 +7833,27 @@
       <c r="C94" s="13">
         <v>7.5410818923787939E-3</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E94">
+        <v>1.711E-2</v>
+      </c>
+      <c r="F94">
+        <v>9.6399999999999993E-3</v>
+      </c>
+      <c r="H94" s="100"/>
+      <c r="I94" s="101">
+        <v>45</v>
+      </c>
+      <c r="J94" s="101">
+        <v>5</v>
+      </c>
+      <c r="K94" s="109">
+        <v>1.0135829000000001E-2</v>
+      </c>
+      <c r="L94" s="109">
+        <v>6.6691631000000001E-3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A95" s="4" t="s">
         <v>27</v>
       </c>
@@ -7546,8 +7863,27 @@
       <c r="C95" s="13">
         <v>1.0540154917424747E-2</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E95" s="52">
+        <v>2.0809999999999999E-2</v>
+      </c>
+      <c r="F95" s="52">
+        <v>1.393E-2</v>
+      </c>
+      <c r="H95" s="100"/>
+      <c r="I95" s="101">
+        <v>50</v>
+      </c>
+      <c r="J95" s="101">
+        <v>5</v>
+      </c>
+      <c r="K95" s="109">
+        <v>1.4004198000000001E-2</v>
+      </c>
+      <c r="L95" s="109">
+        <v>8.9763412999999993E-3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="21" t="s">
         <v>49</v>
       </c>
@@ -7556,6 +7892,21 @@
       </c>
       <c r="C96" s="13">
         <v>1.5759592316689931E-2</v>
+      </c>
+      <c r="E96" s="103"/>
+      <c r="F96" s="103"/>
+      <c r="H96" s="100"/>
+      <c r="I96" s="101">
+        <v>55</v>
+      </c>
+      <c r="J96" s="101">
+        <v>5</v>
+      </c>
+      <c r="K96" s="109">
+        <v>1.8576009000000001E-2</v>
+      </c>
+      <c r="L96" s="109">
+        <v>1.2049147E-2</v>
       </c>
     </row>
     <row r="97" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -7568,6 +7919,21 @@
       <c r="C97" s="13">
         <v>2.2837523063216215E-2</v>
       </c>
+      <c r="E97" s="103"/>
+      <c r="F97" s="103"/>
+      <c r="H97" s="100"/>
+      <c r="I97" s="101">
+        <v>60</v>
+      </c>
+      <c r="J97" s="101">
+        <v>5</v>
+      </c>
+      <c r="K97" s="109">
+        <v>2.7759598999999999E-2</v>
+      </c>
+      <c r="L97" s="109">
+        <v>1.8543285E-2</v>
+      </c>
     </row>
     <row r="98" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98" s="21" t="s">
@@ -7579,6 +7945,21 @@
       <c r="C98" s="13">
         <v>3.3336893194863555E-2</v>
       </c>
+      <c r="E98" s="103"/>
+      <c r="F98" s="103"/>
+      <c r="H98" s="100"/>
+      <c r="I98" s="101">
+        <v>65</v>
+      </c>
+      <c r="J98" s="101">
+        <v>5</v>
+      </c>
+      <c r="K98" s="109">
+        <v>4.2779603999999999E-2</v>
+      </c>
+      <c r="L98" s="109">
+        <v>3.039122E-2</v>
+      </c>
     </row>
     <row r="99" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="21" t="s">
@@ -7590,16 +7971,57 @@
       <c r="C99" s="13">
         <v>6.1722846856347699E-2</v>
       </c>
+      <c r="E99" s="103"/>
+      <c r="F99" s="103"/>
+      <c r="H99" s="100"/>
+      <c r="I99" s="101">
+        <v>70</v>
+      </c>
+      <c r="J99" s="101">
+        <v>5</v>
+      </c>
+      <c r="K99" s="109">
+        <v>6.8473476000000005E-2</v>
+      </c>
+      <c r="L99" s="109">
+        <v>5.1704121999999998E-2</v>
+      </c>
     </row>
     <row r="100" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="B100">
-        <f>5*SUM(B84:B99)</f>
-        <v>1.4052970667115117</v>
-      </c>
-      <c r="C100">
-        <f>5*SUM(C84:C99)</f>
-        <v>0.90487922420259181</v>
-      </c>
+      <c r="E100" s="99"/>
+      <c r="F100" s="99"/>
+      <c r="I100" s="101">
+        <v>75</v>
+      </c>
+      <c r="J100" s="101">
+        <v>5</v>
+      </c>
+      <c r="K100" s="109">
+        <v>0.11201527999999999</v>
+      </c>
+      <c r="L100" s="109">
+        <v>8.8066895000000006E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="I101" s="101"/>
+      <c r="J101" s="101"/>
+      <c r="K101" s="100"/>
+    </row>
+    <row r="102" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="I102" s="101"/>
+      <c r="J102" s="101"/>
+      <c r="K102" s="100"/>
+    </row>
+    <row r="103" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="I103" s="101"/>
+      <c r="J103" s="101"/>
+      <c r="K103" s="100"/>
+    </row>
+    <row r="104" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="I104" s="101"/>
+      <c r="J104" s="101"/>
+      <c r="K104" s="100"/>
     </row>
     <row r="105" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A105" s="49" t="s">
@@ -7687,7 +8109,7 @@
     </row>
     <row r="108" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A108" s="49" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="B108" s="50"/>
       <c r="C108" s="50"/>
@@ -7714,11 +8136,11 @@
       <c r="X108" s="50"/>
     </row>
     <row r="109" spans="1:24" ht="15.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A109" s="74" t="s">
+      <c r="A109" s="89" t="s">
         <v>2</v>
       </c>
       <c r="B109" s="77" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C109" s="78"/>
       <c r="D109" s="78"/>
@@ -7727,7 +8149,7 @@
       <c r="G109" s="79"/>
     </row>
     <row r="110" spans="1:24" ht="46" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="75"/>
+      <c r="A110" s="90"/>
       <c r="B110" s="44" t="s">
         <v>83</v>
       </c>
@@ -7748,7 +8170,7 @@
       </c>
     </row>
     <row r="111" spans="1:24" ht="47" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A111" s="76"/>
+      <c r="A111" s="91"/>
       <c r="B111" s="46" t="s">
         <v>76</v>
       </c>
@@ -8203,22 +8625,22 @@
     </row>
     <row r="129" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="130" spans="1:15" ht="15.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A130" s="80" t="s">
+      <c r="A130" s="74" t="s">
         <v>2</v>
       </c>
       <c r="B130" s="77" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C130" s="78"/>
       <c r="D130" s="78"/>
       <c r="E130" s="78"/>
       <c r="F130" s="78"/>
       <c r="G130" s="79"/>
-      <c r="I130" s="80" t="s">
+      <c r="I130" s="74" t="s">
         <v>2</v>
       </c>
       <c r="J130" s="77" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K130" s="78"/>
       <c r="L130" s="78"/>
@@ -8227,9 +8649,9 @@
       <c r="O130" s="79"/>
     </row>
     <row r="131" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A131" s="81"/>
+      <c r="A131" s="75"/>
       <c r="B131" s="34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C131" s="35" t="s">
         <v>77</v>
@@ -8246,9 +8668,9 @@
       <c r="G131" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="I131" s="81"/>
+      <c r="I131" s="75"/>
       <c r="J131" s="34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K131" s="35" t="s">
         <v>77</v>
@@ -8267,7 +8689,7 @@
       </c>
     </row>
     <row r="132" spans="1:15" ht="47" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A132" s="82"/>
+      <c r="A132" s="76"/>
       <c r="B132" s="55" t="s">
         <v>76</v>
       </c>
@@ -8286,7 +8708,7 @@
       <c r="G132" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="I132" s="82"/>
+      <c r="I132" s="76"/>
       <c r="J132" s="55" t="s">
         <v>76</v>
       </c>
@@ -9104,7 +9526,7 @@
     </row>
     <row r="155" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A155" s="49" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B155" s="50"/>
       <c r="C155" s="50"/>
@@ -9158,7 +9580,7 @@
     </row>
     <row r="157" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A157" s="49" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B157" s="50"/>
       <c r="C157" s="50"/>
@@ -9187,16 +9609,16 @@
       <c r="A158" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B158" s="94" t="s">
-        <v>0</v>
-      </c>
-      <c r="C158" s="95"/>
-      <c r="D158" s="96"/>
-      <c r="E158" s="94" t="s">
+      <c r="B158" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="C158" s="84"/>
+      <c r="D158" s="85"/>
+      <c r="E158" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="F158" s="95"/>
-      <c r="G158" s="96"/>
+      <c r="F158" s="84"/>
+      <c r="G158" s="85"/>
     </row>
     <row r="159" spans="1:23" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A159" s="6"/>
@@ -9921,7 +10343,7 @@
     </row>
     <row r="182" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A182" s="49" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B182" s="50"/>
       <c r="C182" s="50"/>
@@ -9947,11 +10369,11 @@
       <c r="W182" s="50"/>
     </row>
     <row r="183" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A183" s="97" t="s">
-        <v>90</v>
-      </c>
-      <c r="B183" s="97"/>
-      <c r="C183" s="97"/>
+      <c r="A183" s="86" t="s">
+        <v>89</v>
+      </c>
+      <c r="B183" s="86"/>
+      <c r="C183" s="86"/>
     </row>
     <row r="184" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A184" s="1" t="s">
@@ -9999,7 +10421,7 @@
     </row>
     <row r="194" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A194" s="49" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B194" s="50"/>
       <c r="C194" s="50"/>
@@ -10025,39 +10447,39 @@
       <c r="W194" s="50"/>
     </row>
     <row r="195" spans="1:23" s="52" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A195" s="85" t="s">
+      <c r="A195" s="87" t="s">
+        <v>90</v>
+      </c>
+      <c r="B195" s="87"/>
+      <c r="C195" s="87"/>
+      <c r="D195" s="87"/>
+      <c r="E195" s="87"/>
+      <c r="F195" s="87"/>
+    </row>
+    <row r="196" spans="1:23" s="52" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A196" s="88" t="s">
         <v>91</v>
       </c>
-      <c r="B195" s="85"/>
-      <c r="C195" s="85"/>
-      <c r="D195" s="85"/>
-      <c r="E195" s="85"/>
-      <c r="F195" s="85"/>
-    </row>
-    <row r="196" spans="1:23" s="52" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A196" s="98" t="s">
-        <v>92</v>
-      </c>
-      <c r="B196" s="98"/>
-      <c r="C196" s="98"/>
-      <c r="D196" s="98"/>
-      <c r="E196" s="98"/>
-      <c r="F196" s="98"/>
+      <c r="B196" s="88"/>
+      <c r="C196" s="88"/>
+      <c r="D196" s="88"/>
+      <c r="E196" s="88"/>
+      <c r="F196" s="88"/>
     </row>
     <row r="197" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A197" s="91" t="s">
+      <c r="A197" s="80" t="s">
         <v>53</v>
       </c>
       <c r="B197" s="59"/>
       <c r="C197" s="59"/>
-      <c r="D197" s="91" t="s">
+      <c r="D197" s="80" t="s">
         <v>58</v>
       </c>
-      <c r="E197" s="91"/>
-      <c r="F197" s="91"/>
+      <c r="E197" s="80"/>
+      <c r="F197" s="80"/>
     </row>
     <row r="198" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A198" s="91"/>
+      <c r="A198" s="80"/>
       <c r="B198" s="59"/>
       <c r="C198" s="60" t="s">
         <v>54</v>
@@ -10703,29 +11125,29 @@
       </c>
     </row>
     <row r="216" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A216" s="92" t="s">
-        <v>93</v>
-      </c>
-      <c r="B216" s="92"/>
-      <c r="C216" s="92"/>
-      <c r="D216" s="92"/>
-      <c r="E216" s="92"/>
-      <c r="F216" s="92"/>
+      <c r="A216" s="81" t="s">
+        <v>92</v>
+      </c>
+      <c r="B216" s="81"/>
+      <c r="C216" s="81"/>
+      <c r="D216" s="81"/>
+      <c r="E216" s="81"/>
+      <c r="F216" s="81"/>
     </row>
     <row r="217" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A217" s="93" t="s">
+      <c r="A217" s="82" t="s">
         <v>2</v>
       </c>
       <c r="B217" s="59"/>
       <c r="C217" s="59"/>
-      <c r="D217" s="91" t="s">
+      <c r="D217" s="80" t="s">
         <v>58</v>
       </c>
-      <c r="E217" s="91"/>
-      <c r="F217" s="91"/>
+      <c r="E217" s="80"/>
+      <c r="F217" s="80"/>
     </row>
     <row r="218" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A218" s="93"/>
+      <c r="A218" s="82"/>
       <c r="B218" s="59"/>
       <c r="C218" s="60" t="s">
         <v>54</v>
@@ -11108,7 +11530,7 @@
     </row>
     <row r="236" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A236" s="57" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B236" s="52"/>
       <c r="C236" s="52"/>
@@ -11168,6 +11590,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A109:A111"/>
+    <mergeCell ref="B109:G109"/>
+    <mergeCell ref="B130:G130"/>
+    <mergeCell ref="A130:A132"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="C81:C83"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="A81:A83"/>
+    <mergeCell ref="B81:B83"/>
     <mergeCell ref="I130:I132"/>
     <mergeCell ref="J130:O130"/>
     <mergeCell ref="A197:A198"/>
@@ -11180,18 +11614,6 @@
     <mergeCell ref="A196:F196"/>
     <mergeCell ref="D197:F197"/>
     <mergeCell ref="D217:F217"/>
-    <mergeCell ref="A109:A111"/>
-    <mergeCell ref="B109:G109"/>
-    <mergeCell ref="B130:G130"/>
-    <mergeCell ref="A130:A132"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="C81:C83"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="A81:A83"/>
-    <mergeCell ref="B81:B83"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Config/Population_data.xlsx
+++ b/Config/Population_data.xlsx
@@ -559,8 +559,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="168" formatCode="0.00000;\-0.00000;0"/>
-    <numFmt numFmtId="169" formatCode="###;\-###;0"/>
+    <numFmt numFmtId="164" formatCode="0.00000;\-0.00000;0"/>
+    <numFmt numFmtId="165" formatCode="###;\-###;0"/>
   </numFmts>
   <fonts count="33" x14ac:knownFonts="1">
     <font>
@@ -1589,6 +1589,56 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1598,14 +1648,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -1629,72 +1694,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="168" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="48">
@@ -6149,8 +6149,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AF239"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N101" sqref="N101"/>
+    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J136" sqref="J136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6279,10 +6279,10 @@
       <c r="A4" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="92" t="s">
+      <c r="B4" s="95" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="93"/>
+      <c r="C4" s="96"/>
     </row>
     <row r="5" spans="1:25" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="53"/>
@@ -6519,10 +6519,10 @@
       <c r="A27" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="87" t="s">
+      <c r="B27" s="97" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="94"/>
+      <c r="C27" s="98"/>
     </row>
     <row r="28" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A28" s="12"/>
@@ -6910,19 +6910,19 @@
       <c r="AE51" s="32"/>
     </row>
     <row r="52" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A52" s="98" t="s">
+      <c r="A52" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="B52" s="98" t="s">
+      <c r="B52" s="102" t="s">
         <v>67</v>
       </c>
-      <c r="C52" s="98"/>
-      <c r="D52" s="98"/>
-      <c r="E52" s="98" t="s">
+      <c r="C52" s="102"/>
+      <c r="D52" s="102"/>
+      <c r="E52" s="102" t="s">
         <v>68</v>
       </c>
-      <c r="F52" s="98"/>
-      <c r="G52" s="98"/>
+      <c r="F52" s="102"/>
+      <c r="G52" s="102"/>
       <c r="X52" s="30"/>
       <c r="Y52" s="30"/>
       <c r="Z52" s="30"/>
@@ -6933,7 +6933,7 @@
       <c r="AE52" s="30"/>
     </row>
     <row r="53" spans="1:31" ht="30" x14ac:dyDescent="0.35">
-      <c r="A53" s="98"/>
+      <c r="A53" s="102"/>
       <c r="B53" s="45" t="s">
         <v>6</v>
       </c>
@@ -7467,13 +7467,13 @@
       <c r="X80" s="50"/>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A81" s="89" t="s">
+      <c r="A81" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="B81" s="95" t="s">
+      <c r="B81" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="C81" s="95" t="s">
+      <c r="C81" s="99" t="s">
         <v>4</v>
       </c>
       <c r="H81" t="s">
@@ -7481,10 +7481,10 @@
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A82" s="90"/>
-      <c r="B82" s="96"/>
-      <c r="C82" s="96"/>
-      <c r="I82" s="102" t="s">
+      <c r="A82" s="87"/>
+      <c r="B82" s="100"/>
+      <c r="C82" s="100"/>
+      <c r="I82" s="77" t="s">
         <v>98</v>
       </c>
       <c r="K82" t="s">
@@ -7495,27 +7495,27 @@
       </c>
     </row>
     <row r="83" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A83" s="91"/>
-      <c r="B83" s="97"/>
-      <c r="C83" s="97"/>
+      <c r="A83" s="88"/>
+      <c r="B83" s="101"/>
+      <c r="C83" s="101"/>
       <c r="E83" t="s">
         <v>99</v>
       </c>
-      <c r="H83" s="100"/>
-      <c r="I83" s="104">
-        <v>0</v>
-      </c>
-      <c r="J83" s="104">
+      <c r="H83" s="75"/>
+      <c r="I83" s="79">
+        <v>0</v>
+      </c>
+      <c r="J83" s="79">
         <v>1</v>
       </c>
-      <c r="K83" s="110">
+      <c r="K83" s="85">
         <v>5.1751479000000003E-2</v>
       </c>
-      <c r="L83" s="110">
+      <c r="L83" s="85">
         <v>4.2747080999999999E-2</v>
       </c>
-      <c r="O83" s="105"/>
-      <c r="P83" s="105"/>
+      <c r="O83" s="80"/>
+      <c r="P83" s="80"/>
     </row>
     <row r="84" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A84" s="4" t="s">
@@ -7533,17 +7533,17 @@
       <c r="F84">
         <v>0.06</v>
       </c>
-      <c r="H84" s="100"/>
-      <c r="I84" s="104">
+      <c r="H84" s="75"/>
+      <c r="I84" s="79">
         <v>1</v>
       </c>
-      <c r="J84" s="104">
+      <c r="J84" s="79">
         <v>4</v>
       </c>
-      <c r="K84" s="110">
+      <c r="K84" s="85">
         <v>5.2241062999999997E-3</v>
       </c>
-      <c r="L84" s="110">
+      <c r="L84" s="85">
         <v>4.6946237E-3</v>
       </c>
       <c r="M84" t="s">
@@ -7566,19 +7566,19 @@
       <c r="F85">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="H85" s="100"/>
-      <c r="I85" s="106">
-        <v>0</v>
-      </c>
-      <c r="J85" s="107">
+      <c r="H85" s="75"/>
+      <c r="I85" s="81">
+        <v>0</v>
+      </c>
+      <c r="J85" s="82">
         <f>SUM(J83:J84)</f>
         <v>5</v>
       </c>
-      <c r="K85" s="108">
+      <c r="K85" s="83">
         <f>SUM(K83:K84)</f>
         <v>5.6975585300000006E-2</v>
       </c>
-      <c r="L85" s="108">
+      <c r="L85" s="83">
         <f>SUM(L83:L84)</f>
         <v>4.7441704699999997E-2</v>
       </c>
@@ -7599,17 +7599,17 @@
       <c r="F86">
         <v>4.2999999999999999E-4</v>
       </c>
-      <c r="H86" s="100"/>
-      <c r="I86" s="101">
+      <c r="H86" s="75"/>
+      <c r="I86" s="76">
         <v>5</v>
       </c>
-      <c r="J86" s="101">
+      <c r="J86" s="76">
         <v>5</v>
       </c>
-      <c r="K86" s="109">
+      <c r="K86" s="84">
         <v>2.4750038999999998E-3</v>
       </c>
-      <c r="L86" s="109">
+      <c r="L86" s="84">
         <v>1.8590649E-3</v>
       </c>
     </row>
@@ -7629,17 +7629,17 @@
       <c r="F87">
         <v>7.6000000000000004E-4</v>
       </c>
-      <c r="H87" s="100"/>
-      <c r="I87" s="101">
+      <c r="H87" s="75"/>
+      <c r="I87" s="76">
         <v>10</v>
       </c>
-      <c r="J87" s="101">
+      <c r="J87" s="76">
         <v>5</v>
       </c>
-      <c r="K87" s="109">
+      <c r="K87" s="84">
         <v>1.5814690000000001E-3</v>
       </c>
-      <c r="L87" s="109">
+      <c r="L87" s="84">
         <v>1.2227608999999999E-3</v>
       </c>
     </row>
@@ -7659,17 +7659,17 @@
       <c r="F88">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="H88" s="100"/>
-      <c r="I88" s="101">
+      <c r="H88" s="75"/>
+      <c r="I88" s="76">
         <v>15</v>
       </c>
-      <c r="J88" s="101">
+      <c r="J88" s="76">
         <v>5</v>
       </c>
-      <c r="K88" s="109">
+      <c r="K88" s="84">
         <v>2.5001934000000001E-3</v>
       </c>
-      <c r="L88" s="109">
+      <c r="L88" s="84">
         <v>1.6750273E-3</v>
       </c>
     </row>
@@ -7689,17 +7689,17 @@
       <c r="F89">
         <v>1.83E-3</v>
       </c>
-      <c r="H89" s="100"/>
-      <c r="I89" s="101">
+      <c r="H89" s="75"/>
+      <c r="I89" s="76">
         <v>20</v>
       </c>
-      <c r="J89" s="101">
+      <c r="J89" s="76">
         <v>5</v>
       </c>
-      <c r="K89" s="109">
+      <c r="K89" s="84">
         <v>3.7640993E-3</v>
       </c>
-      <c r="L89" s="109">
+      <c r="L89" s="84">
         <v>2.3815536E-3</v>
       </c>
     </row>
@@ -7719,17 +7719,17 @@
       <c r="F90">
         <v>2.5200000000000001E-3</v>
       </c>
-      <c r="H90" s="100"/>
-      <c r="I90" s="101">
+      <c r="H90" s="75"/>
+      <c r="I90" s="76">
         <v>25</v>
       </c>
-      <c r="J90" s="101">
+      <c r="J90" s="76">
         <v>5</v>
       </c>
-      <c r="K90" s="109">
+      <c r="K90" s="84">
         <v>4.3315932999999996E-3</v>
       </c>
-      <c r="L90" s="109">
+      <c r="L90" s="84">
         <v>3.1198295999999999E-3</v>
       </c>
     </row>
@@ -7749,17 +7749,17 @@
       <c r="F91">
         <v>3.15E-3</v>
       </c>
-      <c r="H91" s="100"/>
-      <c r="I91" s="101">
+      <c r="H91" s="75"/>
+      <c r="I91" s="76">
         <v>30</v>
       </c>
-      <c r="J91" s="101">
+      <c r="J91" s="76">
         <v>5</v>
       </c>
-      <c r="K91" s="109">
+      <c r="K91" s="84">
         <v>5.1669517000000002E-3</v>
       </c>
-      <c r="L91" s="109">
+      <c r="L91" s="84">
         <v>3.7817176000000002E-3</v>
       </c>
     </row>
@@ -7779,17 +7779,17 @@
       <c r="F92">
         <v>4.4799999999999996E-3</v>
       </c>
-      <c r="H92" s="100"/>
-      <c r="I92" s="101">
+      <c r="H92" s="75"/>
+      <c r="I92" s="76">
         <v>35</v>
       </c>
-      <c r="J92" s="101">
+      <c r="J92" s="76">
         <v>5</v>
       </c>
-      <c r="K92" s="109">
+      <c r="K92" s="84">
         <v>6.4414638999999996E-3</v>
       </c>
-      <c r="L92" s="109">
+      <c r="L92" s="84">
         <v>4.6448573999999998E-3</v>
       </c>
     </row>
@@ -7809,17 +7809,17 @@
       <c r="F93">
         <v>5.7600000000000004E-3</v>
       </c>
-      <c r="H93" s="100"/>
-      <c r="I93" s="101">
+      <c r="H93" s="75"/>
+      <c r="I93" s="76">
         <v>40</v>
       </c>
-      <c r="J93" s="101">
+      <c r="J93" s="76">
         <v>5</v>
       </c>
-      <c r="K93" s="109">
+      <c r="K93" s="84">
         <v>8.0432449999999992E-3</v>
       </c>
-      <c r="L93" s="109">
+      <c r="L93" s="84">
         <v>5.6773359000000002E-3</v>
       </c>
     </row>
@@ -7839,17 +7839,17 @@
       <c r="F94">
         <v>9.6399999999999993E-3</v>
       </c>
-      <c r="H94" s="100"/>
-      <c r="I94" s="101">
+      <c r="H94" s="75"/>
+      <c r="I94" s="76">
         <v>45</v>
       </c>
-      <c r="J94" s="101">
+      <c r="J94" s="76">
         <v>5</v>
       </c>
-      <c r="K94" s="109">
+      <c r="K94" s="84">
         <v>1.0135829000000001E-2</v>
       </c>
-      <c r="L94" s="109">
+      <c r="L94" s="84">
         <v>6.6691631000000001E-3</v>
       </c>
     </row>
@@ -7869,17 +7869,17 @@
       <c r="F95" s="52">
         <v>1.393E-2</v>
       </c>
-      <c r="H95" s="100"/>
-      <c r="I95" s="101">
+      <c r="H95" s="75"/>
+      <c r="I95" s="76">
         <v>50</v>
       </c>
-      <c r="J95" s="101">
+      <c r="J95" s="76">
         <v>5</v>
       </c>
-      <c r="K95" s="109">
+      <c r="K95" s="84">
         <v>1.4004198000000001E-2</v>
       </c>
-      <c r="L95" s="109">
+      <c r="L95" s="84">
         <v>8.9763412999999993E-3</v>
       </c>
     </row>
@@ -7893,19 +7893,19 @@
       <c r="C96" s="13">
         <v>1.5759592316689931E-2</v>
       </c>
-      <c r="E96" s="103"/>
-      <c r="F96" s="103"/>
-      <c r="H96" s="100"/>
-      <c r="I96" s="101">
+      <c r="E96" s="78"/>
+      <c r="F96" s="78"/>
+      <c r="H96" s="75"/>
+      <c r="I96" s="76">
         <v>55</v>
       </c>
-      <c r="J96" s="101">
+      <c r="J96" s="76">
         <v>5</v>
       </c>
-      <c r="K96" s="109">
+      <c r="K96" s="84">
         <v>1.8576009000000001E-2</v>
       </c>
-      <c r="L96" s="109">
+      <c r="L96" s="84">
         <v>1.2049147E-2</v>
       </c>
     </row>
@@ -7919,19 +7919,19 @@
       <c r="C97" s="13">
         <v>2.2837523063216215E-2</v>
       </c>
-      <c r="E97" s="103"/>
-      <c r="F97" s="103"/>
-      <c r="H97" s="100"/>
-      <c r="I97" s="101">
+      <c r="E97" s="78"/>
+      <c r="F97" s="78"/>
+      <c r="H97" s="75"/>
+      <c r="I97" s="76">
         <v>60</v>
       </c>
-      <c r="J97" s="101">
+      <c r="J97" s="76">
         <v>5</v>
       </c>
-      <c r="K97" s="109">
+      <c r="K97" s="84">
         <v>2.7759598999999999E-2</v>
       </c>
-      <c r="L97" s="109">
+      <c r="L97" s="84">
         <v>1.8543285E-2</v>
       </c>
     </row>
@@ -7945,19 +7945,19 @@
       <c r="C98" s="13">
         <v>3.3336893194863555E-2</v>
       </c>
-      <c r="E98" s="103"/>
-      <c r="F98" s="103"/>
-      <c r="H98" s="100"/>
-      <c r="I98" s="101">
+      <c r="E98" s="78"/>
+      <c r="F98" s="78"/>
+      <c r="H98" s="75"/>
+      <c r="I98" s="76">
         <v>65</v>
       </c>
-      <c r="J98" s="101">
+      <c r="J98" s="76">
         <v>5</v>
       </c>
-      <c r="K98" s="109">
+      <c r="K98" s="84">
         <v>4.2779603999999999E-2</v>
       </c>
-      <c r="L98" s="109">
+      <c r="L98" s="84">
         <v>3.039122E-2</v>
       </c>
     </row>
@@ -7971,57 +7971,57 @@
       <c r="C99" s="13">
         <v>6.1722846856347699E-2</v>
       </c>
-      <c r="E99" s="103"/>
-      <c r="F99" s="103"/>
-      <c r="H99" s="100"/>
-      <c r="I99" s="101">
+      <c r="E99" s="78"/>
+      <c r="F99" s="78"/>
+      <c r="H99" s="75"/>
+      <c r="I99" s="76">
         <v>70</v>
       </c>
-      <c r="J99" s="101">
+      <c r="J99" s="76">
         <v>5</v>
       </c>
-      <c r="K99" s="109">
+      <c r="K99" s="84">
         <v>6.8473476000000005E-2</v>
       </c>
-      <c r="L99" s="109">
+      <c r="L99" s="84">
         <v>5.1704121999999998E-2</v>
       </c>
     </row>
     <row r="100" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="E100" s="99"/>
-      <c r="F100" s="99"/>
-      <c r="I100" s="101">
+      <c r="E100" s="74"/>
+      <c r="F100" s="74"/>
+      <c r="I100" s="76">
         <v>75</v>
       </c>
-      <c r="J100" s="101">
+      <c r="J100" s="76">
         <v>5</v>
       </c>
-      <c r="K100" s="109">
+      <c r="K100" s="84">
         <v>0.11201527999999999</v>
       </c>
-      <c r="L100" s="109">
+      <c r="L100" s="84">
         <v>8.8066895000000006E-2</v>
       </c>
     </row>
     <row r="101" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="I101" s="101"/>
-      <c r="J101" s="101"/>
-      <c r="K101" s="100"/>
+      <c r="I101" s="76"/>
+      <c r="J101" s="76"/>
+      <c r="K101" s="75"/>
     </row>
     <row r="102" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="I102" s="101"/>
-      <c r="J102" s="101"/>
-      <c r="K102" s="100"/>
+      <c r="I102" s="76"/>
+      <c r="J102" s="76"/>
+      <c r="K102" s="75"/>
     </row>
     <row r="103" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="I103" s="101"/>
-      <c r="J103" s="101"/>
-      <c r="K103" s="100"/>
+      <c r="I103" s="76"/>
+      <c r="J103" s="76"/>
+      <c r="K103" s="75"/>
     </row>
     <row r="104" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="I104" s="101"/>
-      <c r="J104" s="101"/>
-      <c r="K104" s="100"/>
+      <c r="I104" s="76"/>
+      <c r="J104" s="76"/>
+      <c r="K104" s="75"/>
     </row>
     <row r="105" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A105" s="49" t="s">
@@ -8136,20 +8136,20 @@
       <c r="X108" s="50"/>
     </row>
     <row r="109" spans="1:24" ht="15.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A109" s="89" t="s">
+      <c r="A109" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="B109" s="77" t="s">
+      <c r="B109" s="89" t="s">
         <v>95</v>
       </c>
-      <c r="C109" s="78"/>
-      <c r="D109" s="78"/>
-      <c r="E109" s="78"/>
-      <c r="F109" s="78"/>
-      <c r="G109" s="79"/>
+      <c r="C109" s="90"/>
+      <c r="D109" s="90"/>
+      <c r="E109" s="90"/>
+      <c r="F109" s="90"/>
+      <c r="G109" s="91"/>
     </row>
     <row r="110" spans="1:24" ht="46" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="90"/>
+      <c r="A110" s="87"/>
       <c r="B110" s="44" t="s">
         <v>83</v>
       </c>
@@ -8170,7 +8170,7 @@
       </c>
     </row>
     <row r="111" spans="1:24" ht="47" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A111" s="91"/>
+      <c r="A111" s="88"/>
       <c r="B111" s="46" t="s">
         <v>76</v>
       </c>
@@ -8625,31 +8625,31 @@
     </row>
     <row r="129" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="130" spans="1:15" ht="15.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A130" s="74" t="s">
+      <c r="A130" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="B130" s="77" t="s">
+      <c r="B130" s="89" t="s">
         <v>96</v>
       </c>
-      <c r="C130" s="78"/>
-      <c r="D130" s="78"/>
-      <c r="E130" s="78"/>
-      <c r="F130" s="78"/>
-      <c r="G130" s="79"/>
-      <c r="I130" s="74" t="s">
+      <c r="C130" s="90"/>
+      <c r="D130" s="90"/>
+      <c r="E130" s="90"/>
+      <c r="F130" s="90"/>
+      <c r="G130" s="91"/>
+      <c r="I130" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="J130" s="77" t="s">
+      <c r="J130" s="89" t="s">
         <v>97</v>
       </c>
-      <c r="K130" s="78"/>
-      <c r="L130" s="78"/>
-      <c r="M130" s="78"/>
-      <c r="N130" s="78"/>
-      <c r="O130" s="79"/>
+      <c r="K130" s="90"/>
+      <c r="L130" s="90"/>
+      <c r="M130" s="90"/>
+      <c r="N130" s="90"/>
+      <c r="O130" s="91"/>
     </row>
     <row r="131" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A131" s="75"/>
+      <c r="A131" s="93"/>
       <c r="B131" s="34" t="s">
         <v>84</v>
       </c>
@@ -8668,7 +8668,7 @@
       <c r="G131" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="I131" s="75"/>
+      <c r="I131" s="93"/>
       <c r="J131" s="34" t="s">
         <v>84</v>
       </c>
@@ -8689,7 +8689,7 @@
       </c>
     </row>
     <row r="132" spans="1:15" ht="47" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A132" s="76"/>
+      <c r="A132" s="94"/>
       <c r="B132" s="55" t="s">
         <v>76</v>
       </c>
@@ -8708,7 +8708,7 @@
       <c r="G132" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="I132" s="76"/>
+      <c r="I132" s="94"/>
       <c r="J132" s="55" t="s">
         <v>76</v>
       </c>
@@ -8865,49 +8865,55 @@
         <v>18</v>
       </c>
       <c r="B136" s="27">
-        <v>7.0699999999999999E-2</v>
+        <f>B115*0.65</f>
+        <v>9.1910000000000006E-2</v>
       </c>
       <c r="C136" s="27">
-        <v>7.0699999999999999E-2</v>
+        <f t="shared" ref="C136:G136" si="4">C115*0.65</f>
+        <v>9.1910000000000006E-2</v>
       </c>
       <c r="D136" s="27">
-        <v>7.0699999999999999E-2</v>
+        <f t="shared" si="4"/>
+        <v>9.1910000000000006E-2</v>
       </c>
       <c r="E136" s="27">
-        <v>4.1006000000000008E-2</v>
+        <f t="shared" si="4"/>
+        <v>5.3307800000000009E-2</v>
       </c>
       <c r="F136" s="27">
-        <v>4.1006000000000008E-2</v>
+        <f t="shared" si="4"/>
+        <v>5.3307800000000009E-2</v>
       </c>
       <c r="G136" s="27">
-        <v>2.8987000000000002E-2</v>
+        <f t="shared" si="4"/>
+        <v>3.7683100000000004E-2</v>
       </c>
       <c r="I136" s="72" t="s">
         <v>18</v>
       </c>
       <c r="J136" s="27">
         <f>B136*0.75</f>
-        <v>5.3025000000000003E-2</v>
+        <v>6.8932500000000008E-2</v>
       </c>
       <c r="K136" s="27">
-        <f t="shared" ref="K136:O142" si="4">C136*0.75</f>
-        <v>5.3025000000000003E-2</v>
+        <f t="shared" ref="K136:O142" si="5">C136*0.75</f>
+        <v>6.8932500000000008E-2</v>
       </c>
       <c r="L136" s="27">
-        <f t="shared" si="4"/>
-        <v>5.3025000000000003E-2</v>
+        <f t="shared" si="5"/>
+        <v>6.8932500000000008E-2</v>
       </c>
       <c r="M136" s="27">
-        <f t="shared" si="4"/>
-        <v>3.0754500000000004E-2</v>
+        <f t="shared" si="5"/>
+        <v>3.9980850000000005E-2</v>
       </c>
       <c r="N136" s="27">
-        <f t="shared" si="4"/>
-        <v>3.0754500000000004E-2</v>
+        <f t="shared" si="5"/>
+        <v>3.9980850000000005E-2</v>
       </c>
       <c r="O136" s="27">
-        <f t="shared" si="4"/>
-        <v>2.1740250000000003E-2</v>
+        <f t="shared" si="5"/>
+        <v>2.8262325000000005E-2</v>
       </c>
     </row>
     <row r="137" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -8915,49 +8921,55 @@
         <v>19</v>
       </c>
       <c r="B137" s="27">
-        <v>0.13900000000000001</v>
+        <f t="shared" ref="B137:G142" si="6">B116*0.65</f>
+        <v>0.18070000000000003</v>
       </c>
       <c r="C137" s="27">
-        <v>0.13900000000000001</v>
+        <f t="shared" si="6"/>
+        <v>0.18070000000000003</v>
       </c>
       <c r="D137" s="27">
-        <v>0.13900000000000001</v>
+        <f t="shared" si="6"/>
+        <v>0.18070000000000003</v>
       </c>
       <c r="E137" s="27">
-        <v>8.0620000000000011E-2</v>
+        <f t="shared" si="6"/>
+        <v>0.10480600000000002</v>
       </c>
       <c r="F137" s="27">
-        <v>8.0620000000000011E-2</v>
+        <f t="shared" si="6"/>
+        <v>0.10480600000000002</v>
       </c>
       <c r="G137" s="27">
-        <v>5.6990000000000013E-2</v>
+        <f t="shared" si="6"/>
+        <v>7.4087000000000014E-2</v>
       </c>
       <c r="I137" s="72" t="s">
         <v>19</v>
       </c>
       <c r="J137" s="27">
-        <f t="shared" ref="J137:J142" si="5">B137*0.75</f>
-        <v>0.10425000000000001</v>
+        <f t="shared" ref="J137:J142" si="7">B137*0.75</f>
+        <v>0.13552500000000001</v>
       </c>
       <c r="K137" s="27">
-        <f t="shared" si="4"/>
-        <v>0.10425000000000001</v>
+        <f t="shared" si="5"/>
+        <v>0.13552500000000001</v>
       </c>
       <c r="L137" s="27">
-        <f t="shared" si="4"/>
-        <v>0.10425000000000001</v>
+        <f t="shared" si="5"/>
+        <v>0.13552500000000001</v>
       </c>
       <c r="M137" s="27">
-        <f t="shared" si="4"/>
-        <v>6.0465000000000005E-2</v>
+        <f t="shared" si="5"/>
+        <v>7.8604500000000022E-2</v>
       </c>
       <c r="N137" s="27">
-        <f t="shared" si="4"/>
-        <v>6.0465000000000005E-2</v>
+        <f t="shared" si="5"/>
+        <v>7.8604500000000022E-2</v>
       </c>
       <c r="O137" s="27">
-        <f t="shared" si="4"/>
-        <v>4.274250000000001E-2</v>
+        <f t="shared" si="5"/>
+        <v>5.556525000000001E-2</v>
       </c>
     </row>
     <row r="138" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -8965,49 +8977,55 @@
         <v>20</v>
       </c>
       <c r="B138" s="27">
-        <v>0.14180000000000001</v>
+        <f t="shared" si="6"/>
+        <v>0.18434000000000003</v>
       </c>
       <c r="C138" s="27">
-        <v>0.14180000000000001</v>
+        <f t="shared" si="6"/>
+        <v>0.18434000000000003</v>
       </c>
       <c r="D138" s="27">
-        <v>0.14180000000000001</v>
+        <f t="shared" si="6"/>
+        <v>0.18434000000000003</v>
       </c>
       <c r="E138" s="27">
-        <v>8.2244000000000012E-2</v>
+        <f t="shared" si="6"/>
+        <v>0.10691720000000002</v>
       </c>
       <c r="F138" s="27">
-        <v>8.2244000000000012E-2</v>
+        <f t="shared" si="6"/>
+        <v>0.10691720000000002</v>
       </c>
       <c r="G138" s="27">
-        <v>5.8138000000000009E-2</v>
+        <f t="shared" si="6"/>
+        <v>7.5579400000000019E-2</v>
       </c>
       <c r="I138" s="72" t="s">
         <v>20</v>
       </c>
       <c r="J138" s="27">
+        <f t="shared" si="7"/>
+        <v>0.13825500000000002</v>
+      </c>
+      <c r="K138" s="27">
         <f t="shared" si="5"/>
-        <v>0.10635</v>
-      </c>
-      <c r="K138" s="27">
-        <f t="shared" si="4"/>
-        <v>0.10635</v>
+        <v>0.13825500000000002</v>
       </c>
       <c r="L138" s="27">
-        <f t="shared" si="4"/>
-        <v>0.10635</v>
+        <f t="shared" si="5"/>
+        <v>0.13825500000000002</v>
       </c>
       <c r="M138" s="27">
-        <f t="shared" si="4"/>
-        <v>6.1683000000000009E-2</v>
+        <f t="shared" si="5"/>
+        <v>8.0187900000000006E-2</v>
       </c>
       <c r="N138" s="27">
-        <f t="shared" si="4"/>
-        <v>6.1683000000000009E-2</v>
+        <f t="shared" si="5"/>
+        <v>8.0187900000000006E-2</v>
       </c>
       <c r="O138" s="27">
-        <f t="shared" si="4"/>
-        <v>4.3603500000000003E-2</v>
+        <f t="shared" si="5"/>
+        <v>5.6684550000000014E-2</v>
       </c>
     </row>
     <row r="139" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -9015,49 +9033,55 @@
         <v>23</v>
       </c>
       <c r="B139" s="27">
-        <v>0.1056</v>
+        <f t="shared" si="6"/>
+        <v>0.13728000000000001</v>
       </c>
       <c r="C139" s="27">
-        <v>0.1056</v>
+        <f t="shared" si="6"/>
+        <v>0.13728000000000001</v>
       </c>
       <c r="D139" s="27">
-        <v>0.1056</v>
+        <f t="shared" si="6"/>
+        <v>0.13728000000000001</v>
       </c>
       <c r="E139" s="27">
-        <v>6.1248000000000004E-2</v>
+        <f t="shared" si="6"/>
+        <v>7.962240000000001E-2</v>
       </c>
       <c r="F139" s="27">
-        <v>6.1248000000000004E-2</v>
+        <f t="shared" si="6"/>
+        <v>7.962240000000001E-2</v>
       </c>
       <c r="G139" s="27">
-        <v>4.3296000000000001E-2</v>
+        <f t="shared" si="6"/>
+        <v>5.6284800000000003E-2</v>
       </c>
       <c r="I139" s="72" t="s">
         <v>23</v>
       </c>
       <c r="J139" s="27">
+        <f t="shared" si="7"/>
+        <v>0.10296000000000001</v>
+      </c>
+      <c r="K139" s="27">
         <f t="shared" si="5"/>
-        <v>7.9199999999999993E-2</v>
-      </c>
-      <c r="K139" s="27">
-        <f t="shared" si="4"/>
-        <v>7.9199999999999993E-2</v>
+        <v>0.10296000000000001</v>
       </c>
       <c r="L139" s="27">
-        <f t="shared" si="4"/>
-        <v>7.9199999999999993E-2</v>
+        <f t="shared" si="5"/>
+        <v>0.10296000000000001</v>
       </c>
       <c r="M139" s="27">
-        <f t="shared" si="4"/>
-        <v>4.5936000000000005E-2</v>
+        <f t="shared" si="5"/>
+        <v>5.9716800000000007E-2</v>
       </c>
       <c r="N139" s="27">
-        <f t="shared" si="4"/>
-        <v>4.5936000000000005E-2</v>
+        <f t="shared" si="5"/>
+        <v>5.9716800000000007E-2</v>
       </c>
       <c r="O139" s="27">
-        <f t="shared" si="4"/>
-        <v>3.2472000000000001E-2</v>
+        <f t="shared" si="5"/>
+        <v>4.2213600000000004E-2</v>
       </c>
     </row>
     <row r="140" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -9065,49 +9089,55 @@
         <v>22</v>
       </c>
       <c r="B140" s="27">
-        <v>6.7400000000000002E-2</v>
+        <f t="shared" si="6"/>
+        <v>8.7620000000000003E-2</v>
       </c>
       <c r="C140" s="27">
-        <v>6.7400000000000002E-2</v>
+        <f t="shared" si="6"/>
+        <v>8.7620000000000003E-2</v>
       </c>
       <c r="D140" s="27">
-        <v>6.7400000000000002E-2</v>
+        <f t="shared" si="6"/>
+        <v>8.7620000000000003E-2</v>
       </c>
       <c r="E140" s="27">
-        <v>3.9092000000000009E-2</v>
+        <f t="shared" si="6"/>
+        <v>5.0819600000000013E-2</v>
       </c>
       <c r="F140" s="27">
-        <v>3.9092000000000009E-2</v>
+        <f t="shared" si="6"/>
+        <v>5.0819600000000013E-2</v>
       </c>
       <c r="G140" s="27">
-        <v>2.7634000000000002E-2</v>
+        <f t="shared" si="6"/>
+        <v>3.5924200000000003E-2</v>
       </c>
       <c r="I140" s="72" t="s">
         <v>22</v>
       </c>
       <c r="J140" s="27">
+        <f t="shared" si="7"/>
+        <v>6.5714999999999996E-2</v>
+      </c>
+      <c r="K140" s="27">
         <f t="shared" si="5"/>
-        <v>5.0549999999999998E-2</v>
-      </c>
-      <c r="K140" s="27">
-        <f t="shared" si="4"/>
-        <v>5.0549999999999998E-2</v>
+        <v>6.5714999999999996E-2</v>
       </c>
       <c r="L140" s="27">
-        <f t="shared" si="4"/>
-        <v>5.0549999999999998E-2</v>
+        <f t="shared" si="5"/>
+        <v>6.5714999999999996E-2</v>
       </c>
       <c r="M140" s="27">
-        <f t="shared" si="4"/>
-        <v>2.9319000000000005E-2</v>
+        <f t="shared" si="5"/>
+        <v>3.8114700000000008E-2</v>
       </c>
       <c r="N140" s="27">
-        <f t="shared" si="4"/>
-        <v>2.9319000000000005E-2</v>
+        <f t="shared" si="5"/>
+        <v>3.8114700000000008E-2</v>
       </c>
       <c r="O140" s="27">
-        <f t="shared" si="4"/>
-        <v>2.0725500000000001E-2</v>
+        <f t="shared" si="5"/>
+        <v>2.6943150000000003E-2</v>
       </c>
     </row>
     <row r="141" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -9115,49 +9145,55 @@
         <v>24</v>
       </c>
       <c r="B141" s="27">
-        <v>2.7100000000000003E-2</v>
+        <f t="shared" si="6"/>
+        <v>3.5230000000000004E-2</v>
       </c>
       <c r="C141" s="27">
-        <v>2.7100000000000003E-2</v>
+        <f t="shared" si="6"/>
+        <v>3.5230000000000004E-2</v>
       </c>
       <c r="D141" s="27">
-        <v>2.7100000000000003E-2</v>
+        <f t="shared" si="6"/>
+        <v>3.5230000000000004E-2</v>
       </c>
       <c r="E141" s="27">
-        <v>1.5718000000000003E-2</v>
+        <f t="shared" si="6"/>
+        <v>2.0433400000000004E-2</v>
       </c>
       <c r="F141" s="27">
-        <v>1.5718000000000003E-2</v>
+        <f t="shared" si="6"/>
+        <v>2.0433400000000004E-2</v>
       </c>
       <c r="G141" s="27">
-        <v>1.1111000000000001E-2</v>
+        <f t="shared" si="6"/>
+        <v>1.4444300000000002E-2</v>
       </c>
       <c r="I141" s="72" t="s">
         <v>24</v>
       </c>
       <c r="J141" s="27">
+        <f t="shared" si="7"/>
+        <v>2.6422500000000002E-2</v>
+      </c>
+      <c r="K141" s="27">
         <f t="shared" si="5"/>
-        <v>2.0325000000000003E-2</v>
-      </c>
-      <c r="K141" s="27">
-        <f t="shared" si="4"/>
-        <v>2.0325000000000003E-2</v>
+        <v>2.6422500000000002E-2</v>
       </c>
       <c r="L141" s="27">
-        <f t="shared" si="4"/>
-        <v>2.0325000000000003E-2</v>
+        <f t="shared" si="5"/>
+        <v>2.6422500000000002E-2</v>
       </c>
       <c r="M141" s="27">
-        <f t="shared" si="4"/>
-        <v>1.1788500000000002E-2</v>
+        <f t="shared" si="5"/>
+        <v>1.5325050000000003E-2</v>
       </c>
       <c r="N141" s="27">
-        <f t="shared" si="4"/>
-        <v>1.1788500000000002E-2</v>
+        <f t="shared" si="5"/>
+        <v>1.5325050000000003E-2</v>
       </c>
       <c r="O141" s="27">
-        <f t="shared" si="4"/>
-        <v>8.3332500000000004E-3</v>
+        <f t="shared" si="5"/>
+        <v>1.0833225000000002E-2</v>
       </c>
     </row>
     <row r="142" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -9165,49 +9201,55 @@
         <v>25</v>
       </c>
       <c r="B142" s="27">
-        <v>8.8000000000000005E-3</v>
+        <f t="shared" si="6"/>
+        <v>1.1440000000000001E-2</v>
       </c>
       <c r="C142" s="27">
-        <v>8.8000000000000005E-3</v>
+        <f t="shared" si="6"/>
+        <v>1.1440000000000001E-2</v>
       </c>
       <c r="D142" s="27">
-        <v>8.8000000000000005E-3</v>
+        <f t="shared" si="6"/>
+        <v>1.1440000000000001E-2</v>
       </c>
       <c r="E142" s="27">
-        <v>5.1040000000000009E-3</v>
+        <f t="shared" si="6"/>
+        <v>6.6352000000000017E-3</v>
       </c>
       <c r="F142" s="27">
-        <v>5.1040000000000009E-3</v>
+        <f t="shared" si="6"/>
+        <v>6.6352000000000017E-3</v>
       </c>
       <c r="G142" s="27">
-        <v>3.6080000000000005E-3</v>
+        <f t="shared" si="6"/>
+        <v>4.6904000000000008E-3</v>
       </c>
       <c r="I142" s="72" t="s">
         <v>25</v>
       </c>
       <c r="J142" s="27">
+        <f t="shared" si="7"/>
+        <v>8.5800000000000008E-3</v>
+      </c>
+      <c r="K142" s="27">
         <f t="shared" si="5"/>
-        <v>6.6E-3</v>
-      </c>
-      <c r="K142" s="27">
-        <f t="shared" si="4"/>
-        <v>6.6E-3</v>
+        <v>8.5800000000000008E-3</v>
       </c>
       <c r="L142" s="27">
-        <f t="shared" si="4"/>
-        <v>6.6E-3</v>
+        <f t="shared" si="5"/>
+        <v>8.5800000000000008E-3</v>
       </c>
       <c r="M142" s="27">
-        <f t="shared" si="4"/>
-        <v>3.8280000000000007E-3</v>
+        <f t="shared" si="5"/>
+        <v>4.9764000000000015E-3</v>
       </c>
       <c r="N142" s="27">
-        <f t="shared" si="4"/>
-        <v>3.8280000000000007E-3</v>
+        <f t="shared" si="5"/>
+        <v>4.9764000000000015E-3</v>
       </c>
       <c r="O142" s="27">
-        <f t="shared" si="4"/>
-        <v>2.7060000000000005E-3</v>
+        <f t="shared" si="5"/>
+        <v>3.5178000000000006E-3</v>
       </c>
     </row>
     <row r="143" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -9476,52 +9518,52 @@
     </row>
     <row r="149" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B149">
-        <f t="shared" ref="B149:G149" si="6">5*SUM(B133:B148)</f>
-        <v>2.8020000000000005</v>
+        <f t="shared" ref="B149:G149" si="8">5*SUM(B133:B148)</f>
+        <v>3.6426000000000003</v>
       </c>
       <c r="C149">
-        <f t="shared" si="6"/>
-        <v>2.8020000000000005</v>
+        <f t="shared" si="8"/>
+        <v>3.6426000000000003</v>
       </c>
       <c r="D149">
-        <f t="shared" si="6"/>
-        <v>2.8020000000000005</v>
+        <f t="shared" si="8"/>
+        <v>3.6426000000000003</v>
       </c>
       <c r="E149">
-        <f t="shared" si="6"/>
-        <v>1.6251600000000002</v>
+        <f t="shared" si="8"/>
+        <v>2.112708</v>
       </c>
       <c r="F149">
-        <f t="shared" si="6"/>
-        <v>1.6251600000000002</v>
+        <f t="shared" si="8"/>
+        <v>2.112708</v>
       </c>
       <c r="G149">
-        <f t="shared" si="6"/>
-        <v>1.1488200000000002</v>
+        <f t="shared" si="8"/>
+        <v>1.4934660000000002</v>
       </c>
       <c r="J149">
-        <f t="shared" ref="J149:O149" si="7">5*SUM(J133:J148)</f>
-        <v>2.1014999999999997</v>
+        <f t="shared" ref="J149:O149" si="9">5*SUM(J133:J148)</f>
+        <v>2.7319500000000003</v>
       </c>
       <c r="K149">
-        <f t="shared" si="7"/>
-        <v>2.1014999999999997</v>
+        <f t="shared" si="9"/>
+        <v>2.7319500000000003</v>
       </c>
       <c r="L149">
-        <f t="shared" si="7"/>
-        <v>2.1014999999999997</v>
+        <f t="shared" si="9"/>
+        <v>2.7319500000000003</v>
       </c>
       <c r="M149">
-        <f t="shared" si="7"/>
-        <v>1.2188700000000003</v>
+        <f t="shared" si="9"/>
+        <v>1.5845310000000001</v>
       </c>
       <c r="N149">
-        <f t="shared" si="7"/>
-        <v>1.2188700000000003</v>
+        <f t="shared" si="9"/>
+        <v>1.5845310000000001</v>
       </c>
       <c r="O149">
-        <f t="shared" si="7"/>
-        <v>0.86161500000000013</v>
+        <f t="shared" si="9"/>
+        <v>1.1200995000000002</v>
       </c>
     </row>
     <row r="155" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
@@ -9609,16 +9651,16 @@
       <c r="A158" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B158" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="C158" s="84"/>
-      <c r="D158" s="85"/>
-      <c r="E158" s="83" t="s">
+      <c r="B158" s="106" t="s">
+        <v>0</v>
+      </c>
+      <c r="C158" s="107"/>
+      <c r="D158" s="108"/>
+      <c r="E158" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="F158" s="84"/>
-      <c r="G158" s="85"/>
+      <c r="F158" s="107"/>
+      <c r="G158" s="108"/>
     </row>
     <row r="159" spans="1:23" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A159" s="6"/>
@@ -9646,15 +9688,15 @@
         <v>11</v>
       </c>
       <c r="B160" s="40">
-        <f t="shared" ref="B160:G161" si="8">10^-5</f>
+        <f t="shared" ref="B160:G161" si="10">10^-5</f>
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="C160" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="D160" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="E160" s="40">
@@ -9662,11 +9704,11 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="F160" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="G160" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="J160">
@@ -9674,11 +9716,11 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="K160">
-        <f t="shared" ref="K160:L175" si="9">C160*C54</f>
+        <f t="shared" ref="K160:L175" si="11">C160*C54</f>
         <v>0</v>
       </c>
       <c r="L160">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -9687,39 +9729,39 @@
         <v>14</v>
       </c>
       <c r="B161" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="C161" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="D161" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="E161" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="F161" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="G161" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="J161">
-        <f t="shared" ref="J161:J175" si="10">B161*B55</f>
+        <f t="shared" ref="J161:J175" si="12">B161*B55</f>
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="K161">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L161">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -9746,15 +9788,15 @@
         <v>1.2</v>
       </c>
       <c r="J162">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.176E-2</v>
       </c>
       <c r="K162">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.8E-3</v>
       </c>
       <c r="L162">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>6.0000000000000218E-3</v>
       </c>
       <c r="M162">
@@ -9789,23 +9831,23 @@
         <v>6.5</v>
       </c>
       <c r="J163">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.33787878787878783</v>
       </c>
       <c r="K163">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.040909090909091</v>
       </c>
       <c r="L163">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.58030303030303021</v>
       </c>
       <c r="M163">
-        <f t="shared" ref="M163:M175" si="11">SUM(J163:L163)</f>
+        <f t="shared" ref="M163:M175" si="13">SUM(J163:L163)</f>
         <v>1.959090909090909</v>
       </c>
       <c r="N163">
-        <f t="shared" ref="N163:N175" si="12">1/M163</f>
+        <f t="shared" ref="N163:N175" si="14">1/M163</f>
         <v>0.51044083526682138</v>
       </c>
     </row>
@@ -9832,23 +9874,23 @@
         <v>10</v>
       </c>
       <c r="J164">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.33193277310924363</v>
       </c>
       <c r="K164">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.1274509803921566</v>
       </c>
       <c r="L164">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.65546218487394958</v>
       </c>
       <c r="M164">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.1148459383753497</v>
       </c>
       <c r="N164">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.47284768211920541</v>
       </c>
     </row>
@@ -9875,23 +9917,23 @@
         <v>5.333333333333333</v>
       </c>
       <c r="J165">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.39310344827586208</v>
       </c>
       <c r="K165">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.0551724137931036</v>
       </c>
       <c r="L165">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.54482758620689653</v>
       </c>
       <c r="M165">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.9931034482758623</v>
       </c>
       <c r="N165">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.50173010380622829</v>
       </c>
     </row>
@@ -9918,23 +9960,23 @@
         <v>1</v>
       </c>
       <c r="J166">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.46610169491525422</v>
       </c>
       <c r="K166">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.84745762711864414</v>
       </c>
       <c r="L166">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.3135593220338983</v>
       </c>
       <c r="M166">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.6271186440677967</v>
       </c>
       <c r="N166">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.61458333333333326</v>
       </c>
     </row>
@@ -9961,23 +10003,23 @@
         <v>9</v>
       </c>
       <c r="J167">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.59655172413793101</v>
       </c>
       <c r="K167">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.48965517241379303</v>
       </c>
       <c r="L167">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.19310344827586207</v>
       </c>
       <c r="M167">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.279310344827586</v>
       </c>
       <c r="N167">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.78167115902964968</v>
       </c>
     </row>
@@ -10004,23 +10046,23 @@
         <v>1</v>
       </c>
       <c r="J168">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.68881118881118875</v>
       </c>
       <c r="K168">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.40559440559440557</v>
       </c>
       <c r="L168">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.10839160839160839</v>
       </c>
       <c r="M168">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.2027972027972027</v>
       </c>
       <c r="N168">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.83139534883720934</v>
       </c>
     </row>
@@ -10047,23 +10089,23 @@
         <v>1</v>
       </c>
       <c r="J169">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.61194029850746268</v>
       </c>
       <c r="K169">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.34468992537313536</v>
       </c>
       <c r="L169">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1E-3</v>
       </c>
       <c r="M169">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.95763022388059804</v>
       </c>
       <c r="N169">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.0442444015057371</v>
       </c>
     </row>
@@ -10090,23 +10132,23 @@
         <v>1</v>
       </c>
       <c r="J170">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.61194029850746268</v>
       </c>
       <c r="K170">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.34468992537313536</v>
       </c>
       <c r="L170">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1E-3</v>
       </c>
       <c r="M170">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.95763022388059804</v>
       </c>
       <c r="N170">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.0442444015057371</v>
       </c>
     </row>
@@ -10133,23 +10175,23 @@
         <v>1</v>
       </c>
       <c r="J171">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.61194029850746268</v>
       </c>
       <c r="K171">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.34468992537313536</v>
       </c>
       <c r="L171">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1E-3</v>
       </c>
       <c r="M171">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.95763022388059804</v>
       </c>
       <c r="N171">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.0442444015057371</v>
       </c>
     </row>
@@ -10176,23 +10218,23 @@
         <v>1</v>
       </c>
       <c r="J172">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.61194029850746268</v>
       </c>
       <c r="K172">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.34468992537313536</v>
       </c>
       <c r="L172">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1E-3</v>
       </c>
       <c r="M172">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.95763022388059804</v>
       </c>
       <c r="N172">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.0442444015057371</v>
       </c>
     </row>
@@ -10219,23 +10261,23 @@
         <v>1</v>
       </c>
       <c r="J173">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.61194029850746268</v>
       </c>
       <c r="K173">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.34468992537313536</v>
       </c>
       <c r="L173">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1E-3</v>
       </c>
       <c r="M173">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.95763022388059804</v>
       </c>
       <c r="N173">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.0442444015057371</v>
       </c>
     </row>
@@ -10262,23 +10304,23 @@
         <v>1</v>
       </c>
       <c r="J174">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.61194029850746268</v>
       </c>
       <c r="K174">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.34468992537313536</v>
       </c>
       <c r="L174">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1E-3</v>
       </c>
       <c r="M174">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.95763022388059804</v>
       </c>
       <c r="N174">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.0442444015057371</v>
       </c>
     </row>
@@ -10309,23 +10351,23 @@
         <v>1.8866801277495602</v>
       </c>
       <c r="J175">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.61194029850746268</v>
       </c>
       <c r="K175">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.34468992537313536</v>
       </c>
       <c r="L175">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1E-3</v>
       </c>
       <c r="M175">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.95763022388059804</v>
       </c>
       <c r="N175">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.0442444015057371</v>
       </c>
     </row>
@@ -10369,11 +10411,11 @@
       <c r="W182" s="50"/>
     </row>
     <row r="183" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A183" s="86" t="s">
+      <c r="A183" s="109" t="s">
         <v>89</v>
       </c>
-      <c r="B183" s="86"/>
-      <c r="C183" s="86"/>
+      <c r="B183" s="109"/>
+      <c r="C183" s="109"/>
     </row>
     <row r="184" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A184" s="1" t="s">
@@ -10447,39 +10489,39 @@
       <c r="W194" s="50"/>
     </row>
     <row r="195" spans="1:23" s="52" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A195" s="87" t="s">
+      <c r="A195" s="97" t="s">
         <v>90</v>
       </c>
-      <c r="B195" s="87"/>
-      <c r="C195" s="87"/>
-      <c r="D195" s="87"/>
-      <c r="E195" s="87"/>
-      <c r="F195" s="87"/>
+      <c r="B195" s="97"/>
+      <c r="C195" s="97"/>
+      <c r="D195" s="97"/>
+      <c r="E195" s="97"/>
+      <c r="F195" s="97"/>
     </row>
     <row r="196" spans="1:23" s="52" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A196" s="88" t="s">
+      <c r="A196" s="110" t="s">
         <v>91</v>
       </c>
-      <c r="B196" s="88"/>
-      <c r="C196" s="88"/>
-      <c r="D196" s="88"/>
-      <c r="E196" s="88"/>
-      <c r="F196" s="88"/>
+      <c r="B196" s="110"/>
+      <c r="C196" s="110"/>
+      <c r="D196" s="110"/>
+      <c r="E196" s="110"/>
+      <c r="F196" s="110"/>
     </row>
     <row r="197" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A197" s="80" t="s">
+      <c r="A197" s="103" t="s">
         <v>53</v>
       </c>
       <c r="B197" s="59"/>
       <c r="C197" s="59"/>
-      <c r="D197" s="80" t="s">
+      <c r="D197" s="103" t="s">
         <v>58</v>
       </c>
-      <c r="E197" s="80"/>
-      <c r="F197" s="80"/>
+      <c r="E197" s="103"/>
+      <c r="F197" s="103"/>
     </row>
     <row r="198" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A198" s="80"/>
+      <c r="A198" s="103"/>
       <c r="B198" s="59"/>
       <c r="C198" s="60" t="s">
         <v>54</v>
@@ -10518,11 +10560,11 @@
         <v>0</v>
       </c>
       <c r="I199">
-        <f t="shared" ref="I199:J214" si="13">E199*C54</f>
+        <f t="shared" ref="I199:J214" si="15">E199*C54</f>
         <v>0</v>
       </c>
       <c r="J199">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -10542,15 +10584,15 @@
         <v>0</v>
       </c>
       <c r="H200">
-        <f t="shared" ref="H200:H214" si="14">D200*B55</f>
+        <f t="shared" ref="H200:H214" si="16">D200*B55</f>
         <v>0</v>
       </c>
       <c r="I200">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J200">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -10575,15 +10617,15 @@
         <v>1.1232</v>
       </c>
       <c r="H201">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>3.0576000000000003</v>
       </c>
       <c r="I201">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2.8079999999999997E-2</v>
       </c>
       <c r="J201">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.6160000000000203E-3</v>
       </c>
       <c r="K201">
@@ -10612,19 +10654,19 @@
         <v>5.6159999999999997</v>
       </c>
       <c r="H202">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>7.9418181818181814</v>
       </c>
       <c r="I202">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>3.814909090909091</v>
       </c>
       <c r="J202">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.46799999999999986</v>
       </c>
       <c r="K202">
-        <f t="shared" ref="K202:K214" si="15">SUM(H202:J202)</f>
+        <f t="shared" ref="K202:K214" si="17">SUM(H202:J202)</f>
         <v>12.224727272727272</v>
       </c>
     </row>
@@ -10651,19 +10693,19 @@
         <v>22.463999999999999</v>
       </c>
       <c r="H203">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>29.452100840336133</v>
       </c>
       <c r="I203">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>16.570084033613444</v>
       </c>
       <c r="J203">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.9191932773109244</v>
       </c>
       <c r="K203">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>47.941378151260501</v>
       </c>
     </row>
@@ -10688,19 +10730,19 @@
         <v>56.16</v>
       </c>
       <c r="H204">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>79.613793103448273</v>
       </c>
       <c r="I204">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>38.515862068965518</v>
       </c>
       <c r="J204">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>4.38951724137931</v>
       </c>
       <c r="K204">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>122.5191724137931</v>
       </c>
     </row>
@@ -10712,35 +10754,35 @@
         <v>10</v>
       </c>
       <c r="C205" s="59">
-        <f t="shared" ref="C205:C214" si="16">EXP(LN(0.5)*B204/10)</f>
+        <f t="shared" ref="C205:C214" si="18">EXP(LN(0.5)*B204/10)</f>
         <v>0.70710678118654757</v>
       </c>
       <c r="D205" s="63">
-        <f t="shared" ref="D205:D210" si="17">$D$204*C205</f>
+        <f t="shared" ref="D205:D210" si="19">$D$204*C205</f>
         <v>110.30865786510142</v>
       </c>
       <c r="E205" s="63">
-        <f t="shared" ref="E205:E210" si="18">$E$204*C205</f>
+        <f t="shared" ref="E205:E210" si="20">$E$204*C205</f>
         <v>66.185194719060846</v>
       </c>
       <c r="F205" s="63">
-        <f t="shared" ref="F205:F210" si="19">$F$204*C205</f>
+        <f t="shared" ref="F205:F210" si="21">$F$204*C205</f>
         <v>39.711116831436506</v>
       </c>
       <c r="H205">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>66.683764924100856</v>
       </c>
       <c r="I205">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>22.62262305369029</v>
       </c>
       <c r="J205">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2.1313876265460272</v>
       </c>
       <c r="K205">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>91.437775604337176</v>
       </c>
       <c r="M205" s="52"/>
@@ -10753,35 +10795,35 @@
         <v>15</v>
       </c>
       <c r="C206" s="59">
+        <f t="shared" si="18"/>
+        <v>0.5</v>
+      </c>
+      <c r="D206" s="63">
+        <f t="shared" si="19"/>
+        <v>78</v>
+      </c>
+      <c r="E206" s="63">
+        <f t="shared" si="20"/>
+        <v>46.8</v>
+      </c>
+      <c r="F206" s="63">
+        <f t="shared" si="21"/>
+        <v>28.08</v>
+      </c>
+      <c r="H206">
         <f t="shared" si="16"/>
-        <v>0.5</v>
-      </c>
-      <c r="D206" s="63">
+        <v>59.710344827586205</v>
+      </c>
+      <c r="I206">
+        <f t="shared" si="15"/>
+        <v>9.5213793103448268</v>
+      </c>
+      <c r="J206">
+        <f t="shared" si="15"/>
+        <v>0.87144827586206886</v>
+      </c>
+      <c r="K206">
         <f t="shared" si="17"/>
-        <v>78</v>
-      </c>
-      <c r="E206" s="63">
-        <f t="shared" si="18"/>
-        <v>46.8</v>
-      </c>
-      <c r="F206" s="63">
-        <f t="shared" si="19"/>
-        <v>28.08</v>
-      </c>
-      <c r="H206">
-        <f t="shared" si="14"/>
-        <v>59.710344827586205</v>
-      </c>
-      <c r="I206">
-        <f t="shared" si="13"/>
-        <v>9.5213793103448268</v>
-      </c>
-      <c r="J206">
-        <f t="shared" si="13"/>
-        <v>0.87144827586206886</v>
-      </c>
-      <c r="K206">
-        <f t="shared" si="15"/>
         <v>70.103172413793089</v>
       </c>
       <c r="N206" s="52"/>
@@ -10796,35 +10838,35 @@
         <v>20</v>
       </c>
       <c r="C207" s="59">
+        <f t="shared" si="18"/>
+        <v>0.35355339059327379</v>
+      </c>
+      <c r="D207" s="63">
+        <f t="shared" si="19"/>
+        <v>55.154328932550712</v>
+      </c>
+      <c r="E207" s="63">
+        <f t="shared" si="20"/>
+        <v>33.092597359530423</v>
+      </c>
+      <c r="F207" s="63">
+        <f t="shared" si="21"/>
+        <v>19.855558415718253</v>
+      </c>
+      <c r="H207">
         <f t="shared" si="16"/>
-        <v>0.35355339059327379</v>
-      </c>
-      <c r="D207" s="63">
+        <v>45.126269126632394</v>
+      </c>
+      <c r="I207">
+        <f t="shared" si="15"/>
+        <v>5.5540023540470642</v>
+      </c>
+      <c r="J207">
+        <f t="shared" si="15"/>
+        <v>0.2777001177023532</v>
+      </c>
+      <c r="K207">
         <f t="shared" si="17"/>
-        <v>55.154328932550712</v>
-      </c>
-      <c r="E207" s="63">
-        <f t="shared" si="18"/>
-        <v>33.092597359530423</v>
-      </c>
-      <c r="F207" s="63">
-        <f t="shared" si="19"/>
-        <v>19.855558415718253</v>
-      </c>
-      <c r="H207">
-        <f t="shared" si="14"/>
-        <v>45.126269126632394</v>
-      </c>
-      <c r="I207">
-        <f t="shared" si="13"/>
-        <v>5.5540023540470642</v>
-      </c>
-      <c r="J207">
-        <f t="shared" si="13"/>
-        <v>0.2777001177023532</v>
-      </c>
-      <c r="K207">
-        <f t="shared" si="15"/>
         <v>50.95797159838181</v>
       </c>
     </row>
@@ -10836,35 +10878,35 @@
         <v>25</v>
       </c>
       <c r="C208" s="59">
+        <f t="shared" si="18"/>
+        <v>0.25</v>
+      </c>
+      <c r="D208" s="63">
+        <f t="shared" si="19"/>
+        <v>39</v>
+      </c>
+      <c r="E208" s="63">
+        <f t="shared" si="20"/>
+        <v>23.4</v>
+      </c>
+      <c r="F208" s="63">
+        <f t="shared" si="21"/>
+        <v>14.04</v>
+      </c>
+      <c r="H208">
         <f t="shared" si="16"/>
-        <v>0.25</v>
-      </c>
-      <c r="D208" s="63">
+        <v>33.179104477611936</v>
+      </c>
+      <c r="I208">
+        <f t="shared" si="15"/>
+        <v>3.4691373134328458</v>
+      </c>
+      <c r="J208">
+        <f t="shared" si="15"/>
+        <v>1.4039999999999999E-2</v>
+      </c>
+      <c r="K208">
         <f t="shared" si="17"/>
-        <v>39</v>
-      </c>
-      <c r="E208" s="63">
-        <f t="shared" si="18"/>
-        <v>23.4</v>
-      </c>
-      <c r="F208" s="63">
-        <f t="shared" si="19"/>
-        <v>14.04</v>
-      </c>
-      <c r="H208">
-        <f t="shared" si="14"/>
-        <v>33.179104477611936</v>
-      </c>
-      <c r="I208">
-        <f t="shared" si="13"/>
-        <v>3.4691373134328458</v>
-      </c>
-      <c r="J208">
-        <f t="shared" si="13"/>
-        <v>1.4039999999999999E-2</v>
-      </c>
-      <c r="K208">
-        <f t="shared" si="15"/>
         <v>36.662281791044784</v>
       </c>
     </row>
@@ -10876,35 +10918,35 @@
         <v>30</v>
       </c>
       <c r="C209" s="59">
+        <f t="shared" si="18"/>
+        <v>0.17677669529663689</v>
+      </c>
+      <c r="D209" s="63">
+        <f t="shared" si="19"/>
+        <v>27.577164466275356</v>
+      </c>
+      <c r="E209" s="63">
+        <f t="shared" si="20"/>
+        <v>16.546298679765211</v>
+      </c>
+      <c r="F209" s="63">
+        <f t="shared" si="21"/>
+        <v>9.9277792078591265</v>
+      </c>
+      <c r="H209">
         <f t="shared" si="16"/>
-        <v>0.17677669529663689</v>
-      </c>
-      <c r="D209" s="63">
+        <v>23.461169769816344</v>
+      </c>
+      <c r="I209">
+        <f t="shared" si="15"/>
+        <v>2.4530505191956467</v>
+      </c>
+      <c r="J209">
+        <f t="shared" si="15"/>
+        <v>9.9277792078591269E-3</v>
+      </c>
+      <c r="K209">
         <f t="shared" si="17"/>
-        <v>27.577164466275356</v>
-      </c>
-      <c r="E209" s="63">
-        <f t="shared" si="18"/>
-        <v>16.546298679765211</v>
-      </c>
-      <c r="F209" s="63">
-        <f t="shared" si="19"/>
-        <v>9.9277792078591265</v>
-      </c>
-      <c r="H209">
-        <f t="shared" si="14"/>
-        <v>23.461169769816344</v>
-      </c>
-      <c r="I209">
-        <f t="shared" si="13"/>
-        <v>2.4530505191956467</v>
-      </c>
-      <c r="J209">
-        <f t="shared" si="13"/>
-        <v>9.9277792078591269E-3</v>
-      </c>
-      <c r="K209">
-        <f t="shared" si="15"/>
         <v>25.92414806821985</v>
       </c>
     </row>
@@ -10916,35 +10958,35 @@
         <v>35</v>
       </c>
       <c r="C210" s="59">
+        <f t="shared" si="18"/>
+        <v>0.12500000000000003</v>
+      </c>
+      <c r="D210" s="63">
+        <f t="shared" si="19"/>
+        <v>19.500000000000004</v>
+      </c>
+      <c r="E210" s="63">
+        <f t="shared" si="20"/>
+        <v>11.700000000000001</v>
+      </c>
+      <c r="F210" s="63">
+        <f t="shared" si="21"/>
+        <v>7.0200000000000014</v>
+      </c>
+      <c r="H210">
         <f t="shared" si="16"/>
-        <v>0.12500000000000003</v>
-      </c>
-      <c r="D210" s="63">
+        <v>16.589552238805972</v>
+      </c>
+      <c r="I210">
+        <f t="shared" si="15"/>
+        <v>1.7345686567164231</v>
+      </c>
+      <c r="J210">
+        <f t="shared" si="15"/>
+        <v>7.0200000000000011E-3</v>
+      </c>
+      <c r="K210">
         <f t="shared" si="17"/>
-        <v>19.500000000000004</v>
-      </c>
-      <c r="E210" s="63">
-        <f t="shared" si="18"/>
-        <v>11.700000000000001</v>
-      </c>
-      <c r="F210" s="63">
-        <f t="shared" si="19"/>
-        <v>7.0200000000000014</v>
-      </c>
-      <c r="H210">
-        <f t="shared" si="14"/>
-        <v>16.589552238805972</v>
-      </c>
-      <c r="I210">
-        <f t="shared" si="13"/>
-        <v>1.7345686567164231</v>
-      </c>
-      <c r="J210">
-        <f t="shared" si="13"/>
-        <v>7.0200000000000011E-3</v>
-      </c>
-      <c r="K210">
-        <f t="shared" si="15"/>
         <v>18.331140895522395</v>
       </c>
     </row>
@@ -10972,19 +11014,19 @@
         <v>4.9638896039295632</v>
       </c>
       <c r="H211">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>11.730584884908172</v>
       </c>
       <c r="I211">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.2265252595978233</v>
       </c>
       <c r="J211">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>4.9638896039295635E-3</v>
       </c>
       <c r="K211">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>12.962074034109925</v>
       </c>
     </row>
@@ -10996,7 +11038,7 @@
         <v>45</v>
       </c>
       <c r="C212" s="59">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>6.25E-2</v>
       </c>
       <c r="D212" s="63">
@@ -11012,19 +11054,19 @@
         <v>3.51</v>
       </c>
       <c r="H212">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>8.2947761194029841</v>
       </c>
       <c r="I212">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.86728432835821145</v>
       </c>
       <c r="J212">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>3.5099999999999997E-3</v>
       </c>
       <c r="K212">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>9.1655704477611959</v>
       </c>
     </row>
@@ -11036,7 +11078,7 @@
         <v>50</v>
       </c>
       <c r="C213" s="59">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>4.4194173824159223E-2</v>
       </c>
       <c r="D213" s="63">
@@ -11052,19 +11094,19 @@
         <v>2.4819448019647816</v>
       </c>
       <c r="H213">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>5.865292442454086</v>
       </c>
       <c r="I213">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.61326262979891166</v>
       </c>
       <c r="J213">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2.4819448019647817E-3</v>
       </c>
       <c r="K213">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>6.4810370170549625</v>
       </c>
     </row>
@@ -11076,7 +11118,7 @@
         <v>55</v>
       </c>
       <c r="C214" s="59">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>3.125E-2</v>
       </c>
       <c r="D214" s="63">
@@ -11092,19 +11134,19 @@
         <v>1.7549999999999999</v>
       </c>
       <c r="H214">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>4.147388059701492</v>
       </c>
       <c r="I214">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.43364216417910573</v>
       </c>
       <c r="J214">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.7549999999999998E-3</v>
       </c>
       <c r="K214">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4.5827852238805979</v>
       </c>
     </row>
@@ -11125,29 +11167,29 @@
       </c>
     </row>
     <row r="216" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A216" s="81" t="s">
+      <c r="A216" s="104" t="s">
         <v>92</v>
       </c>
-      <c r="B216" s="81"/>
-      <c r="C216" s="81"/>
-      <c r="D216" s="81"/>
-      <c r="E216" s="81"/>
-      <c r="F216" s="81"/>
+      <c r="B216" s="104"/>
+      <c r="C216" s="104"/>
+      <c r="D216" s="104"/>
+      <c r="E216" s="104"/>
+      <c r="F216" s="104"/>
     </row>
     <row r="217" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A217" s="82" t="s">
+      <c r="A217" s="105" t="s">
         <v>2</v>
       </c>
       <c r="B217" s="59"/>
       <c r="C217" s="59"/>
-      <c r="D217" s="80" t="s">
+      <c r="D217" s="103" t="s">
         <v>58</v>
       </c>
-      <c r="E217" s="80"/>
-      <c r="F217" s="80"/>
+      <c r="E217" s="103"/>
+      <c r="F217" s="103"/>
     </row>
     <row r="218" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A218" s="82"/>
+      <c r="A218" s="105"/>
       <c r="B218" s="59"/>
       <c r="C218" s="60" t="s">
         <v>54</v>
@@ -11288,7 +11330,7 @@
         <v>10</v>
       </c>
       <c r="C225" s="59">
-        <f t="shared" ref="C225:C234" si="20">EXP(LN(0.5)*B224/10)</f>
+        <f t="shared" ref="C225:C234" si="22">EXP(LN(0.5)*B224/10)</f>
         <v>0.70710678118654757</v>
       </c>
       <c r="D225" s="62">
@@ -11312,19 +11354,19 @@
         <v>15</v>
       </c>
       <c r="C226" s="59">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.5</v>
       </c>
       <c r="D226" s="62">
-        <f t="shared" ref="D226:D232" si="21">$D$224*C226</f>
+        <f t="shared" ref="D226:D232" si="23">$D$224*C226</f>
         <v>78</v>
       </c>
       <c r="E226" s="62">
-        <f t="shared" ref="E226:E232" si="22">$E$224*C226</f>
+        <f t="shared" ref="E226:E232" si="24">$E$224*C226</f>
         <v>46.8</v>
       </c>
       <c r="F226" s="62">
-        <f t="shared" ref="F226:F232" si="23">$F$224*C226</f>
+        <f t="shared" ref="F226:F232" si="25">$F$224*C226</f>
         <v>28.08</v>
       </c>
     </row>
@@ -11336,19 +11378,19 @@
         <v>20</v>
       </c>
       <c r="C227" s="59">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.35355339059327379</v>
       </c>
       <c r="D227" s="62">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>55.154328932550712</v>
       </c>
       <c r="E227" s="62">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>33.092597359530423</v>
       </c>
       <c r="F227" s="62">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>19.855558415718253</v>
       </c>
     </row>
@@ -11360,19 +11402,19 @@
         <v>25</v>
       </c>
       <c r="C228" s="59">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.25</v>
       </c>
       <c r="D228" s="62">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>39</v>
       </c>
       <c r="E228" s="62">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>23.4</v>
       </c>
       <c r="F228" s="62">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>14.04</v>
       </c>
     </row>
@@ -11384,19 +11426,19 @@
         <v>30</v>
       </c>
       <c r="C229" s="59">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.17677669529663689</v>
       </c>
       <c r="D229" s="62">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>27.577164466275356</v>
       </c>
       <c r="E229" s="62">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>16.546298679765211</v>
       </c>
       <c r="F229" s="62">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>9.9277792078591265</v>
       </c>
     </row>
@@ -11408,19 +11450,19 @@
         <v>35</v>
       </c>
       <c r="C230" s="59">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.12500000000000003</v>
       </c>
       <c r="D230" s="62">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>19.500000000000004</v>
       </c>
       <c r="E230" s="62">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>11.700000000000001</v>
       </c>
       <c r="F230" s="62">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>7.0200000000000014</v>
       </c>
     </row>
@@ -11432,19 +11474,19 @@
         <v>40</v>
       </c>
       <c r="C231" s="59">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>8.8388347648318447E-2</v>
       </c>
       <c r="D231" s="62">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>13.788582233137678</v>
       </c>
       <c r="E231" s="62">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>8.2731493398826057</v>
       </c>
       <c r="F231" s="62">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>4.9638896039295632</v>
       </c>
     </row>
@@ -11456,19 +11498,19 @@
         <v>45</v>
       </c>
       <c r="C232" s="59">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>6.25E-2</v>
       </c>
       <c r="D232" s="62">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>9.75</v>
       </c>
       <c r="E232" s="62">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>5.85</v>
       </c>
       <c r="F232" s="62">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>3.51</v>
       </c>
     </row>
@@ -11504,7 +11546,7 @@
         <v>55</v>
       </c>
       <c r="C234" s="59">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>3.125E-2</v>
       </c>
       <c r="D234" s="62">
@@ -11590,6 +11632,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="I130:I132"/>
+    <mergeCell ref="J130:O130"/>
+    <mergeCell ref="A197:A198"/>
+    <mergeCell ref="A216:F216"/>
+    <mergeCell ref="A217:A218"/>
+    <mergeCell ref="B158:D158"/>
+    <mergeCell ref="E158:G158"/>
+    <mergeCell ref="A183:C183"/>
+    <mergeCell ref="A195:F195"/>
+    <mergeCell ref="A196:F196"/>
+    <mergeCell ref="D197:F197"/>
+    <mergeCell ref="D217:F217"/>
     <mergeCell ref="A109:A111"/>
     <mergeCell ref="B109:G109"/>
     <mergeCell ref="B130:G130"/>
@@ -11602,18 +11656,6 @@
     <mergeCell ref="E52:G52"/>
     <mergeCell ref="A81:A83"/>
     <mergeCell ref="B81:B83"/>
-    <mergeCell ref="I130:I132"/>
-    <mergeCell ref="J130:O130"/>
-    <mergeCell ref="A197:A198"/>
-    <mergeCell ref="A216:F216"/>
-    <mergeCell ref="A217:A218"/>
-    <mergeCell ref="B158:D158"/>
-    <mergeCell ref="E158:G158"/>
-    <mergeCell ref="A183:C183"/>
-    <mergeCell ref="A195:F195"/>
-    <mergeCell ref="A196:F196"/>
-    <mergeCell ref="D197:F197"/>
-    <mergeCell ref="D217:F217"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Config/Population_data.xlsx
+++ b/Config/Population_data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="106">
   <si>
     <t>Male</t>
   </si>
@@ -552,6 +552,9 @@
   </si>
   <si>
     <t>&lt;--should use UNICEF data here instead?</t>
+  </si>
+  <si>
+    <t>File MORT/17-2: Abridged life tables, for males/females, 1950-2100</t>
   </si>
 </sst>
 </file>
@@ -1622,13 +1625,13 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1638,39 +1641,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -1694,7 +1664,40 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="48">
@@ -1806,7 +1809,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2321,7 +2323,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6150,7 +6151,7 @@
   <dimension ref="A1:AF239"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A112" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J136" sqref="J136"/>
+      <selection activeCell="F141" sqref="F141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6279,10 +6280,10 @@
       <c r="A4" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="95" t="s">
+      <c r="B4" s="104" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="96"/>
+      <c r="C4" s="105"/>
     </row>
     <row r="5" spans="1:25" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="53"/>
@@ -6519,10 +6520,10 @@
       <c r="A27" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="97" t="s">
+      <c r="B27" s="99" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="98"/>
+      <c r="C27" s="106"/>
     </row>
     <row r="28" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A28" s="12"/>
@@ -6910,19 +6911,19 @@
       <c r="AE51" s="32"/>
     </row>
     <row r="52" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A52" s="102" t="s">
+      <c r="A52" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="B52" s="102" t="s">
+      <c r="B52" s="110" t="s">
         <v>67</v>
       </c>
-      <c r="C52" s="102"/>
-      <c r="D52" s="102"/>
-      <c r="E52" s="102" t="s">
+      <c r="C52" s="110"/>
+      <c r="D52" s="110"/>
+      <c r="E52" s="110" t="s">
         <v>68</v>
       </c>
-      <c r="F52" s="102"/>
-      <c r="G52" s="102"/>
+      <c r="F52" s="110"/>
+      <c r="G52" s="110"/>
       <c r="X52" s="30"/>
       <c r="Y52" s="30"/>
       <c r="Z52" s="30"/>
@@ -6933,7 +6934,7 @@
       <c r="AE52" s="30"/>
     </row>
     <row r="53" spans="1:31" ht="30" x14ac:dyDescent="0.35">
-      <c r="A53" s="102"/>
+      <c r="A53" s="110"/>
       <c r="B53" s="45" t="s">
         <v>6</v>
       </c>
@@ -7467,23 +7468,26 @@
       <c r="X80" s="50"/>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A81" s="86" t="s">
+      <c r="A81" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="B81" s="99" t="s">
+      <c r="B81" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="C81" s="99" t="s">
+      <c r="C81" s="107" t="s">
         <v>4</v>
       </c>
       <c r="H81" t="s">
         <v>102</v>
       </c>
+      <c r="K81" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A82" s="87"/>
-      <c r="B82" s="100"/>
-      <c r="C82" s="100"/>
+      <c r="A82" s="102"/>
+      <c r="B82" s="108"/>
+      <c r="C82" s="108"/>
       <c r="I82" s="77" t="s">
         <v>98</v>
       </c>
@@ -7495,9 +7499,9 @@
       </c>
     </row>
     <row r="83" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A83" s="88"/>
-      <c r="B83" s="101"/>
-      <c r="C83" s="101"/>
+      <c r="A83" s="103"/>
+      <c r="B83" s="109"/>
+      <c r="C83" s="109"/>
       <c r="E83" t="s">
         <v>99</v>
       </c>
@@ -8136,7 +8140,7 @@
       <c r="X108" s="50"/>
     </row>
     <row r="109" spans="1:24" ht="15.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A109" s="86" t="s">
+      <c r="A109" s="101" t="s">
         <v>2</v>
       </c>
       <c r="B109" s="89" t="s">
@@ -8149,7 +8153,7 @@
       <c r="G109" s="91"/>
     </row>
     <row r="110" spans="1:24" ht="46" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="87"/>
+      <c r="A110" s="102"/>
       <c r="B110" s="44" t="s">
         <v>83</v>
       </c>
@@ -8170,7 +8174,7 @@
       </c>
     </row>
     <row r="111" spans="1:24" ht="47" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A111" s="88"/>
+      <c r="A111" s="103"/>
       <c r="B111" s="46" t="s">
         <v>76</v>
       </c>
@@ -8625,7 +8629,7 @@
     </row>
     <row r="129" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="130" spans="1:15" ht="15.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A130" s="92" t="s">
+      <c r="A130" s="86" t="s">
         <v>2</v>
       </c>
       <c r="B130" s="89" t="s">
@@ -8636,7 +8640,7 @@
       <c r="E130" s="90"/>
       <c r="F130" s="90"/>
       <c r="G130" s="91"/>
-      <c r="I130" s="92" t="s">
+      <c r="I130" s="86" t="s">
         <v>2</v>
       </c>
       <c r="J130" s="89" t="s">
@@ -8649,7 +8653,7 @@
       <c r="O130" s="91"/>
     </row>
     <row r="131" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A131" s="93"/>
+      <c r="A131" s="87"/>
       <c r="B131" s="34" t="s">
         <v>84</v>
       </c>
@@ -8668,7 +8672,7 @@
       <c r="G131" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="I131" s="93"/>
+      <c r="I131" s="87"/>
       <c r="J131" s="34" t="s">
         <v>84</v>
       </c>
@@ -8689,7 +8693,7 @@
       </c>
     </row>
     <row r="132" spans="1:15" ht="47" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A132" s="94"/>
+      <c r="A132" s="88"/>
       <c r="B132" s="55" t="s">
         <v>76</v>
       </c>
@@ -8708,7 +8712,7 @@
       <c r="G132" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="I132" s="94"/>
+      <c r="I132" s="88"/>
       <c r="J132" s="55" t="s">
         <v>76</v>
       </c>
@@ -8865,55 +8869,55 @@
         <v>18</v>
       </c>
       <c r="B136" s="27">
-        <f>B115*0.65</f>
-        <v>9.1910000000000006E-2</v>
+        <f>B115*0.75</f>
+        <v>0.10605000000000001</v>
       </c>
       <c r="C136" s="27">
-        <f t="shared" ref="C136:G136" si="4">C115*0.65</f>
-        <v>9.1910000000000006E-2</v>
+        <f t="shared" ref="C136:G136" si="4">C115*0.75</f>
+        <v>0.10605000000000001</v>
       </c>
       <c r="D136" s="27">
         <f t="shared" si="4"/>
-        <v>9.1910000000000006E-2</v>
+        <v>0.10605000000000001</v>
       </c>
       <c r="E136" s="27">
         <f t="shared" si="4"/>
-        <v>5.3307800000000009E-2</v>
+        <v>6.1509000000000008E-2</v>
       </c>
       <c r="F136" s="27">
         <f t="shared" si="4"/>
-        <v>5.3307800000000009E-2</v>
+        <v>6.1509000000000008E-2</v>
       </c>
       <c r="G136" s="27">
         <f t="shared" si="4"/>
-        <v>3.7683100000000004E-2</v>
+        <v>4.3480500000000005E-2</v>
       </c>
       <c r="I136" s="72" t="s">
         <v>18</v>
       </c>
       <c r="J136" s="27">
         <f>B136*0.75</f>
-        <v>6.8932500000000008E-2</v>
+        <v>7.9537500000000011E-2</v>
       </c>
       <c r="K136" s="27">
         <f t="shared" ref="K136:O142" si="5">C136*0.75</f>
-        <v>6.8932500000000008E-2</v>
+        <v>7.9537500000000011E-2</v>
       </c>
       <c r="L136" s="27">
         <f t="shared" si="5"/>
-        <v>6.8932500000000008E-2</v>
+        <v>7.9537500000000011E-2</v>
       </c>
       <c r="M136" s="27">
         <f t="shared" si="5"/>
-        <v>3.9980850000000005E-2</v>
+        <v>4.6131750000000006E-2</v>
       </c>
       <c r="N136" s="27">
         <f t="shared" si="5"/>
-        <v>3.9980850000000005E-2</v>
+        <v>4.6131750000000006E-2</v>
       </c>
       <c r="O136" s="27">
         <f t="shared" si="5"/>
-        <v>2.8262325000000005E-2</v>
+        <v>3.2610375000000004E-2</v>
       </c>
     </row>
     <row r="137" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -8921,55 +8925,55 @@
         <v>19</v>
       </c>
       <c r="B137" s="27">
-        <f t="shared" ref="B137:G142" si="6">B116*0.65</f>
-        <v>0.18070000000000003</v>
+        <f t="shared" ref="B137:G142" si="6">B116*0.75</f>
+        <v>0.20850000000000002</v>
       </c>
       <c r="C137" s="27">
         <f t="shared" si="6"/>
-        <v>0.18070000000000003</v>
+        <v>0.20850000000000002</v>
       </c>
       <c r="D137" s="27">
         <f t="shared" si="6"/>
-        <v>0.18070000000000003</v>
+        <v>0.20850000000000002</v>
       </c>
       <c r="E137" s="27">
         <f t="shared" si="6"/>
-        <v>0.10480600000000002</v>
+        <v>0.12093000000000001</v>
       </c>
       <c r="F137" s="27">
         <f t="shared" si="6"/>
-        <v>0.10480600000000002</v>
+        <v>0.12093000000000001</v>
       </c>
       <c r="G137" s="27">
         <f t="shared" si="6"/>
-        <v>7.4087000000000014E-2</v>
+        <v>8.5485000000000019E-2</v>
       </c>
       <c r="I137" s="72" t="s">
         <v>19</v>
       </c>
       <c r="J137" s="27">
         <f t="shared" ref="J137:J142" si="7">B137*0.75</f>
-        <v>0.13552500000000001</v>
+        <v>0.15637500000000001</v>
       </c>
       <c r="K137" s="27">
         <f t="shared" si="5"/>
-        <v>0.13552500000000001</v>
+        <v>0.15637500000000001</v>
       </c>
       <c r="L137" s="27">
         <f t="shared" si="5"/>
-        <v>0.13552500000000001</v>
+        <v>0.15637500000000001</v>
       </c>
       <c r="M137" s="27">
         <f t="shared" si="5"/>
-        <v>7.8604500000000022E-2</v>
+        <v>9.0697500000000014E-2</v>
       </c>
       <c r="N137" s="27">
         <f t="shared" si="5"/>
-        <v>7.8604500000000022E-2</v>
+        <v>9.0697500000000014E-2</v>
       </c>
       <c r="O137" s="27">
         <f t="shared" si="5"/>
-        <v>5.556525000000001E-2</v>
+        <v>6.4113750000000011E-2</v>
       </c>
     </row>
     <row r="138" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -8978,54 +8982,54 @@
       </c>
       <c r="B138" s="27">
         <f t="shared" si="6"/>
-        <v>0.18434000000000003</v>
+        <v>0.2127</v>
       </c>
       <c r="C138" s="27">
         <f t="shared" si="6"/>
-        <v>0.18434000000000003</v>
+        <v>0.2127</v>
       </c>
       <c r="D138" s="27">
         <f t="shared" si="6"/>
-        <v>0.18434000000000003</v>
+        <v>0.2127</v>
       </c>
       <c r="E138" s="27">
         <f t="shared" si="6"/>
-        <v>0.10691720000000002</v>
+        <v>0.12336600000000002</v>
       </c>
       <c r="F138" s="27">
         <f t="shared" si="6"/>
-        <v>0.10691720000000002</v>
+        <v>0.12336600000000002</v>
       </c>
       <c r="G138" s="27">
         <f t="shared" si="6"/>
-        <v>7.5579400000000019E-2</v>
+        <v>8.7207000000000007E-2</v>
       </c>
       <c r="I138" s="72" t="s">
         <v>20</v>
       </c>
       <c r="J138" s="27">
         <f t="shared" si="7"/>
-        <v>0.13825500000000002</v>
+        <v>0.159525</v>
       </c>
       <c r="K138" s="27">
         <f t="shared" si="5"/>
-        <v>0.13825500000000002</v>
+        <v>0.159525</v>
       </c>
       <c r="L138" s="27">
         <f t="shared" si="5"/>
-        <v>0.13825500000000002</v>
+        <v>0.159525</v>
       </c>
       <c r="M138" s="27">
         <f t="shared" si="5"/>
-        <v>8.0187900000000006E-2</v>
+        <v>9.252450000000001E-2</v>
       </c>
       <c r="N138" s="27">
         <f t="shared" si="5"/>
-        <v>8.0187900000000006E-2</v>
+        <v>9.252450000000001E-2</v>
       </c>
       <c r="O138" s="27">
         <f t="shared" si="5"/>
-        <v>5.6684550000000014E-2</v>
+        <v>6.5405249999999998E-2</v>
       </c>
     </row>
     <row r="139" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -9034,54 +9038,54 @@
       </c>
       <c r="B139" s="27">
         <f t="shared" si="6"/>
-        <v>0.13728000000000001</v>
+        <v>0.15839999999999999</v>
       </c>
       <c r="C139" s="27">
         <f t="shared" si="6"/>
-        <v>0.13728000000000001</v>
+        <v>0.15839999999999999</v>
       </c>
       <c r="D139" s="27">
         <f t="shared" si="6"/>
-        <v>0.13728000000000001</v>
+        <v>0.15839999999999999</v>
       </c>
       <c r="E139" s="27">
         <f t="shared" si="6"/>
-        <v>7.962240000000001E-2</v>
+        <v>9.1872000000000009E-2</v>
       </c>
       <c r="F139" s="27">
         <f t="shared" si="6"/>
-        <v>7.962240000000001E-2</v>
+        <v>9.1872000000000009E-2</v>
       </c>
       <c r="G139" s="27">
         <f t="shared" si="6"/>
-        <v>5.6284800000000003E-2</v>
+        <v>6.4944000000000002E-2</v>
       </c>
       <c r="I139" s="72" t="s">
         <v>23</v>
       </c>
       <c r="J139" s="27">
         <f t="shared" si="7"/>
-        <v>0.10296000000000001</v>
+        <v>0.11879999999999999</v>
       </c>
       <c r="K139" s="27">
         <f t="shared" si="5"/>
-        <v>0.10296000000000001</v>
+        <v>0.11879999999999999</v>
       </c>
       <c r="L139" s="27">
         <f t="shared" si="5"/>
-        <v>0.10296000000000001</v>
+        <v>0.11879999999999999</v>
       </c>
       <c r="M139" s="27">
         <f t="shared" si="5"/>
-        <v>5.9716800000000007E-2</v>
+        <v>6.8904000000000007E-2</v>
       </c>
       <c r="N139" s="27">
         <f t="shared" si="5"/>
-        <v>5.9716800000000007E-2</v>
+        <v>6.8904000000000007E-2</v>
       </c>
       <c r="O139" s="27">
         <f t="shared" si="5"/>
-        <v>4.2213600000000004E-2</v>
+        <v>4.8708000000000001E-2</v>
       </c>
     </row>
     <row r="140" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -9090,54 +9094,54 @@
       </c>
       <c r="B140" s="27">
         <f t="shared" si="6"/>
-        <v>8.7620000000000003E-2</v>
+        <v>0.1011</v>
       </c>
       <c r="C140" s="27">
         <f t="shared" si="6"/>
-        <v>8.7620000000000003E-2</v>
+        <v>0.1011</v>
       </c>
       <c r="D140" s="27">
         <f t="shared" si="6"/>
-        <v>8.7620000000000003E-2</v>
+        <v>0.1011</v>
       </c>
       <c r="E140" s="27">
         <f t="shared" si="6"/>
-        <v>5.0819600000000013E-2</v>
+        <v>5.863800000000001E-2</v>
       </c>
       <c r="F140" s="27">
         <f t="shared" si="6"/>
-        <v>5.0819600000000013E-2</v>
+        <v>5.863800000000001E-2</v>
       </c>
       <c r="G140" s="27">
         <f t="shared" si="6"/>
-        <v>3.5924200000000003E-2</v>
+        <v>4.1451000000000002E-2</v>
       </c>
       <c r="I140" s="72" t="s">
         <v>22</v>
       </c>
       <c r="J140" s="27">
         <f t="shared" si="7"/>
-        <v>6.5714999999999996E-2</v>
+        <v>7.5825000000000004E-2</v>
       </c>
       <c r="K140" s="27">
         <f t="shared" si="5"/>
-        <v>6.5714999999999996E-2</v>
+        <v>7.5825000000000004E-2</v>
       </c>
       <c r="L140" s="27">
         <f t="shared" si="5"/>
-        <v>6.5714999999999996E-2</v>
+        <v>7.5825000000000004E-2</v>
       </c>
       <c r="M140" s="27">
         <f t="shared" si="5"/>
-        <v>3.8114700000000008E-2</v>
+        <v>4.3978500000000004E-2</v>
       </c>
       <c r="N140" s="27">
         <f t="shared" si="5"/>
-        <v>3.8114700000000008E-2</v>
+        <v>4.3978500000000004E-2</v>
       </c>
       <c r="O140" s="27">
         <f t="shared" si="5"/>
-        <v>2.6943150000000003E-2</v>
+        <v>3.1088250000000001E-2</v>
       </c>
     </row>
     <row r="141" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -9146,54 +9150,54 @@
       </c>
       <c r="B141" s="27">
         <f t="shared" si="6"/>
-        <v>3.5230000000000004E-2</v>
+        <v>4.0650000000000006E-2</v>
       </c>
       <c r="C141" s="27">
         <f t="shared" si="6"/>
-        <v>3.5230000000000004E-2</v>
+        <v>4.0650000000000006E-2</v>
       </c>
       <c r="D141" s="27">
         <f t="shared" si="6"/>
-        <v>3.5230000000000004E-2</v>
+        <v>4.0650000000000006E-2</v>
       </c>
       <c r="E141" s="27">
         <f t="shared" si="6"/>
-        <v>2.0433400000000004E-2</v>
+        <v>2.3577000000000004E-2</v>
       </c>
       <c r="F141" s="27">
         <f t="shared" si="6"/>
-        <v>2.0433400000000004E-2</v>
+        <v>2.3577000000000004E-2</v>
       </c>
       <c r="G141" s="27">
         <f t="shared" si="6"/>
-        <v>1.4444300000000002E-2</v>
+        <v>1.6666500000000001E-2</v>
       </c>
       <c r="I141" s="72" t="s">
         <v>24</v>
       </c>
       <c r="J141" s="27">
         <f t="shared" si="7"/>
-        <v>2.6422500000000002E-2</v>
+        <v>3.0487500000000004E-2</v>
       </c>
       <c r="K141" s="27">
         <f t="shared" si="5"/>
-        <v>2.6422500000000002E-2</v>
+        <v>3.0487500000000004E-2</v>
       </c>
       <c r="L141" s="27">
         <f t="shared" si="5"/>
-        <v>2.6422500000000002E-2</v>
+        <v>3.0487500000000004E-2</v>
       </c>
       <c r="M141" s="27">
         <f t="shared" si="5"/>
-        <v>1.5325050000000003E-2</v>
+        <v>1.7682750000000004E-2</v>
       </c>
       <c r="N141" s="27">
         <f t="shared" si="5"/>
-        <v>1.5325050000000003E-2</v>
+        <v>1.7682750000000004E-2</v>
       </c>
       <c r="O141" s="27">
         <f t="shared" si="5"/>
-        <v>1.0833225000000002E-2</v>
+        <v>1.2499875000000001E-2</v>
       </c>
     </row>
     <row r="142" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -9202,54 +9206,54 @@
       </c>
       <c r="B142" s="27">
         <f t="shared" si="6"/>
-        <v>1.1440000000000001E-2</v>
+        <v>1.32E-2</v>
       </c>
       <c r="C142" s="27">
         <f t="shared" si="6"/>
-        <v>1.1440000000000001E-2</v>
+        <v>1.32E-2</v>
       </c>
       <c r="D142" s="27">
         <f t="shared" si="6"/>
-        <v>1.1440000000000001E-2</v>
+        <v>1.32E-2</v>
       </c>
       <c r="E142" s="27">
         <f t="shared" si="6"/>
-        <v>6.6352000000000017E-3</v>
+        <v>7.6560000000000013E-3</v>
       </c>
       <c r="F142" s="27">
         <f t="shared" si="6"/>
-        <v>6.6352000000000017E-3</v>
+        <v>7.6560000000000013E-3</v>
       </c>
       <c r="G142" s="27">
         <f t="shared" si="6"/>
-        <v>4.6904000000000008E-3</v>
+        <v>5.412000000000001E-3</v>
       </c>
       <c r="I142" s="72" t="s">
         <v>25</v>
       </c>
       <c r="J142" s="27">
         <f t="shared" si="7"/>
-        <v>8.5800000000000008E-3</v>
+        <v>9.8999999999999991E-3</v>
       </c>
       <c r="K142" s="27">
         <f t="shared" si="5"/>
-        <v>8.5800000000000008E-3</v>
+        <v>9.8999999999999991E-3</v>
       </c>
       <c r="L142" s="27">
         <f t="shared" si="5"/>
-        <v>8.5800000000000008E-3</v>
+        <v>9.8999999999999991E-3</v>
       </c>
       <c r="M142" s="27">
         <f t="shared" si="5"/>
-        <v>4.9764000000000015E-3</v>
+        <v>5.7420000000000006E-3</v>
       </c>
       <c r="N142" s="27">
         <f t="shared" si="5"/>
-        <v>4.9764000000000015E-3</v>
+        <v>5.7420000000000006E-3</v>
       </c>
       <c r="O142" s="27">
         <f t="shared" si="5"/>
-        <v>3.5178000000000006E-3</v>
+        <v>4.059000000000001E-3</v>
       </c>
     </row>
     <row r="143" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -9519,51 +9523,51 @@
     <row r="149" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B149">
         <f t="shared" ref="B149:G149" si="8">5*SUM(B133:B148)</f>
-        <v>3.6426000000000003</v>
+        <v>4.2029999999999994</v>
       </c>
       <c r="C149">
         <f t="shared" si="8"/>
-        <v>3.6426000000000003</v>
+        <v>4.2029999999999994</v>
       </c>
       <c r="D149">
         <f t="shared" si="8"/>
-        <v>3.6426000000000003</v>
+        <v>4.2029999999999994</v>
       </c>
       <c r="E149">
         <f t="shared" si="8"/>
-        <v>2.112708</v>
+        <v>2.4377400000000007</v>
       </c>
       <c r="F149">
         <f t="shared" si="8"/>
-        <v>2.112708</v>
+        <v>2.4377400000000007</v>
       </c>
       <c r="G149">
         <f t="shared" si="8"/>
-        <v>1.4934660000000002</v>
+        <v>1.7232300000000003</v>
       </c>
       <c r="J149">
         <f t="shared" ref="J149:O149" si="9">5*SUM(J133:J148)</f>
-        <v>2.7319500000000003</v>
+        <v>3.1522500000000004</v>
       </c>
       <c r="K149">
         <f t="shared" si="9"/>
-        <v>2.7319500000000003</v>
+        <v>3.1522500000000004</v>
       </c>
       <c r="L149">
         <f t="shared" si="9"/>
-        <v>2.7319500000000003</v>
+        <v>3.1522500000000004</v>
       </c>
       <c r="M149">
         <f t="shared" si="9"/>
-        <v>1.5845310000000001</v>
+        <v>1.8283050000000003</v>
       </c>
       <c r="N149">
         <f t="shared" si="9"/>
-        <v>1.5845310000000001</v>
+        <v>1.8283050000000003</v>
       </c>
       <c r="O149">
         <f t="shared" si="9"/>
-        <v>1.1200995000000002</v>
+        <v>1.2924225</v>
       </c>
     </row>
     <row r="155" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
@@ -9651,16 +9655,16 @@
       <c r="A158" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B158" s="106" t="s">
-        <v>0</v>
-      </c>
-      <c r="C158" s="107"/>
-      <c r="D158" s="108"/>
-      <c r="E158" s="106" t="s">
+      <c r="B158" s="95" t="s">
+        <v>0</v>
+      </c>
+      <c r="C158" s="96"/>
+      <c r="D158" s="97"/>
+      <c r="E158" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="F158" s="107"/>
-      <c r="G158" s="108"/>
+      <c r="F158" s="96"/>
+      <c r="G158" s="97"/>
     </row>
     <row r="159" spans="1:23" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A159" s="6"/>
@@ -10411,11 +10415,11 @@
       <c r="W182" s="50"/>
     </row>
     <row r="183" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A183" s="109" t="s">
+      <c r="A183" s="98" t="s">
         <v>89</v>
       </c>
-      <c r="B183" s="109"/>
-      <c r="C183" s="109"/>
+      <c r="B183" s="98"/>
+      <c r="C183" s="98"/>
     </row>
     <row r="184" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A184" s="1" t="s">
@@ -10489,39 +10493,39 @@
       <c r="W194" s="50"/>
     </row>
     <row r="195" spans="1:23" s="52" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A195" s="97" t="s">
+      <c r="A195" s="99" t="s">
         <v>90</v>
       </c>
-      <c r="B195" s="97"/>
-      <c r="C195" s="97"/>
-      <c r="D195" s="97"/>
-      <c r="E195" s="97"/>
-      <c r="F195" s="97"/>
+      <c r="B195" s="99"/>
+      <c r="C195" s="99"/>
+      <c r="D195" s="99"/>
+      <c r="E195" s="99"/>
+      <c r="F195" s="99"/>
     </row>
     <row r="196" spans="1:23" s="52" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A196" s="110" t="s">
+      <c r="A196" s="100" t="s">
         <v>91</v>
       </c>
-      <c r="B196" s="110"/>
-      <c r="C196" s="110"/>
-      <c r="D196" s="110"/>
-      <c r="E196" s="110"/>
-      <c r="F196" s="110"/>
+      <c r="B196" s="100"/>
+      <c r="C196" s="100"/>
+      <c r="D196" s="100"/>
+      <c r="E196" s="100"/>
+      <c r="F196" s="100"/>
     </row>
     <row r="197" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A197" s="103" t="s">
+      <c r="A197" s="92" t="s">
         <v>53</v>
       </c>
       <c r="B197" s="59"/>
       <c r="C197" s="59"/>
-      <c r="D197" s="103" t="s">
+      <c r="D197" s="92" t="s">
         <v>58</v>
       </c>
-      <c r="E197" s="103"/>
-      <c r="F197" s="103"/>
+      <c r="E197" s="92"/>
+      <c r="F197" s="92"/>
     </row>
     <row r="198" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A198" s="103"/>
+      <c r="A198" s="92"/>
       <c r="B198" s="59"/>
       <c r="C198" s="60" t="s">
         <v>54</v>
@@ -11167,29 +11171,29 @@
       </c>
     </row>
     <row r="216" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A216" s="104" t="s">
+      <c r="A216" s="93" t="s">
         <v>92</v>
       </c>
-      <c r="B216" s="104"/>
-      <c r="C216" s="104"/>
-      <c r="D216" s="104"/>
-      <c r="E216" s="104"/>
-      <c r="F216" s="104"/>
+      <c r="B216" s="93"/>
+      <c r="C216" s="93"/>
+      <c r="D216" s="93"/>
+      <c r="E216" s="93"/>
+      <c r="F216" s="93"/>
     </row>
     <row r="217" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A217" s="105" t="s">
+      <c r="A217" s="94" t="s">
         <v>2</v>
       </c>
       <c r="B217" s="59"/>
       <c r="C217" s="59"/>
-      <c r="D217" s="103" t="s">
+      <c r="D217" s="92" t="s">
         <v>58</v>
       </c>
-      <c r="E217" s="103"/>
-      <c r="F217" s="103"/>
+      <c r="E217" s="92"/>
+      <c r="F217" s="92"/>
     </row>
     <row r="218" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A218" s="105"/>
+      <c r="A218" s="94"/>
       <c r="B218" s="59"/>
       <c r="C218" s="60" t="s">
         <v>54</v>
@@ -11632,6 +11636,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A109:A111"/>
+    <mergeCell ref="B109:G109"/>
+    <mergeCell ref="B130:G130"/>
+    <mergeCell ref="A130:A132"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="C81:C83"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="A81:A83"/>
+    <mergeCell ref="B81:B83"/>
     <mergeCell ref="I130:I132"/>
     <mergeCell ref="J130:O130"/>
     <mergeCell ref="A197:A198"/>
@@ -11644,18 +11660,6 @@
     <mergeCell ref="A196:F196"/>
     <mergeCell ref="D197:F197"/>
     <mergeCell ref="D217:F217"/>
-    <mergeCell ref="A109:A111"/>
-    <mergeCell ref="B109:G109"/>
-    <mergeCell ref="B130:G130"/>
-    <mergeCell ref="A130:A132"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="C81:C83"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="A81:A83"/>
-    <mergeCell ref="B81:B83"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Config/Population_data.xlsx
+++ b/Config/Population_data.xlsx
@@ -1427,7 +1427,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1624,6 +1624,8 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1809,6 +1811,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2323,6 +2326,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2445,7 +2449,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3141,7 +3144,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3269,7 +3271,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3958,7 +3959,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6150,8 +6150,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AF239"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F141" sqref="F141"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6164,7 +6164,7 @@
     <col min="6" max="6" width="16.81640625" customWidth="1"/>
     <col min="8" max="8" width="13.1796875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.81640625" customWidth="1"/>
-    <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.08984375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.1796875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.26953125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="25" customWidth="1"/>
@@ -6280,10 +6280,10 @@
       <c r="A4" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="104" t="s">
+      <c r="B4" s="106" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="105"/>
+      <c r="C4" s="107"/>
     </row>
     <row r="5" spans="1:25" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="53"/>
@@ -6304,6 +6304,20 @@
       <c r="C6" s="13">
         <v>417311</v>
       </c>
+      <c r="F6" s="86">
+        <v>116.45919703766501</v>
+      </c>
+      <c r="G6" s="87">
+        <v>156.85219677743601</v>
+      </c>
+      <c r="H6" s="52">
+        <f>F6*1000</f>
+        <v>116459.19703766501</v>
+      </c>
+      <c r="I6" s="52">
+        <f>G6*1000</f>
+        <v>156852.19677743601</v>
+      </c>
     </row>
     <row r="7" spans="1:25" ht="33.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4" t="s">
@@ -6315,6 +6329,20 @@
       <c r="C7" s="13">
         <v>361594</v>
       </c>
+      <c r="F7" s="86">
+        <v>76.187743222862409</v>
+      </c>
+      <c r="G7" s="87">
+        <v>102.61289100384487</v>
+      </c>
+      <c r="H7" s="52">
+        <f t="shared" ref="H7:H21" si="0">F7*1000</f>
+        <v>76187.743222862409</v>
+      </c>
+      <c r="I7" s="52">
+        <f t="shared" ref="I7:I21" si="1">G7*1000</f>
+        <v>102612.89100384487</v>
+      </c>
     </row>
     <row r="8" spans="1:25" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4" t="s">
@@ -6326,6 +6354,20 @@
       <c r="C8" s="13">
         <v>329333</v>
       </c>
+      <c r="F8" s="86">
+        <v>75.385542052984889</v>
+      </c>
+      <c r="G8" s="87">
+        <v>87.786369045850634</v>
+      </c>
+      <c r="H8" s="52">
+        <f t="shared" si="0"/>
+        <v>75385.542052984893</v>
+      </c>
+      <c r="I8" s="52">
+        <f t="shared" si="1"/>
+        <v>87786.369045850632</v>
+      </c>
     </row>
     <row r="9" spans="1:25" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
@@ -6337,6 +6379,20 @@
       <c r="C9" s="13">
         <v>296947</v>
       </c>
+      <c r="F9" s="86">
+        <v>71.896515135187158</v>
+      </c>
+      <c r="G9" s="87">
+        <v>63.757104105268432</v>
+      </c>
+      <c r="H9" s="52">
+        <f t="shared" si="0"/>
+        <v>71896.515135187161</v>
+      </c>
+      <c r="I9" s="52">
+        <f t="shared" si="1"/>
+        <v>63757.10410526843</v>
+      </c>
     </row>
     <row r="10" spans="1:25" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4" t="s">
@@ -6348,6 +6404,20 @@
       <c r="C10" s="13">
         <v>273204</v>
       </c>
+      <c r="F10" s="86">
+        <v>51.997757864486189</v>
+      </c>
+      <c r="G10" s="87">
+        <v>51.450259534369195</v>
+      </c>
+      <c r="H10" s="52">
+        <f t="shared" si="0"/>
+        <v>51997.757864486186</v>
+      </c>
+      <c r="I10" s="52">
+        <f t="shared" si="1"/>
+        <v>51450.259534369194</v>
+      </c>
     </row>
     <row r="11" spans="1:25" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4" t="s">
@@ -6359,6 +6429,20 @@
       <c r="C11" s="13">
         <v>249396</v>
       </c>
+      <c r="F11" s="86">
+        <v>46.60176948050119</v>
+      </c>
+      <c r="G11" s="87">
+        <v>43.513908158546549</v>
+      </c>
+      <c r="H11" s="52">
+        <f t="shared" si="0"/>
+        <v>46601.769480501192</v>
+      </c>
+      <c r="I11" s="52">
+        <f t="shared" si="1"/>
+        <v>43513.908158546546</v>
+      </c>
     </row>
     <row r="12" spans="1:25" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4" t="s">
@@ -6370,6 +6454,20 @@
       <c r="C12" s="13">
         <v>211839</v>
       </c>
+      <c r="F12" s="86">
+        <v>38.908922911901001</v>
+      </c>
+      <c r="G12" s="87">
+        <v>53.232318780424968</v>
+      </c>
+      <c r="H12" s="52">
+        <f t="shared" si="0"/>
+        <v>38908.922911900998</v>
+      </c>
+      <c r="I12" s="52">
+        <f t="shared" si="1"/>
+        <v>53232.318780424968</v>
+      </c>
     </row>
     <row r="13" spans="1:25" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4" t="s">
@@ -6381,6 +6479,20 @@
       <c r="C13" s="13">
         <v>176470</v>
       </c>
+      <c r="F13" s="86">
+        <v>32.485982807963815</v>
+      </c>
+      <c r="G13" s="87">
+        <v>31.805477141060052</v>
+      </c>
+      <c r="H13" s="52">
+        <f t="shared" si="0"/>
+        <v>32485.982807963814</v>
+      </c>
+      <c r="I13" s="52">
+        <f t="shared" si="1"/>
+        <v>31805.477141060052</v>
+      </c>
     </row>
     <row r="14" spans="1:25" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4" t="s">
@@ -6392,6 +6504,20 @@
       <c r="C14" s="13">
         <v>143351</v>
       </c>
+      <c r="F14" s="86">
+        <v>48.105368931368112</v>
+      </c>
+      <c r="G14" s="87">
+        <v>43.876145321947618</v>
+      </c>
+      <c r="H14" s="52">
+        <f t="shared" si="0"/>
+        <v>48105.36893136811</v>
+      </c>
+      <c r="I14" s="52">
+        <f t="shared" si="1"/>
+        <v>43876.145321947617</v>
+      </c>
     </row>
     <row r="15" spans="1:25" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4" t="s">
@@ -6403,6 +6529,20 @@
       <c r="C15" s="13">
         <v>123441</v>
       </c>
+      <c r="F15" s="86">
+        <v>27.123317738423211</v>
+      </c>
+      <c r="G15" s="87">
+        <v>29.945252135950131</v>
+      </c>
+      <c r="H15" s="52">
+        <f t="shared" si="0"/>
+        <v>27123.317738423211</v>
+      </c>
+      <c r="I15" s="52">
+        <f t="shared" si="1"/>
+        <v>29945.25213595013</v>
+      </c>
     </row>
     <row r="16" spans="1:25" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4" t="s">
@@ -6414,6 +6554,20 @@
       <c r="C16" s="13">
         <v>98355</v>
       </c>
+      <c r="F16" s="86">
+        <v>26.837729055778073</v>
+      </c>
+      <c r="G16" s="87">
+        <v>18.123756746459325</v>
+      </c>
+      <c r="H16" s="52">
+        <f t="shared" si="0"/>
+        <v>26837.729055778073</v>
+      </c>
+      <c r="I16" s="52">
+        <f t="shared" si="1"/>
+        <v>18123.756746459323</v>
+      </c>
     </row>
     <row r="17" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="22" t="s">
@@ -6425,6 +6579,20 @@
       <c r="C17" s="23">
         <v>82330</v>
       </c>
+      <c r="F17" s="86">
+        <v>18.123756746459325</v>
+      </c>
+      <c r="G17" s="87">
+        <v>22.803929628009573</v>
+      </c>
+      <c r="H17" s="52">
+        <f t="shared" si="0"/>
+        <v>18123.756746459323</v>
+      </c>
+      <c r="I17" s="52">
+        <f t="shared" si="1"/>
+        <v>22803.929628009573</v>
+      </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A18" s="21" t="s">
@@ -6438,6 +6606,20 @@
         <f>366793/6.36</f>
         <v>57671.85534591195</v>
       </c>
+      <c r="F18" s="86">
+        <v>13.980530844150357</v>
+      </c>
+      <c r="G18" s="87">
+        <v>19.286357512430385</v>
+      </c>
+      <c r="H18" s="52">
+        <f t="shared" si="0"/>
+        <v>13980.530844150357</v>
+      </c>
+      <c r="I18" s="52">
+        <f t="shared" si="1"/>
+        <v>19286.357512430386</v>
+      </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A19" s="21" t="s">
@@ -6451,6 +6633,20 @@
         <f>282911/6.36</f>
         <v>44482.861635220121</v>
       </c>
+      <c r="F19" s="86">
+        <v>8.1781693204119676</v>
+      </c>
+      <c r="G19" s="87">
+        <v>13.333477747336939</v>
+      </c>
+      <c r="H19" s="52">
+        <f t="shared" si="0"/>
+        <v>8178.1693204119674</v>
+      </c>
+      <c r="I19" s="52">
+        <f t="shared" si="1"/>
+        <v>13333.47774733694</v>
+      </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A20" s="21" t="s">
@@ -6464,6 +6660,20 @@
         <f>215469/6.36</f>
         <v>33878.773584905655</v>
       </c>
+      <c r="F20" s="86">
+        <v>6.7562521870106114</v>
+      </c>
+      <c r="G20" s="87">
+        <v>8.591408456529452</v>
+      </c>
+      <c r="H20" s="52">
+        <f t="shared" si="0"/>
+        <v>6756.2521870106111</v>
+      </c>
+      <c r="I20" s="52">
+        <f t="shared" si="1"/>
+        <v>8591.4084565294525</v>
+      </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A21" s="21" t="s">
@@ -6477,6 +6687,20 @@
         <f>144901/6.36</f>
         <v>22783.176100628931</v>
       </c>
+      <c r="F21" s="86">
+        <v>4.250473607017895</v>
+      </c>
+      <c r="G21" s="87">
+        <v>3.0486932223679761</v>
+      </c>
+      <c r="H21" s="52">
+        <f t="shared" si="0"/>
+        <v>4250.4736070178951</v>
+      </c>
+      <c r="I21" s="52">
+        <f t="shared" si="1"/>
+        <v>3048.693222367976</v>
+      </c>
     </row>
     <row r="22" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="24" t="s">
@@ -6494,6 +6718,10 @@
         <f>SUM(B22:C22)</f>
         <v>5703373.2934609242</v>
       </c>
+      <c r="I22">
+        <f>SUM(H6:I21)</f>
+        <v>1413298.5742620032</v>
+      </c>
       <c r="X22" s="17"/>
     </row>
     <row r="23" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
@@ -6520,10 +6748,10 @@
       <c r="A27" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="99" t="s">
+      <c r="B27" s="101" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="106"/>
+      <c r="C27" s="108"/>
     </row>
     <row r="28" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A28" s="12"/>
@@ -6911,19 +7139,19 @@
       <c r="AE51" s="32"/>
     </row>
     <row r="52" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A52" s="110" t="s">
+      <c r="A52" s="112" t="s">
         <v>2</v>
       </c>
-      <c r="B52" s="110" t="s">
+      <c r="B52" s="112" t="s">
         <v>67</v>
       </c>
-      <c r="C52" s="110"/>
-      <c r="D52" s="110"/>
-      <c r="E52" s="110" t="s">
+      <c r="C52" s="112"/>
+      <c r="D52" s="112"/>
+      <c r="E52" s="112" t="s">
         <v>68</v>
       </c>
-      <c r="F52" s="110"/>
-      <c r="G52" s="110"/>
+      <c r="F52" s="112"/>
+      <c r="G52" s="112"/>
       <c r="X52" s="30"/>
       <c r="Y52" s="30"/>
       <c r="Z52" s="30"/>
@@ -6934,7 +7162,7 @@
       <c r="AE52" s="30"/>
     </row>
     <row r="53" spans="1:31" ht="30" x14ac:dyDescent="0.35">
-      <c r="A53" s="110"/>
+      <c r="A53" s="112"/>
       <c r="B53" s="45" t="s">
         <v>6</v>
       </c>
@@ -7006,7 +7234,7 @@
         <v>0</v>
       </c>
       <c r="G55" s="14">
-        <f t="shared" ref="G55:G56" si="0">1-E55-F55</f>
+        <f t="shared" ref="G55:G56" si="2">1-E55-F55</f>
         <v>0</v>
       </c>
     </row>
@@ -7031,7 +7259,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="G56" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5.0000000000000183E-3</v>
       </c>
     </row>
@@ -7209,7 +7437,7 @@
         <v>0.85074626865671632</v>
       </c>
       <c r="C64" s="14">
-        <f t="shared" ref="C64:C69" si="1">0.149253731343284-0.001</f>
+        <f t="shared" ref="C64:C69" si="3">0.149253731343284-0.001</f>
         <v>0.14825373134328401</v>
       </c>
       <c r="D64" s="14">
@@ -7233,7 +7461,7 @@
         <v>0.85074626865671632</v>
       </c>
       <c r="C65" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.14825373134328401</v>
       </c>
       <c r="D65" s="14">
@@ -7257,7 +7485,7 @@
         <v>0.85074626865671632</v>
       </c>
       <c r="C66" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.14825373134328401</v>
       </c>
       <c r="D66" s="27">
@@ -7281,7 +7509,7 @@
         <v>0.85074626865671632</v>
       </c>
       <c r="C67" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.14825373134328401</v>
       </c>
       <c r="D67" s="27">
@@ -7305,7 +7533,7 @@
         <v>0.85074626865671632</v>
       </c>
       <c r="C68" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.14825373134328401</v>
       </c>
       <c r="D68" s="27">
@@ -7329,7 +7557,7 @@
         <v>0.85074626865671632</v>
       </c>
       <c r="C69" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.14825373134328401</v>
       </c>
       <c r="D69" s="27">
@@ -7354,23 +7582,23 @@
         <v>1.4676838219218388E-2</v>
       </c>
       <c r="C71">
-        <f t="shared" ref="C71:G71" si="2">PRODUCT(C54:C69)</f>
+        <f t="shared" ref="C71:G71" si="4">PRODUCT(C54:C69)</f>
         <v>0</v>
       </c>
       <c r="D71">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E71">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.79671076610996394</v>
       </c>
       <c r="F71">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G71">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7468,13 +7696,13 @@
       <c r="X80" s="50"/>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A81" s="101" t="s">
+      <c r="A81" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="B81" s="107" t="s">
+      <c r="B81" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="C81" s="107" t="s">
+      <c r="C81" s="109" t="s">
         <v>4</v>
       </c>
       <c r="H81" t="s">
@@ -7485,9 +7713,9 @@
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A82" s="102"/>
-      <c r="B82" s="108"/>
-      <c r="C82" s="108"/>
+      <c r="A82" s="104"/>
+      <c r="B82" s="110"/>
+      <c r="C82" s="110"/>
       <c r="I82" s="77" t="s">
         <v>98</v>
       </c>
@@ -7499,9 +7727,9 @@
       </c>
     </row>
     <row r="83" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A83" s="103"/>
-      <c r="B83" s="109"/>
-      <c r="C83" s="109"/>
+      <c r="A83" s="105"/>
+      <c r="B83" s="111"/>
+      <c r="C83" s="111"/>
       <c r="E83" t="s">
         <v>99</v>
       </c>
@@ -8140,20 +8368,20 @@
       <c r="X108" s="50"/>
     </row>
     <row r="109" spans="1:24" ht="15.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A109" s="101" t="s">
+      <c r="A109" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="B109" s="89" t="s">
+      <c r="B109" s="91" t="s">
         <v>95</v>
       </c>
-      <c r="C109" s="90"/>
-      <c r="D109" s="90"/>
-      <c r="E109" s="90"/>
-      <c r="F109" s="90"/>
-      <c r="G109" s="91"/>
+      <c r="C109" s="92"/>
+      <c r="D109" s="92"/>
+      <c r="E109" s="92"/>
+      <c r="F109" s="92"/>
+      <c r="G109" s="93"/>
     </row>
     <row r="110" spans="1:24" ht="46" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="102"/>
+      <c r="A110" s="104"/>
       <c r="B110" s="44" t="s">
         <v>83</v>
       </c>
@@ -8174,7 +8402,7 @@
       </c>
     </row>
     <row r="111" spans="1:24" ht="47" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A111" s="103"/>
+      <c r="A111" s="105"/>
       <c r="B111" s="46" t="s">
         <v>76</v>
       </c>
@@ -8603,57 +8831,57 @@
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B128">
-        <f t="shared" ref="B128:G128" si="3">5*SUM(B115:B121)</f>
+        <f t="shared" ref="B128:G128" si="5">5*SUM(B115:B121)</f>
         <v>5.604000000000001</v>
       </c>
       <c r="C128">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5.604000000000001</v>
       </c>
       <c r="D128">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5.604000000000001</v>
       </c>
       <c r="E128">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.2503200000000003</v>
       </c>
       <c r="F128">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.2503200000000003</v>
       </c>
       <c r="G128">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.2976400000000003</v>
       </c>
     </row>
     <row r="129" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="130" spans="1:15" ht="15.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A130" s="86" t="s">
+      <c r="A130" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="B130" s="89" t="s">
+      <c r="B130" s="91" t="s">
         <v>96</v>
       </c>
-      <c r="C130" s="90"/>
-      <c r="D130" s="90"/>
-      <c r="E130" s="90"/>
-      <c r="F130" s="90"/>
-      <c r="G130" s="91"/>
-      <c r="I130" s="86" t="s">
+      <c r="C130" s="92"/>
+      <c r="D130" s="92"/>
+      <c r="E130" s="92"/>
+      <c r="F130" s="92"/>
+      <c r="G130" s="93"/>
+      <c r="I130" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="J130" s="89" t="s">
+      <c r="J130" s="91" t="s">
         <v>97</v>
       </c>
-      <c r="K130" s="90"/>
-      <c r="L130" s="90"/>
-      <c r="M130" s="90"/>
-      <c r="N130" s="90"/>
-      <c r="O130" s="91"/>
+      <c r="K130" s="92"/>
+      <c r="L130" s="92"/>
+      <c r="M130" s="92"/>
+      <c r="N130" s="92"/>
+      <c r="O130" s="93"/>
     </row>
     <row r="131" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A131" s="87"/>
+      <c r="A131" s="89"/>
       <c r="B131" s="34" t="s">
         <v>84</v>
       </c>
@@ -8672,7 +8900,7 @@
       <c r="G131" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="I131" s="87"/>
+      <c r="I131" s="89"/>
       <c r="J131" s="34" t="s">
         <v>84</v>
       </c>
@@ -8693,7 +8921,7 @@
       </c>
     </row>
     <row r="132" spans="1:15" ht="47" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A132" s="88"/>
+      <c r="A132" s="90"/>
       <c r="B132" s="55" t="s">
         <v>76</v>
       </c>
@@ -8712,7 +8940,7 @@
       <c r="G132" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="I132" s="88"/>
+      <c r="I132" s="90"/>
       <c r="J132" s="55" t="s">
         <v>76</v>
       </c>
@@ -8869,55 +9097,55 @@
         <v>18</v>
       </c>
       <c r="B136" s="27">
-        <f>B115*0.75</f>
-        <v>0.10605000000000001</v>
+        <f>B115*0.5</f>
+        <v>7.0699999999999999E-2</v>
       </c>
       <c r="C136" s="27">
-        <f t="shared" ref="C136:G136" si="4">C115*0.75</f>
-        <v>0.10605000000000001</v>
+        <f t="shared" ref="C136:G136" si="6">C115*0.5</f>
+        <v>7.0699999999999999E-2</v>
       </c>
       <c r="D136" s="27">
-        <f t="shared" si="4"/>
-        <v>0.10605000000000001</v>
+        <f t="shared" si="6"/>
+        <v>7.0699999999999999E-2</v>
       </c>
       <c r="E136" s="27">
-        <f t="shared" si="4"/>
-        <v>6.1509000000000008E-2</v>
+        <f t="shared" si="6"/>
+        <v>4.1006000000000008E-2</v>
       </c>
       <c r="F136" s="27">
-        <f t="shared" si="4"/>
-        <v>6.1509000000000008E-2</v>
+        <f t="shared" si="6"/>
+        <v>4.1006000000000008E-2</v>
       </c>
       <c r="G136" s="27">
-        <f t="shared" si="4"/>
-        <v>4.3480500000000005E-2</v>
+        <f t="shared" si="6"/>
+        <v>2.8987000000000002E-2</v>
       </c>
       <c r="I136" s="72" t="s">
         <v>18</v>
       </c>
       <c r="J136" s="27">
         <f>B136*0.75</f>
-        <v>7.9537500000000011E-2</v>
+        <v>5.3025000000000003E-2</v>
       </c>
       <c r="K136" s="27">
-        <f t="shared" ref="K136:O142" si="5">C136*0.75</f>
-        <v>7.9537500000000011E-2</v>
+        <f t="shared" ref="K136:O142" si="7">C136*0.75</f>
+        <v>5.3025000000000003E-2</v>
       </c>
       <c r="L136" s="27">
-        <f t="shared" si="5"/>
-        <v>7.9537500000000011E-2</v>
+        <f t="shared" si="7"/>
+        <v>5.3025000000000003E-2</v>
       </c>
       <c r="M136" s="27">
-        <f t="shared" si="5"/>
-        <v>4.6131750000000006E-2</v>
+        <f t="shared" si="7"/>
+        <v>3.0754500000000004E-2</v>
       </c>
       <c r="N136" s="27">
-        <f t="shared" si="5"/>
-        <v>4.6131750000000006E-2</v>
+        <f t="shared" si="7"/>
+        <v>3.0754500000000004E-2</v>
       </c>
       <c r="O136" s="27">
-        <f t="shared" si="5"/>
-        <v>3.2610375000000004E-2</v>
+        <f t="shared" si="7"/>
+        <v>2.1740250000000003E-2</v>
       </c>
     </row>
     <row r="137" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -8925,55 +9153,55 @@
         <v>19</v>
       </c>
       <c r="B137" s="27">
-        <f t="shared" ref="B137:G142" si="6">B116*0.75</f>
-        <v>0.20850000000000002</v>
+        <f t="shared" ref="B137:G142" si="8">B116*0.5</f>
+        <v>0.13900000000000001</v>
       </c>
       <c r="C137" s="27">
-        <f t="shared" si="6"/>
-        <v>0.20850000000000002</v>
+        <f t="shared" si="8"/>
+        <v>0.13900000000000001</v>
       </c>
       <c r="D137" s="27">
-        <f t="shared" si="6"/>
-        <v>0.20850000000000002</v>
+        <f t="shared" si="8"/>
+        <v>0.13900000000000001</v>
       </c>
       <c r="E137" s="27">
-        <f t="shared" si="6"/>
-        <v>0.12093000000000001</v>
+        <f t="shared" si="8"/>
+        <v>8.0620000000000011E-2</v>
       </c>
       <c r="F137" s="27">
-        <f t="shared" si="6"/>
-        <v>0.12093000000000001</v>
+        <f t="shared" si="8"/>
+        <v>8.0620000000000011E-2</v>
       </c>
       <c r="G137" s="27">
-        <f t="shared" si="6"/>
-        <v>8.5485000000000019E-2</v>
+        <f t="shared" si="8"/>
+        <v>5.6990000000000013E-2</v>
       </c>
       <c r="I137" s="72" t="s">
         <v>19</v>
       </c>
       <c r="J137" s="27">
-        <f t="shared" ref="J137:J142" si="7">B137*0.75</f>
-        <v>0.15637500000000001</v>
+        <f t="shared" ref="J137:J142" si="9">B137*0.75</f>
+        <v>0.10425000000000001</v>
       </c>
       <c r="K137" s="27">
-        <f t="shared" si="5"/>
-        <v>0.15637500000000001</v>
+        <f t="shared" si="7"/>
+        <v>0.10425000000000001</v>
       </c>
       <c r="L137" s="27">
-        <f t="shared" si="5"/>
-        <v>0.15637500000000001</v>
+        <f t="shared" si="7"/>
+        <v>0.10425000000000001</v>
       </c>
       <c r="M137" s="27">
-        <f t="shared" si="5"/>
-        <v>9.0697500000000014E-2</v>
+        <f t="shared" si="7"/>
+        <v>6.0465000000000005E-2</v>
       </c>
       <c r="N137" s="27">
-        <f t="shared" si="5"/>
-        <v>9.0697500000000014E-2</v>
+        <f t="shared" si="7"/>
+        <v>6.0465000000000005E-2</v>
       </c>
       <c r="O137" s="27">
-        <f t="shared" si="5"/>
-        <v>6.4113750000000011E-2</v>
+        <f t="shared" si="7"/>
+        <v>4.274250000000001E-2</v>
       </c>
     </row>
     <row r="138" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -8981,55 +9209,55 @@
         <v>20</v>
       </c>
       <c r="B138" s="27">
-        <f t="shared" si="6"/>
-        <v>0.2127</v>
+        <f t="shared" si="8"/>
+        <v>0.14180000000000001</v>
       </c>
       <c r="C138" s="27">
-        <f t="shared" si="6"/>
-        <v>0.2127</v>
+        <f t="shared" si="8"/>
+        <v>0.14180000000000001</v>
       </c>
       <c r="D138" s="27">
-        <f t="shared" si="6"/>
-        <v>0.2127</v>
+        <f t="shared" si="8"/>
+        <v>0.14180000000000001</v>
       </c>
       <c r="E138" s="27">
-        <f t="shared" si="6"/>
-        <v>0.12336600000000002</v>
+        <f t="shared" si="8"/>
+        <v>8.2244000000000012E-2</v>
       </c>
       <c r="F138" s="27">
-        <f t="shared" si="6"/>
-        <v>0.12336600000000002</v>
+        <f t="shared" si="8"/>
+        <v>8.2244000000000012E-2</v>
       </c>
       <c r="G138" s="27">
-        <f t="shared" si="6"/>
-        <v>8.7207000000000007E-2</v>
+        <f t="shared" si="8"/>
+        <v>5.8138000000000009E-2</v>
       </c>
       <c r="I138" s="72" t="s">
         <v>20</v>
       </c>
       <c r="J138" s="27">
+        <f t="shared" si="9"/>
+        <v>0.10635</v>
+      </c>
+      <c r="K138" s="27">
         <f t="shared" si="7"/>
-        <v>0.159525</v>
-      </c>
-      <c r="K138" s="27">
-        <f t="shared" si="5"/>
-        <v>0.159525</v>
+        <v>0.10635</v>
       </c>
       <c r="L138" s="27">
-        <f t="shared" si="5"/>
-        <v>0.159525</v>
+        <f t="shared" si="7"/>
+        <v>0.10635</v>
       </c>
       <c r="M138" s="27">
-        <f t="shared" si="5"/>
-        <v>9.252450000000001E-2</v>
+        <f t="shared" si="7"/>
+        <v>6.1683000000000009E-2</v>
       </c>
       <c r="N138" s="27">
-        <f t="shared" si="5"/>
-        <v>9.252450000000001E-2</v>
+        <f t="shared" si="7"/>
+        <v>6.1683000000000009E-2</v>
       </c>
       <c r="O138" s="27">
-        <f t="shared" si="5"/>
-        <v>6.5405249999999998E-2</v>
+        <f t="shared" si="7"/>
+        <v>4.3603500000000003E-2</v>
       </c>
     </row>
     <row r="139" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -9037,55 +9265,55 @@
         <v>23</v>
       </c>
       <c r="B139" s="27">
-        <f t="shared" si="6"/>
-        <v>0.15839999999999999</v>
+        <f t="shared" si="8"/>
+        <v>0.1056</v>
       </c>
       <c r="C139" s="27">
-        <f t="shared" si="6"/>
-        <v>0.15839999999999999</v>
+        <f t="shared" si="8"/>
+        <v>0.1056</v>
       </c>
       <c r="D139" s="27">
-        <f t="shared" si="6"/>
-        <v>0.15839999999999999</v>
+        <f t="shared" si="8"/>
+        <v>0.1056</v>
       </c>
       <c r="E139" s="27">
-        <f t="shared" si="6"/>
-        <v>9.1872000000000009E-2</v>
+        <f t="shared" si="8"/>
+        <v>6.1248000000000004E-2</v>
       </c>
       <c r="F139" s="27">
-        <f t="shared" si="6"/>
-        <v>9.1872000000000009E-2</v>
+        <f t="shared" si="8"/>
+        <v>6.1248000000000004E-2</v>
       </c>
       <c r="G139" s="27">
-        <f t="shared" si="6"/>
-        <v>6.4944000000000002E-2</v>
+        <f t="shared" si="8"/>
+        <v>4.3296000000000001E-2</v>
       </c>
       <c r="I139" s="72" t="s">
         <v>23</v>
       </c>
       <c r="J139" s="27">
+        <f t="shared" si="9"/>
+        <v>7.9199999999999993E-2</v>
+      </c>
+      <c r="K139" s="27">
         <f t="shared" si="7"/>
-        <v>0.11879999999999999</v>
-      </c>
-      <c r="K139" s="27">
-        <f t="shared" si="5"/>
-        <v>0.11879999999999999</v>
+        <v>7.9199999999999993E-2</v>
       </c>
       <c r="L139" s="27">
-        <f t="shared" si="5"/>
-        <v>0.11879999999999999</v>
+        <f t="shared" si="7"/>
+        <v>7.9199999999999993E-2</v>
       </c>
       <c r="M139" s="27">
-        <f t="shared" si="5"/>
-        <v>6.8904000000000007E-2</v>
+        <f t="shared" si="7"/>
+        <v>4.5936000000000005E-2</v>
       </c>
       <c r="N139" s="27">
-        <f t="shared" si="5"/>
-        <v>6.8904000000000007E-2</v>
+        <f t="shared" si="7"/>
+        <v>4.5936000000000005E-2</v>
       </c>
       <c r="O139" s="27">
-        <f t="shared" si="5"/>
-        <v>4.8708000000000001E-2</v>
+        <f t="shared" si="7"/>
+        <v>3.2472000000000001E-2</v>
       </c>
     </row>
     <row r="140" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -9093,55 +9321,55 @@
         <v>22</v>
       </c>
       <c r="B140" s="27">
-        <f t="shared" si="6"/>
-        <v>0.1011</v>
+        <f t="shared" si="8"/>
+        <v>6.7400000000000002E-2</v>
       </c>
       <c r="C140" s="27">
-        <f t="shared" si="6"/>
-        <v>0.1011</v>
+        <f t="shared" si="8"/>
+        <v>6.7400000000000002E-2</v>
       </c>
       <c r="D140" s="27">
-        <f t="shared" si="6"/>
-        <v>0.1011</v>
+        <f t="shared" si="8"/>
+        <v>6.7400000000000002E-2</v>
       </c>
       <c r="E140" s="27">
-        <f t="shared" si="6"/>
-        <v>5.863800000000001E-2</v>
+        <f t="shared" si="8"/>
+        <v>3.9092000000000009E-2</v>
       </c>
       <c r="F140" s="27">
-        <f t="shared" si="6"/>
-        <v>5.863800000000001E-2</v>
+        <f t="shared" si="8"/>
+        <v>3.9092000000000009E-2</v>
       </c>
       <c r="G140" s="27">
-        <f t="shared" si="6"/>
-        <v>4.1451000000000002E-2</v>
+        <f t="shared" si="8"/>
+        <v>2.7634000000000002E-2</v>
       </c>
       <c r="I140" s="72" t="s">
         <v>22</v>
       </c>
       <c r="J140" s="27">
+        <f t="shared" si="9"/>
+        <v>5.0549999999999998E-2</v>
+      </c>
+      <c r="K140" s="27">
         <f t="shared" si="7"/>
-        <v>7.5825000000000004E-2</v>
-      </c>
-      <c r="K140" s="27">
-        <f t="shared" si="5"/>
-        <v>7.5825000000000004E-2</v>
+        <v>5.0549999999999998E-2</v>
       </c>
       <c r="L140" s="27">
-        <f t="shared" si="5"/>
-        <v>7.5825000000000004E-2</v>
+        <f t="shared" si="7"/>
+        <v>5.0549999999999998E-2</v>
       </c>
       <c r="M140" s="27">
-        <f t="shared" si="5"/>
-        <v>4.3978500000000004E-2</v>
+        <f t="shared" si="7"/>
+        <v>2.9319000000000005E-2</v>
       </c>
       <c r="N140" s="27">
-        <f t="shared" si="5"/>
-        <v>4.3978500000000004E-2</v>
+        <f t="shared" si="7"/>
+        <v>2.9319000000000005E-2</v>
       </c>
       <c r="O140" s="27">
-        <f t="shared" si="5"/>
-        <v>3.1088250000000001E-2</v>
+        <f t="shared" si="7"/>
+        <v>2.0725500000000001E-2</v>
       </c>
     </row>
     <row r="141" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -9149,55 +9377,55 @@
         <v>24</v>
       </c>
       <c r="B141" s="27">
-        <f t="shared" si="6"/>
-        <v>4.0650000000000006E-2</v>
+        <f t="shared" si="8"/>
+        <v>2.7100000000000003E-2</v>
       </c>
       <c r="C141" s="27">
-        <f t="shared" si="6"/>
-        <v>4.0650000000000006E-2</v>
+        <f t="shared" si="8"/>
+        <v>2.7100000000000003E-2</v>
       </c>
       <c r="D141" s="27">
-        <f t="shared" si="6"/>
-        <v>4.0650000000000006E-2</v>
+        <f t="shared" si="8"/>
+        <v>2.7100000000000003E-2</v>
       </c>
       <c r="E141" s="27">
-        <f t="shared" si="6"/>
-        <v>2.3577000000000004E-2</v>
+        <f t="shared" si="8"/>
+        <v>1.5718000000000003E-2</v>
       </c>
       <c r="F141" s="27">
-        <f t="shared" si="6"/>
-        <v>2.3577000000000004E-2</v>
+        <f t="shared" si="8"/>
+        <v>1.5718000000000003E-2</v>
       </c>
       <c r="G141" s="27">
-        <f t="shared" si="6"/>
-        <v>1.6666500000000001E-2</v>
+        <f t="shared" si="8"/>
+        <v>1.1111000000000001E-2</v>
       </c>
       <c r="I141" s="72" t="s">
         <v>24</v>
       </c>
       <c r="J141" s="27">
+        <f t="shared" si="9"/>
+        <v>2.0325000000000003E-2</v>
+      </c>
+      <c r="K141" s="27">
         <f t="shared" si="7"/>
-        <v>3.0487500000000004E-2</v>
-      </c>
-      <c r="K141" s="27">
-        <f t="shared" si="5"/>
-        <v>3.0487500000000004E-2</v>
+        <v>2.0325000000000003E-2</v>
       </c>
       <c r="L141" s="27">
-        <f t="shared" si="5"/>
-        <v>3.0487500000000004E-2</v>
+        <f t="shared" si="7"/>
+        <v>2.0325000000000003E-2</v>
       </c>
       <c r="M141" s="27">
-        <f t="shared" si="5"/>
-        <v>1.7682750000000004E-2</v>
+        <f t="shared" si="7"/>
+        <v>1.1788500000000002E-2</v>
       </c>
       <c r="N141" s="27">
-        <f t="shared" si="5"/>
-        <v>1.7682750000000004E-2</v>
+        <f t="shared" si="7"/>
+        <v>1.1788500000000002E-2</v>
       </c>
       <c r="O141" s="27">
-        <f t="shared" si="5"/>
-        <v>1.2499875000000001E-2</v>
+        <f t="shared" si="7"/>
+        <v>8.3332500000000004E-3</v>
       </c>
     </row>
     <row r="142" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -9205,55 +9433,55 @@
         <v>25</v>
       </c>
       <c r="B142" s="27">
-        <f t="shared" si="6"/>
-        <v>1.32E-2</v>
+        <f t="shared" si="8"/>
+        <v>8.8000000000000005E-3</v>
       </c>
       <c r="C142" s="27">
-        <f t="shared" si="6"/>
-        <v>1.32E-2</v>
+        <f t="shared" si="8"/>
+        <v>8.8000000000000005E-3</v>
       </c>
       <c r="D142" s="27">
-        <f t="shared" si="6"/>
-        <v>1.32E-2</v>
+        <f t="shared" si="8"/>
+        <v>8.8000000000000005E-3</v>
       </c>
       <c r="E142" s="27">
-        <f t="shared" si="6"/>
-        <v>7.6560000000000013E-3</v>
+        <f t="shared" si="8"/>
+        <v>5.1040000000000009E-3</v>
       </c>
       <c r="F142" s="27">
-        <f t="shared" si="6"/>
-        <v>7.6560000000000013E-3</v>
+        <f t="shared" si="8"/>
+        <v>5.1040000000000009E-3</v>
       </c>
       <c r="G142" s="27">
-        <f t="shared" si="6"/>
-        <v>5.412000000000001E-3</v>
+        <f t="shared" si="8"/>
+        <v>3.6080000000000005E-3</v>
       </c>
       <c r="I142" s="72" t="s">
         <v>25</v>
       </c>
       <c r="J142" s="27">
+        <f t="shared" si="9"/>
+        <v>6.6E-3</v>
+      </c>
+      <c r="K142" s="27">
         <f t="shared" si="7"/>
-        <v>9.8999999999999991E-3</v>
-      </c>
-      <c r="K142" s="27">
-        <f t="shared" si="5"/>
-        <v>9.8999999999999991E-3</v>
+        <v>6.6E-3</v>
       </c>
       <c r="L142" s="27">
-        <f t="shared" si="5"/>
-        <v>9.8999999999999991E-3</v>
+        <f t="shared" si="7"/>
+        <v>6.6E-3</v>
       </c>
       <c r="M142" s="27">
-        <f t="shared" si="5"/>
-        <v>5.7420000000000006E-3</v>
+        <f t="shared" si="7"/>
+        <v>3.8280000000000007E-3</v>
       </c>
       <c r="N142" s="27">
-        <f t="shared" si="5"/>
-        <v>5.7420000000000006E-3</v>
+        <f t="shared" si="7"/>
+        <v>3.8280000000000007E-3</v>
       </c>
       <c r="O142" s="27">
-        <f t="shared" si="5"/>
-        <v>4.059000000000001E-3</v>
+        <f t="shared" si="7"/>
+        <v>2.7060000000000005E-3</v>
       </c>
     </row>
     <row r="143" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -9522,52 +9750,52 @@
     </row>
     <row r="149" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B149">
-        <f t="shared" ref="B149:G149" si="8">5*SUM(B133:B148)</f>
-        <v>4.2029999999999994</v>
+        <f t="shared" ref="B149:G149" si="10">5*SUM(B133:B148)</f>
+        <v>2.8020000000000005</v>
       </c>
       <c r="C149">
-        <f t="shared" si="8"/>
-        <v>4.2029999999999994</v>
+        <f t="shared" si="10"/>
+        <v>2.8020000000000005</v>
       </c>
       <c r="D149">
-        <f t="shared" si="8"/>
-        <v>4.2029999999999994</v>
+        <f t="shared" si="10"/>
+        <v>2.8020000000000005</v>
       </c>
       <c r="E149">
-        <f t="shared" si="8"/>
-        <v>2.4377400000000007</v>
+        <f t="shared" si="10"/>
+        <v>1.6251600000000002</v>
       </c>
       <c r="F149">
-        <f t="shared" si="8"/>
-        <v>2.4377400000000007</v>
+        <f t="shared" si="10"/>
+        <v>1.6251600000000002</v>
       </c>
       <c r="G149">
-        <f t="shared" si="8"/>
-        <v>1.7232300000000003</v>
+        <f t="shared" si="10"/>
+        <v>1.1488200000000002</v>
       </c>
       <c r="J149">
-        <f t="shared" ref="J149:O149" si="9">5*SUM(J133:J148)</f>
-        <v>3.1522500000000004</v>
+        <f t="shared" ref="J149:O149" si="11">5*SUM(J133:J148)</f>
+        <v>2.1014999999999997</v>
       </c>
       <c r="K149">
-        <f t="shared" si="9"/>
-        <v>3.1522500000000004</v>
+        <f t="shared" si="11"/>
+        <v>2.1014999999999997</v>
       </c>
       <c r="L149">
-        <f t="shared" si="9"/>
-        <v>3.1522500000000004</v>
+        <f t="shared" si="11"/>
+        <v>2.1014999999999997</v>
       </c>
       <c r="M149">
-        <f t="shared" si="9"/>
-        <v>1.8283050000000003</v>
+        <f t="shared" si="11"/>
+        <v>1.2188700000000003</v>
       </c>
       <c r="N149">
-        <f t="shared" si="9"/>
-        <v>1.8283050000000003</v>
+        <f t="shared" si="11"/>
+        <v>1.2188700000000003</v>
       </c>
       <c r="O149">
-        <f t="shared" si="9"/>
-        <v>1.2924225</v>
+        <f t="shared" si="11"/>
+        <v>0.86161500000000013</v>
       </c>
     </row>
     <row r="155" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
@@ -9655,16 +9883,16 @@
       <c r="A158" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B158" s="95" t="s">
-        <v>0</v>
-      </c>
-      <c r="C158" s="96"/>
-      <c r="D158" s="97"/>
-      <c r="E158" s="95" t="s">
+      <c r="B158" s="97" t="s">
+        <v>0</v>
+      </c>
+      <c r="C158" s="98"/>
+      <c r="D158" s="99"/>
+      <c r="E158" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="F158" s="96"/>
-      <c r="G158" s="97"/>
+      <c r="F158" s="98"/>
+      <c r="G158" s="99"/>
     </row>
     <row r="159" spans="1:23" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A159" s="6"/>
@@ -9692,15 +9920,15 @@
         <v>11</v>
       </c>
       <c r="B160" s="40">
-        <f t="shared" ref="B160:G161" si="10">10^-5</f>
+        <f t="shared" ref="B160:G161" si="12">10^-5</f>
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="C160" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="D160" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="E160" s="40">
@@ -9708,11 +9936,11 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="F160" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="G160" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="J160">
@@ -9720,11 +9948,11 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="K160">
-        <f t="shared" ref="K160:L175" si="11">C160*C54</f>
+        <f t="shared" ref="K160:L175" si="13">C160*C54</f>
         <v>0</v>
       </c>
       <c r="L160">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -9733,39 +9961,39 @@
         <v>14</v>
       </c>
       <c r="B161" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="C161" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="D161" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="E161" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="F161" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="G161" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="J161">
-        <f t="shared" ref="J161:J175" si="12">B161*B55</f>
+        <f t="shared" ref="J161:J175" si="14">B161*B55</f>
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="K161">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L161">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -9792,15 +10020,15 @@
         <v>1.2</v>
       </c>
       <c r="J162">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.176E-2</v>
       </c>
       <c r="K162">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.8E-3</v>
       </c>
       <c r="L162">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>6.0000000000000218E-3</v>
       </c>
       <c r="M162">
@@ -9835,23 +10063,23 @@
         <v>6.5</v>
       </c>
       <c r="J163">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.33787878787878783</v>
       </c>
       <c r="K163">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.040909090909091</v>
       </c>
       <c r="L163">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.58030303030303021</v>
       </c>
       <c r="M163">
-        <f t="shared" ref="M163:M175" si="13">SUM(J163:L163)</f>
+        <f t="shared" ref="M163:M175" si="15">SUM(J163:L163)</f>
         <v>1.959090909090909</v>
       </c>
       <c r="N163">
-        <f t="shared" ref="N163:N175" si="14">1/M163</f>
+        <f t="shared" ref="N163:N175" si="16">1/M163</f>
         <v>0.51044083526682138</v>
       </c>
     </row>
@@ -9878,23 +10106,23 @@
         <v>10</v>
       </c>
       <c r="J164">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.33193277310924363</v>
       </c>
       <c r="K164">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.1274509803921566</v>
       </c>
       <c r="L164">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.65546218487394958</v>
       </c>
       <c r="M164">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2.1148459383753497</v>
       </c>
       <c r="N164">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.47284768211920541</v>
       </c>
     </row>
@@ -9921,23 +10149,23 @@
         <v>5.333333333333333</v>
       </c>
       <c r="J165">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.39310344827586208</v>
       </c>
       <c r="K165">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.0551724137931036</v>
       </c>
       <c r="L165">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.54482758620689653</v>
       </c>
       <c r="M165">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.9931034482758623</v>
       </c>
       <c r="N165">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.50173010380622829</v>
       </c>
     </row>
@@ -9964,23 +10192,23 @@
         <v>1</v>
       </c>
       <c r="J166">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.46610169491525422</v>
       </c>
       <c r="K166">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.84745762711864414</v>
       </c>
       <c r="L166">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.3135593220338983</v>
       </c>
       <c r="M166">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.6271186440677967</v>
       </c>
       <c r="N166">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.61458333333333326</v>
       </c>
     </row>
@@ -10007,23 +10235,23 @@
         <v>9</v>
       </c>
       <c r="J167">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.59655172413793101</v>
       </c>
       <c r="K167">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.48965517241379303</v>
       </c>
       <c r="L167">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.19310344827586207</v>
       </c>
       <c r="M167">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.279310344827586</v>
       </c>
       <c r="N167">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.78167115902964968</v>
       </c>
     </row>
@@ -10050,23 +10278,23 @@
         <v>1</v>
       </c>
       <c r="J168">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.68881118881118875</v>
       </c>
       <c r="K168">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.40559440559440557</v>
       </c>
       <c r="L168">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.10839160839160839</v>
       </c>
       <c r="M168">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.2027972027972027</v>
       </c>
       <c r="N168">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.83139534883720934</v>
       </c>
     </row>
@@ -10093,23 +10321,23 @@
         <v>1</v>
       </c>
       <c r="J169">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.61194029850746268</v>
       </c>
       <c r="K169">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.34468992537313536</v>
       </c>
       <c r="L169">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1E-3</v>
       </c>
       <c r="M169">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.95763022388059804</v>
       </c>
       <c r="N169">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1.0442444015057371</v>
       </c>
     </row>
@@ -10136,23 +10364,23 @@
         <v>1</v>
       </c>
       <c r="J170">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.61194029850746268</v>
       </c>
       <c r="K170">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.34468992537313536</v>
       </c>
       <c r="L170">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1E-3</v>
       </c>
       <c r="M170">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.95763022388059804</v>
       </c>
       <c r="N170">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1.0442444015057371</v>
       </c>
     </row>
@@ -10179,23 +10407,23 @@
         <v>1</v>
       </c>
       <c r="J171">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.61194029850746268</v>
       </c>
       <c r="K171">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.34468992537313536</v>
       </c>
       <c r="L171">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1E-3</v>
       </c>
       <c r="M171">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.95763022388059804</v>
       </c>
       <c r="N171">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1.0442444015057371</v>
       </c>
     </row>
@@ -10222,23 +10450,23 @@
         <v>1</v>
       </c>
       <c r="J172">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.61194029850746268</v>
       </c>
       <c r="K172">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.34468992537313536</v>
       </c>
       <c r="L172">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1E-3</v>
       </c>
       <c r="M172">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.95763022388059804</v>
       </c>
       <c r="N172">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1.0442444015057371</v>
       </c>
     </row>
@@ -10265,23 +10493,23 @@
         <v>1</v>
       </c>
       <c r="J173">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.61194029850746268</v>
       </c>
       <c r="K173">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.34468992537313536</v>
       </c>
       <c r="L173">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1E-3</v>
       </c>
       <c r="M173">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.95763022388059804</v>
       </c>
       <c r="N173">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1.0442444015057371</v>
       </c>
     </row>
@@ -10308,23 +10536,23 @@
         <v>1</v>
       </c>
       <c r="J174">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.61194029850746268</v>
       </c>
       <c r="K174">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.34468992537313536</v>
       </c>
       <c r="L174">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1E-3</v>
       </c>
       <c r="M174">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.95763022388059804</v>
       </c>
       <c r="N174">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1.0442444015057371</v>
       </c>
     </row>
@@ -10355,23 +10583,23 @@
         <v>1.8866801277495602</v>
       </c>
       <c r="J175">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.61194029850746268</v>
       </c>
       <c r="K175">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.34468992537313536</v>
       </c>
       <c r="L175">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1E-3</v>
       </c>
       <c r="M175">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.95763022388059804</v>
       </c>
       <c r="N175">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1.0442444015057371</v>
       </c>
     </row>
@@ -10415,11 +10643,11 @@
       <c r="W182" s="50"/>
     </row>
     <row r="183" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A183" s="98" t="s">
+      <c r="A183" s="100" t="s">
         <v>89</v>
       </c>
-      <c r="B183" s="98"/>
-      <c r="C183" s="98"/>
+      <c r="B183" s="100"/>
+      <c r="C183" s="100"/>
     </row>
     <row r="184" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A184" s="1" t="s">
@@ -10493,39 +10721,39 @@
       <c r="W194" s="50"/>
     </row>
     <row r="195" spans="1:23" s="52" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A195" s="99" t="s">
+      <c r="A195" s="101" t="s">
         <v>90</v>
       </c>
-      <c r="B195" s="99"/>
-      <c r="C195" s="99"/>
-      <c r="D195" s="99"/>
-      <c r="E195" s="99"/>
-      <c r="F195" s="99"/>
+      <c r="B195" s="101"/>
+      <c r="C195" s="101"/>
+      <c r="D195" s="101"/>
+      <c r="E195" s="101"/>
+      <c r="F195" s="101"/>
     </row>
     <row r="196" spans="1:23" s="52" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A196" s="100" t="s">
+      <c r="A196" s="102" t="s">
         <v>91</v>
       </c>
-      <c r="B196" s="100"/>
-      <c r="C196" s="100"/>
-      <c r="D196" s="100"/>
-      <c r="E196" s="100"/>
-      <c r="F196" s="100"/>
+      <c r="B196" s="102"/>
+      <c r="C196" s="102"/>
+      <c r="D196" s="102"/>
+      <c r="E196" s="102"/>
+      <c r="F196" s="102"/>
     </row>
     <row r="197" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A197" s="92" t="s">
+      <c r="A197" s="94" t="s">
         <v>53</v>
       </c>
       <c r="B197" s="59"/>
       <c r="C197" s="59"/>
-      <c r="D197" s="92" t="s">
+      <c r="D197" s="94" t="s">
         <v>58</v>
       </c>
-      <c r="E197" s="92"/>
-      <c r="F197" s="92"/>
+      <c r="E197" s="94"/>
+      <c r="F197" s="94"/>
     </row>
     <row r="198" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A198" s="92"/>
+      <c r="A198" s="94"/>
       <c r="B198" s="59"/>
       <c r="C198" s="60" t="s">
         <v>54</v>
@@ -10564,11 +10792,11 @@
         <v>0</v>
       </c>
       <c r="I199">
-        <f t="shared" ref="I199:J214" si="15">E199*C54</f>
+        <f t="shared" ref="I199:J214" si="17">E199*C54</f>
         <v>0</v>
       </c>
       <c r="J199">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -10588,15 +10816,15 @@
         <v>0</v>
       </c>
       <c r="H200">
-        <f t="shared" ref="H200:H214" si="16">D200*B55</f>
+        <f t="shared" ref="H200:H214" si="18">D200*B55</f>
         <v>0</v>
       </c>
       <c r="I200">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J200">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -10621,15 +10849,15 @@
         <v>1.1232</v>
       </c>
       <c r="H201">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>3.0576000000000003</v>
       </c>
       <c r="I201">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2.8079999999999997E-2</v>
       </c>
       <c r="J201">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5.6160000000000203E-3</v>
       </c>
       <c r="K201">
@@ -10658,19 +10886,19 @@
         <v>5.6159999999999997</v>
       </c>
       <c r="H202">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>7.9418181818181814</v>
       </c>
       <c r="I202">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3.814909090909091</v>
       </c>
       <c r="J202">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.46799999999999986</v>
       </c>
       <c r="K202">
-        <f t="shared" ref="K202:K214" si="17">SUM(H202:J202)</f>
+        <f t="shared" ref="K202:K214" si="19">SUM(H202:J202)</f>
         <v>12.224727272727272</v>
       </c>
     </row>
@@ -10697,19 +10925,19 @@
         <v>22.463999999999999</v>
       </c>
       <c r="H203">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>29.452100840336133</v>
       </c>
       <c r="I203">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>16.570084033613444</v>
       </c>
       <c r="J203">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.9191932773109244</v>
       </c>
       <c r="K203">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>47.941378151260501</v>
       </c>
     </row>
@@ -10734,19 +10962,19 @@
         <v>56.16</v>
       </c>
       <c r="H204">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>79.613793103448273</v>
       </c>
       <c r="I204">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>38.515862068965518</v>
       </c>
       <c r="J204">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4.38951724137931</v>
       </c>
       <c r="K204">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>122.5191724137931</v>
       </c>
     </row>
@@ -10758,35 +10986,35 @@
         <v>10</v>
       </c>
       <c r="C205" s="59">
-        <f t="shared" ref="C205:C214" si="18">EXP(LN(0.5)*B204/10)</f>
+        <f t="shared" ref="C205:C214" si="20">EXP(LN(0.5)*B204/10)</f>
         <v>0.70710678118654757</v>
       </c>
       <c r="D205" s="63">
-        <f t="shared" ref="D205:D210" si="19">$D$204*C205</f>
+        <f t="shared" ref="D205:D210" si="21">$D$204*C205</f>
         <v>110.30865786510142</v>
       </c>
       <c r="E205" s="63">
-        <f t="shared" ref="E205:E210" si="20">$E$204*C205</f>
+        <f t="shared" ref="E205:E210" si="22">$E$204*C205</f>
         <v>66.185194719060846</v>
       </c>
       <c r="F205" s="63">
-        <f t="shared" ref="F205:F210" si="21">$F$204*C205</f>
+        <f t="shared" ref="F205:F210" si="23">$F$204*C205</f>
         <v>39.711116831436506</v>
       </c>
       <c r="H205">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>66.683764924100856</v>
       </c>
       <c r="I205">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>22.62262305369029</v>
       </c>
       <c r="J205">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2.1313876265460272</v>
       </c>
       <c r="K205">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>91.437775604337176</v>
       </c>
       <c r="M205" s="52"/>
@@ -10799,35 +11027,35 @@
         <v>15</v>
       </c>
       <c r="C206" s="59">
+        <f t="shared" si="20"/>
+        <v>0.5</v>
+      </c>
+      <c r="D206" s="63">
+        <f t="shared" si="21"/>
+        <v>78</v>
+      </c>
+      <c r="E206" s="63">
+        <f t="shared" si="22"/>
+        <v>46.8</v>
+      </c>
+      <c r="F206" s="63">
+        <f t="shared" si="23"/>
+        <v>28.08</v>
+      </c>
+      <c r="H206">
         <f t="shared" si="18"/>
-        <v>0.5</v>
-      </c>
-      <c r="D206" s="63">
+        <v>59.710344827586205</v>
+      </c>
+      <c r="I206">
+        <f t="shared" si="17"/>
+        <v>9.5213793103448268</v>
+      </c>
+      <c r="J206">
+        <f t="shared" si="17"/>
+        <v>0.87144827586206886</v>
+      </c>
+      <c r="K206">
         <f t="shared" si="19"/>
-        <v>78</v>
-      </c>
-      <c r="E206" s="63">
-        <f t="shared" si="20"/>
-        <v>46.8</v>
-      </c>
-      <c r="F206" s="63">
-        <f t="shared" si="21"/>
-        <v>28.08</v>
-      </c>
-      <c r="H206">
-        <f t="shared" si="16"/>
-        <v>59.710344827586205</v>
-      </c>
-      <c r="I206">
-        <f t="shared" si="15"/>
-        <v>9.5213793103448268</v>
-      </c>
-      <c r="J206">
-        <f t="shared" si="15"/>
-        <v>0.87144827586206886</v>
-      </c>
-      <c r="K206">
-        <f t="shared" si="17"/>
         <v>70.103172413793089</v>
       </c>
       <c r="N206" s="52"/>
@@ -10842,35 +11070,35 @@
         <v>20</v>
       </c>
       <c r="C207" s="59">
+        <f t="shared" si="20"/>
+        <v>0.35355339059327379</v>
+      </c>
+      <c r="D207" s="63">
+        <f t="shared" si="21"/>
+        <v>55.154328932550712</v>
+      </c>
+      <c r="E207" s="63">
+        <f t="shared" si="22"/>
+        <v>33.092597359530423</v>
+      </c>
+      <c r="F207" s="63">
+        <f t="shared" si="23"/>
+        <v>19.855558415718253</v>
+      </c>
+      <c r="H207">
         <f t="shared" si="18"/>
-        <v>0.35355339059327379</v>
-      </c>
-      <c r="D207" s="63">
+        <v>45.126269126632394</v>
+      </c>
+      <c r="I207">
+        <f t="shared" si="17"/>
+        <v>5.5540023540470642</v>
+      </c>
+      <c r="J207">
+        <f t="shared" si="17"/>
+        <v>0.2777001177023532</v>
+      </c>
+      <c r="K207">
         <f t="shared" si="19"/>
-        <v>55.154328932550712</v>
-      </c>
-      <c r="E207" s="63">
-        <f t="shared" si="20"/>
-        <v>33.092597359530423</v>
-      </c>
-      <c r="F207" s="63">
-        <f t="shared" si="21"/>
-        <v>19.855558415718253</v>
-      </c>
-      <c r="H207">
-        <f t="shared" si="16"/>
-        <v>45.126269126632394</v>
-      </c>
-      <c r="I207">
-        <f t="shared" si="15"/>
-        <v>5.5540023540470642</v>
-      </c>
-      <c r="J207">
-        <f t="shared" si="15"/>
-        <v>0.2777001177023532</v>
-      </c>
-      <c r="K207">
-        <f t="shared" si="17"/>
         <v>50.95797159838181</v>
       </c>
     </row>
@@ -10882,35 +11110,35 @@
         <v>25</v>
       </c>
       <c r="C208" s="59">
+        <f t="shared" si="20"/>
+        <v>0.25</v>
+      </c>
+      <c r="D208" s="63">
+        <f t="shared" si="21"/>
+        <v>39</v>
+      </c>
+      <c r="E208" s="63">
+        <f t="shared" si="22"/>
+        <v>23.4</v>
+      </c>
+      <c r="F208" s="63">
+        <f t="shared" si="23"/>
+        <v>14.04</v>
+      </c>
+      <c r="H208">
         <f t="shared" si="18"/>
-        <v>0.25</v>
-      </c>
-      <c r="D208" s="63">
+        <v>33.179104477611936</v>
+      </c>
+      <c r="I208">
+        <f t="shared" si="17"/>
+        <v>3.4691373134328458</v>
+      </c>
+      <c r="J208">
+        <f t="shared" si="17"/>
+        <v>1.4039999999999999E-2</v>
+      </c>
+      <c r="K208">
         <f t="shared" si="19"/>
-        <v>39</v>
-      </c>
-      <c r="E208" s="63">
-        <f t="shared" si="20"/>
-        <v>23.4</v>
-      </c>
-      <c r="F208" s="63">
-        <f t="shared" si="21"/>
-        <v>14.04</v>
-      </c>
-      <c r="H208">
-        <f t="shared" si="16"/>
-        <v>33.179104477611936</v>
-      </c>
-      <c r="I208">
-        <f t="shared" si="15"/>
-        <v>3.4691373134328458</v>
-      </c>
-      <c r="J208">
-        <f t="shared" si="15"/>
-        <v>1.4039999999999999E-2</v>
-      </c>
-      <c r="K208">
-        <f t="shared" si="17"/>
         <v>36.662281791044784</v>
       </c>
     </row>
@@ -10922,35 +11150,35 @@
         <v>30</v>
       </c>
       <c r="C209" s="59">
+        <f t="shared" si="20"/>
+        <v>0.17677669529663689</v>
+      </c>
+      <c r="D209" s="63">
+        <f t="shared" si="21"/>
+        <v>27.577164466275356</v>
+      </c>
+      <c r="E209" s="63">
+        <f t="shared" si="22"/>
+        <v>16.546298679765211</v>
+      </c>
+      <c r="F209" s="63">
+        <f t="shared" si="23"/>
+        <v>9.9277792078591265</v>
+      </c>
+      <c r="H209">
         <f t="shared" si="18"/>
-        <v>0.17677669529663689</v>
-      </c>
-      <c r="D209" s="63">
+        <v>23.461169769816344</v>
+      </c>
+      <c r="I209">
+        <f t="shared" si="17"/>
+        <v>2.4530505191956467</v>
+      </c>
+      <c r="J209">
+        <f t="shared" si="17"/>
+        <v>9.9277792078591269E-3</v>
+      </c>
+      <c r="K209">
         <f t="shared" si="19"/>
-        <v>27.577164466275356</v>
-      </c>
-      <c r="E209" s="63">
-        <f t="shared" si="20"/>
-        <v>16.546298679765211</v>
-      </c>
-      <c r="F209" s="63">
-        <f t="shared" si="21"/>
-        <v>9.9277792078591265</v>
-      </c>
-      <c r="H209">
-        <f t="shared" si="16"/>
-        <v>23.461169769816344</v>
-      </c>
-      <c r="I209">
-        <f t="shared" si="15"/>
-        <v>2.4530505191956467</v>
-      </c>
-      <c r="J209">
-        <f t="shared" si="15"/>
-        <v>9.9277792078591269E-3</v>
-      </c>
-      <c r="K209">
-        <f t="shared" si="17"/>
         <v>25.92414806821985</v>
       </c>
     </row>
@@ -10962,35 +11190,35 @@
         <v>35</v>
       </c>
       <c r="C210" s="59">
+        <f t="shared" si="20"/>
+        <v>0.12500000000000003</v>
+      </c>
+      <c r="D210" s="63">
+        <f t="shared" si="21"/>
+        <v>19.500000000000004</v>
+      </c>
+      <c r="E210" s="63">
+        <f t="shared" si="22"/>
+        <v>11.700000000000001</v>
+      </c>
+      <c r="F210" s="63">
+        <f t="shared" si="23"/>
+        <v>7.0200000000000014</v>
+      </c>
+      <c r="H210">
         <f t="shared" si="18"/>
-        <v>0.12500000000000003</v>
-      </c>
-      <c r="D210" s="63">
+        <v>16.589552238805972</v>
+      </c>
+      <c r="I210">
+        <f t="shared" si="17"/>
+        <v>1.7345686567164231</v>
+      </c>
+      <c r="J210">
+        <f t="shared" si="17"/>
+        <v>7.0200000000000011E-3</v>
+      </c>
+      <c r="K210">
         <f t="shared" si="19"/>
-        <v>19.500000000000004</v>
-      </c>
-      <c r="E210" s="63">
-        <f t="shared" si="20"/>
-        <v>11.700000000000001</v>
-      </c>
-      <c r="F210" s="63">
-        <f t="shared" si="21"/>
-        <v>7.0200000000000014</v>
-      </c>
-      <c r="H210">
-        <f t="shared" si="16"/>
-        <v>16.589552238805972</v>
-      </c>
-      <c r="I210">
-        <f t="shared" si="15"/>
-        <v>1.7345686567164231</v>
-      </c>
-      <c r="J210">
-        <f t="shared" si="15"/>
-        <v>7.0200000000000011E-3</v>
-      </c>
-      <c r="K210">
-        <f t="shared" si="17"/>
         <v>18.331140895522395</v>
       </c>
     </row>
@@ -11018,19 +11246,19 @@
         <v>4.9638896039295632</v>
       </c>
       <c r="H211">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>11.730584884908172</v>
       </c>
       <c r="I211">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.2265252595978233</v>
       </c>
       <c r="J211">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4.9638896039295635E-3</v>
       </c>
       <c r="K211">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>12.962074034109925</v>
       </c>
     </row>
@@ -11042,7 +11270,7 @@
         <v>45</v>
       </c>
       <c r="C212" s="59">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>6.25E-2</v>
       </c>
       <c r="D212" s="63">
@@ -11058,19 +11286,19 @@
         <v>3.51</v>
       </c>
       <c r="H212">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>8.2947761194029841</v>
       </c>
       <c r="I212">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.86728432835821145</v>
       </c>
       <c r="J212">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3.5099999999999997E-3</v>
       </c>
       <c r="K212">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>9.1655704477611959</v>
       </c>
     </row>
@@ -11082,7 +11310,7 @@
         <v>50</v>
       </c>
       <c r="C213" s="59">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>4.4194173824159223E-2</v>
       </c>
       <c r="D213" s="63">
@@ -11098,19 +11326,19 @@
         <v>2.4819448019647816</v>
       </c>
       <c r="H213">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>5.865292442454086</v>
       </c>
       <c r="I213">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.61326262979891166</v>
       </c>
       <c r="J213">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2.4819448019647817E-3</v>
       </c>
       <c r="K213">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>6.4810370170549625</v>
       </c>
     </row>
@@ -11122,7 +11350,7 @@
         <v>55</v>
       </c>
       <c r="C214" s="59">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>3.125E-2</v>
       </c>
       <c r="D214" s="63">
@@ -11138,19 +11366,19 @@
         <v>1.7549999999999999</v>
       </c>
       <c r="H214">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>4.147388059701492</v>
       </c>
       <c r="I214">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.43364216417910573</v>
       </c>
       <c r="J214">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.7549999999999998E-3</v>
       </c>
       <c r="K214">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>4.5827852238805979</v>
       </c>
     </row>
@@ -11171,29 +11399,29 @@
       </c>
     </row>
     <row r="216" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A216" s="93" t="s">
+      <c r="A216" s="95" t="s">
         <v>92</v>
       </c>
-      <c r="B216" s="93"/>
-      <c r="C216" s="93"/>
-      <c r="D216" s="93"/>
-      <c r="E216" s="93"/>
-      <c r="F216" s="93"/>
+      <c r="B216" s="95"/>
+      <c r="C216" s="95"/>
+      <c r="D216" s="95"/>
+      <c r="E216" s="95"/>
+      <c r="F216" s="95"/>
     </row>
     <row r="217" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A217" s="94" t="s">
+      <c r="A217" s="96" t="s">
         <v>2</v>
       </c>
       <c r="B217" s="59"/>
       <c r="C217" s="59"/>
-      <c r="D217" s="92" t="s">
+      <c r="D217" s="94" t="s">
         <v>58</v>
       </c>
-      <c r="E217" s="92"/>
-      <c r="F217" s="92"/>
+      <c r="E217" s="94"/>
+      <c r="F217" s="94"/>
     </row>
     <row r="218" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A218" s="94"/>
+      <c r="A218" s="96"/>
       <c r="B218" s="59"/>
       <c r="C218" s="60" t="s">
         <v>54</v>
@@ -11334,7 +11562,7 @@
         <v>10</v>
       </c>
       <c r="C225" s="59">
-        <f t="shared" ref="C225:C234" si="22">EXP(LN(0.5)*B224/10)</f>
+        <f t="shared" ref="C225:C234" si="24">EXP(LN(0.5)*B224/10)</f>
         <v>0.70710678118654757</v>
       </c>
       <c r="D225" s="62">
@@ -11358,19 +11586,19 @@
         <v>15</v>
       </c>
       <c r="C226" s="59">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.5</v>
       </c>
       <c r="D226" s="62">
-        <f t="shared" ref="D226:D232" si="23">$D$224*C226</f>
+        <f t="shared" ref="D226:D232" si="25">$D$224*C226</f>
         <v>78</v>
       </c>
       <c r="E226" s="62">
-        <f t="shared" ref="E226:E232" si="24">$E$224*C226</f>
+        <f t="shared" ref="E226:E232" si="26">$E$224*C226</f>
         <v>46.8</v>
       </c>
       <c r="F226" s="62">
-        <f t="shared" ref="F226:F232" si="25">$F$224*C226</f>
+        <f t="shared" ref="F226:F232" si="27">$F$224*C226</f>
         <v>28.08</v>
       </c>
     </row>
@@ -11382,19 +11610,19 @@
         <v>20</v>
       </c>
       <c r="C227" s="59">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.35355339059327379</v>
       </c>
       <c r="D227" s="62">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>55.154328932550712</v>
       </c>
       <c r="E227" s="62">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>33.092597359530423</v>
       </c>
       <c r="F227" s="62">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>19.855558415718253</v>
       </c>
     </row>
@@ -11406,19 +11634,19 @@
         <v>25</v>
       </c>
       <c r="C228" s="59">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.25</v>
       </c>
       <c r="D228" s="62">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>39</v>
       </c>
       <c r="E228" s="62">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>23.4</v>
       </c>
       <c r="F228" s="62">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>14.04</v>
       </c>
     </row>
@@ -11430,19 +11658,19 @@
         <v>30</v>
       </c>
       <c r="C229" s="59">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.17677669529663689</v>
       </c>
       <c r="D229" s="62">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>27.577164466275356</v>
       </c>
       <c r="E229" s="62">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>16.546298679765211</v>
       </c>
       <c r="F229" s="62">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>9.9277792078591265</v>
       </c>
     </row>
@@ -11454,19 +11682,19 @@
         <v>35</v>
       </c>
       <c r="C230" s="59">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.12500000000000003</v>
       </c>
       <c r="D230" s="62">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>19.500000000000004</v>
       </c>
       <c r="E230" s="62">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>11.700000000000001</v>
       </c>
       <c r="F230" s="62">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>7.0200000000000014</v>
       </c>
     </row>
@@ -11478,19 +11706,19 @@
         <v>40</v>
       </c>
       <c r="C231" s="59">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>8.8388347648318447E-2</v>
       </c>
       <c r="D231" s="62">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>13.788582233137678</v>
       </c>
       <c r="E231" s="62">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>8.2731493398826057</v>
       </c>
       <c r="F231" s="62">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>4.9638896039295632</v>
       </c>
     </row>
@@ -11502,19 +11730,19 @@
         <v>45</v>
       </c>
       <c r="C232" s="59">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>6.25E-2</v>
       </c>
       <c r="D232" s="62">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>9.75</v>
       </c>
       <c r="E232" s="62">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>5.85</v>
       </c>
       <c r="F232" s="62">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>3.51</v>
       </c>
     </row>
@@ -11550,7 +11778,7 @@
         <v>55</v>
       </c>
       <c r="C234" s="59">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>3.125E-2</v>
       </c>
       <c r="D234" s="62">

--- a/Config/Population_data.xlsx
+++ b/Config/Population_data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15840" windowHeight="8190"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="Demographics" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="99">
   <si>
     <t>Male</t>
   </si>
@@ -466,6 +466,12 @@
       </rPr>
       <t>Values are calibrated to fit age-specific HIV and HPV prevalence data.</t>
     </r>
+  </si>
+  <si>
+    <t>Female Age Ratios</t>
+  </si>
+  <si>
+    <t>Male Age Ratios</t>
   </si>
 </sst>
 </file>
@@ -1335,7 +1341,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1523,33 +1529,21 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="29" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="28" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1571,6 +1565,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="28" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1583,27 +1580,40 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="48">
     <cellStyle name="20% - Accent1" xfId="18" builtinId="30" customBuiltin="1"/>
@@ -5915,8 +5925,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AF245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A202" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H252" sqref="H252"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N228" sqref="N228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6046,14 +6056,14 @@
       <c r="A4" s="65" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="85" t="s">
+      <c r="B4" s="104" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="85" t="s">
+      <c r="C4" s="105"/>
+      <c r="D4" s="104" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="86"/>
+      <c r="E4" s="105"/>
     </row>
     <row r="5" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A5" s="9"/>
@@ -6481,10 +6491,10 @@
       <c r="A27" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="85" t="s">
+      <c r="B27" s="104" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="86"/>
+      <c r="C27" s="105"/>
     </row>
     <row r="28" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A28" s="9"/>
@@ -6899,19 +6909,19 @@
       <c r="AE51" s="24"/>
     </row>
     <row r="52" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A52" s="103" t="s">
+      <c r="A52" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="B52" s="103" t="s">
+      <c r="B52" s="108" t="s">
         <v>56</v>
       </c>
-      <c r="C52" s="103"/>
-      <c r="D52" s="103"/>
-      <c r="E52" s="103" t="s">
+      <c r="C52" s="108"/>
+      <c r="D52" s="108"/>
+      <c r="E52" s="108" t="s">
         <v>57</v>
       </c>
-      <c r="F52" s="103"/>
-      <c r="G52" s="103"/>
+      <c r="F52" s="108"/>
+      <c r="G52" s="108"/>
       <c r="X52" s="22"/>
       <c r="Y52" s="22"/>
       <c r="Z52" s="22"/>
@@ -6922,7 +6932,7 @@
       <c r="AE52" s="22"/>
     </row>
     <row r="53" spans="1:31" ht="15" x14ac:dyDescent="0.35">
-      <c r="A53" s="103"/>
+      <c r="A53" s="108"/>
       <c r="B53" s="33" t="s">
         <v>3</v>
       </c>
@@ -7456,29 +7466,29 @@
       <c r="X80" s="37"/>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A81" s="100" t="s">
+      <c r="A81" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="B81" s="83" t="s">
+      <c r="B81" s="106" t="s">
         <v>83</v>
       </c>
-      <c r="C81" s="83" t="s">
+      <c r="C81" s="106" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A82" s="101"/>
-      <c r="B82" s="84"/>
-      <c r="C82" s="84"/>
+      <c r="A82" s="102"/>
+      <c r="B82" s="107"/>
+      <c r="C82" s="107"/>
       <c r="E82" t="s">
         <v>85</v>
       </c>
       <c r="I82" s="55"/>
     </row>
     <row r="83" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A83" s="102"/>
-      <c r="B83" s="84"/>
-      <c r="C83" s="84"/>
+      <c r="A83" s="103"/>
+      <c r="B83" s="107"/>
+      <c r="C83" s="107"/>
       <c r="E83" s="9"/>
       <c r="F83" s="9" t="s">
         <v>74</v>
@@ -8003,7 +8013,7 @@
       <c r="X111" s="37"/>
     </row>
     <row r="112" spans="1:24" ht="15.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A112" s="100" t="s">
+      <c r="A112" s="101" t="s">
         <v>2</v>
       </c>
       <c r="B112" s="96" t="s">
@@ -8016,7 +8026,7 @@
       <c r="G112" s="98"/>
     </row>
     <row r="113" spans="1:14" ht="46" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A113" s="101"/>
+      <c r="A113" s="102"/>
       <c r="B113" s="32" t="s">
         <v>70</v>
       </c>
@@ -8037,7 +8047,7 @@
       </c>
     </row>
     <row r="114" spans="1:14" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A114" s="102"/>
+      <c r="A114" s="103"/>
       <c r="B114" s="34" t="s">
         <v>63</v>
       </c>
@@ -8125,20 +8135,20 @@
       <c r="G117" s="10">
         <v>0</v>
       </c>
-      <c r="I117" s="109"/>
-      <c r="J117" s="110" t="s">
+      <c r="I117" s="87"/>
+      <c r="J117" s="88" t="s">
         <v>27</v>
       </c>
-      <c r="K117" s="110" t="s">
+      <c r="K117" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="L117" s="110" t="s">
+      <c r="L117" s="88" t="s">
         <v>29</v>
       </c>
-      <c r="M117" s="110" t="s">
+      <c r="M117" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="N117" s="110" t="s">
+      <c r="N117" s="88" t="s">
         <v>30</v>
       </c>
     </row>
@@ -8167,23 +8177,23 @@
       <c r="I118" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="J118" s="111">
+      <c r="J118" s="89">
         <f>C118/$B$118</f>
         <v>1</v>
       </c>
-      <c r="K118" s="111">
+      <c r="K118" s="89">
         <f>D118/$B$118</f>
         <v>1</v>
       </c>
-      <c r="L118" s="111">
+      <c r="L118" s="89">
         <f>E118/$B$118</f>
         <v>0.58000000000000007</v>
       </c>
-      <c r="M118" s="111">
+      <c r="M118" s="89">
         <f>F118/$B$118</f>
         <v>0.58000000000000007</v>
       </c>
-      <c r="N118" s="111">
+      <c r="N118" s="89">
         <f>G118/$B$118</f>
         <v>0.41000000000000003</v>
       </c>
@@ -9515,22 +9525,22 @@
       <c r="W160" s="37"/>
     </row>
     <row r="161" spans="1:14" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A161" s="87" t="s">
+      <c r="A161" s="109" t="s">
         <v>94</v>
       </c>
-      <c r="B161" s="89" t="s">
-        <v>0</v>
-      </c>
-      <c r="C161" s="89"/>
-      <c r="D161" s="89"/>
-      <c r="E161" s="89" t="s">
+      <c r="B161" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="C161" s="111"/>
+      <c r="D161" s="111"/>
+      <c r="E161" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="F161" s="89"/>
-      <c r="G161" s="89"/>
+      <c r="F161" s="111"/>
+      <c r="G161" s="111"/>
     </row>
     <row r="162" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A162" s="87"/>
+      <c r="A162" s="109"/>
       <c r="B162" s="80" t="s">
         <v>3</v>
       </c>
@@ -10296,7 +10306,7 @@
       <c r="AB184" s="20"/>
     </row>
     <row r="185" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A185" s="105"/>
+      <c r="A185" s="84"/>
       <c r="B185" s="20"/>
       <c r="C185" s="20"/>
       <c r="D185" s="20"/>
@@ -10326,9 +10336,9 @@
       <c r="AB185" s="20"/>
     </row>
     <row r="186" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A186" s="106"/>
-      <c r="B186" s="106"/>
-      <c r="C186" s="106"/>
+      <c r="A186" s="112"/>
+      <c r="B186" s="112"/>
+      <c r="C186" s="112"/>
       <c r="D186" s="20"/>
       <c r="E186" s="20"/>
       <c r="F186" s="20"/>
@@ -10356,9 +10366,9 @@
       <c r="AB186" s="20"/>
     </row>
     <row r="187" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A187" s="107"/>
-      <c r="B187" s="108"/>
-      <c r="C187" s="108"/>
+      <c r="A187" s="85"/>
+      <c r="B187" s="86"/>
+      <c r="C187" s="86"/>
       <c r="D187" s="20"/>
       <c r="E187" s="20"/>
       <c r="F187" s="20"/>
@@ -10387,8 +10397,8 @@
     </row>
     <row r="188" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A188" s="6"/>
-      <c r="B188" s="104"/>
-      <c r="C188" s="104"/>
+      <c r="B188" s="83"/>
+      <c r="C188" s="83"/>
       <c r="D188" s="20"/>
       <c r="E188" s="20"/>
       <c r="F188" s="20"/>
@@ -10417,8 +10427,8 @@
     </row>
     <row r="189" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A189" s="6"/>
-      <c r="B189" s="104"/>
-      <c r="C189" s="104"/>
+      <c r="B189" s="83"/>
+      <c r="C189" s="83"/>
       <c r="D189" s="20"/>
       <c r="E189" s="20"/>
       <c r="F189" s="20"/>
@@ -10447,8 +10457,8 @@
     </row>
     <row r="190" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A190" s="6"/>
-      <c r="B190" s="104"/>
-      <c r="C190" s="104"/>
+      <c r="B190" s="83"/>
+      <c r="C190" s="83"/>
       <c r="D190" s="20"/>
       <c r="E190" s="20"/>
       <c r="F190" s="20"/>
@@ -10503,39 +10513,39 @@
       <c r="W197" s="37"/>
     </row>
     <row r="198" spans="1:23" s="39" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A198" s="85" t="s">
+      <c r="A198" s="104" t="s">
         <v>73</v>
       </c>
-      <c r="B198" s="85"/>
-      <c r="C198" s="85"/>
-      <c r="D198" s="85"/>
-      <c r="E198" s="85"/>
-      <c r="F198" s="85"/>
+      <c r="B198" s="104"/>
+      <c r="C198" s="104"/>
+      <c r="D198" s="104"/>
+      <c r="E198" s="104"/>
+      <c r="F198" s="104"/>
     </row>
     <row r="199" spans="1:23" s="39" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A199" s="90" t="s">
+      <c r="A199" s="113" t="s">
         <v>74</v>
       </c>
-      <c r="B199" s="90"/>
-      <c r="C199" s="90"/>
-      <c r="D199" s="90"/>
-      <c r="E199" s="90"/>
-      <c r="F199" s="90"/>
+      <c r="B199" s="113"/>
+      <c r="C199" s="113"/>
+      <c r="D199" s="113"/>
+      <c r="E199" s="113"/>
+      <c r="F199" s="113"/>
     </row>
     <row r="200" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A200" s="91" t="s">
+      <c r="A200" s="99" t="s">
         <v>46</v>
       </c>
       <c r="B200" s="43"/>
       <c r="C200" s="43"/>
-      <c r="D200" s="91" t="s">
+      <c r="D200" s="99" t="s">
         <v>51</v>
       </c>
-      <c r="E200" s="91"/>
-      <c r="F200" s="91"/>
+      <c r="E200" s="99"/>
+      <c r="F200" s="99"/>
     </row>
     <row r="201" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A201" s="91"/>
+      <c r="A201" s="99"/>
       <c r="B201" s="43"/>
       <c r="C201" s="44" t="s">
         <v>47</v>
@@ -10581,6 +10591,14 @@
         <f t="shared" ref="J202:J217" si="21">F202*D54</f>
         <v>0</v>
       </c>
+      <c r="N202" s="114" t="s">
+        <v>2</v>
+      </c>
+      <c r="O202" s="115" t="s">
+        <v>98</v>
+      </c>
+      <c r="P202" s="115"/>
+      <c r="Q202" s="115"/>
     </row>
     <row r="203" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A203" s="45" t="s">
@@ -10609,6 +10627,18 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
+      <c r="N203" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="O203" s="9">
+        <v>0</v>
+      </c>
+      <c r="P203" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q203" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="204" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A204" s="45" t="s">
@@ -10643,6 +10673,18 @@
         <f>SUM(H204:J204)</f>
         <v>3.0912959999999998</v>
       </c>
+      <c r="N204" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="O204" s="9">
+        <v>0</v>
+      </c>
+      <c r="P204" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q204" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="205" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A205" s="45" t="s">
@@ -10677,6 +10719,18 @@
         <f t="shared" ref="K205:K217" si="22">SUM(H205:J205)</f>
         <v>12.224727272727272</v>
       </c>
+      <c r="N205" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="O205" s="9">
+        <v>0</v>
+      </c>
+      <c r="P205" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q205" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="206" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A206" s="45" t="s">
@@ -10713,6 +10767,21 @@
         <f t="shared" si="22"/>
         <v>47.941378151260494</v>
       </c>
+      <c r="N206" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="O206" s="9">
+        <f>D205/D204</f>
+        <v>5</v>
+      </c>
+      <c r="P206" s="9">
+        <f>E205/E204</f>
+        <v>4.9999999999999991</v>
+      </c>
+      <c r="Q206" s="9">
+        <f>F205/F204</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="207" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A207" s="45" t="s">
@@ -10747,6 +10816,21 @@
         <f t="shared" si="22"/>
         <v>122.5191724137931</v>
       </c>
+      <c r="N207" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="O207" s="9">
+        <f>D206/D205</f>
+        <v>4</v>
+      </c>
+      <c r="P207" s="9">
+        <f>E206/E205</f>
+        <v>4</v>
+      </c>
+      <c r="Q207" s="9">
+        <f>F206/F205</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="208" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A208" s="45" t="s">
@@ -10785,8 +10869,23 @@
         <v>91.437775604336935</v>
       </c>
       <c r="M208" s="39"/>
-    </row>
-    <row r="209" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N208" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="O208" s="9">
+        <f>D207/D206</f>
+        <v>2.5</v>
+      </c>
+      <c r="P208" s="9">
+        <f>E207/E206</f>
+        <v>2.5</v>
+      </c>
+      <c r="Q208" s="9">
+        <f>F207/F206</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="209" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A209" s="45" t="s">
         <v>37</v>
       </c>
@@ -10822,11 +10921,23 @@
         <f t="shared" si="22"/>
         <v>70.103172413793089</v>
       </c>
-      <c r="N209" s="39"/>
-      <c r="O209" s="39"/>
-      <c r="P209" s="39"/>
-    </row>
-    <row r="210" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N209" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="O209" s="9">
+        <f>D208/D207</f>
+        <v>0.70710678118654491</v>
+      </c>
+      <c r="P209" s="9">
+        <f>E208/E207</f>
+        <v>0.70710678118654813</v>
+      </c>
+      <c r="Q209" s="9">
+        <f>F208/F207</f>
+        <v>0.70710678118654735</v>
+      </c>
+    </row>
+    <row r="210" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A210" s="45" t="s">
         <v>38</v>
       </c>
@@ -10862,8 +10973,23 @@
         <f t="shared" si="22"/>
         <v>50.957971598381803</v>
       </c>
-    </row>
-    <row r="211" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N210" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="O210" s="9">
+        <f>D209/D208</f>
+        <v>0.70710678118655024</v>
+      </c>
+      <c r="P210" s="9">
+        <f>E209/E208</f>
+        <v>0.70710678118654691</v>
+      </c>
+      <c r="Q210" s="9">
+        <f>F209/F208</f>
+        <v>0.70710678118654768</v>
+      </c>
+    </row>
+    <row r="211" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A211" s="45" t="s">
         <v>39</v>
       </c>
@@ -10899,8 +11025,23 @@
         <f t="shared" si="22"/>
         <v>36.662281791044784</v>
       </c>
-    </row>
-    <row r="212" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N211" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="O211" s="9">
+        <f>D210/D209</f>
+        <v>0.70710678118654735</v>
+      </c>
+      <c r="P211" s="9">
+        <f>E210/E209</f>
+        <v>0.70710678118654713</v>
+      </c>
+      <c r="Q211" s="9">
+        <f>F210/F209</f>
+        <v>0.70710678118654913</v>
+      </c>
+    </row>
+    <row r="212" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A212" s="45" t="s">
         <v>40</v>
       </c>
@@ -10936,8 +11077,23 @@
         <f t="shared" si="22"/>
         <v>25.924148068219885</v>
       </c>
-    </row>
-    <row r="213" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N212" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="O212" s="9">
+        <f>D211/D210</f>
+        <v>0.70710678118654768</v>
+      </c>
+      <c r="P212" s="9">
+        <f>E211/E210</f>
+        <v>0.70710678118654802</v>
+      </c>
+      <c r="Q212" s="9">
+        <f>F211/F210</f>
+        <v>0.70710678118654591</v>
+      </c>
+    </row>
+    <row r="213" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A213" s="45" t="s">
         <v>41</v>
       </c>
@@ -10973,8 +11129,23 @@
         <f t="shared" si="22"/>
         <v>18.331140895522392</v>
       </c>
-    </row>
-    <row r="214" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N213" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="O213" s="9">
+        <f>D212/D211</f>
+        <v>0.70710678118654868</v>
+      </c>
+      <c r="P213" s="9">
+        <f>E212/E211</f>
+        <v>0.70710678118654713</v>
+      </c>
+      <c r="Q213" s="9">
+        <f>F212/F211</f>
+        <v>0.70710678118654779</v>
+      </c>
+    </row>
+    <row r="214" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A214" s="45" t="s">
         <v>42</v>
       </c>
@@ -11010,8 +11181,23 @@
         <f t="shared" si="22"/>
         <v>12.962074034109945</v>
       </c>
-    </row>
-    <row r="215" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N214" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="O214" s="9">
+        <f>D213/D212</f>
+        <v>0.70710678118654635</v>
+      </c>
+      <c r="P214" s="9">
+        <f>E213/E212</f>
+        <v>0.70710678118654802</v>
+      </c>
+      <c r="Q214" s="9">
+        <f>F213/F212</f>
+        <v>0.70710678118654724</v>
+      </c>
+    </row>
+    <row r="215" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A215" s="45" t="s">
         <v>43</v>
       </c>
@@ -11047,8 +11233,23 @@
         <f t="shared" si="22"/>
         <v>9.1655704477611959</v>
       </c>
-    </row>
-    <row r="216" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N215" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="O215" s="9">
+        <f>D214/D213</f>
+        <v>0.70710678118654868</v>
+      </c>
+      <c r="P215" s="9">
+        <f>E214/E213</f>
+        <v>0.70710678118654779</v>
+      </c>
+      <c r="Q215" s="9">
+        <f>F214/F213</f>
+        <v>0.70710678118654702</v>
+      </c>
+    </row>
+    <row r="216" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A216" s="45" t="s">
         <v>44</v>
       </c>
@@ -11084,8 +11285,23 @@
         <f t="shared" si="22"/>
         <v>6.4810370170549634</v>
       </c>
-    </row>
-    <row r="217" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N216" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="O216" s="9">
+        <f>D215/D214</f>
+        <v>0.70710678118654635</v>
+      </c>
+      <c r="P216" s="9">
+        <f>E215/E214</f>
+        <v>0.70710678118654724</v>
+      </c>
+      <c r="Q216" s="9">
+        <f>F215/F214</f>
+        <v>0.70710678118654802</v>
+      </c>
+    </row>
+    <row r="217" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A217" s="45" t="s">
         <v>45</v>
       </c>
@@ -11121,8 +11337,23 @@
         <f t="shared" si="22"/>
         <v>4.5827852238805979</v>
       </c>
-    </row>
-    <row r="218" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N217" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="O217" s="9">
+        <f>D216/D215</f>
+        <v>0.70710678118654768</v>
+      </c>
+      <c r="P217" s="9">
+        <f>E216/E215</f>
+        <v>0.70710678118654713</v>
+      </c>
+      <c r="Q217" s="9">
+        <f>F216/F215</f>
+        <v>0.70710678118654702</v>
+      </c>
+    </row>
+    <row r="218" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A218" s="43"/>
       <c r="B218" s="46"/>
       <c r="C218" s="43"/>
@@ -11137,31 +11368,46 @@
         <f>K218/(365.25/7)</f>
         <v>0.70141619566308888</v>
       </c>
-    </row>
-    <row r="219" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A219" s="99" t="s">
+      <c r="N218" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="O218" s="9">
+        <f>D217/D216</f>
+        <v>0.70710678118654735</v>
+      </c>
+      <c r="P218" s="9">
+        <f>E217/E216</f>
+        <v>0.70710678118654802</v>
+      </c>
+      <c r="Q218" s="9">
+        <f>F217/F216</f>
+        <v>0.70710678118654802</v>
+      </c>
+    </row>
+    <row r="219" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A219" s="100" t="s">
         <v>75</v>
       </c>
-      <c r="B219" s="99"/>
-      <c r="C219" s="99"/>
-      <c r="D219" s="99"/>
-      <c r="E219" s="99"/>
-      <c r="F219" s="99"/>
-    </row>
-    <row r="220" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A220" s="88" t="s">
+      <c r="B219" s="100"/>
+      <c r="C219" s="100"/>
+      <c r="D219" s="100"/>
+      <c r="E219" s="100"/>
+      <c r="F219" s="100"/>
+    </row>
+    <row r="220" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A220" s="110" t="s">
         <v>2</v>
       </c>
       <c r="B220" s="43"/>
       <c r="C220" s="43"/>
-      <c r="D220" s="91" t="s">
+      <c r="D220" s="99" t="s">
         <v>51</v>
       </c>
-      <c r="E220" s="91"/>
-      <c r="F220" s="91"/>
-    </row>
-    <row r="221" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A221" s="88"/>
+      <c r="E220" s="99"/>
+      <c r="F220" s="99"/>
+    </row>
+    <row r="221" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A221" s="110"/>
       <c r="B221" s="43"/>
       <c r="C221" s="44" t="s">
         <v>47</v>
@@ -11176,7 +11422,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="222" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A222" s="45" t="s">
         <v>25</v>
       </c>
@@ -11191,8 +11437,16 @@
       <c r="F222" s="81">
         <v>0</v>
       </c>
-    </row>
-    <row r="223" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N222" s="114" t="s">
+        <v>2</v>
+      </c>
+      <c r="O222" s="115" t="s">
+        <v>97</v>
+      </c>
+      <c r="P222" s="115"/>
+      <c r="Q222" s="115"/>
+    </row>
+    <row r="223" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A223" s="45" t="s">
         <v>24</v>
       </c>
@@ -11207,8 +11461,20 @@
       <c r="F223" s="81">
         <v>0</v>
       </c>
-    </row>
-    <row r="224" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N223" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="O223" s="9">
+        <v>0</v>
+      </c>
+      <c r="P223" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q223" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A224" s="45" t="s">
         <v>32</v>
       </c>
@@ -11225,8 +11491,20 @@
       <c r="F224" s="81">
         <v>2.8079999999999998</v>
       </c>
-    </row>
-    <row r="225" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N224" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="O224" s="9">
+        <v>0</v>
+      </c>
+      <c r="P224" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q224" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A225" s="45" t="s">
         <v>33</v>
       </c>
@@ -11243,8 +11521,20 @@
       <c r="F225" s="82">
         <v>6.7392000000000003</v>
       </c>
-    </row>
-    <row r="226" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N225" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="O225" s="9">
+        <v>0</v>
+      </c>
+      <c r="P225" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q225" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A226" s="45" t="s">
         <v>34</v>
       </c>
@@ -11263,8 +11553,23 @@
       <c r="F226" s="81">
         <v>26.956800000000001</v>
       </c>
-    </row>
-    <row r="227" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N226" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="O226" s="9">
+        <f>D225/D224</f>
+        <v>2.4</v>
+      </c>
+      <c r="P226" s="9">
+        <f>E225/E224</f>
+        <v>2.4</v>
+      </c>
+      <c r="Q226" s="9">
+        <f>F225/F224</f>
+        <v>2.4000000000000004</v>
+      </c>
+    </row>
+    <row r="227" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A227" s="45" t="s">
         <v>35</v>
       </c>
@@ -11281,8 +11586,23 @@
       <c r="F227" s="81">
         <v>50.543999999999997</v>
       </c>
-    </row>
-    <row r="228" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N227" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="O227" s="9">
+        <f>D226/D225</f>
+        <v>4</v>
+      </c>
+      <c r="P227" s="9">
+        <f>E226/E225</f>
+        <v>4</v>
+      </c>
+      <c r="Q227" s="9">
+        <f>F226/F225</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="228" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A228" s="45" t="s">
         <v>36</v>
       </c>
@@ -11302,8 +11622,23 @@
       <c r="F228" s="81">
         <v>35.740005148292902</v>
       </c>
-    </row>
-    <row r="229" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N228" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="O228" s="9">
+        <f>D227/D226</f>
+        <v>1.8750000000000002</v>
+      </c>
+      <c r="P228" s="9">
+        <f>E227/E226</f>
+        <v>1.875</v>
+      </c>
+      <c r="Q228" s="9">
+        <f>F227/F226</f>
+        <v>1.8749999999999998</v>
+      </c>
+    </row>
+    <row r="229" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A229" s="45" t="s">
         <v>37</v>
       </c>
@@ -11323,8 +11658,23 @@
       <c r="F229" s="81">
         <v>25.271999999999998</v>
       </c>
-    </row>
-    <row r="230" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N229" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="O229" s="9">
+        <f>D228/D227</f>
+        <v>0.70710678118654768</v>
+      </c>
+      <c r="P229" s="9">
+        <f>E228/E227</f>
+        <v>0.70710678118654802</v>
+      </c>
+      <c r="Q229" s="9">
+        <f>F228/F227</f>
+        <v>0.70710678118654846</v>
+      </c>
+    </row>
+    <row r="230" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A230" s="45" t="s">
         <v>38</v>
       </c>
@@ -11344,8 +11694,23 @@
       <c r="F230" s="81">
         <v>17.870002574146401</v>
       </c>
-    </row>
-    <row r="231" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N230" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="O230" s="9">
+        <f>D229/D228</f>
+        <v>0.70710678118654735</v>
+      </c>
+      <c r="P230" s="9">
+        <f>E229/E228</f>
+        <v>0.70710678118654702</v>
+      </c>
+      <c r="Q230" s="9">
+        <f>F229/F228</f>
+        <v>0.70710678118654657</v>
+      </c>
+    </row>
+    <row r="231" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A231" s="45" t="s">
         <v>39</v>
       </c>
@@ -11365,8 +11730,23 @@
       <c r="F231" s="81">
         <v>12.635999999999999</v>
       </c>
-    </row>
-    <row r="232" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N231" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="O231" s="9">
+        <f>D230/D229</f>
+        <v>0.70710678118654702</v>
+      </c>
+      <c r="P231" s="9">
+        <f>E230/E229</f>
+        <v>0.70710678118654802</v>
+      </c>
+      <c r="Q231" s="9">
+        <f>F230/F229</f>
+        <v>0.70710678118654646</v>
+      </c>
+    </row>
+    <row r="232" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A232" s="45" t="s">
         <v>40</v>
       </c>
@@ -11386,8 +11766,23 @@
       <c r="F232" s="81">
         <v>9.92777920785913</v>
       </c>
-    </row>
-    <row r="233" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N232" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="O232" s="9">
+        <f>D231/D230</f>
+        <v>0.70710678118654802</v>
+      </c>
+      <c r="P232" s="9">
+        <f>E231/E230</f>
+        <v>0.70710678118654702</v>
+      </c>
+      <c r="Q232" s="9">
+        <f>F231/F230</f>
+        <v>0.70710678118654857</v>
+      </c>
+    </row>
+    <row r="233" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A233" s="45" t="s">
         <v>41</v>
       </c>
@@ -11407,8 +11802,23 @@
       <c r="F233" s="81">
         <v>7.02</v>
       </c>
-    </row>
-    <row r="234" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N233" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="O233" s="9">
+        <f>D232/D231</f>
+        <v>0.78567420131838739</v>
+      </c>
+      <c r="P233" s="9">
+        <f>E232/E231</f>
+        <v>0.78567420131838561</v>
+      </c>
+      <c r="Q233" s="9">
+        <f>F232/F231</f>
+        <v>0.78567420131838639</v>
+      </c>
+    </row>
+    <row r="234" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A234" s="45" t="s">
         <v>42</v>
       </c>
@@ -11428,8 +11838,23 @@
       <c r="F234" s="81">
         <v>4.9638896039295597</v>
       </c>
-    </row>
-    <row r="235" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N234" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="O234" s="9">
+        <f>D233/D232</f>
+        <v>0.70710678118654635</v>
+      </c>
+      <c r="P234" s="9">
+        <f>E233/E232</f>
+        <v>0.70710678118654802</v>
+      </c>
+      <c r="Q234" s="9">
+        <f>F233/F232</f>
+        <v>0.70710678118654724</v>
+      </c>
+    </row>
+    <row r="235" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A235" s="45" t="s">
         <v>43</v>
       </c>
@@ -11449,8 +11874,23 @@
       <c r="F235" s="81">
         <v>3.51</v>
       </c>
-    </row>
-    <row r="236" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N235" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="O235" s="9">
+        <f>D234/D233</f>
+        <v>0.70710678118654868</v>
+      </c>
+      <c r="P235" s="9">
+        <f>E234/E233</f>
+        <v>0.70710678118654779</v>
+      </c>
+      <c r="Q235" s="9">
+        <f>F234/F233</f>
+        <v>0.70710678118654702</v>
+      </c>
+    </row>
+    <row r="236" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A236" s="45" t="s">
         <v>44</v>
       </c>
@@ -11470,8 +11910,23 @@
       <c r="F236" s="81">
         <v>2.4819448019647798</v>
       </c>
-    </row>
-    <row r="237" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N236" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="O236" s="9">
+        <f>D235/D234</f>
+        <v>0.70710678118654635</v>
+      </c>
+      <c r="P236" s="9">
+        <f>E235/E234</f>
+        <v>0.70710678118654724</v>
+      </c>
+      <c r="Q236" s="9">
+        <f>F235/F234</f>
+        <v>0.70710678118654802</v>
+      </c>
+    </row>
+    <row r="237" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A237" s="45" t="s">
         <v>45</v>
       </c>
@@ -11491,43 +11946,73 @@
       <c r="F237" s="81">
         <v>1.7549999999999999</v>
       </c>
-    </row>
-    <row r="238" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N237" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="O237" s="9">
+        <f>D236/D235</f>
+        <v>0.70710678118654768</v>
+      </c>
+      <c r="P237" s="9">
+        <f>E236/E235</f>
+        <v>0.70710678118654713</v>
+      </c>
+      <c r="Q237" s="9">
+        <f>F236/F235</f>
+        <v>0.70710678118654702</v>
+      </c>
+    </row>
+    <row r="238" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A238" s="35"/>
       <c r="B238" s="35"/>
       <c r="C238" s="42"/>
       <c r="D238" s="35"/>
       <c r="E238" s="35"/>
       <c r="F238" s="35"/>
-    </row>
-    <row r="239" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A239" s="112"/>
+      <c r="N238" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="O238" s="9">
+        <f>D237/D236</f>
+        <v>0.70710678118654735</v>
+      </c>
+      <c r="P238" s="9">
+        <f>E237/E236</f>
+        <v>0.70710678118654802</v>
+      </c>
+      <c r="Q238" s="9">
+        <f>F237/F236</f>
+        <v>0.70710678118654802</v>
+      </c>
+    </row>
+    <row r="239" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A239" s="90"/>
       <c r="B239" s="20"/>
       <c r="C239" s="20"/>
       <c r="D239" s="20"/>
-      <c r="E239" s="113"/>
+      <c r="E239" s="91"/>
       <c r="F239" s="35"/>
     </row>
-    <row r="240" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A240" s="107"/>
-      <c r="B240" s="108"/>
-      <c r="C240" s="108"/>
-      <c r="D240" s="108"/>
-      <c r="E240" s="113"/>
+    <row r="240" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A240" s="85"/>
+      <c r="B240" s="86"/>
+      <c r="C240" s="86"/>
+      <c r="D240" s="86"/>
+      <c r="E240" s="91"/>
       <c r="F240" s="35"/>
     </row>
     <row r="241" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A241" s="6"/>
-      <c r="B241" s="104"/>
-      <c r="C241" s="104"/>
-      <c r="D241" s="104"/>
+      <c r="B241" s="83"/>
+      <c r="C241" s="83"/>
+      <c r="D241" s="83"/>
       <c r="E241" s="25"/>
     </row>
     <row r="242" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A242" s="6"/>
-      <c r="B242" s="104"/>
-      <c r="C242" s="104"/>
-      <c r="D242" s="104"/>
+      <c r="B242" s="83"/>
+      <c r="C242" s="83"/>
+      <c r="D242" s="83"/>
       <c r="E242" s="25"/>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.35">
@@ -11552,7 +12037,20 @@
       <c r="E245" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="29">
+    <mergeCell ref="O222:Q222"/>
+    <mergeCell ref="O202:Q202"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="A161:A162"/>
+    <mergeCell ref="A220:A221"/>
+    <mergeCell ref="B161:D161"/>
+    <mergeCell ref="E161:G161"/>
+    <mergeCell ref="A186:C186"/>
+    <mergeCell ref="A198:F198"/>
+    <mergeCell ref="A199:F199"/>
+    <mergeCell ref="D200:F200"/>
+    <mergeCell ref="D220:F220"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="I133:I135"/>
     <mergeCell ref="J133:O133"/>
@@ -11569,17 +12067,6 @@
     <mergeCell ref="B52:D52"/>
     <mergeCell ref="E52:G52"/>
     <mergeCell ref="A81:A83"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="A161:A162"/>
-    <mergeCell ref="A220:A221"/>
-    <mergeCell ref="B161:D161"/>
-    <mergeCell ref="E161:G161"/>
-    <mergeCell ref="A186:C186"/>
-    <mergeCell ref="A198:F198"/>
-    <mergeCell ref="A199:F199"/>
-    <mergeCell ref="D200:F200"/>
-    <mergeCell ref="D220:F220"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Config/Population_data.xlsx
+++ b/Config/Population_data.xlsx
@@ -339,27 +339,6 @@
     <t>Initial Population Size (thousands)</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Initial population size (1910).</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> Age distribution based on SA 1985 census and scaled to fit KZN's population growth and size profile.</t>
-    </r>
-  </si>
-  <si>
     <t>United Nations Population Division World Population Prospectus 2019</t>
   </si>
   <si>
@@ -472,6 +451,27 @@
   </si>
   <si>
     <t>Male Age Ratios</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Initial population size (1910).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Calculate backward-projected KZN population. Assume that KZN:SA proportion was decreasing from 1910-2002 according to same trend as from 2002-2019. Assume male and female populations by age follow exponential distributions. See Population_validation Excel document for more detail.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1544,6 +1544,40 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1565,9 +1599,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="28" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1580,39 +1611,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="28" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="48">
@@ -5925,8 +5925,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AF245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N228" sqref="N228"/>
+    <sheetView tabSelected="1" topLeftCell="A244" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K222" sqref="K222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5967,7 +5967,7 @@
   <sheetData>
     <row r="1" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="36" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="B1" s="37"/>
       <c r="C1" s="37"/>
@@ -5995,16 +5995,16 @@
       <c r="Y1" s="37"/>
     </row>
     <row r="2" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
+      <c r="A2" s="104" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
       <c r="I2" s="37"/>
       <c r="J2" s="37"/>
       <c r="K2" s="37"/>
@@ -6025,7 +6025,7 @@
     </row>
     <row r="3" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="38" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B3" s="36"/>
       <c r="C3" s="36"/>
@@ -6056,14 +6056,14 @@
       <c r="A4" s="65" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="104" t="s">
+      <c r="B4" s="96" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="105"/>
-      <c r="D4" s="104" t="s">
+      <c r="C4" s="97"/>
+      <c r="D4" s="96" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="105"/>
+      <c r="E4" s="97"/>
     </row>
     <row r="5" spans="1:25" ht="15" x14ac:dyDescent="0.35">
       <c r="A5" s="9"/>
@@ -6491,10 +6491,10 @@
       <c r="A27" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="104" t="s">
+      <c r="B27" s="96" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="105"/>
+      <c r="C27" s="97"/>
     </row>
     <row r="28" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A28" s="9"/>
@@ -6840,7 +6840,7 @@
     </row>
     <row r="50" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A50" s="36" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B50" s="37"/>
       <c r="C50" s="37"/>
@@ -6909,19 +6909,19 @@
       <c r="AE51" s="24"/>
     </row>
     <row r="52" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A52" s="108" t="s">
+      <c r="A52" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="B52" s="108" t="s">
+      <c r="B52" s="115" t="s">
         <v>56</v>
       </c>
-      <c r="C52" s="108"/>
-      <c r="D52" s="108"/>
-      <c r="E52" s="108" t="s">
+      <c r="C52" s="115"/>
+      <c r="D52" s="115"/>
+      <c r="E52" s="115" t="s">
         <v>57</v>
       </c>
-      <c r="F52" s="108"/>
-      <c r="G52" s="108"/>
+      <c r="F52" s="115"/>
+      <c r="G52" s="115"/>
       <c r="X52" s="22"/>
       <c r="Y52" s="22"/>
       <c r="Z52" s="22"/>
@@ -6932,7 +6932,7 @@
       <c r="AE52" s="22"/>
     </row>
     <row r="53" spans="1:31" ht="15" x14ac:dyDescent="0.35">
-      <c r="A53" s="108"/>
+      <c r="A53" s="115"/>
       <c r="B53" s="33" t="s">
         <v>3</v>
       </c>
@@ -7411,7 +7411,7 @@
     </row>
     <row r="79" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A79" s="38" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B79" s="37"/>
       <c r="C79" s="37"/>
@@ -7439,7 +7439,7 @@
     </row>
     <row r="80" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A80" s="36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B80" s="37"/>
       <c r="C80" s="37"/>
@@ -7466,29 +7466,29 @@
       <c r="X80" s="37"/>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A81" s="101" t="s">
+      <c r="A81" s="112" t="s">
         <v>2</v>
       </c>
-      <c r="B81" s="106" t="s">
+      <c r="B81" s="94" t="s">
+        <v>82</v>
+      </c>
+      <c r="C81" s="94" t="s">
         <v>83</v>
       </c>
-      <c r="C81" s="106" t="s">
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A82" s="113"/>
+      <c r="B82" s="95"/>
+      <c r="C82" s="95"/>
+      <c r="E82" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A82" s="102"/>
-      <c r="B82" s="107"/>
-      <c r="C82" s="107"/>
-      <c r="E82" t="s">
-        <v>85</v>
-      </c>
       <c r="I82" s="55"/>
     </row>
     <row r="83" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A83" s="103"/>
-      <c r="B83" s="107"/>
-      <c r="C83" s="107"/>
+      <c r="A83" s="114"/>
+      <c r="B83" s="95"/>
+      <c r="C83" s="95"/>
       <c r="E83" s="9"/>
       <c r="F83" s="9" t="s">
         <v>74</v>
@@ -7541,7 +7541,7 @@
         <v>1.8590649E-3</v>
       </c>
       <c r="E85" s="75" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F85" s="74">
         <v>5.2241062999999997E-3</v>
@@ -7902,7 +7902,7 @@
     </row>
     <row r="108" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A108" s="38" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B108" s="37"/>
       <c r="C108" s="37"/>
@@ -7930,7 +7930,7 @@
     </row>
     <row r="109" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A109" s="38" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B109" s="37"/>
       <c r="C109" s="37"/>
@@ -7958,7 +7958,7 @@
     </row>
     <row r="110" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A110" s="76" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B110" s="37"/>
       <c r="C110" s="37"/>
@@ -7986,7 +7986,7 @@
     </row>
     <row r="111" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A111" s="36" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B111" s="37"/>
       <c r="C111" s="37"/>
@@ -8013,20 +8013,20 @@
       <c r="X111" s="37"/>
     </row>
     <row r="112" spans="1:24" ht="15.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A112" s="101" t="s">
+      <c r="A112" s="112" t="s">
         <v>2</v>
       </c>
-      <c r="B112" s="96" t="s">
-        <v>88</v>
-      </c>
-      <c r="C112" s="97"/>
-      <c r="D112" s="97"/>
-      <c r="E112" s="97"/>
-      <c r="F112" s="97"/>
-      <c r="G112" s="98"/>
+      <c r="B112" s="108" t="s">
+        <v>87</v>
+      </c>
+      <c r="C112" s="109"/>
+      <c r="D112" s="109"/>
+      <c r="E112" s="109"/>
+      <c r="F112" s="109"/>
+      <c r="G112" s="110"/>
     </row>
     <row r="113" spans="1:14" ht="46" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A113" s="102"/>
+      <c r="A113" s="113"/>
       <c r="B113" s="32" t="s">
         <v>70</v>
       </c>
@@ -8047,7 +8047,7 @@
       </c>
     </row>
     <row r="114" spans="1:14" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A114" s="103"/>
+      <c r="A114" s="114"/>
       <c r="B114" s="34" t="s">
         <v>63</v>
       </c>
@@ -8502,31 +8502,31 @@
     </row>
     <row r="132" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="133" spans="1:15" ht="15.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A133" s="93" t="s">
+      <c r="A133" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="B133" s="96" t="s">
-        <v>89</v>
-      </c>
-      <c r="C133" s="97"/>
-      <c r="D133" s="97"/>
-      <c r="E133" s="97"/>
-      <c r="F133" s="97"/>
-      <c r="G133" s="98"/>
-      <c r="I133" s="93" t="s">
+      <c r="B133" s="108" t="s">
+        <v>88</v>
+      </c>
+      <c r="C133" s="109"/>
+      <c r="D133" s="109"/>
+      <c r="E133" s="109"/>
+      <c r="F133" s="109"/>
+      <c r="G133" s="110"/>
+      <c r="I133" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="J133" s="96" t="s">
+      <c r="J133" s="108" t="s">
         <v>76</v>
       </c>
-      <c r="K133" s="97"/>
-      <c r="L133" s="97"/>
-      <c r="M133" s="97"/>
-      <c r="N133" s="97"/>
-      <c r="O133" s="98"/>
+      <c r="K133" s="109"/>
+      <c r="L133" s="109"/>
+      <c r="M133" s="109"/>
+      <c r="N133" s="109"/>
+      <c r="O133" s="110"/>
     </row>
     <row r="134" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A134" s="94"/>
+      <c r="A134" s="106"/>
       <c r="B134" s="26" t="s">
         <v>71</v>
       </c>
@@ -8545,7 +8545,7 @@
       <c r="G134" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="I134" s="94"/>
+      <c r="I134" s="106"/>
       <c r="J134" s="26" t="s">
         <v>71</v>
       </c>
@@ -8566,7 +8566,7 @@
       </c>
     </row>
     <row r="135" spans="1:15" ht="47" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A135" s="95"/>
+      <c r="A135" s="107"/>
       <c r="B135" s="40" t="s">
         <v>63</v>
       </c>
@@ -8585,7 +8585,7 @@
       <c r="G135" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="I135" s="95"/>
+      <c r="I135" s="107"/>
       <c r="J135" s="40" t="s">
         <v>63</v>
       </c>
@@ -9445,7 +9445,7 @@
     </row>
     <row r="158" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A158" s="36" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B158" s="37"/>
       <c r="C158" s="37"/>
@@ -9525,22 +9525,22 @@
       <c r="W160" s="37"/>
     </row>
     <row r="161" spans="1:14" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A161" s="109" t="s">
-        <v>94</v>
-      </c>
-      <c r="B161" s="111" t="s">
-        <v>0</v>
-      </c>
-      <c r="C161" s="111"/>
-      <c r="D161" s="111"/>
-      <c r="E161" s="111" t="s">
+      <c r="A161" s="98" t="s">
+        <v>93</v>
+      </c>
+      <c r="B161" s="100" t="s">
+        <v>0</v>
+      </c>
+      <c r="C161" s="100"/>
+      <c r="D161" s="100"/>
+      <c r="E161" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="F161" s="111"/>
-      <c r="G161" s="111"/>
+      <c r="F161" s="100"/>
+      <c r="G161" s="100"/>
     </row>
     <row r="162" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A162" s="109"/>
+      <c r="A162" s="98"/>
       <c r="B162" s="80" t="s">
         <v>3</v>
       </c>
@@ -10336,9 +10336,9 @@
       <c r="AB185" s="20"/>
     </row>
     <row r="186" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A186" s="112"/>
-      <c r="B186" s="112"/>
-      <c r="C186" s="112"/>
+      <c r="A186" s="101"/>
+      <c r="B186" s="101"/>
+      <c r="C186" s="101"/>
       <c r="D186" s="20"/>
       <c r="E186" s="20"/>
       <c r="F186" s="20"/>
@@ -10487,7 +10487,7 @@
     </row>
     <row r="197" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A197" s="36" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B197" s="37"/>
       <c r="C197" s="37"/>
@@ -10513,39 +10513,39 @@
       <c r="W197" s="37"/>
     </row>
     <row r="198" spans="1:23" s="39" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A198" s="104" t="s">
+      <c r="A198" s="96" t="s">
         <v>73</v>
       </c>
-      <c r="B198" s="104"/>
-      <c r="C198" s="104"/>
-      <c r="D198" s="104"/>
-      <c r="E198" s="104"/>
-      <c r="F198" s="104"/>
+      <c r="B198" s="96"/>
+      <c r="C198" s="96"/>
+      <c r="D198" s="96"/>
+      <c r="E198" s="96"/>
+      <c r="F198" s="96"/>
     </row>
     <row r="199" spans="1:23" s="39" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A199" s="113" t="s">
+      <c r="A199" s="102" t="s">
         <v>74</v>
       </c>
-      <c r="B199" s="113"/>
-      <c r="C199" s="113"/>
-      <c r="D199" s="113"/>
-      <c r="E199" s="113"/>
-      <c r="F199" s="113"/>
+      <c r="B199" s="102"/>
+      <c r="C199" s="102"/>
+      <c r="D199" s="102"/>
+      <c r="E199" s="102"/>
+      <c r="F199" s="102"/>
     </row>
     <row r="200" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A200" s="99" t="s">
+      <c r="A200" s="103" t="s">
         <v>46</v>
       </c>
       <c r="B200" s="43"/>
       <c r="C200" s="43"/>
-      <c r="D200" s="99" t="s">
+      <c r="D200" s="103" t="s">
         <v>51</v>
       </c>
-      <c r="E200" s="99"/>
-      <c r="F200" s="99"/>
+      <c r="E200" s="103"/>
+      <c r="F200" s="103"/>
     </row>
     <row r="201" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A201" s="99"/>
+      <c r="A201" s="103"/>
       <c r="B201" s="43"/>
       <c r="C201" s="44" t="s">
         <v>47</v>
@@ -10591,14 +10591,14 @@
         <f t="shared" ref="J202:J217" si="21">F202*D54</f>
         <v>0</v>
       </c>
-      <c r="N202" s="114" t="s">
+      <c r="N202" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="O202" s="115" t="s">
-        <v>98</v>
-      </c>
-      <c r="P202" s="115"/>
-      <c r="Q202" s="115"/>
+      <c r="O202" s="93" t="s">
+        <v>97</v>
+      </c>
+      <c r="P202" s="93"/>
+      <c r="Q202" s="93"/>
     </row>
     <row r="203" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A203" s="45" t="s">
@@ -10771,15 +10771,15 @@
         <v>33</v>
       </c>
       <c r="O206" s="9">
-        <f>D205/D204</f>
+        <f t="shared" ref="O206:O218" si="23">D205/D204</f>
         <v>5</v>
       </c>
       <c r="P206" s="9">
-        <f>E205/E204</f>
+        <f t="shared" ref="P206:P218" si="24">E205/E204</f>
         <v>4.9999999999999991</v>
       </c>
       <c r="Q206" s="9">
-        <f>F205/F204</f>
+        <f t="shared" ref="Q206:Q218" si="25">F205/F204</f>
         <v>5</v>
       </c>
     </row>
@@ -10820,15 +10820,15 @@
         <v>34</v>
       </c>
       <c r="O207" s="9">
-        <f>D206/D205</f>
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
       <c r="P207" s="9">
-        <f>E206/E205</f>
+        <f t="shared" si="24"/>
         <v>4</v>
       </c>
       <c r="Q207" s="9">
-        <f>F206/F205</f>
+        <f t="shared" si="25"/>
         <v>4</v>
       </c>
     </row>
@@ -10840,7 +10840,7 @@
         <v>10</v>
       </c>
       <c r="C208" s="43">
-        <f t="shared" ref="C208:C217" si="23">EXP(LN(0.5)*B207/10)</f>
+        <f t="shared" ref="C208:C217" si="26">EXP(LN(0.5)*B207/10)</f>
         <v>0.70710678118654757</v>
       </c>
       <c r="D208" s="82">
@@ -10873,15 +10873,15 @@
         <v>35</v>
       </c>
       <c r="O208" s="9">
-        <f>D207/D206</f>
+        <f t="shared" si="23"/>
         <v>2.5</v>
       </c>
       <c r="P208" s="9">
-        <f>E207/E206</f>
+        <f t="shared" si="24"/>
         <v>2.5</v>
       </c>
       <c r="Q208" s="9">
-        <f>F207/F206</f>
+        <f t="shared" si="25"/>
         <v>2.5</v>
       </c>
     </row>
@@ -10893,7 +10893,7 @@
         <v>15</v>
       </c>
       <c r="C209" s="43">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0.5</v>
       </c>
       <c r="D209" s="82">
@@ -10925,15 +10925,15 @@
         <v>36</v>
       </c>
       <c r="O209" s="9">
-        <f>D208/D207</f>
+        <f t="shared" si="23"/>
         <v>0.70710678118654491</v>
       </c>
       <c r="P209" s="9">
-        <f>E208/E207</f>
+        <f t="shared" si="24"/>
         <v>0.70710678118654813</v>
       </c>
       <c r="Q209" s="9">
-        <f>F208/F207</f>
+        <f t="shared" si="25"/>
         <v>0.70710678118654735</v>
       </c>
     </row>
@@ -10945,7 +10945,7 @@
         <v>20</v>
       </c>
       <c r="C210" s="43">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0.35355339059327379</v>
       </c>
       <c r="D210" s="82">
@@ -10977,15 +10977,15 @@
         <v>37</v>
       </c>
       <c r="O210" s="9">
-        <f>D209/D208</f>
+        <f t="shared" si="23"/>
         <v>0.70710678118655024</v>
       </c>
       <c r="P210" s="9">
-        <f>E209/E208</f>
+        <f t="shared" si="24"/>
         <v>0.70710678118654691</v>
       </c>
       <c r="Q210" s="9">
-        <f>F209/F208</f>
+        <f t="shared" si="25"/>
         <v>0.70710678118654768</v>
       </c>
     </row>
@@ -10997,7 +10997,7 @@
         <v>25</v>
       </c>
       <c r="C211" s="43">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0.25</v>
       </c>
       <c r="D211" s="82">
@@ -11029,15 +11029,15 @@
         <v>38</v>
       </c>
       <c r="O211" s="9">
-        <f>D210/D209</f>
+        <f t="shared" si="23"/>
         <v>0.70710678118654735</v>
       </c>
       <c r="P211" s="9">
-        <f>E210/E209</f>
+        <f t="shared" si="24"/>
         <v>0.70710678118654713</v>
       </c>
       <c r="Q211" s="9">
-        <f>F210/F209</f>
+        <f t="shared" si="25"/>
         <v>0.70710678118654913</v>
       </c>
     </row>
@@ -11049,7 +11049,7 @@
         <v>30</v>
       </c>
       <c r="C212" s="43">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0.17677669529663689</v>
       </c>
       <c r="D212" s="82">
@@ -11081,15 +11081,15 @@
         <v>39</v>
       </c>
       <c r="O212" s="9">
-        <f>D211/D210</f>
+        <f t="shared" si="23"/>
         <v>0.70710678118654768</v>
       </c>
       <c r="P212" s="9">
-        <f>E211/E210</f>
+        <f t="shared" si="24"/>
         <v>0.70710678118654802</v>
       </c>
       <c r="Q212" s="9">
-        <f>F211/F210</f>
+        <f t="shared" si="25"/>
         <v>0.70710678118654591</v>
       </c>
     </row>
@@ -11101,7 +11101,7 @@
         <v>35</v>
       </c>
       <c r="C213" s="43">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0.12500000000000003</v>
       </c>
       <c r="D213" s="82">
@@ -11133,15 +11133,15 @@
         <v>40</v>
       </c>
       <c r="O213" s="9">
-        <f>D212/D211</f>
+        <f t="shared" si="23"/>
         <v>0.70710678118654868</v>
       </c>
       <c r="P213" s="9">
-        <f>E212/E211</f>
+        <f t="shared" si="24"/>
         <v>0.70710678118654713</v>
       </c>
       <c r="Q213" s="9">
-        <f>F212/F211</f>
+        <f t="shared" si="25"/>
         <v>0.70710678118654779</v>
       </c>
     </row>
@@ -11185,15 +11185,15 @@
         <v>41</v>
       </c>
       <c r="O214" s="9">
-        <f>D213/D212</f>
+        <f t="shared" si="23"/>
         <v>0.70710678118654635</v>
       </c>
       <c r="P214" s="9">
-        <f>E213/E212</f>
+        <f t="shared" si="24"/>
         <v>0.70710678118654802</v>
       </c>
       <c r="Q214" s="9">
-        <f>F213/F212</f>
+        <f t="shared" si="25"/>
         <v>0.70710678118654724</v>
       </c>
     </row>
@@ -11205,7 +11205,7 @@
         <v>45</v>
       </c>
       <c r="C215" s="43">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>6.25E-2</v>
       </c>
       <c r="D215" s="82">
@@ -11237,15 +11237,15 @@
         <v>42</v>
       </c>
       <c r="O215" s="9">
-        <f>D214/D213</f>
+        <f t="shared" si="23"/>
         <v>0.70710678118654868</v>
       </c>
       <c r="P215" s="9">
-        <f>E214/E213</f>
+        <f t="shared" si="24"/>
         <v>0.70710678118654779</v>
       </c>
       <c r="Q215" s="9">
-        <f>F214/F213</f>
+        <f t="shared" si="25"/>
         <v>0.70710678118654702</v>
       </c>
     </row>
@@ -11257,7 +11257,7 @@
         <v>50</v>
       </c>
       <c r="C216" s="43">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>4.4194173824159223E-2</v>
       </c>
       <c r="D216" s="82">
@@ -11289,15 +11289,15 @@
         <v>43</v>
       </c>
       <c r="O216" s="9">
-        <f>D215/D214</f>
+        <f t="shared" si="23"/>
         <v>0.70710678118654635</v>
       </c>
       <c r="P216" s="9">
-        <f>E215/E214</f>
+        <f t="shared" si="24"/>
         <v>0.70710678118654724</v>
       </c>
       <c r="Q216" s="9">
-        <f>F215/F214</f>
+        <f t="shared" si="25"/>
         <v>0.70710678118654802</v>
       </c>
     </row>
@@ -11309,7 +11309,7 @@
         <v>55</v>
       </c>
       <c r="C217" s="43">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>3.125E-2</v>
       </c>
       <c r="D217" s="82">
@@ -11341,15 +11341,15 @@
         <v>44</v>
       </c>
       <c r="O217" s="9">
-        <f>D216/D215</f>
+        <f t="shared" si="23"/>
         <v>0.70710678118654768</v>
       </c>
       <c r="P217" s="9">
-        <f>E216/E215</f>
+        <f t="shared" si="24"/>
         <v>0.70710678118654713</v>
       </c>
       <c r="Q217" s="9">
-        <f>F216/F215</f>
+        <f t="shared" si="25"/>
         <v>0.70710678118654702</v>
       </c>
     </row>
@@ -11372,42 +11372,42 @@
         <v>45</v>
       </c>
       <c r="O218" s="9">
-        <f>D217/D216</f>
+        <f t="shared" si="23"/>
         <v>0.70710678118654735</v>
       </c>
       <c r="P218" s="9">
-        <f>E217/E216</f>
+        <f t="shared" si="24"/>
         <v>0.70710678118654802</v>
       </c>
       <c r="Q218" s="9">
-        <f>F217/F216</f>
+        <f t="shared" si="25"/>
         <v>0.70710678118654802</v>
       </c>
     </row>
     <row r="219" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A219" s="100" t="s">
+      <c r="A219" s="111" t="s">
         <v>75</v>
       </c>
-      <c r="B219" s="100"/>
-      <c r="C219" s="100"/>
-      <c r="D219" s="100"/>
-      <c r="E219" s="100"/>
-      <c r="F219" s="100"/>
+      <c r="B219" s="111"/>
+      <c r="C219" s="111"/>
+      <c r="D219" s="111"/>
+      <c r="E219" s="111"/>
+      <c r="F219" s="111"/>
     </row>
     <row r="220" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A220" s="110" t="s">
+      <c r="A220" s="99" t="s">
         <v>2</v>
       </c>
       <c r="B220" s="43"/>
       <c r="C220" s="43"/>
-      <c r="D220" s="99" t="s">
+      <c r="D220" s="103" t="s">
         <v>51</v>
       </c>
-      <c r="E220" s="99"/>
-      <c r="F220" s="99"/>
+      <c r="E220" s="103"/>
+      <c r="F220" s="103"/>
     </row>
     <row r="221" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A221" s="110"/>
+      <c r="A221" s="99"/>
       <c r="B221" s="43"/>
       <c r="C221" s="44" t="s">
         <v>47</v>
@@ -11437,14 +11437,14 @@
       <c r="F222" s="81">
         <v>0</v>
       </c>
-      <c r="N222" s="114" t="s">
+      <c r="N222" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="O222" s="115" t="s">
-        <v>97</v>
-      </c>
-      <c r="P222" s="115"/>
-      <c r="Q222" s="115"/>
+      <c r="O222" s="93" t="s">
+        <v>96</v>
+      </c>
+      <c r="P222" s="93"/>
+      <c r="Q222" s="93"/>
     </row>
     <row r="223" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A223" s="45" t="s">
@@ -11557,15 +11557,15 @@
         <v>33</v>
       </c>
       <c r="O226" s="9">
-        <f>D225/D224</f>
+        <f t="shared" ref="O226:O238" si="27">D225/D224</f>
         <v>2.4</v>
       </c>
       <c r="P226" s="9">
-        <f>E225/E224</f>
+        <f t="shared" ref="P226:P238" si="28">E225/E224</f>
         <v>2.4</v>
       </c>
       <c r="Q226" s="9">
-        <f>F225/F224</f>
+        <f t="shared" ref="Q226:Q238" si="29">F225/F224</f>
         <v>2.4000000000000004</v>
       </c>
     </row>
@@ -11590,15 +11590,15 @@
         <v>34</v>
       </c>
       <c r="O227" s="9">
-        <f>D226/D225</f>
+        <f t="shared" si="27"/>
         <v>4</v>
       </c>
       <c r="P227" s="9">
-        <f>E226/E225</f>
+        <f t="shared" si="28"/>
         <v>4</v>
       </c>
       <c r="Q227" s="9">
-        <f>F226/F225</f>
+        <f t="shared" si="29"/>
         <v>4</v>
       </c>
     </row>
@@ -11610,7 +11610,7 @@
         <v>10</v>
       </c>
       <c r="C228" s="43">
-        <f t="shared" ref="C228:C237" si="24">EXP(LN(0.5)*B227/10)</f>
+        <f t="shared" ref="C228:C237" si="30">EXP(LN(0.5)*B227/10)</f>
         <v>0.70710678118654757</v>
       </c>
       <c r="D228" s="81">
@@ -11626,15 +11626,15 @@
         <v>35</v>
       </c>
       <c r="O228" s="9">
-        <f>D227/D226</f>
+        <f t="shared" si="27"/>
         <v>1.8750000000000002</v>
       </c>
       <c r="P228" s="9">
-        <f>E227/E226</f>
+        <f t="shared" si="28"/>
         <v>1.875</v>
       </c>
       <c r="Q228" s="9">
-        <f>F227/F226</f>
+        <f t="shared" si="29"/>
         <v>1.8749999999999998</v>
       </c>
     </row>
@@ -11646,7 +11646,7 @@
         <v>15</v>
       </c>
       <c r="C229" s="43">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>0.5</v>
       </c>
       <c r="D229" s="81">
@@ -11662,15 +11662,15 @@
         <v>36</v>
       </c>
       <c r="O229" s="9">
-        <f>D228/D227</f>
+        <f t="shared" si="27"/>
         <v>0.70710678118654768</v>
       </c>
       <c r="P229" s="9">
-        <f>E228/E227</f>
+        <f t="shared" si="28"/>
         <v>0.70710678118654802</v>
       </c>
       <c r="Q229" s="9">
-        <f>F228/F227</f>
+        <f t="shared" si="29"/>
         <v>0.70710678118654846</v>
       </c>
     </row>
@@ -11682,7 +11682,7 @@
         <v>20</v>
       </c>
       <c r="C230" s="43">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>0.35355339059327379</v>
       </c>
       <c r="D230" s="81">
@@ -11698,15 +11698,15 @@
         <v>37</v>
       </c>
       <c r="O230" s="9">
-        <f>D229/D228</f>
+        <f t="shared" si="27"/>
         <v>0.70710678118654735</v>
       </c>
       <c r="P230" s="9">
-        <f>E229/E228</f>
+        <f t="shared" si="28"/>
         <v>0.70710678118654702</v>
       </c>
       <c r="Q230" s="9">
-        <f>F229/F228</f>
+        <f t="shared" si="29"/>
         <v>0.70710678118654657</v>
       </c>
     </row>
@@ -11718,7 +11718,7 @@
         <v>25</v>
       </c>
       <c r="C231" s="43">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>0.25</v>
       </c>
       <c r="D231" s="81">
@@ -11734,15 +11734,15 @@
         <v>38</v>
       </c>
       <c r="O231" s="9">
-        <f>D230/D229</f>
+        <f t="shared" si="27"/>
         <v>0.70710678118654702</v>
       </c>
       <c r="P231" s="9">
-        <f>E230/E229</f>
+        <f t="shared" si="28"/>
         <v>0.70710678118654802</v>
       </c>
       <c r="Q231" s="9">
-        <f>F230/F229</f>
+        <f t="shared" si="29"/>
         <v>0.70710678118654646</v>
       </c>
     </row>
@@ -11754,7 +11754,7 @@
         <v>30</v>
       </c>
       <c r="C232" s="43">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>0.17677669529663689</v>
       </c>
       <c r="D232" s="81">
@@ -11770,15 +11770,15 @@
         <v>39</v>
       </c>
       <c r="O232" s="9">
-        <f>D231/D230</f>
+        <f t="shared" si="27"/>
         <v>0.70710678118654802</v>
       </c>
       <c r="P232" s="9">
-        <f>E231/E230</f>
+        <f t="shared" si="28"/>
         <v>0.70710678118654702</v>
       </c>
       <c r="Q232" s="9">
-        <f>F231/F230</f>
+        <f t="shared" si="29"/>
         <v>0.70710678118654857</v>
       </c>
     </row>
@@ -11790,7 +11790,7 @@
         <v>35</v>
       </c>
       <c r="C233" s="43">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>0.12500000000000003</v>
       </c>
       <c r="D233" s="81">
@@ -11806,15 +11806,15 @@
         <v>40</v>
       </c>
       <c r="O233" s="9">
-        <f>D232/D231</f>
+        <f t="shared" si="27"/>
         <v>0.78567420131838739</v>
       </c>
       <c r="P233" s="9">
-        <f>E232/E231</f>
+        <f t="shared" si="28"/>
         <v>0.78567420131838561</v>
       </c>
       <c r="Q233" s="9">
-        <f>F232/F231</f>
+        <f t="shared" si="29"/>
         <v>0.78567420131838639</v>
       </c>
     </row>
@@ -11826,7 +11826,7 @@
         <v>40</v>
       </c>
       <c r="C234" s="43">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>8.8388347648318447E-2</v>
       </c>
       <c r="D234" s="81">
@@ -11842,15 +11842,15 @@
         <v>41</v>
       </c>
       <c r="O234" s="9">
-        <f>D233/D232</f>
+        <f t="shared" si="27"/>
         <v>0.70710678118654635</v>
       </c>
       <c r="P234" s="9">
-        <f>E233/E232</f>
+        <f t="shared" si="28"/>
         <v>0.70710678118654802</v>
       </c>
       <c r="Q234" s="9">
-        <f>F233/F232</f>
+        <f t="shared" si="29"/>
         <v>0.70710678118654724</v>
       </c>
     </row>
@@ -11862,7 +11862,7 @@
         <v>45</v>
       </c>
       <c r="C235" s="43">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>6.25E-2</v>
       </c>
       <c r="D235" s="81">
@@ -11878,15 +11878,15 @@
         <v>42</v>
       </c>
       <c r="O235" s="9">
-        <f>D234/D233</f>
+        <f t="shared" si="27"/>
         <v>0.70710678118654868</v>
       </c>
       <c r="P235" s="9">
-        <f>E234/E233</f>
+        <f t="shared" si="28"/>
         <v>0.70710678118654779</v>
       </c>
       <c r="Q235" s="9">
-        <f>F234/F233</f>
+        <f t="shared" si="29"/>
         <v>0.70710678118654702</v>
       </c>
     </row>
@@ -11914,15 +11914,15 @@
         <v>43</v>
       </c>
       <c r="O236" s="9">
-        <f>D235/D234</f>
+        <f t="shared" si="27"/>
         <v>0.70710678118654635</v>
       </c>
       <c r="P236" s="9">
-        <f>E235/E234</f>
+        <f t="shared" si="28"/>
         <v>0.70710678118654724</v>
       </c>
       <c r="Q236" s="9">
-        <f>F235/F234</f>
+        <f t="shared" si="29"/>
         <v>0.70710678118654802</v>
       </c>
     </row>
@@ -11934,7 +11934,7 @@
         <v>55</v>
       </c>
       <c r="C237" s="43">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>3.125E-2</v>
       </c>
       <c r="D237" s="81">
@@ -11950,15 +11950,15 @@
         <v>44</v>
       </c>
       <c r="O237" s="9">
-        <f>D236/D235</f>
+        <f t="shared" si="27"/>
         <v>0.70710678118654768</v>
       </c>
       <c r="P237" s="9">
-        <f>E236/E235</f>
+        <f t="shared" si="28"/>
         <v>0.70710678118654713</v>
       </c>
       <c r="Q237" s="9">
-        <f>F236/F235</f>
+        <f t="shared" si="29"/>
         <v>0.70710678118654702</v>
       </c>
     </row>
@@ -11973,15 +11973,15 @@
         <v>45</v>
       </c>
       <c r="O238" s="9">
-        <f>D237/D236</f>
+        <f t="shared" si="27"/>
         <v>0.70710678118654735</v>
       </c>
       <c r="P238" s="9">
-        <f>E237/E236</f>
+        <f t="shared" si="28"/>
         <v>0.70710678118654802</v>
       </c>
       <c r="Q238" s="9">
-        <f>F237/F236</f>
+        <f t="shared" si="29"/>
         <v>0.70710678118654802</v>
       </c>
     </row>
@@ -12038,19 +12038,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="O222:Q222"/>
-    <mergeCell ref="O202:Q202"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="A161:A162"/>
-    <mergeCell ref="A220:A221"/>
-    <mergeCell ref="B161:D161"/>
-    <mergeCell ref="E161:G161"/>
-    <mergeCell ref="A186:C186"/>
-    <mergeCell ref="A198:F198"/>
-    <mergeCell ref="A199:F199"/>
-    <mergeCell ref="D200:F200"/>
-    <mergeCell ref="D220:F220"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="I133:I135"/>
     <mergeCell ref="J133:O133"/>
@@ -12067,6 +12054,19 @@
     <mergeCell ref="B52:D52"/>
     <mergeCell ref="E52:G52"/>
     <mergeCell ref="A81:A83"/>
+    <mergeCell ref="O222:Q222"/>
+    <mergeCell ref="O202:Q202"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="A161:A162"/>
+    <mergeCell ref="A220:A221"/>
+    <mergeCell ref="B161:D161"/>
+    <mergeCell ref="E161:G161"/>
+    <mergeCell ref="A186:C186"/>
+    <mergeCell ref="A198:F198"/>
+    <mergeCell ref="A199:F199"/>
+    <mergeCell ref="D200:F200"/>
+    <mergeCell ref="D220:F220"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Config/Population_data.xlsx
+++ b/Config/Population_data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="107">
   <si>
     <t>Male</t>
   </si>
@@ -348,9 +348,6 @@
     <t xml:space="preserve">UN World Population Prospects 2019, File MORT/17-2: Abridged life tables, for males/females, 1950-2100. </t>
   </si>
   <si>
-    <t>Used values from 1985-1990 before the widespread HIV epidemic</t>
-  </si>
-  <si>
     <t>Male Background Mortality</t>
   </si>
   <si>
@@ -473,6 +470,33 @@
       <t xml:space="preserve"> Calculate backward-projected KZN population. Assume that KZN:SA proportion was decreasing from 1910-2002 according to same trend as from 2002-2019. Assume male and female populations by age follow exponential distributions. See Population_validation Excel document for more detail.</t>
     </r>
   </si>
+  <si>
+    <t>1950-1955</t>
+  </si>
+  <si>
+    <t>1955-1960</t>
+  </si>
+  <si>
+    <t>1960-1965</t>
+  </si>
+  <si>
+    <t>1965-1970</t>
+  </si>
+  <si>
+    <t>1975-1980</t>
+  </si>
+  <si>
+    <t>1985-1990</t>
+  </si>
+  <si>
+    <t>1980-1985</t>
+  </si>
+  <si>
+    <t>1970-1975</t>
+  </si>
+  <si>
+    <t>Used values from 1950-1990 before the widespread HIV epidemic</t>
+  </si>
 </sst>
 </file>
 
@@ -482,7 +506,7 @@
     <numFmt numFmtId="164" formatCode="0.00000;\-0.00000;0"/>
     <numFmt numFmtId="165" formatCode="###;\-###;0"/>
   </numFmts>
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -693,20 +717,8 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -719,6 +731,12 @@
       <i/>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -916,7 +934,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -1274,12 +1292,51 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1341,7 +1398,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1456,37 +1513,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1497,26 +1528,10 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="33" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1545,38 +1560,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="28" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1599,6 +1584,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="28" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1611,8 +1599,89 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="48">
@@ -3952,6 +4021,1604 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Male</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Background Mortality over Time</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Demographics!$A$84</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0 – 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Demographics!$B$84:$I$84</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000;\-0.00000;0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.19005920400000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16702423499999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15232399099999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.137224824</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.115676261</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.0002309699999991E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0407469099999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.6975585300000006E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2E44-45D2-9146-BF0AE582A354}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Demographics!$A$85</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5 – 9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Demographics!$B$85:$I$85</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000;\-0.00000;0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8.6783771000000006E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.2583379999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.3381319000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.4525481999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.5081523000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.6766398E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0634688E-3</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>2.4750038999999998E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2E44-45D2-9146-BF0AE582A354}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Demographics!$A$86</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10 – 14</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Demographics!$B$86:$I$86</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000;\-0.00000;0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4.7901753000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.1213899000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.6590022999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.198991E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.7091355999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2757054E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.9361118E-3</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>1.5814690000000001E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2E44-45D2-9146-BF0AE582A354}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Demographics!$A$87</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>15 – 19</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Demographics!$B$87:$I$87</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000;\-0.00000;0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5.9821824000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.3382910000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.8685472E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.3821110000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.8498661E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.3638228000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.9596564999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>2.5001934000000001E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2E44-45D2-9146-BF0AE582A354}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Demographics!$A$88</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>20 – 24</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Demographics!$B$88:$I$88</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000;\-0.00000;0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8.4956649999999995E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.6593564000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0310347999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.3705656999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.6486914999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.9892453999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.4258235999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>3.7640993E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-2E44-45D2-9146-BF0AE582A354}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Demographics!$A$89</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>25 – 29</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Demographics!$B$89:$I$89</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000;\-0.00000;0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>9.3605019000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.54654E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.8817746000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.1632086000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.4013278999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.7255068999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.1091371999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>4.3315932999999996E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-2E44-45D2-9146-BF0AE582A354}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Demographics!$A$90</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>30 – 34</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Demographics!$B$90:$I$90</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000;\-0.00000;0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.0468597E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.6974886E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.0068661000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.2366352999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.4406786000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.7541959E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0814568000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>5.1669517000000002E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-2E44-45D2-9146-BF0AE582A354}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Demographics!$A$91</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>35 – 39</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Demographics!$B$91:$I$91</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000;\-0.00000;0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.2171936E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1441359E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0708901999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.8627973999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.0128794999999994E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.3055105000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.5515045999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>6.4414638999999996E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-2E44-45D2-9146-BF0AE582A354}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Demographics!$A$92</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>40 – 44</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Demographics!$B$92:$I$92</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000;\-0.00000;0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.4352014999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3609002E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2821048999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.189198E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0964043E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0199443000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.3492987999999992E-3</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>8.0432449999999992E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-2E44-45D2-9146-BF0AE582A354}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Demographics!$A$93</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>45 – 49</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Demographics!$B$93:$I$93</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000;\-0.00000;0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.6599328999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5939089E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5164165E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4218463000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3283338E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2527323E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1624491000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>1.0135829000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-2E44-45D2-9146-BF0AE582A354}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Demographics!$A$94</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>50 – 54</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Demographics!$B$94:$I$94</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000;\-0.00000;0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2.0610447E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0069169000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9329669000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8382102000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7452718999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6717211999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5751589999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>1.4004198000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-2E44-45D2-9146-BF0AE582A354}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Demographics!$A$95</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>55 – 59</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Demographics!$B$95:$I$95</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000;\-0.00000;0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2.5459668000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5029438000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4304803E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.3329169E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.2389999000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.1674624999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0631349E-2</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>1.8576009000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-2E44-45D2-9146-BF0AE582A354}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Demographics!$A$96</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>60 - 64</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Demographics!$B$96:$I$96</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000;\-0.00000;0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3.5184202999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4928028999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.4222971999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.3195026000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.2233284000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.1546165000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0365044000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>2.7759598999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-2E44-45D2-9146-BF0AE582A354}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="13"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Demographics!$A$97</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>65- 69</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Demographics!$B$97:$I$97</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000;\-0.00000;0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5.0578709999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0650142000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0024763E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.8973602999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.8051199000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.7488384000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.6165507000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>4.2779603999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-2E44-45D2-9146-BF0AE582A354}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="14"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Demographics!$A$98</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>70 - 74</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Demographics!$B$98:$I$98</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000;\-0.00000;0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>7.7074561999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.7622102999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.7095495999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.5980821000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.5089041999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.4689679999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.3117043000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>6.8473476000000005E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-2E44-45D2-9146-BF0AE582A354}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="15"/>
+          <c:order val="15"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Demographics!$A$99</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>75 - 79</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Demographics!$B$99:$I$99</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000;\-0.00000;0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.11904474</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12073808</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1207081</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1198779</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.11948436</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.11979376999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.11823134</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>0.11201527999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000F-2E44-45D2-9146-BF0AE582A354}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1038266752"/>
+        <c:axId val="1038256352"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1038266752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1038256352"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1038256352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00000;\-0.00000;0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1038266752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -4033,6 +5700,46 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5560,6 +7267,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -5651,6 +7861,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>857250</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5925,49 +8165,53 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AF245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A244" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K222" sqref="K222"/>
+    <sheetView tabSelected="1" topLeftCell="F78" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O104" sqref="O104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.453125" customWidth="1"/>
-    <col min="2" max="2" width="14.453125" customWidth="1"/>
-    <col min="3" max="3" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.26953125" customWidth="1"/>
-    <col min="5" max="5" width="16.54296875" customWidth="1"/>
-    <col min="6" max="6" width="16.81640625" customWidth="1"/>
-    <col min="7" max="7" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.81640625" customWidth="1"/>
-    <col min="10" max="10" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" customWidth="1"/>
     <col min="14" max="14" width="25" customWidth="1"/>
-    <col min="16" max="16" width="17.7265625" customWidth="1"/>
-    <col min="17" max="17" width="19.81640625" customWidth="1"/>
-    <col min="18" max="18" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.81640625" customWidth="1"/>
-    <col min="21" max="21" width="15.453125" customWidth="1"/>
-    <col min="22" max="22" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.1796875" customWidth="1"/>
-    <col min="26" max="26" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.26953125" customWidth="1"/>
-    <col min="28" max="29" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.81640625" customWidth="1"/>
-    <col min="31" max="31" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.1796875" customWidth="1"/>
-    <col min="33" max="33" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="37" max="38" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="15.81640625" customWidth="1"/>
+    <col min="15" max="15" width="11.85546875" customWidth="1"/>
+    <col min="16" max="16" width="17.7109375" customWidth="1"/>
+    <col min="17" max="17" width="19.85546875" customWidth="1"/>
+    <col min="18" max="18" width="15" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.85546875" customWidth="1"/>
+    <col min="21" max="21" width="15.42578125" customWidth="1"/>
+    <col min="22" max="22" width="16" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.85546875" customWidth="1"/>
+    <col min="24" max="24" width="13.28515625" customWidth="1"/>
+    <col min="25" max="25" width="14.140625" customWidth="1"/>
+    <col min="26" max="26" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.28515625" customWidth="1"/>
+    <col min="28" max="29" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.85546875" customWidth="1"/>
+    <col min="31" max="31" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.140625" customWidth="1"/>
+    <col min="33" max="33" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="37" max="38" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B1" s="37"/>
       <c r="C1" s="37"/>
@@ -5994,17 +8238,17 @@
       <c r="X1" s="37"/>
       <c r="Y1" s="37"/>
     </row>
-    <row r="2" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="104" t="s">
+    <row r="2" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="78" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="104"/>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="104"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
       <c r="I2" s="37"/>
       <c r="J2" s="37"/>
       <c r="K2" s="37"/>
@@ -6023,7 +8267,7 @@
       <c r="X2" s="37"/>
       <c r="Y2" s="37"/>
     </row>
-    <row r="3" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="38" t="s">
         <v>79</v>
       </c>
@@ -6052,44 +8296,44 @@
       <c r="X3" s="37"/>
       <c r="Y3" s="37"/>
     </row>
-    <row r="4" spans="1:25" s="39" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="65" t="s">
+    <row r="4" spans="1:25" s="39" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="96" t="s">
+      <c r="B4" s="90" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="97"/>
-      <c r="D4" s="96" t="s">
+      <c r="C4" s="91"/>
+      <c r="D4" s="90" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="97"/>
-    </row>
-    <row r="5" spans="1:25" ht="15" x14ac:dyDescent="0.35">
+      <c r="E4" s="91"/>
+    </row>
+    <row r="5" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
-      <c r="B5" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="65" t="s">
+      <c r="B5" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="65" t="s">
+      <c r="D5" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="55" t="s">
         <v>1</v>
       </c>
       <c r="F5" s="25"/>
       <c r="G5" s="39"/>
     </row>
-    <row r="6" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="64">
+      <c r="B6" s="54">
         <v>116.45919703766501</v>
       </c>
-      <c r="C6" s="64">
+      <c r="C6" s="54">
         <v>156.85219677743601</v>
       </c>
       <c r="D6" s="51">
@@ -6100,19 +8344,19 @@
         <f>C6*1000</f>
         <v>156852.19677743601</v>
       </c>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
       <c r="H6" s="39"/>
       <c r="I6" s="39"/>
     </row>
-    <row r="7" spans="1:25" ht="33.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:25" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="64">
+      <c r="B7" s="54">
         <v>76.187743222862409</v>
       </c>
-      <c r="C7" s="64">
+      <c r="C7" s="54">
         <v>102.61289100384487</v>
       </c>
       <c r="D7" s="51">
@@ -6123,19 +8367,19 @@
         <f t="shared" ref="E7:E21" si="1">C7*1000</f>
         <v>102612.89100384487</v>
       </c>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
       <c r="H7" s="39"/>
       <c r="I7" s="39"/>
     </row>
-    <row r="8" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="64">
+      <c r="B8" s="54">
         <v>75.385542052984889</v>
       </c>
-      <c r="C8" s="64">
+      <c r="C8" s="54">
         <v>87.786369045850634</v>
       </c>
       <c r="D8" s="51">
@@ -6146,19 +8390,19 @@
         <f t="shared" si="1"/>
         <v>87786.369045850632</v>
       </c>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
       <c r="H8" s="39"/>
       <c r="I8" s="39"/>
     </row>
-    <row r="9" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="64">
+      <c r="B9" s="54">
         <v>71.896515135187158</v>
       </c>
-      <c r="C9" s="64">
+      <c r="C9" s="54">
         <v>63.757104105268432</v>
       </c>
       <c r="D9" s="51">
@@ -6169,19 +8413,19 @@
         <f t="shared" si="1"/>
         <v>63757.10410526843</v>
       </c>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
       <c r="H9" s="39"/>
       <c r="I9" s="39"/>
     </row>
-    <row r="10" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="64">
+      <c r="B10" s="54">
         <v>51.997757864486189</v>
       </c>
-      <c r="C10" s="64">
+      <c r="C10" s="54">
         <v>51.450259534369195</v>
       </c>
       <c r="D10" s="51">
@@ -6192,19 +8436,19 @@
         <f t="shared" si="1"/>
         <v>51450.259534369194</v>
       </c>
-      <c r="F10" s="66"/>
-      <c r="G10" s="66"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
       <c r="H10" s="39"/>
       <c r="I10" s="39"/>
     </row>
-    <row r="11" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="64">
+      <c r="B11" s="54">
         <v>46.60176948050119</v>
       </c>
-      <c r="C11" s="64">
+      <c r="C11" s="54">
         <v>43.513908158546549</v>
       </c>
       <c r="D11" s="51">
@@ -6215,19 +8459,19 @@
         <f t="shared" si="1"/>
         <v>43513.908158546546</v>
       </c>
-      <c r="F11" s="66"/>
-      <c r="G11" s="66"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
       <c r="H11" s="39"/>
       <c r="I11" s="39"/>
     </row>
-    <row r="12" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="64">
+      <c r="B12" s="54">
         <v>38.908922911901001</v>
       </c>
-      <c r="C12" s="64">
+      <c r="C12" s="54">
         <v>53.232318780424968</v>
       </c>
       <c r="D12" s="51">
@@ -6238,19 +8482,19 @@
         <f t="shared" si="1"/>
         <v>53232.318780424968</v>
       </c>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
       <c r="H12" s="39"/>
       <c r="I12" s="39"/>
     </row>
-    <row r="13" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="64">
+      <c r="B13" s="54">
         <v>32.485982807963815</v>
       </c>
-      <c r="C13" s="64">
+      <c r="C13" s="54">
         <v>31.805477141060052</v>
       </c>
       <c r="D13" s="51">
@@ -6261,19 +8505,19 @@
         <f t="shared" si="1"/>
         <v>31805.477141060052</v>
       </c>
-      <c r="F13" s="66"/>
-      <c r="G13" s="66"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
       <c r="H13" s="39"/>
       <c r="I13" s="39"/>
     </row>
-    <row r="14" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="64">
+      <c r="B14" s="54">
         <v>48.105368931368112</v>
       </c>
-      <c r="C14" s="64">
+      <c r="C14" s="54">
         <v>43.876145321947618</v>
       </c>
       <c r="D14" s="51">
@@ -6284,19 +8528,19 @@
         <f t="shared" si="1"/>
         <v>43876.145321947617</v>
       </c>
-      <c r="F14" s="66"/>
-      <c r="G14" s="66"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
       <c r="H14" s="39"/>
       <c r="I14" s="39"/>
     </row>
-    <row r="15" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="64">
+      <c r="B15" s="54">
         <v>27.123317738423211</v>
       </c>
-      <c r="C15" s="64">
+      <c r="C15" s="54">
         <v>29.945252135950131</v>
       </c>
       <c r="D15" s="51">
@@ -6307,19 +8551,19 @@
         <f t="shared" si="1"/>
         <v>29945.25213595013</v>
       </c>
-      <c r="F15" s="66"/>
-      <c r="G15" s="66"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="56"/>
       <c r="H15" s="39"/>
       <c r="I15" s="39"/>
     </row>
-    <row r="16" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="64">
+      <c r="B16" s="54">
         <v>26.837729055778073</v>
       </c>
-      <c r="C16" s="64">
+      <c r="C16" s="54">
         <v>18.123756746459325</v>
       </c>
       <c r="D16" s="51">
@@ -6330,19 +8574,19 @@
         <f t="shared" si="1"/>
         <v>18123.756746459323</v>
       </c>
-      <c r="F16" s="66"/>
-      <c r="G16" s="66"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
       <c r="H16" s="39"/>
       <c r="I16" s="39"/>
     </row>
-    <row r="17" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="64">
+      <c r="B17" s="54">
         <v>18.123756746459325</v>
       </c>
-      <c r="C17" s="64">
+      <c r="C17" s="54">
         <v>22.803929628009573</v>
       </c>
       <c r="D17" s="51">
@@ -6353,19 +8597,19 @@
         <f t="shared" si="1"/>
         <v>22803.929628009573</v>
       </c>
-      <c r="F17" s="66"/>
-      <c r="G17" s="66"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
       <c r="H17" s="39"/>
       <c r="I17" s="39"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="64">
+      <c r="B18" s="54">
         <v>13.980530844150357</v>
       </c>
-      <c r="C18" s="64">
+      <c r="C18" s="54">
         <v>19.286357512430385</v>
       </c>
       <c r="D18" s="51">
@@ -6376,19 +8620,19 @@
         <f t="shared" si="1"/>
         <v>19286.357512430386</v>
       </c>
-      <c r="F18" s="66"/>
-      <c r="G18" s="66"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
       <c r="H18" s="39"/>
       <c r="I18" s="39"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="64">
+      <c r="B19" s="54">
         <v>8.1781693204119676</v>
       </c>
-      <c r="C19" s="64">
+      <c r="C19" s="54">
         <v>13.333477747336939</v>
       </c>
       <c r="D19" s="51">
@@ -6399,19 +8643,19 @@
         <f t="shared" si="1"/>
         <v>13333.47774733694</v>
       </c>
-      <c r="F19" s="66"/>
-      <c r="G19" s="66"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="56"/>
       <c r="H19" s="39"/>
       <c r="I19" s="39"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="64">
+      <c r="B20" s="54">
         <v>6.7562521870106114</v>
       </c>
-      <c r="C20" s="64">
+      <c r="C20" s="54">
         <v>8.591408456529452</v>
       </c>
       <c r="D20" s="51">
@@ -6422,19 +8666,19 @@
         <f t="shared" si="1"/>
         <v>8591.4084565294525</v>
       </c>
-      <c r="F20" s="66"/>
-      <c r="G20" s="66"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
       <c r="H20" s="39"/>
       <c r="I20" s="39"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="64">
+      <c r="B21" s="54">
         <v>4.250473607017895</v>
       </c>
-      <c r="C21" s="64">
+      <c r="C21" s="54">
         <v>3.0486932223679761</v>
       </c>
       <c r="D21" s="51">
@@ -6445,12 +8689,12 @@
         <f t="shared" si="1"/>
         <v>3048.693222367976</v>
       </c>
-      <c r="F21" s="66"/>
-      <c r="G21" s="66"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
       <c r="H21" s="39"/>
       <c r="I21" s="39"/>
     </row>
-    <row r="22" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
         <v>23</v>
       </c>
@@ -6470,33 +8714,33 @@
         <f>SUM(E6:E21)</f>
         <v>750019.54531783226</v>
       </c>
-      <c r="F22" s="67">
+      <c r="F22" s="57">
         <f>D22+E22</f>
         <v>1413298.5742620034</v>
       </c>
       <c r="G22" s="25"/>
       <c r="X22" s="13"/>
     </row>
-    <row r="23" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="18"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="F26" s="31"/>
     </row>
-    <row r="27" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="96" t="s">
+      <c r="B27" s="90" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="97"/>
-    </row>
-    <row r="28" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="C27" s="91"/>
+    </row>
+    <row r="28" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
       <c r="B28" s="33" t="s">
         <v>0</v>
@@ -6506,11 +8750,11 @@
       </c>
       <c r="F28" s="15"/>
     </row>
-    <row r="29" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B29" s="68">
+      <c r="B29" s="58">
         <f>(-1)*D6</f>
         <v>-116459.19703766501</v>
       </c>
@@ -6519,11 +8763,11 @@
         <v>156852.19677743601</v>
       </c>
     </row>
-    <row r="30" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="68">
+      <c r="B30" s="58">
         <f t="shared" ref="B30:B44" si="2">(-1)*D7</f>
         <v>-76187.743222862409</v>
       </c>
@@ -6532,11 +8776,11 @@
         <v>102612.89100384487</v>
       </c>
     </row>
-    <row r="31" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B31" s="68">
+      <c r="B31" s="58">
         <f t="shared" si="2"/>
         <v>-75385.542052984893</v>
       </c>
@@ -6546,11 +8790,11 @@
       </c>
       <c r="L31" s="8"/>
     </row>
-    <row r="32" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B32" s="68">
+      <c r="B32" s="58">
         <f t="shared" si="2"/>
         <v>-71896.515135187161</v>
       </c>
@@ -6559,11 +8803,11 @@
         <v>63757.10410526843</v>
       </c>
     </row>
-    <row r="33" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B33" s="68">
+      <c r="B33" s="58">
         <f t="shared" si="2"/>
         <v>-51997.757864486186</v>
       </c>
@@ -6572,11 +8816,11 @@
         <v>51450.259534369194</v>
       </c>
     </row>
-    <row r="34" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="68">
+      <c r="B34" s="58">
         <f t="shared" si="2"/>
         <v>-46601.769480501192</v>
       </c>
@@ -6585,11 +8829,11 @@
         <v>43513.908158546546</v>
       </c>
     </row>
-    <row r="35" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="68">
+      <c r="B35" s="58">
         <f t="shared" si="2"/>
         <v>-38908.922911900998</v>
       </c>
@@ -6598,11 +8842,11 @@
         <v>53232.318780424968</v>
       </c>
     </row>
-    <row r="36" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="68">
+      <c r="B36" s="58">
         <f t="shared" si="2"/>
         <v>-32485.982807963814</v>
       </c>
@@ -6620,11 +8864,11 @@
       <c r="AE36" s="6"/>
       <c r="AF36" s="13"/>
     </row>
-    <row r="37" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B37" s="68">
+      <c r="B37" s="58">
         <f t="shared" si="2"/>
         <v>-48105.36893136811</v>
       </c>
@@ -6641,11 +8885,11 @@
       <c r="AD37" s="14"/>
       <c r="AE37" s="14"/>
     </row>
-    <row r="38" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B38" s="68">
+      <c r="B38" s="58">
         <f t="shared" si="2"/>
         <v>-27123.317738423211</v>
       </c>
@@ -6662,11 +8906,11 @@
       <c r="AD38" s="22"/>
       <c r="AE38" s="22"/>
     </row>
-    <row r="39" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B39" s="68">
+      <c r="B39" s="58">
         <f t="shared" si="2"/>
         <v>-26837.729055778073</v>
       </c>
@@ -6683,11 +8927,11 @@
       <c r="AD39" s="23"/>
       <c r="AE39" s="23"/>
     </row>
-    <row r="40" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B40" s="68">
+      <c r="B40" s="58">
         <f t="shared" si="2"/>
         <v>-18123.756746459323</v>
       </c>
@@ -6704,11 +8948,11 @@
       <c r="AD40" s="23"/>
       <c r="AE40" s="23"/>
     </row>
-    <row r="41" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="B41" s="68">
+      <c r="B41" s="58">
         <f t="shared" si="2"/>
         <v>-13980.530844150357</v>
       </c>
@@ -6725,11 +8969,11 @@
       <c r="AD41" s="23"/>
       <c r="AE41" s="23"/>
     </row>
-    <row r="42" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="B42" s="68">
+      <c r="B42" s="58">
         <f t="shared" si="2"/>
         <v>-8178.1693204119674</v>
       </c>
@@ -6746,11 +8990,11 @@
       <c r="AD42" s="24"/>
       <c r="AE42" s="24"/>
     </row>
-    <row r="43" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B43" s="68">
+      <c r="B43" s="58">
         <f t="shared" si="2"/>
         <v>-6756.2521870106111</v>
       </c>
@@ -6767,11 +9011,11 @@
       <c r="AD43" s="24"/>
       <c r="AE43" s="24"/>
     </row>
-    <row r="44" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B44" s="68">
+      <c r="B44" s="58">
         <f t="shared" si="2"/>
         <v>-4250.4736070178951</v>
       </c>
@@ -6788,7 +9032,7 @@
       <c r="AD44" s="24"/>
       <c r="AE44" s="24"/>
     </row>
-    <row r="45" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="X45" s="24"/>
       <c r="Y45" s="24"/>
       <c r="Z45" s="24"/>
@@ -6798,7 +9042,7 @@
       <c r="AD45" s="24"/>
       <c r="AE45" s="24"/>
     </row>
-    <row r="46" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="X46" s="24"/>
       <c r="Y46" s="24"/>
       <c r="Z46" s="24"/>
@@ -6808,7 +9052,7 @@
       <c r="AD46" s="24"/>
       <c r="AE46" s="24"/>
     </row>
-    <row r="47" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="X47" s="24"/>
       <c r="Y47" s="24"/>
       <c r="Z47" s="24"/>
@@ -6818,7 +9062,7 @@
       <c r="AD47" s="24"/>
       <c r="AE47" s="24"/>
     </row>
-    <row r="48" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="X48" s="24"/>
       <c r="Y48" s="24"/>
       <c r="Z48" s="24"/>
@@ -6828,7 +9072,7 @@
       <c r="AD48" s="24"/>
       <c r="AE48" s="24"/>
     </row>
-    <row r="49" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="X49" s="24"/>
       <c r="Y49" s="24"/>
       <c r="Z49" s="24"/>
@@ -6838,9 +9082,9 @@
       <c r="AD49" s="24"/>
       <c r="AE49" s="24"/>
     </row>
-    <row r="50" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="36" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B50" s="37"/>
       <c r="C50" s="37"/>
@@ -6873,7 +9117,7 @@
       <c r="AD50" s="24"/>
       <c r="AE50" s="24"/>
     </row>
-    <row r="51" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="38" t="s">
         <v>58</v>
       </c>
@@ -6908,20 +9152,20 @@
       <c r="AD51" s="24"/>
       <c r="AE51" s="24"/>
     </row>
-    <row r="52" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A52" s="115" t="s">
+    <row r="52" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="B52" s="115" t="s">
+      <c r="B52" s="92" t="s">
         <v>56</v>
       </c>
-      <c r="C52" s="115"/>
-      <c r="D52" s="115"/>
-      <c r="E52" s="115" t="s">
+      <c r="C52" s="92"/>
+      <c r="D52" s="92"/>
+      <c r="E52" s="92" t="s">
         <v>57</v>
       </c>
-      <c r="F52" s="115"/>
-      <c r="G52" s="115"/>
+      <c r="F52" s="92"/>
+      <c r="G52" s="92"/>
       <c r="X52" s="22"/>
       <c r="Y52" s="22"/>
       <c r="Z52" s="22"/>
@@ -6931,8 +9175,8 @@
       <c r="AD52" s="22"/>
       <c r="AE52" s="22"/>
     </row>
-    <row r="53" spans="1:31" ht="15" x14ac:dyDescent="0.35">
-      <c r="A53" s="115"/>
+    <row r="53" spans="1:31" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A53" s="92"/>
       <c r="B53" s="33" t="s">
         <v>3</v>
       </c>
@@ -6960,7 +9204,7 @@
       <c r="AD53" s="25"/>
       <c r="AE53" s="25"/>
     </row>
-    <row r="54" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>6</v>
       </c>
@@ -6984,7 +9228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>9</v>
       </c>
@@ -7008,7 +9252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>12</v>
       </c>
@@ -7033,7 +9277,7 @@
         <v>5.0000000000000183E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>13</v>
       </c>
@@ -7056,7 +9300,7 @@
         <v>2.4213075060532689E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>14</v>
       </c>
@@ -7079,7 +9323,7 @@
         <v>1.6393442622950817E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:31" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>15</v>
       </c>
@@ -7103,7 +9347,7 @@
       </c>
       <c r="O59" s="12"/>
     </row>
-    <row r="60" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>18</v>
       </c>
@@ -7127,7 +9371,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>17</v>
       </c>
@@ -7150,7 +9394,7 @@
         <v>1.1547344110854503E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>19</v>
       </c>
@@ -7175,7 +9419,7 @@
         <v>9.9999999999988987E-5</v>
       </c>
     </row>
-    <row r="63" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>20</v>
       </c>
@@ -7199,7 +9443,7 @@
         <v>1.4367816091954023E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>21</v>
       </c>
@@ -7223,7 +9467,7 @@
         <v>1.4367816091954023E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>22</v>
       </c>
@@ -7247,7 +9491,7 @@
         <v>1.4367816091954023E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="16" t="s">
         <v>42</v>
       </c>
@@ -7271,7 +9515,7 @@
         <v>1.4367816091954023E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="16" t="s">
         <v>43</v>
       </c>
@@ -7295,7 +9539,7 @@
         <v>1.4367816091954023E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="16" t="s">
         <v>44</v>
       </c>
@@ -7319,7 +9563,7 @@
         <v>1.4367816091954023E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="16" t="s">
         <v>45</v>
       </c>
@@ -7343,7 +9587,7 @@
         <v>1.4367816091954023E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A71" s="31" t="s">
         <v>52</v>
       </c>
@@ -7372,7 +9616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A72" s="31" t="s">
         <v>53</v>
       </c>
@@ -7381,7 +9625,7 @@
         <v>0.83084071366534329</v>
       </c>
     </row>
-    <row r="78" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="36" t="s">
         <v>59</v>
       </c>
@@ -7409,7 +9653,7 @@
       <c r="W78" s="37"/>
       <c r="X78" s="37"/>
     </row>
-    <row r="79" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="38" t="s">
         <v>80</v>
       </c>
@@ -7437,9 +9681,9 @@
       <c r="W79" s="37"/>
       <c r="X79" s="37"/>
     </row>
-    <row r="80" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="36" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="B80" s="37"/>
       <c r="C80" s="37"/>
@@ -7465,358 +9709,1361 @@
       <c r="W80" s="37"/>
       <c r="X80" s="37"/>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A81" s="112" t="s">
+    <row r="81" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="101" t="s">
         <v>2</v>
       </c>
       <c r="B81" s="94" t="s">
+        <v>81</v>
+      </c>
+      <c r="C81" s="94"/>
+      <c r="D81" s="94"/>
+      <c r="E81" s="94"/>
+      <c r="F81" s="94"/>
+      <c r="G81" s="94"/>
+      <c r="H81" s="94"/>
+      <c r="I81" s="94"/>
+      <c r="J81" s="35"/>
+      <c r="K81" s="101" t="s">
+        <v>2</v>
+      </c>
+      <c r="L81" s="94" t="s">
         <v>82</v>
       </c>
-      <c r="C81" s="94" t="s">
+      <c r="M81" s="94"/>
+      <c r="N81" s="94"/>
+      <c r="O81" s="94"/>
+      <c r="P81" s="94"/>
+      <c r="Q81" s="94"/>
+      <c r="R81" s="94"/>
+      <c r="S81" s="94"/>
+      <c r="T81" s="35"/>
+      <c r="U81" s="105" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A82" s="113"/>
-      <c r="B82" s="95"/>
-      <c r="C82" s="95"/>
-      <c r="E82" t="s">
+      <c r="V81" s="105"/>
+      <c r="W81" s="105"/>
+      <c r="X81" s="105"/>
+      <c r="Y81" s="105"/>
+      <c r="Z81" s="105"/>
+      <c r="AA81" s="105"/>
+      <c r="AB81" s="105"/>
+      <c r="AC81" s="105"/>
+    </row>
+    <row r="82" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="102"/>
+      <c r="B82" s="94"/>
+      <c r="C82" s="94"/>
+      <c r="D82" s="94"/>
+      <c r="E82" s="94"/>
+      <c r="F82" s="94"/>
+      <c r="G82" s="94"/>
+      <c r="H82" s="94"/>
+      <c r="I82" s="94"/>
+      <c r="J82" s="35"/>
+      <c r="K82" s="102"/>
+      <c r="L82" s="94"/>
+      <c r="M82" s="94"/>
+      <c r="N82" s="94"/>
+      <c r="O82" s="94"/>
+      <c r="P82" s="94"/>
+      <c r="Q82" s="94"/>
+      <c r="R82" s="94"/>
+      <c r="S82" s="94"/>
+      <c r="T82" s="35"/>
+      <c r="U82" s="105" t="s">
+        <v>2</v>
+      </c>
+      <c r="V82" s="115" t="s">
+        <v>74</v>
+      </c>
+      <c r="W82" s="116"/>
+      <c r="X82" s="116"/>
+      <c r="Y82" s="116"/>
+      <c r="Z82" s="116"/>
+      <c r="AA82" s="116"/>
+      <c r="AB82" s="116"/>
+      <c r="AC82" s="117"/>
+    </row>
+    <row r="83" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="103"/>
+      <c r="B83" s="106" t="s">
+        <v>98</v>
+      </c>
+      <c r="C83" s="106" t="s">
+        <v>99</v>
+      </c>
+      <c r="D83" s="106" t="s">
+        <v>100</v>
+      </c>
+      <c r="E83" s="106" t="s">
+        <v>101</v>
+      </c>
+      <c r="F83" s="118" t="s">
+        <v>105</v>
+      </c>
+      <c r="G83" s="106" t="s">
+        <v>102</v>
+      </c>
+      <c r="H83" s="106" t="s">
+        <v>104</v>
+      </c>
+      <c r="I83" s="106" t="s">
+        <v>103</v>
+      </c>
+      <c r="J83" s="35"/>
+      <c r="K83" s="103"/>
+      <c r="L83" s="106" t="s">
+        <v>98</v>
+      </c>
+      <c r="M83" s="106" t="s">
+        <v>99</v>
+      </c>
+      <c r="N83" s="106" t="s">
+        <v>100</v>
+      </c>
+      <c r="O83" s="106" t="s">
+        <v>101</v>
+      </c>
+      <c r="P83" s="107" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q83" s="106" t="s">
+        <v>102</v>
+      </c>
+      <c r="R83" s="106" t="s">
+        <v>104</v>
+      </c>
+      <c r="S83" s="106" t="s">
+        <v>103</v>
+      </c>
+      <c r="T83" s="35"/>
+      <c r="U83" s="105"/>
+      <c r="V83" s="106" t="s">
+        <v>98</v>
+      </c>
+      <c r="W83" s="106" t="s">
+        <v>99</v>
+      </c>
+      <c r="X83" s="106" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y83" s="106" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z83" s="107" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA83" s="106" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB83" s="106" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC83" s="106" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="84" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A84" s="77" t="s">
+        <v>6</v>
+      </c>
+      <c r="B84" s="109">
+        <f>SUM(V84:V85)</f>
+        <v>0.19005920400000001</v>
+      </c>
+      <c r="C84" s="108">
+        <f t="shared" ref="C84:I84" si="7">SUM(W84:W85)</f>
+        <v>0.16702423499999999</v>
+      </c>
+      <c r="D84" s="108">
+        <f t="shared" si="7"/>
+        <v>0.15232399099999999</v>
+      </c>
+      <c r="E84" s="108">
+        <f t="shared" si="7"/>
+        <v>0.137224824</v>
+      </c>
+      <c r="F84" s="108">
+        <f t="shared" si="7"/>
+        <v>0.115676261</v>
+      </c>
+      <c r="G84" s="108">
+        <f t="shared" si="7"/>
+        <v>9.0002309699999991E-2</v>
+      </c>
+      <c r="H84" s="108">
+        <f t="shared" si="7"/>
+        <v>7.0407469099999995E-2</v>
+      </c>
+      <c r="I84" s="109">
+        <f t="shared" si="7"/>
+        <v>5.6975585300000006E-2</v>
+      </c>
+      <c r="J84" s="35"/>
+      <c r="K84" s="77" t="s">
+        <v>6</v>
+      </c>
+      <c r="L84" s="109">
+        <f>SUM(V89:V90)</f>
+        <v>0.16283755500000002</v>
+      </c>
+      <c r="M84" s="108">
+        <f>SUM(W89:W90)</f>
+        <v>0.143554814</v>
+      </c>
+      <c r="N84" s="108">
+        <f>SUM(X89:X90)</f>
+        <v>0.131042716</v>
+      </c>
+      <c r="O84" s="108">
+        <f>SUM(Y89:Y90)</f>
+        <v>0.11815073600000001</v>
+      </c>
+      <c r="P84" s="108">
+        <f>SUM(Z89:Z90)</f>
+        <v>9.9835274000000002E-2</v>
+      </c>
+      <c r="Q84" s="108">
+        <f>SUM(AA89:AA90)</f>
+        <v>7.7719069000000002E-2</v>
+      </c>
+      <c r="R84" s="108">
+        <f>SUM(AB89:AB90)</f>
+        <v>5.96665085E-2</v>
+      </c>
+      <c r="S84" s="109">
+        <f>SUM(AC89:AC90)</f>
+        <v>4.7441704699999997E-2</v>
+      </c>
+      <c r="T84" s="35"/>
+      <c r="U84" s="110">
+        <v>0</v>
+      </c>
+      <c r="V84" s="111">
+        <v>0.15925727000000001</v>
+      </c>
+      <c r="W84" s="111">
+        <v>0.14222435</v>
+      </c>
+      <c r="X84" s="111">
+        <v>0.13109251</v>
+      </c>
+      <c r="Y84" s="111">
+        <v>0.11936734</v>
+      </c>
+      <c r="Z84" s="111">
+        <v>0.10190435</v>
+      </c>
+      <c r="AA84" s="111">
+        <v>8.0275031999999996E-2</v>
+      </c>
+      <c r="AB84" s="111">
+        <v>6.3396686999999993E-2</v>
+      </c>
+      <c r="AC84" s="112">
+        <v>5.1751479000000003E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A85" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="B85" s="119">
+        <v>8.6783771000000006E-3</v>
+      </c>
+      <c r="C85" s="111">
+        <v>7.2583379999999996E-3</v>
+      </c>
+      <c r="D85" s="111">
+        <v>6.3381319000000002E-3</v>
+      </c>
+      <c r="E85" s="111">
+        <v>5.4525481999999998E-3</v>
+      </c>
+      <c r="F85" s="111">
+        <v>4.5081523000000002E-3</v>
+      </c>
+      <c r="G85" s="111">
+        <v>3.6766398E-3</v>
+      </c>
+      <c r="H85" s="111">
+        <v>3.0634688E-3</v>
+      </c>
+      <c r="I85" s="59">
+        <v>2.4750038999999998E-3</v>
+      </c>
+      <c r="J85" s="35"/>
+      <c r="K85" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="L85" s="119">
+        <v>7.4032815999999996E-3</v>
+      </c>
+      <c r="M85" s="111">
+        <v>6.0150315999999999E-3</v>
+      </c>
+      <c r="N85" s="111">
+        <v>5.2116343000000002E-3</v>
+      </c>
+      <c r="O85" s="111">
+        <v>4.4708409999999997E-3</v>
+      </c>
+      <c r="P85" s="111">
+        <v>3.6394486000000002E-3</v>
+      </c>
+      <c r="Q85" s="111">
+        <v>2.8782094000000002E-3</v>
+      </c>
+      <c r="R85" s="111">
+        <v>2.3506893000000001E-3</v>
+      </c>
+      <c r="S85" s="59">
+        <v>1.8590649E-3</v>
+      </c>
+      <c r="T85" s="35"/>
+      <c r="U85" s="113" t="s">
         <v>84</v>
       </c>
-      <c r="I82" s="55"/>
-    </row>
-    <row r="83" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A83" s="114"/>
-      <c r="B83" s="95"/>
-      <c r="C83" s="95"/>
-      <c r="E83" s="9"/>
-      <c r="F83" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="G83" s="9" t="s">
+      <c r="V85" s="111">
+        <v>3.0801934E-2</v>
+      </c>
+      <c r="W85" s="111">
+        <v>2.4799885000000001E-2</v>
+      </c>
+      <c r="X85" s="111">
+        <v>2.1231481E-2</v>
+      </c>
+      <c r="Y85" s="111">
+        <v>1.7857484E-2</v>
+      </c>
+      <c r="Z85" s="111">
+        <v>1.3771911E-2</v>
+      </c>
+      <c r="AA85" s="111">
+        <v>9.7272777000000001E-3</v>
+      </c>
+      <c r="AB85" s="111">
+        <v>7.0107820999999997E-3</v>
+      </c>
+      <c r="AC85" s="112">
+        <v>5.2241062999999997E-3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A86" s="77" t="s">
+        <v>12</v>
+      </c>
+      <c r="B86" s="119">
+        <v>4.7901753000000004E-3</v>
+      </c>
+      <c r="C86" s="111">
+        <v>4.1213899000000003E-3</v>
+      </c>
+      <c r="D86" s="111">
+        <v>3.6590022999999998E-3</v>
+      </c>
+      <c r="E86" s="111">
+        <v>3.198991E-3</v>
+      </c>
+      <c r="F86" s="111">
+        <v>2.7091355999999999E-3</v>
+      </c>
+      <c r="G86" s="111">
+        <v>2.2757054E-3</v>
+      </c>
+      <c r="H86" s="111">
+        <v>1.9361118E-3</v>
+      </c>
+      <c r="I86" s="59">
+        <v>1.5814690000000001E-3</v>
+      </c>
+      <c r="J86" s="35"/>
+      <c r="K86" s="77" t="s">
+        <v>12</v>
+      </c>
+      <c r="L86" s="119">
+        <v>4.3711651000000002E-3</v>
+      </c>
+      <c r="M86" s="111">
+        <v>3.6299777000000002E-3</v>
+      </c>
+      <c r="N86" s="111">
+        <v>3.1849489999999999E-3</v>
+      </c>
+      <c r="O86" s="111">
+        <v>2.765787E-3</v>
+      </c>
+      <c r="P86" s="111">
+        <v>2.2931724000000001E-3</v>
+      </c>
+      <c r="Q86" s="111">
+        <v>1.8562381000000001E-3</v>
+      </c>
+      <c r="R86" s="111">
+        <v>1.5421367E-3</v>
+      </c>
+      <c r="S86" s="59">
+        <v>1.2227608999999999E-3</v>
+      </c>
+      <c r="T86" s="35"/>
+      <c r="U86" s="35"/>
+      <c r="V86" s="35"/>
+      <c r="W86" s="35"/>
+      <c r="X86" s="35"/>
+      <c r="Y86" s="35"/>
+      <c r="Z86" s="35"/>
+      <c r="AA86" s="35"/>
+      <c r="AB86" s="35"/>
+      <c r="AC86" s="35"/>
+    </row>
+    <row r="87" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A87" s="77" t="s">
+        <v>13</v>
+      </c>
+      <c r="B87" s="119">
+        <v>5.9821824000000001E-3</v>
+      </c>
+      <c r="C87" s="111">
+        <v>5.3382910000000002E-3</v>
+      </c>
+      <c r="D87" s="111">
+        <v>4.8685472E-3</v>
+      </c>
+      <c r="E87" s="111">
+        <v>4.3821110000000002E-3</v>
+      </c>
+      <c r="F87" s="111">
+        <v>3.8498661E-3</v>
+      </c>
+      <c r="G87" s="111">
+        <v>3.3638228000000001E-3</v>
+      </c>
+      <c r="H87" s="111">
+        <v>2.9596564999999999E-3</v>
+      </c>
+      <c r="I87" s="59">
+        <v>2.5001934000000001E-3</v>
+      </c>
+      <c r="J87" s="35"/>
+      <c r="K87" s="77" t="s">
+        <v>13</v>
+      </c>
+      <c r="L87" s="119">
+        <v>4.8596317000000003E-3</v>
+      </c>
+      <c r="M87" s="111">
+        <v>4.1952435000000001E-3</v>
+      </c>
+      <c r="N87" s="111">
+        <v>3.7691500999999998E-3</v>
+      </c>
+      <c r="O87" s="111">
+        <v>3.3518339000000001E-3</v>
+      </c>
+      <c r="P87" s="111">
+        <v>2.8752540999999999E-3</v>
+      </c>
+      <c r="Q87" s="111">
+        <v>2.4258770999999999E-3</v>
+      </c>
+      <c r="R87" s="111">
+        <v>2.0807315999999999E-3</v>
+      </c>
+      <c r="S87" s="59">
+        <v>1.6750273E-3</v>
+      </c>
+      <c r="T87" s="35"/>
+      <c r="U87" s="105" t="s">
+        <v>2</v>
+      </c>
+      <c r="V87" s="105" t="s">
         <v>75</v>
       </c>
-      <c r="H83" s="53"/>
-      <c r="I83" s="57"/>
-      <c r="J83" s="57"/>
-      <c r="K83" s="63"/>
-      <c r="L83" s="63"/>
-      <c r="O83" s="58"/>
-      <c r="P83" s="58"/>
-    </row>
-    <row r="84" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A84" s="69" t="s">
-        <v>6</v>
-      </c>
-      <c r="B84" s="71">
-        <f>SUM(F84:F85)</f>
-        <v>5.6975585300000006E-2</v>
-      </c>
-      <c r="C84" s="71">
-        <f>SUM(G84:G85)</f>
-        <v>4.7441704699999997E-2</v>
-      </c>
-      <c r="E84" s="73">
-        <v>0</v>
-      </c>
-      <c r="F84" s="74">
-        <v>5.1751479000000003E-2</v>
-      </c>
-      <c r="G84" s="74">
+      <c r="W87" s="105"/>
+      <c r="X87" s="105"/>
+      <c r="Y87" s="105"/>
+      <c r="Z87" s="105"/>
+      <c r="AA87" s="105"/>
+      <c r="AB87" s="105"/>
+      <c r="AC87" s="105"/>
+    </row>
+    <row r="88" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A88" s="77" t="s">
+        <v>14</v>
+      </c>
+      <c r="B88" s="119">
+        <v>8.4956649999999995E-3</v>
+      </c>
+      <c r="C88" s="111">
+        <v>7.6593564000000001E-3</v>
+      </c>
+      <c r="D88" s="111">
+        <v>7.0310347999999996E-3</v>
+      </c>
+      <c r="E88" s="111">
+        <v>6.3705656999999997E-3</v>
+      </c>
+      <c r="F88" s="111">
+        <v>5.6486914999999997E-3</v>
+      </c>
+      <c r="G88" s="111">
+        <v>4.9892453999999999E-3</v>
+      </c>
+      <c r="H88" s="111">
+        <v>4.4258235999999999E-3</v>
+      </c>
+      <c r="I88" s="59">
+        <v>3.7640993E-3</v>
+      </c>
+      <c r="J88" s="35"/>
+      <c r="K88" s="77" t="s">
+        <v>14</v>
+      </c>
+      <c r="L88" s="119">
+        <v>5.6320531999999998E-3</v>
+      </c>
+      <c r="M88" s="111">
+        <v>5.0807012E-3</v>
+      </c>
+      <c r="N88" s="111">
+        <v>4.6760279E-3</v>
+      </c>
+      <c r="O88" s="111">
+        <v>4.2537668999999998E-3</v>
+      </c>
+      <c r="P88" s="111">
+        <v>3.7813996000000002E-3</v>
+      </c>
+      <c r="Q88" s="111">
+        <v>3.3430482E-3</v>
+      </c>
+      <c r="R88" s="111">
+        <v>2.9634518E-3</v>
+      </c>
+      <c r="S88" s="59">
+        <v>2.3815536E-3</v>
+      </c>
+      <c r="T88" s="35"/>
+      <c r="U88" s="105"/>
+      <c r="V88" s="106" t="s">
+        <v>98</v>
+      </c>
+      <c r="W88" s="106" t="s">
+        <v>99</v>
+      </c>
+      <c r="X88" s="106" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y88" s="106" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z88" s="107" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA88" s="106" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB88" s="106" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC88" s="106" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="89" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A89" s="77" t="s">
+        <v>15</v>
+      </c>
+      <c r="B89" s="119">
+        <v>9.3605019000000001E-3</v>
+      </c>
+      <c r="C89" s="111">
+        <v>8.54654E-3</v>
+      </c>
+      <c r="D89" s="111">
+        <v>7.8817746000000004E-3</v>
+      </c>
+      <c r="E89" s="111">
+        <v>7.1632086000000001E-3</v>
+      </c>
+      <c r="F89" s="111">
+        <v>6.4013278999999999E-3</v>
+      </c>
+      <c r="G89" s="111">
+        <v>5.7255068999999999E-3</v>
+      </c>
+      <c r="H89" s="111">
+        <v>5.1091371999999998E-3</v>
+      </c>
+      <c r="I89" s="59">
+        <v>4.3315932999999996E-3</v>
+      </c>
+      <c r="J89" s="35"/>
+      <c r="K89" s="77" t="s">
+        <v>15</v>
+      </c>
+      <c r="L89" s="119">
+        <v>6.4621250999999996E-3</v>
+      </c>
+      <c r="M89" s="111">
+        <v>6.0272501000000001E-3</v>
+      </c>
+      <c r="N89" s="111">
+        <v>5.6386778999999998E-3</v>
+      </c>
+      <c r="O89" s="111">
+        <v>5.2031285000000002E-3</v>
+      </c>
+      <c r="P89" s="111">
+        <v>4.7424642000000001E-3</v>
+      </c>
+      <c r="Q89" s="111">
+        <v>4.3432195999999999E-3</v>
+      </c>
+      <c r="R89" s="111">
+        <v>3.9385823E-3</v>
+      </c>
+      <c r="S89" s="59">
+        <v>3.1198295999999999E-3</v>
+      </c>
+      <c r="T89" s="35"/>
+      <c r="U89" s="110">
+        <v>0</v>
+      </c>
+      <c r="V89" s="111">
+        <v>0.13551692000000001</v>
+      </c>
+      <c r="W89" s="111">
+        <v>0.12141488</v>
+      </c>
+      <c r="X89" s="111">
+        <v>0.11195296</v>
+      </c>
+      <c r="Y89" s="111">
+        <v>0.10196945</v>
+      </c>
+      <c r="Z89" s="111">
+        <v>8.7215784000000005E-2</v>
+      </c>
+      <c r="AA89" s="111">
+        <v>6.8780059000000004E-2</v>
+      </c>
+      <c r="AB89" s="111">
+        <v>5.3315596E-2</v>
+      </c>
+      <c r="AC89" s="111">
         <v>4.2747080999999999E-2</v>
       </c>
-      <c r="I84" s="57"/>
-      <c r="J84" s="57"/>
-      <c r="K84" s="63"/>
-      <c r="L84" s="63"/>
-    </row>
-    <row r="85" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A85" s="69" t="s">
-        <v>9</v>
-      </c>
-      <c r="B85" s="72">
-        <v>2.4750038999999998E-3</v>
-      </c>
-      <c r="C85" s="72">
-        <v>1.8590649E-3</v>
-      </c>
-      <c r="E85" s="75" t="s">
-        <v>85</v>
-      </c>
-      <c r="F85" s="74">
-        <v>5.2241062999999997E-3</v>
-      </c>
-      <c r="G85" s="74">
+    </row>
+    <row r="90" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A90" s="77" t="s">
+        <v>18</v>
+      </c>
+      <c r="B90" s="119">
+        <v>1.0468597E-2</v>
+      </c>
+      <c r="C90" s="111">
+        <v>9.6974886E-3</v>
+      </c>
+      <c r="D90" s="111">
+        <v>9.0068661000000001E-3</v>
+      </c>
+      <c r="E90" s="111">
+        <v>8.2366352999999996E-3</v>
+      </c>
+      <c r="F90" s="111">
+        <v>7.4406786000000003E-3</v>
+      </c>
+      <c r="G90" s="111">
+        <v>6.7541959E-3</v>
+      </c>
+      <c r="H90" s="111">
+        <v>6.0814568000000001E-3</v>
+      </c>
+      <c r="I90" s="59">
+        <v>5.1669517000000002E-3</v>
+      </c>
+      <c r="J90" s="35"/>
+      <c r="K90" s="77" t="s">
+        <v>18</v>
+      </c>
+      <c r="L90" s="119">
+        <v>7.3166155E-3</v>
+      </c>
+      <c r="M90" s="111">
+        <v>6.9341934000000001E-3</v>
+      </c>
+      <c r="N90" s="111">
+        <v>6.5407853E-3</v>
+      </c>
+      <c r="O90" s="111">
+        <v>6.0806221000000004E-3</v>
+      </c>
+      <c r="P90" s="111">
+        <v>5.6114275000000002E-3</v>
+      </c>
+      <c r="Q90" s="111">
+        <v>5.226807E-3</v>
+      </c>
+      <c r="R90" s="111">
+        <v>4.7939851999999998E-3</v>
+      </c>
+      <c r="S90" s="59">
+        <v>3.7817176000000002E-3</v>
+      </c>
+      <c r="T90" s="35"/>
+      <c r="U90" s="113" t="s">
+        <v>84</v>
+      </c>
+      <c r="V90" s="111">
+        <v>2.7320634999999999E-2</v>
+      </c>
+      <c r="W90" s="111">
+        <v>2.2139934E-2</v>
+      </c>
+      <c r="X90" s="111">
+        <v>1.9089755999999999E-2</v>
+      </c>
+      <c r="Y90" s="111">
+        <v>1.6181286E-2</v>
+      </c>
+      <c r="Z90" s="111">
+        <v>1.2619490000000001E-2</v>
+      </c>
+      <c r="AA90" s="111">
+        <v>8.9390100000000007E-3</v>
+      </c>
+      <c r="AB90" s="111">
+        <v>6.3509125E-3</v>
+      </c>
+      <c r="AC90" s="111">
         <v>4.6946237E-3</v>
       </c>
-      <c r="I85" s="59"/>
-      <c r="J85" s="60"/>
-      <c r="K85" s="61"/>
-      <c r="L85" s="61"/>
-    </row>
-    <row r="86" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A86" s="69" t="s">
-        <v>12</v>
-      </c>
-      <c r="B86" s="72">
-        <v>1.5814690000000001E-3</v>
-      </c>
-      <c r="C86" s="72">
-        <v>1.2227608999999999E-3</v>
-      </c>
-      <c r="H86" s="53"/>
-      <c r="I86" s="54"/>
-      <c r="J86" s="54"/>
-      <c r="K86" s="62"/>
-      <c r="L86" s="62"/>
-    </row>
-    <row r="87" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A87" s="69" t="s">
-        <v>13</v>
-      </c>
-      <c r="B87" s="72">
-        <v>2.5001934000000001E-3</v>
-      </c>
-      <c r="C87" s="72">
-        <v>1.6750273E-3</v>
-      </c>
-      <c r="H87" s="53"/>
-      <c r="I87" s="54"/>
-      <c r="J87" s="54"/>
-      <c r="K87" s="62"/>
-      <c r="L87" s="62"/>
-    </row>
-    <row r="88" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A88" s="69" t="s">
-        <v>14</v>
-      </c>
-      <c r="B88" s="72">
-        <v>3.7640993E-3</v>
-      </c>
-      <c r="C88" s="72">
-        <v>2.3815536E-3</v>
-      </c>
-      <c r="H88" s="53"/>
-      <c r="I88" s="54"/>
-      <c r="J88" s="54"/>
-      <c r="K88" s="62"/>
-      <c r="L88" s="62"/>
-    </row>
-    <row r="89" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A89" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="B89" s="72">
-        <v>4.3315932999999996E-3</v>
-      </c>
-      <c r="C89" s="72">
-        <v>3.1198295999999999E-3</v>
-      </c>
-      <c r="H89" s="53"/>
-      <c r="I89" s="54"/>
-      <c r="J89" s="54"/>
-      <c r="K89" s="62"/>
-      <c r="L89" s="62"/>
-    </row>
-    <row r="90" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A90" s="69" t="s">
-        <v>18</v>
-      </c>
-      <c r="B90" s="72">
-        <v>5.1669517000000002E-3</v>
-      </c>
-      <c r="C90" s="72">
-        <v>3.7817176000000002E-3</v>
-      </c>
-      <c r="H90" s="53"/>
-      <c r="I90" s="54"/>
-      <c r="J90" s="54"/>
-      <c r="K90" s="62"/>
-      <c r="L90" s="62"/>
-    </row>
-    <row r="91" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A91" s="69" t="s">
+    </row>
+    <row r="91" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A91" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="B91" s="72">
+      <c r="B91" s="119">
+        <v>1.2171936E-2</v>
+      </c>
+      <c r="C91" s="111">
+        <v>1.1441359E-2</v>
+      </c>
+      <c r="D91" s="111">
+        <v>1.0708901999999999E-2</v>
+      </c>
+      <c r="E91" s="111">
+        <v>9.8627973999999997E-3</v>
+      </c>
+      <c r="F91" s="111">
+        <v>9.0128794999999994E-3</v>
+      </c>
+      <c r="G91" s="111">
+        <v>8.3055105000000001E-3</v>
+      </c>
+      <c r="H91" s="111">
+        <v>7.5515045999999999E-3</v>
+      </c>
+      <c r="I91" s="59">
         <v>6.4414638999999996E-3</v>
       </c>
-      <c r="C91" s="72">
+      <c r="J91" s="35"/>
+      <c r="K91" s="77" t="s">
+        <v>17</v>
+      </c>
+      <c r="L91" s="119">
+        <v>8.3061538000000004E-3</v>
+      </c>
+      <c r="M91" s="111">
+        <v>7.9964224999999993E-3</v>
+      </c>
+      <c r="N91" s="111">
+        <v>7.6115829000000003E-3</v>
+      </c>
+      <c r="O91" s="111">
+        <v>7.1389935000000003E-3</v>
+      </c>
+      <c r="P91" s="111">
+        <v>6.6758900000000003E-3</v>
+      </c>
+      <c r="Q91" s="111">
+        <v>6.3230613000000001E-3</v>
+      </c>
+      <c r="R91" s="111">
+        <v>5.8713664000000004E-3</v>
+      </c>
+      <c r="S91" s="59">
         <v>4.6448573999999998E-3</v>
       </c>
-      <c r="H91" s="53"/>
-      <c r="I91" s="54"/>
-      <c r="J91" s="54"/>
-      <c r="K91" s="62"/>
-      <c r="L91" s="62"/>
-    </row>
-    <row r="92" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A92" s="69" t="s">
+      <c r="T91" s="35"/>
+      <c r="U91" s="35"/>
+      <c r="V91" s="35"/>
+      <c r="W91" s="35"/>
+      <c r="X91" s="35"/>
+      <c r="Y91" s="35"/>
+      <c r="Z91" s="35"/>
+      <c r="AA91" s="35"/>
+      <c r="AB91" s="35"/>
+      <c r="AC91" s="35"/>
+    </row>
+    <row r="92" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A92" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="B92" s="72">
+      <c r="B92" s="119">
+        <v>1.4352014999999999E-2</v>
+      </c>
+      <c r="C92" s="111">
+        <v>1.3609002E-2</v>
+      </c>
+      <c r="D92" s="111">
+        <v>1.2821048999999999E-2</v>
+      </c>
+      <c r="E92" s="111">
+        <v>1.189198E-2</v>
+      </c>
+      <c r="F92" s="111">
+        <v>1.0964043E-2</v>
+      </c>
+      <c r="G92" s="111">
+        <v>1.0199443000000001E-2</v>
+      </c>
+      <c r="H92" s="111">
+        <v>9.3492987999999992E-3</v>
+      </c>
+      <c r="I92" s="59">
         <v>8.0432449999999992E-3</v>
       </c>
-      <c r="C92" s="72">
+      <c r="J92" s="35"/>
+      <c r="K92" s="77" t="s">
+        <v>19</v>
+      </c>
+      <c r="L92" s="119">
+        <v>9.5504723999999992E-3</v>
+      </c>
+      <c r="M92" s="111">
+        <v>9.2426670999999992E-3</v>
+      </c>
+      <c r="N92" s="111">
+        <v>8.8507475000000006E-3</v>
+      </c>
+      <c r="O92" s="111">
+        <v>8.3638766999999999E-3</v>
+      </c>
+      <c r="P92" s="111">
+        <v>7.8806432000000006E-3</v>
+      </c>
+      <c r="Q92" s="111">
+        <v>7.5079448999999998E-3</v>
+      </c>
+      <c r="R92" s="111">
+        <v>7.0247197000000003E-3</v>
+      </c>
+      <c r="S92" s="59">
         <v>5.6773359000000002E-3</v>
       </c>
-      <c r="H92" s="53"/>
-      <c r="I92" s="54"/>
-      <c r="J92" s="54"/>
-      <c r="K92" s="62"/>
-      <c r="L92" s="62"/>
-    </row>
-    <row r="93" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A93" s="69" t="s">
+      <c r="T92" s="35"/>
+      <c r="U92" s="35"/>
+      <c r="V92" s="35"/>
+      <c r="W92" s="35"/>
+      <c r="X92" s="35"/>
+      <c r="Y92" s="35"/>
+      <c r="Z92" s="35"/>
+      <c r="AA92" s="35"/>
+      <c r="AB92" s="35"/>
+      <c r="AC92" s="35"/>
+    </row>
+    <row r="93" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A93" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="B93" s="72">
+      <c r="B93" s="119">
+        <v>1.6599328999999999E-2</v>
+      </c>
+      <c r="C93" s="111">
+        <v>1.5939089E-2</v>
+      </c>
+      <c r="D93" s="111">
+        <v>1.5164165E-2</v>
+      </c>
+      <c r="E93" s="111">
+        <v>1.4218463000000001E-2</v>
+      </c>
+      <c r="F93" s="111">
+        <v>1.3283338E-2</v>
+      </c>
+      <c r="G93" s="111">
+        <v>1.2527323E-2</v>
+      </c>
+      <c r="H93" s="111">
+        <v>1.1624491000000001E-2</v>
+      </c>
+      <c r="I93" s="59">
         <v>1.0135829000000001E-2</v>
       </c>
-      <c r="C93" s="72">
+      <c r="J93" s="35"/>
+      <c r="K93" s="77" t="s">
+        <v>20</v>
+      </c>
+      <c r="L93" s="119">
+        <v>1.0526821E-2</v>
+      </c>
+      <c r="M93" s="111">
+        <v>1.0266169E-2</v>
+      </c>
+      <c r="N93" s="111">
+        <v>9.8958287999999991E-3</v>
+      </c>
+      <c r="O93" s="111">
+        <v>9.4230961000000002E-3</v>
+      </c>
+      <c r="P93" s="111">
+        <v>8.9566785000000006E-3</v>
+      </c>
+      <c r="Q93" s="111">
+        <v>8.6049192E-3</v>
+      </c>
+      <c r="R93" s="111">
+        <v>8.1201847999999993E-3</v>
+      </c>
+      <c r="S93" s="59">
         <v>6.6691631000000001E-3</v>
       </c>
-      <c r="H93" s="53"/>
-      <c r="I93" s="54"/>
-      <c r="J93" s="54"/>
-      <c r="K93" s="62"/>
-      <c r="L93" s="62"/>
-    </row>
-    <row r="94" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A94" s="69" t="s">
+      <c r="T93" s="35"/>
+      <c r="U93" s="35"/>
+      <c r="V93" s="35"/>
+      <c r="W93" s="35"/>
+      <c r="X93" s="35"/>
+      <c r="Y93" s="35"/>
+      <c r="Z93" s="35"/>
+      <c r="AA93" s="35"/>
+      <c r="AB93" s="35"/>
+      <c r="AC93" s="35"/>
+    </row>
+    <row r="94" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A94" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="B94" s="72">
+      <c r="B94" s="119">
+        <v>2.0610447E-2</v>
+      </c>
+      <c r="C94" s="111">
+        <v>2.0069169000000001E-2</v>
+      </c>
+      <c r="D94" s="111">
+        <v>1.9329669000000001E-2</v>
+      </c>
+      <c r="E94" s="111">
+        <v>1.8382102000000001E-2</v>
+      </c>
+      <c r="F94" s="111">
+        <v>1.7452718999999998E-2</v>
+      </c>
+      <c r="G94" s="111">
+        <v>1.6717211999999999E-2</v>
+      </c>
+      <c r="H94" s="111">
+        <v>1.5751589999999999E-2</v>
+      </c>
+      <c r="I94" s="59">
         <v>1.4004198000000001E-2</v>
       </c>
-      <c r="C94" s="72">
+      <c r="J94" s="35"/>
+      <c r="K94" s="77" t="s">
+        <v>21</v>
+      </c>
+      <c r="L94" s="119">
+        <v>1.3618289E-2</v>
+      </c>
+      <c r="M94" s="111">
+        <v>1.3279867000000001E-2</v>
+      </c>
+      <c r="N94" s="111">
+        <v>1.2843602000000001E-2</v>
+      </c>
+      <c r="O94" s="111">
+        <v>1.2293521999999999E-2</v>
+      </c>
+      <c r="P94" s="111">
+        <v>1.1726159999999999E-2</v>
+      </c>
+      <c r="Q94" s="111">
+        <v>1.126797E-2</v>
+      </c>
+      <c r="R94" s="111">
+        <v>1.0674833E-2</v>
+      </c>
+      <c r="S94" s="59">
         <v>8.9763412999999993E-3</v>
       </c>
-      <c r="H94" s="53"/>
-      <c r="I94" s="54"/>
-      <c r="J94" s="54"/>
-      <c r="K94" s="62"/>
-      <c r="L94" s="62"/>
-    </row>
-    <row r="95" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A95" s="69" t="s">
+      <c r="T94" s="35"/>
+      <c r="U94" s="35"/>
+      <c r="V94" s="35"/>
+      <c r="W94" s="35"/>
+      <c r="X94" s="35"/>
+      <c r="Y94" s="35"/>
+      <c r="Z94" s="35"/>
+      <c r="AA94" s="35"/>
+      <c r="AB94" s="35"/>
+      <c r="AC94" s="35"/>
+    </row>
+    <row r="95" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A95" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="B95" s="72">
+      <c r="B95" s="119">
+        <v>2.5459668000000001E-2</v>
+      </c>
+      <c r="C95" s="111">
+        <v>2.5029438000000001E-2</v>
+      </c>
+      <c r="D95" s="111">
+        <v>2.4304803E-2</v>
+      </c>
+      <c r="E95" s="111">
+        <v>2.3329169E-2</v>
+      </c>
+      <c r="F95" s="111">
+        <v>2.2389999000000001E-2</v>
+      </c>
+      <c r="G95" s="111">
+        <v>2.1674624999999999E-2</v>
+      </c>
+      <c r="H95" s="111">
+        <v>2.0631349E-2</v>
+      </c>
+      <c r="I95" s="59">
         <v>1.8576009000000001E-2</v>
       </c>
-      <c r="C95" s="72">
+      <c r="J95" s="35"/>
+      <c r="K95" s="77" t="s">
+        <v>22</v>
+      </c>
+      <c r="L95" s="119">
+        <v>1.7990335999999999E-2</v>
+      </c>
+      <c r="M95" s="111">
+        <v>1.7498735000000001E-2</v>
+      </c>
+      <c r="N95" s="111">
+        <v>1.6939927E-2</v>
+      </c>
+      <c r="O95" s="111">
+        <v>1.6251709E-2</v>
+      </c>
+      <c r="P95" s="111">
+        <v>1.5508173E-2</v>
+      </c>
+      <c r="Q95" s="111">
+        <v>1.4865150000000001E-2</v>
+      </c>
+      <c r="R95" s="111">
+        <v>1.4094534000000001E-2</v>
+      </c>
+      <c r="S95" s="59">
         <v>1.2049147E-2</v>
       </c>
-      <c r="E95" s="39"/>
-      <c r="F95" s="39"/>
-      <c r="H95" s="53"/>
-      <c r="I95" s="54"/>
-      <c r="J95" s="54"/>
-      <c r="K95" s="62"/>
-      <c r="L95" s="62"/>
-    </row>
-    <row r="96" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A96" s="70" t="s">
+      <c r="T95" s="35"/>
+      <c r="U95" s="35"/>
+      <c r="V95" s="35"/>
+      <c r="W95" s="35"/>
+      <c r="X95" s="35"/>
+      <c r="Y95" s="35"/>
+      <c r="Z95" s="35"/>
+      <c r="AA95" s="35"/>
+      <c r="AB95" s="35"/>
+      <c r="AC95" s="35"/>
+    </row>
+    <row r="96" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A96" s="104" t="s">
         <v>42</v>
       </c>
-      <c r="B96" s="72">
+      <c r="B96" s="119">
+        <v>3.5184202999999997E-2</v>
+      </c>
+      <c r="C96" s="111">
+        <v>3.4928028999999999E-2</v>
+      </c>
+      <c r="D96" s="111">
+        <v>3.4222971999999997E-2</v>
+      </c>
+      <c r="E96" s="111">
+        <v>3.3195026000000002E-2</v>
+      </c>
+      <c r="F96" s="111">
+        <v>3.2233284000000001E-2</v>
+      </c>
+      <c r="G96" s="111">
+        <v>3.1546165000000001E-2</v>
+      </c>
+      <c r="H96" s="111">
+        <v>3.0365044000000001E-2</v>
+      </c>
+      <c r="I96" s="59">
         <v>2.7759598999999999E-2</v>
       </c>
-      <c r="C96" s="72">
+      <c r="J96" s="35"/>
+      <c r="K96" s="114" t="s">
+        <v>42</v>
+      </c>
+      <c r="L96" s="119">
+        <v>2.7034006999999999E-2</v>
+      </c>
+      <c r="M96" s="111">
+        <v>2.6237897E-2</v>
+      </c>
+      <c r="N96" s="111">
+        <v>2.544223E-2</v>
+      </c>
+      <c r="O96" s="111">
+        <v>2.4488769000000001E-2</v>
+      </c>
+      <c r="P96" s="111">
+        <v>2.3397757000000002E-2</v>
+      </c>
+      <c r="Q96" s="111">
+        <v>2.2381365E-2</v>
+      </c>
+      <c r="R96" s="111">
+        <v>2.1257570999999999E-2</v>
+      </c>
+      <c r="S96" s="59">
         <v>1.8543285E-2</v>
       </c>
-      <c r="E96" s="56"/>
-      <c r="F96" s="56"/>
-      <c r="H96" s="53"/>
-      <c r="I96" s="54"/>
-      <c r="J96" s="54"/>
-      <c r="K96" s="62"/>
-      <c r="L96" s="62"/>
-    </row>
-    <row r="97" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A97" s="70" t="s">
+      <c r="T96" s="35"/>
+      <c r="U96" s="35"/>
+      <c r="V96" s="35"/>
+      <c r="W96" s="35"/>
+      <c r="X96" s="35"/>
+      <c r="Y96" s="35"/>
+      <c r="Z96" s="35"/>
+      <c r="AA96" s="35"/>
+      <c r="AB96" s="35"/>
+      <c r="AC96" s="35"/>
+    </row>
+    <row r="97" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A97" s="104" t="s">
         <v>43</v>
       </c>
-      <c r="B97" s="72">
+      <c r="B97" s="119">
+        <v>5.0578709999999999E-2</v>
+      </c>
+      <c r="C97" s="111">
+        <v>5.0650142000000002E-2</v>
+      </c>
+      <c r="D97" s="111">
+        <v>5.0024763E-2</v>
+      </c>
+      <c r="E97" s="111">
+        <v>4.8973602999999997E-2</v>
+      </c>
+      <c r="F97" s="111">
+        <v>4.8051199000000003E-2</v>
+      </c>
+      <c r="G97" s="111">
+        <v>4.7488384000000002E-2</v>
+      </c>
+      <c r="H97" s="111">
+        <v>4.6165507000000001E-2</v>
+      </c>
+      <c r="I97" s="59">
         <v>4.2779603999999999E-2</v>
       </c>
-      <c r="C97" s="72">
+      <c r="J97" s="35"/>
+      <c r="K97" s="114" t="s">
+        <v>43</v>
+      </c>
+      <c r="L97" s="119">
+        <v>4.1980367999999997E-2</v>
+      </c>
+      <c r="M97" s="111">
+        <v>4.0908139000000003E-2</v>
+      </c>
+      <c r="N97" s="111">
+        <v>3.9873039999999998E-2</v>
+      </c>
+      <c r="O97" s="111">
+        <v>3.8634623999999999E-2</v>
+      </c>
+      <c r="P97" s="111">
+        <v>3.7150282999999999E-2</v>
+      </c>
+      <c r="Q97" s="111">
+        <v>3.5698045999999997E-2</v>
+      </c>
+      <c r="R97" s="111">
+        <v>3.4126276999999997E-2</v>
+      </c>
+      <c r="S97" s="59">
         <v>3.039122E-2</v>
       </c>
-      <c r="E97" s="56"/>
-      <c r="F97" s="56"/>
-      <c r="H97" s="53"/>
-      <c r="I97" s="54"/>
-      <c r="J97" s="54"/>
-      <c r="K97" s="62"/>
-      <c r="L97" s="62"/>
-    </row>
-    <row r="98" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A98" s="70" t="s">
+      <c r="T97" s="35"/>
+      <c r="U97" s="35"/>
+      <c r="V97" s="35"/>
+      <c r="W97" s="35"/>
+      <c r="X97" s="35"/>
+      <c r="Y97" s="35"/>
+      <c r="Z97" s="35"/>
+      <c r="AA97" s="35"/>
+      <c r="AB97" s="35"/>
+      <c r="AC97" s="35"/>
+    </row>
+    <row r="98" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A98" s="104" t="s">
         <v>44</v>
       </c>
-      <c r="B98" s="72">
+      <c r="B98" s="119">
+        <v>7.7074561999999999E-2</v>
+      </c>
+      <c r="C98" s="111">
+        <v>7.7622102999999998E-2</v>
+      </c>
+      <c r="D98" s="111">
+        <v>7.7095495999999999E-2</v>
+      </c>
+      <c r="E98" s="111">
+        <v>7.5980821000000004E-2</v>
+      </c>
+      <c r="F98" s="111">
+        <v>7.5089041999999995E-2</v>
+      </c>
+      <c r="G98" s="111">
+        <v>7.4689679999999994E-2</v>
+      </c>
+      <c r="H98" s="111">
+        <v>7.3117043000000007E-2</v>
+      </c>
+      <c r="I98" s="59">
         <v>6.8473476000000005E-2</v>
       </c>
-      <c r="C98" s="72">
+      <c r="J98" s="35"/>
+      <c r="K98" s="114" t="s">
+        <v>44</v>
+      </c>
+      <c r="L98" s="119">
+        <v>6.7413652000000004E-2</v>
+      </c>
+      <c r="M98" s="111">
+        <v>6.6080293999999998E-2</v>
+      </c>
+      <c r="N98" s="111">
+        <v>6.4781100999999994E-2</v>
+      </c>
+      <c r="O98" s="111">
+        <v>6.3207541000000006E-2</v>
+      </c>
+      <c r="P98" s="111">
+        <v>6.1234920999999998E-2</v>
+      </c>
+      <c r="Q98" s="111">
+        <v>5.9224530999999997E-2</v>
+      </c>
+      <c r="R98" s="111">
+        <v>5.7037298E-2</v>
+      </c>
+      <c r="S98" s="59">
         <v>5.1704121999999998E-2</v>
       </c>
-      <c r="E98" s="56"/>
-      <c r="F98" s="56"/>
-      <c r="H98" s="53"/>
-      <c r="I98" s="54"/>
-      <c r="J98" s="54"/>
-      <c r="K98" s="62"/>
-      <c r="L98" s="62"/>
-    </row>
-    <row r="99" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A99" s="70" t="s">
+      <c r="T98" s="35"/>
+      <c r="U98" s="35"/>
+      <c r="V98" s="35"/>
+      <c r="W98" s="35"/>
+      <c r="X98" s="35"/>
+      <c r="Y98" s="35"/>
+      <c r="Z98" s="35"/>
+      <c r="AA98" s="35"/>
+      <c r="AB98" s="35"/>
+      <c r="AC98" s="35"/>
+    </row>
+    <row r="99" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A99" s="104" t="s">
         <v>45</v>
       </c>
-      <c r="B99" s="72">
+      <c r="B99" s="119">
+        <v>0.11904474</v>
+      </c>
+      <c r="C99" s="111">
+        <v>0.12073808</v>
+      </c>
+      <c r="D99" s="111">
+        <v>0.1207081</v>
+      </c>
+      <c r="E99" s="111">
+        <v>0.1198779</v>
+      </c>
+      <c r="F99" s="111">
+        <v>0.11948436</v>
+      </c>
+      <c r="G99" s="111">
+        <v>0.11979376999999999</v>
+      </c>
+      <c r="H99" s="111">
+        <v>0.11823134</v>
+      </c>
+      <c r="I99" s="59">
         <v>0.11201527999999999</v>
       </c>
-      <c r="C99" s="72">
+      <c r="J99" s="35"/>
+      <c r="K99" s="114" t="s">
+        <v>45</v>
+      </c>
+      <c r="L99" s="119">
+        <v>0.10699243999999999</v>
+      </c>
+      <c r="M99" s="111">
+        <v>0.10582374</v>
+      </c>
+      <c r="N99" s="111">
+        <v>0.10450795</v>
+      </c>
+      <c r="O99" s="111">
+        <v>0.10282624999999999</v>
+      </c>
+      <c r="P99" s="111">
+        <v>0.10060334</v>
+      </c>
+      <c r="Q99" s="111">
+        <v>9.8256107999999995E-2</v>
+      </c>
+      <c r="R99" s="111">
+        <v>9.5537514000000004E-2</v>
+      </c>
+      <c r="S99" s="59">
         <v>8.8066895000000006E-2</v>
       </c>
-      <c r="E99" s="56"/>
-      <c r="F99" s="56"/>
-      <c r="H99" s="53"/>
-      <c r="I99" s="54"/>
-      <c r="J99" s="54"/>
-      <c r="K99" s="62"/>
-      <c r="L99" s="62"/>
-    </row>
-    <row r="100" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="E100" s="52"/>
-      <c r="F100" s="52"/>
-      <c r="I100" s="54"/>
-      <c r="J100" s="54"/>
-      <c r="K100" s="62"/>
-      <c r="L100" s="62"/>
-    </row>
-    <row r="101" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="I101" s="54"/>
-      <c r="J101" s="54"/>
-      <c r="K101" s="53"/>
-    </row>
-    <row r="102" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="I102" s="54"/>
-      <c r="J102" s="54"/>
-      <c r="K102" s="53"/>
-    </row>
-    <row r="103" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="I103" s="54"/>
-      <c r="J103" s="54"/>
-      <c r="K103" s="53"/>
-    </row>
-    <row r="104" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="I104" s="54"/>
-      <c r="J104" s="54"/>
-      <c r="K104" s="53"/>
-    </row>
-    <row r="105" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T99" s="35"/>
+      <c r="U99" s="35"/>
+      <c r="V99" s="35"/>
+      <c r="W99" s="35"/>
+      <c r="X99" s="35"/>
+      <c r="Y99" s="35"/>
+      <c r="Z99" s="35"/>
+      <c r="AA99" s="35"/>
+      <c r="AB99" s="35"/>
+      <c r="AC99" s="35"/>
+    </row>
+    <row r="101" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="N101" s="99"/>
+    </row>
+    <row r="102" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="I102" s="53"/>
+      <c r="J102" s="53"/>
+      <c r="K102" s="52"/>
+      <c r="N102" s="100"/>
+    </row>
+    <row r="103" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="I103" s="53"/>
+      <c r="J103" s="53"/>
+      <c r="K103" s="52"/>
+    </row>
+    <row r="104" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="I104" s="53"/>
+      <c r="J104" s="53"/>
+      <c r="K104" s="52"/>
+    </row>
+    <row r="105" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" s="36" t="s">
         <v>60</v>
       </c>
@@ -7844,7 +11091,7 @@
       <c r="W105" s="37"/>
       <c r="X105" s="37"/>
     </row>
-    <row r="106" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106" s="38" t="s">
         <v>61</v>
       </c>
@@ -7872,7 +11119,7 @@
       <c r="W106" s="37"/>
       <c r="X106" s="37"/>
     </row>
-    <row r="107" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" s="38" t="s">
         <v>62</v>
       </c>
@@ -7900,9 +11147,9 @@
       <c r="W107" s="37"/>
       <c r="X107" s="37"/>
     </row>
-    <row r="108" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" s="38" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B108" s="37"/>
       <c r="C108" s="37"/>
@@ -7928,9 +11175,9 @@
       <c r="W108" s="37"/>
       <c r="X108" s="37"/>
     </row>
-    <row r="109" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="38" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B109" s="37"/>
       <c r="C109" s="37"/>
@@ -7956,9 +11203,9 @@
       <c r="W109" s="37"/>
       <c r="X109" s="37"/>
     </row>
-    <row r="110" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A110" s="76" t="s">
-        <v>92</v>
+    <row r="110" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A110" s="60" t="s">
+        <v>91</v>
       </c>
       <c r="B110" s="37"/>
       <c r="C110" s="37"/>
@@ -7984,9 +11231,9 @@
       <c r="W110" s="37"/>
       <c r="X110" s="37"/>
     </row>
-    <row r="111" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:29" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="36" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B111" s="37"/>
       <c r="C111" s="37"/>
@@ -8012,21 +11259,21 @@
       <c r="W111" s="37"/>
       <c r="X111" s="37"/>
     </row>
-    <row r="112" spans="1:24" ht="15.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A112" s="112" t="s">
+    <row r="112" spans="1:29" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="B112" s="108" t="s">
-        <v>87</v>
-      </c>
-      <c r="C112" s="109"/>
-      <c r="D112" s="109"/>
-      <c r="E112" s="109"/>
-      <c r="F112" s="109"/>
-      <c r="G112" s="110"/>
-    </row>
-    <row r="113" spans="1:14" ht="46" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A113" s="113"/>
+      <c r="B112" s="82" t="s">
+        <v>86</v>
+      </c>
+      <c r="C112" s="83"/>
+      <c r="D112" s="83"/>
+      <c r="E112" s="83"/>
+      <c r="F112" s="83"/>
+      <c r="G112" s="84"/>
+    </row>
+    <row r="113" spans="1:14" ht="45.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="88"/>
       <c r="B113" s="32" t="s">
         <v>70</v>
       </c>
@@ -8046,8 +11293,8 @@
         <v>68</v>
       </c>
     </row>
-    <row r="114" spans="1:14" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A114" s="114"/>
+    <row r="114" spans="1:14" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="89"/>
       <c r="B114" s="34" t="s">
         <v>63</v>
       </c>
@@ -8067,7 +11314,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="115" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>6</v>
       </c>
@@ -8090,7 +11337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>9</v>
       </c>
@@ -8113,7 +11360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>12</v>
       </c>
@@ -8135,24 +11382,24 @@
       <c r="G117" s="10">
         <v>0</v>
       </c>
-      <c r="I117" s="87"/>
-      <c r="J117" s="88" t="s">
+      <c r="I117" s="71"/>
+      <c r="J117" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="K117" s="88" t="s">
+      <c r="K117" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="L117" s="88" t="s">
+      <c r="L117" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="M117" s="88" t="s">
+      <c r="M117" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="N117" s="88" t="s">
+      <c r="N117" s="72" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="118" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>13</v>
       </c>
@@ -8177,28 +11424,28 @@
       <c r="I118" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="J118" s="89">
+      <c r="J118" s="73">
         <f>C118/$B$118</f>
         <v>1</v>
       </c>
-      <c r="K118" s="89">
+      <c r="K118" s="73">
         <f>D118/$B$118</f>
         <v>1</v>
       </c>
-      <c r="L118" s="89">
+      <c r="L118" s="73">
         <f>E118/$B$118</f>
         <v>0.58000000000000007</v>
       </c>
-      <c r="M118" s="89">
+      <c r="M118" s="73">
         <f>F118/$B$118</f>
         <v>0.58000000000000007</v>
       </c>
-      <c r="N118" s="89">
+      <c r="N118" s="73">
         <f>G118/$B$118</f>
         <v>0.41000000000000003</v>
       </c>
     </row>
-    <row r="119" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>14</v>
       </c>
@@ -8221,7 +11468,7 @@
         <v>0.11398000000000003</v>
       </c>
     </row>
-    <row r="120" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>15</v>
       </c>
@@ -8244,7 +11491,7 @@
         <v>0.11627600000000002</v>
       </c>
     </row>
-    <row r="121" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>18</v>
       </c>
@@ -8267,7 +11514,7 @@
         <v>8.6592000000000002E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>17</v>
       </c>
@@ -8290,7 +11537,7 @@
         <v>5.5268000000000005E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>19</v>
       </c>
@@ -8313,7 +11560,7 @@
         <v>2.2222000000000002E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>20</v>
       </c>
@@ -8336,7 +11583,7 @@
         <v>7.2160000000000011E-3</v>
       </c>
     </row>
-    <row r="125" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>21</v>
       </c>
@@ -8359,7 +11606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>22</v>
       </c>
@@ -8382,7 +11629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="16" t="s">
         <v>42</v>
       </c>
@@ -8405,7 +11652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="16" t="s">
         <v>43</v>
       </c>
@@ -8428,7 +11675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="16" t="s">
         <v>44</v>
       </c>
@@ -8451,7 +11698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="16" t="s">
         <v>45</v>
       </c>
@@ -8474,59 +11721,59 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B131">
-        <f t="shared" ref="B131:G131" si="7">5*SUM(B118:B124)</f>
+        <f t="shared" ref="B131:G131" si="8">5*SUM(B118:B124)</f>
         <v>5.604000000000001</v>
       </c>
       <c r="C131">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.604000000000001</v>
       </c>
       <c r="D131">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.604000000000001</v>
       </c>
       <c r="E131">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.2503200000000003</v>
       </c>
       <c r="F131">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.2503200000000003</v>
       </c>
       <c r="G131">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.2976400000000003</v>
       </c>
     </row>
-    <row r="132" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="133" spans="1:15" ht="15.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A133" s="105" t="s">
+    <row r="132" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="133" spans="1:15" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="B133" s="108" t="s">
-        <v>88</v>
-      </c>
-      <c r="C133" s="109"/>
-      <c r="D133" s="109"/>
-      <c r="E133" s="109"/>
-      <c r="F133" s="109"/>
-      <c r="G133" s="110"/>
-      <c r="I133" s="105" t="s">
+      <c r="B133" s="82" t="s">
+        <v>87</v>
+      </c>
+      <c r="C133" s="83"/>
+      <c r="D133" s="83"/>
+      <c r="E133" s="83"/>
+      <c r="F133" s="83"/>
+      <c r="G133" s="84"/>
+      <c r="I133" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="J133" s="108" t="s">
+      <c r="J133" s="82" t="s">
         <v>76</v>
       </c>
-      <c r="K133" s="109"/>
-      <c r="L133" s="109"/>
-      <c r="M133" s="109"/>
-      <c r="N133" s="109"/>
-      <c r="O133" s="110"/>
-    </row>
-    <row r="134" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A134" s="106"/>
+      <c r="K133" s="83"/>
+      <c r="L133" s="83"/>
+      <c r="M133" s="83"/>
+      <c r="N133" s="83"/>
+      <c r="O133" s="84"/>
+    </row>
+    <row r="134" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="80"/>
       <c r="B134" s="26" t="s">
         <v>71</v>
       </c>
@@ -8545,7 +11792,7 @@
       <c r="G134" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="I134" s="106"/>
+      <c r="I134" s="80"/>
       <c r="J134" s="26" t="s">
         <v>71</v>
       </c>
@@ -8565,8 +11812,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="135" spans="1:15" ht="47" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A135" s="107"/>
+    <row r="135" spans="1:15" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="81"/>
       <c r="B135" s="40" t="s">
         <v>63</v>
       </c>
@@ -8585,7 +11832,7 @@
       <c r="G135" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="I135" s="107"/>
+      <c r="I135" s="81"/>
       <c r="J135" s="40" t="s">
         <v>63</v>
       </c>
@@ -8605,7 +11852,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="136" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>6</v>
       </c>
@@ -8649,7 +11896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
         <v>9</v>
       </c>
@@ -8693,7 +11940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
         <v>12</v>
       </c>
@@ -8737,7 +11984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
         <v>13</v>
       </c>
@@ -8746,23 +11993,23 @@
         <v>7.0699999999999999E-2</v>
       </c>
       <c r="C139" s="17">
-        <f t="shared" ref="C139:G139" si="8">C118*0.5</f>
+        <f t="shared" ref="C139:G139" si="9">C118*0.5</f>
         <v>7.0699999999999999E-2</v>
       </c>
       <c r="D139" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7.0699999999999999E-2</v>
       </c>
       <c r="E139" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.1006000000000008E-2</v>
       </c>
       <c r="F139" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.1006000000000008E-2</v>
       </c>
       <c r="G139" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.8987000000000002E-2</v>
       </c>
       <c r="I139" s="50" t="s">
@@ -8773,363 +12020,363 @@
         <v>5.3025000000000003E-2</v>
       </c>
       <c r="K139" s="17">
-        <f t="shared" ref="K139:O145" si="9">C139*0.75</f>
+        <f t="shared" ref="K139:O145" si="10">C139*0.75</f>
         <v>5.3025000000000003E-2</v>
       </c>
       <c r="L139" s="17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.3025000000000003E-2</v>
       </c>
       <c r="M139" s="17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.0754500000000004E-2</v>
       </c>
       <c r="N139" s="17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.0754500000000004E-2</v>
       </c>
       <c r="O139" s="17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.1740250000000003E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B140" s="17">
-        <f t="shared" ref="B140:G145" si="10">B119*0.5</f>
+        <f t="shared" ref="B140:G145" si="11">B119*0.5</f>
         <v>0.13900000000000001</v>
       </c>
       <c r="C140" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.13900000000000001</v>
       </c>
       <c r="D140" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.13900000000000001</v>
       </c>
       <c r="E140" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>8.0620000000000011E-2</v>
       </c>
       <c r="F140" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>8.0620000000000011E-2</v>
       </c>
       <c r="G140" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5.6990000000000013E-2</v>
       </c>
       <c r="I140" s="50" t="s">
         <v>14</v>
       </c>
       <c r="J140" s="17">
-        <f t="shared" ref="J140:J145" si="11">B140*0.75</f>
+        <f t="shared" ref="J140:J145" si="12">B140*0.75</f>
         <v>0.10425000000000001</v>
       </c>
       <c r="K140" s="17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.10425000000000001</v>
       </c>
       <c r="L140" s="17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.10425000000000001</v>
       </c>
       <c r="M140" s="17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6.0465000000000005E-2</v>
       </c>
       <c r="N140" s="17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6.0465000000000005E-2</v>
       </c>
       <c r="O140" s="17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4.274250000000001E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B141" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.14180000000000001</v>
       </c>
       <c r="C141" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.14180000000000001</v>
       </c>
       <c r="D141" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.14180000000000001</v>
       </c>
       <c r="E141" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>8.2244000000000012E-2</v>
       </c>
       <c r="F141" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>8.2244000000000012E-2</v>
       </c>
       <c r="G141" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5.8138000000000009E-2</v>
       </c>
       <c r="I141" s="50" t="s">
         <v>15</v>
       </c>
       <c r="J141" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.10635</v>
       </c>
       <c r="K141" s="17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.10635</v>
       </c>
       <c r="L141" s="17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.10635</v>
       </c>
       <c r="M141" s="17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6.1683000000000009E-2</v>
       </c>
       <c r="N141" s="17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6.1683000000000009E-2</v>
       </c>
       <c r="O141" s="17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4.3603500000000003E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B142" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.1056</v>
       </c>
       <c r="C142" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.1056</v>
       </c>
       <c r="D142" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.1056</v>
       </c>
       <c r="E142" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6.1248000000000004E-2</v>
       </c>
       <c r="F142" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6.1248000000000004E-2</v>
       </c>
       <c r="G142" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.3296000000000001E-2</v>
       </c>
       <c r="I142" s="50" t="s">
         <v>18</v>
       </c>
       <c r="J142" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.9199999999999993E-2</v>
       </c>
       <c r="K142" s="17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>7.9199999999999993E-2</v>
       </c>
       <c r="L142" s="17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>7.9199999999999993E-2</v>
       </c>
       <c r="M142" s="17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4.5936000000000005E-2</v>
       </c>
       <c r="N142" s="17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4.5936000000000005E-2</v>
       </c>
       <c r="O142" s="17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.2472000000000001E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B143" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6.7400000000000002E-2</v>
       </c>
       <c r="C143" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6.7400000000000002E-2</v>
       </c>
       <c r="D143" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6.7400000000000002E-2</v>
       </c>
       <c r="E143" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3.9092000000000009E-2</v>
       </c>
       <c r="F143" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3.9092000000000009E-2</v>
       </c>
       <c r="G143" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.7634000000000002E-2</v>
       </c>
       <c r="I143" s="50" t="s">
         <v>17</v>
       </c>
       <c r="J143" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5.0549999999999998E-2</v>
       </c>
       <c r="K143" s="17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.0549999999999998E-2</v>
       </c>
       <c r="L143" s="17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.0549999999999998E-2</v>
       </c>
       <c r="M143" s="17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.9319000000000005E-2</v>
       </c>
       <c r="N143" s="17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.9319000000000005E-2</v>
       </c>
       <c r="O143" s="17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.0725500000000001E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B144" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.7100000000000003E-2</v>
       </c>
       <c r="C144" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.7100000000000003E-2</v>
       </c>
       <c r="D144" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.7100000000000003E-2</v>
       </c>
       <c r="E144" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.5718000000000003E-2</v>
       </c>
       <c r="F144" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.5718000000000003E-2</v>
       </c>
       <c r="G144" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.1111000000000001E-2</v>
       </c>
       <c r="I144" s="50" t="s">
         <v>19</v>
       </c>
       <c r="J144" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.0325000000000003E-2</v>
       </c>
       <c r="K144" s="17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.0325000000000003E-2</v>
       </c>
       <c r="L144" s="17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.0325000000000003E-2</v>
       </c>
       <c r="M144" s="17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.1788500000000002E-2</v>
       </c>
       <c r="N144" s="17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.1788500000000002E-2</v>
       </c>
       <c r="O144" s="17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8.3332500000000004E-3</v>
       </c>
     </row>
-    <row r="145" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B145" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>8.8000000000000005E-3</v>
       </c>
       <c r="C145" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>8.8000000000000005E-3</v>
       </c>
       <c r="D145" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>8.8000000000000005E-3</v>
       </c>
       <c r="E145" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5.1040000000000009E-3</v>
       </c>
       <c r="F145" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5.1040000000000009E-3</v>
       </c>
       <c r="G145" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3.6080000000000005E-3</v>
       </c>
       <c r="I145" s="50" t="s">
         <v>20</v>
       </c>
       <c r="J145" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>6.6E-3</v>
       </c>
       <c r="K145" s="17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6.6E-3</v>
       </c>
       <c r="L145" s="17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6.6E-3</v>
       </c>
       <c r="M145" s="17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.8280000000000007E-3</v>
       </c>
       <c r="N145" s="17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.8280000000000007E-3</v>
       </c>
       <c r="O145" s="17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.7060000000000005E-3</v>
       </c>
     </row>
-    <row r="146" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
         <v>21</v>
       </c>
@@ -9173,7 +12420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
         <v>22</v>
       </c>
@@ -9217,7 +12464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A148" s="16" t="s">
         <v>42</v>
       </c>
@@ -9261,7 +12508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A149" s="16" t="s">
         <v>43</v>
       </c>
@@ -9305,7 +12552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A150" s="16" t="s">
         <v>44</v>
       </c>
@@ -9349,7 +12596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A151" s="16" t="s">
         <v>45</v>
       </c>
@@ -9393,59 +12640,59 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B152">
-        <f t="shared" ref="B152:G152" si="12">5*SUM(B136:B151)</f>
+        <f t="shared" ref="B152:G152" si="13">5*SUM(B136:B151)</f>
         <v>2.8020000000000005</v>
       </c>
       <c r="C152">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2.8020000000000005</v>
       </c>
       <c r="D152">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2.8020000000000005</v>
       </c>
       <c r="E152">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.6251600000000002</v>
       </c>
       <c r="F152">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.6251600000000002</v>
       </c>
       <c r="G152">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.1488200000000002</v>
       </c>
       <c r="J152">
-        <f t="shared" ref="J152:O152" si="13">5*SUM(J136:J151)</f>
+        <f t="shared" ref="J152:O152" si="14">5*SUM(J136:J151)</f>
         <v>2.1014999999999997</v>
       </c>
       <c r="K152">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.1014999999999997</v>
       </c>
       <c r="L152">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.1014999999999997</v>
       </c>
       <c r="M152">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.2188700000000003</v>
       </c>
       <c r="N152">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.2188700000000003</v>
       </c>
       <c r="O152">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.86161500000000013</v>
       </c>
     </row>
-    <row r="158" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A158" s="36" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B158" s="37"/>
       <c r="C158" s="37"/>
@@ -9470,7 +12717,7 @@
       <c r="V158" s="37"/>
       <c r="W158" s="37"/>
     </row>
-    <row r="159" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A159" s="38" t="s">
         <v>58</v>
       </c>
@@ -9497,7 +12744,7 @@
       <c r="V159" s="37"/>
       <c r="W159" s="37"/>
     </row>
-    <row r="160" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A160" s="36" t="s">
         <v>72</v>
       </c>
@@ -9524,144 +12771,144 @@
       <c r="V160" s="37"/>
       <c r="W160" s="37"/>
     </row>
-    <row r="161" spans="1:14" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A161" s="98" t="s">
-        <v>93</v>
-      </c>
-      <c r="B161" s="100" t="s">
-        <v>0</v>
-      </c>
-      <c r="C161" s="100"/>
-      <c r="D161" s="100"/>
-      <c r="E161" s="100" t="s">
+    <row r="161" spans="1:14" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="94" t="s">
+        <v>92</v>
+      </c>
+      <c r="B161" s="96" t="s">
+        <v>0</v>
+      </c>
+      <c r="C161" s="96"/>
+      <c r="D161" s="96"/>
+      <c r="E161" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="F161" s="100"/>
-      <c r="G161" s="100"/>
-    </row>
-    <row r="162" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A162" s="98"/>
-      <c r="B162" s="80" t="s">
+      <c r="F161" s="96"/>
+      <c r="G161" s="96"/>
+    </row>
+    <row r="162" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A162" s="94"/>
+      <c r="B162" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C162" s="80" t="s">
+      <c r="C162" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="D162" s="80" t="s">
+      <c r="D162" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="E162" s="80" t="s">
+      <c r="E162" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="F162" s="80" t="s">
+      <c r="F162" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="G162" s="80" t="s">
+      <c r="G162" s="64" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="163" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B163" s="77">
+      <c r="B163" s="61">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="C163" s="77">
+      <c r="C163" s="61">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="D163" s="77">
+      <c r="D163" s="61">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="E163" s="77">
+      <c r="E163" s="61">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="F163" s="77">
+      <c r="F163" s="61">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="G163" s="77">
+      <c r="G163" s="61">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="J163">
-        <f t="shared" ref="J163:J178" si="14">B163*B54</f>
+        <f t="shared" ref="J163:J178" si="15">B163*B54</f>
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="K163">
-        <f t="shared" ref="K163:K178" si="15">C163*C54</f>
+        <f t="shared" ref="K163:K178" si="16">C163*C54</f>
         <v>0</v>
       </c>
       <c r="L163">
-        <f t="shared" ref="L163:L178" si="16">D163*D54</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+        <f t="shared" ref="L163:L178" si="17">D163*D54</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A164" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B164" s="77">
+      <c r="B164" s="61">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="C164" s="77">
+      <c r="C164" s="61">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="D164" s="77">
+      <c r="D164" s="61">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="E164" s="77">
+      <c r="E164" s="61">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="F164" s="77">
+      <c r="F164" s="61">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="G164" s="77">
+      <c r="G164" s="61">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="J164">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="K164">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="L164">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A165" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B165" s="78">
+      <c r="B165" s="62">
         <v>1.2E-2</v>
       </c>
-      <c r="C165" s="78">
+      <c r="C165" s="62">
         <v>0.12</v>
       </c>
-      <c r="D165" s="78">
+      <c r="D165" s="62">
         <v>1.2</v>
       </c>
-      <c r="E165" s="78">
+      <c r="E165" s="62">
         <v>1.2E-2</v>
       </c>
-      <c r="F165" s="78">
+      <c r="F165" s="62">
         <v>0.12</v>
       </c>
-      <c r="G165" s="78">
+      <c r="G165" s="62">
         <v>1.2</v>
       </c>
       <c r="J165">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.176E-2</v>
       </c>
       <c r="K165">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.8E-3</v>
       </c>
       <c r="L165">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>6.0000000000000218E-3</v>
       </c>
       <c r="M165">
@@ -9673,542 +12920,542 @@
         <v>51.124744376278059</v>
       </c>
     </row>
-    <row r="166" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A166" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B166" s="78">
+      <c r="B166" s="62">
         <v>0.82961309523809501</v>
       </c>
-      <c r="C166" s="78">
+      <c r="C166" s="62">
         <v>4.4693308550185904</v>
       </c>
-      <c r="D166" s="78">
+      <c r="D166" s="62">
         <v>12.1863636363636</v>
       </c>
-      <c r="E166" s="78">
+      <c r="E166" s="62">
         <v>0.82961309523809501</v>
       </c>
-      <c r="F166" s="78">
+      <c r="F166" s="62">
         <v>4.4693308550185904</v>
       </c>
-      <c r="G166" s="79">
+      <c r="G166" s="63">
         <v>12.1863636363636</v>
       </c>
       <c r="J166">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.4223484848484847</v>
       </c>
       <c r="K166">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.8215909090909104</v>
       </c>
       <c r="L166">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.0155303030302998</v>
       </c>
       <c r="M166">
-        <f t="shared" ref="M166:M178" si="17">SUM(J166:L166)</f>
+        <f t="shared" ref="M166:M178" si="18">SUM(J166:L166)</f>
         <v>3.2594696969696946</v>
       </c>
       <c r="N166">
-        <f t="shared" ref="N166:N178" si="18">1/M166</f>
+        <f t="shared" ref="N166:N178" si="19">1/M166</f>
         <v>0.30679837303893109</v>
       </c>
     </row>
-    <row r="167" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A167" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B167" s="78">
+      <c r="B167" s="62">
         <v>0.87908011869436198</v>
       </c>
-      <c r="C167" s="78">
+      <c r="C167" s="62">
         <v>3.8212025316455702</v>
       </c>
-      <c r="D167" s="78">
+      <c r="D167" s="62">
         <v>13.4262295081967</v>
       </c>
-      <c r="E167" s="78">
+      <c r="E167" s="62">
         <v>0.87908011869436198</v>
       </c>
-      <c r="F167" s="78">
+      <c r="F167" s="62">
         <v>3.8212025316455702</v>
       </c>
-      <c r="G167" s="79">
+      <c r="G167" s="63">
         <v>13.4262295081967</v>
       </c>
       <c r="J167">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.41491596638655454</v>
       </c>
       <c r="K167">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.6911764705882355</v>
       </c>
       <c r="L167">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.1470588235294099</v>
       </c>
       <c r="M167">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3.2531512605041999</v>
       </c>
       <c r="N167">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.30739425250242186</v>
       </c>
     </row>
-    <row r="168" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A168" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B168" s="78">
+      <c r="B168" s="62">
         <v>0.77027027027026995</v>
       </c>
-      <c r="C168" s="78">
+      <c r="C168" s="62">
         <v>2.56424581005587</v>
       </c>
-      <c r="D168" s="78">
+      <c r="D168" s="62">
         <v>6.9705882352941204</v>
       </c>
-      <c r="E168" s="78">
+      <c r="E168" s="62">
         <v>0.77027027027026995</v>
       </c>
-      <c r="F168" s="78">
+      <c r="F168" s="62">
         <v>2.56424581005587</v>
       </c>
-      <c r="G168" s="79">
+      <c r="G168" s="63">
         <v>6.9705882352941204</v>
       </c>
       <c r="J168">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.39310344827586191</v>
       </c>
       <c r="K168">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.0551724137931051</v>
       </c>
       <c r="L168">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.54482758620689675</v>
       </c>
       <c r="M168">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.9931034482758638</v>
       </c>
       <c r="N168">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.50173010380622796</v>
       </c>
     </row>
-    <row r="169" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A169" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B169" s="78">
+      <c r="B169" s="62">
         <v>0.77102803738317804</v>
       </c>
-      <c r="C169" s="78">
+      <c r="C169" s="62">
         <v>2.4793388429752099</v>
       </c>
-      <c r="D169" s="78">
+      <c r="D169" s="62">
         <v>5.8421052631579</v>
       </c>
-      <c r="E169" s="78">
+      <c r="E169" s="62">
         <v>0.77102803738317804</v>
       </c>
-      <c r="F169" s="78">
+      <c r="F169" s="62">
         <v>2.4793388429752099</v>
       </c>
-      <c r="G169" s="79">
+      <c r="G169" s="63">
         <v>5.8421052631579</v>
       </c>
       <c r="J169">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.46610169491525449</v>
       </c>
       <c r="K169">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.84745762711864525</v>
       </c>
       <c r="L169">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.31355932203389858</v>
       </c>
       <c r="M169">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.6271186440677983</v>
       </c>
       <c r="N169">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.6145833333333327</v>
       </c>
     </row>
-    <row r="170" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A170" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B170" s="78">
+      <c r="B170" s="62">
         <v>0.77927927927927898</v>
       </c>
-      <c r="C170" s="78">
+      <c r="C170" s="62">
         <v>2.4067796610169498</v>
       </c>
-      <c r="D170" s="78">
+      <c r="D170" s="62">
         <v>6.2222222222222197</v>
       </c>
-      <c r="E170" s="78">
+      <c r="E170" s="62">
         <v>0.77927927927927898</v>
       </c>
-      <c r="F170" s="78">
+      <c r="F170" s="62">
         <v>2.4067796610169498</v>
       </c>
-      <c r="G170" s="79">
+      <c r="G170" s="63">
         <v>6.2222222222222197</v>
       </c>
       <c r="J170">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.59655172413793078</v>
       </c>
       <c r="K170">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.48965517241379319</v>
       </c>
       <c r="L170">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.19310344827586198</v>
       </c>
       <c r="M170">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.279310344827586</v>
       </c>
       <c r="N170">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.78167115902964968</v>
       </c>
     </row>
-    <row r="171" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B171" s="78">
+      <c r="B171" s="62">
         <v>0.841880341880342</v>
       </c>
-      <c r="C171" s="78">
+      <c r="C171" s="62">
         <v>2.4166666666666701</v>
       </c>
-      <c r="D171" s="78">
+      <c r="D171" s="62">
         <v>7.75</v>
       </c>
-      <c r="E171" s="78">
+      <c r="E171" s="62">
         <v>0.841880341880342</v>
       </c>
-      <c r="F171" s="78">
+      <c r="F171" s="62">
         <v>2.4166666666666701</v>
       </c>
-      <c r="G171" s="79">
+      <c r="G171" s="63">
         <v>7.75</v>
       </c>
       <c r="J171">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.68881118881118886</v>
       </c>
       <c r="K171">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.40559440559440618</v>
       </c>
       <c r="L171">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.10839160839160839</v>
       </c>
       <c r="M171">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.2027972027972034</v>
       </c>
       <c r="N171">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.83139534883720889</v>
       </c>
     </row>
-    <row r="172" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A172" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B172" s="78">
+      <c r="B172" s="62">
         <v>0.71929824561403499</v>
       </c>
-      <c r="C172" s="78">
+      <c r="C172" s="62">
         <v>2.3250000000000002</v>
       </c>
-      <c r="D172" s="78">
+      <c r="D172" s="62">
         <v>1</v>
       </c>
-      <c r="E172" s="78">
+      <c r="E172" s="62">
         <v>0.71929824561403499</v>
       </c>
-      <c r="F172" s="78">
+      <c r="F172" s="62">
         <v>2.3250000000000002</v>
       </c>
-      <c r="G172" s="79">
+      <c r="G172" s="63">
         <v>1</v>
       </c>
       <c r="J172">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.61194029850746257</v>
       </c>
       <c r="K172">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.34468992537313536</v>
       </c>
       <c r="L172">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1E-3</v>
       </c>
       <c r="M172">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.95763022388059793</v>
       </c>
       <c r="N172">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.0442444015057371</v>
       </c>
     </row>
-    <row r="173" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A173" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B173" s="78">
+      <c r="B173" s="62">
         <v>0.71929824561403499</v>
       </c>
-      <c r="C173" s="78">
+      <c r="C173" s="62">
         <v>2.3250000000000002</v>
       </c>
-      <c r="D173" s="78">
+      <c r="D173" s="62">
         <v>1</v>
       </c>
-      <c r="E173" s="78">
+      <c r="E173" s="62">
         <v>0.71929824561403499</v>
       </c>
-      <c r="F173" s="78">
+      <c r="F173" s="62">
         <v>2.3250000000000002</v>
       </c>
-      <c r="G173" s="79">
+      <c r="G173" s="63">
         <v>1</v>
       </c>
       <c r="J173">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.61194029850746257</v>
       </c>
       <c r="K173">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.34468992537313536</v>
       </c>
       <c r="L173">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1E-3</v>
       </c>
       <c r="M173">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.95763022388059793</v>
       </c>
       <c r="N173">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.0442444015057371</v>
       </c>
     </row>
-    <row r="174" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A174" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B174" s="78">
+      <c r="B174" s="62">
         <v>0.71929824561403499</v>
       </c>
-      <c r="C174" s="78">
+      <c r="C174" s="62">
         <v>2.3250000000000002</v>
       </c>
-      <c r="D174" s="78">
+      <c r="D174" s="62">
         <v>1</v>
       </c>
-      <c r="E174" s="78">
+      <c r="E174" s="62">
         <v>0.71929824561403499</v>
       </c>
-      <c r="F174" s="78">
+      <c r="F174" s="62">
         <v>2.3250000000000002</v>
       </c>
-      <c r="G174" s="79">
+      <c r="G174" s="63">
         <v>1</v>
       </c>
       <c r="J174">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.61194029850746257</v>
       </c>
       <c r="K174">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.34468992537313536</v>
       </c>
       <c r="L174">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1E-3</v>
       </c>
       <c r="M174">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.95763022388059793</v>
       </c>
       <c r="N174">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.0442444015057371</v>
       </c>
     </row>
-    <row r="175" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A175" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="B175" s="78">
+      <c r="B175" s="62">
         <v>0.71929824561403499</v>
       </c>
-      <c r="C175" s="78">
+      <c r="C175" s="62">
         <v>2.3250000000000002</v>
       </c>
-      <c r="D175" s="78">
+      <c r="D175" s="62">
         <v>1</v>
       </c>
-      <c r="E175" s="78">
+      <c r="E175" s="62">
         <v>0.71929824561403499</v>
       </c>
-      <c r="F175" s="78">
+      <c r="F175" s="62">
         <v>2.3250000000000002</v>
       </c>
-      <c r="G175" s="79">
+      <c r="G175" s="63">
         <v>1</v>
       </c>
       <c r="J175">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.61194029850746257</v>
       </c>
       <c r="K175">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.34468992537313536</v>
       </c>
       <c r="L175">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1E-3</v>
       </c>
       <c r="M175">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.95763022388059793</v>
       </c>
       <c r="N175">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.0442444015057371</v>
       </c>
     </row>
-    <row r="176" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A176" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="B176" s="78">
+      <c r="B176" s="62">
         <v>0.71929824561403499</v>
       </c>
-      <c r="C176" s="78">
+      <c r="C176" s="62">
         <v>2.3250000000000002</v>
       </c>
-      <c r="D176" s="78">
+      <c r="D176" s="62">
         <v>1</v>
       </c>
-      <c r="E176" s="78">
+      <c r="E176" s="62">
         <v>0.71929824561403499</v>
       </c>
-      <c r="F176" s="78">
+      <c r="F176" s="62">
         <v>2.3250000000000002</v>
       </c>
-      <c r="G176" s="79">
+      <c r="G176" s="63">
         <v>1</v>
       </c>
       <c r="J176">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.61194029850746257</v>
       </c>
       <c r="K176">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.34468992537313536</v>
       </c>
       <c r="L176">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1E-3</v>
       </c>
       <c r="M176">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.95763022388059793</v>
       </c>
       <c r="N176">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.0442444015057371</v>
       </c>
     </row>
-    <row r="177" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A177" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B177" s="78">
+      <c r="B177" s="62">
         <v>0.71929824561403499</v>
       </c>
-      <c r="C177" s="78">
+      <c r="C177" s="62">
         <v>2.3250000000000002</v>
       </c>
-      <c r="D177" s="78">
+      <c r="D177" s="62">
         <v>1</v>
       </c>
-      <c r="E177" s="78">
+      <c r="E177" s="62">
         <v>0.71929824561403499</v>
       </c>
-      <c r="F177" s="78">
+      <c r="F177" s="62">
         <v>2.3250000000000002</v>
       </c>
-      <c r="G177" s="79">
+      <c r="G177" s="63">
         <v>1</v>
       </c>
       <c r="J177">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.61194029850746257</v>
       </c>
       <c r="K177">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.34468992537313536</v>
       </c>
       <c r="L177">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1E-3</v>
       </c>
       <c r="M177">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.95763022388059793</v>
       </c>
       <c r="N177">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.0442444015057371</v>
       </c>
     </row>
-    <row r="178" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A178" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B178" s="78">
+      <c r="B178" s="62">
         <v>0.71929824561403499</v>
       </c>
-      <c r="C178" s="78">
+      <c r="C178" s="62">
         <v>2.3250000000000002</v>
       </c>
-      <c r="D178" s="78">
+      <c r="D178" s="62">
         <v>1</v>
       </c>
-      <c r="E178" s="78">
+      <c r="E178" s="62">
         <v>0.71929824561403499</v>
       </c>
-      <c r="F178" s="78">
+      <c r="F178" s="62">
         <v>2.3250000000000002</v>
       </c>
-      <c r="G178" s="79">
+      <c r="G178" s="63">
         <v>1</v>
       </c>
       <c r="H178">
@@ -10216,27 +13463,27 @@
         <v>2.1889244186386922</v>
       </c>
       <c r="J178">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.61194029850746257</v>
       </c>
       <c r="K178">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.34468992537313536</v>
       </c>
       <c r="L178">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1E-3</v>
       </c>
       <c r="M178">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.95763022388059793</v>
       </c>
       <c r="N178">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.0442444015057371</v>
       </c>
     </row>
-    <row r="179" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>31</v>
       </c>
@@ -10245,7 +13492,7 @@
         <v>4.412716268383285</v>
       </c>
     </row>
-    <row r="183" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A183" s="7"/>
       <c r="B183" s="20"/>
       <c r="C183" s="20"/>
@@ -10275,7 +13522,7 @@
       <c r="AA183" s="20"/>
       <c r="AB183" s="20"/>
     </row>
-    <row r="184" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A184" s="20"/>
       <c r="B184" s="20"/>
       <c r="C184" s="20"/>
@@ -10305,8 +13552,8 @@
       <c r="AA184" s="20"/>
       <c r="AB184" s="20"/>
     </row>
-    <row r="185" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A185" s="84"/>
+    <row r="185" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A185" s="68"/>
       <c r="B185" s="20"/>
       <c r="C185" s="20"/>
       <c r="D185" s="20"/>
@@ -10335,10 +13582,10 @@
       <c r="AA185" s="20"/>
       <c r="AB185" s="20"/>
     </row>
-    <row r="186" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A186" s="101"/>
-      <c r="B186" s="101"/>
-      <c r="C186" s="101"/>
+    <row r="186" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A186" s="97"/>
+      <c r="B186" s="97"/>
+      <c r="C186" s="97"/>
       <c r="D186" s="20"/>
       <c r="E186" s="20"/>
       <c r="F186" s="20"/>
@@ -10365,10 +13612,10 @@
       <c r="AA186" s="20"/>
       <c r="AB186" s="20"/>
     </row>
-    <row r="187" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A187" s="85"/>
-      <c r="B187" s="86"/>
-      <c r="C187" s="86"/>
+    <row r="187" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A187" s="69"/>
+      <c r="B187" s="70"/>
+      <c r="C187" s="70"/>
       <c r="D187" s="20"/>
       <c r="E187" s="20"/>
       <c r="F187" s="20"/>
@@ -10395,10 +13642,10 @@
       <c r="AA187" s="20"/>
       <c r="AB187" s="20"/>
     </row>
-    <row r="188" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A188" s="6"/>
-      <c r="B188" s="83"/>
-      <c r="C188" s="83"/>
+      <c r="B188" s="67"/>
+      <c r="C188" s="67"/>
       <c r="D188" s="20"/>
       <c r="E188" s="20"/>
       <c r="F188" s="20"/>
@@ -10425,10 +13672,10 @@
       <c r="AA188" s="20"/>
       <c r="AB188" s="20"/>
     </row>
-    <row r="189" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A189" s="6"/>
-      <c r="B189" s="83"/>
-      <c r="C189" s="83"/>
+      <c r="B189" s="67"/>
+      <c r="C189" s="67"/>
       <c r="D189" s="20"/>
       <c r="E189" s="20"/>
       <c r="F189" s="20"/>
@@ -10455,10 +13702,10 @@
       <c r="AA189" s="20"/>
       <c r="AB189" s="20"/>
     </row>
-    <row r="190" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A190" s="6"/>
-      <c r="B190" s="83"/>
-      <c r="C190" s="83"/>
+      <c r="B190" s="67"/>
+      <c r="C190" s="67"/>
       <c r="D190" s="20"/>
       <c r="E190" s="20"/>
       <c r="F190" s="20"/>
@@ -10485,9 +13732,9 @@
       <c r="AA190" s="20"/>
       <c r="AB190" s="20"/>
     </row>
-    <row r="197" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A197" s="36" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B197" s="37"/>
       <c r="C197" s="37"/>
@@ -10512,40 +13759,40 @@
       <c r="V197" s="37"/>
       <c r="W197" s="37"/>
     </row>
-    <row r="198" spans="1:23" s="39" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A198" s="96" t="s">
+    <row r="198" spans="1:23" s="39" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A198" s="90" t="s">
         <v>73</v>
       </c>
-      <c r="B198" s="96"/>
-      <c r="C198" s="96"/>
-      <c r="D198" s="96"/>
-      <c r="E198" s="96"/>
-      <c r="F198" s="96"/>
-    </row>
-    <row r="199" spans="1:23" s="39" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A199" s="102" t="s">
+      <c r="B198" s="90"/>
+      <c r="C198" s="90"/>
+      <c r="D198" s="90"/>
+      <c r="E198" s="90"/>
+      <c r="F198" s="90"/>
+    </row>
+    <row r="199" spans="1:23" s="39" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A199" s="98" t="s">
         <v>74</v>
       </c>
-      <c r="B199" s="102"/>
-      <c r="C199" s="102"/>
-      <c r="D199" s="102"/>
-      <c r="E199" s="102"/>
-      <c r="F199" s="102"/>
-    </row>
-    <row r="200" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A200" s="103" t="s">
+      <c r="B199" s="98"/>
+      <c r="C199" s="98"/>
+      <c r="D199" s="98"/>
+      <c r="E199" s="98"/>
+      <c r="F199" s="98"/>
+    </row>
+    <row r="200" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A200" s="85" t="s">
         <v>46</v>
       </c>
       <c r="B200" s="43"/>
       <c r="C200" s="43"/>
-      <c r="D200" s="103" t="s">
+      <c r="D200" s="85" t="s">
         <v>51</v>
       </c>
-      <c r="E200" s="103"/>
-      <c r="F200" s="103"/>
-    </row>
-    <row r="201" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A201" s="103"/>
+      <c r="E200" s="85"/>
+      <c r="F200" s="85"/>
+    </row>
+    <row r="201" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A201" s="85"/>
       <c r="B201" s="43"/>
       <c r="C201" s="44" t="s">
         <v>47</v>
@@ -10564,67 +13811,67 @@
         <v>125.22857142857143</v>
       </c>
     </row>
-    <row r="202" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A202" s="45" t="s">
         <v>25</v>
       </c>
       <c r="B202" s="43"/>
       <c r="C202" s="43"/>
-      <c r="D202" s="81">
-        <v>0</v>
-      </c>
-      <c r="E202" s="81">
-        <v>0</v>
-      </c>
-      <c r="F202" s="81">
+      <c r="D202" s="65">
+        <v>0</v>
+      </c>
+      <c r="E202" s="65">
+        <v>0</v>
+      </c>
+      <c r="F202" s="65">
         <v>0</v>
       </c>
       <c r="H202">
-        <f t="shared" ref="H202:H217" si="19">D202*B54</f>
+        <f t="shared" ref="H202:H217" si="20">D202*B54</f>
         <v>0</v>
       </c>
       <c r="I202">
-        <f t="shared" ref="I202:I217" si="20">E202*C54</f>
+        <f t="shared" ref="I202:I217" si="21">E202*C54</f>
         <v>0</v>
       </c>
       <c r="J202">
-        <f t="shared" ref="J202:J217" si="21">F202*D54</f>
-        <v>0</v>
-      </c>
-      <c r="N202" s="92" t="s">
+        <f t="shared" ref="J202:J217" si="22">F202*D54</f>
+        <v>0</v>
+      </c>
+      <c r="N202" s="76" t="s">
         <v>2</v>
       </c>
       <c r="O202" s="93" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P202" s="93"/>
       <c r="Q202" s="93"/>
     </row>
-    <row r="203" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A203" s="45" t="s">
         <v>24</v>
       </c>
       <c r="B203" s="43"/>
       <c r="C203" s="43"/>
-      <c r="D203" s="81">
-        <v>0</v>
-      </c>
-      <c r="E203" s="81">
-        <v>0</v>
-      </c>
-      <c r="F203" s="81">
+      <c r="D203" s="65">
+        <v>0</v>
+      </c>
+      <c r="E203" s="65">
+        <v>0</v>
+      </c>
+      <c r="F203" s="65">
         <v>0</v>
       </c>
       <c r="H203">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="I203">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J203">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N203" s="45" t="s">
@@ -10640,7 +13887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A204" s="45" t="s">
         <v>32</v>
       </c>
@@ -10648,25 +13895,25 @@
       <c r="C204" s="43">
         <v>0.05</v>
       </c>
-      <c r="D204" s="82">
+      <c r="D204" s="66">
         <v>3.12</v>
       </c>
-      <c r="E204" s="82">
+      <c r="E204" s="66">
         <v>1.8720000000000001</v>
       </c>
-      <c r="F204" s="82">
+      <c r="F204" s="66">
         <v>1.1232</v>
       </c>
       <c r="H204">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>3.0575999999999999</v>
       </c>
       <c r="I204">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2.8080000000000001E-2</v>
       </c>
       <c r="J204">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>5.6160000000000203E-3</v>
       </c>
       <c r="K204">
@@ -10686,7 +13933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A205" s="45" t="s">
         <v>33</v>
       </c>
@@ -10694,29 +13941,29 @@
       <c r="C205" s="43">
         <v>0.1</v>
       </c>
-      <c r="D205" s="82">
+      <c r="D205" s="66">
         <v>15.6</v>
       </c>
-      <c r="E205" s="82">
+      <c r="E205" s="66">
         <v>9.36</v>
       </c>
-      <c r="F205" s="82">
+      <c r="F205" s="66">
         <v>5.6159999999999997</v>
       </c>
       <c r="H205">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>7.9418181818181806</v>
       </c>
       <c r="I205">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>3.814909090909091</v>
       </c>
       <c r="J205">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.46799999999999986</v>
       </c>
       <c r="K205">
-        <f t="shared" ref="K205:K217" si="22">SUM(H205:J205)</f>
+        <f t="shared" ref="K205:K217" si="23">SUM(H205:J205)</f>
         <v>12.224727272727272</v>
       </c>
       <c r="N205" s="45" t="s">
@@ -10732,7 +13979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A206" s="45" t="s">
         <v>34</v>
       </c>
@@ -10742,48 +13989,48 @@
       <c r="C206" s="43">
         <v>0.4</v>
       </c>
-      <c r="D206" s="81">
+      <c r="D206" s="65">
         <v>62.4</v>
       </c>
-      <c r="E206" s="81">
+      <c r="E206" s="65">
         <v>37.44</v>
       </c>
-      <c r="F206" s="81">
+      <c r="F206" s="65">
         <v>22.463999999999999</v>
       </c>
       <c r="H206">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>29.452100840336129</v>
       </c>
       <c r="I206">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>16.570084033613444</v>
       </c>
       <c r="J206">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.9191932773109244</v>
       </c>
       <c r="K206">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>47.941378151260494</v>
       </c>
       <c r="N206" s="45" t="s">
         <v>33</v>
       </c>
       <c r="O206" s="9">
-        <f t="shared" ref="O206:O218" si="23">D205/D204</f>
+        <f t="shared" ref="O206:O218" si="24">D205/D204</f>
         <v>5</v>
       </c>
       <c r="P206" s="9">
-        <f t="shared" ref="P206:P218" si="24">E205/E204</f>
+        <f t="shared" ref="P206:P218" si="25">E205/E204</f>
         <v>4.9999999999999991</v>
       </c>
       <c r="Q206" s="9">
-        <f t="shared" ref="Q206:Q218" si="25">F205/F204</f>
+        <f t="shared" ref="Q206:Q218" si="26">F205/F204</f>
         <v>5</v>
       </c>
     </row>
-    <row r="207" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A207" s="45" t="s">
         <v>35</v>
       </c>
@@ -10791,48 +14038,48 @@
         <v>5</v>
       </c>
       <c r="C207" s="47"/>
-      <c r="D207" s="82">
+      <c r="D207" s="66">
         <v>156</v>
       </c>
-      <c r="E207" s="82">
+      <c r="E207" s="66">
         <v>93.6</v>
       </c>
-      <c r="F207" s="82">
+      <c r="F207" s="66">
         <v>56.16</v>
       </c>
       <c r="H207">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>79.613793103448273</v>
       </c>
       <c r="I207">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>38.515862068965518</v>
       </c>
       <c r="J207">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>4.38951724137931</v>
       </c>
       <c r="K207">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>122.5191724137931</v>
       </c>
       <c r="N207" s="45" t="s">
         <v>34</v>
       </c>
       <c r="O207" s="9">
-        <f t="shared" si="23"/>
-        <v>4</v>
-      </c>
-      <c r="P207" s="9">
         <f t="shared" si="24"/>
         <v>4</v>
       </c>
-      <c r="Q207" s="9">
+      <c r="P207" s="9">
         <f t="shared" si="25"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="208" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="Q207" s="9">
+        <f t="shared" si="26"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="208" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A208" s="45" t="s">
         <v>36</v>
       </c>
@@ -10840,32 +14087,32 @@
         <v>10</v>
       </c>
       <c r="C208" s="43">
-        <f t="shared" ref="C208:C217" si="26">EXP(LN(0.5)*B207/10)</f>
+        <f t="shared" ref="C208:C217" si="27">EXP(LN(0.5)*B207/10)</f>
         <v>0.70710678118654757</v>
       </c>
-      <c r="D208" s="82">
+      <c r="D208" s="66">
         <v>110.308657865101</v>
       </c>
-      <c r="E208" s="82">
+      <c r="E208" s="66">
         <v>66.185194719060902</v>
       </c>
-      <c r="F208" s="82">
+      <c r="F208" s="66">
         <v>39.711116831436499</v>
       </c>
       <c r="H208">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>66.683764924100601</v>
       </c>
       <c r="I208">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>22.622623053690308</v>
       </c>
       <c r="J208">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>2.1313876265460268</v>
       </c>
       <c r="K208">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>91.437775604336935</v>
       </c>
       <c r="M208" s="39"/>
@@ -10873,19 +14120,19 @@
         <v>35</v>
       </c>
       <c r="O208" s="9">
-        <f t="shared" si="23"/>
-        <v>2.5</v>
-      </c>
-      <c r="P208" s="9">
         <f t="shared" si="24"/>
         <v>2.5</v>
       </c>
-      <c r="Q208" s="9">
+      <c r="P208" s="9">
         <f t="shared" si="25"/>
         <v>2.5</v>
       </c>
-    </row>
-    <row r="209" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="Q208" s="9">
+        <f t="shared" si="26"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="209" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A209" s="45" t="s">
         <v>37</v>
       </c>
@@ -10893,51 +14140,51 @@
         <v>15</v>
       </c>
       <c r="C209" s="43">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.5</v>
       </c>
-      <c r="D209" s="82">
+      <c r="D209" s="66">
         <v>78</v>
       </c>
-      <c r="E209" s="82">
+      <c r="E209" s="66">
         <v>46.8</v>
       </c>
-      <c r="F209" s="82">
+      <c r="F209" s="66">
         <v>28.08</v>
       </c>
       <c r="H209">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>59.710344827586205</v>
       </c>
       <c r="I209">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>9.5213793103448268</v>
       </c>
       <c r="J209">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.87144827586206886</v>
       </c>
       <c r="K209">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>70.103172413793089</v>
       </c>
       <c r="N209" s="45" t="s">
         <v>36</v>
       </c>
       <c r="O209" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.70710678118654491</v>
       </c>
       <c r="P209" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.70710678118654813</v>
       </c>
       <c r="Q209" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.70710678118654735</v>
       </c>
     </row>
-    <row r="210" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A210" s="45" t="s">
         <v>38</v>
       </c>
@@ -10945,51 +14192,51 @@
         <v>20</v>
       </c>
       <c r="C210" s="43">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.35355339059327379</v>
       </c>
-      <c r="D210" s="82">
+      <c r="D210" s="66">
         <v>55.154328932550698</v>
       </c>
-      <c r="E210" s="82">
+      <c r="E210" s="66">
         <v>33.092597359530401</v>
       </c>
-      <c r="F210" s="82">
+      <c r="F210" s="66">
         <v>19.855558415718299</v>
       </c>
       <c r="H210">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>45.126269126632387</v>
       </c>
       <c r="I210">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>5.5540023540470607</v>
       </c>
       <c r="J210">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.27770011770235381</v>
       </c>
       <c r="K210">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>50.957971598381803</v>
       </c>
       <c r="N210" s="45" t="s">
         <v>37</v>
       </c>
       <c r="O210" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.70710678118655024</v>
       </c>
       <c r="P210" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.70710678118654691</v>
       </c>
       <c r="Q210" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.70710678118654768</v>
       </c>
     </row>
-    <row r="211" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A211" s="45" t="s">
         <v>39</v>
       </c>
@@ -10997,51 +14244,51 @@
         <v>25</v>
       </c>
       <c r="C211" s="43">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.25</v>
       </c>
-      <c r="D211" s="82">
+      <c r="D211" s="66">
         <v>39</v>
       </c>
-      <c r="E211" s="82">
+      <c r="E211" s="66">
         <v>23.4</v>
       </c>
-      <c r="F211" s="82">
+      <c r="F211" s="66">
         <v>14.04</v>
       </c>
       <c r="H211">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>33.179104477611936</v>
       </c>
       <c r="I211">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>3.4691373134328458</v>
       </c>
       <c r="J211">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.4039999999999999E-2</v>
       </c>
       <c r="K211">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>36.662281791044784</v>
       </c>
       <c r="N211" s="45" t="s">
         <v>38</v>
       </c>
       <c r="O211" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.70710678118654735</v>
       </c>
       <c r="P211" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.70710678118654713</v>
       </c>
       <c r="Q211" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.70710678118654913</v>
       </c>
     </row>
-    <row r="212" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A212" s="45" t="s">
         <v>40</v>
       </c>
@@ -11049,51 +14296,51 @@
         <v>30</v>
       </c>
       <c r="C212" s="43">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.17677669529663689</v>
       </c>
-      <c r="D212" s="82">
+      <c r="D212" s="66">
         <v>27.577164466275399</v>
       </c>
-      <c r="E212" s="82">
+      <c r="E212" s="66">
         <v>16.546298679765201</v>
       </c>
-      <c r="F212" s="82">
+      <c r="F212" s="66">
         <v>9.92777920785913</v>
       </c>
       <c r="H212">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>23.461169769816379</v>
       </c>
       <c r="I212">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2.4530505191956449</v>
       </c>
       <c r="J212">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>9.9277792078591304E-3</v>
       </c>
       <c r="K212">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>25.924148068219885</v>
       </c>
       <c r="N212" s="45" t="s">
         <v>39</v>
       </c>
       <c r="O212" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.70710678118654768</v>
       </c>
       <c r="P212" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.70710678118654802</v>
       </c>
       <c r="Q212" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.70710678118654591</v>
       </c>
     </row>
-    <row r="213" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A213" s="45" t="s">
         <v>41</v>
       </c>
@@ -11101,51 +14348,51 @@
         <v>35</v>
       </c>
       <c r="C213" s="43">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.12500000000000003</v>
       </c>
-      <c r="D213" s="82">
+      <c r="D213" s="66">
         <v>19.5</v>
       </c>
-      <c r="E213" s="82">
+      <c r="E213" s="66">
         <v>11.7</v>
       </c>
-      <c r="F213" s="82">
+      <c r="F213" s="66">
         <v>7.02</v>
       </c>
       <c r="H213">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>16.589552238805968</v>
       </c>
       <c r="I213">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1.7345686567164229</v>
       </c>
       <c r="J213">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>7.0199999999999993E-3</v>
       </c>
       <c r="K213">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>18.331140895522392</v>
       </c>
       <c r="N213" s="45" t="s">
         <v>40</v>
       </c>
       <c r="O213" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.70710678118654868</v>
       </c>
       <c r="P213" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.70710678118654713</v>
       </c>
       <c r="Q213" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.70710678118654779</v>
       </c>
     </row>
-    <row r="214" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A214" s="45" t="s">
         <v>42</v>
       </c>
@@ -11156,152 +14403,152 @@
         <f>EXP(LN(0.5)*B213/10)</f>
         <v>8.8388347648318447E-2</v>
       </c>
-      <c r="D214" s="82">
+      <c r="D214" s="66">
         <v>13.788582233137699</v>
       </c>
-      <c r="E214" s="82">
+      <c r="E214" s="66">
         <v>8.2731493398826093</v>
       </c>
-      <c r="F214" s="82">
+      <c r="F214" s="66">
         <v>4.9638896039295597</v>
       </c>
       <c r="H214">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>11.73058488490819</v>
       </c>
       <c r="I214">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1.2265252595978238</v>
       </c>
       <c r="J214">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>4.96388960392956E-3</v>
       </c>
       <c r="K214">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>12.962074034109945</v>
       </c>
       <c r="N214" s="45" t="s">
         <v>41</v>
       </c>
       <c r="O214" s="9">
+        <f t="shared" si="24"/>
+        <v>0.70710678118654635</v>
+      </c>
+      <c r="P214" s="9">
+        <f t="shared" si="25"/>
+        <v>0.70710678118654802</v>
+      </c>
+      <c r="Q214" s="9">
+        <f t="shared" si="26"/>
+        <v>0.70710678118654724</v>
+      </c>
+    </row>
+    <row r="215" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A215" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="B215" s="46">
+        <v>45</v>
+      </c>
+      <c r="C215" s="43">
+        <f t="shared" si="27"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="D215" s="66">
+        <v>9.75</v>
+      </c>
+      <c r="E215" s="66">
+        <v>5.85</v>
+      </c>
+      <c r="F215" s="66">
+        <v>3.51</v>
+      </c>
+      <c r="H215">
+        <f t="shared" si="20"/>
+        <v>8.2947761194029841</v>
+      </c>
+      <c r="I215">
+        <f t="shared" si="21"/>
+        <v>0.86728432835821145</v>
+      </c>
+      <c r="J215">
+        <f t="shared" si="22"/>
+        <v>3.5099999999999997E-3</v>
+      </c>
+      <c r="K215">
         <f t="shared" si="23"/>
+        <v>9.1655704477611959</v>
+      </c>
+      <c r="N215" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="O215" s="9">
+        <f t="shared" si="24"/>
+        <v>0.70710678118654868</v>
+      </c>
+      <c r="P215" s="9">
+        <f t="shared" si="25"/>
+        <v>0.70710678118654779</v>
+      </c>
+      <c r="Q215" s="9">
+        <f t="shared" si="26"/>
+        <v>0.70710678118654702</v>
+      </c>
+    </row>
+    <row r="216" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A216" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="B216" s="46">
+        <v>50</v>
+      </c>
+      <c r="C216" s="43">
+        <f t="shared" si="27"/>
+        <v>4.4194173824159223E-2</v>
+      </c>
+      <c r="D216" s="66">
+        <v>6.8942911165688399</v>
+      </c>
+      <c r="E216" s="66">
+        <v>4.1365746699413002</v>
+      </c>
+      <c r="F216" s="66">
+        <v>2.4819448019647798</v>
+      </c>
+      <c r="H216">
+        <f t="shared" si="20"/>
+        <v>5.8652924424540869</v>
+      </c>
+      <c r="I216">
+        <f t="shared" si="21"/>
+        <v>0.61326262979891122</v>
+      </c>
+      <c r="J216">
+        <f t="shared" si="22"/>
+        <v>2.48194480196478E-3</v>
+      </c>
+      <c r="K216">
+        <f t="shared" si="23"/>
+        <v>6.4810370170549634</v>
+      </c>
+      <c r="N216" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="O216" s="9">
+        <f t="shared" si="24"/>
         <v>0.70710678118654635</v>
       </c>
-      <c r="P214" s="9">
-        <f t="shared" si="24"/>
-        <v>0.70710678118654802</v>
-      </c>
-      <c r="Q214" s="9">
+      <c r="P216" s="9">
         <f t="shared" si="25"/>
         <v>0.70710678118654724</v>
       </c>
-    </row>
-    <row r="215" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A215" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="B215" s="46">
-        <v>45</v>
-      </c>
-      <c r="C215" s="43">
+      <c r="Q216" s="9">
         <f t="shared" si="26"/>
-        <v>6.25E-2</v>
-      </c>
-      <c r="D215" s="82">
-        <v>9.75</v>
-      </c>
-      <c r="E215" s="82">
-        <v>5.85</v>
-      </c>
-      <c r="F215" s="82">
-        <v>3.51</v>
-      </c>
-      <c r="H215">
-        <f t="shared" si="19"/>
-        <v>8.2947761194029841</v>
-      </c>
-      <c r="I215">
-        <f t="shared" si="20"/>
-        <v>0.86728432835821145</v>
-      </c>
-      <c r="J215">
-        <f t="shared" si="21"/>
-        <v>3.5099999999999997E-3</v>
-      </c>
-      <c r="K215">
-        <f t="shared" si="22"/>
-        <v>9.1655704477611959</v>
-      </c>
-      <c r="N215" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="O215" s="9">
-        <f t="shared" si="23"/>
-        <v>0.70710678118654868</v>
-      </c>
-      <c r="P215" s="9">
-        <f t="shared" si="24"/>
-        <v>0.70710678118654779</v>
-      </c>
-      <c r="Q215" s="9">
-        <f t="shared" si="25"/>
-        <v>0.70710678118654702</v>
-      </c>
-    </row>
-    <row r="216" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A216" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="B216" s="46">
-        <v>50</v>
-      </c>
-      <c r="C216" s="43">
-        <f t="shared" si="26"/>
-        <v>4.4194173824159223E-2</v>
-      </c>
-      <c r="D216" s="82">
-        <v>6.8942911165688399</v>
-      </c>
-      <c r="E216" s="82">
-        <v>4.1365746699413002</v>
-      </c>
-      <c r="F216" s="82">
-        <v>2.4819448019647798</v>
-      </c>
-      <c r="H216">
-        <f t="shared" si="19"/>
-        <v>5.8652924424540869</v>
-      </c>
-      <c r="I216">
-        <f t="shared" si="20"/>
-        <v>0.61326262979891122</v>
-      </c>
-      <c r="J216">
-        <f t="shared" si="21"/>
-        <v>2.48194480196478E-3</v>
-      </c>
-      <c r="K216">
-        <f t="shared" si="22"/>
-        <v>6.4810370170549634</v>
-      </c>
-      <c r="N216" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="O216" s="9">
-        <f t="shared" si="23"/>
-        <v>0.70710678118654635</v>
-      </c>
-      <c r="P216" s="9">
-        <f t="shared" si="24"/>
-        <v>0.70710678118654724</v>
-      </c>
-      <c r="Q216" s="9">
-        <f t="shared" si="25"/>
         <v>0.70710678118654802</v>
       </c>
     </row>
-    <row r="217" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A217" s="45" t="s">
         <v>45</v>
       </c>
@@ -11309,51 +14556,51 @@
         <v>55</v>
       </c>
       <c r="C217" s="43">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>3.125E-2</v>
       </c>
-      <c r="D217" s="82">
+      <c r="D217" s="66">
         <v>4.875</v>
       </c>
-      <c r="E217" s="82">
+      <c r="E217" s="66">
         <v>2.9249999999999998</v>
       </c>
-      <c r="F217" s="82">
+      <c r="F217" s="66">
         <v>1.7549999999999999</v>
       </c>
       <c r="H217">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>4.147388059701492</v>
       </c>
       <c r="I217">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.43364216417910573</v>
       </c>
       <c r="J217">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.7549999999999998E-3</v>
       </c>
       <c r="K217">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>4.5827852238805979</v>
       </c>
       <c r="N217" s="45" t="s">
         <v>44</v>
       </c>
       <c r="O217" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.70710678118654768</v>
       </c>
       <c r="P217" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.70710678118654713</v>
       </c>
       <c r="Q217" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.70710678118654702</v>
       </c>
     </row>
-    <row r="218" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A218" s="43"/>
       <c r="B218" s="46"/>
       <c r="C218" s="43"/>
@@ -11372,42 +14619,42 @@
         <v>45</v>
       </c>
       <c r="O218" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.70710678118654735</v>
       </c>
       <c r="P218" s="9">
-        <f t="shared" si="24"/>
-        <v>0.70710678118654802</v>
-      </c>
-      <c r="Q218" s="9">
         <f t="shared" si="25"/>
         <v>0.70710678118654802</v>
       </c>
-    </row>
-    <row r="219" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A219" s="111" t="s">
+      <c r="Q218" s="9">
+        <f t="shared" si="26"/>
+        <v>0.70710678118654802</v>
+      </c>
+    </row>
+    <row r="219" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A219" s="86" t="s">
         <v>75</v>
       </c>
-      <c r="B219" s="111"/>
-      <c r="C219" s="111"/>
-      <c r="D219" s="111"/>
-      <c r="E219" s="111"/>
-      <c r="F219" s="111"/>
-    </row>
-    <row r="220" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A220" s="99" t="s">
+      <c r="B219" s="86"/>
+      <c r="C219" s="86"/>
+      <c r="D219" s="86"/>
+      <c r="E219" s="86"/>
+      <c r="F219" s="86"/>
+    </row>
+    <row r="220" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A220" s="95" t="s">
         <v>2</v>
       </c>
       <c r="B220" s="43"/>
       <c r="C220" s="43"/>
-      <c r="D220" s="103" t="s">
+      <c r="D220" s="85" t="s">
         <v>51</v>
       </c>
-      <c r="E220" s="103"/>
-      <c r="F220" s="103"/>
-    </row>
-    <row r="221" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A221" s="99"/>
+      <c r="E220" s="85"/>
+      <c r="F220" s="85"/>
+    </row>
+    <row r="221" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A221" s="95"/>
       <c r="B221" s="43"/>
       <c r="C221" s="44" t="s">
         <v>47</v>
@@ -11422,43 +14669,43 @@
         <v>50</v>
       </c>
     </row>
-    <row r="222" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A222" s="45" t="s">
         <v>25</v>
       </c>
       <c r="B222" s="43"/>
       <c r="C222" s="43"/>
-      <c r="D222" s="81">
-        <v>0</v>
-      </c>
-      <c r="E222" s="81">
-        <v>0</v>
-      </c>
-      <c r="F222" s="81">
-        <v>0</v>
-      </c>
-      <c r="N222" s="92" t="s">
+      <c r="D222" s="65">
+        <v>0</v>
+      </c>
+      <c r="E222" s="65">
+        <v>0</v>
+      </c>
+      <c r="F222" s="65">
+        <v>0</v>
+      </c>
+      <c r="N222" s="76" t="s">
         <v>2</v>
       </c>
       <c r="O222" s="93" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P222" s="93"/>
       <c r="Q222" s="93"/>
     </row>
-    <row r="223" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A223" s="45" t="s">
         <v>24</v>
       </c>
       <c r="B223" s="43"/>
       <c r="C223" s="43"/>
-      <c r="D223" s="81">
-        <v>0</v>
-      </c>
-      <c r="E223" s="81">
-        <v>0</v>
-      </c>
-      <c r="F223" s="81">
+      <c r="D223" s="65">
+        <v>0</v>
+      </c>
+      <c r="E223" s="65">
+        <v>0</v>
+      </c>
+      <c r="F223" s="65">
         <v>0</v>
       </c>
       <c r="N223" s="45" t="s">
@@ -11474,7 +14721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A224" s="45" t="s">
         <v>32</v>
       </c>
@@ -11482,13 +14729,13 @@
       <c r="C224" s="43">
         <v>0.05</v>
       </c>
-      <c r="D224" s="81">
+      <c r="D224" s="65">
         <v>7.8</v>
       </c>
-      <c r="E224" s="81">
+      <c r="E224" s="65">
         <v>4.68</v>
       </c>
-      <c r="F224" s="81">
+      <c r="F224" s="65">
         <v>2.8079999999999998</v>
       </c>
       <c r="N224" s="45" t="s">
@@ -11504,7 +14751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A225" s="45" t="s">
         <v>33</v>
       </c>
@@ -11512,13 +14759,13 @@
       <c r="C225" s="43">
         <v>0.1</v>
       </c>
-      <c r="D225" s="82">
+      <c r="D225" s="66">
         <v>18.72</v>
       </c>
-      <c r="E225" s="82">
+      <c r="E225" s="66">
         <v>11.231999999999999</v>
       </c>
-      <c r="F225" s="82">
+      <c r="F225" s="66">
         <v>6.7392000000000003</v>
       </c>
       <c r="N225" s="45" t="s">
@@ -11534,7 +14781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A226" s="45" t="s">
         <v>34</v>
       </c>
@@ -11544,32 +14791,32 @@
       <c r="C226" s="43">
         <v>0.4</v>
       </c>
-      <c r="D226" s="81">
+      <c r="D226" s="65">
         <v>74.88</v>
       </c>
-      <c r="E226" s="81">
+      <c r="E226" s="65">
         <v>44.927999999999997</v>
       </c>
-      <c r="F226" s="81">
+      <c r="F226" s="65">
         <v>26.956800000000001</v>
       </c>
       <c r="N226" s="45" t="s">
         <v>33</v>
       </c>
       <c r="O226" s="9">
-        <f t="shared" ref="O226:O238" si="27">D225/D224</f>
+        <f t="shared" ref="O226:O238" si="28">D225/D224</f>
         <v>2.4</v>
       </c>
       <c r="P226" s="9">
-        <f t="shared" ref="P226:P238" si="28">E225/E224</f>
+        <f t="shared" ref="P226:P238" si="29">E225/E224</f>
         <v>2.4</v>
       </c>
       <c r="Q226" s="9">
-        <f t="shared" ref="Q226:Q238" si="29">F225/F224</f>
+        <f t="shared" ref="Q226:Q238" si="30">F225/F224</f>
         <v>2.4000000000000004</v>
       </c>
     </row>
-    <row r="227" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A227" s="45" t="s">
         <v>35</v>
       </c>
@@ -11577,32 +14824,32 @@
         <v>5</v>
       </c>
       <c r="C227" s="47"/>
-      <c r="D227" s="81">
+      <c r="D227" s="65">
         <v>140.4</v>
       </c>
-      <c r="E227" s="81">
+      <c r="E227" s="65">
         <v>84.24</v>
       </c>
-      <c r="F227" s="81">
+      <c r="F227" s="65">
         <v>50.543999999999997</v>
       </c>
       <c r="N227" s="45" t="s">
         <v>34</v>
       </c>
       <c r="O227" s="9">
-        <f t="shared" si="27"/>
-        <v>4</v>
-      </c>
-      <c r="P227" s="9">
         <f t="shared" si="28"/>
         <v>4</v>
       </c>
-      <c r="Q227" s="9">
+      <c r="P227" s="9">
         <f t="shared" si="29"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="228" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="Q227" s="9">
+        <f t="shared" si="30"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="228" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A228" s="45" t="s">
         <v>36</v>
       </c>
@@ -11610,35 +14857,35 @@
         <v>10</v>
       </c>
       <c r="C228" s="43">
-        <f t="shared" ref="C228:C237" si="30">EXP(LN(0.5)*B227/10)</f>
+        <f t="shared" ref="C228:C237" si="31">EXP(LN(0.5)*B227/10)</f>
         <v>0.70710678118654757</v>
       </c>
-      <c r="D228" s="81">
+      <c r="D228" s="65">
         <v>99.277792078591304</v>
       </c>
-      <c r="E228" s="81">
+      <c r="E228" s="65">
         <v>59.566675247154798</v>
       </c>
-      <c r="F228" s="81">
+      <c r="F228" s="65">
         <v>35.740005148292902</v>
       </c>
       <c r="N228" s="45" t="s">
         <v>35</v>
       </c>
       <c r="O228" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1.8750000000000002</v>
       </c>
       <c r="P228" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>1.875</v>
       </c>
       <c r="Q228" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1.8749999999999998</v>
       </c>
     </row>
-    <row r="229" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A229" s="45" t="s">
         <v>37</v>
       </c>
@@ -11646,143 +14893,143 @@
         <v>15</v>
       </c>
       <c r="C229" s="43">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0.5</v>
       </c>
-      <c r="D229" s="81">
+      <c r="D229" s="65">
         <v>70.2</v>
       </c>
-      <c r="E229" s="81">
+      <c r="E229" s="65">
         <v>42.12</v>
       </c>
-      <c r="F229" s="81">
+      <c r="F229" s="65">
         <v>25.271999999999998</v>
       </c>
       <c r="N229" s="45" t="s">
         <v>36</v>
       </c>
       <c r="O229" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.70710678118654768</v>
       </c>
       <c r="P229" s="9">
+        <f t="shared" si="29"/>
+        <v>0.70710678118654802</v>
+      </c>
+      <c r="Q229" s="9">
+        <f t="shared" si="30"/>
+        <v>0.70710678118654846</v>
+      </c>
+    </row>
+    <row r="230" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A230" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="B230" s="46">
+        <v>20</v>
+      </c>
+      <c r="C230" s="43">
+        <f t="shared" si="31"/>
+        <v>0.35355339059327379</v>
+      </c>
+      <c r="D230" s="65">
+        <v>49.638896039295602</v>
+      </c>
+      <c r="E230" s="65">
+        <v>29.783337623577399</v>
+      </c>
+      <c r="F230" s="65">
+        <v>17.870002574146401</v>
+      </c>
+      <c r="N230" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="O230" s="9">
+        <f t="shared" si="28"/>
+        <v>0.70710678118654735</v>
+      </c>
+      <c r="P230" s="9">
+        <f t="shared" si="29"/>
+        <v>0.70710678118654702</v>
+      </c>
+      <c r="Q230" s="9">
+        <f t="shared" si="30"/>
+        <v>0.70710678118654657</v>
+      </c>
+    </row>
+    <row r="231" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A231" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="B231" s="46">
+        <v>25</v>
+      </c>
+      <c r="C231" s="43">
+        <f t="shared" si="31"/>
+        <v>0.25</v>
+      </c>
+      <c r="D231" s="65">
+        <v>35.1</v>
+      </c>
+      <c r="E231" s="65">
+        <v>21.06</v>
+      </c>
+      <c r="F231" s="65">
+        <v>12.635999999999999</v>
+      </c>
+      <c r="N231" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="O231" s="9">
+        <f t="shared" si="28"/>
+        <v>0.70710678118654702</v>
+      </c>
+      <c r="P231" s="9">
+        <f t="shared" si="29"/>
+        <v>0.70710678118654802</v>
+      </c>
+      <c r="Q231" s="9">
+        <f t="shared" si="30"/>
+        <v>0.70710678118654646</v>
+      </c>
+    </row>
+    <row r="232" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A232" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="B232" s="46">
+        <v>30</v>
+      </c>
+      <c r="C232" s="43">
+        <f t="shared" si="31"/>
+        <v>0.17677669529663689</v>
+      </c>
+      <c r="D232" s="65">
+        <v>27.577164466275399</v>
+      </c>
+      <c r="E232" s="65">
+        <v>16.546298679765201</v>
+      </c>
+      <c r="F232" s="65">
+        <v>9.92777920785913</v>
+      </c>
+      <c r="N232" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="O232" s="9">
         <f t="shared" si="28"/>
         <v>0.70710678118654802</v>
       </c>
-      <c r="Q229" s="9">
+      <c r="P232" s="9">
         <f t="shared" si="29"/>
-        <v>0.70710678118654846</v>
-      </c>
-    </row>
-    <row r="230" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A230" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="B230" s="46">
-        <v>20</v>
-      </c>
-      <c r="C230" s="43">
+        <v>0.70710678118654702</v>
+      </c>
+      <c r="Q232" s="9">
         <f t="shared" si="30"/>
-        <v>0.35355339059327379</v>
-      </c>
-      <c r="D230" s="81">
-        <v>49.638896039295602</v>
-      </c>
-      <c r="E230" s="81">
-        <v>29.783337623577399</v>
-      </c>
-      <c r="F230" s="81">
-        <v>17.870002574146401</v>
-      </c>
-      <c r="N230" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="O230" s="9">
-        <f t="shared" si="27"/>
-        <v>0.70710678118654735</v>
-      </c>
-      <c r="P230" s="9">
-        <f t="shared" si="28"/>
-        <v>0.70710678118654702</v>
-      </c>
-      <c r="Q230" s="9">
-        <f t="shared" si="29"/>
-        <v>0.70710678118654657</v>
-      </c>
-    </row>
-    <row r="231" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A231" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="B231" s="46">
-        <v>25</v>
-      </c>
-      <c r="C231" s="43">
-        <f t="shared" si="30"/>
-        <v>0.25</v>
-      </c>
-      <c r="D231" s="81">
-        <v>35.1</v>
-      </c>
-      <c r="E231" s="81">
-        <v>21.06</v>
-      </c>
-      <c r="F231" s="81">
-        <v>12.635999999999999</v>
-      </c>
-      <c r="N231" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="O231" s="9">
-        <f t="shared" si="27"/>
-        <v>0.70710678118654702</v>
-      </c>
-      <c r="P231" s="9">
-        <f t="shared" si="28"/>
-        <v>0.70710678118654802</v>
-      </c>
-      <c r="Q231" s="9">
-        <f t="shared" si="29"/>
-        <v>0.70710678118654646</v>
-      </c>
-    </row>
-    <row r="232" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A232" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="B232" s="46">
-        <v>30</v>
-      </c>
-      <c r="C232" s="43">
-        <f t="shared" si="30"/>
-        <v>0.17677669529663689</v>
-      </c>
-      <c r="D232" s="81">
-        <v>27.577164466275399</v>
-      </c>
-      <c r="E232" s="81">
-        <v>16.546298679765201</v>
-      </c>
-      <c r="F232" s="81">
-        <v>9.92777920785913</v>
-      </c>
-      <c r="N232" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="O232" s="9">
-        <f t="shared" si="27"/>
-        <v>0.70710678118654802</v>
-      </c>
-      <c r="P232" s="9">
-        <f t="shared" si="28"/>
-        <v>0.70710678118654702</v>
-      </c>
-      <c r="Q232" s="9">
-        <f t="shared" si="29"/>
         <v>0.70710678118654857</v>
       </c>
     </row>
-    <row r="233" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A233" s="45" t="s">
         <v>41</v>
       </c>
@@ -11790,35 +15037,35 @@
         <v>35</v>
       </c>
       <c r="C233" s="43">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0.12500000000000003</v>
       </c>
-      <c r="D233" s="81">
+      <c r="D233" s="65">
         <v>19.5</v>
       </c>
-      <c r="E233" s="81">
+      <c r="E233" s="65">
         <v>11.7</v>
       </c>
-      <c r="F233" s="81">
+      <c r="F233" s="65">
         <v>7.02</v>
       </c>
       <c r="N233" s="45" t="s">
         <v>40</v>
       </c>
       <c r="O233" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.78567420131838739</v>
       </c>
       <c r="P233" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.78567420131838561</v>
       </c>
       <c r="Q233" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.78567420131838639</v>
       </c>
     </row>
-    <row r="234" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A234" s="45" t="s">
         <v>42</v>
       </c>
@@ -11826,35 +15073,35 @@
         <v>40</v>
       </c>
       <c r="C234" s="43">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>8.8388347648318447E-2</v>
       </c>
-      <c r="D234" s="81">
+      <c r="D234" s="65">
         <v>13.788582233137699</v>
       </c>
-      <c r="E234" s="81">
+      <c r="E234" s="65">
         <v>8.2731493398826093</v>
       </c>
-      <c r="F234" s="81">
+      <c r="F234" s="65">
         <v>4.9638896039295597</v>
       </c>
       <c r="N234" s="45" t="s">
         <v>41</v>
       </c>
       <c r="O234" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.70710678118654635</v>
       </c>
       <c r="P234" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.70710678118654802</v>
       </c>
       <c r="Q234" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.70710678118654724</v>
       </c>
     </row>
-    <row r="235" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A235" s="45" t="s">
         <v>43</v>
       </c>
@@ -11862,35 +15109,35 @@
         <v>45</v>
       </c>
       <c r="C235" s="43">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>6.25E-2</v>
       </c>
-      <c r="D235" s="81">
+      <c r="D235" s="65">
         <v>9.75</v>
       </c>
-      <c r="E235" s="81">
+      <c r="E235" s="65">
         <v>5.85</v>
       </c>
-      <c r="F235" s="81">
+      <c r="F235" s="65">
         <v>3.51</v>
       </c>
       <c r="N235" s="45" t="s">
         <v>42</v>
       </c>
       <c r="O235" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.70710678118654868</v>
       </c>
       <c r="P235" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.70710678118654779</v>
       </c>
       <c r="Q235" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.70710678118654702</v>
       </c>
     </row>
-    <row r="236" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A236" s="45" t="s">
         <v>44</v>
       </c>
@@ -11901,32 +15148,32 @@
         <f>EXP(LN(0.5)*B235/10)</f>
         <v>4.4194173824159223E-2</v>
       </c>
-      <c r="D236" s="81">
+      <c r="D236" s="65">
         <v>6.8942911165688399</v>
       </c>
-      <c r="E236" s="81">
+      <c r="E236" s="65">
         <v>4.1365746699413002</v>
       </c>
-      <c r="F236" s="81">
+      <c r="F236" s="65">
         <v>2.4819448019647798</v>
       </c>
       <c r="N236" s="45" t="s">
         <v>43</v>
       </c>
       <c r="O236" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.70710678118654635</v>
       </c>
       <c r="P236" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.70710678118654724</v>
       </c>
       <c r="Q236" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.70710678118654802</v>
       </c>
     </row>
-    <row r="237" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A237" s="45" t="s">
         <v>45</v>
       </c>
@@ -11934,35 +15181,35 @@
         <v>55</v>
       </c>
       <c r="C237" s="43">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>3.125E-2</v>
       </c>
-      <c r="D237" s="81">
+      <c r="D237" s="65">
         <v>4.875</v>
       </c>
-      <c r="E237" s="81">
+      <c r="E237" s="65">
         <v>2.9249999999999998</v>
       </c>
-      <c r="F237" s="81">
+      <c r="F237" s="65">
         <v>1.7549999999999999</v>
       </c>
       <c r="N237" s="45" t="s">
         <v>44</v>
       </c>
       <c r="O237" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.70710678118654768</v>
       </c>
       <c r="P237" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.70710678118654713</v>
       </c>
       <c r="Q237" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.70710678118654702</v>
       </c>
     </row>
-    <row r="238" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A238" s="35"/>
       <c r="B238" s="35"/>
       <c r="C238" s="42"/>
@@ -11973,63 +15220,63 @@
         <v>45</v>
       </c>
       <c r="O238" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.70710678118654735</v>
       </c>
       <c r="P238" s="9">
-        <f t="shared" si="28"/>
-        <v>0.70710678118654802</v>
-      </c>
-      <c r="Q238" s="9">
         <f t="shared" si="29"/>
         <v>0.70710678118654802</v>
       </c>
-    </row>
-    <row r="239" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A239" s="90"/>
+      <c r="Q238" s="9">
+        <f t="shared" si="30"/>
+        <v>0.70710678118654802</v>
+      </c>
+    </row>
+    <row r="239" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A239" s="74"/>
       <c r="B239" s="20"/>
       <c r="C239" s="20"/>
       <c r="D239" s="20"/>
-      <c r="E239" s="91"/>
+      <c r="E239" s="75"/>
       <c r="F239" s="35"/>
     </row>
-    <row r="240" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A240" s="85"/>
-      <c r="B240" s="86"/>
-      <c r="C240" s="86"/>
-      <c r="D240" s="86"/>
-      <c r="E240" s="91"/>
+    <row r="240" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A240" s="69"/>
+      <c r="B240" s="70"/>
+      <c r="C240" s="70"/>
+      <c r="D240" s="70"/>
+      <c r="E240" s="75"/>
       <c r="F240" s="35"/>
     </row>
-    <row r="241" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A241" s="6"/>
-      <c r="B241" s="83"/>
-      <c r="C241" s="83"/>
-      <c r="D241" s="83"/>
+      <c r="B241" s="67"/>
+      <c r="C241" s="67"/>
+      <c r="D241" s="67"/>
       <c r="E241" s="25"/>
     </row>
-    <row r="242" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A242" s="6"/>
-      <c r="B242" s="83"/>
-      <c r="C242" s="83"/>
-      <c r="D242" s="83"/>
+      <c r="B242" s="67"/>
+      <c r="C242" s="67"/>
+      <c r="D242" s="67"/>
       <c r="E242" s="25"/>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="25"/>
       <c r="B243" s="25"/>
       <c r="C243" s="25"/>
       <c r="D243" s="25"/>
       <c r="E243" s="25"/>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="25"/>
       <c r="B244" s="25"/>
       <c r="C244" s="25"/>
       <c r="D244" s="25"/>
       <c r="E244" s="25"/>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="25"/>
       <c r="B245" s="25"/>
       <c r="C245" s="25"/>
@@ -12037,7 +15284,27 @@
       <c r="E245" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
+  <mergeCells count="35">
+    <mergeCell ref="V87:AC87"/>
+    <mergeCell ref="U87:U88"/>
+    <mergeCell ref="B81:I82"/>
+    <mergeCell ref="U82:U83"/>
+    <mergeCell ref="K81:K83"/>
+    <mergeCell ref="U81:AC81"/>
+    <mergeCell ref="L81:S82"/>
+    <mergeCell ref="V82:AC82"/>
+    <mergeCell ref="O222:Q222"/>
+    <mergeCell ref="O202:Q202"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="A161:A162"/>
+    <mergeCell ref="A220:A221"/>
+    <mergeCell ref="B161:D161"/>
+    <mergeCell ref="E161:G161"/>
+    <mergeCell ref="A186:C186"/>
+    <mergeCell ref="A198:F198"/>
+    <mergeCell ref="A199:F199"/>
+    <mergeCell ref="D200:F200"/>
+    <mergeCell ref="D220:F220"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="I133:I135"/>
     <mergeCell ref="J133:O133"/>
@@ -12049,24 +15316,10 @@
     <mergeCell ref="A133:A135"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B27:C27"/>
-    <mergeCell ref="C81:C83"/>
     <mergeCell ref="A52:A53"/>
     <mergeCell ref="B52:D52"/>
     <mergeCell ref="E52:G52"/>
     <mergeCell ref="A81:A83"/>
-    <mergeCell ref="O222:Q222"/>
-    <mergeCell ref="O202:Q202"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="A161:A162"/>
-    <mergeCell ref="A220:A221"/>
-    <mergeCell ref="B161:D161"/>
-    <mergeCell ref="E161:G161"/>
-    <mergeCell ref="A186:C186"/>
-    <mergeCell ref="A198:F198"/>
-    <mergeCell ref="A199:F199"/>
-    <mergeCell ref="D200:F200"/>
-    <mergeCell ref="D220:F220"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Config/Population_data.xlsx
+++ b/Config/Population_data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="108">
   <si>
     <t>Male</t>
   </si>
@@ -393,9 +393,6 @@
     <t>Moultrie, Tom A. The South African fertility decline: Evidence from two censuses and a Demographic and Health Survey. Population Studies. 2003; 57(3):265–283. [PubMed: 14602529]</t>
   </si>
   <si>
-    <t>Note: fertility rates decline linearly from 1960 to 2000 so that the model's population growth resembles actual population growth patterns and as stated by Moultrie 2003. Fertility rates stall between 2000 and 2010 as described by Moultrie 2008. Fertility rate declines again between 2010 and 2020 as described by Moultri 2007 and seen in observed data.</t>
-  </si>
-  <si>
     <t>Moultri T, Hosegood V, McGrath N, Hill C, Herbst K, Newell M-L. Fertility decline in rural South Africa: another stalled transition?, Stud Fam Plann. , 2007 in press</t>
   </si>
   <si>
@@ -497,6 +494,12 @@
   <si>
     <t>Used values from 1950-1990 before the widespread HIV epidemic</t>
   </si>
+  <si>
+    <t>Initial Fertility Rate (per year) from Nick and Monisha</t>
+  </si>
+  <si>
+    <t>Note: fertility rates decline linearly from 1960 to 2000 so that the model's population growth resembles actual population growth patterns and as stated by Moultrie 2003. Fertility rates stall between 2000 and 2010 as described by Moultrie 2008. Fertility rate declines again between 2010 and 2020 as described by Moultri 2007 and seen in observed data. Increasing initial values provided by Nick and Monisha so that fertility in HIV-negative women more closely matches observed data. The exact absolute values seem to be reasonable but semi-arbitrary anyways.</t>
+  </si>
 </sst>
 </file>
 
@@ -506,7 +509,7 @@
     <numFmt numFmtId="164" formatCode="0.00000;\-0.00000;0"/>
     <numFmt numFmtId="165" formatCode="###;\-###;0"/>
   </numFmts>
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -737,6 +740,21 @@
     <font>
       <b/>
       <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -1398,7 +1416,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1554,13 +1572,51 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1608,6 +1664,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1626,48 +1694,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="33" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1678,10 +1708,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="48">
@@ -1793,7 +1819,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2308,7 +2333,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4066,7 +4090,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5552,7 +5575,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8165,8 +8187,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AF245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F78" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O104" sqref="O104"/>
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G134" sqref="G134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8211,7 +8233,7 @@
   <sheetData>
     <row r="1" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B1" s="37"/>
       <c r="C1" s="37"/>
@@ -8239,16 +8261,16 @@
       <c r="Y1" s="37"/>
     </row>
     <row r="2" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="92" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
       <c r="I2" s="37"/>
       <c r="J2" s="37"/>
       <c r="K2" s="37"/>
@@ -8300,14 +8322,14 @@
       <c r="A4" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="90" t="s">
+      <c r="B4" s="104" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="91"/>
-      <c r="D4" s="90" t="s">
+      <c r="C4" s="105"/>
+      <c r="D4" s="104" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="91"/>
+      <c r="E4" s="105"/>
     </row>
     <row r="5" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
@@ -8735,10 +8757,10 @@
       <c r="A27" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="90" t="s">
+      <c r="B27" s="104" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="91"/>
+      <c r="C27" s="105"/>
     </row>
     <row r="28" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
@@ -9153,19 +9175,19 @@
       <c r="AE51" s="24"/>
     </row>
     <row r="52" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="92" t="s">
+      <c r="A52" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="B52" s="92" t="s">
+      <c r="B52" s="106" t="s">
         <v>56</v>
       </c>
-      <c r="C52" s="92"/>
-      <c r="D52" s="92"/>
-      <c r="E52" s="92" t="s">
+      <c r="C52" s="106"/>
+      <c r="D52" s="106"/>
+      <c r="E52" s="106" t="s">
         <v>57</v>
       </c>
-      <c r="F52" s="92"/>
-      <c r="G52" s="92"/>
+      <c r="F52" s="106"/>
+      <c r="G52" s="106"/>
       <c r="X52" s="22"/>
       <c r="Y52" s="22"/>
       <c r="Z52" s="22"/>
@@ -9176,7 +9198,7 @@
       <c r="AE52" s="22"/>
     </row>
     <row r="53" spans="1:31" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="92"/>
+      <c r="A53" s="106"/>
       <c r="B53" s="33" t="s">
         <v>3</v>
       </c>
@@ -9683,7 +9705,7 @@
     </row>
     <row r="80" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="36" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B80" s="37"/>
       <c r="C80" s="37"/>
@@ -9710,397 +9732,397 @@
       <c r="X80" s="37"/>
     </row>
     <row r="81" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="101" t="s">
+      <c r="A81" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="B81" s="94" t="s">
+      <c r="B81" s="112" t="s">
         <v>81</v>
       </c>
-      <c r="C81" s="94"/>
-      <c r="D81" s="94"/>
-      <c r="E81" s="94"/>
-      <c r="F81" s="94"/>
-      <c r="G81" s="94"/>
-      <c r="H81" s="94"/>
-      <c r="I81" s="94"/>
+      <c r="C81" s="112"/>
+      <c r="D81" s="112"/>
+      <c r="E81" s="112"/>
+      <c r="F81" s="112"/>
+      <c r="G81" s="112"/>
+      <c r="H81" s="112"/>
+      <c r="I81" s="112"/>
       <c r="J81" s="35"/>
-      <c r="K81" s="101" t="s">
+      <c r="K81" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="L81" s="94" t="s">
+      <c r="L81" s="112" t="s">
         <v>82</v>
       </c>
-      <c r="M81" s="94"/>
-      <c r="N81" s="94"/>
-      <c r="O81" s="94"/>
-      <c r="P81" s="94"/>
-      <c r="Q81" s="94"/>
-      <c r="R81" s="94"/>
-      <c r="S81" s="94"/>
+      <c r="M81" s="112"/>
+      <c r="N81" s="112"/>
+      <c r="O81" s="112"/>
+      <c r="P81" s="112"/>
+      <c r="Q81" s="112"/>
+      <c r="R81" s="112"/>
+      <c r="S81" s="112"/>
       <c r="T81" s="35"/>
-      <c r="U81" s="105" t="s">
+      <c r="U81" s="118" t="s">
         <v>83</v>
       </c>
-      <c r="V81" s="105"/>
-      <c r="W81" s="105"/>
-      <c r="X81" s="105"/>
-      <c r="Y81" s="105"/>
-      <c r="Z81" s="105"/>
-      <c r="AA81" s="105"/>
-      <c r="AB81" s="105"/>
-      <c r="AC81" s="105"/>
+      <c r="V81" s="118"/>
+      <c r="W81" s="118"/>
+      <c r="X81" s="118"/>
+      <c r="Y81" s="118"/>
+      <c r="Z81" s="118"/>
+      <c r="AA81" s="118"/>
+      <c r="AB81" s="118"/>
+      <c r="AC81" s="118"/>
     </row>
     <row r="82" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="102"/>
-      <c r="B82" s="94"/>
-      <c r="C82" s="94"/>
-      <c r="D82" s="94"/>
-      <c r="E82" s="94"/>
-      <c r="F82" s="94"/>
-      <c r="G82" s="94"/>
-      <c r="H82" s="94"/>
-      <c r="I82" s="94"/>
+      <c r="A82" s="108"/>
+      <c r="B82" s="112"/>
+      <c r="C82" s="112"/>
+      <c r="D82" s="112"/>
+      <c r="E82" s="112"/>
+      <c r="F82" s="112"/>
+      <c r="G82" s="112"/>
+      <c r="H82" s="112"/>
+      <c r="I82" s="112"/>
       <c r="J82" s="35"/>
-      <c r="K82" s="102"/>
-      <c r="L82" s="94"/>
-      <c r="M82" s="94"/>
-      <c r="N82" s="94"/>
-      <c r="O82" s="94"/>
-      <c r="P82" s="94"/>
-      <c r="Q82" s="94"/>
-      <c r="R82" s="94"/>
-      <c r="S82" s="94"/>
+      <c r="K82" s="108"/>
+      <c r="L82" s="112"/>
+      <c r="M82" s="112"/>
+      <c r="N82" s="112"/>
+      <c r="O82" s="112"/>
+      <c r="P82" s="112"/>
+      <c r="Q82" s="112"/>
+      <c r="R82" s="112"/>
+      <c r="S82" s="112"/>
       <c r="T82" s="35"/>
-      <c r="U82" s="105" t="s">
+      <c r="U82" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="V82" s="115" t="s">
+      <c r="V82" s="119" t="s">
         <v>74</v>
       </c>
-      <c r="W82" s="116"/>
-      <c r="X82" s="116"/>
-      <c r="Y82" s="116"/>
-      <c r="Z82" s="116"/>
-      <c r="AA82" s="116"/>
-      <c r="AB82" s="116"/>
-      <c r="AC82" s="117"/>
+      <c r="W82" s="120"/>
+      <c r="X82" s="120"/>
+      <c r="Y82" s="120"/>
+      <c r="Z82" s="120"/>
+      <c r="AA82" s="120"/>
+      <c r="AB82" s="120"/>
+      <c r="AC82" s="121"/>
     </row>
     <row r="83" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="103"/>
-      <c r="B83" s="106" t="s">
+      <c r="A83" s="109"/>
+      <c r="B83" s="79" t="s">
+        <v>97</v>
+      </c>
+      <c r="C83" s="79" t="s">
         <v>98</v>
       </c>
-      <c r="C83" s="106" t="s">
+      <c r="D83" s="79" t="s">
         <v>99</v>
       </c>
-      <c r="D83" s="106" t="s">
+      <c r="E83" s="79" t="s">
         <v>100</v>
       </c>
-      <c r="E83" s="106" t="s">
+      <c r="F83" s="88" t="s">
+        <v>104</v>
+      </c>
+      <c r="G83" s="79" t="s">
         <v>101</v>
       </c>
-      <c r="F83" s="118" t="s">
-        <v>105</v>
-      </c>
-      <c r="G83" s="106" t="s">
+      <c r="H83" s="79" t="s">
+        <v>103</v>
+      </c>
+      <c r="I83" s="79" t="s">
         <v>102</v>
       </c>
-      <c r="H83" s="106" t="s">
+      <c r="J83" s="35"/>
+      <c r="K83" s="109"/>
+      <c r="L83" s="79" t="s">
+        <v>97</v>
+      </c>
+      <c r="M83" s="79" t="s">
+        <v>98</v>
+      </c>
+      <c r="N83" s="79" t="s">
+        <v>99</v>
+      </c>
+      <c r="O83" s="79" t="s">
+        <v>100</v>
+      </c>
+      <c r="P83" s="80" t="s">
         <v>104</v>
       </c>
-      <c r="I83" s="106" t="s">
+      <c r="Q83" s="79" t="s">
+        <v>101</v>
+      </c>
+      <c r="R83" s="79" t="s">
         <v>103</v>
       </c>
-      <c r="J83" s="35"/>
-      <c r="K83" s="103"/>
-      <c r="L83" s="106" t="s">
+      <c r="S83" s="79" t="s">
+        <v>102</v>
+      </c>
+      <c r="T83" s="35"/>
+      <c r="U83" s="118"/>
+      <c r="V83" s="79" t="s">
+        <v>97</v>
+      </c>
+      <c r="W83" s="79" t="s">
         <v>98</v>
       </c>
-      <c r="M83" s="106" t="s">
+      <c r="X83" s="79" t="s">
         <v>99</v>
       </c>
-      <c r="N83" s="106" t="s">
+      <c r="Y83" s="79" t="s">
         <v>100</v>
       </c>
-      <c r="O83" s="106" t="s">
+      <c r="Z83" s="80" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA83" s="79" t="s">
         <v>101</v>
       </c>
-      <c r="P83" s="107" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q83" s="106" t="s">
+      <c r="AB83" s="79" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC83" s="79" t="s">
         <v>102</v>
       </c>
-      <c r="R83" s="106" t="s">
-        <v>104</v>
-      </c>
-      <c r="S83" s="106" t="s">
-        <v>103</v>
-      </c>
-      <c r="T83" s="35"/>
-      <c r="U83" s="105"/>
-      <c r="V83" s="106" t="s">
-        <v>98</v>
-      </c>
-      <c r="W83" s="106" t="s">
-        <v>99</v>
-      </c>
-      <c r="X83" s="106" t="s">
-        <v>100</v>
-      </c>
-      <c r="Y83" s="106" t="s">
-        <v>101</v>
-      </c>
-      <c r="Z83" s="107" t="s">
-        <v>105</v>
-      </c>
-      <c r="AA83" s="106" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB83" s="106" t="s">
-        <v>104</v>
-      </c>
-      <c r="AC83" s="106" t="s">
-        <v>103</v>
-      </c>
     </row>
     <row r="84" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="77" t="s">
+      <c r="A84" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="B84" s="109">
+      <c r="B84" s="82">
         <f>SUM(V84:V85)</f>
         <v>0.19005920400000001</v>
       </c>
-      <c r="C84" s="108">
+      <c r="C84" s="81">
         <f t="shared" ref="C84:I84" si="7">SUM(W84:W85)</f>
         <v>0.16702423499999999</v>
       </c>
-      <c r="D84" s="108">
+      <c r="D84" s="81">
         <f t="shared" si="7"/>
         <v>0.15232399099999999</v>
       </c>
-      <c r="E84" s="108">
+      <c r="E84" s="81">
         <f t="shared" si="7"/>
         <v>0.137224824</v>
       </c>
-      <c r="F84" s="108">
+      <c r="F84" s="81">
         <f t="shared" si="7"/>
         <v>0.115676261</v>
       </c>
-      <c r="G84" s="108">
+      <c r="G84" s="81">
         <f t="shared" si="7"/>
         <v>9.0002309699999991E-2</v>
       </c>
-      <c r="H84" s="108">
+      <c r="H84" s="81">
         <f t="shared" si="7"/>
         <v>7.0407469099999995E-2</v>
       </c>
-      <c r="I84" s="109">
+      <c r="I84" s="82">
         <f t="shared" si="7"/>
         <v>5.6975585300000006E-2</v>
       </c>
       <c r="J84" s="35"/>
-      <c r="K84" s="77" t="s">
+      <c r="K84" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="L84" s="109">
-        <f>SUM(V89:V90)</f>
+      <c r="L84" s="82">
+        <f t="shared" ref="L84:S84" si="8">SUM(V89:V90)</f>
         <v>0.16283755500000002</v>
       </c>
-      <c r="M84" s="108">
-        <f>SUM(W89:W90)</f>
+      <c r="M84" s="81">
+        <f t="shared" si="8"/>
         <v>0.143554814</v>
       </c>
-      <c r="N84" s="108">
-        <f>SUM(X89:X90)</f>
+      <c r="N84" s="81">
+        <f t="shared" si="8"/>
         <v>0.131042716</v>
       </c>
-      <c r="O84" s="108">
-        <f>SUM(Y89:Y90)</f>
+      <c r="O84" s="81">
+        <f t="shared" si="8"/>
         <v>0.11815073600000001</v>
       </c>
-      <c r="P84" s="108">
-        <f>SUM(Z89:Z90)</f>
+      <c r="P84" s="81">
+        <f t="shared" si="8"/>
         <v>9.9835274000000002E-2</v>
       </c>
-      <c r="Q84" s="108">
-        <f>SUM(AA89:AA90)</f>
+      <c r="Q84" s="81">
+        <f t="shared" si="8"/>
         <v>7.7719069000000002E-2</v>
       </c>
-      <c r="R84" s="108">
-        <f>SUM(AB89:AB90)</f>
+      <c r="R84" s="81">
+        <f t="shared" si="8"/>
         <v>5.96665085E-2</v>
       </c>
-      <c r="S84" s="109">
-        <f>SUM(AC89:AC90)</f>
+      <c r="S84" s="82">
+        <f t="shared" si="8"/>
         <v>4.7441704699999997E-2</v>
       </c>
       <c r="T84" s="35"/>
-      <c r="U84" s="110">
-        <v>0</v>
-      </c>
-      <c r="V84" s="111">
+      <c r="U84" s="83">
+        <v>0</v>
+      </c>
+      <c r="V84" s="84">
         <v>0.15925727000000001</v>
       </c>
-      <c r="W84" s="111">
+      <c r="W84" s="84">
         <v>0.14222435</v>
       </c>
-      <c r="X84" s="111">
+      <c r="X84" s="84">
         <v>0.13109251</v>
       </c>
-      <c r="Y84" s="111">
+      <c r="Y84" s="84">
         <v>0.11936734</v>
       </c>
-      <c r="Z84" s="111">
+      <c r="Z84" s="84">
         <v>0.10190435</v>
       </c>
-      <c r="AA84" s="111">
+      <c r="AA84" s="84">
         <v>8.0275031999999996E-2</v>
       </c>
-      <c r="AB84" s="111">
+      <c r="AB84" s="84">
         <v>6.3396686999999993E-2</v>
       </c>
-      <c r="AC84" s="112">
+      <c r="AC84" s="85">
         <v>5.1751479000000003E-2</v>
       </c>
     </row>
     <row r="85" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="77" t="s">
+      <c r="A85" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B85" s="119">
+      <c r="B85" s="89">
         <v>8.6783771000000006E-3</v>
       </c>
-      <c r="C85" s="111">
+      <c r="C85" s="84">
         <v>7.2583379999999996E-3</v>
       </c>
-      <c r="D85" s="111">
+      <c r="D85" s="84">
         <v>6.3381319000000002E-3</v>
       </c>
-      <c r="E85" s="111">
+      <c r="E85" s="84">
         <v>5.4525481999999998E-3</v>
       </c>
-      <c r="F85" s="111">
+      <c r="F85" s="84">
         <v>4.5081523000000002E-3</v>
       </c>
-      <c r="G85" s="111">
+      <c r="G85" s="84">
         <v>3.6766398E-3</v>
       </c>
-      <c r="H85" s="111">
+      <c r="H85" s="84">
         <v>3.0634688E-3</v>
       </c>
       <c r="I85" s="59">
         <v>2.4750038999999998E-3</v>
       </c>
       <c r="J85" s="35"/>
-      <c r="K85" s="77" t="s">
+      <c r="K85" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="L85" s="119">
+      <c r="L85" s="89">
         <v>7.4032815999999996E-3</v>
       </c>
-      <c r="M85" s="111">
+      <c r="M85" s="84">
         <v>6.0150315999999999E-3</v>
       </c>
-      <c r="N85" s="111">
+      <c r="N85" s="84">
         <v>5.2116343000000002E-3</v>
       </c>
-      <c r="O85" s="111">
+      <c r="O85" s="84">
         <v>4.4708409999999997E-3</v>
       </c>
-      <c r="P85" s="111">
+      <c r="P85" s="84">
         <v>3.6394486000000002E-3</v>
       </c>
-      <c r="Q85" s="111">
+      <c r="Q85" s="84">
         <v>2.8782094000000002E-3</v>
       </c>
-      <c r="R85" s="111">
+      <c r="R85" s="84">
         <v>2.3506893000000001E-3</v>
       </c>
       <c r="S85" s="59">
         <v>1.8590649E-3</v>
       </c>
       <c r="T85" s="35"/>
-      <c r="U85" s="113" t="s">
+      <c r="U85" s="86" t="s">
         <v>84</v>
       </c>
-      <c r="V85" s="111">
+      <c r="V85" s="84">
         <v>3.0801934E-2</v>
       </c>
-      <c r="W85" s="111">
+      <c r="W85" s="84">
         <v>2.4799885000000001E-2</v>
       </c>
-      <c r="X85" s="111">
+      <c r="X85" s="84">
         <v>2.1231481E-2</v>
       </c>
-      <c r="Y85" s="111">
+      <c r="Y85" s="84">
         <v>1.7857484E-2</v>
       </c>
-      <c r="Z85" s="111">
+      <c r="Z85" s="84">
         <v>1.3771911E-2</v>
       </c>
-      <c r="AA85" s="111">
+      <c r="AA85" s="84">
         <v>9.7272777000000001E-3</v>
       </c>
-      <c r="AB85" s="111">
+      <c r="AB85" s="84">
         <v>7.0107820999999997E-3</v>
       </c>
-      <c r="AC85" s="112">
+      <c r="AC85" s="85">
         <v>5.2241062999999997E-3</v>
       </c>
     </row>
     <row r="86" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="77" t="s">
+      <c r="A86" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="B86" s="119">
+      <c r="B86" s="89">
         <v>4.7901753000000004E-3</v>
       </c>
-      <c r="C86" s="111">
+      <c r="C86" s="84">
         <v>4.1213899000000003E-3</v>
       </c>
-      <c r="D86" s="111">
+      <c r="D86" s="84">
         <v>3.6590022999999998E-3</v>
       </c>
-      <c r="E86" s="111">
+      <c r="E86" s="84">
         <v>3.198991E-3</v>
       </c>
-      <c r="F86" s="111">
+      <c r="F86" s="84">
         <v>2.7091355999999999E-3</v>
       </c>
-      <c r="G86" s="111">
+      <c r="G86" s="84">
         <v>2.2757054E-3</v>
       </c>
-      <c r="H86" s="111">
+      <c r="H86" s="84">
         <v>1.9361118E-3</v>
       </c>
       <c r="I86" s="59">
         <v>1.5814690000000001E-3</v>
       </c>
       <c r="J86" s="35"/>
-      <c r="K86" s="77" t="s">
+      <c r="K86" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="L86" s="119">
+      <c r="L86" s="89">
         <v>4.3711651000000002E-3</v>
       </c>
-      <c r="M86" s="111">
+      <c r="M86" s="84">
         <v>3.6299777000000002E-3</v>
       </c>
-      <c r="N86" s="111">
+      <c r="N86" s="84">
         <v>3.1849489999999999E-3</v>
       </c>
-      <c r="O86" s="111">
+      <c r="O86" s="84">
         <v>2.765787E-3</v>
       </c>
-      <c r="P86" s="111">
+      <c r="P86" s="84">
         <v>2.2931724000000001E-3</v>
       </c>
-      <c r="Q86" s="111">
+      <c r="Q86" s="84">
         <v>1.8562381000000001E-3</v>
       </c>
-      <c r="R86" s="111">
+      <c r="R86" s="84">
         <v>1.5421367E-3</v>
       </c>
       <c r="S86" s="59">
@@ -10118,380 +10140,380 @@
       <c r="AC86" s="35"/>
     </row>
     <row r="87" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="77" t="s">
+      <c r="A87" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="B87" s="119">
+      <c r="B87" s="89">
         <v>5.9821824000000001E-3</v>
       </c>
-      <c r="C87" s="111">
+      <c r="C87" s="84">
         <v>5.3382910000000002E-3</v>
       </c>
-      <c r="D87" s="111">
+      <c r="D87" s="84">
         <v>4.8685472E-3</v>
       </c>
-      <c r="E87" s="111">
+      <c r="E87" s="84">
         <v>4.3821110000000002E-3</v>
       </c>
-      <c r="F87" s="111">
+      <c r="F87" s="84">
         <v>3.8498661E-3</v>
       </c>
-      <c r="G87" s="111">
+      <c r="G87" s="84">
         <v>3.3638228000000001E-3</v>
       </c>
-      <c r="H87" s="111">
+      <c r="H87" s="84">
         <v>2.9596564999999999E-3</v>
       </c>
       <c r="I87" s="59">
         <v>2.5001934000000001E-3</v>
       </c>
       <c r="J87" s="35"/>
-      <c r="K87" s="77" t="s">
+      <c r="K87" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="L87" s="119">
+      <c r="L87" s="89">
         <v>4.8596317000000003E-3</v>
       </c>
-      <c r="M87" s="111">
+      <c r="M87" s="84">
         <v>4.1952435000000001E-3</v>
       </c>
-      <c r="N87" s="111">
+      <c r="N87" s="84">
         <v>3.7691500999999998E-3</v>
       </c>
-      <c r="O87" s="111">
+      <c r="O87" s="84">
         <v>3.3518339000000001E-3</v>
       </c>
-      <c r="P87" s="111">
+      <c r="P87" s="84">
         <v>2.8752540999999999E-3</v>
       </c>
-      <c r="Q87" s="111">
+      <c r="Q87" s="84">
         <v>2.4258770999999999E-3</v>
       </c>
-      <c r="R87" s="111">
+      <c r="R87" s="84">
         <v>2.0807315999999999E-3</v>
       </c>
       <c r="S87" s="59">
         <v>1.6750273E-3</v>
       </c>
       <c r="T87" s="35"/>
-      <c r="U87" s="105" t="s">
+      <c r="U87" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="V87" s="105" t="s">
+      <c r="V87" s="118" t="s">
         <v>75</v>
       </c>
-      <c r="W87" s="105"/>
-      <c r="X87" s="105"/>
-      <c r="Y87" s="105"/>
-      <c r="Z87" s="105"/>
-      <c r="AA87" s="105"/>
-      <c r="AB87" s="105"/>
-      <c r="AC87" s="105"/>
+      <c r="W87" s="118"/>
+      <c r="X87" s="118"/>
+      <c r="Y87" s="118"/>
+      <c r="Z87" s="118"/>
+      <c r="AA87" s="118"/>
+      <c r="AB87" s="118"/>
+      <c r="AC87" s="118"/>
     </row>
     <row r="88" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="77" t="s">
+      <c r="A88" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="B88" s="119">
+      <c r="B88" s="89">
         <v>8.4956649999999995E-3</v>
       </c>
-      <c r="C88" s="111">
+      <c r="C88" s="84">
         <v>7.6593564000000001E-3</v>
       </c>
-      <c r="D88" s="111">
+      <c r="D88" s="84">
         <v>7.0310347999999996E-3</v>
       </c>
-      <c r="E88" s="111">
+      <c r="E88" s="84">
         <v>6.3705656999999997E-3</v>
       </c>
-      <c r="F88" s="111">
+      <c r="F88" s="84">
         <v>5.6486914999999997E-3</v>
       </c>
-      <c r="G88" s="111">
+      <c r="G88" s="84">
         <v>4.9892453999999999E-3</v>
       </c>
-      <c r="H88" s="111">
+      <c r="H88" s="84">
         <v>4.4258235999999999E-3</v>
       </c>
       <c r="I88" s="59">
         <v>3.7640993E-3</v>
       </c>
       <c r="J88" s="35"/>
-      <c r="K88" s="77" t="s">
+      <c r="K88" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="L88" s="119">
+      <c r="L88" s="89">
         <v>5.6320531999999998E-3</v>
       </c>
-      <c r="M88" s="111">
+      <c r="M88" s="84">
         <v>5.0807012E-3</v>
       </c>
-      <c r="N88" s="111">
+      <c r="N88" s="84">
         <v>4.6760279E-3</v>
       </c>
-      <c r="O88" s="111">
+      <c r="O88" s="84">
         <v>4.2537668999999998E-3</v>
       </c>
-      <c r="P88" s="111">
+      <c r="P88" s="84">
         <v>3.7813996000000002E-3</v>
       </c>
-      <c r="Q88" s="111">
+      <c r="Q88" s="84">
         <v>3.3430482E-3</v>
       </c>
-      <c r="R88" s="111">
+      <c r="R88" s="84">
         <v>2.9634518E-3</v>
       </c>
       <c r="S88" s="59">
         <v>2.3815536E-3</v>
       </c>
       <c r="T88" s="35"/>
-      <c r="U88" s="105"/>
-      <c r="V88" s="106" t="s">
+      <c r="U88" s="118"/>
+      <c r="V88" s="79" t="s">
+        <v>97</v>
+      </c>
+      <c r="W88" s="79" t="s">
         <v>98</v>
       </c>
-      <c r="W88" s="106" t="s">
+      <c r="X88" s="79" t="s">
         <v>99</v>
       </c>
-      <c r="X88" s="106" t="s">
+      <c r="Y88" s="79" t="s">
         <v>100</v>
       </c>
-      <c r="Y88" s="106" t="s">
+      <c r="Z88" s="80" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA88" s="79" t="s">
         <v>101</v>
       </c>
-      <c r="Z88" s="107" t="s">
-        <v>105</v>
-      </c>
-      <c r="AA88" s="106" t="s">
+      <c r="AB88" s="79" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC88" s="79" t="s">
         <v>102</v>
       </c>
-      <c r="AB88" s="106" t="s">
-        <v>104</v>
-      </c>
-      <c r="AC88" s="106" t="s">
-        <v>103</v>
-      </c>
     </row>
     <row r="89" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="77" t="s">
+      <c r="A89" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="B89" s="119">
+      <c r="B89" s="89">
         <v>9.3605019000000001E-3</v>
       </c>
-      <c r="C89" s="111">
+      <c r="C89" s="84">
         <v>8.54654E-3</v>
       </c>
-      <c r="D89" s="111">
+      <c r="D89" s="84">
         <v>7.8817746000000004E-3</v>
       </c>
-      <c r="E89" s="111">
+      <c r="E89" s="84">
         <v>7.1632086000000001E-3</v>
       </c>
-      <c r="F89" s="111">
+      <c r="F89" s="84">
         <v>6.4013278999999999E-3</v>
       </c>
-      <c r="G89" s="111">
+      <c r="G89" s="84">
         <v>5.7255068999999999E-3</v>
       </c>
-      <c r="H89" s="111">
+      <c r="H89" s="84">
         <v>5.1091371999999998E-3</v>
       </c>
       <c r="I89" s="59">
         <v>4.3315932999999996E-3</v>
       </c>
       <c r="J89" s="35"/>
-      <c r="K89" s="77" t="s">
+      <c r="K89" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="L89" s="119">
+      <c r="L89" s="89">
         <v>6.4621250999999996E-3</v>
       </c>
-      <c r="M89" s="111">
+      <c r="M89" s="84">
         <v>6.0272501000000001E-3</v>
       </c>
-      <c r="N89" s="111">
+      <c r="N89" s="84">
         <v>5.6386778999999998E-3</v>
       </c>
-      <c r="O89" s="111">
+      <c r="O89" s="84">
         <v>5.2031285000000002E-3</v>
       </c>
-      <c r="P89" s="111">
+      <c r="P89" s="84">
         <v>4.7424642000000001E-3</v>
       </c>
-      <c r="Q89" s="111">
+      <c r="Q89" s="84">
         <v>4.3432195999999999E-3</v>
       </c>
-      <c r="R89" s="111">
+      <c r="R89" s="84">
         <v>3.9385823E-3</v>
       </c>
       <c r="S89" s="59">
         <v>3.1198295999999999E-3</v>
       </c>
       <c r="T89" s="35"/>
-      <c r="U89" s="110">
-        <v>0</v>
-      </c>
-      <c r="V89" s="111">
+      <c r="U89" s="83">
+        <v>0</v>
+      </c>
+      <c r="V89" s="84">
         <v>0.13551692000000001</v>
       </c>
-      <c r="W89" s="111">
+      <c r="W89" s="84">
         <v>0.12141488</v>
       </c>
-      <c r="X89" s="111">
+      <c r="X89" s="84">
         <v>0.11195296</v>
       </c>
-      <c r="Y89" s="111">
+      <c r="Y89" s="84">
         <v>0.10196945</v>
       </c>
-      <c r="Z89" s="111">
+      <c r="Z89" s="84">
         <v>8.7215784000000005E-2</v>
       </c>
-      <c r="AA89" s="111">
+      <c r="AA89" s="84">
         <v>6.8780059000000004E-2</v>
       </c>
-      <c r="AB89" s="111">
+      <c r="AB89" s="84">
         <v>5.3315596E-2</v>
       </c>
-      <c r="AC89" s="111">
+      <c r="AC89" s="84">
         <v>4.2747080999999999E-2</v>
       </c>
     </row>
     <row r="90" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="77" t="s">
+      <c r="A90" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="B90" s="119">
+      <c r="B90" s="89">
         <v>1.0468597E-2</v>
       </c>
-      <c r="C90" s="111">
+      <c r="C90" s="84">
         <v>9.6974886E-3</v>
       </c>
-      <c r="D90" s="111">
+      <c r="D90" s="84">
         <v>9.0068661000000001E-3</v>
       </c>
-      <c r="E90" s="111">
+      <c r="E90" s="84">
         <v>8.2366352999999996E-3</v>
       </c>
-      <c r="F90" s="111">
+      <c r="F90" s="84">
         <v>7.4406786000000003E-3</v>
       </c>
-      <c r="G90" s="111">
+      <c r="G90" s="84">
         <v>6.7541959E-3</v>
       </c>
-      <c r="H90" s="111">
+      <c r="H90" s="84">
         <v>6.0814568000000001E-3</v>
       </c>
       <c r="I90" s="59">
         <v>5.1669517000000002E-3</v>
       </c>
       <c r="J90" s="35"/>
-      <c r="K90" s="77" t="s">
+      <c r="K90" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="L90" s="119">
+      <c r="L90" s="89">
         <v>7.3166155E-3</v>
       </c>
-      <c r="M90" s="111">
+      <c r="M90" s="84">
         <v>6.9341934000000001E-3</v>
       </c>
-      <c r="N90" s="111">
+      <c r="N90" s="84">
         <v>6.5407853E-3</v>
       </c>
-      <c r="O90" s="111">
+      <c r="O90" s="84">
         <v>6.0806221000000004E-3</v>
       </c>
-      <c r="P90" s="111">
+      <c r="P90" s="84">
         <v>5.6114275000000002E-3</v>
       </c>
-      <c r="Q90" s="111">
+      <c r="Q90" s="84">
         <v>5.226807E-3</v>
       </c>
-      <c r="R90" s="111">
+      <c r="R90" s="84">
         <v>4.7939851999999998E-3</v>
       </c>
       <c r="S90" s="59">
         <v>3.7817176000000002E-3</v>
       </c>
       <c r="T90" s="35"/>
-      <c r="U90" s="113" t="s">
+      <c r="U90" s="86" t="s">
         <v>84</v>
       </c>
-      <c r="V90" s="111">
+      <c r="V90" s="84">
         <v>2.7320634999999999E-2</v>
       </c>
-      <c r="W90" s="111">
+      <c r="W90" s="84">
         <v>2.2139934E-2</v>
       </c>
-      <c r="X90" s="111">
+      <c r="X90" s="84">
         <v>1.9089755999999999E-2</v>
       </c>
-      <c r="Y90" s="111">
+      <c r="Y90" s="84">
         <v>1.6181286E-2</v>
       </c>
-      <c r="Z90" s="111">
+      <c r="Z90" s="84">
         <v>1.2619490000000001E-2</v>
       </c>
-      <c r="AA90" s="111">
+      <c r="AA90" s="84">
         <v>8.9390100000000007E-3</v>
       </c>
-      <c r="AB90" s="111">
+      <c r="AB90" s="84">
         <v>6.3509125E-3</v>
       </c>
-      <c r="AC90" s="111">
+      <c r="AC90" s="84">
         <v>4.6946237E-3</v>
       </c>
     </row>
     <row r="91" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="77" t="s">
+      <c r="A91" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="B91" s="119">
+      <c r="B91" s="89">
         <v>1.2171936E-2</v>
       </c>
-      <c r="C91" s="111">
+      <c r="C91" s="84">
         <v>1.1441359E-2</v>
       </c>
-      <c r="D91" s="111">
+      <c r="D91" s="84">
         <v>1.0708901999999999E-2</v>
       </c>
-      <c r="E91" s="111">
+      <c r="E91" s="84">
         <v>9.8627973999999997E-3</v>
       </c>
-      <c r="F91" s="111">
+      <c r="F91" s="84">
         <v>9.0128794999999994E-3</v>
       </c>
-      <c r="G91" s="111">
+      <c r="G91" s="84">
         <v>8.3055105000000001E-3</v>
       </c>
-      <c r="H91" s="111">
+      <c r="H91" s="84">
         <v>7.5515045999999999E-3</v>
       </c>
       <c r="I91" s="59">
         <v>6.4414638999999996E-3</v>
       </c>
       <c r="J91" s="35"/>
-      <c r="K91" s="77" t="s">
+      <c r="K91" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="L91" s="119">
+      <c r="L91" s="89">
         <v>8.3061538000000004E-3</v>
       </c>
-      <c r="M91" s="111">
+      <c r="M91" s="84">
         <v>7.9964224999999993E-3</v>
       </c>
-      <c r="N91" s="111">
+      <c r="N91" s="84">
         <v>7.6115829000000003E-3</v>
       </c>
-      <c r="O91" s="111">
+      <c r="O91" s="84">
         <v>7.1389935000000003E-3</v>
       </c>
-      <c r="P91" s="111">
+      <c r="P91" s="84">
         <v>6.6758900000000003E-3</v>
       </c>
-      <c r="Q91" s="111">
+      <c r="Q91" s="84">
         <v>6.3230613000000001E-3</v>
       </c>
-      <c r="R91" s="111">
+      <c r="R91" s="84">
         <v>5.8713664000000004E-3</v>
       </c>
       <c r="S91" s="59">
@@ -10509,56 +10531,56 @@
       <c r="AC91" s="35"/>
     </row>
     <row r="92" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="77" t="s">
+      <c r="A92" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="B92" s="119">
+      <c r="B92" s="89">
         <v>1.4352014999999999E-2</v>
       </c>
-      <c r="C92" s="111">
+      <c r="C92" s="84">
         <v>1.3609002E-2</v>
       </c>
-      <c r="D92" s="111">
+      <c r="D92" s="84">
         <v>1.2821048999999999E-2</v>
       </c>
-      <c r="E92" s="111">
+      <c r="E92" s="84">
         <v>1.189198E-2</v>
       </c>
-      <c r="F92" s="111">
+      <c r="F92" s="84">
         <v>1.0964043E-2</v>
       </c>
-      <c r="G92" s="111">
+      <c r="G92" s="84">
         <v>1.0199443000000001E-2</v>
       </c>
-      <c r="H92" s="111">
+      <c r="H92" s="84">
         <v>9.3492987999999992E-3</v>
       </c>
       <c r="I92" s="59">
         <v>8.0432449999999992E-3</v>
       </c>
       <c r="J92" s="35"/>
-      <c r="K92" s="77" t="s">
+      <c r="K92" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="L92" s="119">
+      <c r="L92" s="89">
         <v>9.5504723999999992E-3</v>
       </c>
-      <c r="M92" s="111">
+      <c r="M92" s="84">
         <v>9.2426670999999992E-3</v>
       </c>
-      <c r="N92" s="111">
+      <c r="N92" s="84">
         <v>8.8507475000000006E-3</v>
       </c>
-      <c r="O92" s="111">
+      <c r="O92" s="84">
         <v>8.3638766999999999E-3</v>
       </c>
-      <c r="P92" s="111">
+      <c r="P92" s="84">
         <v>7.8806432000000006E-3</v>
       </c>
-      <c r="Q92" s="111">
+      <c r="Q92" s="84">
         <v>7.5079448999999998E-3</v>
       </c>
-      <c r="R92" s="111">
+      <c r="R92" s="84">
         <v>7.0247197000000003E-3</v>
       </c>
       <c r="S92" s="59">
@@ -10576,56 +10598,56 @@
       <c r="AC92" s="35"/>
     </row>
     <row r="93" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="77" t="s">
+      <c r="A93" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="B93" s="119">
+      <c r="B93" s="89">
         <v>1.6599328999999999E-2</v>
       </c>
-      <c r="C93" s="111">
+      <c r="C93" s="84">
         <v>1.5939089E-2</v>
       </c>
-      <c r="D93" s="111">
+      <c r="D93" s="84">
         <v>1.5164165E-2</v>
       </c>
-      <c r="E93" s="111">
+      <c r="E93" s="84">
         <v>1.4218463000000001E-2</v>
       </c>
-      <c r="F93" s="111">
+      <c r="F93" s="84">
         <v>1.3283338E-2</v>
       </c>
-      <c r="G93" s="111">
+      <c r="G93" s="84">
         <v>1.2527323E-2</v>
       </c>
-      <c r="H93" s="111">
+      <c r="H93" s="84">
         <v>1.1624491000000001E-2</v>
       </c>
       <c r="I93" s="59">
         <v>1.0135829000000001E-2</v>
       </c>
       <c r="J93" s="35"/>
-      <c r="K93" s="77" t="s">
+      <c r="K93" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="L93" s="119">
+      <c r="L93" s="89">
         <v>1.0526821E-2</v>
       </c>
-      <c r="M93" s="111">
+      <c r="M93" s="84">
         <v>1.0266169E-2</v>
       </c>
-      <c r="N93" s="111">
+      <c r="N93" s="84">
         <v>9.8958287999999991E-3</v>
       </c>
-      <c r="O93" s="111">
+      <c r="O93" s="84">
         <v>9.4230961000000002E-3</v>
       </c>
-      <c r="P93" s="111">
+      <c r="P93" s="84">
         <v>8.9566785000000006E-3</v>
       </c>
-      <c r="Q93" s="111">
+      <c r="Q93" s="84">
         <v>8.6049192E-3</v>
       </c>
-      <c r="R93" s="111">
+      <c r="R93" s="84">
         <v>8.1201847999999993E-3</v>
       </c>
       <c r="S93" s="59">
@@ -10643,56 +10665,56 @@
       <c r="AC93" s="35"/>
     </row>
     <row r="94" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="77" t="s">
+      <c r="A94" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="B94" s="119">
+      <c r="B94" s="89">
         <v>2.0610447E-2</v>
       </c>
-      <c r="C94" s="111">
+      <c r="C94" s="84">
         <v>2.0069169000000001E-2</v>
       </c>
-      <c r="D94" s="111">
+      <c r="D94" s="84">
         <v>1.9329669000000001E-2</v>
       </c>
-      <c r="E94" s="111">
+      <c r="E94" s="84">
         <v>1.8382102000000001E-2</v>
       </c>
-      <c r="F94" s="111">
+      <c r="F94" s="84">
         <v>1.7452718999999998E-2</v>
       </c>
-      <c r="G94" s="111">
+      <c r="G94" s="84">
         <v>1.6717211999999999E-2</v>
       </c>
-      <c r="H94" s="111">
+      <c r="H94" s="84">
         <v>1.5751589999999999E-2</v>
       </c>
       <c r="I94" s="59">
         <v>1.4004198000000001E-2</v>
       </c>
       <c r="J94" s="35"/>
-      <c r="K94" s="77" t="s">
+      <c r="K94" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="L94" s="119">
+      <c r="L94" s="89">
         <v>1.3618289E-2</v>
       </c>
-      <c r="M94" s="111">
+      <c r="M94" s="84">
         <v>1.3279867000000001E-2</v>
       </c>
-      <c r="N94" s="111">
+      <c r="N94" s="84">
         <v>1.2843602000000001E-2</v>
       </c>
-      <c r="O94" s="111">
+      <c r="O94" s="84">
         <v>1.2293521999999999E-2</v>
       </c>
-      <c r="P94" s="111">
+      <c r="P94" s="84">
         <v>1.1726159999999999E-2</v>
       </c>
-      <c r="Q94" s="111">
+      <c r="Q94" s="84">
         <v>1.126797E-2</v>
       </c>
-      <c r="R94" s="111">
+      <c r="R94" s="84">
         <v>1.0674833E-2</v>
       </c>
       <c r="S94" s="59">
@@ -10710,56 +10732,56 @@
       <c r="AC94" s="35"/>
     </row>
     <row r="95" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="77" t="s">
+      <c r="A95" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="B95" s="119">
+      <c r="B95" s="89">
         <v>2.5459668000000001E-2</v>
       </c>
-      <c r="C95" s="111">
+      <c r="C95" s="84">
         <v>2.5029438000000001E-2</v>
       </c>
-      <c r="D95" s="111">
+      <c r="D95" s="84">
         <v>2.4304803E-2</v>
       </c>
-      <c r="E95" s="111">
+      <c r="E95" s="84">
         <v>2.3329169E-2</v>
       </c>
-      <c r="F95" s="111">
+      <c r="F95" s="84">
         <v>2.2389999000000001E-2</v>
       </c>
-      <c r="G95" s="111">
+      <c r="G95" s="84">
         <v>2.1674624999999999E-2</v>
       </c>
-      <c r="H95" s="111">
+      <c r="H95" s="84">
         <v>2.0631349E-2</v>
       </c>
       <c r="I95" s="59">
         <v>1.8576009000000001E-2</v>
       </c>
       <c r="J95" s="35"/>
-      <c r="K95" s="77" t="s">
+      <c r="K95" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="L95" s="119">
+      <c r="L95" s="89">
         <v>1.7990335999999999E-2</v>
       </c>
-      <c r="M95" s="111">
+      <c r="M95" s="84">
         <v>1.7498735000000001E-2</v>
       </c>
-      <c r="N95" s="111">
+      <c r="N95" s="84">
         <v>1.6939927E-2</v>
       </c>
-      <c r="O95" s="111">
+      <c r="O95" s="84">
         <v>1.6251709E-2</v>
       </c>
-      <c r="P95" s="111">
+      <c r="P95" s="84">
         <v>1.5508173E-2</v>
       </c>
-      <c r="Q95" s="111">
+      <c r="Q95" s="84">
         <v>1.4865150000000001E-2</v>
       </c>
-      <c r="R95" s="111">
+      <c r="R95" s="84">
         <v>1.4094534000000001E-2</v>
       </c>
       <c r="S95" s="59">
@@ -10777,56 +10799,56 @@
       <c r="AC95" s="35"/>
     </row>
     <row r="96" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A96" s="104" t="s">
+      <c r="A96" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="B96" s="119">
+      <c r="B96" s="89">
         <v>3.5184202999999997E-2</v>
       </c>
-      <c r="C96" s="111">
+      <c r="C96" s="84">
         <v>3.4928028999999999E-2</v>
       </c>
-      <c r="D96" s="111">
+      <c r="D96" s="84">
         <v>3.4222971999999997E-2</v>
       </c>
-      <c r="E96" s="111">
+      <c r="E96" s="84">
         <v>3.3195026000000002E-2</v>
       </c>
-      <c r="F96" s="111">
+      <c r="F96" s="84">
         <v>3.2233284000000001E-2</v>
       </c>
-      <c r="G96" s="111">
+      <c r="G96" s="84">
         <v>3.1546165000000001E-2</v>
       </c>
-      <c r="H96" s="111">
+      <c r="H96" s="84">
         <v>3.0365044000000001E-2</v>
       </c>
       <c r="I96" s="59">
         <v>2.7759598999999999E-2</v>
       </c>
       <c r="J96" s="35"/>
-      <c r="K96" s="114" t="s">
+      <c r="K96" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="L96" s="119">
+      <c r="L96" s="89">
         <v>2.7034006999999999E-2</v>
       </c>
-      <c r="M96" s="111">
+      <c r="M96" s="84">
         <v>2.6237897E-2</v>
       </c>
-      <c r="N96" s="111">
+      <c r="N96" s="84">
         <v>2.544223E-2</v>
       </c>
-      <c r="O96" s="111">
+      <c r="O96" s="84">
         <v>2.4488769000000001E-2</v>
       </c>
-      <c r="P96" s="111">
+      <c r="P96" s="84">
         <v>2.3397757000000002E-2</v>
       </c>
-      <c r="Q96" s="111">
+      <c r="Q96" s="84">
         <v>2.2381365E-2</v>
       </c>
-      <c r="R96" s="111">
+      <c r="R96" s="84">
         <v>2.1257570999999999E-2</v>
       </c>
       <c r="S96" s="59">
@@ -10844,56 +10866,56 @@
       <c r="AC96" s="35"/>
     </row>
     <row r="97" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A97" s="104" t="s">
+      <c r="A97" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="B97" s="119">
+      <c r="B97" s="89">
         <v>5.0578709999999999E-2</v>
       </c>
-      <c r="C97" s="111">
+      <c r="C97" s="84">
         <v>5.0650142000000002E-2</v>
       </c>
-      <c r="D97" s="111">
+      <c r="D97" s="84">
         <v>5.0024763E-2</v>
       </c>
-      <c r="E97" s="111">
+      <c r="E97" s="84">
         <v>4.8973602999999997E-2</v>
       </c>
-      <c r="F97" s="111">
+      <c r="F97" s="84">
         <v>4.8051199000000003E-2</v>
       </c>
-      <c r="G97" s="111">
+      <c r="G97" s="84">
         <v>4.7488384000000002E-2</v>
       </c>
-      <c r="H97" s="111">
+      <c r="H97" s="84">
         <v>4.6165507000000001E-2</v>
       </c>
       <c r="I97" s="59">
         <v>4.2779603999999999E-2</v>
       </c>
       <c r="J97" s="35"/>
-      <c r="K97" s="114" t="s">
+      <c r="K97" s="87" t="s">
         <v>43</v>
       </c>
-      <c r="L97" s="119">
+      <c r="L97" s="89">
         <v>4.1980367999999997E-2</v>
       </c>
-      <c r="M97" s="111">
+      <c r="M97" s="84">
         <v>4.0908139000000003E-2</v>
       </c>
-      <c r="N97" s="111">
+      <c r="N97" s="84">
         <v>3.9873039999999998E-2</v>
       </c>
-      <c r="O97" s="111">
+      <c r="O97" s="84">
         <v>3.8634623999999999E-2</v>
       </c>
-      <c r="P97" s="111">
+      <c r="P97" s="84">
         <v>3.7150282999999999E-2</v>
       </c>
-      <c r="Q97" s="111">
+      <c r="Q97" s="84">
         <v>3.5698045999999997E-2</v>
       </c>
-      <c r="R97" s="111">
+      <c r="R97" s="84">
         <v>3.4126276999999997E-2</v>
       </c>
       <c r="S97" s="59">
@@ -10911,56 +10933,56 @@
       <c r="AC97" s="35"/>
     </row>
     <row r="98" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A98" s="104" t="s">
+      <c r="A98" s="78" t="s">
         <v>44</v>
       </c>
-      <c r="B98" s="119">
+      <c r="B98" s="89">
         <v>7.7074561999999999E-2</v>
       </c>
-      <c r="C98" s="111">
+      <c r="C98" s="84">
         <v>7.7622102999999998E-2</v>
       </c>
-      <c r="D98" s="111">
+      <c r="D98" s="84">
         <v>7.7095495999999999E-2</v>
       </c>
-      <c r="E98" s="111">
+      <c r="E98" s="84">
         <v>7.5980821000000004E-2</v>
       </c>
-      <c r="F98" s="111">
+      <c r="F98" s="84">
         <v>7.5089041999999995E-2</v>
       </c>
-      <c r="G98" s="111">
+      <c r="G98" s="84">
         <v>7.4689679999999994E-2</v>
       </c>
-      <c r="H98" s="111">
+      <c r="H98" s="84">
         <v>7.3117043000000007E-2</v>
       </c>
       <c r="I98" s="59">
         <v>6.8473476000000005E-2</v>
       </c>
       <c r="J98" s="35"/>
-      <c r="K98" s="114" t="s">
+      <c r="K98" s="87" t="s">
         <v>44</v>
       </c>
-      <c r="L98" s="119">
+      <c r="L98" s="89">
         <v>6.7413652000000004E-2</v>
       </c>
-      <c r="M98" s="111">
+      <c r="M98" s="84">
         <v>6.6080293999999998E-2</v>
       </c>
-      <c r="N98" s="111">
+      <c r="N98" s="84">
         <v>6.4781100999999994E-2</v>
       </c>
-      <c r="O98" s="111">
+      <c r="O98" s="84">
         <v>6.3207541000000006E-2</v>
       </c>
-      <c r="P98" s="111">
+      <c r="P98" s="84">
         <v>6.1234920999999998E-2</v>
       </c>
-      <c r="Q98" s="111">
+      <c r="Q98" s="84">
         <v>5.9224530999999997E-2</v>
       </c>
-      <c r="R98" s="111">
+      <c r="R98" s="84">
         <v>5.7037298E-2</v>
       </c>
       <c r="S98" s="59">
@@ -10978,56 +11000,56 @@
       <c r="AC98" s="35"/>
     </row>
     <row r="99" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A99" s="104" t="s">
+      <c r="A99" s="78" t="s">
         <v>45</v>
       </c>
-      <c r="B99" s="119">
+      <c r="B99" s="89">
         <v>0.11904474</v>
       </c>
-      <c r="C99" s="111">
+      <c r="C99" s="84">
         <v>0.12073808</v>
       </c>
-      <c r="D99" s="111">
+      <c r="D99" s="84">
         <v>0.1207081</v>
       </c>
-      <c r="E99" s="111">
+      <c r="E99" s="84">
         <v>0.1198779</v>
       </c>
-      <c r="F99" s="111">
+      <c r="F99" s="84">
         <v>0.11948436</v>
       </c>
-      <c r="G99" s="111">
+      <c r="G99" s="84">
         <v>0.11979376999999999</v>
       </c>
-      <c r="H99" s="111">
+      <c r="H99" s="84">
         <v>0.11823134</v>
       </c>
       <c r="I99" s="59">
         <v>0.11201527999999999</v>
       </c>
       <c r="J99" s="35"/>
-      <c r="K99" s="114" t="s">
+      <c r="K99" s="87" t="s">
         <v>45</v>
       </c>
-      <c r="L99" s="119">
+      <c r="L99" s="89">
         <v>0.10699243999999999</v>
       </c>
-      <c r="M99" s="111">
+      <c r="M99" s="84">
         <v>0.10582374</v>
       </c>
-      <c r="N99" s="111">
+      <c r="N99" s="84">
         <v>0.10450795</v>
       </c>
-      <c r="O99" s="111">
+      <c r="O99" s="84">
         <v>0.10282624999999999</v>
       </c>
-      <c r="P99" s="111">
+      <c r="P99" s="84">
         <v>0.10060334</v>
       </c>
-      <c r="Q99" s="111">
+      <c r="Q99" s="84">
         <v>9.8256107999999995E-2</v>
       </c>
-      <c r="R99" s="111">
+      <c r="R99" s="84">
         <v>9.5537514000000004E-2</v>
       </c>
       <c r="S99" s="59">
@@ -11044,14 +11066,48 @@
       <c r="AB99" s="35"/>
       <c r="AC99" s="35"/>
     </row>
+    <row r="100" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="L100">
+        <f>5*SUM(L84:L99)</f>
+        <v>2.5114748319999998</v>
+      </c>
+      <c r="M100">
+        <f t="shared" ref="M100:S100" si="9">5*SUM(M84:M99)</f>
+        <v>2.3638557104999998</v>
+      </c>
+      <c r="N100">
+        <f t="shared" si="9"/>
+        <v>2.2540497485</v>
+      </c>
+      <c r="O100">
+        <f t="shared" si="9"/>
+        <v>2.1345254835</v>
+      </c>
+      <c r="P100">
+        <f t="shared" si="9"/>
+        <v>1.9795614305</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="9"/>
+        <v>1.809607819</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="9"/>
+        <v>1.6554019165</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="9"/>
+        <v>1.4410201265</v>
+      </c>
+    </row>
     <row r="101" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="N101" s="99"/>
+      <c r="N101" s="76"/>
     </row>
     <row r="102" spans="1:29" x14ac:dyDescent="0.25">
       <c r="I102" s="53"/>
       <c r="J102" s="53"/>
       <c r="K102" s="52"/>
-      <c r="N102" s="100"/>
+      <c r="N102" s="77"/>
     </row>
     <row r="103" spans="1:29" x14ac:dyDescent="0.25">
       <c r="I103" s="53"/>
@@ -11205,7 +11261,7 @@
     </row>
     <row r="110" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110" s="60" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B110" s="37"/>
       <c r="C110" s="37"/>
@@ -11231,26 +11287,26 @@
       <c r="W110" s="37"/>
       <c r="X110" s="37"/>
     </row>
-    <row r="111" spans="1:29" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="B111" s="37"/>
-      <c r="C111" s="37"/>
-      <c r="D111" s="37"/>
-      <c r="E111" s="37"/>
-      <c r="F111" s="37"/>
-      <c r="G111" s="37"/>
-      <c r="H111" s="37"/>
-      <c r="I111" s="37"/>
-      <c r="J111" s="37"/>
-      <c r="K111" s="37"/>
-      <c r="L111" s="37"/>
-      <c r="M111" s="37"/>
-      <c r="N111" s="37"/>
-      <c r="O111" s="37"/>
-      <c r="P111" s="37"/>
-      <c r="Q111" s="37"/>
+    <row r="111" spans="1:29" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="117" t="s">
+        <v>107</v>
+      </c>
+      <c r="B111" s="117"/>
+      <c r="C111" s="117"/>
+      <c r="D111" s="117"/>
+      <c r="E111" s="117"/>
+      <c r="F111" s="117"/>
+      <c r="G111" s="117"/>
+      <c r="H111" s="117"/>
+      <c r="I111" s="117"/>
+      <c r="J111" s="117"/>
+      <c r="K111" s="117"/>
+      <c r="L111" s="117"/>
+      <c r="M111" s="117"/>
+      <c r="N111" s="117"/>
+      <c r="O111" s="117"/>
+      <c r="P111" s="117"/>
+      <c r="Q111" s="117"/>
       <c r="R111" s="37"/>
       <c r="S111" s="37"/>
       <c r="T111" s="37"/>
@@ -11260,20 +11316,36 @@
       <c r="X111" s="37"/>
     </row>
     <row r="112" spans="1:29" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="87" t="s">
+      <c r="A112" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="B112" s="82" t="s">
+      <c r="B112" s="96" t="s">
         <v>86</v>
       </c>
-      <c r="C112" s="83"/>
-      <c r="D112" s="83"/>
-      <c r="E112" s="83"/>
-      <c r="F112" s="83"/>
-      <c r="G112" s="84"/>
+      <c r="C112" s="97"/>
+      <c r="D112" s="97"/>
+      <c r="E112" s="97"/>
+      <c r="F112" s="97"/>
+      <c r="G112" s="98"/>
+      <c r="I112" s="74"/>
+      <c r="J112" s="90" t="s">
+        <v>27</v>
+      </c>
+      <c r="K112" s="90" t="s">
+        <v>28</v>
+      </c>
+      <c r="L112" s="90" t="s">
+        <v>29</v>
+      </c>
+      <c r="M112" s="90" t="s">
+        <v>8</v>
+      </c>
+      <c r="N112" s="90" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="113" spans="1:14" ht="45.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="88"/>
+      <c r="A113" s="102"/>
       <c r="B113" s="32" t="s">
         <v>70</v>
       </c>
@@ -11292,9 +11364,32 @@
       <c r="G113" s="1" t="s">
         <v>68</v>
       </c>
+      <c r="I113" s="91" t="s">
+        <v>26</v>
+      </c>
+      <c r="J113" s="71">
+        <f>C118/$B$118</f>
+        <v>1</v>
+      </c>
+      <c r="K113" s="71">
+        <f>D118/$B$118</f>
+        <v>1</v>
+      </c>
+      <c r="L113" s="71">
+        <f>E118/$B$118</f>
+        <v>0.58000000000000007</v>
+      </c>
+      <c r="M113" s="71">
+        <f>F118/$B$118</f>
+        <v>0.58000000000000007</v>
+      </c>
+      <c r="N113" s="71">
+        <f>G118/$B$118</f>
+        <v>0.41000000000000003</v>
+      </c>
     </row>
     <row r="114" spans="1:14" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="89"/>
+      <c r="A114" s="103"/>
       <c r="B114" s="34" t="s">
         <v>63</v>
       </c>
@@ -11319,44 +11414,82 @@
         <v>6</v>
       </c>
       <c r="B115" s="10">
+        <f>I116*1.1</f>
         <v>0</v>
       </c>
       <c r="C115" s="10">
+        <f t="shared" ref="C115:G130" si="10">J116*1.1</f>
         <v>0</v>
       </c>
       <c r="D115" s="10">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E115" s="10">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F115" s="10">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G115" s="10">
-        <v>0</v>
-      </c>
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I115" s="110" t="s">
+        <v>106</v>
+      </c>
+      <c r="J115" s="110"/>
+      <c r="K115" s="110"/>
+      <c r="L115" s="110"/>
+      <c r="M115" s="110"/>
+      <c r="N115" s="110"/>
     </row>
     <row r="116" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B116" s="10">
+        <f t="shared" ref="B116:B130" si="11">I117*1.1</f>
         <v>0</v>
       </c>
       <c r="C116" s="10">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="D116" s="10">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E116" s="10">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F116" s="10">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G116" s="10">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I116" s="17">
+        <v>0</v>
+      </c>
+      <c r="J116" s="17">
+        <v>0</v>
+      </c>
+      <c r="K116" s="17">
+        <v>0</v>
+      </c>
+      <c r="L116" s="17">
+        <v>0</v>
+      </c>
+      <c r="M116" s="17">
+        <v>0</v>
+      </c>
+      <c r="N116" s="17">
         <v>0</v>
       </c>
     </row>
@@ -11365,38 +11498,46 @@
         <v>12</v>
       </c>
       <c r="B117" s="10">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="C117" s="10">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="D117" s="10">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E117" s="10">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F117" s="10">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G117" s="10">
-        <v>0</v>
-      </c>
-      <c r="I117" s="71"/>
-      <c r="J117" s="72" t="s">
-        <v>27</v>
-      </c>
-      <c r="K117" s="72" t="s">
-        <v>28</v>
-      </c>
-      <c r="L117" s="72" t="s">
-        <v>29</v>
-      </c>
-      <c r="M117" s="72" t="s">
-        <v>8</v>
-      </c>
-      <c r="N117" s="72" t="s">
-        <v>30</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I117" s="17">
+        <v>0</v>
+      </c>
+      <c r="J117" s="17">
+        <v>0</v>
+      </c>
+      <c r="K117" s="17">
+        <v>0</v>
+      </c>
+      <c r="L117" s="17">
+        <v>0</v>
+      </c>
+      <c r="M117" s="17">
+        <v>0</v>
+      </c>
+      <c r="N117" s="17">
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -11404,45 +11545,46 @@
         <v>13</v>
       </c>
       <c r="B118" s="10">
-        <v>0.1414</v>
+        <f t="shared" si="11"/>
+        <v>0.15554000000000001</v>
       </c>
       <c r="C118" s="10">
-        <v>0.1414</v>
+        <f t="shared" si="10"/>
+        <v>0.15554000000000001</v>
       </c>
       <c r="D118" s="10">
-        <v>0.1414</v>
+        <f t="shared" si="10"/>
+        <v>0.15554000000000001</v>
       </c>
       <c r="E118" s="10">
-        <v>8.2012000000000015E-2</v>
+        <f t="shared" si="10"/>
+        <v>9.0213200000000021E-2</v>
       </c>
       <c r="F118" s="10">
-        <v>8.2012000000000015E-2</v>
+        <f t="shared" si="10"/>
+        <v>9.0213200000000021E-2</v>
       </c>
       <c r="G118" s="10">
-        <v>5.7974000000000005E-2</v>
-      </c>
-      <c r="I118" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="J118" s="73">
-        <f>C118/$B$118</f>
-        <v>1</v>
-      </c>
-      <c r="K118" s="73">
-        <f>D118/$B$118</f>
-        <v>1</v>
-      </c>
-      <c r="L118" s="73">
-        <f>E118/$B$118</f>
-        <v>0.58000000000000007</v>
-      </c>
-      <c r="M118" s="73">
-        <f>F118/$B$118</f>
-        <v>0.58000000000000007</v>
-      </c>
-      <c r="N118" s="73">
-        <f>G118/$B$118</f>
-        <v>0.41000000000000003</v>
+        <f t="shared" si="10"/>
+        <v>6.3771400000000006E-2</v>
+      </c>
+      <c r="I118" s="17">
+        <v>0</v>
+      </c>
+      <c r="J118" s="17">
+        <v>0</v>
+      </c>
+      <c r="K118" s="17">
+        <v>0</v>
+      </c>
+      <c r="L118" s="17">
+        <v>0</v>
+      </c>
+      <c r="M118" s="17">
+        <v>0</v>
+      </c>
+      <c r="N118" s="17">
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -11450,22 +11592,46 @@
         <v>14</v>
       </c>
       <c r="B119" s="10">
-        <v>0.27800000000000002</v>
+        <f t="shared" si="11"/>
+        <v>0.30580000000000007</v>
       </c>
       <c r="C119" s="10">
-        <v>0.27800000000000002</v>
+        <f t="shared" si="10"/>
+        <v>0.30580000000000007</v>
       </c>
       <c r="D119" s="10">
-        <v>0.27800000000000002</v>
+        <f t="shared" si="10"/>
+        <v>0.30580000000000007</v>
       </c>
       <c r="E119" s="10">
-        <v>0.16124000000000002</v>
+        <f t="shared" si="10"/>
+        <v>0.17736400000000005</v>
       </c>
       <c r="F119" s="10">
-        <v>0.16124000000000002</v>
+        <f t="shared" si="10"/>
+        <v>0.17736400000000005</v>
       </c>
       <c r="G119" s="10">
-        <v>0.11398000000000003</v>
+        <f t="shared" si="10"/>
+        <v>0.12537800000000004</v>
+      </c>
+      <c r="I119" s="17">
+        <v>0.1414</v>
+      </c>
+      <c r="J119" s="17">
+        <v>0.1414</v>
+      </c>
+      <c r="K119" s="17">
+        <v>0.1414</v>
+      </c>
+      <c r="L119" s="17">
+        <v>8.2012000000000015E-2</v>
+      </c>
+      <c r="M119" s="17">
+        <v>8.2012000000000015E-2</v>
+      </c>
+      <c r="N119" s="17">
+        <v>5.7974000000000005E-2</v>
       </c>
     </row>
     <row r="120" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -11473,22 +11639,46 @@
         <v>15</v>
       </c>
       <c r="B120" s="10">
-        <v>0.28360000000000002</v>
+        <f t="shared" si="11"/>
+        <v>0.31196000000000007</v>
       </c>
       <c r="C120" s="10">
-        <v>0.28360000000000002</v>
+        <f t="shared" si="10"/>
+        <v>0.31196000000000007</v>
       </c>
       <c r="D120" s="10">
-        <v>0.28360000000000002</v>
+        <f t="shared" si="10"/>
+        <v>0.31196000000000007</v>
       </c>
       <c r="E120" s="10">
-        <v>0.16448800000000002</v>
+        <f t="shared" si="10"/>
+        <v>0.18093680000000004</v>
       </c>
       <c r="F120" s="10">
-        <v>0.16448800000000002</v>
+        <f t="shared" si="10"/>
+        <v>0.18093680000000004</v>
       </c>
       <c r="G120" s="10">
-        <v>0.11627600000000002</v>
+        <f t="shared" si="10"/>
+        <v>0.12790360000000003</v>
+      </c>
+      <c r="I120" s="17">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="J120" s="17">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="K120" s="17">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="L120" s="17">
+        <v>0.16124000000000002</v>
+      </c>
+      <c r="M120" s="17">
+        <v>0.16124000000000002</v>
+      </c>
+      <c r="N120" s="17">
+        <v>0.11398000000000003</v>
       </c>
     </row>
     <row r="121" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -11496,22 +11686,46 @@
         <v>18</v>
       </c>
       <c r="B121" s="10">
-        <v>0.2112</v>
+        <f t="shared" si="11"/>
+        <v>0.23232000000000003</v>
       </c>
       <c r="C121" s="10">
-        <v>0.2112</v>
+        <f t="shared" si="10"/>
+        <v>0.23232000000000003</v>
       </c>
       <c r="D121" s="10">
-        <v>0.2112</v>
+        <f t="shared" si="10"/>
+        <v>0.23232000000000003</v>
       </c>
       <c r="E121" s="10">
-        <v>0.12249600000000001</v>
+        <f t="shared" si="10"/>
+        <v>0.13474560000000002</v>
       </c>
       <c r="F121" s="10">
-        <v>0.12249600000000001</v>
+        <f t="shared" si="10"/>
+        <v>0.13474560000000002</v>
       </c>
       <c r="G121" s="10">
-        <v>8.6592000000000002E-2</v>
+        <f t="shared" si="10"/>
+        <v>9.5251200000000008E-2</v>
+      </c>
+      <c r="I121" s="17">
+        <v>0.28360000000000002</v>
+      </c>
+      <c r="J121" s="17">
+        <v>0.28360000000000002</v>
+      </c>
+      <c r="K121" s="17">
+        <v>0.28360000000000002</v>
+      </c>
+      <c r="L121" s="17">
+        <v>0.16448800000000002</v>
+      </c>
+      <c r="M121" s="17">
+        <v>0.16448800000000002</v>
+      </c>
+      <c r="N121" s="17">
+        <v>0.11627600000000002</v>
       </c>
     </row>
     <row r="122" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -11519,22 +11733,46 @@
         <v>17</v>
       </c>
       <c r="B122" s="10">
-        <v>0.1348</v>
+        <f t="shared" si="11"/>
+        <v>0.14828000000000002</v>
       </c>
       <c r="C122" s="10">
-        <v>0.1348</v>
+        <f t="shared" si="10"/>
+        <v>0.14828000000000002</v>
       </c>
       <c r="D122" s="10">
-        <v>0.1348</v>
+        <f t="shared" si="10"/>
+        <v>0.14828000000000002</v>
       </c>
       <c r="E122" s="10">
-        <v>7.8184000000000017E-2</v>
+        <f t="shared" si="10"/>
+        <v>8.600240000000002E-2</v>
       </c>
       <c r="F122" s="10">
-        <v>7.8184000000000017E-2</v>
+        <f t="shared" si="10"/>
+        <v>8.600240000000002E-2</v>
       </c>
       <c r="G122" s="10">
-        <v>5.5268000000000005E-2</v>
+        <f t="shared" si="10"/>
+        <v>6.079480000000001E-2</v>
+      </c>
+      <c r="I122" s="17">
+        <v>0.2112</v>
+      </c>
+      <c r="J122" s="17">
+        <v>0.2112</v>
+      </c>
+      <c r="K122" s="17">
+        <v>0.2112</v>
+      </c>
+      <c r="L122" s="17">
+        <v>0.12249600000000001</v>
+      </c>
+      <c r="M122" s="17">
+        <v>0.12249600000000001</v>
+      </c>
+      <c r="N122" s="17">
+        <v>8.6592000000000002E-2</v>
       </c>
     </row>
     <row r="123" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -11542,22 +11780,46 @@
         <v>19</v>
       </c>
       <c r="B123" s="10">
-        <v>5.4200000000000005E-2</v>
+        <f t="shared" si="11"/>
+        <v>5.9620000000000013E-2</v>
       </c>
       <c r="C123" s="10">
-        <v>5.4200000000000005E-2</v>
+        <f t="shared" si="10"/>
+        <v>5.9620000000000013E-2</v>
       </c>
       <c r="D123" s="10">
-        <v>5.4200000000000005E-2</v>
+        <f t="shared" si="10"/>
+        <v>5.9620000000000013E-2</v>
       </c>
       <c r="E123" s="10">
-        <v>3.1436000000000006E-2</v>
+        <f t="shared" si="10"/>
+        <v>3.4579600000000009E-2</v>
       </c>
       <c r="F123" s="10">
-        <v>3.1436000000000006E-2</v>
+        <f t="shared" si="10"/>
+        <v>3.4579600000000009E-2</v>
       </c>
       <c r="G123" s="10">
-        <v>2.2222000000000002E-2</v>
+        <f t="shared" si="10"/>
+        <v>2.4444200000000003E-2</v>
+      </c>
+      <c r="I123" s="17">
+        <v>0.1348</v>
+      </c>
+      <c r="J123" s="17">
+        <v>0.1348</v>
+      </c>
+      <c r="K123" s="17">
+        <v>0.1348</v>
+      </c>
+      <c r="L123" s="17">
+        <v>7.8184000000000017E-2</v>
+      </c>
+      <c r="M123" s="17">
+        <v>7.8184000000000017E-2</v>
+      </c>
+      <c r="N123" s="17">
+        <v>5.5268000000000005E-2</v>
       </c>
     </row>
     <row r="124" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -11565,22 +11827,46 @@
         <v>20</v>
       </c>
       <c r="B124" s="10">
-        <v>1.7600000000000001E-2</v>
+        <f t="shared" si="11"/>
+        <v>1.9360000000000002E-2</v>
       </c>
       <c r="C124" s="10">
-        <v>1.7600000000000001E-2</v>
+        <f t="shared" si="10"/>
+        <v>1.9360000000000002E-2</v>
       </c>
       <c r="D124" s="10">
-        <v>1.7600000000000001E-2</v>
+        <f t="shared" si="10"/>
+        <v>1.9360000000000002E-2</v>
       </c>
       <c r="E124" s="10">
-        <v>1.0208000000000002E-2</v>
+        <f t="shared" si="10"/>
+        <v>1.1228800000000002E-2</v>
       </c>
       <c r="F124" s="10">
-        <v>1.0208000000000002E-2</v>
+        <f t="shared" si="10"/>
+        <v>1.1228800000000002E-2</v>
       </c>
       <c r="G124" s="10">
-        <v>7.2160000000000011E-3</v>
+        <f t="shared" si="10"/>
+        <v>7.9376000000000013E-3</v>
+      </c>
+      <c r="I124" s="17">
+        <v>5.4200000000000005E-2</v>
+      </c>
+      <c r="J124" s="17">
+        <v>5.4200000000000005E-2</v>
+      </c>
+      <c r="K124" s="17">
+        <v>5.4200000000000005E-2</v>
+      </c>
+      <c r="L124" s="17">
+        <v>3.1436000000000006E-2</v>
+      </c>
+      <c r="M124" s="17">
+        <v>3.1436000000000006E-2</v>
+      </c>
+      <c r="N124" s="17">
+        <v>2.2222000000000002E-2</v>
       </c>
     </row>
     <row r="125" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -11588,22 +11874,46 @@
         <v>21</v>
       </c>
       <c r="B125" s="10">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="C125" s="10">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="D125" s="10">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E125" s="10">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F125" s="10">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G125" s="10">
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I125" s="17">
+        <v>1.7600000000000001E-2</v>
+      </c>
+      <c r="J125" s="17">
+        <v>1.7600000000000001E-2</v>
+      </c>
+      <c r="K125" s="17">
+        <v>1.7600000000000001E-2</v>
+      </c>
+      <c r="L125" s="17">
+        <v>1.0208000000000002E-2</v>
+      </c>
+      <c r="M125" s="17">
+        <v>1.0208000000000002E-2</v>
+      </c>
+      <c r="N125" s="17">
+        <v>7.2160000000000011E-3</v>
       </c>
     </row>
     <row r="126" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -11611,21 +11921,45 @@
         <v>22</v>
       </c>
       <c r="B126" s="10">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="C126" s="10">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="D126" s="10">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E126" s="10">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F126" s="10">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G126" s="10">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I126" s="17">
+        <v>0</v>
+      </c>
+      <c r="J126" s="17">
+        <v>0</v>
+      </c>
+      <c r="K126" s="17">
+        <v>0</v>
+      </c>
+      <c r="L126" s="17">
+        <v>0</v>
+      </c>
+      <c r="M126" s="17">
+        <v>0</v>
+      </c>
+      <c r="N126" s="17">
         <v>0</v>
       </c>
     </row>
@@ -11634,21 +11968,45 @@
         <v>42</v>
       </c>
       <c r="B127" s="10">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="C127" s="10">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="D127" s="10">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E127" s="10">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F127" s="10">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G127" s="10">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I127" s="17">
+        <v>0</v>
+      </c>
+      <c r="J127" s="17">
+        <v>0</v>
+      </c>
+      <c r="K127" s="17">
+        <v>0</v>
+      </c>
+      <c r="L127" s="17">
+        <v>0</v>
+      </c>
+      <c r="M127" s="17">
+        <v>0</v>
+      </c>
+      <c r="N127" s="17">
         <v>0</v>
       </c>
     </row>
@@ -11657,21 +12015,45 @@
         <v>43</v>
       </c>
       <c r="B128" s="10">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="C128" s="10">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="D128" s="10">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E128" s="10">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F128" s="10">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G128" s="10">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I128" s="17">
+        <v>0</v>
+      </c>
+      <c r="J128" s="17">
+        <v>0</v>
+      </c>
+      <c r="K128" s="17">
+        <v>0</v>
+      </c>
+      <c r="L128" s="17">
+        <v>0</v>
+      </c>
+      <c r="M128" s="17">
+        <v>0</v>
+      </c>
+      <c r="N128" s="17">
         <v>0</v>
       </c>
     </row>
@@ -11680,21 +12062,45 @@
         <v>44</v>
       </c>
       <c r="B129" s="10">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="C129" s="10">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="D129" s="10">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E129" s="10">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F129" s="10">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G129" s="10">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I129" s="17">
+        <v>0</v>
+      </c>
+      <c r="J129" s="17">
+        <v>0</v>
+      </c>
+      <c r="K129" s="17">
+        <v>0</v>
+      </c>
+      <c r="L129" s="17">
+        <v>0</v>
+      </c>
+      <c r="M129" s="17">
+        <v>0</v>
+      </c>
+      <c r="N129" s="17">
         <v>0</v>
       </c>
     </row>
@@ -11703,77 +12109,119 @@
         <v>45</v>
       </c>
       <c r="B130" s="10">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="C130" s="10">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="D130" s="10">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E130" s="10">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F130" s="10">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G130" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I130" s="17">
+        <v>0</v>
+      </c>
+      <c r="J130" s="17">
+        <v>0</v>
+      </c>
+      <c r="K130" s="17">
+        <v>0</v>
+      </c>
+      <c r="L130" s="17">
+        <v>0</v>
+      </c>
+      <c r="M130" s="17">
+        <v>0</v>
+      </c>
+      <c r="N130" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B131">
-        <f t="shared" ref="B131:G131" si="8">5*SUM(B118:B124)</f>
-        <v>5.604000000000001</v>
+        <f t="shared" ref="B131:G131" si="12">5*SUM(B118:B124)</f>
+        <v>6.1644000000000005</v>
       </c>
       <c r="C131">
-        <f t="shared" si="8"/>
-        <v>5.604000000000001</v>
+        <f t="shared" si="12"/>
+        <v>6.1644000000000005</v>
       </c>
       <c r="D131">
-        <f t="shared" si="8"/>
-        <v>5.604000000000001</v>
+        <f t="shared" si="12"/>
+        <v>6.1644000000000005</v>
       </c>
       <c r="E131">
-        <f t="shared" si="8"/>
-        <v>3.2503200000000003</v>
+        <f t="shared" si="12"/>
+        <v>3.575352000000001</v>
       </c>
       <c r="F131">
-        <f t="shared" si="8"/>
-        <v>3.2503200000000003</v>
+        <f t="shared" si="12"/>
+        <v>3.575352000000001</v>
       </c>
       <c r="G131">
-        <f t="shared" si="8"/>
-        <v>2.2976400000000003</v>
+        <f t="shared" si="12"/>
+        <v>2.5274040000000007</v>
+      </c>
+      <c r="I131" s="17">
+        <v>0</v>
+      </c>
+      <c r="J131" s="17">
+        <v>0</v>
+      </c>
+      <c r="K131" s="17">
+        <v>0</v>
+      </c>
+      <c r="L131" s="17">
+        <v>0</v>
+      </c>
+      <c r="M131" s="17">
+        <v>0</v>
+      </c>
+      <c r="N131" s="17">
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="133" spans="1:15" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="79" t="s">
+      <c r="A133" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="B133" s="82" t="s">
+      <c r="B133" s="96" t="s">
         <v>87</v>
       </c>
-      <c r="C133" s="83"/>
-      <c r="D133" s="83"/>
-      <c r="E133" s="83"/>
-      <c r="F133" s="83"/>
-      <c r="G133" s="84"/>
-      <c r="I133" s="79" t="s">
+      <c r="C133" s="97"/>
+      <c r="D133" s="97"/>
+      <c r="E133" s="97"/>
+      <c r="F133" s="97"/>
+      <c r="G133" s="98"/>
+      <c r="I133" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="J133" s="82" t="s">
+      <c r="J133" s="96" t="s">
         <v>76</v>
       </c>
-      <c r="K133" s="83"/>
-      <c r="L133" s="83"/>
-      <c r="M133" s="83"/>
-      <c r="N133" s="83"/>
-      <c r="O133" s="84"/>
+      <c r="K133" s="97"/>
+      <c r="L133" s="97"/>
+      <c r="M133" s="97"/>
+      <c r="N133" s="97"/>
+      <c r="O133" s="98"/>
     </row>
     <row r="134" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="80"/>
+      <c r="A134" s="94"/>
       <c r="B134" s="26" t="s">
         <v>71</v>
       </c>
@@ -11792,7 +12240,7 @@
       <c r="G134" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="I134" s="80"/>
+      <c r="I134" s="94"/>
       <c r="J134" s="26" t="s">
         <v>71</v>
       </c>
@@ -11813,7 +12261,7 @@
       </c>
     </row>
     <row r="135" spans="1:15" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="81"/>
+      <c r="A135" s="95"/>
       <c r="B135" s="40" t="s">
         <v>63</v>
       </c>
@@ -11832,7 +12280,7 @@
       <c r="G135" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="I135" s="81"/>
+      <c r="I135" s="95"/>
       <c r="J135" s="40" t="s">
         <v>63</v>
       </c>
@@ -11990,54 +12438,54 @@
       </c>
       <c r="B139" s="17">
         <f>B118*0.5</f>
-        <v>7.0699999999999999E-2</v>
+        <v>7.7770000000000006E-2</v>
       </c>
       <c r="C139" s="17">
-        <f t="shared" ref="C139:G139" si="9">C118*0.5</f>
-        <v>7.0699999999999999E-2</v>
+        <f t="shared" ref="C139:G139" si="13">C118*0.5</f>
+        <v>7.7770000000000006E-2</v>
       </c>
       <c r="D139" s="17">
-        <f t="shared" si="9"/>
-        <v>7.0699999999999999E-2</v>
+        <f t="shared" si="13"/>
+        <v>7.7770000000000006E-2</v>
       </c>
       <c r="E139" s="17">
-        <f t="shared" si="9"/>
-        <v>4.1006000000000008E-2</v>
+        <f t="shared" si="13"/>
+        <v>4.5106600000000011E-2</v>
       </c>
       <c r="F139" s="17">
-        <f t="shared" si="9"/>
-        <v>4.1006000000000008E-2</v>
+        <f t="shared" si="13"/>
+        <v>4.5106600000000011E-2</v>
       </c>
       <c r="G139" s="17">
-        <f t="shared" si="9"/>
-        <v>2.8987000000000002E-2</v>
+        <f t="shared" si="13"/>
+        <v>3.1885700000000003E-2</v>
       </c>
       <c r="I139" s="50" t="s">
         <v>13</v>
       </c>
       <c r="J139" s="17">
         <f>B139*0.75</f>
-        <v>5.3025000000000003E-2</v>
+        <v>5.8327500000000004E-2</v>
       </c>
       <c r="K139" s="17">
-        <f t="shared" ref="K139:O145" si="10">C139*0.75</f>
-        <v>5.3025000000000003E-2</v>
+        <f t="shared" ref="K139:O145" si="14">C139*0.75</f>
+        <v>5.8327500000000004E-2</v>
       </c>
       <c r="L139" s="17">
-        <f t="shared" si="10"/>
-        <v>5.3025000000000003E-2</v>
+        <f t="shared" si="14"/>
+        <v>5.8327500000000004E-2</v>
       </c>
       <c r="M139" s="17">
-        <f t="shared" si="10"/>
-        <v>3.0754500000000004E-2</v>
+        <f t="shared" si="14"/>
+        <v>3.3829950000000011E-2</v>
       </c>
       <c r="N139" s="17">
-        <f t="shared" si="10"/>
-        <v>3.0754500000000004E-2</v>
+        <f t="shared" si="14"/>
+        <v>3.3829950000000011E-2</v>
       </c>
       <c r="O139" s="17">
-        <f t="shared" si="10"/>
-        <v>2.1740250000000003E-2</v>
+        <f t="shared" si="14"/>
+        <v>2.3914275000000002E-2</v>
       </c>
     </row>
     <row r="140" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -12045,55 +12493,55 @@
         <v>14</v>
       </c>
       <c r="B140" s="17">
-        <f t="shared" ref="B140:G145" si="11">B119*0.5</f>
-        <v>0.13900000000000001</v>
+        <f t="shared" ref="B140:G145" si="15">B119*0.5</f>
+        <v>0.15290000000000004</v>
       </c>
       <c r="C140" s="17">
-        <f t="shared" si="11"/>
-        <v>0.13900000000000001</v>
+        <f t="shared" si="15"/>
+        <v>0.15290000000000004</v>
       </c>
       <c r="D140" s="17">
-        <f t="shared" si="11"/>
-        <v>0.13900000000000001</v>
+        <f t="shared" si="15"/>
+        <v>0.15290000000000004</v>
       </c>
       <c r="E140" s="17">
-        <f t="shared" si="11"/>
-        <v>8.0620000000000011E-2</v>
+        <f t="shared" si="15"/>
+        <v>8.8682000000000025E-2</v>
       </c>
       <c r="F140" s="17">
-        <f t="shared" si="11"/>
-        <v>8.0620000000000011E-2</v>
+        <f t="shared" si="15"/>
+        <v>8.8682000000000025E-2</v>
       </c>
       <c r="G140" s="17">
-        <f t="shared" si="11"/>
-        <v>5.6990000000000013E-2</v>
+        <f t="shared" si="15"/>
+        <v>6.2689000000000022E-2</v>
       </c>
       <c r="I140" s="50" t="s">
         <v>14</v>
       </c>
       <c r="J140" s="17">
-        <f t="shared" ref="J140:J145" si="12">B140*0.75</f>
-        <v>0.10425000000000001</v>
+        <f t="shared" ref="J140:J145" si="16">B140*0.75</f>
+        <v>0.11467500000000003</v>
       </c>
       <c r="K140" s="17">
-        <f t="shared" si="10"/>
-        <v>0.10425000000000001</v>
+        <f t="shared" si="14"/>
+        <v>0.11467500000000003</v>
       </c>
       <c r="L140" s="17">
-        <f t="shared" si="10"/>
-        <v>0.10425000000000001</v>
+        <f t="shared" si="14"/>
+        <v>0.11467500000000003</v>
       </c>
       <c r="M140" s="17">
-        <f t="shared" si="10"/>
-        <v>6.0465000000000005E-2</v>
+        <f t="shared" si="14"/>
+        <v>6.6511500000000015E-2</v>
       </c>
       <c r="N140" s="17">
-        <f t="shared" si="10"/>
-        <v>6.0465000000000005E-2</v>
+        <f t="shared" si="14"/>
+        <v>6.6511500000000015E-2</v>
       </c>
       <c r="O140" s="17">
-        <f t="shared" si="10"/>
-        <v>4.274250000000001E-2</v>
+        <f t="shared" si="14"/>
+        <v>4.7016750000000017E-2</v>
       </c>
     </row>
     <row r="141" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -12101,55 +12549,55 @@
         <v>15</v>
       </c>
       <c r="B141" s="17">
-        <f t="shared" si="11"/>
-        <v>0.14180000000000001</v>
+        <f t="shared" si="15"/>
+        <v>0.15598000000000004</v>
       </c>
       <c r="C141" s="17">
-        <f t="shared" si="11"/>
-        <v>0.14180000000000001</v>
+        <f t="shared" si="15"/>
+        <v>0.15598000000000004</v>
       </c>
       <c r="D141" s="17">
-        <f t="shared" si="11"/>
-        <v>0.14180000000000001</v>
+        <f t="shared" si="15"/>
+        <v>0.15598000000000004</v>
       </c>
       <c r="E141" s="17">
-        <f t="shared" si="11"/>
-        <v>8.2244000000000012E-2</v>
+        <f t="shared" si="15"/>
+        <v>9.0468400000000018E-2</v>
       </c>
       <c r="F141" s="17">
-        <f t="shared" si="11"/>
-        <v>8.2244000000000012E-2</v>
+        <f t="shared" si="15"/>
+        <v>9.0468400000000018E-2</v>
       </c>
       <c r="G141" s="17">
-        <f t="shared" si="11"/>
-        <v>5.8138000000000009E-2</v>
+        <f t="shared" si="15"/>
+        <v>6.3951800000000017E-2</v>
       </c>
       <c r="I141" s="50" t="s">
         <v>15</v>
       </c>
       <c r="J141" s="17">
-        <f t="shared" si="12"/>
-        <v>0.10635</v>
+        <f t="shared" si="16"/>
+        <v>0.11698500000000003</v>
       </c>
       <c r="K141" s="17">
-        <f t="shared" si="10"/>
-        <v>0.10635</v>
+        <f t="shared" si="14"/>
+        <v>0.11698500000000003</v>
       </c>
       <c r="L141" s="17">
-        <f t="shared" si="10"/>
-        <v>0.10635</v>
+        <f t="shared" si="14"/>
+        <v>0.11698500000000003</v>
       </c>
       <c r="M141" s="17">
-        <f t="shared" si="10"/>
-        <v>6.1683000000000009E-2</v>
+        <f t="shared" si="14"/>
+        <v>6.7851300000000017E-2</v>
       </c>
       <c r="N141" s="17">
-        <f t="shared" si="10"/>
-        <v>6.1683000000000009E-2</v>
+        <f t="shared" si="14"/>
+        <v>6.7851300000000017E-2</v>
       </c>
       <c r="O141" s="17">
-        <f t="shared" si="10"/>
-        <v>4.3603500000000003E-2</v>
+        <f t="shared" si="14"/>
+        <v>4.7963850000000016E-2</v>
       </c>
     </row>
     <row r="142" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -12157,55 +12605,55 @@
         <v>18</v>
       </c>
       <c r="B142" s="17">
-        <f t="shared" si="11"/>
-        <v>0.1056</v>
+        <f t="shared" si="15"/>
+        <v>0.11616000000000001</v>
       </c>
       <c r="C142" s="17">
-        <f t="shared" si="11"/>
-        <v>0.1056</v>
+        <f t="shared" si="15"/>
+        <v>0.11616000000000001</v>
       </c>
       <c r="D142" s="17">
-        <f t="shared" si="11"/>
-        <v>0.1056</v>
+        <f t="shared" si="15"/>
+        <v>0.11616000000000001</v>
       </c>
       <c r="E142" s="17">
-        <f t="shared" si="11"/>
-        <v>6.1248000000000004E-2</v>
+        <f t="shared" si="15"/>
+        <v>6.737280000000001E-2</v>
       </c>
       <c r="F142" s="17">
-        <f t="shared" si="11"/>
-        <v>6.1248000000000004E-2</v>
+        <f t="shared" si="15"/>
+        <v>6.737280000000001E-2</v>
       </c>
       <c r="G142" s="17">
-        <f t="shared" si="11"/>
-        <v>4.3296000000000001E-2</v>
+        <f t="shared" si="15"/>
+        <v>4.7625600000000004E-2</v>
       </c>
       <c r="I142" s="50" t="s">
         <v>18</v>
       </c>
       <c r="J142" s="17">
-        <f t="shared" si="12"/>
-        <v>7.9199999999999993E-2</v>
+        <f t="shared" si="16"/>
+        <v>8.7120000000000003E-2</v>
       </c>
       <c r="K142" s="17">
-        <f t="shared" si="10"/>
-        <v>7.9199999999999993E-2</v>
+        <f t="shared" si="14"/>
+        <v>8.7120000000000003E-2</v>
       </c>
       <c r="L142" s="17">
-        <f t="shared" si="10"/>
-        <v>7.9199999999999993E-2</v>
+        <f t="shared" si="14"/>
+        <v>8.7120000000000003E-2</v>
       </c>
       <c r="M142" s="17">
-        <f t="shared" si="10"/>
-        <v>4.5936000000000005E-2</v>
+        <f t="shared" si="14"/>
+        <v>5.0529600000000008E-2</v>
       </c>
       <c r="N142" s="17">
-        <f t="shared" si="10"/>
-        <v>4.5936000000000005E-2</v>
+        <f t="shared" si="14"/>
+        <v>5.0529600000000008E-2</v>
       </c>
       <c r="O142" s="17">
-        <f t="shared" si="10"/>
-        <v>3.2472000000000001E-2</v>
+        <f t="shared" si="14"/>
+        <v>3.5719200000000007E-2</v>
       </c>
     </row>
     <row r="143" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -12213,55 +12661,55 @@
         <v>17</v>
       </c>
       <c r="B143" s="17">
-        <f t="shared" si="11"/>
-        <v>6.7400000000000002E-2</v>
+        <f t="shared" si="15"/>
+        <v>7.4140000000000011E-2</v>
       </c>
       <c r="C143" s="17">
-        <f t="shared" si="11"/>
-        <v>6.7400000000000002E-2</v>
+        <f t="shared" si="15"/>
+        <v>7.4140000000000011E-2</v>
       </c>
       <c r="D143" s="17">
-        <f t="shared" si="11"/>
-        <v>6.7400000000000002E-2</v>
+        <f t="shared" si="15"/>
+        <v>7.4140000000000011E-2</v>
       </c>
       <c r="E143" s="17">
-        <f t="shared" si="11"/>
-        <v>3.9092000000000009E-2</v>
+        <f t="shared" si="15"/>
+        <v>4.300120000000001E-2</v>
       </c>
       <c r="F143" s="17">
-        <f t="shared" si="11"/>
-        <v>3.9092000000000009E-2</v>
+        <f t="shared" si="15"/>
+        <v>4.300120000000001E-2</v>
       </c>
       <c r="G143" s="17">
-        <f t="shared" si="11"/>
-        <v>2.7634000000000002E-2</v>
+        <f t="shared" si="15"/>
+        <v>3.0397400000000005E-2</v>
       </c>
       <c r="I143" s="50" t="s">
         <v>17</v>
       </c>
       <c r="J143" s="17">
-        <f t="shared" si="12"/>
-        <v>5.0549999999999998E-2</v>
+        <f t="shared" si="16"/>
+        <v>5.5605000000000009E-2</v>
       </c>
       <c r="K143" s="17">
-        <f t="shared" si="10"/>
-        <v>5.0549999999999998E-2</v>
+        <f t="shared" si="14"/>
+        <v>5.5605000000000009E-2</v>
       </c>
       <c r="L143" s="17">
-        <f t="shared" si="10"/>
-        <v>5.0549999999999998E-2</v>
+        <f t="shared" si="14"/>
+        <v>5.5605000000000009E-2</v>
       </c>
       <c r="M143" s="17">
-        <f t="shared" si="10"/>
-        <v>2.9319000000000005E-2</v>
+        <f t="shared" si="14"/>
+        <v>3.2250900000000006E-2</v>
       </c>
       <c r="N143" s="17">
-        <f t="shared" si="10"/>
-        <v>2.9319000000000005E-2</v>
+        <f t="shared" si="14"/>
+        <v>3.2250900000000006E-2</v>
       </c>
       <c r="O143" s="17">
-        <f t="shared" si="10"/>
-        <v>2.0725500000000001E-2</v>
+        <f t="shared" si="14"/>
+        <v>2.2798050000000004E-2</v>
       </c>
     </row>
     <row r="144" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -12269,55 +12717,55 @@
         <v>19</v>
       </c>
       <c r="B144" s="17">
-        <f t="shared" si="11"/>
-        <v>2.7100000000000003E-2</v>
+        <f t="shared" si="15"/>
+        <v>2.9810000000000007E-2</v>
       </c>
       <c r="C144" s="17">
-        <f t="shared" si="11"/>
-        <v>2.7100000000000003E-2</v>
+        <f t="shared" si="15"/>
+        <v>2.9810000000000007E-2</v>
       </c>
       <c r="D144" s="17">
-        <f t="shared" si="11"/>
-        <v>2.7100000000000003E-2</v>
+        <f t="shared" si="15"/>
+        <v>2.9810000000000007E-2</v>
       </c>
       <c r="E144" s="17">
-        <f t="shared" si="11"/>
-        <v>1.5718000000000003E-2</v>
+        <f t="shared" si="15"/>
+        <v>1.7289800000000004E-2</v>
       </c>
       <c r="F144" s="17">
-        <f t="shared" si="11"/>
-        <v>1.5718000000000003E-2</v>
+        <f t="shared" si="15"/>
+        <v>1.7289800000000004E-2</v>
       </c>
       <c r="G144" s="17">
-        <f t="shared" si="11"/>
-        <v>1.1111000000000001E-2</v>
+        <f t="shared" si="15"/>
+        <v>1.2222100000000001E-2</v>
       </c>
       <c r="I144" s="50" t="s">
         <v>19</v>
       </c>
       <c r="J144" s="17">
-        <f t="shared" si="12"/>
-        <v>2.0325000000000003E-2</v>
+        <f t="shared" si="16"/>
+        <v>2.2357500000000006E-2</v>
       </c>
       <c r="K144" s="17">
-        <f t="shared" si="10"/>
-        <v>2.0325000000000003E-2</v>
+        <f t="shared" si="14"/>
+        <v>2.2357500000000006E-2</v>
       </c>
       <c r="L144" s="17">
-        <f t="shared" si="10"/>
-        <v>2.0325000000000003E-2</v>
+        <f t="shared" si="14"/>
+        <v>2.2357500000000006E-2</v>
       </c>
       <c r="M144" s="17">
-        <f t="shared" si="10"/>
-        <v>1.1788500000000002E-2</v>
+        <f t="shared" si="14"/>
+        <v>1.2967350000000002E-2</v>
       </c>
       <c r="N144" s="17">
-        <f t="shared" si="10"/>
-        <v>1.1788500000000002E-2</v>
+        <f t="shared" si="14"/>
+        <v>1.2967350000000002E-2</v>
       </c>
       <c r="O144" s="17">
-        <f t="shared" si="10"/>
-        <v>8.3332500000000004E-3</v>
+        <f t="shared" si="14"/>
+        <v>9.1665750000000015E-3</v>
       </c>
     </row>
     <row r="145" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -12325,55 +12773,55 @@
         <v>20</v>
       </c>
       <c r="B145" s="17">
-        <f t="shared" si="11"/>
-        <v>8.8000000000000005E-3</v>
+        <f t="shared" si="15"/>
+        <v>9.6800000000000011E-3</v>
       </c>
       <c r="C145" s="17">
-        <f t="shared" si="11"/>
-        <v>8.8000000000000005E-3</v>
+        <f t="shared" si="15"/>
+        <v>9.6800000000000011E-3</v>
       </c>
       <c r="D145" s="17">
-        <f t="shared" si="11"/>
-        <v>8.8000000000000005E-3</v>
+        <f t="shared" si="15"/>
+        <v>9.6800000000000011E-3</v>
       </c>
       <c r="E145" s="17">
-        <f t="shared" si="11"/>
-        <v>5.1040000000000009E-3</v>
+        <f t="shared" si="15"/>
+        <v>5.6144000000000012E-3</v>
       </c>
       <c r="F145" s="17">
-        <f t="shared" si="11"/>
-        <v>5.1040000000000009E-3</v>
+        <f t="shared" si="15"/>
+        <v>5.6144000000000012E-3</v>
       </c>
       <c r="G145" s="17">
-        <f t="shared" si="11"/>
-        <v>3.6080000000000005E-3</v>
+        <f t="shared" si="15"/>
+        <v>3.9688000000000006E-3</v>
       </c>
       <c r="I145" s="50" t="s">
         <v>20</v>
       </c>
       <c r="J145" s="17">
-        <f t="shared" si="12"/>
-        <v>6.6E-3</v>
+        <f t="shared" si="16"/>
+        <v>7.2600000000000008E-3</v>
       </c>
       <c r="K145" s="17">
-        <f t="shared" si="10"/>
-        <v>6.6E-3</v>
+        <f t="shared" si="14"/>
+        <v>7.2600000000000008E-3</v>
       </c>
       <c r="L145" s="17">
-        <f t="shared" si="10"/>
-        <v>6.6E-3</v>
+        <f t="shared" si="14"/>
+        <v>7.2600000000000008E-3</v>
       </c>
       <c r="M145" s="17">
-        <f t="shared" si="10"/>
-        <v>3.8280000000000007E-3</v>
+        <f t="shared" si="14"/>
+        <v>4.2108000000000007E-3</v>
       </c>
       <c r="N145" s="17">
-        <f t="shared" si="10"/>
-        <v>3.8280000000000007E-3</v>
+        <f t="shared" si="14"/>
+        <v>4.2108000000000007E-3</v>
       </c>
       <c r="O145" s="17">
-        <f t="shared" si="10"/>
-        <v>2.7060000000000005E-3</v>
+        <f t="shared" si="14"/>
+        <v>2.9766000000000003E-3</v>
       </c>
     </row>
     <row r="146" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -12642,57 +13090,57 @@
     </row>
     <row r="152" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B152">
-        <f t="shared" ref="B152:G152" si="13">5*SUM(B136:B151)</f>
-        <v>2.8020000000000005</v>
+        <f t="shared" ref="B152:G152" si="17">5*SUM(B136:B151)</f>
+        <v>3.0822000000000003</v>
       </c>
       <c r="C152">
-        <f t="shared" si="13"/>
-        <v>2.8020000000000005</v>
+        <f t="shared" si="17"/>
+        <v>3.0822000000000003</v>
       </c>
       <c r="D152">
-        <f t="shared" si="13"/>
-        <v>2.8020000000000005</v>
+        <f t="shared" si="17"/>
+        <v>3.0822000000000003</v>
       </c>
       <c r="E152">
-        <f t="shared" si="13"/>
-        <v>1.6251600000000002</v>
+        <f t="shared" si="17"/>
+        <v>1.7876760000000005</v>
       </c>
       <c r="F152">
-        <f t="shared" si="13"/>
-        <v>1.6251600000000002</v>
+        <f t="shared" si="17"/>
+        <v>1.7876760000000005</v>
       </c>
       <c r="G152">
-        <f t="shared" si="13"/>
-        <v>1.1488200000000002</v>
+        <f t="shared" si="17"/>
+        <v>1.2637020000000003</v>
       </c>
       <c r="J152">
-        <f t="shared" ref="J152:O152" si="14">5*SUM(J136:J151)</f>
-        <v>2.1014999999999997</v>
+        <f t="shared" ref="J152:O152" si="18">5*SUM(J136:J151)</f>
+        <v>2.3116500000000002</v>
       </c>
       <c r="K152">
-        <f t="shared" si="14"/>
-        <v>2.1014999999999997</v>
+        <f t="shared" si="18"/>
+        <v>2.3116500000000002</v>
       </c>
       <c r="L152">
-        <f t="shared" si="14"/>
-        <v>2.1014999999999997</v>
+        <f t="shared" si="18"/>
+        <v>2.3116500000000002</v>
       </c>
       <c r="M152">
-        <f t="shared" si="14"/>
-        <v>1.2188700000000003</v>
+        <f t="shared" si="18"/>
+        <v>1.3407570000000004</v>
       </c>
       <c r="N152">
-        <f t="shared" si="14"/>
-        <v>1.2188700000000003</v>
+        <f t="shared" si="18"/>
+        <v>1.3407570000000004</v>
       </c>
       <c r="O152">
-        <f t="shared" si="14"/>
-        <v>0.86161500000000013</v>
+        <f t="shared" si="18"/>
+        <v>0.94777650000000035</v>
       </c>
     </row>
     <row r="158" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A158" s="36" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B158" s="37"/>
       <c r="C158" s="37"/>
@@ -12772,22 +13220,22 @@
       <c r="W160" s="37"/>
     </row>
     <row r="161" spans="1:14" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="94" t="s">
-        <v>92</v>
-      </c>
-      <c r="B161" s="96" t="s">
-        <v>0</v>
-      </c>
-      <c r="C161" s="96"/>
-      <c r="D161" s="96"/>
-      <c r="E161" s="96" t="s">
+      <c r="A161" s="112" t="s">
+        <v>91</v>
+      </c>
+      <c r="B161" s="114" t="s">
+        <v>0</v>
+      </c>
+      <c r="C161" s="114"/>
+      <c r="D161" s="114"/>
+      <c r="E161" s="114" t="s">
         <v>1</v>
       </c>
-      <c r="F161" s="96"/>
-      <c r="G161" s="96"/>
+      <c r="F161" s="114"/>
+      <c r="G161" s="114"/>
     </row>
     <row r="162" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A162" s="94"/>
+      <c r="A162" s="112"/>
       <c r="B162" s="64" t="s">
         <v>3</v>
       </c>
@@ -12830,15 +13278,15 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="J163">
-        <f t="shared" ref="J163:J178" si="15">B163*B54</f>
+        <f t="shared" ref="J163:J178" si="19">B163*B54</f>
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="K163">
-        <f t="shared" ref="K163:K178" si="16">C163*C54</f>
+        <f t="shared" ref="K163:K178" si="20">C163*C54</f>
         <v>0</v>
       </c>
       <c r="L163">
-        <f t="shared" ref="L163:L178" si="17">D163*D54</f>
+        <f t="shared" ref="L163:L178" si="21">D163*D54</f>
         <v>0</v>
       </c>
     </row>
@@ -12865,15 +13313,15 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="J164">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="K164">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L164">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -12900,15 +13348,15 @@
         <v>1.2</v>
       </c>
       <c r="J165">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>1.176E-2</v>
       </c>
       <c r="K165">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>1.8E-3</v>
       </c>
       <c r="L165">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>6.0000000000000218E-3</v>
       </c>
       <c r="M165">
@@ -12943,23 +13391,23 @@
         <v>12.1863636363636</v>
       </c>
       <c r="J166">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0.4223484848484847</v>
       </c>
       <c r="K166">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>1.8215909090909104</v>
       </c>
       <c r="L166">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>1.0155303030302998</v>
       </c>
       <c r="M166">
-        <f t="shared" ref="M166:M178" si="18">SUM(J166:L166)</f>
+        <f t="shared" ref="M166:M178" si="22">SUM(J166:L166)</f>
         <v>3.2594696969696946</v>
       </c>
       <c r="N166">
-        <f t="shared" ref="N166:N178" si="19">1/M166</f>
+        <f t="shared" ref="N166:N178" si="23">1/M166</f>
         <v>0.30679837303893109</v>
       </c>
     </row>
@@ -12986,23 +13434,23 @@
         <v>13.4262295081967</v>
       </c>
       <c r="J167">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0.41491596638655454</v>
       </c>
       <c r="K167">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>1.6911764705882355</v>
       </c>
       <c r="L167">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>1.1470588235294099</v>
       </c>
       <c r="M167">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>3.2531512605041999</v>
       </c>
       <c r="N167">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>0.30739425250242186</v>
       </c>
     </row>
@@ -13029,23 +13477,23 @@
         <v>6.9705882352941204</v>
       </c>
       <c r="J168">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0.39310344827586191</v>
       </c>
       <c r="K168">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>1.0551724137931051</v>
       </c>
       <c r="L168">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0.54482758620689675</v>
       </c>
       <c r="M168">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1.9931034482758638</v>
       </c>
       <c r="N168">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>0.50173010380622796</v>
       </c>
     </row>
@@ -13072,23 +13520,23 @@
         <v>5.8421052631579</v>
       </c>
       <c r="J169">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0.46610169491525449</v>
       </c>
       <c r="K169">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.84745762711864525</v>
       </c>
       <c r="L169">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0.31355932203389858</v>
       </c>
       <c r="M169">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1.6271186440677983</v>
       </c>
       <c r="N169">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>0.6145833333333327</v>
       </c>
     </row>
@@ -13115,23 +13563,23 @@
         <v>6.2222222222222197</v>
       </c>
       <c r="J170">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0.59655172413793078</v>
       </c>
       <c r="K170">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.48965517241379319</v>
       </c>
       <c r="L170">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0.19310344827586198</v>
       </c>
       <c r="M170">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1.279310344827586</v>
       </c>
       <c r="N170">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>0.78167115902964968</v>
       </c>
     </row>
@@ -13158,23 +13606,23 @@
         <v>7.75</v>
       </c>
       <c r="J171">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0.68881118881118886</v>
       </c>
       <c r="K171">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.40559440559440618</v>
       </c>
       <c r="L171">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0.10839160839160839</v>
       </c>
       <c r="M171">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1.2027972027972034</v>
       </c>
       <c r="N171">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>0.83139534883720889</v>
       </c>
     </row>
@@ -13201,23 +13649,23 @@
         <v>1</v>
       </c>
       <c r="J172">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0.61194029850746257</v>
       </c>
       <c r="K172">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.34468992537313536</v>
       </c>
       <c r="L172">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>1E-3</v>
       </c>
       <c r="M172">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0.95763022388059793</v>
       </c>
       <c r="N172">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1.0442444015057371</v>
       </c>
     </row>
@@ -13244,23 +13692,23 @@
         <v>1</v>
       </c>
       <c r="J173">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0.61194029850746257</v>
       </c>
       <c r="K173">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.34468992537313536</v>
       </c>
       <c r="L173">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>1E-3</v>
       </c>
       <c r="M173">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0.95763022388059793</v>
       </c>
       <c r="N173">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1.0442444015057371</v>
       </c>
     </row>
@@ -13287,23 +13735,23 @@
         <v>1</v>
       </c>
       <c r="J174">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0.61194029850746257</v>
       </c>
       <c r="K174">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.34468992537313536</v>
       </c>
       <c r="L174">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>1E-3</v>
       </c>
       <c r="M174">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0.95763022388059793</v>
       </c>
       <c r="N174">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1.0442444015057371</v>
       </c>
     </row>
@@ -13330,23 +13778,23 @@
         <v>1</v>
       </c>
       <c r="J175">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0.61194029850746257</v>
       </c>
       <c r="K175">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.34468992537313536</v>
       </c>
       <c r="L175">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>1E-3</v>
       </c>
       <c r="M175">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0.95763022388059793</v>
       </c>
       <c r="N175">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1.0442444015057371</v>
       </c>
     </row>
@@ -13373,23 +13821,23 @@
         <v>1</v>
       </c>
       <c r="J176">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0.61194029850746257</v>
       </c>
       <c r="K176">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.34468992537313536</v>
       </c>
       <c r="L176">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>1E-3</v>
       </c>
       <c r="M176">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0.95763022388059793</v>
       </c>
       <c r="N176">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1.0442444015057371</v>
       </c>
     </row>
@@ -13416,23 +13864,23 @@
         <v>1</v>
       </c>
       <c r="J177">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0.61194029850746257</v>
       </c>
       <c r="K177">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.34468992537313536</v>
       </c>
       <c r="L177">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>1E-3</v>
       </c>
       <c r="M177">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0.95763022388059793</v>
       </c>
       <c r="N177">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1.0442444015057371</v>
       </c>
     </row>
@@ -13463,23 +13911,23 @@
         <v>2.1889244186386922</v>
       </c>
       <c r="J178">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0.61194029850746257</v>
       </c>
       <c r="K178">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.34468992537313536</v>
       </c>
       <c r="L178">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>1E-3</v>
       </c>
       <c r="M178">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0.95763022388059793</v>
       </c>
       <c r="N178">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1.0442444015057371</v>
       </c>
     </row>
@@ -13583,9 +14031,9 @@
       <c r="AB185" s="20"/>
     </row>
     <row r="186" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A186" s="97"/>
-      <c r="B186" s="97"/>
-      <c r="C186" s="97"/>
+      <c r="A186" s="115"/>
+      <c r="B186" s="115"/>
+      <c r="C186" s="115"/>
       <c r="D186" s="20"/>
       <c r="E186" s="20"/>
       <c r="F186" s="20"/>
@@ -13734,7 +14182,7 @@
     </row>
     <row r="197" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A197" s="36" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B197" s="37"/>
       <c r="C197" s="37"/>
@@ -13760,39 +14208,39 @@
       <c r="W197" s="37"/>
     </row>
     <row r="198" spans="1:23" s="39" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A198" s="90" t="s">
+      <c r="A198" s="104" t="s">
         <v>73</v>
       </c>
-      <c r="B198" s="90"/>
-      <c r="C198" s="90"/>
-      <c r="D198" s="90"/>
-      <c r="E198" s="90"/>
-      <c r="F198" s="90"/>
+      <c r="B198" s="104"/>
+      <c r="C198" s="104"/>
+      <c r="D198" s="104"/>
+      <c r="E198" s="104"/>
+      <c r="F198" s="104"/>
     </row>
     <row r="199" spans="1:23" s="39" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A199" s="98" t="s">
+      <c r="A199" s="116" t="s">
         <v>74</v>
       </c>
-      <c r="B199" s="98"/>
-      <c r="C199" s="98"/>
-      <c r="D199" s="98"/>
-      <c r="E199" s="98"/>
-      <c r="F199" s="98"/>
+      <c r="B199" s="116"/>
+      <c r="C199" s="116"/>
+      <c r="D199" s="116"/>
+      <c r="E199" s="116"/>
+      <c r="F199" s="116"/>
     </row>
     <row r="200" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A200" s="85" t="s">
+      <c r="A200" s="99" t="s">
         <v>46</v>
       </c>
       <c r="B200" s="43"/>
       <c r="C200" s="43"/>
-      <c r="D200" s="85" t="s">
+      <c r="D200" s="99" t="s">
         <v>51</v>
       </c>
-      <c r="E200" s="85"/>
-      <c r="F200" s="85"/>
+      <c r="E200" s="99"/>
+      <c r="F200" s="99"/>
     </row>
     <row r="201" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A201" s="85"/>
+      <c r="A201" s="99"/>
       <c r="B201" s="43"/>
       <c r="C201" s="44" t="s">
         <v>47</v>
@@ -13827,25 +14275,25 @@
         <v>0</v>
       </c>
       <c r="H202">
-        <f t="shared" ref="H202:H217" si="20">D202*B54</f>
+        <f t="shared" ref="H202:H217" si="24">D202*B54</f>
         <v>0</v>
       </c>
       <c r="I202">
-        <f t="shared" ref="I202:I217" si="21">E202*C54</f>
+        <f t="shared" ref="I202:I217" si="25">E202*C54</f>
         <v>0</v>
       </c>
       <c r="J202">
-        <f t="shared" ref="J202:J217" si="22">F202*D54</f>
-        <v>0</v>
-      </c>
-      <c r="N202" s="76" t="s">
+        <f t="shared" ref="J202:J217" si="26">F202*D54</f>
+        <v>0</v>
+      </c>
+      <c r="N202" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="O202" s="93" t="s">
-        <v>96</v>
-      </c>
-      <c r="P202" s="93"/>
-      <c r="Q202" s="93"/>
+      <c r="O202" s="111" t="s">
+        <v>95</v>
+      </c>
+      <c r="P202" s="111"/>
+      <c r="Q202" s="111"/>
     </row>
     <row r="203" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A203" s="45" t="s">
@@ -13863,15 +14311,15 @@
         <v>0</v>
       </c>
       <c r="H203">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="I203">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="J203">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="N203" s="45" t="s">
@@ -13905,15 +14353,15 @@
         <v>1.1232</v>
       </c>
       <c r="H204">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>3.0575999999999999</v>
       </c>
       <c r="I204">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>2.8080000000000001E-2</v>
       </c>
       <c r="J204">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>5.6160000000000203E-3</v>
       </c>
       <c r="K204">
@@ -13951,19 +14399,19 @@
         <v>5.6159999999999997</v>
       </c>
       <c r="H205">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>7.9418181818181806</v>
       </c>
       <c r="I205">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>3.814909090909091</v>
       </c>
       <c r="J205">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0.46799999999999986</v>
       </c>
       <c r="K205">
-        <f t="shared" ref="K205:K217" si="23">SUM(H205:J205)</f>
+        <f t="shared" ref="K205:K217" si="27">SUM(H205:J205)</f>
         <v>12.224727272727272</v>
       </c>
       <c r="N205" s="45" t="s">
@@ -13999,34 +14447,34 @@
         <v>22.463999999999999</v>
       </c>
       <c r="H206">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>29.452100840336129</v>
       </c>
       <c r="I206">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>16.570084033613444</v>
       </c>
       <c r="J206">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1.9191932773109244</v>
       </c>
       <c r="K206">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>47.941378151260494</v>
       </c>
       <c r="N206" s="45" t="s">
         <v>33</v>
       </c>
       <c r="O206" s="9">
-        <f t="shared" ref="O206:O218" si="24">D205/D204</f>
+        <f t="shared" ref="O206:O218" si="28">D205/D204</f>
         <v>5</v>
       </c>
       <c r="P206" s="9">
-        <f t="shared" ref="P206:P218" si="25">E205/E204</f>
+        <f t="shared" ref="P206:P218" si="29">E205/E204</f>
         <v>4.9999999999999991</v>
       </c>
       <c r="Q206" s="9">
-        <f t="shared" ref="Q206:Q218" si="26">F205/F204</f>
+        <f t="shared" ref="Q206:Q218" si="30">F205/F204</f>
         <v>5</v>
       </c>
     </row>
@@ -14048,34 +14496,34 @@
         <v>56.16</v>
       </c>
       <c r="H207">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>79.613793103448273</v>
       </c>
       <c r="I207">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>38.515862068965518</v>
       </c>
       <c r="J207">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>4.38951724137931</v>
       </c>
       <c r="K207">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>122.5191724137931</v>
       </c>
       <c r="N207" s="45" t="s">
         <v>34</v>
       </c>
       <c r="O207" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>4</v>
       </c>
       <c r="P207" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>4</v>
       </c>
       <c r="Q207" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>4</v>
       </c>
     </row>
@@ -14087,7 +14535,7 @@
         <v>10</v>
       </c>
       <c r="C208" s="43">
-        <f t="shared" ref="C208:C217" si="27">EXP(LN(0.5)*B207/10)</f>
+        <f t="shared" ref="C208:C217" si="31">EXP(LN(0.5)*B207/10)</f>
         <v>0.70710678118654757</v>
       </c>
       <c r="D208" s="66">
@@ -14100,19 +14548,19 @@
         <v>39.711116831436499</v>
       </c>
       <c r="H208">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>66.683764924100601</v>
       </c>
       <c r="I208">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>22.622623053690308</v>
       </c>
       <c r="J208">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>2.1313876265460268</v>
       </c>
       <c r="K208">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>91.437775604336935</v>
       </c>
       <c r="M208" s="39"/>
@@ -14120,15 +14568,15 @@
         <v>35</v>
       </c>
       <c r="O208" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>2.5</v>
       </c>
       <c r="P208" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>2.5</v>
       </c>
       <c r="Q208" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>2.5</v>
       </c>
     </row>
@@ -14140,7 +14588,7 @@
         <v>15</v>
       </c>
       <c r="C209" s="43">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>0.5</v>
       </c>
       <c r="D209" s="66">
@@ -14153,34 +14601,34 @@
         <v>28.08</v>
       </c>
       <c r="H209">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>59.710344827586205</v>
       </c>
       <c r="I209">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>9.5213793103448268</v>
       </c>
       <c r="J209">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0.87144827586206886</v>
       </c>
       <c r="K209">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>70.103172413793089</v>
       </c>
       <c r="N209" s="45" t="s">
         <v>36</v>
       </c>
       <c r="O209" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>0.70710678118654491</v>
       </c>
       <c r="P209" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>0.70710678118654813</v>
       </c>
       <c r="Q209" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>0.70710678118654735</v>
       </c>
     </row>
@@ -14192,7 +14640,7 @@
         <v>20</v>
       </c>
       <c r="C210" s="43">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>0.35355339059327379</v>
       </c>
       <c r="D210" s="66">
@@ -14205,34 +14653,34 @@
         <v>19.855558415718299</v>
       </c>
       <c r="H210">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>45.126269126632387</v>
       </c>
       <c r="I210">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>5.5540023540470607</v>
       </c>
       <c r="J210">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0.27770011770235381</v>
       </c>
       <c r="K210">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>50.957971598381803</v>
       </c>
       <c r="N210" s="45" t="s">
         <v>37</v>
       </c>
       <c r="O210" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>0.70710678118655024</v>
       </c>
       <c r="P210" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>0.70710678118654691</v>
       </c>
       <c r="Q210" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>0.70710678118654768</v>
       </c>
     </row>
@@ -14244,7 +14692,7 @@
         <v>25</v>
       </c>
       <c r="C211" s="43">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>0.25</v>
       </c>
       <c r="D211" s="66">
@@ -14257,34 +14705,34 @@
         <v>14.04</v>
       </c>
       <c r="H211">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>33.179104477611936</v>
       </c>
       <c r="I211">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>3.4691373134328458</v>
       </c>
       <c r="J211">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1.4039999999999999E-2</v>
       </c>
       <c r="K211">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>36.662281791044784</v>
       </c>
       <c r="N211" s="45" t="s">
         <v>38</v>
       </c>
       <c r="O211" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>0.70710678118654735</v>
       </c>
       <c r="P211" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>0.70710678118654713</v>
       </c>
       <c r="Q211" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>0.70710678118654913</v>
       </c>
     </row>
@@ -14296,7 +14744,7 @@
         <v>30</v>
       </c>
       <c r="C212" s="43">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>0.17677669529663689</v>
       </c>
       <c r="D212" s="66">
@@ -14309,34 +14757,34 @@
         <v>9.92777920785913</v>
       </c>
       <c r="H212">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>23.461169769816379</v>
       </c>
       <c r="I212">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>2.4530505191956449</v>
       </c>
       <c r="J212">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>9.9277792078591304E-3</v>
       </c>
       <c r="K212">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>25.924148068219885</v>
       </c>
       <c r="N212" s="45" t="s">
         <v>39</v>
       </c>
       <c r="O212" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>0.70710678118654768</v>
       </c>
       <c r="P212" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>0.70710678118654802</v>
       </c>
       <c r="Q212" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>0.70710678118654591</v>
       </c>
     </row>
@@ -14348,7 +14796,7 @@
         <v>35</v>
       </c>
       <c r="C213" s="43">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>0.12500000000000003</v>
       </c>
       <c r="D213" s="66">
@@ -14361,34 +14809,34 @@
         <v>7.02</v>
       </c>
       <c r="H213">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>16.589552238805968</v>
       </c>
       <c r="I213">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>1.7345686567164229</v>
       </c>
       <c r="J213">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>7.0199999999999993E-3</v>
       </c>
       <c r="K213">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>18.331140895522392</v>
       </c>
       <c r="N213" s="45" t="s">
         <v>40</v>
       </c>
       <c r="O213" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>0.70710678118654868</v>
       </c>
       <c r="P213" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>0.70710678118654713</v>
       </c>
       <c r="Q213" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>0.70710678118654779</v>
       </c>
     </row>
@@ -14413,34 +14861,34 @@
         <v>4.9638896039295597</v>
       </c>
       <c r="H214">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>11.73058488490819</v>
       </c>
       <c r="I214">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>1.2265252595978238</v>
       </c>
       <c r="J214">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>4.96388960392956E-3</v>
       </c>
       <c r="K214">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>12.962074034109945</v>
       </c>
       <c r="N214" s="45" t="s">
         <v>41</v>
       </c>
       <c r="O214" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>0.70710678118654635</v>
       </c>
       <c r="P214" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>0.70710678118654802</v>
       </c>
       <c r="Q214" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>0.70710678118654724</v>
       </c>
     </row>
@@ -14452,7 +14900,7 @@
         <v>45</v>
       </c>
       <c r="C215" s="43">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>6.25E-2</v>
       </c>
       <c r="D215" s="66">
@@ -14465,34 +14913,34 @@
         <v>3.51</v>
       </c>
       <c r="H215">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>8.2947761194029841</v>
       </c>
       <c r="I215">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0.86728432835821145</v>
       </c>
       <c r="J215">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>3.5099999999999997E-3</v>
       </c>
       <c r="K215">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>9.1655704477611959</v>
       </c>
       <c r="N215" s="45" t="s">
         <v>42</v>
       </c>
       <c r="O215" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>0.70710678118654868</v>
       </c>
       <c r="P215" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>0.70710678118654779</v>
       </c>
       <c r="Q215" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>0.70710678118654702</v>
       </c>
     </row>
@@ -14504,7 +14952,7 @@
         <v>50</v>
       </c>
       <c r="C216" s="43">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>4.4194173824159223E-2</v>
       </c>
       <c r="D216" s="66">
@@ -14517,34 +14965,34 @@
         <v>2.4819448019647798</v>
       </c>
       <c r="H216">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>5.8652924424540869</v>
       </c>
       <c r="I216">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0.61326262979891122</v>
       </c>
       <c r="J216">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>2.48194480196478E-3</v>
       </c>
       <c r="K216">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>6.4810370170549634</v>
       </c>
       <c r="N216" s="45" t="s">
         <v>43</v>
       </c>
       <c r="O216" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>0.70710678118654635</v>
       </c>
       <c r="P216" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>0.70710678118654724</v>
       </c>
       <c r="Q216" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>0.70710678118654802</v>
       </c>
     </row>
@@ -14556,7 +15004,7 @@
         <v>55</v>
       </c>
       <c r="C217" s="43">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>3.125E-2</v>
       </c>
       <c r="D217" s="66">
@@ -14569,34 +15017,34 @@
         <v>1.7549999999999999</v>
       </c>
       <c r="H217">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>4.147388059701492</v>
       </c>
       <c r="I217">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0.43364216417910573</v>
       </c>
       <c r="J217">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1.7549999999999998E-3</v>
       </c>
       <c r="K217">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>4.5827852238805979</v>
       </c>
       <c r="N217" s="45" t="s">
         <v>44</v>
       </c>
       <c r="O217" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>0.70710678118654768</v>
       </c>
       <c r="P217" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>0.70710678118654713</v>
       </c>
       <c r="Q217" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>0.70710678118654702</v>
       </c>
     </row>
@@ -14619,42 +15067,42 @@
         <v>45</v>
       </c>
       <c r="O218" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>0.70710678118654735</v>
       </c>
       <c r="P218" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>0.70710678118654802</v>
       </c>
       <c r="Q218" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>0.70710678118654802</v>
       </c>
     </row>
     <row r="219" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A219" s="86" t="s">
+      <c r="A219" s="100" t="s">
         <v>75</v>
       </c>
-      <c r="B219" s="86"/>
-      <c r="C219" s="86"/>
-      <c r="D219" s="86"/>
-      <c r="E219" s="86"/>
-      <c r="F219" s="86"/>
+      <c r="B219" s="100"/>
+      <c r="C219" s="100"/>
+      <c r="D219" s="100"/>
+      <c r="E219" s="100"/>
+      <c r="F219" s="100"/>
     </row>
     <row r="220" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A220" s="95" t="s">
+      <c r="A220" s="113" t="s">
         <v>2</v>
       </c>
       <c r="B220" s="43"/>
       <c r="C220" s="43"/>
-      <c r="D220" s="85" t="s">
+      <c r="D220" s="99" t="s">
         <v>51</v>
       </c>
-      <c r="E220" s="85"/>
-      <c r="F220" s="85"/>
+      <c r="E220" s="99"/>
+      <c r="F220" s="99"/>
     </row>
     <row r="221" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A221" s="95"/>
+      <c r="A221" s="113"/>
       <c r="B221" s="43"/>
       <c r="C221" s="44" t="s">
         <v>47</v>
@@ -14684,14 +15132,14 @@
       <c r="F222" s="65">
         <v>0</v>
       </c>
-      <c r="N222" s="76" t="s">
+      <c r="N222" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="O222" s="93" t="s">
-        <v>95</v>
-      </c>
-      <c r="P222" s="93"/>
-      <c r="Q222" s="93"/>
+      <c r="O222" s="111" t="s">
+        <v>94</v>
+      </c>
+      <c r="P222" s="111"/>
+      <c r="Q222" s="111"/>
     </row>
     <row r="223" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A223" s="45" t="s">
@@ -14804,15 +15252,15 @@
         <v>33</v>
       </c>
       <c r="O226" s="9">
-        <f t="shared" ref="O226:O238" si="28">D225/D224</f>
+        <f t="shared" ref="O226:O238" si="32">D225/D224</f>
         <v>2.4</v>
       </c>
       <c r="P226" s="9">
-        <f t="shared" ref="P226:P238" si="29">E225/E224</f>
+        <f t="shared" ref="P226:P238" si="33">E225/E224</f>
         <v>2.4</v>
       </c>
       <c r="Q226" s="9">
-        <f t="shared" ref="Q226:Q238" si="30">F225/F224</f>
+        <f t="shared" ref="Q226:Q238" si="34">F225/F224</f>
         <v>2.4000000000000004</v>
       </c>
     </row>
@@ -14837,15 +15285,15 @@
         <v>34</v>
       </c>
       <c r="O227" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>4</v>
       </c>
       <c r="P227" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>4</v>
       </c>
       <c r="Q227" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>4</v>
       </c>
     </row>
@@ -14857,7 +15305,7 @@
         <v>10</v>
       </c>
       <c r="C228" s="43">
-        <f t="shared" ref="C228:C237" si="31">EXP(LN(0.5)*B227/10)</f>
+        <f t="shared" ref="C228:C237" si="35">EXP(LN(0.5)*B227/10)</f>
         <v>0.70710678118654757</v>
       </c>
       <c r="D228" s="65">
@@ -14873,15 +15321,15 @@
         <v>35</v>
       </c>
       <c r="O228" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>1.8750000000000002</v>
       </c>
       <c r="P228" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>1.875</v>
       </c>
       <c r="Q228" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1.8749999999999998</v>
       </c>
     </row>
@@ -14893,7 +15341,7 @@
         <v>15</v>
       </c>
       <c r="C229" s="43">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0.5</v>
       </c>
       <c r="D229" s="65">
@@ -14909,15 +15357,15 @@
         <v>36</v>
       </c>
       <c r="O229" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0.70710678118654768</v>
       </c>
       <c r="P229" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0.70710678118654802</v>
       </c>
       <c r="Q229" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>0.70710678118654846</v>
       </c>
     </row>
@@ -14929,7 +15377,7 @@
         <v>20</v>
       </c>
       <c r="C230" s="43">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0.35355339059327379</v>
       </c>
       <c r="D230" s="65">
@@ -14945,15 +15393,15 @@
         <v>37</v>
       </c>
       <c r="O230" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0.70710678118654735</v>
       </c>
       <c r="P230" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0.70710678118654702</v>
       </c>
       <c r="Q230" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>0.70710678118654657</v>
       </c>
     </row>
@@ -14965,7 +15413,7 @@
         <v>25</v>
       </c>
       <c r="C231" s="43">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0.25</v>
       </c>
       <c r="D231" s="65">
@@ -14981,15 +15429,15 @@
         <v>38</v>
       </c>
       <c r="O231" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0.70710678118654702</v>
       </c>
       <c r="P231" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0.70710678118654802</v>
       </c>
       <c r="Q231" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>0.70710678118654646</v>
       </c>
     </row>
@@ -15001,7 +15449,7 @@
         <v>30</v>
       </c>
       <c r="C232" s="43">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0.17677669529663689</v>
       </c>
       <c r="D232" s="65">
@@ -15017,15 +15465,15 @@
         <v>39</v>
       </c>
       <c r="O232" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0.70710678118654802</v>
       </c>
       <c r="P232" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0.70710678118654702</v>
       </c>
       <c r="Q232" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>0.70710678118654857</v>
       </c>
     </row>
@@ -15037,7 +15485,7 @@
         <v>35</v>
       </c>
       <c r="C233" s="43">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0.12500000000000003</v>
       </c>
       <c r="D233" s="65">
@@ -15053,15 +15501,15 @@
         <v>40</v>
       </c>
       <c r="O233" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0.78567420131838739</v>
       </c>
       <c r="P233" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0.78567420131838561</v>
       </c>
       <c r="Q233" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>0.78567420131838639</v>
       </c>
     </row>
@@ -15073,7 +15521,7 @@
         <v>40</v>
       </c>
       <c r="C234" s="43">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>8.8388347648318447E-2</v>
       </c>
       <c r="D234" s="65">
@@ -15089,15 +15537,15 @@
         <v>41</v>
       </c>
       <c r="O234" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0.70710678118654635</v>
       </c>
       <c r="P234" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0.70710678118654802</v>
       </c>
       <c r="Q234" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>0.70710678118654724</v>
       </c>
     </row>
@@ -15109,7 +15557,7 @@
         <v>45</v>
       </c>
       <c r="C235" s="43">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>6.25E-2</v>
       </c>
       <c r="D235" s="65">
@@ -15125,15 +15573,15 @@
         <v>42</v>
       </c>
       <c r="O235" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0.70710678118654868</v>
       </c>
       <c r="P235" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0.70710678118654779</v>
       </c>
       <c r="Q235" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>0.70710678118654702</v>
       </c>
     </row>
@@ -15161,15 +15609,15 @@
         <v>43</v>
       </c>
       <c r="O236" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0.70710678118654635</v>
       </c>
       <c r="P236" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0.70710678118654724</v>
       </c>
       <c r="Q236" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>0.70710678118654802</v>
       </c>
     </row>
@@ -15181,7 +15629,7 @@
         <v>55</v>
       </c>
       <c r="C237" s="43">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>3.125E-2</v>
       </c>
       <c r="D237" s="65">
@@ -15197,15 +15645,15 @@
         <v>44</v>
       </c>
       <c r="O237" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0.70710678118654768</v>
       </c>
       <c r="P237" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0.70710678118654713</v>
       </c>
       <c r="Q237" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>0.70710678118654702</v>
       </c>
     </row>
@@ -15220,24 +15668,24 @@
         <v>45</v>
       </c>
       <c r="O238" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0.70710678118654735</v>
       </c>
       <c r="P238" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0.70710678118654802</v>
       </c>
       <c r="Q238" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>0.70710678118654802</v>
       </c>
     </row>
     <row r="239" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A239" s="74"/>
+      <c r="A239" s="72"/>
       <c r="B239" s="20"/>
       <c r="C239" s="20"/>
       <c r="D239" s="20"/>
-      <c r="E239" s="75"/>
+      <c r="E239" s="73"/>
       <c r="F239" s="35"/>
     </row>
     <row r="240" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
@@ -15245,7 +15693,7 @@
       <c r="B240" s="70"/>
       <c r="C240" s="70"/>
       <c r="D240" s="70"/>
-      <c r="E240" s="75"/>
+      <c r="E240" s="73"/>
       <c r="F240" s="35"/>
     </row>
     <row r="241" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -15284,7 +15732,7 @@
       <c r="E245" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="35">
+  <mergeCells count="37">
     <mergeCell ref="V87:AC87"/>
     <mergeCell ref="U87:U88"/>
     <mergeCell ref="B81:I82"/>
@@ -15305,6 +15753,7 @@
     <mergeCell ref="A199:F199"/>
     <mergeCell ref="D200:F200"/>
     <mergeCell ref="D220:F220"/>
+    <mergeCell ref="A111:Q111"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="I133:I135"/>
     <mergeCell ref="J133:O133"/>
@@ -15320,6 +15769,7 @@
     <mergeCell ref="B52:D52"/>
     <mergeCell ref="E52:G52"/>
     <mergeCell ref="A81:A83"/>
+    <mergeCell ref="I115:N115"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Config/Population_data.xlsx
+++ b/Config/Population_data.xlsx
@@ -447,27 +447,6 @@
     <t>Male Age Ratios</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Initial population size (1910).</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> Calculate backward-projected KZN population. Assume that KZN:SA proportion was decreasing from 1910-2002 according to same trend as from 2002-2019. Assume male and female populations by age follow exponential distributions. See Population_validation Excel document for more detail.</t>
-    </r>
-  </si>
-  <si>
     <t>1950-1955</t>
   </si>
   <si>
@@ -499,6 +478,27 @@
   </si>
   <si>
     <t>Note: fertility rates decline linearly from 1960 to 2000 so that the model's population growth resembles actual population growth patterns and as stated by Moultrie 2003. Fertility rates stall between 2000 and 2010 as described by Moultrie 2008. Fertility rate declines again between 2010 and 2020 as described by Moultri 2007 and seen in observed data. Increasing initial values provided by Nick and Monisha so that fertility in HIV-negative women more closely matches observed data. The exact absolute values seem to be reasonable but semi-arbitrary anyways.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Initial population size (1925).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Calculate backward-projected KZN population. Assume that KZN:SA proportion was decreasing from 1925-2002 according to same trend as from 2002-2019. Assume male and female populations by age follow exponential distributions. See Population_validation Excel document for more detail.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1619,6 +1619,57 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1640,9 +1691,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="28" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1655,58 +1703,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="28" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1819,6 +1819,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1977,52 +1978,52 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>-116459.19703766501</c:v>
+                  <c:v>-152100.42167838168</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-76187.743222862409</c:v>
+                  <c:v>-106612.48230402569</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-75385.542052984893</c:v>
+                  <c:v>-107405.94202558786</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-71896.515135187161</c:v>
+                  <c:v>-101517.15463011744</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-51997.757864486186</c:v>
+                  <c:v>-72544.531411124772</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-46601.769480501192</c:v>
+                  <c:v>-64144.510344209695</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-38908.922911900998</c:v>
+                  <c:v>-52521.552285925158</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-32485.982807963814</c:v>
+                  <c:v>-43004.6692962585</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-48105.36893136811</c:v>
+                  <c:v>-62733.386819434447</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-27123.317738423211</c:v>
+                  <c:v>-35212.241466369451</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-26837.729055778073</c:v>
+                  <c:v>-35474.307358708502</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-18123.756746459323</c:v>
+                  <c:v>-24318.165076374728</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-13980.530844150357</c:v>
+                  <c:v>-19243.353103262907</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-8178.1693204119674</c:v>
+                  <c:v>-11512.902075623842</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-6756.2521870106111</c:v>
+                  <c:v>-9496.9275082166223</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-4250.4736070178951</c:v>
+                  <c:v>-6028.6940611282835</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2149,52 +2150,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>156852.19677743601</c:v>
+                  <c:v>203324.64541775131</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>102612.89100384487</c:v>
+                  <c:v>142517.32455685426</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>87786.369045850632</c:v>
+                  <c:v>124325.88693031289</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>63757.10410526843</c:v>
+                  <c:v>90430.410916924244</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>51450.259534369194</c:v>
+                  <c:v>73084.441583464475</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43513.908158546546</c:v>
+                  <c:v>61533.430640663515</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>53232.318780424968</c:v>
+                  <c:v>74044.458827794922</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>31805.477141060052</c:v>
+                  <c:v>43647.172872749325</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43876.145321947617</c:v>
+                  <c:v>58960.6802707362</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>29945.25213595013</c:v>
+                  <c:v>40119.832401277803</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>18123.756746459323</c:v>
+                  <c:v>24318.165076374728</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>22803.929628009573</c:v>
+                  <c:v>30874.570169486131</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>19286.357512430386</c:v>
+                  <c:v>25994.838038336002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13333.47774733694</c:v>
+                  <c:v>18188.290291429978</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8591.4084565294525</c:v>
+                  <c:v>11968.314355555985</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3048.693222367976</c:v>
+                  <c:v>4496.1121070609634</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2333,6 +2334,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3279,7 +3281,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3968,7 +3969,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8187,8 +8187,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AF245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G134" sqref="G134"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8233,7 +8233,7 @@
   <sheetData>
     <row r="1" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="B1" s="37"/>
       <c r="C1" s="37"/>
@@ -8261,16 +8261,16 @@
       <c r="Y1" s="37"/>
     </row>
     <row r="2" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="109" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="109"/>
       <c r="I2" s="37"/>
       <c r="J2" s="37"/>
       <c r="K2" s="37"/>
@@ -8322,14 +8322,14 @@
       <c r="A4" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="104" t="s">
+      <c r="B4" s="101" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="105"/>
-      <c r="D4" s="104" t="s">
+      <c r="C4" s="102"/>
+      <c r="D4" s="101" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="105"/>
+      <c r="E4" s="102"/>
     </row>
     <row r="5" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
@@ -8353,18 +8353,18 @@
         <v>6</v>
       </c>
       <c r="B6" s="54">
-        <v>116.45919703766501</v>
+        <v>152.10042167838168</v>
       </c>
       <c r="C6" s="54">
-        <v>156.85219677743601</v>
+        <v>203.3246454177513</v>
       </c>
       <c r="D6" s="51">
         <f>B6*1000</f>
-        <v>116459.19703766501</v>
+        <v>152100.42167838168</v>
       </c>
       <c r="E6" s="51">
         <f>C6*1000</f>
-        <v>156852.19677743601</v>
+        <v>203324.64541775131</v>
       </c>
       <c r="F6" s="56"/>
       <c r="G6" s="56"/>
@@ -8376,18 +8376,18 @@
         <v>9</v>
       </c>
       <c r="B7" s="54">
-        <v>76.187743222862409</v>
+        <v>106.61248230402569</v>
       </c>
       <c r="C7" s="54">
-        <v>102.61289100384487</v>
+        <v>142.51732455685425</v>
       </c>
       <c r="D7" s="51">
         <f t="shared" ref="D7:D21" si="0">B7*1000</f>
-        <v>76187.743222862409</v>
+        <v>106612.48230402569</v>
       </c>
       <c r="E7" s="51">
         <f t="shared" ref="E7:E21" si="1">C7*1000</f>
-        <v>102612.89100384487</v>
+        <v>142517.32455685426</v>
       </c>
       <c r="F7" s="56"/>
       <c r="G7" s="56"/>
@@ -8399,18 +8399,18 @@
         <v>12</v>
       </c>
       <c r="B8" s="54">
-        <v>75.385542052984889</v>
+        <v>107.40594202558786</v>
       </c>
       <c r="C8" s="54">
-        <v>87.786369045850634</v>
+        <v>124.32588693031289</v>
       </c>
       <c r="D8" s="51">
         <f t="shared" si="0"/>
-        <v>75385.542052984893</v>
+        <v>107405.94202558786</v>
       </c>
       <c r="E8" s="51">
         <f t="shared" si="1"/>
-        <v>87786.369045850632</v>
+        <v>124325.88693031289</v>
       </c>
       <c r="F8" s="56"/>
       <c r="G8" s="56"/>
@@ -8422,18 +8422,18 @@
         <v>13</v>
       </c>
       <c r="B9" s="54">
-        <v>71.896515135187158</v>
+        <v>101.51715463011743</v>
       </c>
       <c r="C9" s="54">
-        <v>63.757104105268432</v>
+        <v>90.430410916924245</v>
       </c>
       <c r="D9" s="51">
         <f t="shared" si="0"/>
-        <v>71896.515135187161</v>
+        <v>101517.15463011744</v>
       </c>
       <c r="E9" s="51">
         <f t="shared" si="1"/>
-        <v>63757.10410526843</v>
+        <v>90430.410916924244</v>
       </c>
       <c r="F9" s="56"/>
       <c r="G9" s="56"/>
@@ -8445,18 +8445,18 @@
         <v>14</v>
       </c>
       <c r="B10" s="54">
-        <v>51.997757864486189</v>
+        <v>72.544531411124765</v>
       </c>
       <c r="C10" s="54">
-        <v>51.450259534369195</v>
+        <v>73.084441583464468</v>
       </c>
       <c r="D10" s="51">
         <f t="shared" si="0"/>
-        <v>51997.757864486186</v>
+        <v>72544.531411124772</v>
       </c>
       <c r="E10" s="51">
         <f t="shared" si="1"/>
-        <v>51450.259534369194</v>
+        <v>73084.441583464475</v>
       </c>
       <c r="F10" s="56"/>
       <c r="G10" s="56"/>
@@ -8468,18 +8468,18 @@
         <v>15</v>
       </c>
       <c r="B11" s="54">
-        <v>46.60176948050119</v>
+        <v>64.144510344209692</v>
       </c>
       <c r="C11" s="54">
-        <v>43.513908158546549</v>
+        <v>61.533430640663518</v>
       </c>
       <c r="D11" s="51">
         <f t="shared" si="0"/>
-        <v>46601.769480501192</v>
+        <v>64144.510344209695</v>
       </c>
       <c r="E11" s="51">
         <f t="shared" si="1"/>
-        <v>43513.908158546546</v>
+        <v>61533.430640663515</v>
       </c>
       <c r="F11" s="56"/>
       <c r="G11" s="56"/>
@@ -8491,18 +8491,18 @@
         <v>16</v>
       </c>
       <c r="B12" s="54">
-        <v>38.908922911901001</v>
+        <v>52.521552285925161</v>
       </c>
       <c r="C12" s="54">
-        <v>53.232318780424968</v>
+        <v>74.044458827794926</v>
       </c>
       <c r="D12" s="51">
         <f t="shared" si="0"/>
-        <v>38908.922911900998</v>
+        <v>52521.552285925158</v>
       </c>
       <c r="E12" s="51">
         <f t="shared" si="1"/>
-        <v>53232.318780424968</v>
+        <v>74044.458827794922</v>
       </c>
       <c r="F12" s="56"/>
       <c r="G12" s="56"/>
@@ -8514,18 +8514,18 @@
         <v>17</v>
       </c>
       <c r="B13" s="54">
-        <v>32.485982807963815</v>
+        <v>43.004669296258498</v>
       </c>
       <c r="C13" s="54">
-        <v>31.805477141060052</v>
+        <v>43.647172872749323</v>
       </c>
       <c r="D13" s="51">
         <f t="shared" si="0"/>
-        <v>32485.982807963814</v>
+        <v>43004.6692962585</v>
       </c>
       <c r="E13" s="51">
         <f t="shared" si="1"/>
-        <v>31805.477141060052</v>
+        <v>43647.172872749325</v>
       </c>
       <c r="F13" s="56"/>
       <c r="G13" s="56"/>
@@ -8537,18 +8537,18 @@
         <v>19</v>
       </c>
       <c r="B14" s="54">
-        <v>48.105368931368112</v>
+        <v>62.73338681943445</v>
       </c>
       <c r="C14" s="54">
-        <v>43.876145321947618</v>
+        <v>58.960680270736198</v>
       </c>
       <c r="D14" s="51">
         <f t="shared" si="0"/>
-        <v>48105.36893136811</v>
+        <v>62733.386819434447</v>
       </c>
       <c r="E14" s="51">
         <f t="shared" si="1"/>
-        <v>43876.145321947617</v>
+        <v>58960.6802707362</v>
       </c>
       <c r="F14" s="56"/>
       <c r="G14" s="56"/>
@@ -8560,18 +8560,18 @@
         <v>20</v>
       </c>
       <c r="B15" s="54">
-        <v>27.123317738423211</v>
+        <v>35.212241466369449</v>
       </c>
       <c r="C15" s="54">
-        <v>29.945252135950131</v>
+        <v>40.119832401277804</v>
       </c>
       <c r="D15" s="51">
         <f t="shared" si="0"/>
-        <v>27123.317738423211</v>
+        <v>35212.241466369451</v>
       </c>
       <c r="E15" s="51">
         <f t="shared" si="1"/>
-        <v>29945.25213595013</v>
+        <v>40119.832401277803</v>
       </c>
       <c r="F15" s="56"/>
       <c r="G15" s="56"/>
@@ -8583,18 +8583,18 @@
         <v>21</v>
       </c>
       <c r="B16" s="54">
-        <v>26.837729055778073</v>
+        <v>35.474307358708501</v>
       </c>
       <c r="C16" s="54">
-        <v>18.123756746459325</v>
+        <v>24.318165076374729</v>
       </c>
       <c r="D16" s="51">
         <f t="shared" si="0"/>
-        <v>26837.729055778073</v>
+        <v>35474.307358708502</v>
       </c>
       <c r="E16" s="51">
         <f t="shared" si="1"/>
-        <v>18123.756746459323</v>
+        <v>24318.165076374728</v>
       </c>
       <c r="F16" s="56"/>
       <c r="G16" s="56"/>
@@ -8606,18 +8606,18 @@
         <v>22</v>
       </c>
       <c r="B17" s="54">
-        <v>18.123756746459325</v>
+        <v>24.318165076374729</v>
       </c>
       <c r="C17" s="54">
-        <v>22.803929628009573</v>
+        <v>30.87457016948613</v>
       </c>
       <c r="D17" s="51">
         <f t="shared" si="0"/>
-        <v>18123.756746459323</v>
+        <v>24318.165076374728</v>
       </c>
       <c r="E17" s="51">
         <f t="shared" si="1"/>
-        <v>22803.929628009573</v>
+        <v>30874.570169486131</v>
       </c>
       <c r="F17" s="56"/>
       <c r="G17" s="56"/>
@@ -8629,18 +8629,18 @@
         <v>42</v>
       </c>
       <c r="B18" s="54">
-        <v>13.980530844150357</v>
+        <v>19.243353103262908</v>
       </c>
       <c r="C18" s="54">
-        <v>19.286357512430385</v>
+        <v>25.994838038336002</v>
       </c>
       <c r="D18" s="51">
         <f t="shared" si="0"/>
-        <v>13980.530844150357</v>
+        <v>19243.353103262907</v>
       </c>
       <c r="E18" s="51">
         <f t="shared" si="1"/>
-        <v>19286.357512430386</v>
+        <v>25994.838038336002</v>
       </c>
       <c r="F18" s="56"/>
       <c r="G18" s="56"/>
@@ -8652,18 +8652,18 @@
         <v>43</v>
       </c>
       <c r="B19" s="54">
-        <v>8.1781693204119676</v>
+        <v>11.512902075623842</v>
       </c>
       <c r="C19" s="54">
-        <v>13.333477747336939</v>
+        <v>18.188290291429979</v>
       </c>
       <c r="D19" s="51">
         <f t="shared" si="0"/>
-        <v>8178.1693204119674</v>
+        <v>11512.902075623842</v>
       </c>
       <c r="E19" s="51">
         <f t="shared" si="1"/>
-        <v>13333.47774733694</v>
+        <v>18188.290291429978</v>
       </c>
       <c r="F19" s="56"/>
       <c r="G19" s="56"/>
@@ -8675,18 +8675,18 @@
         <v>44</v>
       </c>
       <c r="B20" s="54">
-        <v>6.7562521870106114</v>
+        <v>9.496927508216622</v>
       </c>
       <c r="C20" s="54">
-        <v>8.591408456529452</v>
+        <v>11.968314355555986</v>
       </c>
       <c r="D20" s="51">
         <f t="shared" si="0"/>
-        <v>6756.2521870106111</v>
+        <v>9496.9275082166223</v>
       </c>
       <c r="E20" s="51">
         <f t="shared" si="1"/>
-        <v>8591.4084565294525</v>
+        <v>11968.314355555985</v>
       </c>
       <c r="F20" s="56"/>
       <c r="G20" s="56"/>
@@ -8698,18 +8698,18 @@
         <v>45</v>
       </c>
       <c r="B21" s="54">
-        <v>4.250473607017895</v>
+        <v>6.0286940611282835</v>
       </c>
       <c r="C21" s="54">
-        <v>3.0486932223679761</v>
+        <v>4.4961121070609638</v>
       </c>
       <c r="D21" s="51">
         <f t="shared" si="0"/>
-        <v>4250.4736070178951</v>
+        <v>6028.6940611282835</v>
       </c>
       <c r="E21" s="51">
         <f t="shared" si="1"/>
-        <v>3048.693222367976</v>
+        <v>4496.1121070609634</v>
       </c>
       <c r="F21" s="56"/>
       <c r="G21" s="56"/>
@@ -8722,23 +8722,23 @@
       </c>
       <c r="B22" s="9">
         <f>SUM(B6:B21)</f>
-        <v>663.27902894417116</v>
+        <v>903.87124144474967</v>
       </c>
       <c r="C22" s="9">
         <f>SUM(C6:C21)</f>
-        <v>750.01954531783213</v>
+        <v>1027.8285744567727</v>
       </c>
       <c r="D22" s="9">
         <f>SUM(D6:D21)</f>
-        <v>663279.02894417115</v>
+        <v>903871.24144474964</v>
       </c>
       <c r="E22" s="9">
         <f>SUM(E6:E21)</f>
-        <v>750019.54531783226</v>
+        <v>1027828.5744567729</v>
       </c>
       <c r="F22" s="57">
         <f>D22+E22</f>
-        <v>1413298.5742620034</v>
+        <v>1931699.8159015225</v>
       </c>
       <c r="G22" s="25"/>
       <c r="X22" s="13"/>
@@ -8757,10 +8757,10 @@
       <c r="A27" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="104" t="s">
+      <c r="B27" s="101" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="105"/>
+      <c r="C27" s="102"/>
     </row>
     <row r="28" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
@@ -8778,11 +8778,11 @@
       </c>
       <c r="B29" s="58">
         <f>(-1)*D6</f>
-        <v>-116459.19703766501</v>
+        <v>-152100.42167838168</v>
       </c>
       <c r="C29" s="17">
         <f>E6</f>
-        <v>156852.19677743601</v>
+        <v>203324.64541775131</v>
       </c>
     </row>
     <row r="30" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
@@ -8791,11 +8791,11 @@
       </c>
       <c r="B30" s="58">
         <f t="shared" ref="B30:B44" si="2">(-1)*D7</f>
-        <v>-76187.743222862409</v>
+        <v>-106612.48230402569</v>
       </c>
       <c r="C30" s="17">
         <f t="shared" ref="C30:C44" si="3">E7</f>
-        <v>102612.89100384487</v>
+        <v>142517.32455685426</v>
       </c>
     </row>
     <row r="31" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
@@ -8804,11 +8804,11 @@
       </c>
       <c r="B31" s="58">
         <f t="shared" si="2"/>
-        <v>-75385.542052984893</v>
+        <v>-107405.94202558786</v>
       </c>
       <c r="C31" s="17">
         <f t="shared" si="3"/>
-        <v>87786.369045850632</v>
+        <v>124325.88693031289</v>
       </c>
       <c r="L31" s="8"/>
     </row>
@@ -8818,11 +8818,11 @@
       </c>
       <c r="B32" s="58">
         <f t="shared" si="2"/>
-        <v>-71896.515135187161</v>
+        <v>-101517.15463011744</v>
       </c>
       <c r="C32" s="17">
         <f t="shared" si="3"/>
-        <v>63757.10410526843</v>
+        <v>90430.410916924244</v>
       </c>
     </row>
     <row r="33" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
@@ -8831,11 +8831,11 @@
       </c>
       <c r="B33" s="58">
         <f t="shared" si="2"/>
-        <v>-51997.757864486186</v>
+        <v>-72544.531411124772</v>
       </c>
       <c r="C33" s="17">
         <f t="shared" si="3"/>
-        <v>51450.259534369194</v>
+        <v>73084.441583464475</v>
       </c>
     </row>
     <row r="34" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
@@ -8844,11 +8844,11 @@
       </c>
       <c r="B34" s="58">
         <f t="shared" si="2"/>
-        <v>-46601.769480501192</v>
+        <v>-64144.510344209695</v>
       </c>
       <c r="C34" s="17">
         <f t="shared" si="3"/>
-        <v>43513.908158546546</v>
+        <v>61533.430640663515</v>
       </c>
     </row>
     <row r="35" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
@@ -8857,11 +8857,11 @@
       </c>
       <c r="B35" s="58">
         <f t="shared" si="2"/>
-        <v>-38908.922911900998</v>
+        <v>-52521.552285925158</v>
       </c>
       <c r="C35" s="17">
         <f t="shared" si="3"/>
-        <v>53232.318780424968</v>
+        <v>74044.458827794922</v>
       </c>
     </row>
     <row r="36" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
@@ -8870,11 +8870,11 @@
       </c>
       <c r="B36" s="58">
         <f t="shared" si="2"/>
-        <v>-32485.982807963814</v>
+        <v>-43004.6692962585</v>
       </c>
       <c r="C36" s="17">
         <f t="shared" si="3"/>
-        <v>31805.477141060052</v>
+        <v>43647.172872749325</v>
       </c>
       <c r="X36" s="13"/>
       <c r="Y36" s="13"/>
@@ -8892,11 +8892,11 @@
       </c>
       <c r="B37" s="58">
         <f t="shared" si="2"/>
-        <v>-48105.36893136811</v>
+        <v>-62733.386819434447</v>
       </c>
       <c r="C37" s="17">
         <f t="shared" si="3"/>
-        <v>43876.145321947617</v>
+        <v>58960.6802707362</v>
       </c>
       <c r="X37" s="14"/>
       <c r="Y37" s="14"/>
@@ -8913,11 +8913,11 @@
       </c>
       <c r="B38" s="58">
         <f t="shared" si="2"/>
-        <v>-27123.317738423211</v>
+        <v>-35212.241466369451</v>
       </c>
       <c r="C38" s="17">
         <f t="shared" si="3"/>
-        <v>29945.25213595013</v>
+        <v>40119.832401277803</v>
       </c>
       <c r="X38" s="22"/>
       <c r="Y38" s="22"/>
@@ -8934,11 +8934,11 @@
       </c>
       <c r="B39" s="58">
         <f t="shared" si="2"/>
-        <v>-26837.729055778073</v>
+        <v>-35474.307358708502</v>
       </c>
       <c r="C39" s="17">
         <f t="shared" si="3"/>
-        <v>18123.756746459323</v>
+        <v>24318.165076374728</v>
       </c>
       <c r="X39" s="23"/>
       <c r="Y39" s="23"/>
@@ -8955,11 +8955,11 @@
       </c>
       <c r="B40" s="58">
         <f t="shared" si="2"/>
-        <v>-18123.756746459323</v>
+        <v>-24318.165076374728</v>
       </c>
       <c r="C40" s="17">
         <f t="shared" si="3"/>
-        <v>22803.929628009573</v>
+        <v>30874.570169486131</v>
       </c>
       <c r="X40" s="23"/>
       <c r="Y40" s="23"/>
@@ -8976,11 +8976,11 @@
       </c>
       <c r="B41" s="58">
         <f t="shared" si="2"/>
-        <v>-13980.530844150357</v>
+        <v>-19243.353103262907</v>
       </c>
       <c r="C41" s="17">
         <f t="shared" si="3"/>
-        <v>19286.357512430386</v>
+        <v>25994.838038336002</v>
       </c>
       <c r="X41" s="23"/>
       <c r="Y41" s="23"/>
@@ -8997,11 +8997,11 @@
       </c>
       <c r="B42" s="58">
         <f t="shared" si="2"/>
-        <v>-8178.1693204119674</v>
+        <v>-11512.902075623842</v>
       </c>
       <c r="C42" s="17">
         <f t="shared" si="3"/>
-        <v>13333.47774733694</v>
+        <v>18188.290291429978</v>
       </c>
       <c r="X42" s="24"/>
       <c r="Y42" s="24"/>
@@ -9018,11 +9018,11 @@
       </c>
       <c r="B43" s="58">
         <f t="shared" si="2"/>
-        <v>-6756.2521870106111</v>
+        <v>-9496.9275082166223</v>
       </c>
       <c r="C43" s="17">
         <f t="shared" si="3"/>
-        <v>8591.4084565294525</v>
+        <v>11968.314355555985</v>
       </c>
       <c r="X43" s="24"/>
       <c r="Y43" s="24"/>
@@ -9039,11 +9039,11 @@
       </c>
       <c r="B44" s="58">
         <f t="shared" si="2"/>
-        <v>-4250.4736070178951</v>
+        <v>-6028.6940611282835</v>
       </c>
       <c r="C44" s="17">
         <f t="shared" si="3"/>
-        <v>3048.693222367976</v>
+        <v>4496.1121070609634</v>
       </c>
       <c r="X44" s="24"/>
       <c r="Y44" s="24"/>
@@ -9175,19 +9175,19 @@
       <c r="AE51" s="24"/>
     </row>
     <row r="52" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="106" t="s">
+      <c r="A52" s="120" t="s">
         <v>2</v>
       </c>
-      <c r="B52" s="106" t="s">
+      <c r="B52" s="120" t="s">
         <v>56</v>
       </c>
-      <c r="C52" s="106"/>
-      <c r="D52" s="106"/>
-      <c r="E52" s="106" t="s">
+      <c r="C52" s="120"/>
+      <c r="D52" s="120"/>
+      <c r="E52" s="120" t="s">
         <v>57</v>
       </c>
-      <c r="F52" s="106"/>
-      <c r="G52" s="106"/>
+      <c r="F52" s="120"/>
+      <c r="G52" s="120"/>
       <c r="X52" s="22"/>
       <c r="Y52" s="22"/>
       <c r="Z52" s="22"/>
@@ -9198,7 +9198,7 @@
       <c r="AE52" s="22"/>
     </row>
     <row r="53" spans="1:31" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="106"/>
+      <c r="A53" s="120"/>
       <c r="B53" s="33" t="s">
         <v>3</v>
       </c>
@@ -9705,7 +9705,7 @@
     </row>
     <row r="80" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="36" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B80" s="37"/>
       <c r="C80" s="37"/>
@@ -9732,158 +9732,158 @@
       <c r="X80" s="37"/>
     </row>
     <row r="81" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="107" t="s">
+      <c r="A81" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="B81" s="112" t="s">
+      <c r="B81" s="93" t="s">
         <v>81</v>
       </c>
-      <c r="C81" s="112"/>
-      <c r="D81" s="112"/>
-      <c r="E81" s="112"/>
-      <c r="F81" s="112"/>
-      <c r="G81" s="112"/>
-      <c r="H81" s="112"/>
-      <c r="I81" s="112"/>
+      <c r="C81" s="93"/>
+      <c r="D81" s="93"/>
+      <c r="E81" s="93"/>
+      <c r="F81" s="93"/>
+      <c r="G81" s="93"/>
+      <c r="H81" s="93"/>
+      <c r="I81" s="93"/>
       <c r="J81" s="35"/>
-      <c r="K81" s="107" t="s">
+      <c r="K81" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="L81" s="112" t="s">
+      <c r="L81" s="93" t="s">
         <v>82</v>
       </c>
-      <c r="M81" s="112"/>
-      <c r="N81" s="112"/>
-      <c r="O81" s="112"/>
-      <c r="P81" s="112"/>
-      <c r="Q81" s="112"/>
-      <c r="R81" s="112"/>
-      <c r="S81" s="112"/>
+      <c r="M81" s="93"/>
+      <c r="N81" s="93"/>
+      <c r="O81" s="93"/>
+      <c r="P81" s="93"/>
+      <c r="Q81" s="93"/>
+      <c r="R81" s="93"/>
+      <c r="S81" s="93"/>
       <c r="T81" s="35"/>
-      <c r="U81" s="118" t="s">
+      <c r="U81" s="92" t="s">
         <v>83</v>
       </c>
-      <c r="V81" s="118"/>
-      <c r="W81" s="118"/>
-      <c r="X81" s="118"/>
-      <c r="Y81" s="118"/>
-      <c r="Z81" s="118"/>
-      <c r="AA81" s="118"/>
-      <c r="AB81" s="118"/>
-      <c r="AC81" s="118"/>
+      <c r="V81" s="92"/>
+      <c r="W81" s="92"/>
+      <c r="X81" s="92"/>
+      <c r="Y81" s="92"/>
+      <c r="Z81" s="92"/>
+      <c r="AA81" s="92"/>
+      <c r="AB81" s="92"/>
+      <c r="AC81" s="92"/>
     </row>
     <row r="82" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="108"/>
-      <c r="B82" s="112"/>
-      <c r="C82" s="112"/>
-      <c r="D82" s="112"/>
-      <c r="E82" s="112"/>
-      <c r="F82" s="112"/>
-      <c r="G82" s="112"/>
-      <c r="H82" s="112"/>
-      <c r="I82" s="112"/>
+      <c r="A82" s="95"/>
+      <c r="B82" s="93"/>
+      <c r="C82" s="93"/>
+      <c r="D82" s="93"/>
+      <c r="E82" s="93"/>
+      <c r="F82" s="93"/>
+      <c r="G82" s="93"/>
+      <c r="H82" s="93"/>
+      <c r="I82" s="93"/>
       <c r="J82" s="35"/>
-      <c r="K82" s="108"/>
-      <c r="L82" s="112"/>
-      <c r="M82" s="112"/>
-      <c r="N82" s="112"/>
-      <c r="O82" s="112"/>
-      <c r="P82" s="112"/>
-      <c r="Q82" s="112"/>
-      <c r="R82" s="112"/>
-      <c r="S82" s="112"/>
+      <c r="K82" s="95"/>
+      <c r="L82" s="93"/>
+      <c r="M82" s="93"/>
+      <c r="N82" s="93"/>
+      <c r="O82" s="93"/>
+      <c r="P82" s="93"/>
+      <c r="Q82" s="93"/>
+      <c r="R82" s="93"/>
+      <c r="S82" s="93"/>
       <c r="T82" s="35"/>
-      <c r="U82" s="118" t="s">
+      <c r="U82" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="V82" s="119" t="s">
+      <c r="V82" s="97" t="s">
         <v>74</v>
       </c>
-      <c r="W82" s="120"/>
-      <c r="X82" s="120"/>
-      <c r="Y82" s="120"/>
-      <c r="Z82" s="120"/>
-      <c r="AA82" s="120"/>
-      <c r="AB82" s="120"/>
-      <c r="AC82" s="121"/>
+      <c r="W82" s="98"/>
+      <c r="X82" s="98"/>
+      <c r="Y82" s="98"/>
+      <c r="Z82" s="98"/>
+      <c r="AA82" s="98"/>
+      <c r="AB82" s="98"/>
+      <c r="AC82" s="99"/>
     </row>
     <row r="83" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="109"/>
+      <c r="A83" s="96"/>
       <c r="B83" s="79" t="s">
+        <v>96</v>
+      </c>
+      <c r="C83" s="79" t="s">
         <v>97</v>
       </c>
-      <c r="C83" s="79" t="s">
+      <c r="D83" s="79" t="s">
         <v>98</v>
       </c>
-      <c r="D83" s="79" t="s">
+      <c r="E83" s="79" t="s">
         <v>99</v>
       </c>
-      <c r="E83" s="79" t="s">
+      <c r="F83" s="88" t="s">
+        <v>103</v>
+      </c>
+      <c r="G83" s="79" t="s">
         <v>100</v>
       </c>
-      <c r="F83" s="88" t="s">
-        <v>104</v>
-      </c>
-      <c r="G83" s="79" t="s">
+      <c r="H83" s="79" t="s">
+        <v>102</v>
+      </c>
+      <c r="I83" s="79" t="s">
         <v>101</v>
       </c>
-      <c r="H83" s="79" t="s">
+      <c r="J83" s="35"/>
+      <c r="K83" s="96"/>
+      <c r="L83" s="79" t="s">
+        <v>96</v>
+      </c>
+      <c r="M83" s="79" t="s">
+        <v>97</v>
+      </c>
+      <c r="N83" s="79" t="s">
+        <v>98</v>
+      </c>
+      <c r="O83" s="79" t="s">
+        <v>99</v>
+      </c>
+      <c r="P83" s="80" t="s">
         <v>103</v>
       </c>
-      <c r="I83" s="79" t="s">
+      <c r="Q83" s="79" t="s">
+        <v>100</v>
+      </c>
+      <c r="R83" s="79" t="s">
         <v>102</v>
       </c>
-      <c r="J83" s="35"/>
-      <c r="K83" s="109"/>
-      <c r="L83" s="79" t="s">
+      <c r="S83" s="79" t="s">
+        <v>101</v>
+      </c>
+      <c r="T83" s="35"/>
+      <c r="U83" s="92"/>
+      <c r="V83" s="79" t="s">
+        <v>96</v>
+      </c>
+      <c r="W83" s="79" t="s">
         <v>97</v>
       </c>
-      <c r="M83" s="79" t="s">
+      <c r="X83" s="79" t="s">
         <v>98</v>
       </c>
-      <c r="N83" s="79" t="s">
+      <c r="Y83" s="79" t="s">
         <v>99</v>
       </c>
-      <c r="O83" s="79" t="s">
+      <c r="Z83" s="80" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA83" s="79" t="s">
         <v>100</v>
       </c>
-      <c r="P83" s="80" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q83" s="79" t="s">
+      <c r="AB83" s="79" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC83" s="79" t="s">
         <v>101</v>
-      </c>
-      <c r="R83" s="79" t="s">
-        <v>103</v>
-      </c>
-      <c r="S83" s="79" t="s">
-        <v>102</v>
-      </c>
-      <c r="T83" s="35"/>
-      <c r="U83" s="118"/>
-      <c r="V83" s="79" t="s">
-        <v>97</v>
-      </c>
-      <c r="W83" s="79" t="s">
-        <v>98</v>
-      </c>
-      <c r="X83" s="79" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y83" s="79" t="s">
-        <v>100</v>
-      </c>
-      <c r="Z83" s="80" t="s">
-        <v>104</v>
-      </c>
-      <c r="AA83" s="79" t="s">
-        <v>101</v>
-      </c>
-      <c r="AB83" s="79" t="s">
-        <v>103</v>
-      </c>
-      <c r="AC83" s="79" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="84" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
@@ -10196,19 +10196,19 @@
         <v>1.6750273E-3</v>
       </c>
       <c r="T87" s="35"/>
-      <c r="U87" s="118" t="s">
+      <c r="U87" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="V87" s="118" t="s">
+      <c r="V87" s="92" t="s">
         <v>75</v>
       </c>
-      <c r="W87" s="118"/>
-      <c r="X87" s="118"/>
-      <c r="Y87" s="118"/>
-      <c r="Z87" s="118"/>
-      <c r="AA87" s="118"/>
-      <c r="AB87" s="118"/>
-      <c r="AC87" s="118"/>
+      <c r="W87" s="92"/>
+      <c r="X87" s="92"/>
+      <c r="Y87" s="92"/>
+      <c r="Z87" s="92"/>
+      <c r="AA87" s="92"/>
+      <c r="AB87" s="92"/>
+      <c r="AC87" s="92"/>
     </row>
     <row r="88" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="75" t="s">
@@ -10267,30 +10267,30 @@
         <v>2.3815536E-3</v>
       </c>
       <c r="T88" s="35"/>
-      <c r="U88" s="118"/>
+      <c r="U88" s="92"/>
       <c r="V88" s="79" t="s">
+        <v>96</v>
+      </c>
+      <c r="W88" s="79" t="s">
         <v>97</v>
       </c>
-      <c r="W88" s="79" t="s">
+      <c r="X88" s="79" t="s">
         <v>98</v>
       </c>
-      <c r="X88" s="79" t="s">
+      <c r="Y88" s="79" t="s">
         <v>99</v>
       </c>
-      <c r="Y88" s="79" t="s">
+      <c r="Z88" s="80" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA88" s="79" t="s">
         <v>100</v>
       </c>
-      <c r="Z88" s="80" t="s">
-        <v>104</v>
-      </c>
-      <c r="AA88" s="79" t="s">
+      <c r="AB88" s="79" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC88" s="79" t="s">
         <v>101</v>
-      </c>
-      <c r="AB88" s="79" t="s">
-        <v>103</v>
-      </c>
-      <c r="AC88" s="79" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="89" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
@@ -11288,25 +11288,25 @@
       <c r="X110" s="37"/>
     </row>
     <row r="111" spans="1:29" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="117" t="s">
-        <v>107</v>
-      </c>
-      <c r="B111" s="117"/>
-      <c r="C111" s="117"/>
-      <c r="D111" s="117"/>
-      <c r="E111" s="117"/>
-      <c r="F111" s="117"/>
-      <c r="G111" s="117"/>
-      <c r="H111" s="117"/>
-      <c r="I111" s="117"/>
-      <c r="J111" s="117"/>
-      <c r="K111" s="117"/>
-      <c r="L111" s="117"/>
-      <c r="M111" s="117"/>
-      <c r="N111" s="117"/>
-      <c r="O111" s="117"/>
-      <c r="P111" s="117"/>
-      <c r="Q111" s="117"/>
+      <c r="A111" s="108" t="s">
+        <v>106</v>
+      </c>
+      <c r="B111" s="108"/>
+      <c r="C111" s="108"/>
+      <c r="D111" s="108"/>
+      <c r="E111" s="108"/>
+      <c r="F111" s="108"/>
+      <c r="G111" s="108"/>
+      <c r="H111" s="108"/>
+      <c r="I111" s="108"/>
+      <c r="J111" s="108"/>
+      <c r="K111" s="108"/>
+      <c r="L111" s="108"/>
+      <c r="M111" s="108"/>
+      <c r="N111" s="108"/>
+      <c r="O111" s="108"/>
+      <c r="P111" s="108"/>
+      <c r="Q111" s="108"/>
       <c r="R111" s="37"/>
       <c r="S111" s="37"/>
       <c r="T111" s="37"/>
@@ -11316,17 +11316,17 @@
       <c r="X111" s="37"/>
     </row>
     <row r="112" spans="1:29" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="101" t="s">
+      <c r="A112" s="117" t="s">
         <v>2</v>
       </c>
-      <c r="B112" s="96" t="s">
+      <c r="B112" s="113" t="s">
         <v>86</v>
       </c>
-      <c r="C112" s="97"/>
-      <c r="D112" s="97"/>
-      <c r="E112" s="97"/>
-      <c r="F112" s="97"/>
-      <c r="G112" s="98"/>
+      <c r="C112" s="114"/>
+      <c r="D112" s="114"/>
+      <c r="E112" s="114"/>
+      <c r="F112" s="114"/>
+      <c r="G112" s="115"/>
       <c r="I112" s="74"/>
       <c r="J112" s="90" t="s">
         <v>27</v>
@@ -11345,7 +11345,7 @@
       </c>
     </row>
     <row r="113" spans="1:14" ht="45.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="102"/>
+      <c r="A113" s="118"/>
       <c r="B113" s="32" t="s">
         <v>70</v>
       </c>
@@ -11389,7 +11389,7 @@
       </c>
     </row>
     <row r="114" spans="1:14" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="103"/>
+      <c r="A114" s="119"/>
       <c r="B114" s="34" t="s">
         <v>63</v>
       </c>
@@ -11437,14 +11437,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I115" s="110" t="s">
-        <v>106</v>
-      </c>
-      <c r="J115" s="110"/>
-      <c r="K115" s="110"/>
-      <c r="L115" s="110"/>
-      <c r="M115" s="110"/>
-      <c r="N115" s="110"/>
+      <c r="I115" s="121" t="s">
+        <v>105</v>
+      </c>
+      <c r="J115" s="121"/>
+      <c r="K115" s="121"/>
+      <c r="L115" s="121"/>
+      <c r="M115" s="121"/>
+      <c r="N115" s="121"/>
     </row>
     <row r="116" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
@@ -12197,31 +12197,31 @@
     </row>
     <row r="132" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="133" spans="1:15" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="93" t="s">
+      <c r="A133" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="B133" s="96" t="s">
+      <c r="B133" s="113" t="s">
         <v>87</v>
       </c>
-      <c r="C133" s="97"/>
-      <c r="D133" s="97"/>
-      <c r="E133" s="97"/>
-      <c r="F133" s="97"/>
-      <c r="G133" s="98"/>
-      <c r="I133" s="93" t="s">
+      <c r="C133" s="114"/>
+      <c r="D133" s="114"/>
+      <c r="E133" s="114"/>
+      <c r="F133" s="114"/>
+      <c r="G133" s="115"/>
+      <c r="I133" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="J133" s="96" t="s">
+      <c r="J133" s="113" t="s">
         <v>76</v>
       </c>
-      <c r="K133" s="97"/>
-      <c r="L133" s="97"/>
-      <c r="M133" s="97"/>
-      <c r="N133" s="97"/>
-      <c r="O133" s="98"/>
+      <c r="K133" s="114"/>
+      <c r="L133" s="114"/>
+      <c r="M133" s="114"/>
+      <c r="N133" s="114"/>
+      <c r="O133" s="115"/>
     </row>
     <row r="134" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="94"/>
+      <c r="A134" s="111"/>
       <c r="B134" s="26" t="s">
         <v>71</v>
       </c>
@@ -12240,7 +12240,7 @@
       <c r="G134" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="I134" s="94"/>
+      <c r="I134" s="111"/>
       <c r="J134" s="26" t="s">
         <v>71</v>
       </c>
@@ -12261,7 +12261,7 @@
       </c>
     </row>
     <row r="135" spans="1:15" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="95"/>
+      <c r="A135" s="112"/>
       <c r="B135" s="40" t="s">
         <v>63</v>
       </c>
@@ -12280,7 +12280,7 @@
       <c r="G135" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="I135" s="95"/>
+      <c r="I135" s="112"/>
       <c r="J135" s="40" t="s">
         <v>63</v>
       </c>
@@ -13220,22 +13220,22 @@
       <c r="W160" s="37"/>
     </row>
     <row r="161" spans="1:14" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="112" t="s">
+      <c r="A161" s="93" t="s">
         <v>91</v>
       </c>
-      <c r="B161" s="114" t="s">
-        <v>0</v>
-      </c>
-      <c r="C161" s="114"/>
-      <c r="D161" s="114"/>
-      <c r="E161" s="114" t="s">
+      <c r="B161" s="104" t="s">
+        <v>0</v>
+      </c>
+      <c r="C161" s="104"/>
+      <c r="D161" s="104"/>
+      <c r="E161" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="F161" s="114"/>
-      <c r="G161" s="114"/>
+      <c r="F161" s="104"/>
+      <c r="G161" s="104"/>
     </row>
     <row r="162" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A162" s="112"/>
+      <c r="A162" s="93"/>
       <c r="B162" s="64" t="s">
         <v>3</v>
       </c>
@@ -14031,9 +14031,9 @@
       <c r="AB185" s="20"/>
     </row>
     <row r="186" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A186" s="115"/>
-      <c r="B186" s="115"/>
-      <c r="C186" s="115"/>
+      <c r="A186" s="105"/>
+      <c r="B186" s="105"/>
+      <c r="C186" s="105"/>
       <c r="D186" s="20"/>
       <c r="E186" s="20"/>
       <c r="F186" s="20"/>
@@ -14208,39 +14208,39 @@
       <c r="W197" s="37"/>
     </row>
     <row r="198" spans="1:23" s="39" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A198" s="104" t="s">
+      <c r="A198" s="101" t="s">
         <v>73</v>
       </c>
-      <c r="B198" s="104"/>
-      <c r="C198" s="104"/>
-      <c r="D198" s="104"/>
-      <c r="E198" s="104"/>
-      <c r="F198" s="104"/>
+      <c r="B198" s="101"/>
+      <c r="C198" s="101"/>
+      <c r="D198" s="101"/>
+      <c r="E198" s="101"/>
+      <c r="F198" s="101"/>
     </row>
     <row r="199" spans="1:23" s="39" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A199" s="116" t="s">
+      <c r="A199" s="106" t="s">
         <v>74</v>
       </c>
-      <c r="B199" s="116"/>
-      <c r="C199" s="116"/>
-      <c r="D199" s="116"/>
-      <c r="E199" s="116"/>
-      <c r="F199" s="116"/>
+      <c r="B199" s="106"/>
+      <c r="C199" s="106"/>
+      <c r="D199" s="106"/>
+      <c r="E199" s="106"/>
+      <c r="F199" s="106"/>
     </row>
     <row r="200" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A200" s="99" t="s">
+      <c r="A200" s="107" t="s">
         <v>46</v>
       </c>
       <c r="B200" s="43"/>
       <c r="C200" s="43"/>
-      <c r="D200" s="99" t="s">
+      <c r="D200" s="107" t="s">
         <v>51</v>
       </c>
-      <c r="E200" s="99"/>
-      <c r="F200" s="99"/>
+      <c r="E200" s="107"/>
+      <c r="F200" s="107"/>
     </row>
     <row r="201" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A201" s="99"/>
+      <c r="A201" s="107"/>
       <c r="B201" s="43"/>
       <c r="C201" s="44" t="s">
         <v>47</v>
@@ -14289,11 +14289,11 @@
       <c r="N202" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="O202" s="111" t="s">
+      <c r="O202" s="100" t="s">
         <v>95</v>
       </c>
-      <c r="P202" s="111"/>
-      <c r="Q202" s="111"/>
+      <c r="P202" s="100"/>
+      <c r="Q202" s="100"/>
     </row>
     <row r="203" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A203" s="45" t="s">
@@ -15080,29 +15080,29 @@
       </c>
     </row>
     <row r="219" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A219" s="100" t="s">
+      <c r="A219" s="116" t="s">
         <v>75</v>
       </c>
-      <c r="B219" s="100"/>
-      <c r="C219" s="100"/>
-      <c r="D219" s="100"/>
-      <c r="E219" s="100"/>
-      <c r="F219" s="100"/>
+      <c r="B219" s="116"/>
+      <c r="C219" s="116"/>
+      <c r="D219" s="116"/>
+      <c r="E219" s="116"/>
+      <c r="F219" s="116"/>
     </row>
     <row r="220" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A220" s="113" t="s">
+      <c r="A220" s="103" t="s">
         <v>2</v>
       </c>
       <c r="B220" s="43"/>
       <c r="C220" s="43"/>
-      <c r="D220" s="99" t="s">
+      <c r="D220" s="107" t="s">
         <v>51</v>
       </c>
-      <c r="E220" s="99"/>
-      <c r="F220" s="99"/>
+      <c r="E220" s="107"/>
+      <c r="F220" s="107"/>
     </row>
     <row r="221" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A221" s="113"/>
+      <c r="A221" s="103"/>
       <c r="B221" s="43"/>
       <c r="C221" s="44" t="s">
         <v>47</v>
@@ -15135,11 +15135,11 @@
       <c r="N222" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="O222" s="111" t="s">
+      <c r="O222" s="100" t="s">
         <v>94</v>
       </c>
-      <c r="P222" s="111"/>
-      <c r="Q222" s="111"/>
+      <c r="P222" s="100"/>
+      <c r="Q222" s="100"/>
     </row>
     <row r="223" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A223" s="45" t="s">
@@ -15733,27 +15733,6 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="V87:AC87"/>
-    <mergeCell ref="U87:U88"/>
-    <mergeCell ref="B81:I82"/>
-    <mergeCell ref="U82:U83"/>
-    <mergeCell ref="K81:K83"/>
-    <mergeCell ref="U81:AC81"/>
-    <mergeCell ref="L81:S82"/>
-    <mergeCell ref="V82:AC82"/>
-    <mergeCell ref="O222:Q222"/>
-    <mergeCell ref="O202:Q202"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="A161:A162"/>
-    <mergeCell ref="A220:A221"/>
-    <mergeCell ref="B161:D161"/>
-    <mergeCell ref="E161:G161"/>
-    <mergeCell ref="A186:C186"/>
-    <mergeCell ref="A198:F198"/>
-    <mergeCell ref="A199:F199"/>
-    <mergeCell ref="D200:F200"/>
-    <mergeCell ref="D220:F220"/>
-    <mergeCell ref="A111:Q111"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="I133:I135"/>
     <mergeCell ref="J133:O133"/>
@@ -15770,6 +15749,27 @@
     <mergeCell ref="E52:G52"/>
     <mergeCell ref="A81:A83"/>
     <mergeCell ref="I115:N115"/>
+    <mergeCell ref="O222:Q222"/>
+    <mergeCell ref="O202:Q202"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="A161:A162"/>
+    <mergeCell ref="A220:A221"/>
+    <mergeCell ref="B161:D161"/>
+    <mergeCell ref="E161:G161"/>
+    <mergeCell ref="A186:C186"/>
+    <mergeCell ref="A198:F198"/>
+    <mergeCell ref="A199:F199"/>
+    <mergeCell ref="D200:F200"/>
+    <mergeCell ref="D220:F220"/>
+    <mergeCell ref="A111:Q111"/>
+    <mergeCell ref="V87:AC87"/>
+    <mergeCell ref="U87:U88"/>
+    <mergeCell ref="B81:I82"/>
+    <mergeCell ref="U82:U83"/>
+    <mergeCell ref="K81:K83"/>
+    <mergeCell ref="U81:AC81"/>
+    <mergeCell ref="L81:S82"/>
+    <mergeCell ref="V82:AC82"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Config/Population_data.xlsx
+++ b/Config/Population_data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" tabRatio="607"/>
   </bookViews>
   <sheets>
     <sheet name="Demographics" sheetId="1" r:id="rId1"/>
@@ -509,7 +509,7 @@
     <numFmt numFmtId="164" formatCode="0.00000;\-0.00000;0"/>
     <numFmt numFmtId="165" formatCode="###;\-###;0"/>
   </numFmts>
-  <fonts count="36" x14ac:knownFonts="1">
+  <fonts count="37" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -753,6 +753,12 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -1416,7 +1422,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1546,9 +1552,6 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1579,14 +1582,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1611,7 +1608,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -1620,55 +1616,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="28" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1691,6 +1639,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="28" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1703,11 +1654,90 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="48">
@@ -3281,6 +3311,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3969,6 +4000,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4090,6 +4122,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5575,6 +5608,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7890,16 +7924,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>559594</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>857250</xdr:colOff>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
       <xdr:row>103</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>73818</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8185,10 +8219,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AF245"/>
+  <dimension ref="A1:AI245"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="M79" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="W103" sqref="W103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8202,8 +8236,8 @@
     <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.85546875" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.5703125" customWidth="1"/>
     <col min="14" max="14" width="25" customWidth="1"/>
@@ -8221,10 +8255,9 @@
     <col min="26" max="26" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="12.28515625" customWidth="1"/>
     <col min="28" max="29" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.85546875" customWidth="1"/>
-    <col min="31" max="31" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="12" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="14.140625" customWidth="1"/>
-    <col min="33" max="33" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="12" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="37" max="38" width="12.28515625" bestFit="1" customWidth="1"/>
@@ -8261,16 +8294,16 @@
       <c r="Y1" s="37"/>
     </row>
     <row r="2" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="89" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
       <c r="I2" s="37"/>
       <c r="J2" s="37"/>
       <c r="K2" s="37"/>
@@ -9175,19 +9208,19 @@
       <c r="AE51" s="24"/>
     </row>
     <row r="52" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="120" t="s">
+      <c r="A52" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="B52" s="120" t="s">
+      <c r="B52" s="103" t="s">
         <v>56</v>
       </c>
-      <c r="C52" s="120"/>
-      <c r="D52" s="120"/>
-      <c r="E52" s="120" t="s">
+      <c r="C52" s="103"/>
+      <c r="D52" s="103"/>
+      <c r="E52" s="103" t="s">
         <v>57</v>
       </c>
-      <c r="F52" s="120"/>
-      <c r="G52" s="120"/>
+      <c r="F52" s="103"/>
+      <c r="G52" s="103"/>
       <c r="X52" s="22"/>
       <c r="Y52" s="22"/>
       <c r="Z52" s="22"/>
@@ -9198,7 +9231,7 @@
       <c r="AE52" s="22"/>
     </row>
     <row r="53" spans="1:31" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="120"/>
+      <c r="A53" s="103"/>
       <c r="B53" s="33" t="s">
         <v>3</v>
       </c>
@@ -9731,1395 +9764,1717 @@
       <c r="W80" s="37"/>
       <c r="X80" s="37"/>
     </row>
-    <row r="81" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="94" t="s">
+    <row r="81" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="B81" s="93" t="s">
+      <c r="B81" s="109" t="s">
         <v>81</v>
       </c>
-      <c r="C81" s="93"/>
-      <c r="D81" s="93"/>
-      <c r="E81" s="93"/>
-      <c r="F81" s="93"/>
-      <c r="G81" s="93"/>
-      <c r="H81" s="93"/>
-      <c r="I81" s="93"/>
-      <c r="J81" s="35"/>
-      <c r="K81" s="94" t="s">
+      <c r="C81" s="109"/>
+      <c r="D81" s="109"/>
+      <c r="E81" s="109"/>
+      <c r="F81" s="109"/>
+      <c r="G81" s="109"/>
+      <c r="H81" s="109"/>
+      <c r="I81" s="109"/>
+      <c r="J81" s="109"/>
+      <c r="K81" s="109"/>
+      <c r="L81" s="109"/>
+      <c r="N81" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="L81" s="93" t="s">
+      <c r="O81" s="109" t="s">
         <v>82</v>
       </c>
-      <c r="M81" s="93"/>
-      <c r="N81" s="93"/>
-      <c r="O81" s="93"/>
-      <c r="P81" s="93"/>
-      <c r="Q81" s="93"/>
-      <c r="R81" s="93"/>
-      <c r="S81" s="93"/>
-      <c r="T81" s="35"/>
-      <c r="U81" s="92" t="s">
+      <c r="P81" s="109"/>
+      <c r="Q81" s="109"/>
+      <c r="R81" s="109"/>
+      <c r="S81" s="109"/>
+      <c r="T81" s="109"/>
+      <c r="U81" s="109"/>
+      <c r="V81" s="109"/>
+      <c r="W81" s="109"/>
+      <c r="X81" s="109"/>
+      <c r="Y81" s="109"/>
+      <c r="AA81" s="115" t="s">
         <v>83</v>
       </c>
-      <c r="V81" s="92"/>
-      <c r="W81" s="92"/>
-      <c r="X81" s="92"/>
-      <c r="Y81" s="92"/>
-      <c r="Z81" s="92"/>
-      <c r="AA81" s="92"/>
-      <c r="AB81" s="92"/>
-      <c r="AC81" s="92"/>
-    </row>
-    <row r="82" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="95"/>
-      <c r="B82" s="93"/>
-      <c r="C82" s="93"/>
-      <c r="D82" s="93"/>
-      <c r="E82" s="93"/>
-      <c r="F82" s="93"/>
-      <c r="G82" s="93"/>
-      <c r="H82" s="93"/>
-      <c r="I82" s="93"/>
-      <c r="J82" s="35"/>
-      <c r="K82" s="95"/>
-      <c r="L82" s="93"/>
-      <c r="M82" s="93"/>
-      <c r="N82" s="93"/>
-      <c r="O82" s="93"/>
-      <c r="P82" s="93"/>
-      <c r="Q82" s="93"/>
-      <c r="R82" s="93"/>
-      <c r="S82" s="93"/>
-      <c r="T82" s="35"/>
-      <c r="U82" s="92" t="s">
+      <c r="AB81" s="116"/>
+      <c r="AC81" s="116"/>
+      <c r="AD81" s="116"/>
+      <c r="AE81" s="116"/>
+      <c r="AF81" s="116"/>
+      <c r="AG81" s="116"/>
+      <c r="AH81" s="116"/>
+      <c r="AI81" s="117"/>
+    </row>
+    <row r="82" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="105"/>
+      <c r="B82" s="109"/>
+      <c r="C82" s="109"/>
+      <c r="D82" s="109"/>
+      <c r="E82" s="109"/>
+      <c r="F82" s="109"/>
+      <c r="G82" s="109"/>
+      <c r="H82" s="109"/>
+      <c r="I82" s="109"/>
+      <c r="J82" s="109"/>
+      <c r="K82" s="109"/>
+      <c r="L82" s="109"/>
+      <c r="N82" s="105"/>
+      <c r="O82" s="109"/>
+      <c r="P82" s="109"/>
+      <c r="Q82" s="109"/>
+      <c r="R82" s="109"/>
+      <c r="S82" s="109"/>
+      <c r="T82" s="109"/>
+      <c r="U82" s="109"/>
+      <c r="V82" s="109"/>
+      <c r="W82" s="109"/>
+      <c r="X82" s="109"/>
+      <c r="Y82" s="109"/>
+      <c r="AA82" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="V82" s="97" t="s">
+      <c r="AB82" s="115" t="s">
         <v>74</v>
       </c>
-      <c r="W82" s="98"/>
-      <c r="X82" s="98"/>
-      <c r="Y82" s="98"/>
-      <c r="Z82" s="98"/>
-      <c r="AA82" s="98"/>
-      <c r="AB82" s="98"/>
-      <c r="AC82" s="99"/>
-    </row>
-    <row r="83" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="96"/>
-      <c r="B83" s="79" t="s">
+      <c r="AC82" s="116"/>
+      <c r="AD82" s="116"/>
+      <c r="AE82" s="116"/>
+      <c r="AF82" s="116"/>
+      <c r="AG82" s="116"/>
+      <c r="AH82" s="116"/>
+      <c r="AI82" s="117"/>
+    </row>
+    <row r="83" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="106"/>
+      <c r="B83" s="76" t="s">
         <v>96</v>
       </c>
-      <c r="C83" s="79" t="s">
+      <c r="C83" s="76" t="s">
         <v>97</v>
       </c>
-      <c r="D83" s="79" t="s">
+      <c r="D83" s="76" t="s">
         <v>98</v>
       </c>
-      <c r="E83" s="79" t="s">
+      <c r="E83" s="76" t="s">
         <v>99</v>
       </c>
-      <c r="F83" s="88" t="s">
+      <c r="F83" s="77" t="s">
         <v>103</v>
       </c>
-      <c r="G83" s="79" t="s">
+      <c r="G83" s="76" t="s">
         <v>100</v>
       </c>
-      <c r="H83" s="79" t="s">
+      <c r="H83" s="76" t="s">
         <v>102</v>
       </c>
-      <c r="I83" s="79" t="s">
+      <c r="I83" s="76" t="s">
         <v>101</v>
       </c>
-      <c r="J83" s="35"/>
-      <c r="K83" s="96"/>
-      <c r="L83" s="79" t="s">
+      <c r="J83" s="122">
+        <v>2000</v>
+      </c>
+      <c r="K83" s="123">
+        <v>2017</v>
+      </c>
+      <c r="L83" s="118">
+        <v>2020</v>
+      </c>
+      <c r="N83" s="106"/>
+      <c r="O83" s="76" t="s">
         <v>96</v>
       </c>
-      <c r="M83" s="79" t="s">
+      <c r="P83" s="76" t="s">
         <v>97</v>
       </c>
-      <c r="N83" s="79" t="s">
+      <c r="Q83" s="76" t="s">
         <v>98</v>
       </c>
-      <c r="O83" s="79" t="s">
+      <c r="R83" s="76" t="s">
         <v>99</v>
       </c>
-      <c r="P83" s="80" t="s">
+      <c r="S83" s="77" t="s">
         <v>103</v>
       </c>
-      <c r="Q83" s="79" t="s">
+      <c r="T83" s="76" t="s">
         <v>100</v>
       </c>
-      <c r="R83" s="79" t="s">
+      <c r="U83" s="76" t="s">
         <v>102</v>
       </c>
-      <c r="S83" s="79" t="s">
+      <c r="V83" s="76" t="s">
         <v>101</v>
       </c>
-      <c r="T83" s="35"/>
-      <c r="U83" s="92"/>
-      <c r="V83" s="79" t="s">
+      <c r="W83" s="122">
+        <v>2000</v>
+      </c>
+      <c r="X83" s="123">
+        <v>2017</v>
+      </c>
+      <c r="Y83" s="118">
+        <v>2020</v>
+      </c>
+      <c r="AA83" s="127"/>
+      <c r="AB83" s="76" t="s">
         <v>96</v>
       </c>
-      <c r="W83" s="79" t="s">
+      <c r="AC83" s="76" t="s">
         <v>97</v>
       </c>
-      <c r="X83" s="79" t="s">
+      <c r="AD83" s="76" t="s">
         <v>98</v>
       </c>
-      <c r="Y83" s="79" t="s">
+      <c r="AE83" s="76" t="s">
         <v>99</v>
       </c>
-      <c r="Z83" s="80" t="s">
+      <c r="AF83" s="77" t="s">
         <v>103</v>
       </c>
-      <c r="AA83" s="79" t="s">
+      <c r="AG83" s="76" t="s">
         <v>100</v>
       </c>
-      <c r="AB83" s="79" t="s">
+      <c r="AH83" s="76" t="s">
         <v>102</v>
       </c>
-      <c r="AC83" s="79" t="s">
+      <c r="AI83" s="76" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="84" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="75" t="s">
+    <row r="84" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A84" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="B84" s="82">
-        <f>SUM(V84:V85)</f>
+      <c r="B84" s="79">
+        <f>SUM(AB84:AB85)</f>
         <v>0.19005920400000001</v>
       </c>
-      <c r="C84" s="81">
-        <f t="shared" ref="C84:I84" si="7">SUM(W84:W85)</f>
+      <c r="C84" s="78">
+        <f>SUM(AC84:AC85)</f>
         <v>0.16702423499999999</v>
       </c>
-      <c r="D84" s="81">
+      <c r="D84" s="78">
+        <f>SUM(AD84:AD85)</f>
+        <v>0.15232399099999999</v>
+      </c>
+      <c r="E84" s="78">
+        <f>SUM(AE84:AE85)</f>
+        <v>0.137224824</v>
+      </c>
+      <c r="F84" s="78">
+        <f>SUM(AF84:AF85)</f>
+        <v>0.115676261</v>
+      </c>
+      <c r="G84" s="78">
+        <f>SUM(AG84:AG85)</f>
+        <v>9.0002309699999991E-2</v>
+      </c>
+      <c r="H84" s="78">
+        <f>SUM(AH84:AH85)</f>
+        <v>7.0407469099999995E-2</v>
+      </c>
+      <c r="I84" s="119">
+        <f>SUM(AI84:AI85)</f>
+        <v>5.6975585300000006E-2</v>
+      </c>
+      <c r="J84" s="128">
+        <v>1.2464773E-2</v>
+      </c>
+      <c r="K84" s="124">
+        <v>5.892614E-3</v>
+      </c>
+      <c r="L84" s="121">
+        <f>K84+($L$83-$K$83)*M84</f>
+        <v>4.7328212352941174E-3</v>
+      </c>
+      <c r="M84">
+        <f>(K84-J84)/($K$83-$J$83)</f>
+        <v>-3.865975882352941E-4</v>
+      </c>
+      <c r="N84" s="88" t="s">
+        <v>6</v>
+      </c>
+      <c r="O84" s="79">
+        <f>SUM(AB89:AB90)</f>
+        <v>0.16283755500000002</v>
+      </c>
+      <c r="P84" s="78">
+        <f>SUM(AC89:AC90)</f>
+        <v>0.143554814</v>
+      </c>
+      <c r="Q84" s="78">
+        <f>SUM(AD89:AD90)</f>
+        <v>0.131042716</v>
+      </c>
+      <c r="R84" s="78">
+        <f>SUM(AE89:AE90)</f>
+        <v>0.11815073600000001</v>
+      </c>
+      <c r="S84" s="78">
+        <f>SUM(AF89:AF90)</f>
+        <v>9.9835274000000002E-2</v>
+      </c>
+      <c r="T84" s="78">
+        <f>SUM(AG89:AG90)</f>
+        <v>7.7719069000000002E-2</v>
+      </c>
+      <c r="U84" s="78">
+        <f>SUM(AH89:AH90)</f>
+        <v>5.96665085E-2</v>
+      </c>
+      <c r="V84" s="119">
+        <f>SUM(AI89:AI90)</f>
+        <v>4.7441704699999997E-2</v>
+      </c>
+      <c r="W84" s="128">
+        <v>1.0375972000000001E-2</v>
+      </c>
+      <c r="X84" s="124">
+        <v>4.9718649999999998E-3</v>
+      </c>
+      <c r="Y84" s="121">
+        <f>X84+($Y$83-$X$83)*Z84</f>
+        <v>4.0181990588235295E-3</v>
+      </c>
+      <c r="Z84">
+        <f>(X84-W84)/($X$83-$W$83)</f>
+        <v>-3.1788864705882357E-4</v>
+      </c>
+      <c r="AA84" s="80">
+        <v>0</v>
+      </c>
+      <c r="AB84" s="81">
+        <v>0.15925727000000001</v>
+      </c>
+      <c r="AC84" s="81">
+        <v>0.14222435</v>
+      </c>
+      <c r="AD84" s="81">
+        <v>0.13109251</v>
+      </c>
+      <c r="AE84" s="81">
+        <v>0.11936734</v>
+      </c>
+      <c r="AF84" s="81">
+        <v>0.10190435</v>
+      </c>
+      <c r="AG84" s="81">
+        <v>8.0275031999999996E-2</v>
+      </c>
+      <c r="AH84" s="81">
+        <v>6.3396686999999993E-2</v>
+      </c>
+      <c r="AI84" s="82">
+        <v>5.1751479000000003E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A85" s="74" t="s">
+        <v>9</v>
+      </c>
+      <c r="B85" s="85">
+        <v>8.6783771000000006E-3</v>
+      </c>
+      <c r="C85" s="81">
+        <v>7.2583379999999996E-3</v>
+      </c>
+      <c r="D85" s="81">
+        <v>6.3381319000000002E-3</v>
+      </c>
+      <c r="E85" s="81">
+        <v>5.4525481999999998E-3</v>
+      </c>
+      <c r="F85" s="81">
+        <v>4.5081523000000002E-3</v>
+      </c>
+      <c r="G85" s="81">
+        <v>3.6766398E-3</v>
+      </c>
+      <c r="H85" s="81">
+        <v>3.0634688E-3</v>
+      </c>
+      <c r="I85" s="120">
+        <v>2.4750038999999998E-3</v>
+      </c>
+      <c r="J85" s="128">
+        <v>1.2523619999999999E-3</v>
+      </c>
+      <c r="K85" s="125">
+        <v>4.3800000000000002E-4</v>
+      </c>
+      <c r="L85" s="121">
+        <f t="shared" ref="L85:L99" si="7">K85+($L$83-$K$83)*M85</f>
+        <v>2.9428905882352948E-4</v>
+      </c>
+      <c r="M85">
+        <f t="shared" ref="M85:M99" si="8">(K85-J85)/($K$83-$J$83)</f>
+        <v>-4.7903647058823526E-5</v>
+      </c>
+      <c r="N85" s="88" t="s">
+        <v>9</v>
+      </c>
+      <c r="O85" s="85">
+        <v>7.4032815999999996E-3</v>
+      </c>
+      <c r="P85" s="81">
+        <v>6.0150315999999999E-3</v>
+      </c>
+      <c r="Q85" s="81">
+        <v>5.2116343000000002E-3</v>
+      </c>
+      <c r="R85" s="81">
+        <v>4.4708409999999997E-3</v>
+      </c>
+      <c r="S85" s="81">
+        <v>3.6394486000000002E-3</v>
+      </c>
+      <c r="T85" s="81">
+        <v>2.8782094000000002E-3</v>
+      </c>
+      <c r="U85" s="81">
+        <v>2.3506893000000001E-3</v>
+      </c>
+      <c r="V85" s="120">
+        <v>1.8590649E-3</v>
+      </c>
+      <c r="W85" s="129">
+        <v>9.1699999999999995E-4</v>
+      </c>
+      <c r="X85" s="125">
+        <v>3.0899999999999998E-4</v>
+      </c>
+      <c r="Y85" s="121">
+        <f t="shared" ref="Y85:Y99" si="9">X85+($Y$83-$X$83)*Z85</f>
+        <v>2.0170588235294114E-4</v>
+      </c>
+      <c r="Z85">
+        <f t="shared" ref="Z85:Z99" si="10">(X85-W85)/($X$83-$W$83)</f>
+        <v>-3.5764705882352941E-5</v>
+      </c>
+      <c r="AA85" s="83" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB85" s="81">
+        <v>3.0801934E-2</v>
+      </c>
+      <c r="AC85" s="81">
+        <v>2.4799885000000001E-2</v>
+      </c>
+      <c r="AD85" s="81">
+        <v>2.1231481E-2</v>
+      </c>
+      <c r="AE85" s="81">
+        <v>1.7857484E-2</v>
+      </c>
+      <c r="AF85" s="81">
+        <v>1.3771911E-2</v>
+      </c>
+      <c r="AG85" s="81">
+        <v>9.7272777000000001E-3</v>
+      </c>
+      <c r="AH85" s="81">
+        <v>7.0107820999999997E-3</v>
+      </c>
+      <c r="AI85" s="82">
+        <v>5.2241062999999997E-3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A86" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="B86" s="85">
+        <v>4.7901753000000004E-3</v>
+      </c>
+      <c r="C86" s="81">
+        <v>4.1213899000000003E-3</v>
+      </c>
+      <c r="D86" s="81">
+        <v>3.6590022999999998E-3</v>
+      </c>
+      <c r="E86" s="81">
+        <v>3.198991E-3</v>
+      </c>
+      <c r="F86" s="81">
+        <v>2.7091355999999999E-3</v>
+      </c>
+      <c r="G86" s="81">
+        <v>2.2757054E-3</v>
+      </c>
+      <c r="H86" s="81">
+        <v>1.9361118E-3</v>
+      </c>
+      <c r="I86" s="120">
+        <v>1.5814690000000001E-3</v>
+      </c>
+      <c r="J86" s="129">
+        <v>9.77E-4</v>
+      </c>
+      <c r="K86" s="125">
+        <v>2.7099999999999997E-4</v>
+      </c>
+      <c r="L86" s="121">
         <f t="shared" si="7"/>
-        <v>0.15232399099999999</v>
-      </c>
-      <c r="E84" s="81">
-        <f t="shared" si="7"/>
-        <v>0.137224824</v>
-      </c>
-      <c r="F84" s="81">
-        <f t="shared" si="7"/>
-        <v>0.115676261</v>
-      </c>
-      <c r="G84" s="81">
-        <f t="shared" si="7"/>
-        <v>9.0002309699999991E-2</v>
-      </c>
-      <c r="H84" s="81">
-        <f t="shared" si="7"/>
-        <v>7.0407469099999995E-2</v>
-      </c>
-      <c r="I84" s="82">
-        <f t="shared" si="7"/>
-        <v>5.6975585300000006E-2</v>
-      </c>
-      <c r="J84" s="35"/>
-      <c r="K84" s="75" t="s">
-        <v>6</v>
-      </c>
-      <c r="L84" s="82">
-        <f t="shared" ref="L84:S84" si="8">SUM(V89:V90)</f>
-        <v>0.16283755500000002</v>
-      </c>
-      <c r="M84" s="81">
+        <v>1.4641176470588232E-4</v>
+      </c>
+      <c r="M86">
         <f t="shared" si="8"/>
-        <v>0.143554814</v>
-      </c>
-      <c r="N84" s="81">
-        <f t="shared" si="8"/>
-        <v>0.131042716</v>
-      </c>
-      <c r="O84" s="81">
-        <f t="shared" si="8"/>
-        <v>0.11815073600000001</v>
-      </c>
-      <c r="P84" s="81">
-        <f t="shared" si="8"/>
-        <v>9.9835274000000002E-2</v>
-      </c>
-      <c r="Q84" s="81">
-        <f t="shared" si="8"/>
-        <v>7.7719069000000002E-2</v>
-      </c>
-      <c r="R84" s="81">
-        <f t="shared" si="8"/>
-        <v>5.96665085E-2</v>
-      </c>
-      <c r="S84" s="82">
-        <f t="shared" si="8"/>
-        <v>4.7441704699999997E-2</v>
-      </c>
-      <c r="T84" s="35"/>
-      <c r="U84" s="83">
-        <v>0</v>
-      </c>
-      <c r="V84" s="84">
-        <v>0.15925727000000001</v>
-      </c>
-      <c r="W84" s="84">
-        <v>0.14222435</v>
-      </c>
-      <c r="X84" s="84">
-        <v>0.13109251</v>
-      </c>
-      <c r="Y84" s="84">
-        <v>0.11936734</v>
-      </c>
-      <c r="Z84" s="84">
-        <v>0.10190435</v>
-      </c>
-      <c r="AA84" s="84">
-        <v>8.0275031999999996E-2</v>
-      </c>
-      <c r="AB84" s="84">
-        <v>6.3396686999999993E-2</v>
-      </c>
-      <c r="AC84" s="85">
-        <v>5.1751479000000003E-2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="75" t="s">
-        <v>9</v>
-      </c>
-      <c r="B85" s="89">
-        <v>8.6783771000000006E-3</v>
-      </c>
-      <c r="C85" s="84">
-        <v>7.2583379999999996E-3</v>
-      </c>
-      <c r="D85" s="84">
-        <v>6.3381319000000002E-3</v>
-      </c>
-      <c r="E85" s="84">
-        <v>5.4525481999999998E-3</v>
-      </c>
-      <c r="F85" s="84">
-        <v>4.5081523000000002E-3</v>
-      </c>
-      <c r="G85" s="84">
-        <v>3.6766398E-3</v>
-      </c>
-      <c r="H85" s="84">
-        <v>3.0634688E-3</v>
-      </c>
-      <c r="I85" s="59">
-        <v>2.4750038999999998E-3</v>
-      </c>
-      <c r="J85" s="35"/>
-      <c r="K85" s="75" t="s">
-        <v>9</v>
-      </c>
-      <c r="L85" s="89">
-        <v>7.4032815999999996E-3</v>
-      </c>
-      <c r="M85" s="84">
-        <v>6.0150315999999999E-3</v>
-      </c>
-      <c r="N85" s="84">
-        <v>5.2116343000000002E-3</v>
-      </c>
-      <c r="O85" s="84">
-        <v>4.4708409999999997E-3</v>
-      </c>
-      <c r="P85" s="84">
-        <v>3.6394486000000002E-3</v>
-      </c>
-      <c r="Q85" s="84">
-        <v>2.8782094000000002E-3</v>
-      </c>
-      <c r="R85" s="84">
-        <v>2.3506893000000001E-3</v>
-      </c>
-      <c r="S85" s="59">
-        <v>1.8590649E-3</v>
-      </c>
-      <c r="T85" s="35"/>
-      <c r="U85" s="86" t="s">
-        <v>84</v>
-      </c>
-      <c r="V85" s="84">
-        <v>3.0801934E-2</v>
-      </c>
-      <c r="W85" s="84">
-        <v>2.4799885000000001E-2</v>
-      </c>
-      <c r="X85" s="84">
-        <v>2.1231481E-2</v>
-      </c>
-      <c r="Y85" s="84">
-        <v>1.7857484E-2</v>
-      </c>
-      <c r="Z85" s="84">
-        <v>1.3771911E-2</v>
-      </c>
-      <c r="AA85" s="84">
-        <v>9.7272777000000001E-3</v>
-      </c>
-      <c r="AB85" s="84">
-        <v>7.0107820999999997E-3</v>
-      </c>
-      <c r="AC85" s="85">
-        <v>5.2241062999999997E-3</v>
-      </c>
-    </row>
-    <row r="86" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="75" t="s">
+        <v>-4.1529411764705884E-5</v>
+      </c>
+      <c r="N86" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="B86" s="89">
-        <v>4.7901753000000004E-3</v>
-      </c>
-      <c r="C86" s="84">
-        <v>4.1213899000000003E-3</v>
-      </c>
-      <c r="D86" s="84">
-        <v>3.6590022999999998E-3</v>
-      </c>
-      <c r="E86" s="84">
-        <v>3.198991E-3</v>
-      </c>
-      <c r="F86" s="84">
-        <v>2.7091355999999999E-3</v>
-      </c>
-      <c r="G86" s="84">
-        <v>2.2757054E-3</v>
-      </c>
-      <c r="H86" s="84">
-        <v>1.9361118E-3</v>
-      </c>
-      <c r="I86" s="59">
-        <v>1.5814690000000001E-3</v>
-      </c>
-      <c r="J86" s="35"/>
-      <c r="K86" s="75" t="s">
-        <v>12</v>
-      </c>
-      <c r="L86" s="89">
+      <c r="O86" s="85">
         <v>4.3711651000000002E-3</v>
       </c>
-      <c r="M86" s="84">
+      <c r="P86" s="81">
         <v>3.6299777000000002E-3</v>
       </c>
-      <c r="N86" s="84">
+      <c r="Q86" s="81">
         <v>3.1849489999999999E-3</v>
       </c>
-      <c r="O86" s="84">
+      <c r="R86" s="81">
         <v>2.765787E-3</v>
       </c>
-      <c r="P86" s="84">
+      <c r="S86" s="81">
         <v>2.2931724000000001E-3</v>
       </c>
-      <c r="Q86" s="84">
+      <c r="T86" s="81">
         <v>1.8562381000000001E-3</v>
       </c>
-      <c r="R86" s="84">
+      <c r="U86" s="81">
         <v>1.5421367E-3</v>
       </c>
-      <c r="S86" s="59">
+      <c r="V86" s="120">
         <v>1.2227608999999999E-3</v>
       </c>
-      <c r="T86" s="35"/>
-      <c r="U86" s="35"/>
-      <c r="V86" s="35"/>
-      <c r="W86" s="35"/>
-      <c r="X86" s="35"/>
-      <c r="Y86" s="35"/>
-      <c r="Z86" s="35"/>
+      <c r="W86" s="129">
+        <v>7.4100000000000001E-4</v>
+      </c>
+      <c r="X86" s="125">
+        <v>1.65E-4</v>
+      </c>
+      <c r="Y86" s="121">
+        <f t="shared" si="9"/>
+        <v>6.335294117647058E-5</v>
+      </c>
+      <c r="Z86">
+        <f t="shared" si="10"/>
+        <v>-3.3882352941176473E-5</v>
+      </c>
       <c r="AA86" s="35"/>
       <c r="AB86" s="35"/>
       <c r="AC86" s="35"/>
-    </row>
-    <row r="87" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="75" t="s">
+      <c r="AD86" s="35"/>
+      <c r="AE86" s="35"/>
+      <c r="AF86" s="35"/>
+      <c r="AG86" s="35"/>
+      <c r="AH86" s="35"/>
+      <c r="AI86" s="35"/>
+    </row>
+    <row r="87" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A87" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="B87" s="89">
+      <c r="B87" s="85">
         <v>5.9821824000000001E-3</v>
       </c>
-      <c r="C87" s="84">
+      <c r="C87" s="81">
         <v>5.3382910000000002E-3</v>
       </c>
-      <c r="D87" s="84">
+      <c r="D87" s="81">
         <v>4.8685472E-3</v>
       </c>
-      <c r="E87" s="84">
+      <c r="E87" s="81">
         <v>4.3821110000000002E-3</v>
       </c>
-      <c r="F87" s="84">
+      <c r="F87" s="81">
         <v>3.8498661E-3</v>
       </c>
-      <c r="G87" s="84">
+      <c r="G87" s="81">
         <v>3.3638228000000001E-3</v>
       </c>
-      <c r="H87" s="84">
+      <c r="H87" s="81">
         <v>2.9596564999999999E-3</v>
       </c>
-      <c r="I87" s="59">
+      <c r="I87" s="120">
         <v>2.5001934000000001E-3</v>
       </c>
-      <c r="J87" s="35"/>
-      <c r="K87" s="75" t="s">
+      <c r="J87" s="128">
+        <v>2.1267130000000001E-3</v>
+      </c>
+      <c r="K87" s="125">
+        <v>6.4599999999999998E-4</v>
+      </c>
+      <c r="L87" s="121">
+        <f t="shared" si="7"/>
+        <v>3.8469770588235287E-4</v>
+      </c>
+      <c r="M87">
+        <f t="shared" si="8"/>
+        <v>-8.7100764705882374E-5</v>
+      </c>
+      <c r="N87" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="L87" s="89">
+      <c r="O87" s="85">
         <v>4.8596317000000003E-3</v>
       </c>
-      <c r="M87" s="84">
+      <c r="P87" s="81">
         <v>4.1952435000000001E-3</v>
       </c>
-      <c r="N87" s="84">
+      <c r="Q87" s="81">
         <v>3.7691500999999998E-3</v>
       </c>
-      <c r="O87" s="84">
+      <c r="R87" s="81">
         <v>3.3518339000000001E-3</v>
       </c>
-      <c r="P87" s="84">
+      <c r="S87" s="81">
         <v>2.8752540999999999E-3</v>
       </c>
-      <c r="Q87" s="84">
+      <c r="T87" s="81">
         <v>2.4258770999999999E-3</v>
       </c>
-      <c r="R87" s="84">
+      <c r="U87" s="81">
         <v>2.0807315999999999E-3</v>
       </c>
-      <c r="S87" s="59">
+      <c r="V87" s="120">
         <v>1.6750273E-3</v>
       </c>
-      <c r="T87" s="35"/>
-      <c r="U87" s="92" t="s">
+      <c r="W87" s="128">
+        <v>1.469932E-3</v>
+      </c>
+      <c r="X87" s="125">
+        <v>3.9800000000000002E-4</v>
+      </c>
+      <c r="Y87" s="121">
+        <f t="shared" si="9"/>
+        <v>2.0883552941176474E-4</v>
+      </c>
+      <c r="Z87">
+        <f t="shared" si="10"/>
+        <v>-6.3054823529411761E-5</v>
+      </c>
+      <c r="AA87" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="V87" s="92" t="s">
+      <c r="AB87" s="115" t="s">
         <v>75</v>
       </c>
-      <c r="W87" s="92"/>
-      <c r="X87" s="92"/>
-      <c r="Y87" s="92"/>
-      <c r="Z87" s="92"/>
-      <c r="AA87" s="92"/>
-      <c r="AB87" s="92"/>
-      <c r="AC87" s="92"/>
-    </row>
-    <row r="88" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="75" t="s">
+      <c r="AC87" s="116"/>
+      <c r="AD87" s="116"/>
+      <c r="AE87" s="116"/>
+      <c r="AF87" s="116"/>
+      <c r="AG87" s="116"/>
+      <c r="AH87" s="116"/>
+      <c r="AI87" s="117"/>
+    </row>
+    <row r="88" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A88" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="B88" s="89">
+      <c r="B88" s="85">
         <v>8.4956649999999995E-3</v>
       </c>
-      <c r="C88" s="84">
+      <c r="C88" s="81">
         <v>7.6593564000000001E-3</v>
       </c>
-      <c r="D88" s="84">
+      <c r="D88" s="81">
         <v>7.0310347999999996E-3</v>
       </c>
-      <c r="E88" s="84">
+      <c r="E88" s="81">
         <v>6.3705656999999997E-3</v>
       </c>
-      <c r="F88" s="84">
+      <c r="F88" s="81">
         <v>5.6486914999999997E-3</v>
       </c>
-      <c r="G88" s="84">
+      <c r="G88" s="81">
         <v>4.9892453999999999E-3</v>
       </c>
-      <c r="H88" s="84">
+      <c r="H88" s="81">
         <v>4.4258235999999999E-3</v>
       </c>
-      <c r="I88" s="59">
+      <c r="I88" s="120">
         <v>3.7640993E-3</v>
       </c>
-      <c r="J88" s="35"/>
-      <c r="K88" s="75" t="s">
+      <c r="J88" s="128">
+        <v>3.647225E-3</v>
+      </c>
+      <c r="K88" s="124">
+        <v>2.068032E-3</v>
+      </c>
+      <c r="L88" s="121">
+        <f t="shared" si="7"/>
+        <v>1.7893508823529412E-3</v>
+      </c>
+      <c r="M88">
+        <f t="shared" si="8"/>
+        <v>-9.2893705882352942E-5</v>
+      </c>
+      <c r="N88" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="L88" s="89">
+      <c r="O88" s="85">
         <v>5.6320531999999998E-3</v>
       </c>
-      <c r="M88" s="84">
+      <c r="P88" s="81">
         <v>5.0807012E-3</v>
       </c>
-      <c r="N88" s="84">
+      <c r="Q88" s="81">
         <v>4.6760279E-3</v>
       </c>
-      <c r="O88" s="84">
+      <c r="R88" s="81">
         <v>4.2537668999999998E-3</v>
       </c>
-      <c r="P88" s="84">
+      <c r="S88" s="81">
         <v>3.7813996000000002E-3</v>
       </c>
-      <c r="Q88" s="84">
+      <c r="T88" s="81">
         <v>3.3430482E-3</v>
       </c>
-      <c r="R88" s="84">
+      <c r="U88" s="81">
         <v>2.9634518E-3</v>
       </c>
-      <c r="S88" s="59">
+      <c r="V88" s="120">
         <v>2.3815536E-3</v>
       </c>
-      <c r="T88" s="35"/>
-      <c r="U88" s="92"/>
-      <c r="V88" s="79" t="s">
+      <c r="W88" s="128">
+        <v>3.4466029999999999E-3</v>
+      </c>
+      <c r="X88" s="124">
+        <v>1.022128E-3</v>
+      </c>
+      <c r="Y88" s="121">
+        <f t="shared" si="9"/>
+        <v>5.9427947058823534E-4</v>
+      </c>
+      <c r="Z88">
+        <f t="shared" si="10"/>
+        <v>-1.4261617647058823E-4</v>
+      </c>
+      <c r="AA88" s="127"/>
+      <c r="AB88" s="76" t="s">
         <v>96</v>
       </c>
-      <c r="W88" s="79" t="s">
+      <c r="AC88" s="76" t="s">
         <v>97</v>
       </c>
-      <c r="X88" s="79" t="s">
+      <c r="AD88" s="76" t="s">
         <v>98</v>
       </c>
-      <c r="Y88" s="79" t="s">
+      <c r="AE88" s="76" t="s">
         <v>99</v>
       </c>
-      <c r="Z88" s="80" t="s">
+      <c r="AF88" s="77" t="s">
         <v>103</v>
       </c>
-      <c r="AA88" s="79" t="s">
+      <c r="AG88" s="76" t="s">
         <v>100</v>
       </c>
-      <c r="AB88" s="79" t="s">
+      <c r="AH88" s="76" t="s">
         <v>102</v>
       </c>
-      <c r="AC88" s="79" t="s">
+      <c r="AI88" s="76" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="89" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="75" t="s">
+    <row r="89" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A89" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="B89" s="89">
+      <c r="B89" s="85">
         <v>9.3605019000000001E-3</v>
       </c>
-      <c r="C89" s="84">
+      <c r="C89" s="81">
         <v>8.54654E-3</v>
       </c>
-      <c r="D89" s="84">
+      <c r="D89" s="81">
         <v>7.8817746000000004E-3</v>
       </c>
-      <c r="E89" s="84">
+      <c r="E89" s="81">
         <v>7.1632086000000001E-3</v>
       </c>
-      <c r="F89" s="84">
+      <c r="F89" s="81">
         <v>6.4013278999999999E-3</v>
       </c>
-      <c r="G89" s="84">
+      <c r="G89" s="81">
         <v>5.7255068999999999E-3</v>
       </c>
-      <c r="H89" s="84">
+      <c r="H89" s="81">
         <v>5.1091371999999998E-3</v>
       </c>
-      <c r="I89" s="59">
+      <c r="I89" s="120">
         <v>4.3315932999999996E-3</v>
       </c>
-      <c r="J89" s="35"/>
-      <c r="K89" s="75" t="s">
+      <c r="J89" s="128">
+        <v>5.7620409999999999E-3</v>
+      </c>
+      <c r="K89" s="124">
+        <v>2.644057E-3</v>
+      </c>
+      <c r="L89" s="121">
+        <f t="shared" si="7"/>
+        <v>2.0938245294117646E-3</v>
+      </c>
+      <c r="M89">
+        <f t="shared" si="8"/>
+        <v>-1.8341082352941175E-4</v>
+      </c>
+      <c r="N89" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="L89" s="89">
+      <c r="O89" s="85">
         <v>6.4621250999999996E-3</v>
       </c>
-      <c r="M89" s="84">
+      <c r="P89" s="81">
         <v>6.0272501000000001E-3</v>
       </c>
-      <c r="N89" s="84">
+      <c r="Q89" s="81">
         <v>5.6386778999999998E-3</v>
       </c>
-      <c r="O89" s="84">
+      <c r="R89" s="81">
         <v>5.2031285000000002E-3</v>
       </c>
-      <c r="P89" s="84">
+      <c r="S89" s="81">
         <v>4.7424642000000001E-3</v>
       </c>
-      <c r="Q89" s="84">
+      <c r="T89" s="81">
         <v>4.3432195999999999E-3</v>
       </c>
-      <c r="R89" s="84">
+      <c r="U89" s="81">
         <v>3.9385823E-3</v>
       </c>
-      <c r="S89" s="59">
+      <c r="V89" s="120">
         <v>3.1198295999999999E-3</v>
       </c>
-      <c r="T89" s="35"/>
-      <c r="U89" s="83">
-        <v>0</v>
-      </c>
-      <c r="V89" s="84">
+      <c r="W89" s="128">
+        <v>5.689525E-3</v>
+      </c>
+      <c r="X89" s="124">
+        <v>1.4837839999999999E-3</v>
+      </c>
+      <c r="Y89" s="121">
+        <f t="shared" si="9"/>
+        <v>7.4159441176470582E-4</v>
+      </c>
+      <c r="Z89">
+        <f t="shared" si="10"/>
+        <v>-2.4739652941176469E-4</v>
+      </c>
+      <c r="AA89" s="80">
+        <v>0</v>
+      </c>
+      <c r="AB89" s="81">
         <v>0.13551692000000001</v>
       </c>
-      <c r="W89" s="84">
+      <c r="AC89" s="81">
         <v>0.12141488</v>
       </c>
-      <c r="X89" s="84">
+      <c r="AD89" s="81">
         <v>0.11195296</v>
       </c>
-      <c r="Y89" s="84">
+      <c r="AE89" s="81">
         <v>0.10196945</v>
       </c>
-      <c r="Z89" s="84">
+      <c r="AF89" s="81">
         <v>8.7215784000000005E-2</v>
       </c>
-      <c r="AA89" s="84">
+      <c r="AG89" s="81">
         <v>6.8780059000000004E-2</v>
       </c>
-      <c r="AB89" s="84">
+      <c r="AH89" s="81">
         <v>5.3315596E-2</v>
       </c>
-      <c r="AC89" s="84">
+      <c r="AI89" s="81">
         <v>4.2747080999999999E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="75" t="s">
+    <row r="90" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A90" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="B90" s="89">
+      <c r="B90" s="85">
         <v>1.0468597E-2</v>
       </c>
-      <c r="C90" s="84">
+      <c r="C90" s="81">
         <v>9.6974886E-3</v>
       </c>
-      <c r="D90" s="84">
+      <c r="D90" s="81">
         <v>9.0068661000000001E-3</v>
       </c>
-      <c r="E90" s="84">
+      <c r="E90" s="81">
         <v>8.2366352999999996E-3</v>
       </c>
-      <c r="F90" s="84">
+      <c r="F90" s="81">
         <v>7.4406786000000003E-3</v>
       </c>
-      <c r="G90" s="84">
+      <c r="G90" s="81">
         <v>6.7541959E-3</v>
       </c>
-      <c r="H90" s="84">
+      <c r="H90" s="81">
         <v>6.0814568000000001E-3</v>
       </c>
-      <c r="I90" s="59">
+      <c r="I90" s="120">
         <v>5.1669517000000002E-3</v>
       </c>
-      <c r="J90" s="35"/>
-      <c r="K90" s="75" t="s">
+      <c r="J90" s="128">
+        <v>8.5842190000000006E-3</v>
+      </c>
+      <c r="K90" s="124">
+        <v>3.4039669999999999E-3</v>
+      </c>
+      <c r="L90" s="121">
+        <f t="shared" si="7"/>
+        <v>2.4898048823529411E-3</v>
+      </c>
+      <c r="M90">
+        <f t="shared" si="8"/>
+        <v>-3.0472070588235297E-4</v>
+      </c>
+      <c r="N90" s="88" t="s">
         <v>18</v>
       </c>
-      <c r="L90" s="89">
+      <c r="O90" s="85">
         <v>7.3166155E-3</v>
       </c>
-      <c r="M90" s="84">
+      <c r="P90" s="81">
         <v>6.9341934000000001E-3</v>
       </c>
-      <c r="N90" s="84">
+      <c r="Q90" s="81">
         <v>6.5407853E-3</v>
       </c>
-      <c r="O90" s="84">
+      <c r="R90" s="81">
         <v>6.0806221000000004E-3</v>
       </c>
-      <c r="P90" s="84">
+      <c r="S90" s="81">
         <v>5.6114275000000002E-3</v>
       </c>
-      <c r="Q90" s="84">
+      <c r="T90" s="81">
         <v>5.226807E-3</v>
       </c>
-      <c r="R90" s="84">
+      <c r="U90" s="81">
         <v>4.7939851999999998E-3</v>
       </c>
-      <c r="S90" s="59">
+      <c r="V90" s="120">
         <v>3.7817176000000002E-3</v>
       </c>
-      <c r="T90" s="35"/>
-      <c r="U90" s="86" t="s">
+      <c r="W90" s="128">
+        <v>6.367841E-3</v>
+      </c>
+      <c r="X90" s="124">
+        <v>1.8290649999999999E-3</v>
+      </c>
+      <c r="Y90" s="121">
+        <f t="shared" si="9"/>
+        <v>1.0281045294117646E-3</v>
+      </c>
+      <c r="Z90">
+        <f t="shared" si="10"/>
+        <v>-2.6698682352941175E-4</v>
+      </c>
+      <c r="AA90" s="83" t="s">
         <v>84</v>
       </c>
-      <c r="V90" s="84">
+      <c r="AB90" s="81">
         <v>2.7320634999999999E-2</v>
       </c>
-      <c r="W90" s="84">
+      <c r="AC90" s="81">
         <v>2.2139934E-2</v>
       </c>
-      <c r="X90" s="84">
+      <c r="AD90" s="81">
         <v>1.9089755999999999E-2</v>
       </c>
-      <c r="Y90" s="84">
+      <c r="AE90" s="81">
         <v>1.6181286E-2</v>
       </c>
-      <c r="Z90" s="84">
+      <c r="AF90" s="81">
         <v>1.2619490000000001E-2</v>
       </c>
-      <c r="AA90" s="84">
+      <c r="AG90" s="81">
         <v>8.9390100000000007E-3</v>
       </c>
-      <c r="AB90" s="84">
+      <c r="AH90" s="81">
         <v>6.3509125E-3</v>
       </c>
-      <c r="AC90" s="84">
+      <c r="AI90" s="81">
         <v>4.6946237E-3</v>
       </c>
     </row>
-    <row r="91" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="75" t="s">
+    <row r="91" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A91" s="88" t="s">
         <v>17</v>
       </c>
-      <c r="B91" s="89">
+      <c r="B91" s="85">
         <v>1.2171936E-2</v>
       </c>
-      <c r="C91" s="84">
+      <c r="C91" s="81">
         <v>1.1441359E-2</v>
       </c>
-      <c r="D91" s="84">
+      <c r="D91" s="81">
         <v>1.0708901999999999E-2</v>
       </c>
-      <c r="E91" s="84">
+      <c r="E91" s="81">
         <v>9.8627973999999997E-3</v>
       </c>
-      <c r="F91" s="84">
+      <c r="F91" s="81">
         <v>9.0128794999999994E-3</v>
       </c>
-      <c r="G91" s="84">
+      <c r="G91" s="81">
         <v>8.3055105000000001E-3</v>
       </c>
-      <c r="H91" s="84">
+      <c r="H91" s="81">
         <v>7.5515045999999999E-3</v>
       </c>
-      <c r="I91" s="59">
+      <c r="I91" s="120">
         <v>6.4414638999999996E-3</v>
       </c>
-      <c r="J91" s="35"/>
-      <c r="K91" s="75" t="s">
+      <c r="J91" s="128">
+        <v>1.0363597E-2</v>
+      </c>
+      <c r="K91" s="124">
+        <v>3.9863540000000001E-3</v>
+      </c>
+      <c r="L91" s="121">
+        <f t="shared" si="7"/>
+        <v>2.8609581764705884E-3</v>
+      </c>
+      <c r="M91">
+        <f t="shared" si="8"/>
+        <v>-3.7513194117647059E-4</v>
+      </c>
+      <c r="N91" s="88" t="s">
         <v>17</v>
       </c>
-      <c r="L91" s="89">
+      <c r="O91" s="85">
         <v>8.3061538000000004E-3</v>
       </c>
-      <c r="M91" s="84">
+      <c r="P91" s="81">
         <v>7.9964224999999993E-3</v>
       </c>
-      <c r="N91" s="84">
+      <c r="Q91" s="81">
         <v>7.6115829000000003E-3</v>
       </c>
-      <c r="O91" s="84">
+      <c r="R91" s="81">
         <v>7.1389935000000003E-3</v>
       </c>
-      <c r="P91" s="84">
+      <c r="S91" s="81">
         <v>6.6758900000000003E-3</v>
       </c>
-      <c r="Q91" s="84">
+      <c r="T91" s="81">
         <v>6.3230613000000001E-3</v>
       </c>
-      <c r="R91" s="84">
+      <c r="U91" s="81">
         <v>5.8713664000000004E-3</v>
       </c>
-      <c r="S91" s="59">
+      <c r="V91" s="120">
         <v>4.6448573999999998E-3</v>
       </c>
-      <c r="T91" s="35"/>
-      <c r="U91" s="35"/>
-      <c r="V91" s="35"/>
-      <c r="W91" s="35"/>
-      <c r="X91" s="35"/>
-      <c r="Y91" s="35"/>
-      <c r="Z91" s="35"/>
-      <c r="AA91" s="35"/>
-      <c r="AB91" s="35"/>
-      <c r="AC91" s="35"/>
-    </row>
-    <row r="92" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="75" t="s">
+      <c r="W91" s="128">
+        <v>6.1407370000000003E-3</v>
+      </c>
+      <c r="X91" s="124">
+        <v>1.8174109999999999E-3</v>
+      </c>
+      <c r="Y91" s="121">
+        <f t="shared" si="9"/>
+        <v>1.0544711176470585E-3</v>
+      </c>
+      <c r="Z91">
+        <f t="shared" si="10"/>
+        <v>-2.5431329411764711E-4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A92" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="B92" s="89">
+      <c r="B92" s="85">
         <v>1.4352014999999999E-2</v>
       </c>
-      <c r="C92" s="84">
+      <c r="C92" s="81">
         <v>1.3609002E-2</v>
       </c>
-      <c r="D92" s="84">
+      <c r="D92" s="81">
         <v>1.2821048999999999E-2</v>
       </c>
-      <c r="E92" s="84">
+      <c r="E92" s="81">
         <v>1.189198E-2</v>
       </c>
-      <c r="F92" s="84">
+      <c r="F92" s="81">
         <v>1.0964043E-2</v>
       </c>
-      <c r="G92" s="84">
+      <c r="G92" s="81">
         <v>1.0199443000000001E-2</v>
       </c>
-      <c r="H92" s="84">
+      <c r="H92" s="81">
         <v>9.3492987999999992E-3</v>
       </c>
-      <c r="I92" s="59">
+      <c r="I92" s="120">
         <v>8.0432449999999992E-3</v>
       </c>
-      <c r="J92" s="35"/>
-      <c r="K92" s="75" t="s">
+      <c r="J92" s="128">
+        <v>1.1498424E-2</v>
+      </c>
+      <c r="K92" s="124">
+        <v>4.6618329999999998E-3</v>
+      </c>
+      <c r="L92" s="121">
+        <f t="shared" si="7"/>
+        <v>3.4553757647058821E-3</v>
+      </c>
+      <c r="M92">
+        <f t="shared" si="8"/>
+        <v>-4.021524117647059E-4</v>
+      </c>
+      <c r="N92" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="L92" s="89">
+      <c r="O92" s="85">
         <v>9.5504723999999992E-3</v>
       </c>
-      <c r="M92" s="84">
+      <c r="P92" s="81">
         <v>9.2426670999999992E-3</v>
       </c>
-      <c r="N92" s="84">
+      <c r="Q92" s="81">
         <v>8.8507475000000006E-3</v>
       </c>
-      <c r="O92" s="84">
+      <c r="R92" s="81">
         <v>8.3638766999999999E-3</v>
       </c>
-      <c r="P92" s="84">
+      <c r="S92" s="81">
         <v>7.8806432000000006E-3</v>
       </c>
-      <c r="Q92" s="84">
+      <c r="T92" s="81">
         <v>7.5079448999999998E-3</v>
       </c>
-      <c r="R92" s="84">
+      <c r="U92" s="81">
         <v>7.0247197000000003E-3</v>
       </c>
-      <c r="S92" s="59">
+      <c r="V92" s="120">
         <v>5.6773359000000002E-3</v>
       </c>
-      <c r="T92" s="35"/>
-      <c r="U92" s="35"/>
-      <c r="V92" s="35"/>
-      <c r="W92" s="35"/>
-      <c r="X92" s="35"/>
-      <c r="Y92" s="35"/>
-      <c r="Z92" s="35"/>
-      <c r="AA92" s="35"/>
-      <c r="AB92" s="35"/>
-      <c r="AC92" s="35"/>
-    </row>
-    <row r="93" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="75" t="s">
+      <c r="W92" s="128">
+        <v>5.9637040000000002E-3</v>
+      </c>
+      <c r="X92" s="124">
+        <v>2.1249369999999999E-3</v>
+      </c>
+      <c r="Y92" s="121">
+        <f t="shared" si="9"/>
+        <v>1.4475075294117646E-3</v>
+      </c>
+      <c r="Z92">
+        <f t="shared" si="10"/>
+        <v>-2.2580982352941178E-4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A93" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="B93" s="89">
+      <c r="B93" s="85">
         <v>1.6599328999999999E-2</v>
       </c>
-      <c r="C93" s="84">
+      <c r="C93" s="81">
         <v>1.5939089E-2</v>
       </c>
-      <c r="D93" s="84">
+      <c r="D93" s="81">
         <v>1.5164165E-2</v>
       </c>
-      <c r="E93" s="84">
+      <c r="E93" s="81">
         <v>1.4218463000000001E-2</v>
       </c>
-      <c r="F93" s="84">
+      <c r="F93" s="81">
         <v>1.3283338E-2</v>
       </c>
-      <c r="G93" s="84">
+      <c r="G93" s="81">
         <v>1.2527323E-2</v>
       </c>
-      <c r="H93" s="84">
+      <c r="H93" s="81">
         <v>1.1624491000000001E-2</v>
       </c>
-      <c r="I93" s="59">
+      <c r="I93" s="120">
         <v>1.0135829000000001E-2</v>
       </c>
-      <c r="J93" s="35"/>
-      <c r="K93" s="75" t="s">
+      <c r="J93" s="128">
+        <v>1.4937591E-2</v>
+      </c>
+      <c r="K93" s="124">
+        <v>6.616434E-3</v>
+      </c>
+      <c r="L93" s="121">
+        <f t="shared" si="7"/>
+        <v>5.1479945294117648E-3</v>
+      </c>
+      <c r="M93">
+        <f t="shared" si="8"/>
+        <v>-4.8947982352941168E-4</v>
+      </c>
+      <c r="N93" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="L93" s="89">
+      <c r="O93" s="85">
         <v>1.0526821E-2</v>
       </c>
-      <c r="M93" s="84">
+      <c r="P93" s="81">
         <v>1.0266169E-2</v>
       </c>
-      <c r="N93" s="84">
+      <c r="Q93" s="81">
         <v>9.8958287999999991E-3</v>
       </c>
-      <c r="O93" s="84">
+      <c r="R93" s="81">
         <v>9.4230961000000002E-3</v>
       </c>
-      <c r="P93" s="84">
+      <c r="S93" s="81">
         <v>8.9566785000000006E-3</v>
       </c>
-      <c r="Q93" s="84">
+      <c r="T93" s="81">
         <v>8.6049192E-3</v>
       </c>
-      <c r="R93" s="84">
+      <c r="U93" s="81">
         <v>8.1201847999999993E-3</v>
       </c>
-      <c r="S93" s="59">
+      <c r="V93" s="120">
         <v>6.6691631000000001E-3</v>
       </c>
-      <c r="T93" s="35"/>
-      <c r="U93" s="35"/>
-      <c r="V93" s="35"/>
-      <c r="W93" s="35"/>
-      <c r="X93" s="35"/>
-      <c r="Y93" s="35"/>
-      <c r="Z93" s="35"/>
-      <c r="AA93" s="35"/>
-      <c r="AB93" s="35"/>
-      <c r="AC93" s="35"/>
-    </row>
-    <row r="94" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="75" t="s">
+      <c r="W93" s="128">
+        <v>6.78533E-3</v>
+      </c>
+      <c r="X93" s="124">
+        <v>3.1711669999999999E-3</v>
+      </c>
+      <c r="Y93" s="121">
+        <f t="shared" si="9"/>
+        <v>2.5333735294117646E-3</v>
+      </c>
+      <c r="Z93">
+        <f t="shared" si="10"/>
+        <v>-2.1259782352941176E-4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A94" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="B94" s="89">
+      <c r="B94" s="85">
         <v>2.0610447E-2</v>
       </c>
-      <c r="C94" s="84">
+      <c r="C94" s="81">
         <v>2.0069169000000001E-2</v>
       </c>
-      <c r="D94" s="84">
+      <c r="D94" s="81">
         <v>1.9329669000000001E-2</v>
       </c>
-      <c r="E94" s="84">
+      <c r="E94" s="81">
         <v>1.8382102000000001E-2</v>
       </c>
-      <c r="F94" s="84">
+      <c r="F94" s="81">
         <v>1.7452718999999998E-2</v>
       </c>
-      <c r="G94" s="84">
+      <c r="G94" s="81">
         <v>1.6717211999999999E-2</v>
       </c>
-      <c r="H94" s="84">
+      <c r="H94" s="81">
         <v>1.5751589999999999E-2</v>
       </c>
-      <c r="I94" s="59">
+      <c r="I94" s="120">
         <v>1.4004198000000001E-2</v>
       </c>
-      <c r="J94" s="35"/>
-      <c r="K94" s="75" t="s">
+      <c r="J94" s="128">
+        <v>2.0927292E-2</v>
+      </c>
+      <c r="K94" s="124">
+        <v>1.0831970999999999E-2</v>
+      </c>
+      <c r="L94" s="121">
+        <f t="shared" si="7"/>
+        <v>9.050443764705882E-3</v>
+      </c>
+      <c r="M94">
+        <f t="shared" si="8"/>
+        <v>-5.9384241176470591E-4</v>
+      </c>
+      <c r="N94" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="L94" s="89">
+      <c r="O94" s="85">
         <v>1.3618289E-2</v>
       </c>
-      <c r="M94" s="84">
+      <c r="P94" s="81">
         <v>1.3279867000000001E-2</v>
       </c>
-      <c r="N94" s="84">
+      <c r="Q94" s="81">
         <v>1.2843602000000001E-2</v>
       </c>
-      <c r="O94" s="84">
+      <c r="R94" s="81">
         <v>1.2293521999999999E-2</v>
       </c>
-      <c r="P94" s="84">
+      <c r="S94" s="81">
         <v>1.1726159999999999E-2</v>
       </c>
-      <c r="Q94" s="84">
+      <c r="T94" s="81">
         <v>1.126797E-2</v>
       </c>
-      <c r="R94" s="84">
+      <c r="U94" s="81">
         <v>1.0674833E-2</v>
       </c>
-      <c r="S94" s="59">
+      <c r="V94" s="120">
         <v>8.9763412999999993E-3</v>
       </c>
-      <c r="T94" s="35"/>
-      <c r="U94" s="35"/>
-      <c r="V94" s="35"/>
-      <c r="W94" s="35"/>
-      <c r="X94" s="35"/>
-      <c r="Y94" s="35"/>
-      <c r="Z94" s="35"/>
-      <c r="AA94" s="35"/>
-      <c r="AB94" s="35"/>
-      <c r="AC94" s="35"/>
-    </row>
-    <row r="95" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="75" t="s">
+      <c r="W94" s="128">
+        <v>9.8414439999999995E-3</v>
+      </c>
+      <c r="X94" s="124">
+        <v>5.1947219999999997E-3</v>
+      </c>
+      <c r="Y94" s="121">
+        <f t="shared" si="9"/>
+        <v>4.3747122352941169E-3</v>
+      </c>
+      <c r="Z94">
+        <f t="shared" si="10"/>
+        <v>-2.7333658823529413E-4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A95" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="B95" s="89">
+      <c r="B95" s="85">
         <v>2.5459668000000001E-2</v>
       </c>
-      <c r="C95" s="84">
+      <c r="C95" s="81">
         <v>2.5029438000000001E-2</v>
       </c>
-      <c r="D95" s="84">
+      <c r="D95" s="81">
         <v>2.4304803E-2</v>
       </c>
-      <c r="E95" s="84">
+      <c r="E95" s="81">
         <v>2.3329169E-2</v>
       </c>
-      <c r="F95" s="84">
+      <c r="F95" s="81">
         <v>2.2389999000000001E-2</v>
       </c>
-      <c r="G95" s="84">
+      <c r="G95" s="81">
         <v>2.1674624999999999E-2</v>
       </c>
-      <c r="H95" s="84">
+      <c r="H95" s="81">
         <v>2.0631349E-2</v>
       </c>
-      <c r="I95" s="59">
+      <c r="I95" s="120">
         <v>1.8576009000000001E-2</v>
       </c>
-      <c r="J95" s="35"/>
-      <c r="K95" s="75" t="s">
+      <c r="J95" s="128">
+        <v>2.6352477999999999E-2</v>
+      </c>
+      <c r="K95" s="124">
+        <v>1.6475909E-2</v>
+      </c>
+      <c r="L95" s="121">
+        <f t="shared" si="7"/>
+        <v>1.473298505882353E-2</v>
+      </c>
+      <c r="M95">
+        <f t="shared" si="8"/>
+        <v>-5.8097464705882346E-4</v>
+      </c>
+      <c r="N95" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="L95" s="89">
+      <c r="O95" s="85">
         <v>1.7990335999999999E-2</v>
       </c>
-      <c r="M95" s="84">
+      <c r="P95" s="81">
         <v>1.7498735000000001E-2</v>
       </c>
-      <c r="N95" s="84">
+      <c r="Q95" s="81">
         <v>1.6939927E-2</v>
       </c>
-      <c r="O95" s="84">
+      <c r="R95" s="81">
         <v>1.6251709E-2</v>
       </c>
-      <c r="P95" s="84">
+      <c r="S95" s="81">
         <v>1.5508173E-2</v>
       </c>
-      <c r="Q95" s="84">
+      <c r="T95" s="81">
         <v>1.4865150000000001E-2</v>
       </c>
-      <c r="R95" s="84">
+      <c r="U95" s="81">
         <v>1.4094534000000001E-2</v>
       </c>
-      <c r="S95" s="59">
+      <c r="V95" s="120">
         <v>1.2049147E-2</v>
       </c>
-      <c r="T95" s="35"/>
-      <c r="U95" s="35"/>
-      <c r="V95" s="35"/>
-      <c r="W95" s="35"/>
-      <c r="X95" s="35"/>
-      <c r="Y95" s="35"/>
-      <c r="Z95" s="35"/>
-      <c r="AA95" s="35"/>
-      <c r="AB95" s="35"/>
-      <c r="AC95" s="35"/>
-    </row>
-    <row r="96" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A96" s="78" t="s">
+      <c r="W95" s="128">
+        <v>1.3256046E-2</v>
+      </c>
+      <c r="X95" s="124">
+        <v>8.2955149999999998E-3</v>
+      </c>
+      <c r="Y95" s="121">
+        <f t="shared" si="9"/>
+        <v>7.4201271764705885E-3</v>
+      </c>
+      <c r="Z95">
+        <f t="shared" si="10"/>
+        <v>-2.917959411764706E-4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A96" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="B96" s="89">
+      <c r="B96" s="85">
         <v>3.5184202999999997E-2</v>
       </c>
-      <c r="C96" s="84">
+      <c r="C96" s="81">
         <v>3.4928028999999999E-2</v>
       </c>
-      <c r="D96" s="84">
+      <c r="D96" s="81">
         <v>3.4222971999999997E-2</v>
       </c>
-      <c r="E96" s="84">
+      <c r="E96" s="81">
         <v>3.3195026000000002E-2</v>
       </c>
-      <c r="F96" s="84">
+      <c r="F96" s="81">
         <v>3.2233284000000001E-2</v>
       </c>
-      <c r="G96" s="84">
+      <c r="G96" s="81">
         <v>3.1546165000000001E-2</v>
       </c>
-      <c r="H96" s="84">
+      <c r="H96" s="81">
         <v>3.0365044000000001E-2</v>
       </c>
-      <c r="I96" s="59">
+      <c r="I96" s="120">
         <v>2.7759598999999999E-2</v>
       </c>
-      <c r="J96" s="35"/>
-      <c r="K96" s="87" t="s">
+      <c r="J96" s="128">
+        <v>3.6052813000000003E-2</v>
+      </c>
+      <c r="K96" s="124">
+        <v>2.3964659999999999E-2</v>
+      </c>
+      <c r="L96" s="121">
+        <f t="shared" si="7"/>
+        <v>2.1831456529411764E-2</v>
+      </c>
+      <c r="M96">
+        <f t="shared" si="8"/>
+        <v>-7.11067823529412E-4</v>
+      </c>
+      <c r="N96" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="L96" s="89">
+      <c r="O96" s="85">
         <v>2.7034006999999999E-2</v>
       </c>
-      <c r="M96" s="84">
+      <c r="P96" s="81">
         <v>2.6237897E-2</v>
       </c>
-      <c r="N96" s="84">
+      <c r="Q96" s="81">
         <v>2.544223E-2</v>
       </c>
-      <c r="O96" s="84">
+      <c r="R96" s="81">
         <v>2.4488769000000001E-2</v>
       </c>
-      <c r="P96" s="84">
+      <c r="S96" s="81">
         <v>2.3397757000000002E-2</v>
       </c>
-      <c r="Q96" s="84">
+      <c r="T96" s="81">
         <v>2.2381365E-2</v>
       </c>
-      <c r="R96" s="84">
+      <c r="U96" s="81">
         <v>2.1257570999999999E-2</v>
       </c>
-      <c r="S96" s="59">
+      <c r="V96" s="120">
         <v>1.8543285E-2</v>
       </c>
-      <c r="T96" s="35"/>
-      <c r="U96" s="35"/>
-      <c r="V96" s="35"/>
-      <c r="W96" s="35"/>
-      <c r="X96" s="35"/>
-      <c r="Y96" s="35"/>
-      <c r="Z96" s="35"/>
-      <c r="AA96" s="35"/>
-      <c r="AB96" s="35"/>
-      <c r="AC96" s="35"/>
-    </row>
-    <row r="97" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A97" s="78" t="s">
+      <c r="W96" s="128">
+        <v>1.9917550999999999E-2</v>
+      </c>
+      <c r="X96" s="124">
+        <v>1.2142778999999999E-2</v>
+      </c>
+      <c r="Y96" s="121">
+        <f t="shared" si="9"/>
+        <v>1.0770760411764705E-2</v>
+      </c>
+      <c r="Z96">
+        <f t="shared" si="10"/>
+        <v>-4.5733952941176466E-4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A97" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="B97" s="89">
+      <c r="B97" s="85">
         <v>5.0578709999999999E-2</v>
       </c>
-      <c r="C97" s="84">
+      <c r="C97" s="81">
         <v>5.0650142000000002E-2</v>
       </c>
-      <c r="D97" s="84">
+      <c r="D97" s="81">
         <v>5.0024763E-2</v>
       </c>
-      <c r="E97" s="84">
+      <c r="E97" s="81">
         <v>4.8973602999999997E-2</v>
       </c>
-      <c r="F97" s="84">
+      <c r="F97" s="81">
         <v>4.8051199000000003E-2</v>
       </c>
-      <c r="G97" s="84">
+      <c r="G97" s="81">
         <v>4.7488384000000002E-2</v>
       </c>
-      <c r="H97" s="84">
+      <c r="H97" s="81">
         <v>4.6165507000000001E-2</v>
       </c>
-      <c r="I97" s="59">
+      <c r="I97" s="120">
         <v>4.2779603999999999E-2</v>
       </c>
-      <c r="J97" s="35"/>
-      <c r="K97" s="87" t="s">
+      <c r="J97" s="128">
+        <v>4.4857968999999998E-2</v>
+      </c>
+      <c r="K97" s="124">
+        <v>3.3032178000000002E-2</v>
+      </c>
+      <c r="L97" s="121">
+        <f t="shared" si="7"/>
+        <v>3.0945273705882355E-2</v>
+      </c>
+      <c r="M97">
+        <f t="shared" si="8"/>
+        <v>-6.9563476470588205E-4</v>
+      </c>
+      <c r="N97" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="L97" s="89">
+      <c r="O97" s="85">
         <v>4.1980367999999997E-2</v>
       </c>
-      <c r="M97" s="84">
+      <c r="P97" s="81">
         <v>4.0908139000000003E-2</v>
       </c>
-      <c r="N97" s="84">
+      <c r="Q97" s="81">
         <v>3.9873039999999998E-2</v>
       </c>
-      <c r="O97" s="84">
+      <c r="R97" s="81">
         <v>3.8634623999999999E-2</v>
       </c>
-      <c r="P97" s="84">
+      <c r="S97" s="81">
         <v>3.7150282999999999E-2</v>
       </c>
-      <c r="Q97" s="84">
+      <c r="T97" s="81">
         <v>3.5698045999999997E-2</v>
       </c>
-      <c r="R97" s="84">
+      <c r="U97" s="81">
         <v>3.4126276999999997E-2</v>
       </c>
-      <c r="S97" s="59">
+      <c r="V97" s="120">
         <v>3.039122E-2</v>
       </c>
-      <c r="T97" s="35"/>
-      <c r="U97" s="35"/>
-      <c r="V97" s="35"/>
-      <c r="W97" s="35"/>
-      <c r="X97" s="35"/>
-      <c r="Y97" s="35"/>
-      <c r="Z97" s="35"/>
-      <c r="AA97" s="35"/>
-      <c r="AB97" s="35"/>
-      <c r="AC97" s="35"/>
-    </row>
-    <row r="98" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A98" s="78" t="s">
+      <c r="W97" s="128">
+        <v>2.8481023000000001E-2</v>
+      </c>
+      <c r="X97" s="124">
+        <v>1.7584465000000001E-2</v>
+      </c>
+      <c r="Y97" s="121">
+        <f t="shared" si="9"/>
+        <v>1.5661543E-2</v>
+      </c>
+      <c r="Z97">
+        <f t="shared" si="10"/>
+        <v>-6.4097399999999999E-4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A98" s="84" t="s">
         <v>44</v>
       </c>
-      <c r="B98" s="89">
+      <c r="B98" s="85">
         <v>7.7074561999999999E-2</v>
       </c>
-      <c r="C98" s="84">
+      <c r="C98" s="81">
         <v>7.7622102999999998E-2</v>
       </c>
-      <c r="D98" s="84">
+      <c r="D98" s="81">
         <v>7.7095495999999999E-2</v>
       </c>
-      <c r="E98" s="84">
+      <c r="E98" s="81">
         <v>7.5980821000000004E-2</v>
       </c>
-      <c r="F98" s="84">
+      <c r="F98" s="81">
         <v>7.5089041999999995E-2</v>
       </c>
-      <c r="G98" s="84">
+      <c r="G98" s="81">
         <v>7.4689679999999994E-2</v>
       </c>
-      <c r="H98" s="84">
+      <c r="H98" s="81">
         <v>7.3117043000000007E-2</v>
       </c>
-      <c r="I98" s="59">
+      <c r="I98" s="120">
         <v>6.8473476000000005E-2</v>
       </c>
-      <c r="J98" s="35"/>
-      <c r="K98" s="87" t="s">
+      <c r="J98" s="128">
+        <v>6.6115557000000005E-2</v>
+      </c>
+      <c r="K98" s="124">
+        <v>4.3224483000000001E-2</v>
+      </c>
+      <c r="L98" s="121">
+        <f t="shared" si="7"/>
+        <v>3.918488170588235E-2</v>
+      </c>
+      <c r="M98">
+        <f t="shared" si="8"/>
+        <v>-1.3465337647058826E-3</v>
+      </c>
+      <c r="N98" s="84" t="s">
         <v>44</v>
       </c>
-      <c r="L98" s="89">
+      <c r="O98" s="85">
         <v>6.7413652000000004E-2</v>
       </c>
-      <c r="M98" s="84">
+      <c r="P98" s="81">
         <v>6.6080293999999998E-2</v>
       </c>
-      <c r="N98" s="84">
+      <c r="Q98" s="81">
         <v>6.4781100999999994E-2</v>
       </c>
-      <c r="O98" s="84">
+      <c r="R98" s="81">
         <v>6.3207541000000006E-2</v>
       </c>
-      <c r="P98" s="84">
+      <c r="S98" s="81">
         <v>6.1234920999999998E-2</v>
       </c>
-      <c r="Q98" s="84">
+      <c r="T98" s="81">
         <v>5.9224530999999997E-2</v>
       </c>
-      <c r="R98" s="84">
+      <c r="U98" s="81">
         <v>5.7037298E-2</v>
       </c>
-      <c r="S98" s="59">
+      <c r="V98" s="120">
         <v>5.1704121999999998E-2</v>
       </c>
-      <c r="T98" s="35"/>
-      <c r="U98" s="35"/>
-      <c r="V98" s="35"/>
-      <c r="W98" s="35"/>
-      <c r="X98" s="35"/>
-      <c r="Y98" s="35"/>
-      <c r="Z98" s="35"/>
-      <c r="AA98" s="35"/>
-      <c r="AB98" s="35"/>
-      <c r="AC98" s="35"/>
-    </row>
-    <row r="99" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A99" s="78" t="s">
+      <c r="W98" s="128">
+        <v>4.3469642000000003E-2</v>
+      </c>
+      <c r="X98" s="124">
+        <v>2.5406643E-2</v>
+      </c>
+      <c r="Y98" s="121">
+        <f t="shared" si="9"/>
+        <v>2.2219054941176469E-2</v>
+      </c>
+      <c r="Z98">
+        <f t="shared" si="10"/>
+        <v>-1.0625293529411767E-3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A99" s="84" t="s">
         <v>45</v>
       </c>
-      <c r="B99" s="89">
+      <c r="B99" s="85">
         <v>0.11904474</v>
       </c>
-      <c r="C99" s="84">
+      <c r="C99" s="81">
         <v>0.12073808</v>
       </c>
-      <c r="D99" s="84">
+      <c r="D99" s="81">
         <v>0.1207081</v>
       </c>
-      <c r="E99" s="84">
+      <c r="E99" s="81">
         <v>0.1198779</v>
       </c>
-      <c r="F99" s="84">
+      <c r="F99" s="81">
         <v>0.11948436</v>
       </c>
-      <c r="G99" s="84">
+      <c r="G99" s="81">
         <v>0.11979376999999999</v>
       </c>
-      <c r="H99" s="84">
+      <c r="H99" s="81">
         <v>0.11823134</v>
       </c>
-      <c r="I99" s="59">
+      <c r="I99" s="120">
         <v>0.11201527999999999</v>
       </c>
-      <c r="J99" s="35"/>
-      <c r="K99" s="87" t="s">
+      <c r="J99" s="128">
+        <v>8.1959559000000001E-2</v>
+      </c>
+      <c r="K99" s="124">
+        <v>5.9431375000000002E-2</v>
+      </c>
+      <c r="L99" s="121">
+        <f t="shared" si="7"/>
+        <v>5.5455813117647058E-2</v>
+      </c>
+      <c r="M99">
+        <f t="shared" si="8"/>
+        <v>-1.3251872941176471E-3</v>
+      </c>
+      <c r="N99" s="84" t="s">
         <v>45</v>
       </c>
-      <c r="L99" s="89">
+      <c r="O99" s="85">
         <v>0.10699243999999999</v>
       </c>
-      <c r="M99" s="84">
+      <c r="P99" s="81">
         <v>0.10582374</v>
       </c>
-      <c r="N99" s="84">
+      <c r="Q99" s="81">
         <v>0.10450795</v>
       </c>
-      <c r="O99" s="84">
+      <c r="R99" s="81">
         <v>0.10282624999999999</v>
       </c>
-      <c r="P99" s="84">
+      <c r="S99" s="81">
         <v>0.10060334</v>
       </c>
-      <c r="Q99" s="84">
+      <c r="T99" s="81">
         <v>9.8256107999999995E-2</v>
       </c>
-      <c r="R99" s="84">
+      <c r="U99" s="81">
         <v>9.5537514000000004E-2</v>
       </c>
-      <c r="S99" s="59">
+      <c r="V99" s="120">
         <v>8.8066895000000006E-2</v>
       </c>
-      <c r="T99" s="35"/>
-      <c r="U99" s="35"/>
-      <c r="V99" s="35"/>
-      <c r="W99" s="35"/>
-      <c r="X99" s="35"/>
-      <c r="Y99" s="35"/>
-      <c r="Z99" s="35"/>
-      <c r="AA99" s="35"/>
-      <c r="AB99" s="35"/>
-      <c r="AC99" s="35"/>
-    </row>
-    <row r="100" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="L100">
-        <f>5*SUM(L84:L99)</f>
-        <v>2.5114748319999998</v>
-      </c>
-      <c r="M100">
-        <f t="shared" ref="M100:S100" si="9">5*SUM(M84:M99)</f>
-        <v>2.3638557104999998</v>
-      </c>
-      <c r="N100">
+      <c r="W99" s="128">
+        <v>5.4374656E-2</v>
+      </c>
+      <c r="X99" s="124">
+        <v>3.7231258000000003E-2</v>
+      </c>
+      <c r="Y99" s="121">
         <f t="shared" si="9"/>
-        <v>2.2540497485</v>
-      </c>
-      <c r="O100">
-        <f t="shared" si="9"/>
-        <v>2.1345254835</v>
-      </c>
-      <c r="P100">
-        <f t="shared" si="9"/>
-        <v>1.9795614305</v>
-      </c>
-      <c r="Q100">
-        <f t="shared" si="9"/>
-        <v>1.809607819</v>
-      </c>
-      <c r="R100">
-        <f t="shared" si="9"/>
-        <v>1.6554019165</v>
-      </c>
-      <c r="S100">
-        <f t="shared" si="9"/>
-        <v>1.4410201265</v>
-      </c>
-    </row>
-    <row r="101" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="N101" s="76"/>
-    </row>
-    <row r="102" spans="1:29" x14ac:dyDescent="0.25">
+        <v>3.420595247058824E-2</v>
+      </c>
+      <c r="Z99">
+        <f t="shared" si="10"/>
+        <v>-1.0084351764705882E-3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:26" x14ac:dyDescent="0.25">
       <c r="I102" s="53"/>
       <c r="J102" s="53"/>
       <c r="K102" s="52"/>
-      <c r="N102" s="77"/>
-    </row>
-    <row r="103" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="N102" s="75"/>
+    </row>
+    <row r="103" spans="1:26" x14ac:dyDescent="0.25">
       <c r="I103" s="53"/>
       <c r="J103" s="53"/>
       <c r="K103" s="52"/>
     </row>
-    <row r="104" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:26" x14ac:dyDescent="0.25">
       <c r="I104" s="53"/>
       <c r="J104" s="53"/>
       <c r="K104" s="52"/>
     </row>
-    <row r="105" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" s="36" t="s">
         <v>60</v>
       </c>
@@ -11147,7 +11502,7 @@
       <c r="W105" s="37"/>
       <c r="X105" s="37"/>
     </row>
-    <row r="106" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106" s="38" t="s">
         <v>61</v>
       </c>
@@ -11175,7 +11530,7 @@
       <c r="W106" s="37"/>
       <c r="X106" s="37"/>
     </row>
-    <row r="107" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" s="38" t="s">
         <v>62</v>
       </c>
@@ -11203,7 +11558,7 @@
       <c r="W107" s="37"/>
       <c r="X107" s="37"/>
     </row>
-    <row r="108" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" s="38" t="s">
         <v>89</v>
       </c>
@@ -11231,7 +11586,7 @@
       <c r="W108" s="37"/>
       <c r="X108" s="37"/>
     </row>
-    <row r="109" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="38" t="s">
         <v>88</v>
       </c>
@@ -11259,8 +11614,8 @@
       <c r="W109" s="37"/>
       <c r="X109" s="37"/>
     </row>
-    <row r="110" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A110" s="60" t="s">
+    <row r="110" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A110" s="59" t="s">
         <v>90</v>
       </c>
       <c r="B110" s="37"/>
@@ -11287,26 +11642,26 @@
       <c r="W110" s="37"/>
       <c r="X110" s="37"/>
     </row>
-    <row r="111" spans="1:29" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="108" t="s">
+    <row r="111" spans="1:26" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="114" t="s">
         <v>106</v>
       </c>
-      <c r="B111" s="108"/>
-      <c r="C111" s="108"/>
-      <c r="D111" s="108"/>
-      <c r="E111" s="108"/>
-      <c r="F111" s="108"/>
-      <c r="G111" s="108"/>
-      <c r="H111" s="108"/>
-      <c r="I111" s="108"/>
-      <c r="J111" s="108"/>
-      <c r="K111" s="108"/>
-      <c r="L111" s="108"/>
-      <c r="M111" s="108"/>
-      <c r="N111" s="108"/>
-      <c r="O111" s="108"/>
-      <c r="P111" s="108"/>
-      <c r="Q111" s="108"/>
+      <c r="B111" s="114"/>
+      <c r="C111" s="114"/>
+      <c r="D111" s="114"/>
+      <c r="E111" s="114"/>
+      <c r="F111" s="114"/>
+      <c r="G111" s="114"/>
+      <c r="H111" s="114"/>
+      <c r="I111" s="114"/>
+      <c r="J111" s="114"/>
+      <c r="K111" s="114"/>
+      <c r="L111" s="114"/>
+      <c r="M111" s="114"/>
+      <c r="N111" s="114"/>
+      <c r="O111" s="114"/>
+      <c r="P111" s="114"/>
+      <c r="Q111" s="114"/>
       <c r="R111" s="37"/>
       <c r="S111" s="37"/>
       <c r="T111" s="37"/>
@@ -11315,37 +11670,37 @@
       <c r="W111" s="37"/>
       <c r="X111" s="37"/>
     </row>
-    <row r="112" spans="1:29" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="117" t="s">
+    <row r="112" spans="1:26" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="B112" s="113" t="s">
+      <c r="B112" s="93" t="s">
         <v>86</v>
       </c>
-      <c r="C112" s="114"/>
-      <c r="D112" s="114"/>
-      <c r="E112" s="114"/>
-      <c r="F112" s="114"/>
-      <c r="G112" s="115"/>
-      <c r="I112" s="74"/>
-      <c r="J112" s="90" t="s">
+      <c r="C112" s="94"/>
+      <c r="D112" s="94"/>
+      <c r="E112" s="94"/>
+      <c r="F112" s="94"/>
+      <c r="G112" s="95"/>
+      <c r="I112" s="73"/>
+      <c r="J112" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="K112" s="90" t="s">
+      <c r="K112" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="L112" s="90" t="s">
+      <c r="L112" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="M112" s="90" t="s">
+      <c r="M112" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="N112" s="90" t="s">
+      <c r="N112" s="86" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="113" spans="1:14" ht="45.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="118"/>
+      <c r="A113" s="99"/>
       <c r="B113" s="32" t="s">
         <v>70</v>
       </c>
@@ -11364,32 +11719,32 @@
       <c r="G113" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="I113" s="91" t="s">
+      <c r="I113" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="J113" s="71">
+      <c r="J113" s="70">
         <f>C118/$B$118</f>
         <v>1</v>
       </c>
-      <c r="K113" s="71">
+      <c r="K113" s="70">
         <f>D118/$B$118</f>
         <v>1</v>
       </c>
-      <c r="L113" s="71">
+      <c r="L113" s="70">
         <f>E118/$B$118</f>
         <v>0.58000000000000007</v>
       </c>
-      <c r="M113" s="71">
+      <c r="M113" s="70">
         <f>F118/$B$118</f>
         <v>0.58000000000000007</v>
       </c>
-      <c r="N113" s="71">
+      <c r="N113" s="70">
         <f>G118/$B$118</f>
         <v>0.41000000000000003</v>
       </c>
     </row>
     <row r="114" spans="1:14" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="119"/>
+      <c r="A114" s="100"/>
       <c r="B114" s="34" t="s">
         <v>63</v>
       </c>
@@ -11418,60 +11773,60 @@
         <v>0</v>
       </c>
       <c r="C115" s="10">
-        <f t="shared" ref="C115:G130" si="10">J116*1.1</f>
+        <f t="shared" ref="C115:G130" si="11">J116*1.1</f>
         <v>0</v>
       </c>
       <c r="D115" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E115" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F115" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G115" s="10">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="I115" s="121" t="s">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I115" s="107" t="s">
         <v>105</v>
       </c>
-      <c r="J115" s="121"/>
-      <c r="K115" s="121"/>
-      <c r="L115" s="121"/>
-      <c r="M115" s="121"/>
-      <c r="N115" s="121"/>
+      <c r="J115" s="107"/>
+      <c r="K115" s="107"/>
+      <c r="L115" s="107"/>
+      <c r="M115" s="107"/>
+      <c r="N115" s="107"/>
     </row>
     <row r="116" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B116" s="10">
-        <f t="shared" ref="B116:B130" si="11">I117*1.1</f>
+        <f t="shared" ref="B116:B130" si="12">I117*1.1</f>
         <v>0</v>
       </c>
       <c r="C116" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="D116" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E116" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F116" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G116" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I116" s="17">
@@ -11498,27 +11853,27 @@
         <v>12</v>
       </c>
       <c r="B117" s="10">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="C117" s="10">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="C117" s="10">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
       <c r="D117" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E117" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F117" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G117" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I117" s="17">
@@ -11545,27 +11900,27 @@
         <v>13</v>
       </c>
       <c r="B118" s="10">
+        <f t="shared" si="12"/>
+        <v>0.15554000000000001</v>
+      </c>
+      <c r="C118" s="10">
         <f t="shared" si="11"/>
         <v>0.15554000000000001</v>
       </c>
-      <c r="C118" s="10">
-        <f t="shared" si="10"/>
+      <c r="D118" s="10">
+        <f t="shared" si="11"/>
         <v>0.15554000000000001</v>
       </c>
-      <c r="D118" s="10">
-        <f t="shared" si="10"/>
-        <v>0.15554000000000001</v>
-      </c>
       <c r="E118" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>9.0213200000000021E-2</v>
       </c>
       <c r="F118" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>9.0213200000000021E-2</v>
       </c>
       <c r="G118" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6.3771400000000006E-2</v>
       </c>
       <c r="I118" s="17">
@@ -11592,27 +11947,27 @@
         <v>14</v>
       </c>
       <c r="B119" s="10">
+        <f t="shared" si="12"/>
+        <v>0.30580000000000007</v>
+      </c>
+      <c r="C119" s="10">
         <f t="shared" si="11"/>
         <v>0.30580000000000007</v>
       </c>
-      <c r="C119" s="10">
-        <f t="shared" si="10"/>
+      <c r="D119" s="10">
+        <f t="shared" si="11"/>
         <v>0.30580000000000007</v>
       </c>
-      <c r="D119" s="10">
-        <f t="shared" si="10"/>
-        <v>0.30580000000000007</v>
-      </c>
       <c r="E119" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.17736400000000005</v>
       </c>
       <c r="F119" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.17736400000000005</v>
       </c>
       <c r="G119" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.12537800000000004</v>
       </c>
       <c r="I119" s="17">
@@ -11639,27 +11994,27 @@
         <v>15</v>
       </c>
       <c r="B120" s="10">
+        <f t="shared" si="12"/>
+        <v>0.31196000000000007</v>
+      </c>
+      <c r="C120" s="10">
         <f t="shared" si="11"/>
         <v>0.31196000000000007</v>
       </c>
-      <c r="C120" s="10">
-        <f t="shared" si="10"/>
+      <c r="D120" s="10">
+        <f t="shared" si="11"/>
         <v>0.31196000000000007</v>
       </c>
-      <c r="D120" s="10">
-        <f t="shared" si="10"/>
-        <v>0.31196000000000007</v>
-      </c>
       <c r="E120" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.18093680000000004</v>
       </c>
       <c r="F120" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.18093680000000004</v>
       </c>
       <c r="G120" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.12790360000000003</v>
       </c>
       <c r="I120" s="17">
@@ -11686,27 +12041,27 @@
         <v>18</v>
       </c>
       <c r="B121" s="10">
+        <f t="shared" si="12"/>
+        <v>0.23232000000000003</v>
+      </c>
+      <c r="C121" s="10">
         <f t="shared" si="11"/>
         <v>0.23232000000000003</v>
       </c>
-      <c r="C121" s="10">
-        <f t="shared" si="10"/>
+      <c r="D121" s="10">
+        <f t="shared" si="11"/>
         <v>0.23232000000000003</v>
       </c>
-      <c r="D121" s="10">
-        <f t="shared" si="10"/>
-        <v>0.23232000000000003</v>
-      </c>
       <c r="E121" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.13474560000000002</v>
       </c>
       <c r="F121" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.13474560000000002</v>
       </c>
       <c r="G121" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>9.5251200000000008E-2</v>
       </c>
       <c r="I121" s="17">
@@ -11733,27 +12088,27 @@
         <v>17</v>
       </c>
       <c r="B122" s="10">
+        <f t="shared" si="12"/>
+        <v>0.14828000000000002</v>
+      </c>
+      <c r="C122" s="10">
         <f t="shared" si="11"/>
         <v>0.14828000000000002</v>
       </c>
-      <c r="C122" s="10">
-        <f t="shared" si="10"/>
+      <c r="D122" s="10">
+        <f t="shared" si="11"/>
         <v>0.14828000000000002</v>
       </c>
-      <c r="D122" s="10">
-        <f t="shared" si="10"/>
-        <v>0.14828000000000002</v>
-      </c>
       <c r="E122" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>8.600240000000002E-2</v>
       </c>
       <c r="F122" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>8.600240000000002E-2</v>
       </c>
       <c r="G122" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6.079480000000001E-2</v>
       </c>
       <c r="I122" s="17">
@@ -11780,27 +12135,27 @@
         <v>19</v>
       </c>
       <c r="B123" s="10">
+        <f t="shared" si="12"/>
+        <v>5.9620000000000013E-2</v>
+      </c>
+      <c r="C123" s="10">
         <f t="shared" si="11"/>
         <v>5.9620000000000013E-2</v>
       </c>
-      <c r="C123" s="10">
-        <f t="shared" si="10"/>
+      <c r="D123" s="10">
+        <f t="shared" si="11"/>
         <v>5.9620000000000013E-2</v>
       </c>
-      <c r="D123" s="10">
-        <f t="shared" si="10"/>
-        <v>5.9620000000000013E-2</v>
-      </c>
       <c r="E123" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3.4579600000000009E-2</v>
       </c>
       <c r="F123" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3.4579600000000009E-2</v>
       </c>
       <c r="G123" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.4444200000000003E-2</v>
       </c>
       <c r="I123" s="17">
@@ -11827,27 +12182,27 @@
         <v>20</v>
       </c>
       <c r="B124" s="10">
+        <f t="shared" si="12"/>
+        <v>1.9360000000000002E-2</v>
+      </c>
+      <c r="C124" s="10">
         <f t="shared" si="11"/>
         <v>1.9360000000000002E-2</v>
       </c>
-      <c r="C124" s="10">
-        <f t="shared" si="10"/>
+      <c r="D124" s="10">
+        <f t="shared" si="11"/>
         <v>1.9360000000000002E-2</v>
       </c>
-      <c r="D124" s="10">
-        <f t="shared" si="10"/>
-        <v>1.9360000000000002E-2</v>
-      </c>
       <c r="E124" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.1228800000000002E-2</v>
       </c>
       <c r="F124" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.1228800000000002E-2</v>
       </c>
       <c r="G124" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7.9376000000000013E-3</v>
       </c>
       <c r="I124" s="17">
@@ -11874,27 +12229,27 @@
         <v>21</v>
       </c>
       <c r="B125" s="10">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="C125" s="10">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="C125" s="10">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
       <c r="D125" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E125" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F125" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G125" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I125" s="17">
@@ -11921,27 +12276,27 @@
         <v>22</v>
       </c>
       <c r="B126" s="10">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="C126" s="10">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="C126" s="10">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
       <c r="D126" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E126" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F126" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G126" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I126" s="17">
@@ -11968,27 +12323,27 @@
         <v>42</v>
       </c>
       <c r="B127" s="10">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="C127" s="10">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="C127" s="10">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
       <c r="D127" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E127" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F127" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G127" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I127" s="17">
@@ -12015,27 +12370,27 @@
         <v>43</v>
       </c>
       <c r="B128" s="10">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="C128" s="10">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="C128" s="10">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
       <c r="D128" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E128" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F128" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G128" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I128" s="17">
@@ -12062,27 +12417,27 @@
         <v>44</v>
       </c>
       <c r="B129" s="10">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="C129" s="10">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="C129" s="10">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
       <c r="D129" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E129" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F129" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G129" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I129" s="17">
@@ -12109,27 +12464,27 @@
         <v>45</v>
       </c>
       <c r="B130" s="10">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="C130" s="10">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="C130" s="10">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
       <c r="D130" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E130" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F130" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G130" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I130" s="17">
@@ -12153,27 +12508,27 @@
     </row>
     <row r="131" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B131">
-        <f t="shared" ref="B131:G131" si="12">5*SUM(B118:B124)</f>
+        <f t="shared" ref="B131:G131" si="13">5*SUM(B118:B124)</f>
         <v>6.1644000000000005</v>
       </c>
       <c r="C131">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>6.1644000000000005</v>
       </c>
       <c r="D131">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>6.1644000000000005</v>
       </c>
       <c r="E131">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3.575352000000001</v>
       </c>
       <c r="F131">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3.575352000000001</v>
       </c>
       <c r="G131">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2.5274040000000007</v>
       </c>
       <c r="I131" s="17">
@@ -12197,31 +12552,31 @@
     </row>
     <row r="132" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="133" spans="1:15" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="110" t="s">
+      <c r="A133" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="B133" s="113" t="s">
+      <c r="B133" s="93" t="s">
         <v>87</v>
       </c>
-      <c r="C133" s="114"/>
-      <c r="D133" s="114"/>
-      <c r="E133" s="114"/>
-      <c r="F133" s="114"/>
-      <c r="G133" s="115"/>
-      <c r="I133" s="110" t="s">
+      <c r="C133" s="94"/>
+      <c r="D133" s="94"/>
+      <c r="E133" s="94"/>
+      <c r="F133" s="94"/>
+      <c r="G133" s="95"/>
+      <c r="I133" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="J133" s="113" t="s">
+      <c r="J133" s="93" t="s">
         <v>76</v>
       </c>
-      <c r="K133" s="114"/>
-      <c r="L133" s="114"/>
-      <c r="M133" s="114"/>
-      <c r="N133" s="114"/>
-      <c r="O133" s="115"/>
+      <c r="K133" s="94"/>
+      <c r="L133" s="94"/>
+      <c r="M133" s="94"/>
+      <c r="N133" s="94"/>
+      <c r="O133" s="95"/>
     </row>
     <row r="134" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="111"/>
+      <c r="A134" s="91"/>
       <c r="B134" s="26" t="s">
         <v>71</v>
       </c>
@@ -12240,7 +12595,7 @@
       <c r="G134" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="I134" s="111"/>
+      <c r="I134" s="91"/>
       <c r="J134" s="26" t="s">
         <v>71</v>
       </c>
@@ -12261,7 +12616,7 @@
       </c>
     </row>
     <row r="135" spans="1:15" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="112"/>
+      <c r="A135" s="92"/>
       <c r="B135" s="40" t="s">
         <v>63</v>
       </c>
@@ -12280,7 +12635,7 @@
       <c r="G135" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="I135" s="112"/>
+      <c r="I135" s="92"/>
       <c r="J135" s="40" t="s">
         <v>63</v>
       </c>
@@ -12441,23 +12796,23 @@
         <v>7.7770000000000006E-2</v>
       </c>
       <c r="C139" s="17">
-        <f t="shared" ref="C139:G139" si="13">C118*0.5</f>
+        <f t="shared" ref="C139:G139" si="14">C118*0.5</f>
         <v>7.7770000000000006E-2</v>
       </c>
       <c r="D139" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>7.7770000000000006E-2</v>
       </c>
       <c r="E139" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4.5106600000000011E-2</v>
       </c>
       <c r="F139" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4.5106600000000011E-2</v>
       </c>
       <c r="G139" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3.1885700000000003E-2</v>
       </c>
       <c r="I139" s="50" t="s">
@@ -12468,23 +12823,23 @@
         <v>5.8327500000000004E-2</v>
       </c>
       <c r="K139" s="17">
-        <f t="shared" ref="K139:O145" si="14">C139*0.75</f>
+        <f t="shared" ref="K139:O145" si="15">C139*0.75</f>
         <v>5.8327500000000004E-2</v>
       </c>
       <c r="L139" s="17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>5.8327500000000004E-2</v>
       </c>
       <c r="M139" s="17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3.3829950000000011E-2</v>
       </c>
       <c r="N139" s="17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3.3829950000000011E-2</v>
       </c>
       <c r="O139" s="17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.3914275000000002E-2</v>
       </c>
     </row>
@@ -12493,54 +12848,54 @@
         <v>14</v>
       </c>
       <c r="B140" s="17">
-        <f t="shared" ref="B140:G145" si="15">B119*0.5</f>
+        <f t="shared" ref="B140:G145" si="16">B119*0.5</f>
         <v>0.15290000000000004</v>
       </c>
       <c r="C140" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.15290000000000004</v>
       </c>
       <c r="D140" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.15290000000000004</v>
       </c>
       <c r="E140" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>8.8682000000000025E-2</v>
       </c>
       <c r="F140" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>8.8682000000000025E-2</v>
       </c>
       <c r="G140" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>6.2689000000000022E-2</v>
       </c>
       <c r="I140" s="50" t="s">
         <v>14</v>
       </c>
       <c r="J140" s="17">
-        <f t="shared" ref="J140:J145" si="16">B140*0.75</f>
+        <f t="shared" ref="J140:J145" si="17">B140*0.75</f>
         <v>0.11467500000000003</v>
       </c>
       <c r="K140" s="17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.11467500000000003</v>
       </c>
       <c r="L140" s="17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.11467500000000003</v>
       </c>
       <c r="M140" s="17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>6.6511500000000015E-2</v>
       </c>
       <c r="N140" s="17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>6.6511500000000015E-2</v>
       </c>
       <c r="O140" s="17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>4.7016750000000017E-2</v>
       </c>
     </row>
@@ -12549,54 +12904,54 @@
         <v>15</v>
       </c>
       <c r="B141" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.15598000000000004</v>
       </c>
       <c r="C141" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.15598000000000004</v>
       </c>
       <c r="D141" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.15598000000000004</v>
       </c>
       <c r="E141" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>9.0468400000000018E-2</v>
       </c>
       <c r="F141" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>9.0468400000000018E-2</v>
       </c>
       <c r="G141" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>6.3951800000000017E-2</v>
       </c>
       <c r="I141" s="50" t="s">
         <v>15</v>
       </c>
       <c r="J141" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.11698500000000003</v>
       </c>
       <c r="K141" s="17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.11698500000000003</v>
       </c>
       <c r="L141" s="17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.11698500000000003</v>
       </c>
       <c r="M141" s="17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>6.7851300000000017E-2</v>
       </c>
       <c r="N141" s="17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>6.7851300000000017E-2</v>
       </c>
       <c r="O141" s="17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>4.7963850000000016E-2</v>
       </c>
     </row>
@@ -12605,54 +12960,54 @@
         <v>18</v>
       </c>
       <c r="B142" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.11616000000000001</v>
       </c>
       <c r="C142" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.11616000000000001</v>
       </c>
       <c r="D142" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.11616000000000001</v>
       </c>
       <c r="E142" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>6.737280000000001E-2</v>
       </c>
       <c r="F142" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>6.737280000000001E-2</v>
       </c>
       <c r="G142" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>4.7625600000000004E-2</v>
       </c>
       <c r="I142" s="50" t="s">
         <v>18</v>
       </c>
       <c r="J142" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>8.7120000000000003E-2</v>
       </c>
       <c r="K142" s="17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>8.7120000000000003E-2</v>
       </c>
       <c r="L142" s="17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>8.7120000000000003E-2</v>
       </c>
       <c r="M142" s="17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>5.0529600000000008E-2</v>
       </c>
       <c r="N142" s="17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>5.0529600000000008E-2</v>
       </c>
       <c r="O142" s="17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3.5719200000000007E-2</v>
       </c>
     </row>
@@ -12661,54 +13016,54 @@
         <v>17</v>
       </c>
       <c r="B143" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>7.4140000000000011E-2</v>
       </c>
       <c r="C143" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>7.4140000000000011E-2</v>
       </c>
       <c r="D143" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>7.4140000000000011E-2</v>
       </c>
       <c r="E143" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>4.300120000000001E-2</v>
       </c>
       <c r="F143" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>4.300120000000001E-2</v>
       </c>
       <c r="G143" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3.0397400000000005E-2</v>
       </c>
       <c r="I143" s="50" t="s">
         <v>17</v>
       </c>
       <c r="J143" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>5.5605000000000009E-2</v>
       </c>
       <c r="K143" s="17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>5.5605000000000009E-2</v>
       </c>
       <c r="L143" s="17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>5.5605000000000009E-2</v>
       </c>
       <c r="M143" s="17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3.2250900000000006E-2</v>
       </c>
       <c r="N143" s="17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3.2250900000000006E-2</v>
       </c>
       <c r="O143" s="17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.2798050000000004E-2</v>
       </c>
     </row>
@@ -12717,54 +13072,54 @@
         <v>19</v>
       </c>
       <c r="B144" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2.9810000000000007E-2</v>
       </c>
       <c r="C144" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2.9810000000000007E-2</v>
       </c>
       <c r="D144" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2.9810000000000007E-2</v>
       </c>
       <c r="E144" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.7289800000000004E-2</v>
       </c>
       <c r="F144" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.7289800000000004E-2</v>
       </c>
       <c r="G144" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.2222100000000001E-2</v>
       </c>
       <c r="I144" s="50" t="s">
         <v>19</v>
       </c>
       <c r="J144" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2.2357500000000006E-2</v>
       </c>
       <c r="K144" s="17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.2357500000000006E-2</v>
       </c>
       <c r="L144" s="17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.2357500000000006E-2</v>
       </c>
       <c r="M144" s="17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.2967350000000002E-2</v>
       </c>
       <c r="N144" s="17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.2967350000000002E-2</v>
       </c>
       <c r="O144" s="17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>9.1665750000000015E-3</v>
       </c>
     </row>
@@ -12773,54 +13128,54 @@
         <v>20</v>
       </c>
       <c r="B145" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>9.6800000000000011E-3</v>
       </c>
       <c r="C145" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>9.6800000000000011E-3</v>
       </c>
       <c r="D145" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>9.6800000000000011E-3</v>
       </c>
       <c r="E145" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>5.6144000000000012E-3</v>
       </c>
       <c r="F145" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>5.6144000000000012E-3</v>
       </c>
       <c r="G145" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3.9688000000000006E-3</v>
       </c>
       <c r="I145" s="50" t="s">
         <v>20</v>
       </c>
       <c r="J145" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>7.2600000000000008E-3</v>
       </c>
       <c r="K145" s="17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>7.2600000000000008E-3</v>
       </c>
       <c r="L145" s="17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>7.2600000000000008E-3</v>
       </c>
       <c r="M145" s="17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>4.2108000000000007E-3</v>
       </c>
       <c r="N145" s="17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>4.2108000000000007E-3</v>
       </c>
       <c r="O145" s="17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.9766000000000003E-3</v>
       </c>
     </row>
@@ -13090,51 +13445,51 @@
     </row>
     <row r="152" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B152">
-        <f t="shared" ref="B152:G152" si="17">5*SUM(B136:B151)</f>
+        <f t="shared" ref="B152:G152" si="18">5*SUM(B136:B151)</f>
         <v>3.0822000000000003</v>
       </c>
       <c r="C152">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3.0822000000000003</v>
       </c>
       <c r="D152">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3.0822000000000003</v>
       </c>
       <c r="E152">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.7876760000000005</v>
       </c>
       <c r="F152">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.7876760000000005</v>
       </c>
       <c r="G152">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.2637020000000003</v>
       </c>
       <c r="J152">
-        <f t="shared" ref="J152:O152" si="18">5*SUM(J136:J151)</f>
+        <f t="shared" ref="J152:O152" si="19">5*SUM(J136:J151)</f>
         <v>2.3116500000000002</v>
       </c>
       <c r="K152">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2.3116500000000002</v>
       </c>
       <c r="L152">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2.3116500000000002</v>
       </c>
       <c r="M152">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.3407570000000004</v>
       </c>
       <c r="N152">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.3407570000000004</v>
       </c>
       <c r="O152">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.94777650000000035</v>
       </c>
     </row>
@@ -13220,38 +13575,38 @@
       <c r="W160" s="37"/>
     </row>
     <row r="161" spans="1:14" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="93" t="s">
+      <c r="A161" s="109" t="s">
         <v>91</v>
       </c>
-      <c r="B161" s="104" t="s">
-        <v>0</v>
-      </c>
-      <c r="C161" s="104"/>
-      <c r="D161" s="104"/>
-      <c r="E161" s="104" t="s">
+      <c r="B161" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="C161" s="111"/>
+      <c r="D161" s="111"/>
+      <c r="E161" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="F161" s="104"/>
-      <c r="G161" s="104"/>
+      <c r="F161" s="111"/>
+      <c r="G161" s="111"/>
     </row>
     <row r="162" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A162" s="93"/>
-      <c r="B162" s="64" t="s">
+      <c r="A162" s="109"/>
+      <c r="B162" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="C162" s="64" t="s">
+      <c r="C162" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="D162" s="64" t="s">
+      <c r="D162" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="E162" s="64" t="s">
+      <c r="E162" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="F162" s="64" t="s">
+      <c r="F162" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="G162" s="64" t="s">
+      <c r="G162" s="63" t="s">
         <v>5</v>
       </c>
     </row>
@@ -13259,34 +13614,34 @@
       <c r="A163" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B163" s="61">
+      <c r="B163" s="60">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="C163" s="61">
+      <c r="C163" s="60">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="D163" s="61">
+      <c r="D163" s="60">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="E163" s="61">
+      <c r="E163" s="60">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="F163" s="61">
+      <c r="F163" s="60">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="G163" s="61">
+      <c r="G163" s="60">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="J163">
-        <f t="shared" ref="J163:J178" si="19">B163*B54</f>
+        <f t="shared" ref="J163:J178" si="20">B163*B54</f>
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="K163">
-        <f t="shared" ref="K163:K178" si="20">C163*C54</f>
+        <f t="shared" ref="K163:K178" si="21">C163*C54</f>
         <v>0</v>
       </c>
       <c r="L163">
-        <f t="shared" ref="L163:L178" si="21">D163*D54</f>
+        <f t="shared" ref="L163:L178" si="22">D163*D54</f>
         <v>0</v>
       </c>
     </row>
@@ -13294,34 +13649,34 @@
       <c r="A164" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B164" s="61">
+      <c r="B164" s="60">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="C164" s="61">
+      <c r="C164" s="60">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="D164" s="61">
+      <c r="D164" s="60">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="E164" s="61">
+      <c r="E164" s="60">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="F164" s="61">
+      <c r="F164" s="60">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="G164" s="61">
+      <c r="G164" s="60">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="J164">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="K164">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="L164">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -13329,34 +13684,34 @@
       <c r="A165" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B165" s="62">
+      <c r="B165" s="61">
         <v>1.2E-2</v>
       </c>
-      <c r="C165" s="62">
+      <c r="C165" s="61">
         <v>0.12</v>
       </c>
-      <c r="D165" s="62">
+      <c r="D165" s="61">
         <v>1.2</v>
       </c>
-      <c r="E165" s="62">
+      <c r="E165" s="61">
         <v>1.2E-2</v>
       </c>
-      <c r="F165" s="62">
+      <c r="F165" s="61">
         <v>0.12</v>
       </c>
-      <c r="G165" s="62">
+      <c r="G165" s="61">
         <v>1.2</v>
       </c>
       <c r="J165">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.176E-2</v>
       </c>
       <c r="K165">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1.8E-3</v>
       </c>
       <c r="L165">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>6.0000000000000218E-3</v>
       </c>
       <c r="M165">
@@ -13372,42 +13727,42 @@
       <c r="A166" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B166" s="62">
+      <c r="B166" s="61">
         <v>0.82961309523809501</v>
       </c>
-      <c r="C166" s="62">
+      <c r="C166" s="61">
         <v>4.4693308550185904</v>
       </c>
-      <c r="D166" s="62">
+      <c r="D166" s="61">
         <v>12.1863636363636</v>
       </c>
-      <c r="E166" s="62">
+      <c r="E166" s="61">
         <v>0.82961309523809501</v>
       </c>
-      <c r="F166" s="62">
+      <c r="F166" s="61">
         <v>4.4693308550185904</v>
       </c>
-      <c r="G166" s="63">
+      <c r="G166" s="62">
         <v>12.1863636363636</v>
       </c>
       <c r="J166">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.4223484848484847</v>
       </c>
       <c r="K166">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1.8215909090909104</v>
       </c>
       <c r="L166">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.0155303030302998</v>
       </c>
       <c r="M166">
-        <f t="shared" ref="M166:M178" si="22">SUM(J166:L166)</f>
+        <f t="shared" ref="M166:M178" si="23">SUM(J166:L166)</f>
         <v>3.2594696969696946</v>
       </c>
       <c r="N166">
-        <f t="shared" ref="N166:N178" si="23">1/M166</f>
+        <f t="shared" ref="N166:N178" si="24">1/M166</f>
         <v>0.30679837303893109</v>
       </c>
     </row>
@@ -13415,42 +13770,42 @@
       <c r="A167" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B167" s="62">
+      <c r="B167" s="61">
         <v>0.87908011869436198</v>
       </c>
-      <c r="C167" s="62">
+      <c r="C167" s="61">
         <v>3.8212025316455702</v>
       </c>
-      <c r="D167" s="62">
+      <c r="D167" s="61">
         <v>13.4262295081967</v>
       </c>
-      <c r="E167" s="62">
+      <c r="E167" s="61">
         <v>0.87908011869436198</v>
       </c>
-      <c r="F167" s="62">
+      <c r="F167" s="61">
         <v>3.8212025316455702</v>
       </c>
-      <c r="G167" s="63">
+      <c r="G167" s="62">
         <v>13.4262295081967</v>
       </c>
       <c r="J167">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.41491596638655454</v>
       </c>
       <c r="K167">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1.6911764705882355</v>
       </c>
       <c r="L167">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.1470588235294099</v>
       </c>
       <c r="M167">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>3.2531512605041999</v>
       </c>
       <c r="N167">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.30739425250242186</v>
       </c>
     </row>
@@ -13458,42 +13813,42 @@
       <c r="A168" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B168" s="62">
+      <c r="B168" s="61">
         <v>0.77027027027026995</v>
       </c>
-      <c r="C168" s="62">
+      <c r="C168" s="61">
         <v>2.56424581005587</v>
       </c>
-      <c r="D168" s="62">
+      <c r="D168" s="61">
         <v>6.9705882352941204</v>
       </c>
-      <c r="E168" s="62">
+      <c r="E168" s="61">
         <v>0.77027027027026995</v>
       </c>
-      <c r="F168" s="62">
+      <c r="F168" s="61">
         <v>2.56424581005587</v>
       </c>
-      <c r="G168" s="63">
+      <c r="G168" s="62">
         <v>6.9705882352941204</v>
       </c>
       <c r="J168">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.39310344827586191</v>
       </c>
       <c r="K168">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1.0551724137931051</v>
       </c>
       <c r="L168">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.54482758620689675</v>
       </c>
       <c r="M168">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.9931034482758638</v>
       </c>
       <c r="N168">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.50173010380622796</v>
       </c>
     </row>
@@ -13501,42 +13856,42 @@
       <c r="A169" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B169" s="62">
+      <c r="B169" s="61">
         <v>0.77102803738317804</v>
       </c>
-      <c r="C169" s="62">
+      <c r="C169" s="61">
         <v>2.4793388429752099</v>
       </c>
-      <c r="D169" s="62">
+      <c r="D169" s="61">
         <v>5.8421052631579</v>
       </c>
-      <c r="E169" s="62">
+      <c r="E169" s="61">
         <v>0.77102803738317804</v>
       </c>
-      <c r="F169" s="62">
+      <c r="F169" s="61">
         <v>2.4793388429752099</v>
       </c>
-      <c r="G169" s="63">
+      <c r="G169" s="62">
         <v>5.8421052631579</v>
       </c>
       <c r="J169">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.46610169491525449</v>
       </c>
       <c r="K169">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.84745762711864525</v>
       </c>
       <c r="L169">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.31355932203389858</v>
       </c>
       <c r="M169">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.6271186440677983</v>
       </c>
       <c r="N169">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.6145833333333327</v>
       </c>
     </row>
@@ -13544,42 +13899,42 @@
       <c r="A170" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B170" s="62">
+      <c r="B170" s="61">
         <v>0.77927927927927898</v>
       </c>
-      <c r="C170" s="62">
+      <c r="C170" s="61">
         <v>2.4067796610169498</v>
       </c>
-      <c r="D170" s="62">
+      <c r="D170" s="61">
         <v>6.2222222222222197</v>
       </c>
-      <c r="E170" s="62">
+      <c r="E170" s="61">
         <v>0.77927927927927898</v>
       </c>
-      <c r="F170" s="62">
+      <c r="F170" s="61">
         <v>2.4067796610169498</v>
       </c>
-      <c r="G170" s="63">
+      <c r="G170" s="62">
         <v>6.2222222222222197</v>
       </c>
       <c r="J170">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.59655172413793078</v>
       </c>
       <c r="K170">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.48965517241379319</v>
       </c>
       <c r="L170">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.19310344827586198</v>
       </c>
       <c r="M170">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.279310344827586</v>
       </c>
       <c r="N170">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.78167115902964968</v>
       </c>
     </row>
@@ -13587,42 +13942,42 @@
       <c r="A171" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B171" s="62">
+      <c r="B171" s="61">
         <v>0.841880341880342</v>
       </c>
-      <c r="C171" s="62">
+      <c r="C171" s="61">
         <v>2.4166666666666701</v>
       </c>
-      <c r="D171" s="62">
+      <c r="D171" s="61">
         <v>7.75</v>
       </c>
-      <c r="E171" s="62">
+      <c r="E171" s="61">
         <v>0.841880341880342</v>
       </c>
-      <c r="F171" s="62">
+      <c r="F171" s="61">
         <v>2.4166666666666701</v>
       </c>
-      <c r="G171" s="63">
+      <c r="G171" s="62">
         <v>7.75</v>
       </c>
       <c r="J171">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.68881118881118886</v>
       </c>
       <c r="K171">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.40559440559440618</v>
       </c>
       <c r="L171">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.10839160839160839</v>
       </c>
       <c r="M171">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.2027972027972034</v>
       </c>
       <c r="N171">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.83139534883720889</v>
       </c>
     </row>
@@ -13630,42 +13985,42 @@
       <c r="A172" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B172" s="62">
+      <c r="B172" s="61">
         <v>0.71929824561403499</v>
       </c>
-      <c r="C172" s="62">
+      <c r="C172" s="61">
         <v>2.3250000000000002</v>
       </c>
-      <c r="D172" s="62">
+      <c r="D172" s="61">
         <v>1</v>
       </c>
-      <c r="E172" s="62">
+      <c r="E172" s="61">
         <v>0.71929824561403499</v>
       </c>
-      <c r="F172" s="62">
+      <c r="F172" s="61">
         <v>2.3250000000000002</v>
       </c>
-      <c r="G172" s="63">
+      <c r="G172" s="62">
         <v>1</v>
       </c>
       <c r="J172">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.61194029850746257</v>
       </c>
       <c r="K172">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.34468992537313536</v>
       </c>
       <c r="L172">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1E-3</v>
       </c>
       <c r="M172">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.95763022388059793</v>
       </c>
       <c r="N172">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1.0442444015057371</v>
       </c>
     </row>
@@ -13673,42 +14028,42 @@
       <c r="A173" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B173" s="62">
+      <c r="B173" s="61">
         <v>0.71929824561403499</v>
       </c>
-      <c r="C173" s="62">
+      <c r="C173" s="61">
         <v>2.3250000000000002</v>
       </c>
-      <c r="D173" s="62">
+      <c r="D173" s="61">
         <v>1</v>
       </c>
-      <c r="E173" s="62">
+      <c r="E173" s="61">
         <v>0.71929824561403499</v>
       </c>
-      <c r="F173" s="62">
+      <c r="F173" s="61">
         <v>2.3250000000000002</v>
       </c>
-      <c r="G173" s="63">
+      <c r="G173" s="62">
         <v>1</v>
       </c>
       <c r="J173">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.61194029850746257</v>
       </c>
       <c r="K173">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.34468992537313536</v>
       </c>
       <c r="L173">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1E-3</v>
       </c>
       <c r="M173">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.95763022388059793</v>
       </c>
       <c r="N173">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1.0442444015057371</v>
       </c>
     </row>
@@ -13716,42 +14071,42 @@
       <c r="A174" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B174" s="62">
+      <c r="B174" s="61">
         <v>0.71929824561403499</v>
       </c>
-      <c r="C174" s="62">
+      <c r="C174" s="61">
         <v>2.3250000000000002</v>
       </c>
-      <c r="D174" s="62">
+      <c r="D174" s="61">
         <v>1</v>
       </c>
-      <c r="E174" s="62">
+      <c r="E174" s="61">
         <v>0.71929824561403499</v>
       </c>
-      <c r="F174" s="62">
+      <c r="F174" s="61">
         <v>2.3250000000000002</v>
       </c>
-      <c r="G174" s="63">
+      <c r="G174" s="62">
         <v>1</v>
       </c>
       <c r="J174">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.61194029850746257</v>
       </c>
       <c r="K174">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.34468992537313536</v>
       </c>
       <c r="L174">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1E-3</v>
       </c>
       <c r="M174">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.95763022388059793</v>
       </c>
       <c r="N174">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1.0442444015057371</v>
       </c>
     </row>
@@ -13759,42 +14114,42 @@
       <c r="A175" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="B175" s="62">
+      <c r="B175" s="61">
         <v>0.71929824561403499</v>
       </c>
-      <c r="C175" s="62">
+      <c r="C175" s="61">
         <v>2.3250000000000002</v>
       </c>
-      <c r="D175" s="62">
+      <c r="D175" s="61">
         <v>1</v>
       </c>
-      <c r="E175" s="62">
+      <c r="E175" s="61">
         <v>0.71929824561403499</v>
       </c>
-      <c r="F175" s="62">
+      <c r="F175" s="61">
         <v>2.3250000000000002</v>
       </c>
-      <c r="G175" s="63">
+      <c r="G175" s="62">
         <v>1</v>
       </c>
       <c r="J175">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.61194029850746257</v>
       </c>
       <c r="K175">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.34468992537313536</v>
       </c>
       <c r="L175">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1E-3</v>
       </c>
       <c r="M175">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.95763022388059793</v>
       </c>
       <c r="N175">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1.0442444015057371</v>
       </c>
     </row>
@@ -13802,42 +14157,42 @@
       <c r="A176" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="B176" s="62">
+      <c r="B176" s="61">
         <v>0.71929824561403499</v>
       </c>
-      <c r="C176" s="62">
+      <c r="C176" s="61">
         <v>2.3250000000000002</v>
       </c>
-      <c r="D176" s="62">
+      <c r="D176" s="61">
         <v>1</v>
       </c>
-      <c r="E176" s="62">
+      <c r="E176" s="61">
         <v>0.71929824561403499</v>
       </c>
-      <c r="F176" s="62">
+      <c r="F176" s="61">
         <v>2.3250000000000002</v>
       </c>
-      <c r="G176" s="63">
+      <c r="G176" s="62">
         <v>1</v>
       </c>
       <c r="J176">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.61194029850746257</v>
       </c>
       <c r="K176">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.34468992537313536</v>
       </c>
       <c r="L176">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1E-3</v>
       </c>
       <c r="M176">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.95763022388059793</v>
       </c>
       <c r="N176">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1.0442444015057371</v>
       </c>
     </row>
@@ -13845,42 +14200,42 @@
       <c r="A177" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B177" s="62">
+      <c r="B177" s="61">
         <v>0.71929824561403499</v>
       </c>
-      <c r="C177" s="62">
+      <c r="C177" s="61">
         <v>2.3250000000000002</v>
       </c>
-      <c r="D177" s="62">
+      <c r="D177" s="61">
         <v>1</v>
       </c>
-      <c r="E177" s="62">
+      <c r="E177" s="61">
         <v>0.71929824561403499</v>
       </c>
-      <c r="F177" s="62">
+      <c r="F177" s="61">
         <v>2.3250000000000002</v>
       </c>
-      <c r="G177" s="63">
+      <c r="G177" s="62">
         <v>1</v>
       </c>
       <c r="J177">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.61194029850746257</v>
       </c>
       <c r="K177">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.34468992537313536</v>
       </c>
       <c r="L177">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1E-3</v>
       </c>
       <c r="M177">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.95763022388059793</v>
       </c>
       <c r="N177">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1.0442444015057371</v>
       </c>
     </row>
@@ -13888,22 +14243,22 @@
       <c r="A178" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B178" s="62">
+      <c r="B178" s="61">
         <v>0.71929824561403499</v>
       </c>
-      <c r="C178" s="62">
+      <c r="C178" s="61">
         <v>2.3250000000000002</v>
       </c>
-      <c r="D178" s="62">
+      <c r="D178" s="61">
         <v>1</v>
       </c>
-      <c r="E178" s="62">
+      <c r="E178" s="61">
         <v>0.71929824561403499</v>
       </c>
-      <c r="F178" s="62">
+      <c r="F178" s="61">
         <v>2.3250000000000002</v>
       </c>
-      <c r="G178" s="63">
+      <c r="G178" s="62">
         <v>1</v>
       </c>
       <c r="H178">
@@ -13911,23 +14266,23 @@
         <v>2.1889244186386922</v>
       </c>
       <c r="J178">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.61194029850746257</v>
       </c>
       <c r="K178">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.34468992537313536</v>
       </c>
       <c r="L178">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1E-3</v>
       </c>
       <c r="M178">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.95763022388059793</v>
       </c>
       <c r="N178">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1.0442444015057371</v>
       </c>
     </row>
@@ -14001,7 +14356,7 @@
       <c r="AB184" s="20"/>
     </row>
     <row r="185" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A185" s="68"/>
+      <c r="A185" s="67"/>
       <c r="B185" s="20"/>
       <c r="C185" s="20"/>
       <c r="D185" s="20"/>
@@ -14031,9 +14386,9 @@
       <c r="AB185" s="20"/>
     </row>
     <row r="186" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A186" s="105"/>
-      <c r="B186" s="105"/>
-      <c r="C186" s="105"/>
+      <c r="A186" s="112"/>
+      <c r="B186" s="112"/>
+      <c r="C186" s="112"/>
       <c r="D186" s="20"/>
       <c r="E186" s="20"/>
       <c r="F186" s="20"/>
@@ -14061,9 +14416,9 @@
       <c r="AB186" s="20"/>
     </row>
     <row r="187" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A187" s="69"/>
-      <c r="B187" s="70"/>
-      <c r="C187" s="70"/>
+      <c r="A187" s="68"/>
+      <c r="B187" s="69"/>
+      <c r="C187" s="69"/>
       <c r="D187" s="20"/>
       <c r="E187" s="20"/>
       <c r="F187" s="20"/>
@@ -14092,8 +14447,8 @@
     </row>
     <row r="188" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A188" s="6"/>
-      <c r="B188" s="67"/>
-      <c r="C188" s="67"/>
+      <c r="B188" s="66"/>
+      <c r="C188" s="66"/>
       <c r="D188" s="20"/>
       <c r="E188" s="20"/>
       <c r="F188" s="20"/>
@@ -14122,8 +14477,8 @@
     </row>
     <row r="189" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A189" s="6"/>
-      <c r="B189" s="67"/>
-      <c r="C189" s="67"/>
+      <c r="B189" s="66"/>
+      <c r="C189" s="66"/>
       <c r="D189" s="20"/>
       <c r="E189" s="20"/>
       <c r="F189" s="20"/>
@@ -14152,8 +14507,8 @@
     </row>
     <row r="190" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A190" s="6"/>
-      <c r="B190" s="67"/>
-      <c r="C190" s="67"/>
+      <c r="B190" s="66"/>
+      <c r="C190" s="66"/>
       <c r="D190" s="20"/>
       <c r="E190" s="20"/>
       <c r="F190" s="20"/>
@@ -14218,29 +14573,29 @@
       <c r="F198" s="101"/>
     </row>
     <row r="199" spans="1:23" s="39" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A199" s="106" t="s">
+      <c r="A199" s="113" t="s">
         <v>74</v>
       </c>
-      <c r="B199" s="106"/>
-      <c r="C199" s="106"/>
-      <c r="D199" s="106"/>
-      <c r="E199" s="106"/>
-      <c r="F199" s="106"/>
+      <c r="B199" s="113"/>
+      <c r="C199" s="113"/>
+      <c r="D199" s="113"/>
+      <c r="E199" s="113"/>
+      <c r="F199" s="113"/>
     </row>
     <row r="200" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A200" s="107" t="s">
+      <c r="A200" s="96" t="s">
         <v>46</v>
       </c>
       <c r="B200" s="43"/>
       <c r="C200" s="43"/>
-      <c r="D200" s="107" t="s">
+      <c r="D200" s="96" t="s">
         <v>51</v>
       </c>
-      <c r="E200" s="107"/>
-      <c r="F200" s="107"/>
+      <c r="E200" s="96"/>
+      <c r="F200" s="96"/>
     </row>
     <row r="201" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A201" s="107"/>
+      <c r="A201" s="96"/>
       <c r="B201" s="43"/>
       <c r="C201" s="44" t="s">
         <v>47</v>
@@ -14265,35 +14620,35 @@
       </c>
       <c r="B202" s="43"/>
       <c r="C202" s="43"/>
-      <c r="D202" s="65">
-        <v>0</v>
-      </c>
-      <c r="E202" s="65">
-        <v>0</v>
-      </c>
-      <c r="F202" s="65">
+      <c r="D202" s="64">
+        <v>0</v>
+      </c>
+      <c r="E202" s="64">
+        <v>0</v>
+      </c>
+      <c r="F202" s="64">
         <v>0</v>
       </c>
       <c r="H202">
-        <f t="shared" ref="H202:H217" si="24">D202*B54</f>
+        <f t="shared" ref="H202:H217" si="25">D202*B54</f>
         <v>0</v>
       </c>
       <c r="I202">
-        <f t="shared" ref="I202:I217" si="25">E202*C54</f>
+        <f t="shared" ref="I202:I217" si="26">E202*C54</f>
         <v>0</v>
       </c>
       <c r="J202">
-        <f t="shared" ref="J202:J217" si="26">F202*D54</f>
-        <v>0</v>
-      </c>
-      <c r="N202" s="74" t="s">
+        <f t="shared" ref="J202:J217" si="27">F202*D54</f>
+        <v>0</v>
+      </c>
+      <c r="N202" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="O202" s="100" t="s">
+      <c r="O202" s="108" t="s">
         <v>95</v>
       </c>
-      <c r="P202" s="100"/>
-      <c r="Q202" s="100"/>
+      <c r="P202" s="108"/>
+      <c r="Q202" s="108"/>
     </row>
     <row r="203" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A203" s="45" t="s">
@@ -14301,25 +14656,25 @@
       </c>
       <c r="B203" s="43"/>
       <c r="C203" s="43"/>
-      <c r="D203" s="65">
-        <v>0</v>
-      </c>
-      <c r="E203" s="65">
-        <v>0</v>
-      </c>
-      <c r="F203" s="65">
+      <c r="D203" s="64">
+        <v>0</v>
+      </c>
+      <c r="E203" s="64">
+        <v>0</v>
+      </c>
+      <c r="F203" s="64">
         <v>0</v>
       </c>
       <c r="H203">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="I203">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="J203">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="N203" s="45" t="s">
@@ -14343,25 +14698,25 @@
       <c r="C204" s="43">
         <v>0.05</v>
       </c>
-      <c r="D204" s="66">
+      <c r="D204" s="65">
         <v>3.12</v>
       </c>
-      <c r="E204" s="66">
+      <c r="E204" s="65">
         <v>1.8720000000000001</v>
       </c>
-      <c r="F204" s="66">
+      <c r="F204" s="65">
         <v>1.1232</v>
       </c>
       <c r="H204">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>3.0575999999999999</v>
       </c>
       <c r="I204">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>2.8080000000000001E-2</v>
       </c>
       <c r="J204">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>5.6160000000000203E-3</v>
       </c>
       <c r="K204">
@@ -14389,29 +14744,29 @@
       <c r="C205" s="43">
         <v>0.1</v>
       </c>
-      <c r="D205" s="66">
+      <c r="D205" s="65">
         <v>15.6</v>
       </c>
-      <c r="E205" s="66">
+      <c r="E205" s="65">
         <v>9.36</v>
       </c>
-      <c r="F205" s="66">
+      <c r="F205" s="65">
         <v>5.6159999999999997</v>
       </c>
       <c r="H205">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>7.9418181818181806</v>
       </c>
       <c r="I205">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>3.814909090909091</v>
       </c>
       <c r="J205">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.46799999999999986</v>
       </c>
       <c r="K205">
-        <f t="shared" ref="K205:K217" si="27">SUM(H205:J205)</f>
+        <f t="shared" ref="K205:K217" si="28">SUM(H205:J205)</f>
         <v>12.224727272727272</v>
       </c>
       <c r="N205" s="45" t="s">
@@ -14437,44 +14792,44 @@
       <c r="C206" s="43">
         <v>0.4</v>
       </c>
-      <c r="D206" s="65">
+      <c r="D206" s="64">
         <v>62.4</v>
       </c>
-      <c r="E206" s="65">
+      <c r="E206" s="64">
         <v>37.44</v>
       </c>
-      <c r="F206" s="65">
+      <c r="F206" s="64">
         <v>22.463999999999999</v>
       </c>
       <c r="H206">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>29.452100840336129</v>
       </c>
       <c r="I206">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>16.570084033613444</v>
       </c>
       <c r="J206">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1.9191932773109244</v>
       </c>
       <c r="K206">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>47.941378151260494</v>
       </c>
       <c r="N206" s="45" t="s">
         <v>33</v>
       </c>
       <c r="O206" s="9">
-        <f t="shared" ref="O206:O218" si="28">D205/D204</f>
+        <f t="shared" ref="O206:O218" si="29">D205/D204</f>
         <v>5</v>
       </c>
       <c r="P206" s="9">
-        <f t="shared" ref="P206:P218" si="29">E205/E204</f>
+        <f t="shared" ref="P206:P218" si="30">E205/E204</f>
         <v>4.9999999999999991</v>
       </c>
       <c r="Q206" s="9">
-        <f t="shared" ref="Q206:Q218" si="30">F205/F204</f>
+        <f t="shared" ref="Q206:Q218" si="31">F205/F204</f>
         <v>5</v>
       </c>
     </row>
@@ -14486,44 +14841,44 @@
         <v>5</v>
       </c>
       <c r="C207" s="47"/>
-      <c r="D207" s="66">
+      <c r="D207" s="65">
         <v>156</v>
       </c>
-      <c r="E207" s="66">
+      <c r="E207" s="65">
         <v>93.6</v>
       </c>
-      <c r="F207" s="66">
+      <c r="F207" s="65">
         <v>56.16</v>
       </c>
       <c r="H207">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>79.613793103448273</v>
       </c>
       <c r="I207">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>38.515862068965518</v>
       </c>
       <c r="J207">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>4.38951724137931</v>
       </c>
       <c r="K207">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>122.5191724137931</v>
       </c>
       <c r="N207" s="45" t="s">
         <v>34</v>
       </c>
       <c r="O207" s="9">
-        <f t="shared" si="28"/>
-        <v>4</v>
-      </c>
-      <c r="P207" s="9">
         <f t="shared" si="29"/>
         <v>4</v>
       </c>
+      <c r="P207" s="9">
+        <f t="shared" si="30"/>
+        <v>4</v>
+      </c>
       <c r="Q207" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>4</v>
       </c>
     </row>
@@ -14535,32 +14890,32 @@
         <v>10</v>
       </c>
       <c r="C208" s="43">
-        <f t="shared" ref="C208:C217" si="31">EXP(LN(0.5)*B207/10)</f>
+        <f t="shared" ref="C208:C217" si="32">EXP(LN(0.5)*B207/10)</f>
         <v>0.70710678118654757</v>
       </c>
-      <c r="D208" s="66">
+      <c r="D208" s="65">
         <v>110.308657865101</v>
       </c>
-      <c r="E208" s="66">
+      <c r="E208" s="65">
         <v>66.185194719060902</v>
       </c>
-      <c r="F208" s="66">
+      <c r="F208" s="65">
         <v>39.711116831436499</v>
       </c>
       <c r="H208">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>66.683764924100601</v>
       </c>
       <c r="I208">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>22.622623053690308</v>
       </c>
       <c r="J208">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>2.1313876265460268</v>
       </c>
       <c r="K208">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>91.437775604336935</v>
       </c>
       <c r="M208" s="39"/>
@@ -14568,15 +14923,15 @@
         <v>35</v>
       </c>
       <c r="O208" s="9">
-        <f t="shared" si="28"/>
-        <v>2.5</v>
-      </c>
-      <c r="P208" s="9">
         <f t="shared" si="29"/>
         <v>2.5</v>
       </c>
+      <c r="P208" s="9">
+        <f t="shared" si="30"/>
+        <v>2.5</v>
+      </c>
       <c r="Q208" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>2.5</v>
       </c>
     </row>
@@ -14588,47 +14943,47 @@
         <v>15</v>
       </c>
       <c r="C209" s="43">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0.5</v>
       </c>
-      <c r="D209" s="66">
+      <c r="D209" s="65">
         <v>78</v>
       </c>
-      <c r="E209" s="66">
+      <c r="E209" s="65">
         <v>46.8</v>
       </c>
-      <c r="F209" s="66">
+      <c r="F209" s="65">
         <v>28.08</v>
       </c>
       <c r="H209">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>59.710344827586205</v>
       </c>
       <c r="I209">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>9.5213793103448268</v>
       </c>
       <c r="J209">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.87144827586206886</v>
       </c>
       <c r="K209">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>70.103172413793089</v>
       </c>
       <c r="N209" s="45" t="s">
         <v>36</v>
       </c>
       <c r="O209" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.70710678118654491</v>
       </c>
       <c r="P209" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.70710678118654813</v>
       </c>
       <c r="Q209" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0.70710678118654735</v>
       </c>
     </row>
@@ -14640,47 +14995,47 @@
         <v>20</v>
       </c>
       <c r="C210" s="43">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0.35355339059327379</v>
       </c>
-      <c r="D210" s="66">
+      <c r="D210" s="65">
         <v>55.154328932550698</v>
       </c>
-      <c r="E210" s="66">
+      <c r="E210" s="65">
         <v>33.092597359530401</v>
       </c>
-      <c r="F210" s="66">
+      <c r="F210" s="65">
         <v>19.855558415718299</v>
       </c>
       <c r="H210">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>45.126269126632387</v>
       </c>
       <c r="I210">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>5.5540023540470607</v>
       </c>
       <c r="J210">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.27770011770235381</v>
       </c>
       <c r="K210">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>50.957971598381803</v>
       </c>
       <c r="N210" s="45" t="s">
         <v>37</v>
       </c>
       <c r="O210" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.70710678118655024</v>
       </c>
       <c r="P210" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.70710678118654691</v>
       </c>
       <c r="Q210" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0.70710678118654768</v>
       </c>
     </row>
@@ -14692,47 +15047,47 @@
         <v>25</v>
       </c>
       <c r="C211" s="43">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0.25</v>
       </c>
-      <c r="D211" s="66">
+      <c r="D211" s="65">
         <v>39</v>
       </c>
-      <c r="E211" s="66">
+      <c r="E211" s="65">
         <v>23.4</v>
       </c>
-      <c r="F211" s="66">
+      <c r="F211" s="65">
         <v>14.04</v>
       </c>
       <c r="H211">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>33.179104477611936</v>
       </c>
       <c r="I211">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>3.4691373134328458</v>
       </c>
       <c r="J211">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1.4039999999999999E-2</v>
       </c>
       <c r="K211">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>36.662281791044784</v>
       </c>
       <c r="N211" s="45" t="s">
         <v>38</v>
       </c>
       <c r="O211" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.70710678118654735</v>
       </c>
       <c r="P211" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.70710678118654713</v>
       </c>
       <c r="Q211" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0.70710678118654913</v>
       </c>
     </row>
@@ -14744,47 +15099,47 @@
         <v>30</v>
       </c>
       <c r="C212" s="43">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0.17677669529663689</v>
       </c>
-      <c r="D212" s="66">
+      <c r="D212" s="65">
         <v>27.577164466275399</v>
       </c>
-      <c r="E212" s="66">
+      <c r="E212" s="65">
         <v>16.546298679765201</v>
       </c>
-      <c r="F212" s="66">
+      <c r="F212" s="65">
         <v>9.92777920785913</v>
       </c>
       <c r="H212">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>23.461169769816379</v>
       </c>
       <c r="I212">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>2.4530505191956449</v>
       </c>
       <c r="J212">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>9.9277792078591304E-3</v>
       </c>
       <c r="K212">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>25.924148068219885</v>
       </c>
       <c r="N212" s="45" t="s">
         <v>39</v>
       </c>
       <c r="O212" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.70710678118654768</v>
       </c>
       <c r="P212" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.70710678118654802</v>
       </c>
       <c r="Q212" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0.70710678118654591</v>
       </c>
     </row>
@@ -14796,47 +15151,47 @@
         <v>35</v>
       </c>
       <c r="C213" s="43">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0.12500000000000003</v>
       </c>
-      <c r="D213" s="66">
+      <c r="D213" s="65">
         <v>19.5</v>
       </c>
-      <c r="E213" s="66">
+      <c r="E213" s="65">
         <v>11.7</v>
       </c>
-      <c r="F213" s="66">
+      <c r="F213" s="65">
         <v>7.02</v>
       </c>
       <c r="H213">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>16.589552238805968</v>
       </c>
       <c r="I213">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>1.7345686567164229</v>
       </c>
       <c r="J213">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>7.0199999999999993E-3</v>
       </c>
       <c r="K213">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>18.331140895522392</v>
       </c>
       <c r="N213" s="45" t="s">
         <v>40</v>
       </c>
       <c r="O213" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.70710678118654868</v>
       </c>
       <c r="P213" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.70710678118654713</v>
       </c>
       <c r="Q213" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0.70710678118654779</v>
       </c>
     </row>
@@ -14851,44 +15206,44 @@
         <f>EXP(LN(0.5)*B213/10)</f>
         <v>8.8388347648318447E-2</v>
       </c>
-      <c r="D214" s="66">
+      <c r="D214" s="65">
         <v>13.788582233137699</v>
       </c>
-      <c r="E214" s="66">
+      <c r="E214" s="65">
         <v>8.2731493398826093</v>
       </c>
-      <c r="F214" s="66">
+      <c r="F214" s="65">
         <v>4.9638896039295597</v>
       </c>
       <c r="H214">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>11.73058488490819</v>
       </c>
       <c r="I214">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>1.2265252595978238</v>
       </c>
       <c r="J214">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>4.96388960392956E-3</v>
       </c>
       <c r="K214">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>12.962074034109945</v>
       </c>
       <c r="N214" s="45" t="s">
         <v>41</v>
       </c>
       <c r="O214" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.70710678118654635</v>
       </c>
       <c r="P214" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.70710678118654802</v>
       </c>
       <c r="Q214" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0.70710678118654724</v>
       </c>
     </row>
@@ -14900,47 +15255,47 @@
         <v>45</v>
       </c>
       <c r="C215" s="43">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>6.25E-2</v>
       </c>
-      <c r="D215" s="66">
+      <c r="D215" s="65">
         <v>9.75</v>
       </c>
-      <c r="E215" s="66">
+      <c r="E215" s="65">
         <v>5.85</v>
       </c>
-      <c r="F215" s="66">
+      <c r="F215" s="65">
         <v>3.51</v>
       </c>
       <c r="H215">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>8.2947761194029841</v>
       </c>
       <c r="I215">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.86728432835821145</v>
       </c>
       <c r="J215">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>3.5099999999999997E-3</v>
       </c>
       <c r="K215">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>9.1655704477611959</v>
       </c>
       <c r="N215" s="45" t="s">
         <v>42</v>
       </c>
       <c r="O215" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.70710678118654868</v>
       </c>
       <c r="P215" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.70710678118654779</v>
       </c>
       <c r="Q215" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0.70710678118654702</v>
       </c>
     </row>
@@ -14952,47 +15307,47 @@
         <v>50</v>
       </c>
       <c r="C216" s="43">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>4.4194173824159223E-2</v>
       </c>
-      <c r="D216" s="66">
+      <c r="D216" s="65">
         <v>6.8942911165688399</v>
       </c>
-      <c r="E216" s="66">
+      <c r="E216" s="65">
         <v>4.1365746699413002</v>
       </c>
-      <c r="F216" s="66">
+      <c r="F216" s="65">
         <v>2.4819448019647798</v>
       </c>
       <c r="H216">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>5.8652924424540869</v>
       </c>
       <c r="I216">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.61326262979891122</v>
       </c>
       <c r="J216">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>2.48194480196478E-3</v>
       </c>
       <c r="K216">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>6.4810370170549634</v>
       </c>
       <c r="N216" s="45" t="s">
         <v>43</v>
       </c>
       <c r="O216" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.70710678118654635</v>
       </c>
       <c r="P216" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.70710678118654724</v>
       </c>
       <c r="Q216" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0.70710678118654802</v>
       </c>
     </row>
@@ -15004,47 +15359,47 @@
         <v>55</v>
       </c>
       <c r="C217" s="43">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>3.125E-2</v>
       </c>
-      <c r="D217" s="66">
+      <c r="D217" s="65">
         <v>4.875</v>
       </c>
-      <c r="E217" s="66">
+      <c r="E217" s="65">
         <v>2.9249999999999998</v>
       </c>
-      <c r="F217" s="66">
+      <c r="F217" s="65">
         <v>1.7549999999999999</v>
       </c>
       <c r="H217">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>4.147388059701492</v>
       </c>
       <c r="I217">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.43364216417910573</v>
       </c>
       <c r="J217">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1.7549999999999998E-3</v>
       </c>
       <c r="K217">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4.5827852238805979</v>
       </c>
       <c r="N217" s="45" t="s">
         <v>44</v>
       </c>
       <c r="O217" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.70710678118654768</v>
       </c>
       <c r="P217" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.70710678118654713</v>
       </c>
       <c r="Q217" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0.70710678118654702</v>
       </c>
     </row>
@@ -15067,42 +15422,42 @@
         <v>45</v>
       </c>
       <c r="O218" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.70710678118654735</v>
       </c>
       <c r="P218" s="9">
-        <f t="shared" si="29"/>
-        <v>0.70710678118654802</v>
-      </c>
-      <c r="Q218" s="9">
         <f t="shared" si="30"/>
         <v>0.70710678118654802</v>
       </c>
+      <c r="Q218" s="9">
+        <f t="shared" si="31"/>
+        <v>0.70710678118654802</v>
+      </c>
     </row>
     <row r="219" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A219" s="116" t="s">
+      <c r="A219" s="97" t="s">
         <v>75</v>
       </c>
-      <c r="B219" s="116"/>
-      <c r="C219" s="116"/>
-      <c r="D219" s="116"/>
-      <c r="E219" s="116"/>
-      <c r="F219" s="116"/>
+      <c r="B219" s="97"/>
+      <c r="C219" s="97"/>
+      <c r="D219" s="97"/>
+      <c r="E219" s="97"/>
+      <c r="F219" s="97"/>
     </row>
     <row r="220" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A220" s="103" t="s">
+      <c r="A220" s="110" t="s">
         <v>2</v>
       </c>
       <c r="B220" s="43"/>
       <c r="C220" s="43"/>
-      <c r="D220" s="107" t="s">
+      <c r="D220" s="96" t="s">
         <v>51</v>
       </c>
-      <c r="E220" s="107"/>
-      <c r="F220" s="107"/>
+      <c r="E220" s="96"/>
+      <c r="F220" s="96"/>
     </row>
     <row r="221" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A221" s="103"/>
+      <c r="A221" s="110"/>
       <c r="B221" s="43"/>
       <c r="C221" s="44" t="s">
         <v>47</v>
@@ -15123,23 +15478,23 @@
       </c>
       <c r="B222" s="43"/>
       <c r="C222" s="43"/>
-      <c r="D222" s="65">
-        <v>0</v>
-      </c>
-      <c r="E222" s="65">
-        <v>0</v>
-      </c>
-      <c r="F222" s="65">
-        <v>0</v>
-      </c>
-      <c r="N222" s="74" t="s">
+      <c r="D222" s="64">
+        <v>0</v>
+      </c>
+      <c r="E222" s="64">
+        <v>0</v>
+      </c>
+      <c r="F222" s="64">
+        <v>0</v>
+      </c>
+      <c r="N222" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="O222" s="100" t="s">
+      <c r="O222" s="108" t="s">
         <v>94</v>
       </c>
-      <c r="P222" s="100"/>
-      <c r="Q222" s="100"/>
+      <c r="P222" s="108"/>
+      <c r="Q222" s="108"/>
     </row>
     <row r="223" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A223" s="45" t="s">
@@ -15147,13 +15502,13 @@
       </c>
       <c r="B223" s="43"/>
       <c r="C223" s="43"/>
-      <c r="D223" s="65">
-        <v>0</v>
-      </c>
-      <c r="E223" s="65">
-        <v>0</v>
-      </c>
-      <c r="F223" s="65">
+      <c r="D223" s="64">
+        <v>0</v>
+      </c>
+      <c r="E223" s="64">
+        <v>0</v>
+      </c>
+      <c r="F223" s="64">
         <v>0</v>
       </c>
       <c r="N223" s="45" t="s">
@@ -15177,13 +15532,13 @@
       <c r="C224" s="43">
         <v>0.05</v>
       </c>
-      <c r="D224" s="65">
+      <c r="D224" s="64">
         <v>7.8</v>
       </c>
-      <c r="E224" s="65">
+      <c r="E224" s="64">
         <v>4.68</v>
       </c>
-      <c r="F224" s="65">
+      <c r="F224" s="64">
         <v>2.8079999999999998</v>
       </c>
       <c r="N224" s="45" t="s">
@@ -15207,13 +15562,13 @@
       <c r="C225" s="43">
         <v>0.1</v>
       </c>
-      <c r="D225" s="66">
+      <c r="D225" s="65">
         <v>18.72</v>
       </c>
-      <c r="E225" s="66">
+      <c r="E225" s="65">
         <v>11.231999999999999</v>
       </c>
-      <c r="F225" s="66">
+      <c r="F225" s="65">
         <v>6.7392000000000003</v>
       </c>
       <c r="N225" s="45" t="s">
@@ -15239,28 +15594,28 @@
       <c r="C226" s="43">
         <v>0.4</v>
       </c>
-      <c r="D226" s="65">
+      <c r="D226" s="64">
         <v>74.88</v>
       </c>
-      <c r="E226" s="65">
+      <c r="E226" s="64">
         <v>44.927999999999997</v>
       </c>
-      <c r="F226" s="65">
+      <c r="F226" s="64">
         <v>26.956800000000001</v>
       </c>
       <c r="N226" s="45" t="s">
         <v>33</v>
       </c>
       <c r="O226" s="9">
-        <f t="shared" ref="O226:O238" si="32">D225/D224</f>
+        <f t="shared" ref="O226:O238" si="33">D225/D224</f>
         <v>2.4</v>
       </c>
       <c r="P226" s="9">
-        <f t="shared" ref="P226:P238" si="33">E225/E224</f>
+        <f t="shared" ref="P226:P238" si="34">E225/E224</f>
         <v>2.4</v>
       </c>
       <c r="Q226" s="9">
-        <f t="shared" ref="Q226:Q238" si="34">F225/F224</f>
+        <f t="shared" ref="Q226:Q238" si="35">F225/F224</f>
         <v>2.4000000000000004</v>
       </c>
     </row>
@@ -15272,28 +15627,28 @@
         <v>5</v>
       </c>
       <c r="C227" s="47"/>
-      <c r="D227" s="65">
+      <c r="D227" s="64">
         <v>140.4</v>
       </c>
-      <c r="E227" s="65">
+      <c r="E227" s="64">
         <v>84.24</v>
       </c>
-      <c r="F227" s="65">
+      <c r="F227" s="64">
         <v>50.543999999999997</v>
       </c>
       <c r="N227" s="45" t="s">
         <v>34</v>
       </c>
       <c r="O227" s="9">
-        <f t="shared" si="32"/>
-        <v>4</v>
-      </c>
-      <c r="P227" s="9">
         <f t="shared" si="33"/>
         <v>4</v>
       </c>
+      <c r="P227" s="9">
+        <f t="shared" si="34"/>
+        <v>4</v>
+      </c>
       <c r="Q227" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>4</v>
       </c>
     </row>
@@ -15305,31 +15660,31 @@
         <v>10</v>
       </c>
       <c r="C228" s="43">
-        <f t="shared" ref="C228:C237" si="35">EXP(LN(0.5)*B227/10)</f>
+        <f t="shared" ref="C228:C237" si="36">EXP(LN(0.5)*B227/10)</f>
         <v>0.70710678118654757</v>
       </c>
-      <c r="D228" s="65">
+      <c r="D228" s="64">
         <v>99.277792078591304</v>
       </c>
-      <c r="E228" s="65">
+      <c r="E228" s="64">
         <v>59.566675247154798</v>
       </c>
-      <c r="F228" s="65">
+      <c r="F228" s="64">
         <v>35.740005148292902</v>
       </c>
       <c r="N228" s="45" t="s">
         <v>35</v>
       </c>
       <c r="O228" s="9">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1.8750000000000002</v>
       </c>
       <c r="P228" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1.875</v>
       </c>
       <c r="Q228" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1.8749999999999998</v>
       </c>
     </row>
@@ -15341,31 +15696,31 @@
         <v>15</v>
       </c>
       <c r="C229" s="43">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.5</v>
       </c>
-      <c r="D229" s="65">
+      <c r="D229" s="64">
         <v>70.2</v>
       </c>
-      <c r="E229" s="65">
+      <c r="E229" s="64">
         <v>42.12</v>
       </c>
-      <c r="F229" s="65">
+      <c r="F229" s="64">
         <v>25.271999999999998</v>
       </c>
       <c r="N229" s="45" t="s">
         <v>36</v>
       </c>
       <c r="O229" s="9">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.70710678118654768</v>
       </c>
       <c r="P229" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.70710678118654802</v>
       </c>
       <c r="Q229" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.70710678118654846</v>
       </c>
     </row>
@@ -15377,31 +15732,31 @@
         <v>20</v>
       </c>
       <c r="C230" s="43">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.35355339059327379</v>
       </c>
-      <c r="D230" s="65">
+      <c r="D230" s="64">
         <v>49.638896039295602</v>
       </c>
-      <c r="E230" s="65">
+      <c r="E230" s="64">
         <v>29.783337623577399</v>
       </c>
-      <c r="F230" s="65">
+      <c r="F230" s="64">
         <v>17.870002574146401</v>
       </c>
       <c r="N230" s="45" t="s">
         <v>37</v>
       </c>
       <c r="O230" s="9">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.70710678118654735</v>
       </c>
       <c r="P230" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.70710678118654702</v>
       </c>
       <c r="Q230" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.70710678118654657</v>
       </c>
     </row>
@@ -15413,31 +15768,31 @@
         <v>25</v>
       </c>
       <c r="C231" s="43">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.25</v>
       </c>
-      <c r="D231" s="65">
+      <c r="D231" s="64">
         <v>35.1</v>
       </c>
-      <c r="E231" s="65">
+      <c r="E231" s="64">
         <v>21.06</v>
       </c>
-      <c r="F231" s="65">
+      <c r="F231" s="64">
         <v>12.635999999999999</v>
       </c>
       <c r="N231" s="45" t="s">
         <v>38</v>
       </c>
       <c r="O231" s="9">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.70710678118654702</v>
       </c>
       <c r="P231" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.70710678118654802</v>
       </c>
       <c r="Q231" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.70710678118654646</v>
       </c>
     </row>
@@ -15449,31 +15804,31 @@
         <v>30</v>
       </c>
       <c r="C232" s="43">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.17677669529663689</v>
       </c>
-      <c r="D232" s="65">
+      <c r="D232" s="64">
         <v>27.577164466275399</v>
       </c>
-      <c r="E232" s="65">
+      <c r="E232" s="64">
         <v>16.546298679765201</v>
       </c>
-      <c r="F232" s="65">
+      <c r="F232" s="64">
         <v>9.92777920785913</v>
       </c>
       <c r="N232" s="45" t="s">
         <v>39</v>
       </c>
       <c r="O232" s="9">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.70710678118654802</v>
       </c>
       <c r="P232" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.70710678118654702</v>
       </c>
       <c r="Q232" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.70710678118654857</v>
       </c>
     </row>
@@ -15485,31 +15840,31 @@
         <v>35</v>
       </c>
       <c r="C233" s="43">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.12500000000000003</v>
       </c>
-      <c r="D233" s="65">
+      <c r="D233" s="64">
         <v>19.5</v>
       </c>
-      <c r="E233" s="65">
+      <c r="E233" s="64">
         <v>11.7</v>
       </c>
-      <c r="F233" s="65">
+      <c r="F233" s="64">
         <v>7.02</v>
       </c>
       <c r="N233" s="45" t="s">
         <v>40</v>
       </c>
       <c r="O233" s="9">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.78567420131838739</v>
       </c>
       <c r="P233" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.78567420131838561</v>
       </c>
       <c r="Q233" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.78567420131838639</v>
       </c>
     </row>
@@ -15521,31 +15876,31 @@
         <v>40</v>
       </c>
       <c r="C234" s="43">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>8.8388347648318447E-2</v>
       </c>
-      <c r="D234" s="65">
+      <c r="D234" s="64">
         <v>13.788582233137699</v>
       </c>
-      <c r="E234" s="65">
+      <c r="E234" s="64">
         <v>8.2731493398826093</v>
       </c>
-      <c r="F234" s="65">
+      <c r="F234" s="64">
         <v>4.9638896039295597</v>
       </c>
       <c r="N234" s="45" t="s">
         <v>41</v>
       </c>
       <c r="O234" s="9">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.70710678118654635</v>
       </c>
       <c r="P234" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.70710678118654802</v>
       </c>
       <c r="Q234" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.70710678118654724</v>
       </c>
     </row>
@@ -15557,31 +15912,31 @@
         <v>45</v>
       </c>
       <c r="C235" s="43">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>6.25E-2</v>
       </c>
-      <c r="D235" s="65">
+      <c r="D235" s="64">
         <v>9.75</v>
       </c>
-      <c r="E235" s="65">
+      <c r="E235" s="64">
         <v>5.85</v>
       </c>
-      <c r="F235" s="65">
+      <c r="F235" s="64">
         <v>3.51</v>
       </c>
       <c r="N235" s="45" t="s">
         <v>42</v>
       </c>
       <c r="O235" s="9">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.70710678118654868</v>
       </c>
       <c r="P235" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.70710678118654779</v>
       </c>
       <c r="Q235" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.70710678118654702</v>
       </c>
     </row>
@@ -15596,28 +15951,28 @@
         <f>EXP(LN(0.5)*B235/10)</f>
         <v>4.4194173824159223E-2</v>
       </c>
-      <c r="D236" s="65">
+      <c r="D236" s="64">
         <v>6.8942911165688399</v>
       </c>
-      <c r="E236" s="65">
+      <c r="E236" s="64">
         <v>4.1365746699413002</v>
       </c>
-      <c r="F236" s="65">
+      <c r="F236" s="64">
         <v>2.4819448019647798</v>
       </c>
       <c r="N236" s="45" t="s">
         <v>43</v>
       </c>
       <c r="O236" s="9">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.70710678118654635</v>
       </c>
       <c r="P236" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.70710678118654724</v>
       </c>
       <c r="Q236" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.70710678118654802</v>
       </c>
     </row>
@@ -15629,31 +15984,31 @@
         <v>55</v>
       </c>
       <c r="C237" s="43">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>3.125E-2</v>
       </c>
-      <c r="D237" s="65">
+      <c r="D237" s="64">
         <v>4.875</v>
       </c>
-      <c r="E237" s="65">
+      <c r="E237" s="64">
         <v>2.9249999999999998</v>
       </c>
-      <c r="F237" s="65">
+      <c r="F237" s="64">
         <v>1.7549999999999999</v>
       </c>
       <c r="N237" s="45" t="s">
         <v>44</v>
       </c>
       <c r="O237" s="9">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.70710678118654768</v>
       </c>
       <c r="P237" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.70710678118654713</v>
       </c>
       <c r="Q237" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.70710678118654702</v>
       </c>
     </row>
@@ -15668,46 +16023,46 @@
         <v>45</v>
       </c>
       <c r="O238" s="9">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.70710678118654735</v>
       </c>
       <c r="P238" s="9">
-        <f t="shared" si="33"/>
-        <v>0.70710678118654802</v>
-      </c>
-      <c r="Q238" s="9">
         <f t="shared" si="34"/>
         <v>0.70710678118654802</v>
       </c>
+      <c r="Q238" s="9">
+        <f t="shared" si="35"/>
+        <v>0.70710678118654802</v>
+      </c>
     </row>
     <row r="239" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A239" s="72"/>
+      <c r="A239" s="71"/>
       <c r="B239" s="20"/>
       <c r="C239" s="20"/>
       <c r="D239" s="20"/>
-      <c r="E239" s="73"/>
+      <c r="E239" s="72"/>
       <c r="F239" s="35"/>
     </row>
     <row r="240" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A240" s="69"/>
-      <c r="B240" s="70"/>
-      <c r="C240" s="70"/>
-      <c r="D240" s="70"/>
-      <c r="E240" s="73"/>
+      <c r="A240" s="68"/>
+      <c r="B240" s="69"/>
+      <c r="C240" s="69"/>
+      <c r="D240" s="69"/>
+      <c r="E240" s="72"/>
       <c r="F240" s="35"/>
     </row>
     <row r="241" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A241" s="6"/>
-      <c r="B241" s="67"/>
-      <c r="C241" s="67"/>
-      <c r="D241" s="67"/>
+      <c r="B241" s="66"/>
+      <c r="C241" s="66"/>
+      <c r="D241" s="66"/>
       <c r="E241" s="25"/>
     </row>
     <row r="242" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A242" s="6"/>
-      <c r="B242" s="67"/>
-      <c r="C242" s="67"/>
-      <c r="D242" s="67"/>
+      <c r="B242" s="66"/>
+      <c r="C242" s="66"/>
+      <c r="D242" s="66"/>
       <c r="E242" s="25"/>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
@@ -15733,6 +16088,27 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="AA87:AA88"/>
+    <mergeCell ref="N81:N83"/>
+    <mergeCell ref="B81:L82"/>
+    <mergeCell ref="AA81:AI81"/>
+    <mergeCell ref="AB82:AI82"/>
+    <mergeCell ref="AB87:AI87"/>
+    <mergeCell ref="O81:Y82"/>
+    <mergeCell ref="AA82:AA83"/>
+    <mergeCell ref="O222:Q222"/>
+    <mergeCell ref="O202:Q202"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="A161:A162"/>
+    <mergeCell ref="A220:A221"/>
+    <mergeCell ref="B161:D161"/>
+    <mergeCell ref="E161:G161"/>
+    <mergeCell ref="A186:C186"/>
+    <mergeCell ref="A198:F198"/>
+    <mergeCell ref="A199:F199"/>
+    <mergeCell ref="D200:F200"/>
+    <mergeCell ref="D220:F220"/>
+    <mergeCell ref="A111:Q111"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="I133:I135"/>
     <mergeCell ref="J133:O133"/>
@@ -15749,27 +16125,6 @@
     <mergeCell ref="E52:G52"/>
     <mergeCell ref="A81:A83"/>
     <mergeCell ref="I115:N115"/>
-    <mergeCell ref="O222:Q222"/>
-    <mergeCell ref="O202:Q202"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="A161:A162"/>
-    <mergeCell ref="A220:A221"/>
-    <mergeCell ref="B161:D161"/>
-    <mergeCell ref="E161:G161"/>
-    <mergeCell ref="A186:C186"/>
-    <mergeCell ref="A198:F198"/>
-    <mergeCell ref="A199:F199"/>
-    <mergeCell ref="D200:F200"/>
-    <mergeCell ref="D220:F220"/>
-    <mergeCell ref="A111:Q111"/>
-    <mergeCell ref="V87:AC87"/>
-    <mergeCell ref="U87:U88"/>
-    <mergeCell ref="B81:I82"/>
-    <mergeCell ref="U82:U83"/>
-    <mergeCell ref="K81:K83"/>
-    <mergeCell ref="U81:AC81"/>
-    <mergeCell ref="L81:S82"/>
-    <mergeCell ref="V82:AC82"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Config/Population_data.xlsx
+++ b/Config/Population_data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" tabRatio="607"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2625" windowHeight="2385" tabRatio="607"/>
   </bookViews>
   <sheets>
     <sheet name="Demographics" sheetId="1" r:id="rId1"/>
@@ -345,9 +345,6 @@
     <t>Statistical Release P0302 2019 Mid-year population estimates Table 5.3</t>
   </si>
   <si>
-    <t xml:space="preserve">UN World Population Prospects 2019, File MORT/17-2: Abridged life tables, for males/females, 1950-2100. </t>
-  </si>
-  <si>
     <t>Male Background Mortality</t>
   </si>
   <si>
@@ -471,9 +468,6 @@
     <t>1970-1975</t>
   </si>
   <si>
-    <t>Used values from 1950-1990 before the widespread HIV epidemic</t>
-  </si>
-  <si>
     <t>Initial Fertility Rate (per year) from Nick and Monisha</t>
   </si>
   <si>
@@ -499,6 +493,12 @@
       </rPr>
       <t xml:space="preserve"> Calculate backward-projected KZN population. Assume that KZN:SA proportion was decreasing from 1925-2002 according to same trend as from 2002-2019. Assume male and female populations by age follow exponential distributions. See Population_validation Excel document for more detail.</t>
     </r>
+  </si>
+  <si>
+    <t>UN World Population Prospects 2019, File MORT/17-2: Abridged life tables, for males/females, 1950-2100; GHDx GBD Results Tool</t>
+  </si>
+  <si>
+    <t>Used UN values from 1950-1990 before the widespread HIV epidemic. Used the GHDx GBD Results Tool to subtract HIV-specific mortality from all-cause mortality after 1990. Smoothed over the trough in the 1990s and made the decline in under 5 mortality a little less severe. Extrapolated the trend between 2000 and 2017 to 2020.</t>
   </si>
 </sst>
 </file>
@@ -1618,93 +1618,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="28" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="28" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1727,17 +1640,104 @@
     <xf numFmtId="11" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="48">
@@ -8221,8 +8221,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AI245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M79" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="W103" sqref="W103"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L103" sqref="L103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8266,7 +8266,7 @@
   <sheetData>
     <row r="1" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B1" s="37"/>
       <c r="C1" s="37"/>
@@ -8294,16 +8294,16 @@
       <c r="Y1" s="37"/>
     </row>
     <row r="2" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="117" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
+      <c r="B2" s="117"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117"/>
       <c r="I2" s="37"/>
       <c r="J2" s="37"/>
       <c r="K2" s="37"/>
@@ -8355,14 +8355,14 @@
       <c r="A4" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="101" t="s">
+      <c r="B4" s="109" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="102"/>
-      <c r="D4" s="101" t="s">
+      <c r="C4" s="110"/>
+      <c r="D4" s="109" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="102"/>
+      <c r="E4" s="110"/>
     </row>
     <row r="5" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
@@ -8790,10 +8790,10 @@
       <c r="A27" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="101" t="s">
+      <c r="B27" s="109" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="102"/>
+      <c r="C27" s="110"/>
     </row>
     <row r="28" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
@@ -9139,7 +9139,7 @@
     </row>
     <row r="50" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="36" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B50" s="37"/>
       <c r="C50" s="37"/>
@@ -9208,19 +9208,19 @@
       <c r="AE51" s="24"/>
     </row>
     <row r="52" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="103" t="s">
+      <c r="A52" s="128" t="s">
         <v>2</v>
       </c>
-      <c r="B52" s="103" t="s">
+      <c r="B52" s="128" t="s">
         <v>56</v>
       </c>
-      <c r="C52" s="103"/>
-      <c r="D52" s="103"/>
-      <c r="E52" s="103" t="s">
+      <c r="C52" s="128"/>
+      <c r="D52" s="128"/>
+      <c r="E52" s="128" t="s">
         <v>57</v>
       </c>
-      <c r="F52" s="103"/>
-      <c r="G52" s="103"/>
+      <c r="F52" s="128"/>
+      <c r="G52" s="128"/>
       <c r="X52" s="22"/>
       <c r="Y52" s="22"/>
       <c r="Z52" s="22"/>
@@ -9231,7 +9231,7 @@
       <c r="AE52" s="22"/>
     </row>
     <row r="53" spans="1:31" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="103"/>
+      <c r="A53" s="128"/>
       <c r="B53" s="33" t="s">
         <v>3</v>
       </c>
@@ -9710,7 +9710,7 @@
     </row>
     <row r="79" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="38" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="B79" s="37"/>
       <c r="C79" s="37"/>
@@ -9738,7 +9738,7 @@
     </row>
     <row r="80" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="36" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B80" s="37"/>
       <c r="C80" s="37"/>
@@ -9765,182 +9765,182 @@
       <c r="X80" s="37"/>
     </row>
     <row r="81" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="104" t="s">
+      <c r="A81" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="B81" s="109" t="s">
+      <c r="B81" s="104" t="s">
+        <v>80</v>
+      </c>
+      <c r="C81" s="104"/>
+      <c r="D81" s="104"/>
+      <c r="E81" s="104"/>
+      <c r="F81" s="104"/>
+      <c r="G81" s="104"/>
+      <c r="H81" s="104"/>
+      <c r="I81" s="104"/>
+      <c r="J81" s="104"/>
+      <c r="K81" s="104"/>
+      <c r="L81" s="104"/>
+      <c r="N81" s="101" t="s">
+        <v>2</v>
+      </c>
+      <c r="O81" s="104" t="s">
         <v>81</v>
       </c>
-      <c r="C81" s="109"/>
-      <c r="D81" s="109"/>
-      <c r="E81" s="109"/>
-      <c r="F81" s="109"/>
-      <c r="G81" s="109"/>
-      <c r="H81" s="109"/>
-      <c r="I81" s="109"/>
-      <c r="J81" s="109"/>
-      <c r="K81" s="109"/>
-      <c r="L81" s="109"/>
-      <c r="N81" s="104" t="s">
+      <c r="P81" s="104"/>
+      <c r="Q81" s="104"/>
+      <c r="R81" s="104"/>
+      <c r="S81" s="104"/>
+      <c r="T81" s="104"/>
+      <c r="U81" s="104"/>
+      <c r="V81" s="104"/>
+      <c r="W81" s="104"/>
+      <c r="X81" s="104"/>
+      <c r="Y81" s="104"/>
+      <c r="AA81" s="105" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB81" s="106"/>
+      <c r="AC81" s="106"/>
+      <c r="AD81" s="106"/>
+      <c r="AE81" s="106"/>
+      <c r="AF81" s="106"/>
+      <c r="AG81" s="106"/>
+      <c r="AH81" s="106"/>
+      <c r="AI81" s="107"/>
+    </row>
+    <row r="82" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="102"/>
+      <c r="B82" s="104"/>
+      <c r="C82" s="104"/>
+      <c r="D82" s="104"/>
+      <c r="E82" s="104"/>
+      <c r="F82" s="104"/>
+      <c r="G82" s="104"/>
+      <c r="H82" s="104"/>
+      <c r="I82" s="104"/>
+      <c r="J82" s="104"/>
+      <c r="K82" s="104"/>
+      <c r="L82" s="104"/>
+      <c r="N82" s="102"/>
+      <c r="O82" s="104"/>
+      <c r="P82" s="104"/>
+      <c r="Q82" s="104"/>
+      <c r="R82" s="104"/>
+      <c r="S82" s="104"/>
+      <c r="T82" s="104"/>
+      <c r="U82" s="104"/>
+      <c r="V82" s="104"/>
+      <c r="W82" s="104"/>
+      <c r="X82" s="104"/>
+      <c r="Y82" s="104"/>
+      <c r="AA82" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="O81" s="109" t="s">
-        <v>82</v>
-      </c>
-      <c r="P81" s="109"/>
-      <c r="Q81" s="109"/>
-      <c r="R81" s="109"/>
-      <c r="S81" s="109"/>
-      <c r="T81" s="109"/>
-      <c r="U81" s="109"/>
-      <c r="V81" s="109"/>
-      <c r="W81" s="109"/>
-      <c r="X81" s="109"/>
-      <c r="Y81" s="109"/>
-      <c r="AA81" s="115" t="s">
-        <v>83</v>
-      </c>
-      <c r="AB81" s="116"/>
-      <c r="AC81" s="116"/>
-      <c r="AD81" s="116"/>
-      <c r="AE81" s="116"/>
-      <c r="AF81" s="116"/>
-      <c r="AG81" s="116"/>
-      <c r="AH81" s="116"/>
-      <c r="AI81" s="117"/>
-    </row>
-    <row r="82" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="105"/>
-      <c r="B82" s="109"/>
-      <c r="C82" s="109"/>
-      <c r="D82" s="109"/>
-      <c r="E82" s="109"/>
-      <c r="F82" s="109"/>
-      <c r="G82" s="109"/>
-      <c r="H82" s="109"/>
-      <c r="I82" s="109"/>
-      <c r="J82" s="109"/>
-      <c r="K82" s="109"/>
-      <c r="L82" s="109"/>
-      <c r="N82" s="105"/>
-      <c r="O82" s="109"/>
-      <c r="P82" s="109"/>
-      <c r="Q82" s="109"/>
-      <c r="R82" s="109"/>
-      <c r="S82" s="109"/>
-      <c r="T82" s="109"/>
-      <c r="U82" s="109"/>
-      <c r="V82" s="109"/>
-      <c r="W82" s="109"/>
-      <c r="X82" s="109"/>
-      <c r="Y82" s="109"/>
-      <c r="AA82" s="126" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB82" s="115" t="s">
+      <c r="AB82" s="105" t="s">
         <v>74</v>
       </c>
-      <c r="AC82" s="116"/>
-      <c r="AD82" s="116"/>
-      <c r="AE82" s="116"/>
-      <c r="AF82" s="116"/>
-      <c r="AG82" s="116"/>
-      <c r="AH82" s="116"/>
-      <c r="AI82" s="117"/>
+      <c r="AC82" s="106"/>
+      <c r="AD82" s="106"/>
+      <c r="AE82" s="106"/>
+      <c r="AF82" s="106"/>
+      <c r="AG82" s="106"/>
+      <c r="AH82" s="106"/>
+      <c r="AI82" s="107"/>
     </row>
     <row r="83" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="106"/>
+      <c r="A83" s="103"/>
       <c r="B83" s="76" t="s">
+        <v>95</v>
+      </c>
+      <c r="C83" s="76" t="s">
         <v>96</v>
       </c>
-      <c r="C83" s="76" t="s">
+      <c r="D83" s="76" t="s">
         <v>97</v>
       </c>
-      <c r="D83" s="76" t="s">
+      <c r="E83" s="76" t="s">
         <v>98</v>
       </c>
-      <c r="E83" s="76" t="s">
+      <c r="F83" s="77" t="s">
+        <v>102</v>
+      </c>
+      <c r="G83" s="76" t="s">
         <v>99</v>
       </c>
-      <c r="F83" s="77" t="s">
-        <v>103</v>
-      </c>
-      <c r="G83" s="76" t="s">
+      <c r="H83" s="76" t="s">
+        <v>101</v>
+      </c>
+      <c r="I83" s="76" t="s">
         <v>100</v>
       </c>
-      <c r="H83" s="76" t="s">
+      <c r="J83" s="93">
+        <v>2000</v>
+      </c>
+      <c r="K83" s="94">
+        <v>2017</v>
+      </c>
+      <c r="L83" s="89">
+        <v>2020</v>
+      </c>
+      <c r="N83" s="103"/>
+      <c r="O83" s="76" t="s">
+        <v>95</v>
+      </c>
+      <c r="P83" s="76" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q83" s="76" t="s">
+        <v>97</v>
+      </c>
+      <c r="R83" s="76" t="s">
+        <v>98</v>
+      </c>
+      <c r="S83" s="77" t="s">
         <v>102</v>
       </c>
-      <c r="I83" s="76" t="s">
+      <c r="T83" s="76" t="s">
+        <v>99</v>
+      </c>
+      <c r="U83" s="76" t="s">
         <v>101</v>
       </c>
-      <c r="J83" s="122">
+      <c r="V83" s="76" t="s">
+        <v>100</v>
+      </c>
+      <c r="W83" s="93">
         <v>2000</v>
       </c>
-      <c r="K83" s="123">
+      <c r="X83" s="94">
         <v>2017</v>
       </c>
-      <c r="L83" s="118">
+      <c r="Y83" s="89">
         <v>2020</v>
       </c>
-      <c r="N83" s="106"/>
-      <c r="O83" s="76" t="s">
+      <c r="AA83" s="100"/>
+      <c r="AB83" s="76" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC83" s="76" t="s">
         <v>96</v>
       </c>
-      <c r="P83" s="76" t="s">
+      <c r="AD83" s="76" t="s">
         <v>97</v>
       </c>
-      <c r="Q83" s="76" t="s">
+      <c r="AE83" s="76" t="s">
         <v>98</v>
       </c>
-      <c r="R83" s="76" t="s">
+      <c r="AF83" s="77" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG83" s="76" t="s">
         <v>99</v>
       </c>
-      <c r="S83" s="77" t="s">
-        <v>103</v>
-      </c>
-      <c r="T83" s="76" t="s">
+      <c r="AH83" s="76" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI83" s="76" t="s">
         <v>100</v>
-      </c>
-      <c r="U83" s="76" t="s">
-        <v>102</v>
-      </c>
-      <c r="V83" s="76" t="s">
-        <v>101</v>
-      </c>
-      <c r="W83" s="122">
-        <v>2000</v>
-      </c>
-      <c r="X83" s="123">
-        <v>2017</v>
-      </c>
-      <c r="Y83" s="118">
-        <v>2020</v>
-      </c>
-      <c r="AA83" s="127"/>
-      <c r="AB83" s="76" t="s">
-        <v>96</v>
-      </c>
-      <c r="AC83" s="76" t="s">
-        <v>97</v>
-      </c>
-      <c r="AD83" s="76" t="s">
-        <v>98</v>
-      </c>
-      <c r="AE83" s="76" t="s">
-        <v>99</v>
-      </c>
-      <c r="AF83" s="77" t="s">
-        <v>103</v>
-      </c>
-      <c r="AG83" s="76" t="s">
-        <v>100</v>
-      </c>
-      <c r="AH83" s="76" t="s">
-        <v>102</v>
-      </c>
-      <c r="AI83" s="76" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="84" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
@@ -9948,44 +9948,44 @@
         <v>6</v>
       </c>
       <c r="B84" s="79">
-        <f>SUM(AB84:AB85)</f>
+        <f t="shared" ref="B84:I84" si="7">SUM(AB84:AB85)</f>
         <v>0.19005920400000001</v>
       </c>
       <c r="C84" s="78">
-        <f>SUM(AC84:AC85)</f>
+        <f t="shared" si="7"/>
         <v>0.16702423499999999</v>
       </c>
       <c r="D84" s="78">
-        <f>SUM(AD84:AD85)</f>
+        <f t="shared" si="7"/>
         <v>0.15232399099999999</v>
       </c>
       <c r="E84" s="78">
-        <f>SUM(AE84:AE85)</f>
+        <f t="shared" si="7"/>
         <v>0.137224824</v>
       </c>
       <c r="F84" s="78">
-        <f>SUM(AF84:AF85)</f>
+        <f t="shared" si="7"/>
         <v>0.115676261</v>
       </c>
       <c r="G84" s="78">
-        <f>SUM(AG84:AG85)</f>
+        <f t="shared" si="7"/>
         <v>9.0002309699999991E-2</v>
       </c>
       <c r="H84" s="78">
-        <f>SUM(AH84:AH85)</f>
+        <f t="shared" si="7"/>
         <v>7.0407469099999995E-2</v>
       </c>
-      <c r="I84" s="119">
-        <f>SUM(AI84:AI85)</f>
+      <c r="I84" s="90">
+        <f t="shared" si="7"/>
         <v>5.6975585300000006E-2</v>
       </c>
-      <c r="J84" s="128">
+      <c r="J84" s="97">
         <v>1.2464773E-2</v>
       </c>
-      <c r="K84" s="124">
+      <c r="K84" s="95">
         <v>5.892614E-3</v>
       </c>
-      <c r="L84" s="121">
+      <c r="L84" s="92">
         <f>K84+($L$83-$K$83)*M84</f>
         <v>4.7328212352941174E-3</v>
       </c>
@@ -9997,44 +9997,44 @@
         <v>6</v>
       </c>
       <c r="O84" s="79">
-        <f>SUM(AB89:AB90)</f>
+        <f t="shared" ref="O84:V84" si="8">SUM(AB89:AB90)</f>
         <v>0.16283755500000002</v>
       </c>
       <c r="P84" s="78">
-        <f>SUM(AC89:AC90)</f>
+        <f t="shared" si="8"/>
         <v>0.143554814</v>
       </c>
       <c r="Q84" s="78">
-        <f>SUM(AD89:AD90)</f>
+        <f t="shared" si="8"/>
         <v>0.131042716</v>
       </c>
       <c r="R84" s="78">
-        <f>SUM(AE89:AE90)</f>
+        <f t="shared" si="8"/>
         <v>0.11815073600000001</v>
       </c>
       <c r="S84" s="78">
-        <f>SUM(AF89:AF90)</f>
+        <f t="shared" si="8"/>
         <v>9.9835274000000002E-2</v>
       </c>
       <c r="T84" s="78">
-        <f>SUM(AG89:AG90)</f>
+        <f t="shared" si="8"/>
         <v>7.7719069000000002E-2</v>
       </c>
       <c r="U84" s="78">
-        <f>SUM(AH89:AH90)</f>
+        <f t="shared" si="8"/>
         <v>5.96665085E-2</v>
       </c>
-      <c r="V84" s="119">
-        <f>SUM(AI89:AI90)</f>
+      <c r="V84" s="90">
+        <f t="shared" si="8"/>
         <v>4.7441704699999997E-2</v>
       </c>
-      <c r="W84" s="128">
+      <c r="W84" s="97">
         <v>1.0375972000000001E-2</v>
       </c>
-      <c r="X84" s="124">
+      <c r="X84" s="95">
         <v>4.9718649999999998E-3</v>
       </c>
-      <c r="Y84" s="121">
+      <c r="Y84" s="92">
         <f>X84+($Y$83-$X$83)*Z84</f>
         <v>4.0181990588235295E-3</v>
       </c>
@@ -10095,21 +10095,21 @@
       <c r="H85" s="81">
         <v>3.0634688E-3</v>
       </c>
-      <c r="I85" s="120">
+      <c r="I85" s="91">
         <v>2.4750038999999998E-3</v>
       </c>
-      <c r="J85" s="128">
+      <c r="J85" s="97">
         <v>1.2523619999999999E-3</v>
       </c>
-      <c r="K85" s="125">
+      <c r="K85" s="96">
         <v>4.3800000000000002E-4</v>
       </c>
-      <c r="L85" s="121">
-        <f t="shared" ref="L85:L99" si="7">K85+($L$83-$K$83)*M85</f>
+      <c r="L85" s="92">
+        <f t="shared" ref="L85:L99" si="9">K85+($L$83-$K$83)*M85</f>
         <v>2.9428905882352948E-4</v>
       </c>
       <c r="M85">
-        <f t="shared" ref="M85:M99" si="8">(K85-J85)/($K$83-$J$83)</f>
+        <f t="shared" ref="M85:M99" si="10">(K85-J85)/($K$83-$J$83)</f>
         <v>-4.7903647058823526E-5</v>
       </c>
       <c r="N85" s="88" t="s">
@@ -10136,25 +10136,25 @@
       <c r="U85" s="81">
         <v>2.3506893000000001E-3</v>
       </c>
-      <c r="V85" s="120">
+      <c r="V85" s="91">
         <v>1.8590649E-3</v>
       </c>
-      <c r="W85" s="129">
+      <c r="W85" s="98">
         <v>9.1699999999999995E-4</v>
       </c>
-      <c r="X85" s="125">
+      <c r="X85" s="96">
         <v>3.0899999999999998E-4</v>
       </c>
-      <c r="Y85" s="121">
-        <f t="shared" ref="Y85:Y99" si="9">X85+($Y$83-$X$83)*Z85</f>
+      <c r="Y85" s="92">
+        <f t="shared" ref="Y85:Y99" si="11">X85+($Y$83-$X$83)*Z85</f>
         <v>2.0170588235294114E-4</v>
       </c>
       <c r="Z85">
-        <f t="shared" ref="Z85:Z99" si="10">(X85-W85)/($X$83-$W$83)</f>
+        <f t="shared" ref="Z85:Z99" si="12">(X85-W85)/($X$83-$W$83)</f>
         <v>-3.5764705882352941E-5</v>
       </c>
       <c r="AA85" s="83" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AB85" s="81">
         <v>3.0801934E-2</v>
@@ -10206,21 +10206,21 @@
       <c r="H86" s="81">
         <v>1.9361118E-3</v>
       </c>
-      <c r="I86" s="120">
+      <c r="I86" s="91">
         <v>1.5814690000000001E-3</v>
       </c>
-      <c r="J86" s="129">
+      <c r="J86" s="98">
         <v>9.77E-4</v>
       </c>
-      <c r="K86" s="125">
+      <c r="K86" s="96">
         <v>2.7099999999999997E-4</v>
       </c>
-      <c r="L86" s="121">
-        <f t="shared" si="7"/>
+      <c r="L86" s="92">
+        <f t="shared" si="9"/>
         <v>1.4641176470588232E-4</v>
       </c>
       <c r="M86">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-4.1529411764705884E-5</v>
       </c>
       <c r="N86" s="88" t="s">
@@ -10247,21 +10247,21 @@
       <c r="U86" s="81">
         <v>1.5421367E-3</v>
       </c>
-      <c r="V86" s="120">
+      <c r="V86" s="91">
         <v>1.2227608999999999E-3</v>
       </c>
-      <c r="W86" s="129">
+      <c r="W86" s="98">
         <v>7.4100000000000001E-4</v>
       </c>
-      <c r="X86" s="125">
+      <c r="X86" s="96">
         <v>1.65E-4</v>
       </c>
-      <c r="Y86" s="121">
-        <f t="shared" si="9"/>
+      <c r="Y86" s="92">
+        <f t="shared" si="11"/>
         <v>6.335294117647058E-5</v>
       </c>
       <c r="Z86">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-3.3882352941176473E-5</v>
       </c>
       <c r="AA86" s="35"/>
@@ -10299,21 +10299,21 @@
       <c r="H87" s="81">
         <v>2.9596564999999999E-3</v>
       </c>
-      <c r="I87" s="120">
+      <c r="I87" s="91">
         <v>2.5001934000000001E-3</v>
       </c>
-      <c r="J87" s="128">
+      <c r="J87" s="97">
         <v>2.1267130000000001E-3</v>
       </c>
-      <c r="K87" s="125">
+      <c r="K87" s="96">
         <v>6.4599999999999998E-4</v>
       </c>
-      <c r="L87" s="121">
-        <f t="shared" si="7"/>
+      <c r="L87" s="92">
+        <f t="shared" si="9"/>
         <v>3.8469770588235287E-4</v>
       </c>
       <c r="M87">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-8.7100764705882374E-5</v>
       </c>
       <c r="N87" s="88" t="s">
@@ -10340,36 +10340,36 @@
       <c r="U87" s="81">
         <v>2.0807315999999999E-3</v>
       </c>
-      <c r="V87" s="120">
+      <c r="V87" s="91">
         <v>1.6750273E-3</v>
       </c>
-      <c r="W87" s="128">
+      <c r="W87" s="97">
         <v>1.469932E-3</v>
       </c>
-      <c r="X87" s="125">
+      <c r="X87" s="96">
         <v>3.9800000000000002E-4</v>
       </c>
-      <c r="Y87" s="121">
-        <f t="shared" si="9"/>
+      <c r="Y87" s="92">
+        <f t="shared" si="11"/>
         <v>2.0883552941176474E-4</v>
       </c>
       <c r="Z87">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-6.3054823529411761E-5</v>
       </c>
-      <c r="AA87" s="126" t="s">
+      <c r="AA87" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="AB87" s="115" t="s">
+      <c r="AB87" s="105" t="s">
         <v>75</v>
       </c>
-      <c r="AC87" s="116"/>
-      <c r="AD87" s="116"/>
-      <c r="AE87" s="116"/>
-      <c r="AF87" s="116"/>
-      <c r="AG87" s="116"/>
-      <c r="AH87" s="116"/>
-      <c r="AI87" s="117"/>
+      <c r="AC87" s="106"/>
+      <c r="AD87" s="106"/>
+      <c r="AE87" s="106"/>
+      <c r="AF87" s="106"/>
+      <c r="AG87" s="106"/>
+      <c r="AH87" s="106"/>
+      <c r="AI87" s="107"/>
     </row>
     <row r="88" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="74" t="s">
@@ -10396,21 +10396,21 @@
       <c r="H88" s="81">
         <v>4.4258235999999999E-3</v>
       </c>
-      <c r="I88" s="120">
+      <c r="I88" s="91">
         <v>3.7640993E-3</v>
       </c>
-      <c r="J88" s="128">
+      <c r="J88" s="97">
         <v>3.647225E-3</v>
       </c>
-      <c r="K88" s="124">
+      <c r="K88" s="95">
         <v>2.068032E-3</v>
       </c>
-      <c r="L88" s="121">
-        <f t="shared" si="7"/>
+      <c r="L88" s="92">
+        <f t="shared" si="9"/>
         <v>1.7893508823529412E-3</v>
       </c>
       <c r="M88">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-9.2893705882352942E-5</v>
       </c>
       <c r="N88" s="88" t="s">
@@ -10437,47 +10437,47 @@
       <c r="U88" s="81">
         <v>2.9634518E-3</v>
       </c>
-      <c r="V88" s="120">
+      <c r="V88" s="91">
         <v>2.3815536E-3</v>
       </c>
-      <c r="W88" s="128">
+      <c r="W88" s="97">
         <v>3.4466029999999999E-3</v>
       </c>
-      <c r="X88" s="124">
+      <c r="X88" s="95">
         <v>1.022128E-3</v>
       </c>
-      <c r="Y88" s="121">
-        <f t="shared" si="9"/>
+      <c r="Y88" s="92">
+        <f t="shared" si="11"/>
         <v>5.9427947058823534E-4</v>
       </c>
       <c r="Z88">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-1.4261617647058823E-4</v>
       </c>
-      <c r="AA88" s="127"/>
+      <c r="AA88" s="100"/>
       <c r="AB88" s="76" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC88" s="76" t="s">
         <v>96</v>
       </c>
-      <c r="AC88" s="76" t="s">
+      <c r="AD88" s="76" t="s">
         <v>97</v>
       </c>
-      <c r="AD88" s="76" t="s">
+      <c r="AE88" s="76" t="s">
         <v>98</v>
       </c>
-      <c r="AE88" s="76" t="s">
+      <c r="AF88" s="77" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG88" s="76" t="s">
         <v>99</v>
       </c>
-      <c r="AF88" s="77" t="s">
-        <v>103</v>
-      </c>
-      <c r="AG88" s="76" t="s">
+      <c r="AH88" s="76" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI88" s="76" t="s">
         <v>100</v>
-      </c>
-      <c r="AH88" s="76" t="s">
-        <v>102</v>
-      </c>
-      <c r="AI88" s="76" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="89" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
@@ -10505,21 +10505,21 @@
       <c r="H89" s="81">
         <v>5.1091371999999998E-3</v>
       </c>
-      <c r="I89" s="120">
+      <c r="I89" s="91">
         <v>4.3315932999999996E-3</v>
       </c>
-      <c r="J89" s="128">
+      <c r="J89" s="97">
         <v>5.7620409999999999E-3</v>
       </c>
-      <c r="K89" s="124">
+      <c r="K89" s="95">
         <v>2.644057E-3</v>
       </c>
-      <c r="L89" s="121">
-        <f t="shared" si="7"/>
+      <c r="L89" s="92">
+        <f t="shared" si="9"/>
         <v>2.0938245294117646E-3</v>
       </c>
       <c r="M89">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-1.8341082352941175E-4</v>
       </c>
       <c r="N89" s="88" t="s">
@@ -10546,21 +10546,21 @@
       <c r="U89" s="81">
         <v>3.9385823E-3</v>
       </c>
-      <c r="V89" s="120">
+      <c r="V89" s="91">
         <v>3.1198295999999999E-3</v>
       </c>
-      <c r="W89" s="128">
+      <c r="W89" s="97">
         <v>5.689525E-3</v>
       </c>
-      <c r="X89" s="124">
+      <c r="X89" s="95">
         <v>1.4837839999999999E-3</v>
       </c>
-      <c r="Y89" s="121">
-        <f t="shared" si="9"/>
+      <c r="Y89" s="92">
+        <f t="shared" si="11"/>
         <v>7.4159441176470582E-4</v>
       </c>
       <c r="Z89">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-2.4739652941176469E-4</v>
       </c>
       <c r="AA89" s="80">
@@ -10616,21 +10616,21 @@
       <c r="H90" s="81">
         <v>6.0814568000000001E-3</v>
       </c>
-      <c r="I90" s="120">
+      <c r="I90" s="91">
         <v>5.1669517000000002E-3</v>
       </c>
-      <c r="J90" s="128">
+      <c r="J90" s="97">
         <v>8.5842190000000006E-3</v>
       </c>
-      <c r="K90" s="124">
+      <c r="K90" s="95">
         <v>3.4039669999999999E-3</v>
       </c>
-      <c r="L90" s="121">
-        <f t="shared" si="7"/>
+      <c r="L90" s="92">
+        <f t="shared" si="9"/>
         <v>2.4898048823529411E-3</v>
       </c>
       <c r="M90">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-3.0472070588235297E-4</v>
       </c>
       <c r="N90" s="88" t="s">
@@ -10657,25 +10657,25 @@
       <c r="U90" s="81">
         <v>4.7939851999999998E-3</v>
       </c>
-      <c r="V90" s="120">
+      <c r="V90" s="91">
         <v>3.7817176000000002E-3</v>
       </c>
-      <c r="W90" s="128">
+      <c r="W90" s="97">
         <v>6.367841E-3</v>
       </c>
-      <c r="X90" s="124">
+      <c r="X90" s="95">
         <v>1.8290649999999999E-3</v>
       </c>
-      <c r="Y90" s="121">
-        <f t="shared" si="9"/>
+      <c r="Y90" s="92">
+        <f t="shared" si="11"/>
         <v>1.0281045294117646E-3</v>
       </c>
       <c r="Z90">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-2.6698682352941175E-4</v>
       </c>
       <c r="AA90" s="83" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AB90" s="81">
         <v>2.7320634999999999E-2</v>
@@ -10727,21 +10727,21 @@
       <c r="H91" s="81">
         <v>7.5515045999999999E-3</v>
       </c>
-      <c r="I91" s="120">
+      <c r="I91" s="91">
         <v>6.4414638999999996E-3</v>
       </c>
-      <c r="J91" s="128">
+      <c r="J91" s="97">
         <v>1.0363597E-2</v>
       </c>
-      <c r="K91" s="124">
+      <c r="K91" s="95">
         <v>3.9863540000000001E-3</v>
       </c>
-      <c r="L91" s="121">
-        <f t="shared" si="7"/>
+      <c r="L91" s="92">
+        <f t="shared" si="9"/>
         <v>2.8609581764705884E-3</v>
       </c>
       <c r="M91">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-3.7513194117647059E-4</v>
       </c>
       <c r="N91" s="88" t="s">
@@ -10768,21 +10768,21 @@
       <c r="U91" s="81">
         <v>5.8713664000000004E-3</v>
       </c>
-      <c r="V91" s="120">
+      <c r="V91" s="91">
         <v>4.6448573999999998E-3</v>
       </c>
-      <c r="W91" s="128">
+      <c r="W91" s="97">
         <v>6.1407370000000003E-3</v>
       </c>
-      <c r="X91" s="124">
+      <c r="X91" s="95">
         <v>1.8174109999999999E-3</v>
       </c>
-      <c r="Y91" s="121">
-        <f t="shared" si="9"/>
+      <c r="Y91" s="92">
+        <f t="shared" si="11"/>
         <v>1.0544711176470585E-3</v>
       </c>
       <c r="Z91">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-2.5431329411764711E-4</v>
       </c>
     </row>
@@ -10811,21 +10811,21 @@
       <c r="H92" s="81">
         <v>9.3492987999999992E-3</v>
       </c>
-      <c r="I92" s="120">
+      <c r="I92" s="91">
         <v>8.0432449999999992E-3</v>
       </c>
-      <c r="J92" s="128">
+      <c r="J92" s="97">
         <v>1.1498424E-2</v>
       </c>
-      <c r="K92" s="124">
+      <c r="K92" s="95">
         <v>4.6618329999999998E-3</v>
       </c>
-      <c r="L92" s="121">
-        <f t="shared" si="7"/>
+      <c r="L92" s="92">
+        <f t="shared" si="9"/>
         <v>3.4553757647058821E-3</v>
       </c>
       <c r="M92">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-4.021524117647059E-4</v>
       </c>
       <c r="N92" s="88" t="s">
@@ -10852,21 +10852,21 @@
       <c r="U92" s="81">
         <v>7.0247197000000003E-3</v>
       </c>
-      <c r="V92" s="120">
+      <c r="V92" s="91">
         <v>5.6773359000000002E-3</v>
       </c>
-      <c r="W92" s="128">
+      <c r="W92" s="97">
         <v>5.9637040000000002E-3</v>
       </c>
-      <c r="X92" s="124">
+      <c r="X92" s="95">
         <v>2.1249369999999999E-3</v>
       </c>
-      <c r="Y92" s="121">
-        <f t="shared" si="9"/>
+      <c r="Y92" s="92">
+        <f t="shared" si="11"/>
         <v>1.4475075294117646E-3</v>
       </c>
       <c r="Z92">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-2.2580982352941178E-4</v>
       </c>
     </row>
@@ -10895,21 +10895,21 @@
       <c r="H93" s="81">
         <v>1.1624491000000001E-2</v>
       </c>
-      <c r="I93" s="120">
+      <c r="I93" s="91">
         <v>1.0135829000000001E-2</v>
       </c>
-      <c r="J93" s="128">
+      <c r="J93" s="97">
         <v>1.4937591E-2</v>
       </c>
-      <c r="K93" s="124">
+      <c r="K93" s="95">
         <v>6.616434E-3</v>
       </c>
-      <c r="L93" s="121">
-        <f t="shared" si="7"/>
+      <c r="L93" s="92">
+        <f t="shared" si="9"/>
         <v>5.1479945294117648E-3</v>
       </c>
       <c r="M93">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-4.8947982352941168E-4</v>
       </c>
       <c r="N93" s="88" t="s">
@@ -10936,21 +10936,21 @@
       <c r="U93" s="81">
         <v>8.1201847999999993E-3</v>
       </c>
-      <c r="V93" s="120">
+      <c r="V93" s="91">
         <v>6.6691631000000001E-3</v>
       </c>
-      <c r="W93" s="128">
+      <c r="W93" s="97">
         <v>6.78533E-3</v>
       </c>
-      <c r="X93" s="124">
+      <c r="X93" s="95">
         <v>3.1711669999999999E-3</v>
       </c>
-      <c r="Y93" s="121">
-        <f t="shared" si="9"/>
+      <c r="Y93" s="92">
+        <f t="shared" si="11"/>
         <v>2.5333735294117646E-3</v>
       </c>
       <c r="Z93">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-2.1259782352941176E-4</v>
       </c>
     </row>
@@ -10979,21 +10979,21 @@
       <c r="H94" s="81">
         <v>1.5751589999999999E-2</v>
       </c>
-      <c r="I94" s="120">
+      <c r="I94" s="91">
         <v>1.4004198000000001E-2</v>
       </c>
-      <c r="J94" s="128">
+      <c r="J94" s="97">
         <v>2.0927292E-2</v>
       </c>
-      <c r="K94" s="124">
+      <c r="K94" s="95">
         <v>1.0831970999999999E-2</v>
       </c>
-      <c r="L94" s="121">
-        <f t="shared" si="7"/>
+      <c r="L94" s="92">
+        <f t="shared" si="9"/>
         <v>9.050443764705882E-3</v>
       </c>
       <c r="M94">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-5.9384241176470591E-4</v>
       </c>
       <c r="N94" s="88" t="s">
@@ -11020,21 +11020,21 @@
       <c r="U94" s="81">
         <v>1.0674833E-2</v>
       </c>
-      <c r="V94" s="120">
+      <c r="V94" s="91">
         <v>8.9763412999999993E-3</v>
       </c>
-      <c r="W94" s="128">
+      <c r="W94" s="97">
         <v>9.8414439999999995E-3</v>
       </c>
-      <c r="X94" s="124">
+      <c r="X94" s="95">
         <v>5.1947219999999997E-3</v>
       </c>
-      <c r="Y94" s="121">
-        <f t="shared" si="9"/>
+      <c r="Y94" s="92">
+        <f t="shared" si="11"/>
         <v>4.3747122352941169E-3</v>
       </c>
       <c r="Z94">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-2.7333658823529413E-4</v>
       </c>
     </row>
@@ -11063,21 +11063,21 @@
       <c r="H95" s="81">
         <v>2.0631349E-2</v>
       </c>
-      <c r="I95" s="120">
+      <c r="I95" s="91">
         <v>1.8576009000000001E-2</v>
       </c>
-      <c r="J95" s="128">
+      <c r="J95" s="97">
         <v>2.6352477999999999E-2</v>
       </c>
-      <c r="K95" s="124">
+      <c r="K95" s="95">
         <v>1.6475909E-2</v>
       </c>
-      <c r="L95" s="121">
-        <f t="shared" si="7"/>
+      <c r="L95" s="92">
+        <f t="shared" si="9"/>
         <v>1.473298505882353E-2</v>
       </c>
       <c r="M95">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-5.8097464705882346E-4</v>
       </c>
       <c r="N95" s="88" t="s">
@@ -11104,21 +11104,21 @@
       <c r="U95" s="81">
         <v>1.4094534000000001E-2</v>
       </c>
-      <c r="V95" s="120">
+      <c r="V95" s="91">
         <v>1.2049147E-2</v>
       </c>
-      <c r="W95" s="128">
+      <c r="W95" s="97">
         <v>1.3256046E-2</v>
       </c>
-      <c r="X95" s="124">
+      <c r="X95" s="95">
         <v>8.2955149999999998E-3</v>
       </c>
-      <c r="Y95" s="121">
-        <f t="shared" si="9"/>
+      <c r="Y95" s="92">
+        <f t="shared" si="11"/>
         <v>7.4201271764705885E-3</v>
       </c>
       <c r="Z95">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-2.917959411764706E-4</v>
       </c>
     </row>
@@ -11147,21 +11147,21 @@
       <c r="H96" s="81">
         <v>3.0365044000000001E-2</v>
       </c>
-      <c r="I96" s="120">
+      <c r="I96" s="91">
         <v>2.7759598999999999E-2</v>
       </c>
-      <c r="J96" s="128">
+      <c r="J96" s="97">
         <v>3.6052813000000003E-2</v>
       </c>
-      <c r="K96" s="124">
+      <c r="K96" s="95">
         <v>2.3964659999999999E-2</v>
       </c>
-      <c r="L96" s="121">
-        <f t="shared" si="7"/>
+      <c r="L96" s="92">
+        <f t="shared" si="9"/>
         <v>2.1831456529411764E-2</v>
       </c>
       <c r="M96">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-7.11067823529412E-4</v>
       </c>
       <c r="N96" s="84" t="s">
@@ -11188,21 +11188,21 @@
       <c r="U96" s="81">
         <v>2.1257570999999999E-2</v>
       </c>
-      <c r="V96" s="120">
+      <c r="V96" s="91">
         <v>1.8543285E-2</v>
       </c>
-      <c r="W96" s="128">
+      <c r="W96" s="97">
         <v>1.9917550999999999E-2</v>
       </c>
-      <c r="X96" s="124">
+      <c r="X96" s="95">
         <v>1.2142778999999999E-2</v>
       </c>
-      <c r="Y96" s="121">
-        <f t="shared" si="9"/>
+      <c r="Y96" s="92">
+        <f t="shared" si="11"/>
         <v>1.0770760411764705E-2</v>
       </c>
       <c r="Z96">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-4.5733952941176466E-4</v>
       </c>
     </row>
@@ -11231,21 +11231,21 @@
       <c r="H97" s="81">
         <v>4.6165507000000001E-2</v>
       </c>
-      <c r="I97" s="120">
+      <c r="I97" s="91">
         <v>4.2779603999999999E-2</v>
       </c>
-      <c r="J97" s="128">
+      <c r="J97" s="97">
         <v>4.4857968999999998E-2</v>
       </c>
-      <c r="K97" s="124">
+      <c r="K97" s="95">
         <v>3.3032178000000002E-2</v>
       </c>
-      <c r="L97" s="121">
-        <f t="shared" si="7"/>
+      <c r="L97" s="92">
+        <f t="shared" si="9"/>
         <v>3.0945273705882355E-2</v>
       </c>
       <c r="M97">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-6.9563476470588205E-4</v>
       </c>
       <c r="N97" s="84" t="s">
@@ -11272,21 +11272,21 @@
       <c r="U97" s="81">
         <v>3.4126276999999997E-2</v>
       </c>
-      <c r="V97" s="120">
+      <c r="V97" s="91">
         <v>3.039122E-2</v>
       </c>
-      <c r="W97" s="128">
+      <c r="W97" s="97">
         <v>2.8481023000000001E-2</v>
       </c>
-      <c r="X97" s="124">
+      <c r="X97" s="95">
         <v>1.7584465000000001E-2</v>
       </c>
-      <c r="Y97" s="121">
-        <f t="shared" si="9"/>
+      <c r="Y97" s="92">
+        <f t="shared" si="11"/>
         <v>1.5661543E-2</v>
       </c>
       <c r="Z97">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-6.4097399999999999E-4</v>
       </c>
     </row>
@@ -11315,21 +11315,21 @@
       <c r="H98" s="81">
         <v>7.3117043000000007E-2</v>
       </c>
-      <c r="I98" s="120">
+      <c r="I98" s="91">
         <v>6.8473476000000005E-2</v>
       </c>
-      <c r="J98" s="128">
+      <c r="J98" s="97">
         <v>6.6115557000000005E-2</v>
       </c>
-      <c r="K98" s="124">
+      <c r="K98" s="95">
         <v>4.3224483000000001E-2</v>
       </c>
-      <c r="L98" s="121">
-        <f t="shared" si="7"/>
+      <c r="L98" s="92">
+        <f t="shared" si="9"/>
         <v>3.918488170588235E-2</v>
       </c>
       <c r="M98">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-1.3465337647058826E-3</v>
       </c>
       <c r="N98" s="84" t="s">
@@ -11356,21 +11356,21 @@
       <c r="U98" s="81">
         <v>5.7037298E-2</v>
       </c>
-      <c r="V98" s="120">
+      <c r="V98" s="91">
         <v>5.1704121999999998E-2</v>
       </c>
-      <c r="W98" s="128">
+      <c r="W98" s="97">
         <v>4.3469642000000003E-2</v>
       </c>
-      <c r="X98" s="124">
+      <c r="X98" s="95">
         <v>2.5406643E-2</v>
       </c>
-      <c r="Y98" s="121">
-        <f t="shared" si="9"/>
+      <c r="Y98" s="92">
+        <f t="shared" si="11"/>
         <v>2.2219054941176469E-2</v>
       </c>
       <c r="Z98">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-1.0625293529411767E-3</v>
       </c>
     </row>
@@ -11399,21 +11399,21 @@
       <c r="H99" s="81">
         <v>0.11823134</v>
       </c>
-      <c r="I99" s="120">
+      <c r="I99" s="91">
         <v>0.11201527999999999</v>
       </c>
-      <c r="J99" s="128">
+      <c r="J99" s="97">
         <v>8.1959559000000001E-2</v>
       </c>
-      <c r="K99" s="124">
+      <c r="K99" s="95">
         <v>5.9431375000000002E-2</v>
       </c>
-      <c r="L99" s="121">
-        <f t="shared" si="7"/>
+      <c r="L99" s="92">
+        <f t="shared" si="9"/>
         <v>5.5455813117647058E-2</v>
       </c>
       <c r="M99">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-1.3251872941176471E-3</v>
       </c>
       <c r="N99" s="84" t="s">
@@ -11440,21 +11440,21 @@
       <c r="U99" s="81">
         <v>9.5537514000000004E-2</v>
       </c>
-      <c r="V99" s="120">
+      <c r="V99" s="91">
         <v>8.8066895000000006E-2</v>
       </c>
-      <c r="W99" s="128">
+      <c r="W99" s="97">
         <v>5.4374656E-2</v>
       </c>
-      <c r="X99" s="124">
+      <c r="X99" s="95">
         <v>3.7231258000000003E-2</v>
       </c>
-      <c r="Y99" s="121">
-        <f t="shared" si="9"/>
+      <c r="Y99" s="92">
+        <f t="shared" si="11"/>
         <v>3.420595247058824E-2</v>
       </c>
       <c r="Z99">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-1.0084351764705882E-3</v>
       </c>
     </row>
@@ -11560,7 +11560,7 @@
     </row>
     <row r="108" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" s="38" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B108" s="37"/>
       <c r="C108" s="37"/>
@@ -11588,7 +11588,7 @@
     </row>
     <row r="109" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="38" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B109" s="37"/>
       <c r="C109" s="37"/>
@@ -11616,7 +11616,7 @@
     </row>
     <row r="110" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110" s="59" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B110" s="37"/>
       <c r="C110" s="37"/>
@@ -11643,25 +11643,25 @@
       <c r="X110" s="37"/>
     </row>
     <row r="111" spans="1:26" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="114" t="s">
-        <v>106</v>
-      </c>
-      <c r="B111" s="114"/>
-      <c r="C111" s="114"/>
-      <c r="D111" s="114"/>
-      <c r="E111" s="114"/>
-      <c r="F111" s="114"/>
-      <c r="G111" s="114"/>
-      <c r="H111" s="114"/>
-      <c r="I111" s="114"/>
-      <c r="J111" s="114"/>
-      <c r="K111" s="114"/>
-      <c r="L111" s="114"/>
-      <c r="M111" s="114"/>
-      <c r="N111" s="114"/>
-      <c r="O111" s="114"/>
-      <c r="P111" s="114"/>
-      <c r="Q111" s="114"/>
+      <c r="A111" s="116" t="s">
+        <v>104</v>
+      </c>
+      <c r="B111" s="116"/>
+      <c r="C111" s="116"/>
+      <c r="D111" s="116"/>
+      <c r="E111" s="116"/>
+      <c r="F111" s="116"/>
+      <c r="G111" s="116"/>
+      <c r="H111" s="116"/>
+      <c r="I111" s="116"/>
+      <c r="J111" s="116"/>
+      <c r="K111" s="116"/>
+      <c r="L111" s="116"/>
+      <c r="M111" s="116"/>
+      <c r="N111" s="116"/>
+      <c r="O111" s="116"/>
+      <c r="P111" s="116"/>
+      <c r="Q111" s="116"/>
       <c r="R111" s="37"/>
       <c r="S111" s="37"/>
       <c r="T111" s="37"/>
@@ -11671,17 +11671,17 @@
       <c r="X111" s="37"/>
     </row>
     <row r="112" spans="1:26" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="98" t="s">
+      <c r="A112" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="B112" s="93" t="s">
-        <v>86</v>
-      </c>
-      <c r="C112" s="94"/>
-      <c r="D112" s="94"/>
-      <c r="E112" s="94"/>
-      <c r="F112" s="94"/>
-      <c r="G112" s="95"/>
+      <c r="B112" s="121" t="s">
+        <v>85</v>
+      </c>
+      <c r="C112" s="122"/>
+      <c r="D112" s="122"/>
+      <c r="E112" s="122"/>
+      <c r="F112" s="122"/>
+      <c r="G112" s="123"/>
       <c r="I112" s="73"/>
       <c r="J112" s="86" t="s">
         <v>27</v>
@@ -11700,7 +11700,7 @@
       </c>
     </row>
     <row r="113" spans="1:14" ht="45.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="99"/>
+      <c r="A113" s="126"/>
       <c r="B113" s="32" t="s">
         <v>70</v>
       </c>
@@ -11744,7 +11744,7 @@
       </c>
     </row>
     <row r="114" spans="1:14" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="100"/>
+      <c r="A114" s="127"/>
       <c r="B114" s="34" t="s">
         <v>63</v>
       </c>
@@ -11773,60 +11773,60 @@
         <v>0</v>
       </c>
       <c r="C115" s="10">
-        <f t="shared" ref="C115:G130" si="11">J116*1.1</f>
+        <f t="shared" ref="C115:G130" si="13">J116*1.1</f>
         <v>0</v>
       </c>
       <c r="D115" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E115" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F115" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G115" s="10">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I115" s="107" t="s">
-        <v>105</v>
-      </c>
-      <c r="J115" s="107"/>
-      <c r="K115" s="107"/>
-      <c r="L115" s="107"/>
-      <c r="M115" s="107"/>
-      <c r="N115" s="107"/>
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I115" s="129" t="s">
+        <v>103</v>
+      </c>
+      <c r="J115" s="129"/>
+      <c r="K115" s="129"/>
+      <c r="L115" s="129"/>
+      <c r="M115" s="129"/>
+      <c r="N115" s="129"/>
     </row>
     <row r="116" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B116" s="10">
-        <f t="shared" ref="B116:B130" si="12">I117*1.1</f>
+        <f t="shared" ref="B116:B130" si="14">I117*1.1</f>
         <v>0</v>
       </c>
       <c r="C116" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D116" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E116" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F116" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G116" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I116" s="17">
@@ -11853,27 +11853,27 @@
         <v>12</v>
       </c>
       <c r="B117" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="C117" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D117" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E117" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F117" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G117" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I117" s="17">
@@ -11900,27 +11900,27 @@
         <v>13</v>
       </c>
       <c r="B118" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.15554000000000001</v>
       </c>
       <c r="C118" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.15554000000000001</v>
       </c>
       <c r="D118" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.15554000000000001</v>
       </c>
       <c r="E118" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>9.0213200000000021E-2</v>
       </c>
       <c r="F118" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>9.0213200000000021E-2</v>
       </c>
       <c r="G118" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>6.3771400000000006E-2</v>
       </c>
       <c r="I118" s="17">
@@ -11947,27 +11947,27 @@
         <v>14</v>
       </c>
       <c r="B119" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.30580000000000007</v>
       </c>
       <c r="C119" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.30580000000000007</v>
       </c>
       <c r="D119" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.30580000000000007</v>
       </c>
       <c r="E119" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.17736400000000005</v>
       </c>
       <c r="F119" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.17736400000000005</v>
       </c>
       <c r="G119" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.12537800000000004</v>
       </c>
       <c r="I119" s="17">
@@ -11994,27 +11994,27 @@
         <v>15</v>
       </c>
       <c r="B120" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.31196000000000007</v>
       </c>
       <c r="C120" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.31196000000000007</v>
       </c>
       <c r="D120" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.31196000000000007</v>
       </c>
       <c r="E120" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.18093680000000004</v>
       </c>
       <c r="F120" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.18093680000000004</v>
       </c>
       <c r="G120" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.12790360000000003</v>
       </c>
       <c r="I120" s="17">
@@ -12041,27 +12041,27 @@
         <v>18</v>
       </c>
       <c r="B121" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.23232000000000003</v>
       </c>
       <c r="C121" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.23232000000000003</v>
       </c>
       <c r="D121" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.23232000000000003</v>
       </c>
       <c r="E121" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.13474560000000002</v>
       </c>
       <c r="F121" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.13474560000000002</v>
       </c>
       <c r="G121" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>9.5251200000000008E-2</v>
       </c>
       <c r="I121" s="17">
@@ -12088,27 +12088,27 @@
         <v>17</v>
       </c>
       <c r="B122" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.14828000000000002</v>
       </c>
       <c r="C122" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.14828000000000002</v>
       </c>
       <c r="D122" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.14828000000000002</v>
       </c>
       <c r="E122" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>8.600240000000002E-2</v>
       </c>
       <c r="F122" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>8.600240000000002E-2</v>
       </c>
       <c r="G122" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>6.079480000000001E-2</v>
       </c>
       <c r="I122" s="17">
@@ -12135,27 +12135,27 @@
         <v>19</v>
       </c>
       <c r="B123" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>5.9620000000000013E-2</v>
       </c>
       <c r="C123" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>5.9620000000000013E-2</v>
       </c>
       <c r="D123" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>5.9620000000000013E-2</v>
       </c>
       <c r="E123" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>3.4579600000000009E-2</v>
       </c>
       <c r="F123" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>3.4579600000000009E-2</v>
       </c>
       <c r="G123" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.4444200000000003E-2</v>
       </c>
       <c r="I123" s="17">
@@ -12182,27 +12182,27 @@
         <v>20</v>
       </c>
       <c r="B124" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.9360000000000002E-2</v>
       </c>
       <c r="C124" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.9360000000000002E-2</v>
       </c>
       <c r="D124" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.9360000000000002E-2</v>
       </c>
       <c r="E124" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.1228800000000002E-2</v>
       </c>
       <c r="F124" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.1228800000000002E-2</v>
       </c>
       <c r="G124" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>7.9376000000000013E-3</v>
       </c>
       <c r="I124" s="17">
@@ -12229,27 +12229,27 @@
         <v>21</v>
       </c>
       <c r="B125" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="C125" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D125" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E125" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F125" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G125" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I125" s="17">
@@ -12276,27 +12276,27 @@
         <v>22</v>
       </c>
       <c r="B126" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="C126" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D126" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E126" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F126" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G126" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I126" s="17">
@@ -12323,27 +12323,27 @@
         <v>42</v>
       </c>
       <c r="B127" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="C127" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D127" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E127" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F127" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G127" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I127" s="17">
@@ -12370,27 +12370,27 @@
         <v>43</v>
       </c>
       <c r="B128" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="C128" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D128" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E128" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F128" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G128" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I128" s="17">
@@ -12417,27 +12417,27 @@
         <v>44</v>
       </c>
       <c r="B129" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="C129" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D129" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E129" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F129" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G129" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I129" s="17">
@@ -12464,27 +12464,27 @@
         <v>45</v>
       </c>
       <c r="B130" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="C130" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D130" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E130" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F130" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G130" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I130" s="17">
@@ -12508,27 +12508,27 @@
     </row>
     <row r="131" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B131">
-        <f t="shared" ref="B131:G131" si="13">5*SUM(B118:B124)</f>
+        <f t="shared" ref="B131:G131" si="15">5*SUM(B118:B124)</f>
         <v>6.1644000000000005</v>
       </c>
       <c r="C131">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>6.1644000000000005</v>
       </c>
       <c r="D131">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>6.1644000000000005</v>
       </c>
       <c r="E131">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>3.575352000000001</v>
       </c>
       <c r="F131">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>3.575352000000001</v>
       </c>
       <c r="G131">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2.5274040000000007</v>
       </c>
       <c r="I131" s="17">
@@ -12552,31 +12552,31 @@
     </row>
     <row r="132" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="133" spans="1:15" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="90" t="s">
+      <c r="A133" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="B133" s="93" t="s">
-        <v>87</v>
-      </c>
-      <c r="C133" s="94"/>
-      <c r="D133" s="94"/>
-      <c r="E133" s="94"/>
-      <c r="F133" s="94"/>
-      <c r="G133" s="95"/>
-      <c r="I133" s="90" t="s">
+      <c r="B133" s="121" t="s">
+        <v>86</v>
+      </c>
+      <c r="C133" s="122"/>
+      <c r="D133" s="122"/>
+      <c r="E133" s="122"/>
+      <c r="F133" s="122"/>
+      <c r="G133" s="123"/>
+      <c r="I133" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="J133" s="93" t="s">
+      <c r="J133" s="121" t="s">
         <v>76</v>
       </c>
-      <c r="K133" s="94"/>
-      <c r="L133" s="94"/>
-      <c r="M133" s="94"/>
-      <c r="N133" s="94"/>
-      <c r="O133" s="95"/>
+      <c r="K133" s="122"/>
+      <c r="L133" s="122"/>
+      <c r="M133" s="122"/>
+      <c r="N133" s="122"/>
+      <c r="O133" s="123"/>
     </row>
     <row r="134" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="91"/>
+      <c r="A134" s="119"/>
       <c r="B134" s="26" t="s">
         <v>71</v>
       </c>
@@ -12595,7 +12595,7 @@
       <c r="G134" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="I134" s="91"/>
+      <c r="I134" s="119"/>
       <c r="J134" s="26" t="s">
         <v>71</v>
       </c>
@@ -12616,7 +12616,7 @@
       </c>
     </row>
     <row r="135" spans="1:15" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="92"/>
+      <c r="A135" s="120"/>
       <c r="B135" s="40" t="s">
         <v>63</v>
       </c>
@@ -12635,7 +12635,7 @@
       <c r="G135" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="I135" s="92"/>
+      <c r="I135" s="120"/>
       <c r="J135" s="40" t="s">
         <v>63</v>
       </c>
@@ -12796,23 +12796,23 @@
         <v>7.7770000000000006E-2</v>
       </c>
       <c r="C139" s="17">
-        <f t="shared" ref="C139:G139" si="14">C118*0.5</f>
+        <f t="shared" ref="C139:G139" si="16">C118*0.5</f>
         <v>7.7770000000000006E-2</v>
       </c>
       <c r="D139" s="17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>7.7770000000000006E-2</v>
       </c>
       <c r="E139" s="17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>4.5106600000000011E-2</v>
       </c>
       <c r="F139" s="17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>4.5106600000000011E-2</v>
       </c>
       <c r="G139" s="17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>3.1885700000000003E-2</v>
       </c>
       <c r="I139" s="50" t="s">
@@ -12823,23 +12823,23 @@
         <v>5.8327500000000004E-2</v>
       </c>
       <c r="K139" s="17">
-        <f t="shared" ref="K139:O145" si="15">C139*0.75</f>
+        <f t="shared" ref="K139:O145" si="17">C139*0.75</f>
         <v>5.8327500000000004E-2</v>
       </c>
       <c r="L139" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5.8327500000000004E-2</v>
       </c>
       <c r="M139" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3.3829950000000011E-2</v>
       </c>
       <c r="N139" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3.3829950000000011E-2</v>
       </c>
       <c r="O139" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2.3914275000000002E-2</v>
       </c>
     </row>
@@ -12848,54 +12848,54 @@
         <v>14</v>
       </c>
       <c r="B140" s="17">
-        <f t="shared" ref="B140:G145" si="16">B119*0.5</f>
+        <f t="shared" ref="B140:G145" si="18">B119*0.5</f>
         <v>0.15290000000000004</v>
       </c>
       <c r="C140" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.15290000000000004</v>
       </c>
       <c r="D140" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.15290000000000004</v>
       </c>
       <c r="E140" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>8.8682000000000025E-2</v>
       </c>
       <c r="F140" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>8.8682000000000025E-2</v>
       </c>
       <c r="G140" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>6.2689000000000022E-2</v>
       </c>
       <c r="I140" s="50" t="s">
         <v>14</v>
       </c>
       <c r="J140" s="17">
-        <f t="shared" ref="J140:J145" si="17">B140*0.75</f>
+        <f t="shared" ref="J140:J145" si="19">B140*0.75</f>
         <v>0.11467500000000003</v>
       </c>
       <c r="K140" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.11467500000000003</v>
       </c>
       <c r="L140" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.11467500000000003</v>
       </c>
       <c r="M140" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>6.6511500000000015E-2</v>
       </c>
       <c r="N140" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>6.6511500000000015E-2</v>
       </c>
       <c r="O140" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4.7016750000000017E-2</v>
       </c>
     </row>
@@ -12904,54 +12904,54 @@
         <v>15</v>
       </c>
       <c r="B141" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.15598000000000004</v>
       </c>
       <c r="C141" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.15598000000000004</v>
       </c>
       <c r="D141" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.15598000000000004</v>
       </c>
       <c r="E141" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>9.0468400000000018E-2</v>
       </c>
       <c r="F141" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>9.0468400000000018E-2</v>
       </c>
       <c r="G141" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>6.3951800000000017E-2</v>
       </c>
       <c r="I141" s="50" t="s">
         <v>15</v>
       </c>
       <c r="J141" s="17">
+        <f t="shared" si="19"/>
+        <v>0.11698500000000003</v>
+      </c>
+      <c r="K141" s="17">
         <f t="shared" si="17"/>
         <v>0.11698500000000003</v>
       </c>
-      <c r="K141" s="17">
-        <f t="shared" si="15"/>
+      <c r="L141" s="17">
+        <f t="shared" si="17"/>
         <v>0.11698500000000003</v>
       </c>
-      <c r="L141" s="17">
-        <f t="shared" si="15"/>
-        <v>0.11698500000000003</v>
-      </c>
       <c r="M141" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>6.7851300000000017E-2</v>
       </c>
       <c r="N141" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>6.7851300000000017E-2</v>
       </c>
       <c r="O141" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4.7963850000000016E-2</v>
       </c>
     </row>
@@ -12960,54 +12960,54 @@
         <v>18</v>
       </c>
       <c r="B142" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.11616000000000001</v>
       </c>
       <c r="C142" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.11616000000000001</v>
       </c>
       <c r="D142" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.11616000000000001</v>
       </c>
       <c r="E142" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>6.737280000000001E-2</v>
       </c>
       <c r="F142" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>6.737280000000001E-2</v>
       </c>
       <c r="G142" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>4.7625600000000004E-2</v>
       </c>
       <c r="I142" s="50" t="s">
         <v>18</v>
       </c>
       <c r="J142" s="17">
+        <f t="shared" si="19"/>
+        <v>8.7120000000000003E-2</v>
+      </c>
+      <c r="K142" s="17">
         <f t="shared" si="17"/>
         <v>8.7120000000000003E-2</v>
       </c>
-      <c r="K142" s="17">
-        <f t="shared" si="15"/>
+      <c r="L142" s="17">
+        <f t="shared" si="17"/>
         <v>8.7120000000000003E-2</v>
       </c>
-      <c r="L142" s="17">
-        <f t="shared" si="15"/>
-        <v>8.7120000000000003E-2</v>
-      </c>
       <c r="M142" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5.0529600000000008E-2</v>
       </c>
       <c r="N142" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5.0529600000000008E-2</v>
       </c>
       <c r="O142" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3.5719200000000007E-2</v>
       </c>
     </row>
@@ -13016,54 +13016,54 @@
         <v>17</v>
       </c>
       <c r="B143" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>7.4140000000000011E-2</v>
       </c>
       <c r="C143" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>7.4140000000000011E-2</v>
       </c>
       <c r="D143" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>7.4140000000000011E-2</v>
       </c>
       <c r="E143" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>4.300120000000001E-2</v>
       </c>
       <c r="F143" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>4.300120000000001E-2</v>
       </c>
       <c r="G143" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>3.0397400000000005E-2</v>
       </c>
       <c r="I143" s="50" t="s">
         <v>17</v>
       </c>
       <c r="J143" s="17">
+        <f t="shared" si="19"/>
+        <v>5.5605000000000009E-2</v>
+      </c>
+      <c r="K143" s="17">
         <f t="shared" si="17"/>
         <v>5.5605000000000009E-2</v>
       </c>
-      <c r="K143" s="17">
-        <f t="shared" si="15"/>
+      <c r="L143" s="17">
+        <f t="shared" si="17"/>
         <v>5.5605000000000009E-2</v>
       </c>
-      <c r="L143" s="17">
-        <f t="shared" si="15"/>
-        <v>5.5605000000000009E-2</v>
-      </c>
       <c r="M143" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3.2250900000000006E-2</v>
       </c>
       <c r="N143" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3.2250900000000006E-2</v>
       </c>
       <c r="O143" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2.2798050000000004E-2</v>
       </c>
     </row>
@@ -13072,54 +13072,54 @@
         <v>19</v>
       </c>
       <c r="B144" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2.9810000000000007E-2</v>
       </c>
       <c r="C144" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2.9810000000000007E-2</v>
       </c>
       <c r="D144" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2.9810000000000007E-2</v>
       </c>
       <c r="E144" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.7289800000000004E-2</v>
       </c>
       <c r="F144" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.7289800000000004E-2</v>
       </c>
       <c r="G144" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.2222100000000001E-2</v>
       </c>
       <c r="I144" s="50" t="s">
         <v>19</v>
       </c>
       <c r="J144" s="17">
+        <f t="shared" si="19"/>
+        <v>2.2357500000000006E-2</v>
+      </c>
+      <c r="K144" s="17">
         <f t="shared" si="17"/>
         <v>2.2357500000000006E-2</v>
       </c>
-      <c r="K144" s="17">
-        <f t="shared" si="15"/>
+      <c r="L144" s="17">
+        <f t="shared" si="17"/>
         <v>2.2357500000000006E-2</v>
       </c>
-      <c r="L144" s="17">
-        <f t="shared" si="15"/>
-        <v>2.2357500000000006E-2</v>
-      </c>
       <c r="M144" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.2967350000000002E-2</v>
       </c>
       <c r="N144" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.2967350000000002E-2</v>
       </c>
       <c r="O144" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>9.1665750000000015E-3</v>
       </c>
     </row>
@@ -13128,54 +13128,54 @@
         <v>20</v>
       </c>
       <c r="B145" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>9.6800000000000011E-3</v>
       </c>
       <c r="C145" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>9.6800000000000011E-3</v>
       </c>
       <c r="D145" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>9.6800000000000011E-3</v>
       </c>
       <c r="E145" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>5.6144000000000012E-3</v>
       </c>
       <c r="F145" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>5.6144000000000012E-3</v>
       </c>
       <c r="G145" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>3.9688000000000006E-3</v>
       </c>
       <c r="I145" s="50" t="s">
         <v>20</v>
       </c>
       <c r="J145" s="17">
+        <f t="shared" si="19"/>
+        <v>7.2600000000000008E-3</v>
+      </c>
+      <c r="K145" s="17">
         <f t="shared" si="17"/>
         <v>7.2600000000000008E-3</v>
       </c>
-      <c r="K145" s="17">
-        <f t="shared" si="15"/>
+      <c r="L145" s="17">
+        <f t="shared" si="17"/>
         <v>7.2600000000000008E-3</v>
       </c>
-      <c r="L145" s="17">
-        <f t="shared" si="15"/>
-        <v>7.2600000000000008E-3</v>
-      </c>
       <c r="M145" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4.2108000000000007E-3</v>
       </c>
       <c r="N145" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4.2108000000000007E-3</v>
       </c>
       <c r="O145" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2.9766000000000003E-3</v>
       </c>
     </row>
@@ -13445,57 +13445,57 @@
     </row>
     <row r="152" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B152">
-        <f t="shared" ref="B152:G152" si="18">5*SUM(B136:B151)</f>
+        <f t="shared" ref="B152:G152" si="20">5*SUM(B136:B151)</f>
         <v>3.0822000000000003</v>
       </c>
       <c r="C152">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>3.0822000000000003</v>
       </c>
       <c r="D152">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>3.0822000000000003</v>
       </c>
       <c r="E152">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1.7876760000000005</v>
       </c>
       <c r="F152">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1.7876760000000005</v>
       </c>
       <c r="G152">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1.2637020000000003</v>
       </c>
       <c r="J152">
-        <f t="shared" ref="J152:O152" si="19">5*SUM(J136:J151)</f>
+        <f t="shared" ref="J152:O152" si="21">5*SUM(J136:J151)</f>
         <v>2.3116500000000002</v>
       </c>
       <c r="K152">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>2.3116500000000002</v>
       </c>
       <c r="L152">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>2.3116500000000002</v>
       </c>
       <c r="M152">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1.3407570000000004</v>
       </c>
       <c r="N152">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1.3407570000000004</v>
       </c>
       <c r="O152">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.94777650000000035</v>
       </c>
     </row>
     <row r="158" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A158" s="36" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B158" s="37"/>
       <c r="C158" s="37"/>
@@ -13575,22 +13575,22 @@
       <c r="W160" s="37"/>
     </row>
     <row r="161" spans="1:14" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="109" t="s">
-        <v>91</v>
-      </c>
-      <c r="B161" s="111" t="s">
-        <v>0</v>
-      </c>
-      <c r="C161" s="111"/>
-      <c r="D161" s="111"/>
-      <c r="E161" s="111" t="s">
+      <c r="A161" s="104" t="s">
+        <v>90</v>
+      </c>
+      <c r="B161" s="112" t="s">
+        <v>0</v>
+      </c>
+      <c r="C161" s="112"/>
+      <c r="D161" s="112"/>
+      <c r="E161" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="F161" s="111"/>
-      <c r="G161" s="111"/>
+      <c r="F161" s="112"/>
+      <c r="G161" s="112"/>
     </row>
     <row r="162" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A162" s="109"/>
+      <c r="A162" s="104"/>
       <c r="B162" s="63" t="s">
         <v>3</v>
       </c>
@@ -13633,15 +13633,15 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="J163">
-        <f t="shared" ref="J163:J178" si="20">B163*B54</f>
+        <f t="shared" ref="J163:J178" si="22">B163*B54</f>
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="K163">
-        <f t="shared" ref="K163:K178" si="21">C163*C54</f>
+        <f t="shared" ref="K163:K178" si="23">C163*C54</f>
         <v>0</v>
       </c>
       <c r="L163">
-        <f t="shared" ref="L163:L178" si="22">D163*D54</f>
+        <f t="shared" ref="L163:L178" si="24">D163*D54</f>
         <v>0</v>
       </c>
     </row>
@@ -13668,15 +13668,15 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="J164">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="K164">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L164">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -13703,15 +13703,15 @@
         <v>1.2</v>
       </c>
       <c r="J165">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1.176E-2</v>
       </c>
       <c r="K165">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1.8E-3</v>
       </c>
       <c r="L165">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>6.0000000000000218E-3</v>
       </c>
       <c r="M165">
@@ -13746,23 +13746,23 @@
         <v>12.1863636363636</v>
       </c>
       <c r="J166">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.4223484848484847</v>
       </c>
       <c r="K166">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1.8215909090909104</v>
       </c>
       <c r="L166">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.0155303030302998</v>
       </c>
       <c r="M166">
-        <f t="shared" ref="M166:M178" si="23">SUM(J166:L166)</f>
+        <f t="shared" ref="M166:M178" si="25">SUM(J166:L166)</f>
         <v>3.2594696969696946</v>
       </c>
       <c r="N166">
-        <f t="shared" ref="N166:N178" si="24">1/M166</f>
+        <f t="shared" ref="N166:N178" si="26">1/M166</f>
         <v>0.30679837303893109</v>
       </c>
     </row>
@@ -13789,23 +13789,23 @@
         <v>13.4262295081967</v>
       </c>
       <c r="J167">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.41491596638655454</v>
       </c>
       <c r="K167">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1.6911764705882355</v>
       </c>
       <c r="L167">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.1470588235294099</v>
       </c>
       <c r="M167">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>3.2531512605041999</v>
       </c>
       <c r="N167">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.30739425250242186</v>
       </c>
     </row>
@@ -13832,23 +13832,23 @@
         <v>6.9705882352941204</v>
       </c>
       <c r="J168">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.39310344827586191</v>
       </c>
       <c r="K168">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1.0551724137931051</v>
       </c>
       <c r="L168">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.54482758620689675</v>
       </c>
       <c r="M168">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1.9931034482758638</v>
       </c>
       <c r="N168">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.50173010380622796</v>
       </c>
     </row>
@@ -13875,23 +13875,23 @@
         <v>5.8421052631579</v>
       </c>
       <c r="J169">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.46610169491525449</v>
       </c>
       <c r="K169">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.84745762711864525</v>
       </c>
       <c r="L169">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.31355932203389858</v>
       </c>
       <c r="M169">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1.6271186440677983</v>
       </c>
       <c r="N169">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.6145833333333327</v>
       </c>
     </row>
@@ -13918,23 +13918,23 @@
         <v>6.2222222222222197</v>
       </c>
       <c r="J170">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.59655172413793078</v>
       </c>
       <c r="K170">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.48965517241379319</v>
       </c>
       <c r="L170">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.19310344827586198</v>
       </c>
       <c r="M170">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1.279310344827586</v>
       </c>
       <c r="N170">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.78167115902964968</v>
       </c>
     </row>
@@ -13961,23 +13961,23 @@
         <v>7.75</v>
       </c>
       <c r="J171">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.68881118881118886</v>
       </c>
       <c r="K171">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.40559440559440618</v>
       </c>
       <c r="L171">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.10839160839160839</v>
       </c>
       <c r="M171">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1.2027972027972034</v>
       </c>
       <c r="N171">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.83139534883720889</v>
       </c>
     </row>
@@ -14004,23 +14004,23 @@
         <v>1</v>
       </c>
       <c r="J172">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.61194029850746257</v>
       </c>
       <c r="K172">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.34468992537313536</v>
       </c>
       <c r="L172">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1E-3</v>
       </c>
       <c r="M172">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.95763022388059793</v>
       </c>
       <c r="N172">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1.0442444015057371</v>
       </c>
     </row>
@@ -14047,23 +14047,23 @@
         <v>1</v>
       </c>
       <c r="J173">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.61194029850746257</v>
       </c>
       <c r="K173">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.34468992537313536</v>
       </c>
       <c r="L173">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1E-3</v>
       </c>
       <c r="M173">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.95763022388059793</v>
       </c>
       <c r="N173">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1.0442444015057371</v>
       </c>
     </row>
@@ -14090,23 +14090,23 @@
         <v>1</v>
       </c>
       <c r="J174">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.61194029850746257</v>
       </c>
       <c r="K174">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.34468992537313536</v>
       </c>
       <c r="L174">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1E-3</v>
       </c>
       <c r="M174">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.95763022388059793</v>
       </c>
       <c r="N174">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1.0442444015057371</v>
       </c>
     </row>
@@ -14133,23 +14133,23 @@
         <v>1</v>
       </c>
       <c r="J175">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.61194029850746257</v>
       </c>
       <c r="K175">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.34468992537313536</v>
       </c>
       <c r="L175">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1E-3</v>
       </c>
       <c r="M175">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.95763022388059793</v>
       </c>
       <c r="N175">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1.0442444015057371</v>
       </c>
     </row>
@@ -14176,23 +14176,23 @@
         <v>1</v>
       </c>
       <c r="J176">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.61194029850746257</v>
       </c>
       <c r="K176">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.34468992537313536</v>
       </c>
       <c r="L176">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1E-3</v>
       </c>
       <c r="M176">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.95763022388059793</v>
       </c>
       <c r="N176">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1.0442444015057371</v>
       </c>
     </row>
@@ -14219,23 +14219,23 @@
         <v>1</v>
       </c>
       <c r="J177">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.61194029850746257</v>
       </c>
       <c r="K177">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.34468992537313536</v>
       </c>
       <c r="L177">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1E-3</v>
       </c>
       <c r="M177">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.95763022388059793</v>
       </c>
       <c r="N177">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1.0442444015057371</v>
       </c>
     </row>
@@ -14266,23 +14266,23 @@
         <v>2.1889244186386922</v>
       </c>
       <c r="J178">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.61194029850746257</v>
       </c>
       <c r="K178">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.34468992537313536</v>
       </c>
       <c r="L178">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1E-3</v>
       </c>
       <c r="M178">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.95763022388059793</v>
       </c>
       <c r="N178">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1.0442444015057371</v>
       </c>
     </row>
@@ -14386,9 +14386,9 @@
       <c r="AB185" s="20"/>
     </row>
     <row r="186" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A186" s="112"/>
-      <c r="B186" s="112"/>
-      <c r="C186" s="112"/>
+      <c r="A186" s="113"/>
+      <c r="B186" s="113"/>
+      <c r="C186" s="113"/>
       <c r="D186" s="20"/>
       <c r="E186" s="20"/>
       <c r="F186" s="20"/>
@@ -14537,7 +14537,7 @@
     </row>
     <row r="197" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A197" s="36" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B197" s="37"/>
       <c r="C197" s="37"/>
@@ -14563,39 +14563,39 @@
       <c r="W197" s="37"/>
     </row>
     <row r="198" spans="1:23" s="39" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A198" s="101" t="s">
+      <c r="A198" s="109" t="s">
         <v>73</v>
       </c>
-      <c r="B198" s="101"/>
-      <c r="C198" s="101"/>
-      <c r="D198" s="101"/>
-      <c r="E198" s="101"/>
-      <c r="F198" s="101"/>
+      <c r="B198" s="109"/>
+      <c r="C198" s="109"/>
+      <c r="D198" s="109"/>
+      <c r="E198" s="109"/>
+      <c r="F198" s="109"/>
     </row>
     <row r="199" spans="1:23" s="39" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A199" s="113" t="s">
+      <c r="A199" s="114" t="s">
         <v>74</v>
       </c>
-      <c r="B199" s="113"/>
-      <c r="C199" s="113"/>
-      <c r="D199" s="113"/>
-      <c r="E199" s="113"/>
-      <c r="F199" s="113"/>
+      <c r="B199" s="114"/>
+      <c r="C199" s="114"/>
+      <c r="D199" s="114"/>
+      <c r="E199" s="114"/>
+      <c r="F199" s="114"/>
     </row>
     <row r="200" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A200" s="96" t="s">
+      <c r="A200" s="115" t="s">
         <v>46</v>
       </c>
       <c r="B200" s="43"/>
       <c r="C200" s="43"/>
-      <c r="D200" s="96" t="s">
+      <c r="D200" s="115" t="s">
         <v>51</v>
       </c>
-      <c r="E200" s="96"/>
-      <c r="F200" s="96"/>
+      <c r="E200" s="115"/>
+      <c r="F200" s="115"/>
     </row>
     <row r="201" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A201" s="96"/>
+      <c r="A201" s="115"/>
       <c r="B201" s="43"/>
       <c r="C201" s="44" t="s">
         <v>47</v>
@@ -14630,22 +14630,22 @@
         <v>0</v>
       </c>
       <c r="H202">
-        <f t="shared" ref="H202:H217" si="25">D202*B54</f>
+        <f t="shared" ref="H202:H217" si="27">D202*B54</f>
         <v>0</v>
       </c>
       <c r="I202">
-        <f t="shared" ref="I202:I217" si="26">E202*C54</f>
+        <f t="shared" ref="I202:I217" si="28">E202*C54</f>
         <v>0</v>
       </c>
       <c r="J202">
-        <f t="shared" ref="J202:J217" si="27">F202*D54</f>
+        <f t="shared" ref="J202:J217" si="29">F202*D54</f>
         <v>0</v>
       </c>
       <c r="N202" s="73" t="s">
         <v>2</v>
       </c>
       <c r="O202" s="108" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P202" s="108"/>
       <c r="Q202" s="108"/>
@@ -14666,15 +14666,15 @@
         <v>0</v>
       </c>
       <c r="H203">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="I203">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="J203">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N203" s="45" t="s">
@@ -14708,15 +14708,15 @@
         <v>1.1232</v>
       </c>
       <c r="H204">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>3.0575999999999999</v>
       </c>
       <c r="I204">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>2.8080000000000001E-2</v>
       </c>
       <c r="J204">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>5.6160000000000203E-3</v>
       </c>
       <c r="K204">
@@ -14754,19 +14754,19 @@
         <v>5.6159999999999997</v>
       </c>
       <c r="H205">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>7.9418181818181806</v>
       </c>
       <c r="I205">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>3.814909090909091</v>
       </c>
       <c r="J205">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0.46799999999999986</v>
       </c>
       <c r="K205">
-        <f t="shared" ref="K205:K217" si="28">SUM(H205:J205)</f>
+        <f t="shared" ref="K205:K217" si="30">SUM(H205:J205)</f>
         <v>12.224727272727272</v>
       </c>
       <c r="N205" s="45" t="s">
@@ -14802,34 +14802,34 @@
         <v>22.463999999999999</v>
       </c>
       <c r="H206">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>29.452100840336129</v>
       </c>
       <c r="I206">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>16.570084033613444</v>
       </c>
       <c r="J206">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1.9191932773109244</v>
       </c>
       <c r="K206">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>47.941378151260494</v>
       </c>
       <c r="N206" s="45" t="s">
         <v>33</v>
       </c>
       <c r="O206" s="9">
-        <f t="shared" ref="O206:O218" si="29">D205/D204</f>
+        <f t="shared" ref="O206:O218" si="31">D205/D204</f>
         <v>5</v>
       </c>
       <c r="P206" s="9">
-        <f t="shared" ref="P206:P218" si="30">E205/E204</f>
+        <f t="shared" ref="P206:P218" si="32">E205/E204</f>
         <v>4.9999999999999991</v>
       </c>
       <c r="Q206" s="9">
-        <f t="shared" ref="Q206:Q218" si="31">F205/F204</f>
+        <f t="shared" ref="Q206:Q218" si="33">F205/F204</f>
         <v>5</v>
       </c>
     </row>
@@ -14851,34 +14851,34 @@
         <v>56.16</v>
       </c>
       <c r="H207">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>79.613793103448273</v>
       </c>
       <c r="I207">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>38.515862068965518</v>
       </c>
       <c r="J207">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>4.38951724137931</v>
       </c>
       <c r="K207">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>122.5191724137931</v>
       </c>
       <c r="N207" s="45" t="s">
         <v>34</v>
       </c>
       <c r="O207" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>4</v>
       </c>
       <c r="P207" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>4</v>
       </c>
       <c r="Q207" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>4</v>
       </c>
     </row>
@@ -14890,7 +14890,7 @@
         <v>10</v>
       </c>
       <c r="C208" s="43">
-        <f t="shared" ref="C208:C217" si="32">EXP(LN(0.5)*B207/10)</f>
+        <f t="shared" ref="C208:C217" si="34">EXP(LN(0.5)*B207/10)</f>
         <v>0.70710678118654757</v>
       </c>
       <c r="D208" s="65">
@@ -14903,19 +14903,19 @@
         <v>39.711116831436499</v>
       </c>
       <c r="H208">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>66.683764924100601</v>
       </c>
       <c r="I208">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>22.622623053690308</v>
       </c>
       <c r="J208">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>2.1313876265460268</v>
       </c>
       <c r="K208">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>91.437775604336935</v>
       </c>
       <c r="M208" s="39"/>
@@ -14923,15 +14923,15 @@
         <v>35</v>
       </c>
       <c r="O208" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>2.5</v>
       </c>
       <c r="P208" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>2.5</v>
       </c>
       <c r="Q208" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>2.5</v>
       </c>
     </row>
@@ -14943,7 +14943,7 @@
         <v>15</v>
       </c>
       <c r="C209" s="43">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.5</v>
       </c>
       <c r="D209" s="65">
@@ -14956,34 +14956,34 @@
         <v>28.08</v>
       </c>
       <c r="H209">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>59.710344827586205</v>
       </c>
       <c r="I209">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>9.5213793103448268</v>
       </c>
       <c r="J209">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0.87144827586206886</v>
       </c>
       <c r="K209">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>70.103172413793089</v>
       </c>
       <c r="N209" s="45" t="s">
         <v>36</v>
       </c>
       <c r="O209" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0.70710678118654491</v>
       </c>
       <c r="P209" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.70710678118654813</v>
       </c>
       <c r="Q209" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.70710678118654735</v>
       </c>
     </row>
@@ -14995,7 +14995,7 @@
         <v>20</v>
       </c>
       <c r="C210" s="43">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.35355339059327379</v>
       </c>
       <c r="D210" s="65">
@@ -15008,34 +15008,34 @@
         <v>19.855558415718299</v>
       </c>
       <c r="H210">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>45.126269126632387</v>
       </c>
       <c r="I210">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>5.5540023540470607</v>
       </c>
       <c r="J210">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0.27770011770235381</v>
       </c>
       <c r="K210">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>50.957971598381803</v>
       </c>
       <c r="N210" s="45" t="s">
         <v>37</v>
       </c>
       <c r="O210" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0.70710678118655024</v>
       </c>
       <c r="P210" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.70710678118654691</v>
       </c>
       <c r="Q210" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.70710678118654768</v>
       </c>
     </row>
@@ -15047,7 +15047,7 @@
         <v>25</v>
       </c>
       <c r="C211" s="43">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.25</v>
       </c>
       <c r="D211" s="65">
@@ -15060,34 +15060,34 @@
         <v>14.04</v>
       </c>
       <c r="H211">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>33.179104477611936</v>
       </c>
       <c r="I211">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>3.4691373134328458</v>
       </c>
       <c r="J211">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1.4039999999999999E-2</v>
       </c>
       <c r="K211">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>36.662281791044784</v>
       </c>
       <c r="N211" s="45" t="s">
         <v>38</v>
       </c>
       <c r="O211" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0.70710678118654735</v>
       </c>
       <c r="P211" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.70710678118654713</v>
       </c>
       <c r="Q211" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.70710678118654913</v>
       </c>
     </row>
@@ -15099,7 +15099,7 @@
         <v>30</v>
       </c>
       <c r="C212" s="43">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.17677669529663689</v>
       </c>
       <c r="D212" s="65">
@@ -15112,34 +15112,34 @@
         <v>9.92777920785913</v>
       </c>
       <c r="H212">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>23.461169769816379</v>
       </c>
       <c r="I212">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>2.4530505191956449</v>
       </c>
       <c r="J212">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>9.9277792078591304E-3</v>
       </c>
       <c r="K212">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>25.924148068219885</v>
       </c>
       <c r="N212" s="45" t="s">
         <v>39</v>
       </c>
       <c r="O212" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0.70710678118654768</v>
       </c>
       <c r="P212" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.70710678118654802</v>
       </c>
       <c r="Q212" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.70710678118654591</v>
       </c>
     </row>
@@ -15151,7 +15151,7 @@
         <v>35</v>
       </c>
       <c r="C213" s="43">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.12500000000000003</v>
       </c>
       <c r="D213" s="65">
@@ -15164,34 +15164,34 @@
         <v>7.02</v>
       </c>
       <c r="H213">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>16.589552238805968</v>
       </c>
       <c r="I213">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1.7345686567164229</v>
       </c>
       <c r="J213">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>7.0199999999999993E-3</v>
       </c>
       <c r="K213">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>18.331140895522392</v>
       </c>
       <c r="N213" s="45" t="s">
         <v>40</v>
       </c>
       <c r="O213" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0.70710678118654868</v>
       </c>
       <c r="P213" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.70710678118654713</v>
       </c>
       <c r="Q213" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.70710678118654779</v>
       </c>
     </row>
@@ -15216,34 +15216,34 @@
         <v>4.9638896039295597</v>
       </c>
       <c r="H214">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>11.73058488490819</v>
       </c>
       <c r="I214">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1.2265252595978238</v>
       </c>
       <c r="J214">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>4.96388960392956E-3</v>
       </c>
       <c r="K214">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>12.962074034109945</v>
       </c>
       <c r="N214" s="45" t="s">
         <v>41</v>
       </c>
       <c r="O214" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0.70710678118654635</v>
       </c>
       <c r="P214" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.70710678118654802</v>
       </c>
       <c r="Q214" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.70710678118654724</v>
       </c>
     </row>
@@ -15255,7 +15255,7 @@
         <v>45</v>
       </c>
       <c r="C215" s="43">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>6.25E-2</v>
       </c>
       <c r="D215" s="65">
@@ -15268,34 +15268,34 @@
         <v>3.51</v>
       </c>
       <c r="H215">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>8.2947761194029841</v>
       </c>
       <c r="I215">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.86728432835821145</v>
       </c>
       <c r="J215">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>3.5099999999999997E-3</v>
       </c>
       <c r="K215">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>9.1655704477611959</v>
       </c>
       <c r="N215" s="45" t="s">
         <v>42</v>
       </c>
       <c r="O215" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0.70710678118654868</v>
       </c>
       <c r="P215" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.70710678118654779</v>
       </c>
       <c r="Q215" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.70710678118654702</v>
       </c>
     </row>
@@ -15307,7 +15307,7 @@
         <v>50</v>
       </c>
       <c r="C216" s="43">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>4.4194173824159223E-2</v>
       </c>
       <c r="D216" s="65">
@@ -15320,34 +15320,34 @@
         <v>2.4819448019647798</v>
       </c>
       <c r="H216">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>5.8652924424540869</v>
       </c>
       <c r="I216">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.61326262979891122</v>
       </c>
       <c r="J216">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>2.48194480196478E-3</v>
       </c>
       <c r="K216">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>6.4810370170549634</v>
       </c>
       <c r="N216" s="45" t="s">
         <v>43</v>
       </c>
       <c r="O216" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0.70710678118654635</v>
       </c>
       <c r="P216" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.70710678118654724</v>
       </c>
       <c r="Q216" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.70710678118654802</v>
       </c>
     </row>
@@ -15359,7 +15359,7 @@
         <v>55</v>
       </c>
       <c r="C217" s="43">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>3.125E-2</v>
       </c>
       <c r="D217" s="65">
@@ -15372,34 +15372,34 @@
         <v>1.7549999999999999</v>
       </c>
       <c r="H217">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>4.147388059701492</v>
       </c>
       <c r="I217">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.43364216417910573</v>
       </c>
       <c r="J217">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1.7549999999999998E-3</v>
       </c>
       <c r="K217">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>4.5827852238805979</v>
       </c>
       <c r="N217" s="45" t="s">
         <v>44</v>
       </c>
       <c r="O217" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0.70710678118654768</v>
       </c>
       <c r="P217" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.70710678118654713</v>
       </c>
       <c r="Q217" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.70710678118654702</v>
       </c>
     </row>
@@ -15422,42 +15422,42 @@
         <v>45</v>
       </c>
       <c r="O218" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0.70710678118654735</v>
       </c>
       <c r="P218" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.70710678118654802</v>
       </c>
       <c r="Q218" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.70710678118654802</v>
       </c>
     </row>
     <row r="219" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A219" s="97" t="s">
+      <c r="A219" s="124" t="s">
         <v>75</v>
       </c>
-      <c r="B219" s="97"/>
-      <c r="C219" s="97"/>
-      <c r="D219" s="97"/>
-      <c r="E219" s="97"/>
-      <c r="F219" s="97"/>
+      <c r="B219" s="124"/>
+      <c r="C219" s="124"/>
+      <c r="D219" s="124"/>
+      <c r="E219" s="124"/>
+      <c r="F219" s="124"/>
     </row>
     <row r="220" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A220" s="110" t="s">
+      <c r="A220" s="111" t="s">
         <v>2</v>
       </c>
       <c r="B220" s="43"/>
       <c r="C220" s="43"/>
-      <c r="D220" s="96" t="s">
+      <c r="D220" s="115" t="s">
         <v>51</v>
       </c>
-      <c r="E220" s="96"/>
-      <c r="F220" s="96"/>
+      <c r="E220" s="115"/>
+      <c r="F220" s="115"/>
     </row>
     <row r="221" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A221" s="110"/>
+      <c r="A221" s="111"/>
       <c r="B221" s="43"/>
       <c r="C221" s="44" t="s">
         <v>47</v>
@@ -15491,7 +15491,7 @@
         <v>2</v>
       </c>
       <c r="O222" s="108" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P222" s="108"/>
       <c r="Q222" s="108"/>
@@ -15607,15 +15607,15 @@
         <v>33</v>
       </c>
       <c r="O226" s="9">
-        <f t="shared" ref="O226:O238" si="33">D225/D224</f>
+        <f t="shared" ref="O226:O238" si="35">D225/D224</f>
         <v>2.4</v>
       </c>
       <c r="P226" s="9">
-        <f t="shared" ref="P226:P238" si="34">E225/E224</f>
+        <f t="shared" ref="P226:P238" si="36">E225/E224</f>
         <v>2.4</v>
       </c>
       <c r="Q226" s="9">
-        <f t="shared" ref="Q226:Q238" si="35">F225/F224</f>
+        <f t="shared" ref="Q226:Q238" si="37">F225/F224</f>
         <v>2.4000000000000004</v>
       </c>
     </row>
@@ -15640,15 +15640,15 @@
         <v>34</v>
       </c>
       <c r="O227" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>4</v>
       </c>
       <c r="P227" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>4</v>
       </c>
       <c r="Q227" s="9">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>4</v>
       </c>
     </row>
@@ -15660,7 +15660,7 @@
         <v>10</v>
       </c>
       <c r="C228" s="43">
-        <f t="shared" ref="C228:C237" si="36">EXP(LN(0.5)*B227/10)</f>
+        <f t="shared" ref="C228:C237" si="38">EXP(LN(0.5)*B227/10)</f>
         <v>0.70710678118654757</v>
       </c>
       <c r="D228" s="64">
@@ -15676,15 +15676,15 @@
         <v>35</v>
       </c>
       <c r="O228" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1.8750000000000002</v>
       </c>
       <c r="P228" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1.875</v>
       </c>
       <c r="Q228" s="9">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1.8749999999999998</v>
       </c>
     </row>
@@ -15696,7 +15696,7 @@
         <v>15</v>
       </c>
       <c r="C229" s="43">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0.5</v>
       </c>
       <c r="D229" s="64">
@@ -15712,15 +15712,15 @@
         <v>36</v>
       </c>
       <c r="O229" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0.70710678118654768</v>
       </c>
       <c r="P229" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0.70710678118654802</v>
       </c>
       <c r="Q229" s="9">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0.70710678118654846</v>
       </c>
     </row>
@@ -15732,7 +15732,7 @@
         <v>20</v>
       </c>
       <c r="C230" s="43">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0.35355339059327379</v>
       </c>
       <c r="D230" s="64">
@@ -15748,15 +15748,15 @@
         <v>37</v>
       </c>
       <c r="O230" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0.70710678118654735</v>
       </c>
       <c r="P230" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0.70710678118654702</v>
       </c>
       <c r="Q230" s="9">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0.70710678118654657</v>
       </c>
     </row>
@@ -15768,7 +15768,7 @@
         <v>25</v>
       </c>
       <c r="C231" s="43">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0.25</v>
       </c>
       <c r="D231" s="64">
@@ -15784,15 +15784,15 @@
         <v>38</v>
       </c>
       <c r="O231" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0.70710678118654702</v>
       </c>
       <c r="P231" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0.70710678118654802</v>
       </c>
       <c r="Q231" s="9">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0.70710678118654646</v>
       </c>
     </row>
@@ -15804,7 +15804,7 @@
         <v>30</v>
       </c>
       <c r="C232" s="43">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0.17677669529663689</v>
       </c>
       <c r="D232" s="64">
@@ -15820,15 +15820,15 @@
         <v>39</v>
       </c>
       <c r="O232" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0.70710678118654802</v>
       </c>
       <c r="P232" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0.70710678118654702</v>
       </c>
       <c r="Q232" s="9">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0.70710678118654857</v>
       </c>
     </row>
@@ -15840,7 +15840,7 @@
         <v>35</v>
       </c>
       <c r="C233" s="43">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0.12500000000000003</v>
       </c>
       <c r="D233" s="64">
@@ -15856,15 +15856,15 @@
         <v>40</v>
       </c>
       <c r="O233" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0.78567420131838739</v>
       </c>
       <c r="P233" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0.78567420131838561</v>
       </c>
       <c r="Q233" s="9">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0.78567420131838639</v>
       </c>
     </row>
@@ -15876,7 +15876,7 @@
         <v>40</v>
       </c>
       <c r="C234" s="43">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>8.8388347648318447E-2</v>
       </c>
       <c r="D234" s="64">
@@ -15892,15 +15892,15 @@
         <v>41</v>
       </c>
       <c r="O234" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0.70710678118654635</v>
       </c>
       <c r="P234" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0.70710678118654802</v>
       </c>
       <c r="Q234" s="9">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0.70710678118654724</v>
       </c>
     </row>
@@ -15912,7 +15912,7 @@
         <v>45</v>
       </c>
       <c r="C235" s="43">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>6.25E-2</v>
       </c>
       <c r="D235" s="64">
@@ -15928,15 +15928,15 @@
         <v>42</v>
       </c>
       <c r="O235" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0.70710678118654868</v>
       </c>
       <c r="P235" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0.70710678118654779</v>
       </c>
       <c r="Q235" s="9">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0.70710678118654702</v>
       </c>
     </row>
@@ -15964,15 +15964,15 @@
         <v>43</v>
       </c>
       <c r="O236" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0.70710678118654635</v>
       </c>
       <c r="P236" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0.70710678118654724</v>
       </c>
       <c r="Q236" s="9">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0.70710678118654802</v>
       </c>
     </row>
@@ -15984,7 +15984,7 @@
         <v>55</v>
       </c>
       <c r="C237" s="43">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>3.125E-2</v>
       </c>
       <c r="D237" s="64">
@@ -16000,15 +16000,15 @@
         <v>44</v>
       </c>
       <c r="O237" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0.70710678118654768</v>
       </c>
       <c r="P237" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0.70710678118654713</v>
       </c>
       <c r="Q237" s="9">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0.70710678118654702</v>
       </c>
     </row>
@@ -16023,15 +16023,15 @@
         <v>45</v>
       </c>
       <c r="O238" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0.70710678118654735</v>
       </c>
       <c r="P238" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0.70710678118654802</v>
       </c>
       <c r="Q238" s="9">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0.70710678118654802</v>
       </c>
     </row>
@@ -16088,27 +16088,6 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="AA87:AA88"/>
-    <mergeCell ref="N81:N83"/>
-    <mergeCell ref="B81:L82"/>
-    <mergeCell ref="AA81:AI81"/>
-    <mergeCell ref="AB82:AI82"/>
-    <mergeCell ref="AB87:AI87"/>
-    <mergeCell ref="O81:Y82"/>
-    <mergeCell ref="AA82:AA83"/>
-    <mergeCell ref="O222:Q222"/>
-    <mergeCell ref="O202:Q202"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="A161:A162"/>
-    <mergeCell ref="A220:A221"/>
-    <mergeCell ref="B161:D161"/>
-    <mergeCell ref="E161:G161"/>
-    <mergeCell ref="A186:C186"/>
-    <mergeCell ref="A198:F198"/>
-    <mergeCell ref="A199:F199"/>
-    <mergeCell ref="D200:F200"/>
-    <mergeCell ref="D220:F220"/>
-    <mergeCell ref="A111:Q111"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="I133:I135"/>
     <mergeCell ref="J133:O133"/>
@@ -16125,6 +16104,27 @@
     <mergeCell ref="E52:G52"/>
     <mergeCell ref="A81:A83"/>
     <mergeCell ref="I115:N115"/>
+    <mergeCell ref="O222:Q222"/>
+    <mergeCell ref="O202:Q202"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="A161:A162"/>
+    <mergeCell ref="A220:A221"/>
+    <mergeCell ref="B161:D161"/>
+    <mergeCell ref="E161:G161"/>
+    <mergeCell ref="A186:C186"/>
+    <mergeCell ref="A198:F198"/>
+    <mergeCell ref="A199:F199"/>
+    <mergeCell ref="D200:F200"/>
+    <mergeCell ref="D220:F220"/>
+    <mergeCell ref="A111:Q111"/>
+    <mergeCell ref="AA87:AA88"/>
+    <mergeCell ref="N81:N83"/>
+    <mergeCell ref="B81:L82"/>
+    <mergeCell ref="AA81:AI81"/>
+    <mergeCell ref="AB82:AI82"/>
+    <mergeCell ref="AB87:AI87"/>
+    <mergeCell ref="O81:Y82"/>
+    <mergeCell ref="AA82:AA83"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Config/Population_data.xlsx
+++ b/Config/Population_data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2625" windowHeight="2385" tabRatio="607"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11220" windowHeight="6495" tabRatio="607"/>
   </bookViews>
   <sheets>
     <sheet name="Demographics" sheetId="1" r:id="rId1"/>
@@ -2008,52 +2008,52 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>-152100.42167838168</c:v>
+                  <c:v>-232193.22062680181</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-106612.48230402569</c:v>
+                  <c:v>-159981.19086849148</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-107405.94202558786</c:v>
+                  <c:v>-130604.16798656604</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-101517.15463011744</c:v>
+                  <c:v>-116663.80924930885</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-72544.531411124772</c:v>
+                  <c:v>-105384.52275663237</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-64144.510344209695</c:v>
+                  <c:v>-95487.192629204481</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-52521.552285925158</c:v>
+                  <c:v>-88295.901522314613</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-43004.6692962585</c:v>
+                  <c:v>-81236.378677701534</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-62733.386819434447</c:v>
+                  <c:v>-73180.407288058326</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-35212.241466369451</c:v>
+                  <c:v>-62269.527941188258</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-35474.307358708502</c:v>
+                  <c:v>-49094.741236225527</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-24318.165076374728</c:v>
+                  <c:v>-38060.556537016608</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-19243.353103262907</c:v>
+                  <c:v>-27479.140628878631</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-11512.902075623842</c:v>
+                  <c:v>-18576.101123217755</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-9496.9275082166223</c:v>
+                  <c:v>-12334.925672142715</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-6028.6940611282835</c:v>
+                  <c:v>-6594.7830785775623</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2180,52 +2180,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>203324.64541775131</c:v>
+                  <c:v>234484.12029553554</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>142517.32455685426</c:v>
+                  <c:v>163173.86739175185</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>124325.88693031289</c:v>
+                  <c:v>133156.32309972768</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>90430.410916924244</c:v>
+                  <c:v>114321.67152989602</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>73084.441583464475</c:v>
+                  <c:v>99000.049567582799</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>61533.430640663515</c:v>
+                  <c:v>87233.488605604201</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>74044.458827794922</c:v>
+                  <c:v>80038.973435362466</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43647.172872749325</c:v>
+                  <c:v>71997.696512421899</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>58960.6802707362</c:v>
+                  <c:v>65881.136053851194</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>40119.832401277803</c:v>
+                  <c:v>56375.674465783348</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>24318.165076374728</c:v>
+                  <c:v>47786.56286470851</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>30874.570169486131</c:v>
+                  <c:v>38751.396319462903</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>25994.838038336002</c:v>
+                  <c:v>32112.4572883867</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>18188.290291429978</c:v>
+                  <c:v>23809.872215759977</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>11968.314355555985</c:v>
+                  <c:v>15544.560996940714</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4496.1121070609634</c:v>
+                  <c:v>7569.8454502498134</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2487,7 +2487,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3183,7 +3182,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3311,7 +3309,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4000,7 +3997,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4122,7 +4118,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5608,7 +5603,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8221,8 +8215,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AI245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L103" sqref="L103"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8386,18 +8380,18 @@
         <v>6</v>
       </c>
       <c r="B6" s="54">
-        <v>152.10042167838168</v>
+        <v>232.1932206268018</v>
       </c>
       <c r="C6" s="54">
-        <v>203.3246454177513</v>
+        <v>234.48412029553555</v>
       </c>
       <c r="D6" s="51">
         <f>B6*1000</f>
-        <v>152100.42167838168</v>
+        <v>232193.22062680181</v>
       </c>
       <c r="E6" s="51">
         <f>C6*1000</f>
-        <v>203324.64541775131</v>
+        <v>234484.12029553554</v>
       </c>
       <c r="F6" s="56"/>
       <c r="G6" s="56"/>
@@ -8409,18 +8403,18 @@
         <v>9</v>
       </c>
       <c r="B7" s="54">
-        <v>106.61248230402569</v>
+        <v>159.98119086849147</v>
       </c>
       <c r="C7" s="54">
-        <v>142.51732455685425</v>
+        <v>163.17386739175186</v>
       </c>
       <c r="D7" s="51">
         <f t="shared" ref="D7:D21" si="0">B7*1000</f>
-        <v>106612.48230402569</v>
+        <v>159981.19086849148</v>
       </c>
       <c r="E7" s="51">
         <f t="shared" ref="E7:E21" si="1">C7*1000</f>
-        <v>142517.32455685426</v>
+        <v>163173.86739175185</v>
       </c>
       <c r="F7" s="56"/>
       <c r="G7" s="56"/>
@@ -8432,18 +8426,18 @@
         <v>12</v>
       </c>
       <c r="B8" s="54">
-        <v>107.40594202558786</v>
+        <v>130.60416798656604</v>
       </c>
       <c r="C8" s="54">
-        <v>124.32588693031289</v>
+        <v>133.15632309972767</v>
       </c>
       <c r="D8" s="51">
         <f t="shared" si="0"/>
-        <v>107405.94202558786</v>
+        <v>130604.16798656604</v>
       </c>
       <c r="E8" s="51">
         <f t="shared" si="1"/>
-        <v>124325.88693031289</v>
+        <v>133156.32309972768</v>
       </c>
       <c r="F8" s="56"/>
       <c r="G8" s="56"/>
@@ -8455,18 +8449,18 @@
         <v>13</v>
       </c>
       <c r="B9" s="54">
-        <v>101.51715463011743</v>
+        <v>116.66380924930885</v>
       </c>
       <c r="C9" s="54">
-        <v>90.430410916924245</v>
+        <v>114.32167152989602</v>
       </c>
       <c r="D9" s="51">
         <f t="shared" si="0"/>
-        <v>101517.15463011744</v>
+        <v>116663.80924930885</v>
       </c>
       <c r="E9" s="51">
         <f t="shared" si="1"/>
-        <v>90430.410916924244</v>
+        <v>114321.67152989602</v>
       </c>
       <c r="F9" s="56"/>
       <c r="G9" s="56"/>
@@ -8478,18 +8472,18 @@
         <v>14</v>
       </c>
       <c r="B10" s="54">
-        <v>72.544531411124765</v>
+        <v>105.38452275663238</v>
       </c>
       <c r="C10" s="54">
-        <v>73.084441583464468</v>
+        <v>99.000049567582792</v>
       </c>
       <c r="D10" s="51">
         <f t="shared" si="0"/>
-        <v>72544.531411124772</v>
+        <v>105384.52275663237</v>
       </c>
       <c r="E10" s="51">
         <f t="shared" si="1"/>
-        <v>73084.441583464475</v>
+        <v>99000.049567582799</v>
       </c>
       <c r="F10" s="56"/>
       <c r="G10" s="56"/>
@@ -8501,18 +8495,18 @@
         <v>15</v>
       </c>
       <c r="B11" s="54">
-        <v>64.144510344209692</v>
+        <v>95.487192629204486</v>
       </c>
       <c r="C11" s="54">
-        <v>61.533430640663518</v>
+        <v>87.233488605604208</v>
       </c>
       <c r="D11" s="51">
         <f t="shared" si="0"/>
-        <v>64144.510344209695</v>
+        <v>95487.192629204481</v>
       </c>
       <c r="E11" s="51">
         <f t="shared" si="1"/>
-        <v>61533.430640663515</v>
+        <v>87233.488605604201</v>
       </c>
       <c r="F11" s="56"/>
       <c r="G11" s="56"/>
@@ -8524,18 +8518,18 @@
         <v>16</v>
       </c>
       <c r="B12" s="54">
-        <v>52.521552285925161</v>
+        <v>88.295901522314608</v>
       </c>
       <c r="C12" s="54">
-        <v>74.044458827794926</v>
+        <v>80.038973435362465</v>
       </c>
       <c r="D12" s="51">
         <f t="shared" si="0"/>
-        <v>52521.552285925158</v>
+        <v>88295.901522314613</v>
       </c>
       <c r="E12" s="51">
         <f t="shared" si="1"/>
-        <v>74044.458827794922</v>
+        <v>80038.973435362466</v>
       </c>
       <c r="F12" s="56"/>
       <c r="G12" s="56"/>
@@ -8547,18 +8541,18 @@
         <v>17</v>
       </c>
       <c r="B13" s="54">
-        <v>43.004669296258498</v>
+        <v>81.236378677701538</v>
       </c>
       <c r="C13" s="54">
-        <v>43.647172872749323</v>
+        <v>71.997696512421896</v>
       </c>
       <c r="D13" s="51">
         <f t="shared" si="0"/>
-        <v>43004.6692962585</v>
+        <v>81236.378677701534</v>
       </c>
       <c r="E13" s="51">
         <f t="shared" si="1"/>
-        <v>43647.172872749325</v>
+        <v>71997.696512421899</v>
       </c>
       <c r="F13" s="56"/>
       <c r="G13" s="56"/>
@@ -8570,18 +8564,18 @@
         <v>19</v>
       </c>
       <c r="B14" s="54">
-        <v>62.73338681943445</v>
+        <v>73.180407288058333</v>
       </c>
       <c r="C14" s="54">
-        <v>58.960680270736198</v>
+        <v>65.881136053851193</v>
       </c>
       <c r="D14" s="51">
         <f t="shared" si="0"/>
-        <v>62733.386819434447</v>
+        <v>73180.407288058326</v>
       </c>
       <c r="E14" s="51">
         <f t="shared" si="1"/>
-        <v>58960.6802707362</v>
+        <v>65881.136053851194</v>
       </c>
       <c r="F14" s="56"/>
       <c r="G14" s="56"/>
@@ -8593,18 +8587,18 @@
         <v>20</v>
       </c>
       <c r="B15" s="54">
-        <v>35.212241466369449</v>
+        <v>62.269527941188258</v>
       </c>
       <c r="C15" s="54">
-        <v>40.119832401277804</v>
+        <v>56.375674465783348</v>
       </c>
       <c r="D15" s="51">
         <f t="shared" si="0"/>
-        <v>35212.241466369451</v>
+        <v>62269.527941188258</v>
       </c>
       <c r="E15" s="51">
         <f t="shared" si="1"/>
-        <v>40119.832401277803</v>
+        <v>56375.674465783348</v>
       </c>
       <c r="F15" s="56"/>
       <c r="G15" s="56"/>
@@ -8616,18 +8610,18 @@
         <v>21</v>
       </c>
       <c r="B16" s="54">
-        <v>35.474307358708501</v>
+        <v>49.094741236225531</v>
       </c>
       <c r="C16" s="54">
-        <v>24.318165076374729</v>
+        <v>47.786562864708507</v>
       </c>
       <c r="D16" s="51">
         <f t="shared" si="0"/>
-        <v>35474.307358708502</v>
+        <v>49094.741236225527</v>
       </c>
       <c r="E16" s="51">
         <f t="shared" si="1"/>
-        <v>24318.165076374728</v>
+        <v>47786.56286470851</v>
       </c>
       <c r="F16" s="56"/>
       <c r="G16" s="56"/>
@@ -8639,18 +8633,18 @@
         <v>22</v>
       </c>
       <c r="B17" s="54">
-        <v>24.318165076374729</v>
+        <v>38.060556537016609</v>
       </c>
       <c r="C17" s="54">
-        <v>30.87457016948613</v>
+        <v>38.751396319462906</v>
       </c>
       <c r="D17" s="51">
         <f t="shared" si="0"/>
-        <v>24318.165076374728</v>
+        <v>38060.556537016608</v>
       </c>
       <c r="E17" s="51">
         <f t="shared" si="1"/>
-        <v>30874.570169486131</v>
+        <v>38751.396319462903</v>
       </c>
       <c r="F17" s="56"/>
       <c r="G17" s="56"/>
@@ -8662,18 +8656,18 @@
         <v>42</v>
       </c>
       <c r="B18" s="54">
-        <v>19.243353103262908</v>
+        <v>27.479140628878632</v>
       </c>
       <c r="C18" s="54">
-        <v>25.994838038336002</v>
+        <v>32.1124572883867</v>
       </c>
       <c r="D18" s="51">
         <f t="shared" si="0"/>
-        <v>19243.353103262907</v>
+        <v>27479.140628878631</v>
       </c>
       <c r="E18" s="51">
         <f t="shared" si="1"/>
-        <v>25994.838038336002</v>
+        <v>32112.4572883867</v>
       </c>
       <c r="F18" s="56"/>
       <c r="G18" s="56"/>
@@ -8685,18 +8679,18 @@
         <v>43</v>
       </c>
       <c r="B19" s="54">
-        <v>11.512902075623842</v>
+        <v>18.576101123217754</v>
       </c>
       <c r="C19" s="54">
-        <v>18.188290291429979</v>
+        <v>23.809872215759977</v>
       </c>
       <c r="D19" s="51">
         <f t="shared" si="0"/>
-        <v>11512.902075623842</v>
+        <v>18576.101123217755</v>
       </c>
       <c r="E19" s="51">
         <f t="shared" si="1"/>
-        <v>18188.290291429978</v>
+        <v>23809.872215759977</v>
       </c>
       <c r="F19" s="56"/>
       <c r="G19" s="56"/>
@@ -8708,18 +8702,18 @@
         <v>44</v>
       </c>
       <c r="B20" s="54">
-        <v>9.496927508216622</v>
+        <v>12.334925672142715</v>
       </c>
       <c r="C20" s="54">
-        <v>11.968314355555986</v>
+        <v>15.544560996940714</v>
       </c>
       <c r="D20" s="51">
         <f t="shared" si="0"/>
-        <v>9496.9275082166223</v>
+        <v>12334.925672142715</v>
       </c>
       <c r="E20" s="51">
         <f t="shared" si="1"/>
-        <v>11968.314355555985</v>
+        <v>15544.560996940714</v>
       </c>
       <c r="F20" s="56"/>
       <c r="G20" s="56"/>
@@ -8731,18 +8725,18 @@
         <v>45</v>
       </c>
       <c r="B21" s="54">
-        <v>6.0286940611282835</v>
+        <v>6.5947830785775619</v>
       </c>
       <c r="C21" s="54">
-        <v>4.4961121070609638</v>
+        <v>7.5698454502498134</v>
       </c>
       <c r="D21" s="51">
         <f t="shared" si="0"/>
-        <v>6028.6940611282835</v>
+        <v>6594.7830785775623</v>
       </c>
       <c r="E21" s="51">
         <f t="shared" si="1"/>
-        <v>4496.1121070609634</v>
+        <v>7569.8454502498134</v>
       </c>
       <c r="F21" s="56"/>
       <c r="G21" s="56"/>
@@ -8755,23 +8749,23 @@
       </c>
       <c r="B22" s="9">
         <f>SUM(B6:B21)</f>
-        <v>903.87124144474967</v>
+        <v>1297.4365678223264</v>
       </c>
       <c r="C22" s="9">
         <f>SUM(C6:C21)</f>
-        <v>1027.8285744567727</v>
+        <v>1271.2376960930251</v>
       </c>
       <c r="D22" s="9">
         <f>SUM(D6:D21)</f>
-        <v>903871.24144474964</v>
+        <v>1297436.5678223267</v>
       </c>
       <c r="E22" s="9">
         <f>SUM(E6:E21)</f>
-        <v>1027828.5744567729</v>
+        <v>1271237.6960930256</v>
       </c>
       <c r="F22" s="57">
         <f>D22+E22</f>
-        <v>1931699.8159015225</v>
+        <v>2568674.2639153525</v>
       </c>
       <c r="G22" s="25"/>
       <c r="X22" s="13"/>
@@ -8811,11 +8805,11 @@
       </c>
       <c r="B29" s="58">
         <f>(-1)*D6</f>
-        <v>-152100.42167838168</v>
+        <v>-232193.22062680181</v>
       </c>
       <c r="C29" s="17">
         <f>E6</f>
-        <v>203324.64541775131</v>
+        <v>234484.12029553554</v>
       </c>
     </row>
     <row r="30" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
@@ -8824,11 +8818,11 @@
       </c>
       <c r="B30" s="58">
         <f t="shared" ref="B30:B44" si="2">(-1)*D7</f>
-        <v>-106612.48230402569</v>
+        <v>-159981.19086849148</v>
       </c>
       <c r="C30" s="17">
         <f t="shared" ref="C30:C44" si="3">E7</f>
-        <v>142517.32455685426</v>
+        <v>163173.86739175185</v>
       </c>
     </row>
     <row r="31" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
@@ -8837,11 +8831,11 @@
       </c>
       <c r="B31" s="58">
         <f t="shared" si="2"/>
-        <v>-107405.94202558786</v>
+        <v>-130604.16798656604</v>
       </c>
       <c r="C31" s="17">
         <f t="shared" si="3"/>
-        <v>124325.88693031289</v>
+        <v>133156.32309972768</v>
       </c>
       <c r="L31" s="8"/>
     </row>
@@ -8851,11 +8845,11 @@
       </c>
       <c r="B32" s="58">
         <f t="shared" si="2"/>
-        <v>-101517.15463011744</v>
+        <v>-116663.80924930885</v>
       </c>
       <c r="C32" s="17">
         <f t="shared" si="3"/>
-        <v>90430.410916924244</v>
+        <v>114321.67152989602</v>
       </c>
     </row>
     <row r="33" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
@@ -8864,11 +8858,11 @@
       </c>
       <c r="B33" s="58">
         <f t="shared" si="2"/>
-        <v>-72544.531411124772</v>
+        <v>-105384.52275663237</v>
       </c>
       <c r="C33" s="17">
         <f t="shared" si="3"/>
-        <v>73084.441583464475</v>
+        <v>99000.049567582799</v>
       </c>
     </row>
     <row r="34" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
@@ -8877,11 +8871,11 @@
       </c>
       <c r="B34" s="58">
         <f t="shared" si="2"/>
-        <v>-64144.510344209695</v>
+        <v>-95487.192629204481</v>
       </c>
       <c r="C34" s="17">
         <f t="shared" si="3"/>
-        <v>61533.430640663515</v>
+        <v>87233.488605604201</v>
       </c>
     </row>
     <row r="35" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
@@ -8890,11 +8884,11 @@
       </c>
       <c r="B35" s="58">
         <f t="shared" si="2"/>
-        <v>-52521.552285925158</v>
+        <v>-88295.901522314613</v>
       </c>
       <c r="C35" s="17">
         <f t="shared" si="3"/>
-        <v>74044.458827794922</v>
+        <v>80038.973435362466</v>
       </c>
     </row>
     <row r="36" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
@@ -8903,11 +8897,11 @@
       </c>
       <c r="B36" s="58">
         <f t="shared" si="2"/>
-        <v>-43004.6692962585</v>
+        <v>-81236.378677701534</v>
       </c>
       <c r="C36" s="17">
         <f t="shared" si="3"/>
-        <v>43647.172872749325</v>
+        <v>71997.696512421899</v>
       </c>
       <c r="X36" s="13"/>
       <c r="Y36" s="13"/>
@@ -8925,11 +8919,11 @@
       </c>
       <c r="B37" s="58">
         <f t="shared" si="2"/>
-        <v>-62733.386819434447</v>
+        <v>-73180.407288058326</v>
       </c>
       <c r="C37" s="17">
         <f t="shared" si="3"/>
-        <v>58960.6802707362</v>
+        <v>65881.136053851194</v>
       </c>
       <c r="X37" s="14"/>
       <c r="Y37" s="14"/>
@@ -8946,11 +8940,11 @@
       </c>
       <c r="B38" s="58">
         <f t="shared" si="2"/>
-        <v>-35212.241466369451</v>
+        <v>-62269.527941188258</v>
       </c>
       <c r="C38" s="17">
         <f t="shared" si="3"/>
-        <v>40119.832401277803</v>
+        <v>56375.674465783348</v>
       </c>
       <c r="X38" s="22"/>
       <c r="Y38" s="22"/>
@@ -8967,11 +8961,11 @@
       </c>
       <c r="B39" s="58">
         <f t="shared" si="2"/>
-        <v>-35474.307358708502</v>
+        <v>-49094.741236225527</v>
       </c>
       <c r="C39" s="17">
         <f t="shared" si="3"/>
-        <v>24318.165076374728</v>
+        <v>47786.56286470851</v>
       </c>
       <c r="X39" s="23"/>
       <c r="Y39" s="23"/>
@@ -8988,11 +8982,11 @@
       </c>
       <c r="B40" s="58">
         <f t="shared" si="2"/>
-        <v>-24318.165076374728</v>
+        <v>-38060.556537016608</v>
       </c>
       <c r="C40" s="17">
         <f t="shared" si="3"/>
-        <v>30874.570169486131</v>
+        <v>38751.396319462903</v>
       </c>
       <c r="X40" s="23"/>
       <c r="Y40" s="23"/>
@@ -9009,11 +9003,11 @@
       </c>
       <c r="B41" s="58">
         <f t="shared" si="2"/>
-        <v>-19243.353103262907</v>
+        <v>-27479.140628878631</v>
       </c>
       <c r="C41" s="17">
         <f t="shared" si="3"/>
-        <v>25994.838038336002</v>
+        <v>32112.4572883867</v>
       </c>
       <c r="X41" s="23"/>
       <c r="Y41" s="23"/>
@@ -9030,11 +9024,11 @@
       </c>
       <c r="B42" s="58">
         <f t="shared" si="2"/>
-        <v>-11512.902075623842</v>
+        <v>-18576.101123217755</v>
       </c>
       <c r="C42" s="17">
         <f t="shared" si="3"/>
-        <v>18188.290291429978</v>
+        <v>23809.872215759977</v>
       </c>
       <c r="X42" s="24"/>
       <c r="Y42" s="24"/>
@@ -9051,11 +9045,11 @@
       </c>
       <c r="B43" s="58">
         <f t="shared" si="2"/>
-        <v>-9496.9275082166223</v>
+        <v>-12334.925672142715</v>
       </c>
       <c r="C43" s="17">
         <f t="shared" si="3"/>
-        <v>11968.314355555985</v>
+        <v>15544.560996940714</v>
       </c>
       <c r="X43" s="24"/>
       <c r="Y43" s="24"/>
@@ -9072,11 +9066,11 @@
       </c>
       <c r="B44" s="58">
         <f t="shared" si="2"/>
-        <v>-6028.6940611282835</v>
+        <v>-6594.7830785775623</v>
       </c>
       <c r="C44" s="17">
         <f t="shared" si="3"/>
-        <v>4496.1121070609634</v>
+        <v>7569.8454502498134</v>
       </c>
       <c r="X44" s="24"/>
       <c r="Y44" s="24"/>

--- a/Config/Population_data.xlsx
+++ b/Config/Population_data.xlsx
@@ -495,10 +495,10 @@
     </r>
   </si>
   <si>
-    <t>UN World Population Prospects 2019, File MORT/17-2: Abridged life tables, for males/females, 1950-2100; GHDx GBD Results Tool</t>
+    <t>Used UN values from 1950-1990 before the widespread HIV epidemic. Used the GHDx GBD Results Tool to subtract HIV-specific mortality from all-cause mortality after 1990. Smoothed over the trough in the 1990s and made the decline in under 5 mortality a little less severe. Extrapolated the trend between 2000 and 2017 to 2020.</t>
   </si>
   <si>
-    <t>Used UN values from 1950-1990 before the widespread HIV epidemic. Used the GHDx GBD Results Tool to subtract HIV-specific mortality from all-cause mortality after 1990. Smoothed over the trough in the 1990s and made the decline in under 5 mortality a little less severe. Extrapolated the trend between 2000 and 2017 to 2020.</t>
+    <t>UN World Population Prospects 2019, File MORT/17-2: Abridged life tables, for males/females, 1950-2100; GHDx GBD Results Tool: Global Burden of Disease Collaborative Network, Global Burden of Disease Study 2017 (GBD 2017) Results. Seattle, United States: Institute for Health Metrics and Evaluation (IHME), 2018. Available from http://ghdx.healthdata.org/gbd-results-tool. Accessed Feb 21, 2020.</t>
   </si>
 </sst>
 </file>
@@ -958,7 +958,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -1365,6 +1365,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1422,7 +1431,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1646,60 +1655,6 @@
     <xf numFmtId="11" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="28" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1721,6 +1676,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="28" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1733,12 +1691,66 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="48">
     <cellStyle name="20% - Accent1" xfId="18" builtinId="30" customBuiltin="1"/>
@@ -2487,6 +2499,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3182,6 +3195,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3309,6 +3323,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3997,6 +4012,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8215,8 +8231,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AI245"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:C21"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="O207" sqref="O207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8288,16 +8304,16 @@
       <c r="Y1" s="37"/>
     </row>
     <row r="2" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="117" t="s">
+      <c r="A2" s="99" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="117"/>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117"/>
-      <c r="H2" s="117"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
       <c r="I2" s="37"/>
       <c r="J2" s="37"/>
       <c r="K2" s="37"/>
@@ -8349,14 +8365,14 @@
       <c r="A4" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="109" t="s">
+      <c r="B4" s="111" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="110"/>
-      <c r="D4" s="109" t="s">
+      <c r="C4" s="112"/>
+      <c r="D4" s="111" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="110"/>
+      <c r="E4" s="112"/>
     </row>
     <row r="5" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
@@ -8784,10 +8800,10 @@
       <c r="A27" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="109" t="s">
+      <c r="B27" s="111" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="110"/>
+      <c r="C27" s="112"/>
     </row>
     <row r="28" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
@@ -9202,19 +9218,19 @@
       <c r="AE51" s="24"/>
     </row>
     <row r="52" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="128" t="s">
+      <c r="A52" s="113" t="s">
         <v>2</v>
       </c>
-      <c r="B52" s="128" t="s">
+      <c r="B52" s="113" t="s">
         <v>56</v>
       </c>
-      <c r="C52" s="128"/>
-      <c r="D52" s="128"/>
-      <c r="E52" s="128" t="s">
+      <c r="C52" s="113"/>
+      <c r="D52" s="113"/>
+      <c r="E52" s="113" t="s">
         <v>57</v>
       </c>
-      <c r="F52" s="128"/>
-      <c r="G52" s="128"/>
+      <c r="F52" s="113"/>
+      <c r="G52" s="113"/>
       <c r="X52" s="22"/>
       <c r="Y52" s="22"/>
       <c r="Z52" s="22"/>
@@ -9225,7 +9241,7 @@
       <c r="AE52" s="22"/>
     </row>
     <row r="53" spans="1:31" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="128"/>
+      <c r="A53" s="113"/>
       <c r="B53" s="33" t="s">
         <v>3</v>
       </c>
@@ -9704,7 +9720,7 @@
     </row>
     <row r="79" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="38" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B79" s="37"/>
       <c r="C79" s="37"/>
@@ -9732,7 +9748,7 @@
     </row>
     <row r="80" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="36" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B80" s="37"/>
       <c r="C80" s="37"/>
@@ -9759,91 +9775,91 @@
       <c r="X80" s="37"/>
     </row>
     <row r="81" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="101" t="s">
+      <c r="A81" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="B81" s="104" t="s">
+      <c r="B81" s="119" t="s">
         <v>80</v>
       </c>
-      <c r="C81" s="104"/>
-      <c r="D81" s="104"/>
-      <c r="E81" s="104"/>
-      <c r="F81" s="104"/>
-      <c r="G81" s="104"/>
-      <c r="H81" s="104"/>
-      <c r="I81" s="104"/>
-      <c r="J81" s="104"/>
-      <c r="K81" s="104"/>
-      <c r="L81" s="104"/>
-      <c r="N81" s="101" t="s">
+      <c r="C81" s="119"/>
+      <c r="D81" s="119"/>
+      <c r="E81" s="119"/>
+      <c r="F81" s="119"/>
+      <c r="G81" s="119"/>
+      <c r="H81" s="119"/>
+      <c r="I81" s="119"/>
+      <c r="J81" s="119"/>
+      <c r="K81" s="119"/>
+      <c r="L81" s="119"/>
+      <c r="N81" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="O81" s="104" t="s">
+      <c r="O81" s="119" t="s">
         <v>81</v>
       </c>
-      <c r="P81" s="104"/>
-      <c r="Q81" s="104"/>
-      <c r="R81" s="104"/>
-      <c r="S81" s="104"/>
-      <c r="T81" s="104"/>
-      <c r="U81" s="104"/>
-      <c r="V81" s="104"/>
-      <c r="W81" s="104"/>
-      <c r="X81" s="104"/>
-      <c r="Y81" s="104"/>
-      <c r="AA81" s="105" t="s">
+      <c r="P81" s="119"/>
+      <c r="Q81" s="119"/>
+      <c r="R81" s="119"/>
+      <c r="S81" s="119"/>
+      <c r="T81" s="119"/>
+      <c r="U81" s="119"/>
+      <c r="V81" s="119"/>
+      <c r="W81" s="119"/>
+      <c r="X81" s="119"/>
+      <c r="Y81" s="119"/>
+      <c r="AA81" s="127" t="s">
         <v>82</v>
       </c>
-      <c r="AB81" s="106"/>
-      <c r="AC81" s="106"/>
-      <c r="AD81" s="106"/>
-      <c r="AE81" s="106"/>
-      <c r="AF81" s="106"/>
-      <c r="AG81" s="106"/>
-      <c r="AH81" s="106"/>
-      <c r="AI81" s="107"/>
+      <c r="AB81" s="128"/>
+      <c r="AC81" s="128"/>
+      <c r="AD81" s="128"/>
+      <c r="AE81" s="128"/>
+      <c r="AF81" s="128"/>
+      <c r="AG81" s="128"/>
+      <c r="AH81" s="128"/>
+      <c r="AI81" s="129"/>
     </row>
     <row r="82" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="102"/>
-      <c r="B82" s="104"/>
-      <c r="C82" s="104"/>
-      <c r="D82" s="104"/>
-      <c r="E82" s="104"/>
-      <c r="F82" s="104"/>
-      <c r="G82" s="104"/>
-      <c r="H82" s="104"/>
-      <c r="I82" s="104"/>
-      <c r="J82" s="104"/>
-      <c r="K82" s="104"/>
-      <c r="L82" s="104"/>
-      <c r="N82" s="102"/>
-      <c r="O82" s="104"/>
-      <c r="P82" s="104"/>
-      <c r="Q82" s="104"/>
-      <c r="R82" s="104"/>
-      <c r="S82" s="104"/>
-      <c r="T82" s="104"/>
-      <c r="U82" s="104"/>
-      <c r="V82" s="104"/>
-      <c r="W82" s="104"/>
-      <c r="X82" s="104"/>
-      <c r="Y82" s="104"/>
-      <c r="AA82" s="99" t="s">
+      <c r="A82" s="115"/>
+      <c r="B82" s="119"/>
+      <c r="C82" s="119"/>
+      <c r="D82" s="119"/>
+      <c r="E82" s="119"/>
+      <c r="F82" s="119"/>
+      <c r="G82" s="119"/>
+      <c r="H82" s="119"/>
+      <c r="I82" s="119"/>
+      <c r="J82" s="119"/>
+      <c r="K82" s="119"/>
+      <c r="L82" s="119"/>
+      <c r="N82" s="115"/>
+      <c r="O82" s="119"/>
+      <c r="P82" s="119"/>
+      <c r="Q82" s="119"/>
+      <c r="R82" s="119"/>
+      <c r="S82" s="119"/>
+      <c r="T82" s="119"/>
+      <c r="U82" s="119"/>
+      <c r="V82" s="119"/>
+      <c r="W82" s="119"/>
+      <c r="X82" s="119"/>
+      <c r="Y82" s="119"/>
+      <c r="AA82" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="AB82" s="105" t="s">
+      <c r="AB82" s="127" t="s">
         <v>74</v>
       </c>
-      <c r="AC82" s="106"/>
-      <c r="AD82" s="106"/>
-      <c r="AE82" s="106"/>
-      <c r="AF82" s="106"/>
-      <c r="AG82" s="106"/>
-      <c r="AH82" s="106"/>
-      <c r="AI82" s="107"/>
+      <c r="AC82" s="128"/>
+      <c r="AD82" s="128"/>
+      <c r="AE82" s="128"/>
+      <c r="AF82" s="128"/>
+      <c r="AG82" s="128"/>
+      <c r="AH82" s="128"/>
+      <c r="AI82" s="129"/>
     </row>
     <row r="83" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="103"/>
+      <c r="A83" s="116"/>
       <c r="B83" s="76" t="s">
         <v>95</v>
       </c>
@@ -9877,7 +9893,7 @@
       <c r="L83" s="89">
         <v>2020</v>
       </c>
-      <c r="N83" s="103"/>
+      <c r="N83" s="116"/>
       <c r="O83" s="76" t="s">
         <v>95</v>
       </c>
@@ -9911,7 +9927,7 @@
       <c r="Y83" s="89">
         <v>2020</v>
       </c>
-      <c r="AA83" s="100"/>
+      <c r="AA83" s="126"/>
       <c r="AB83" s="76" t="s">
         <v>95</v>
       </c>
@@ -10351,19 +10367,19 @@
         <f t="shared" si="12"/>
         <v>-6.3054823529411761E-5</v>
       </c>
-      <c r="AA87" s="99" t="s">
+      <c r="AA87" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="AB87" s="105" t="s">
+      <c r="AB87" s="127" t="s">
         <v>75</v>
       </c>
-      <c r="AC87" s="106"/>
-      <c r="AD87" s="106"/>
-      <c r="AE87" s="106"/>
-      <c r="AF87" s="106"/>
-      <c r="AG87" s="106"/>
-      <c r="AH87" s="106"/>
-      <c r="AI87" s="107"/>
+      <c r="AC87" s="128"/>
+      <c r="AD87" s="128"/>
+      <c r="AE87" s="128"/>
+      <c r="AF87" s="128"/>
+      <c r="AG87" s="128"/>
+      <c r="AH87" s="128"/>
+      <c r="AI87" s="129"/>
     </row>
     <row r="88" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="74" t="s">
@@ -10448,7 +10464,7 @@
         <f t="shared" si="12"/>
         <v>-1.4261617647058823E-4</v>
       </c>
-      <c r="AA88" s="100"/>
+      <c r="AA88" s="126"/>
       <c r="AB88" s="76" t="s">
         <v>95</v>
       </c>
@@ -11637,25 +11653,25 @@
       <c r="X110" s="37"/>
     </row>
     <row r="111" spans="1:26" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="116" t="s">
+      <c r="A111" s="124" t="s">
         <v>104</v>
       </c>
-      <c r="B111" s="116"/>
-      <c r="C111" s="116"/>
-      <c r="D111" s="116"/>
-      <c r="E111" s="116"/>
-      <c r="F111" s="116"/>
-      <c r="G111" s="116"/>
-      <c r="H111" s="116"/>
-      <c r="I111" s="116"/>
-      <c r="J111" s="116"/>
-      <c r="K111" s="116"/>
-      <c r="L111" s="116"/>
-      <c r="M111" s="116"/>
-      <c r="N111" s="116"/>
-      <c r="O111" s="116"/>
-      <c r="P111" s="116"/>
-      <c r="Q111" s="116"/>
+      <c r="B111" s="124"/>
+      <c r="C111" s="124"/>
+      <c r="D111" s="124"/>
+      <c r="E111" s="124"/>
+      <c r="F111" s="124"/>
+      <c r="G111" s="124"/>
+      <c r="H111" s="124"/>
+      <c r="I111" s="124"/>
+      <c r="J111" s="124"/>
+      <c r="K111" s="124"/>
+      <c r="L111" s="124"/>
+      <c r="M111" s="124"/>
+      <c r="N111" s="124"/>
+      <c r="O111" s="124"/>
+      <c r="P111" s="124"/>
+      <c r="Q111" s="124"/>
       <c r="R111" s="37"/>
       <c r="S111" s="37"/>
       <c r="T111" s="37"/>
@@ -11665,17 +11681,17 @@
       <c r="X111" s="37"/>
     </row>
     <row r="112" spans="1:26" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="125" t="s">
+      <c r="A112" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="B112" s="121" t="s">
+      <c r="B112" s="103" t="s">
         <v>85</v>
       </c>
-      <c r="C112" s="122"/>
-      <c r="D112" s="122"/>
-      <c r="E112" s="122"/>
-      <c r="F112" s="122"/>
-      <c r="G112" s="123"/>
+      <c r="C112" s="104"/>
+      <c r="D112" s="104"/>
+      <c r="E112" s="104"/>
+      <c r="F112" s="104"/>
+      <c r="G112" s="105"/>
       <c r="I112" s="73"/>
       <c r="J112" s="86" t="s">
         <v>27</v>
@@ -11694,7 +11710,7 @@
       </c>
     </row>
     <row r="113" spans="1:14" ht="45.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="126"/>
+      <c r="A113" s="109"/>
       <c r="B113" s="32" t="s">
         <v>70</v>
       </c>
@@ -11738,7 +11754,7 @@
       </c>
     </row>
     <row r="114" spans="1:14" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="127"/>
+      <c r="A114" s="110"/>
       <c r="B114" s="34" t="s">
         <v>63</v>
       </c>
@@ -11786,14 +11802,14 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I115" s="129" t="s">
+      <c r="I115" s="117" t="s">
         <v>103</v>
       </c>
-      <c r="J115" s="129"/>
-      <c r="K115" s="129"/>
-      <c r="L115" s="129"/>
-      <c r="M115" s="129"/>
-      <c r="N115" s="129"/>
+      <c r="J115" s="117"/>
+      <c r="K115" s="117"/>
+      <c r="L115" s="117"/>
+      <c r="M115" s="117"/>
+      <c r="N115" s="117"/>
     </row>
     <row r="116" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
@@ -12546,31 +12562,31 @@
     </row>
     <row r="132" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="133" spans="1:15" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="118" t="s">
+      <c r="A133" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="B133" s="121" t="s">
+      <c r="B133" s="103" t="s">
         <v>86</v>
       </c>
-      <c r="C133" s="122"/>
-      <c r="D133" s="122"/>
-      <c r="E133" s="122"/>
-      <c r="F133" s="122"/>
-      <c r="G133" s="123"/>
-      <c r="I133" s="118" t="s">
+      <c r="C133" s="104"/>
+      <c r="D133" s="104"/>
+      <c r="E133" s="104"/>
+      <c r="F133" s="104"/>
+      <c r="G133" s="105"/>
+      <c r="I133" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="J133" s="121" t="s">
+      <c r="J133" s="103" t="s">
         <v>76</v>
       </c>
-      <c r="K133" s="122"/>
-      <c r="L133" s="122"/>
-      <c r="M133" s="122"/>
-      <c r="N133" s="122"/>
-      <c r="O133" s="123"/>
+      <c r="K133" s="104"/>
+      <c r="L133" s="104"/>
+      <c r="M133" s="104"/>
+      <c r="N133" s="104"/>
+      <c r="O133" s="105"/>
     </row>
     <row r="134" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="119"/>
+      <c r="A134" s="101"/>
       <c r="B134" s="26" t="s">
         <v>71</v>
       </c>
@@ -12589,7 +12605,7 @@
       <c r="G134" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="I134" s="119"/>
+      <c r="I134" s="101"/>
       <c r="J134" s="26" t="s">
         <v>71</v>
       </c>
@@ -12610,7 +12626,7 @@
       </c>
     </row>
     <row r="135" spans="1:15" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="120"/>
+      <c r="A135" s="102"/>
       <c r="B135" s="40" t="s">
         <v>63</v>
       </c>
@@ -12629,7 +12645,7 @@
       <c r="G135" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="I135" s="120"/>
+      <c r="I135" s="102"/>
       <c r="J135" s="40" t="s">
         <v>63</v>
       </c>
@@ -13569,22 +13585,22 @@
       <c r="W160" s="37"/>
     </row>
     <row r="161" spans="1:14" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="104" t="s">
+      <c r="A161" s="119" t="s">
         <v>90</v>
       </c>
-      <c r="B161" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="C161" s="112"/>
-      <c r="D161" s="112"/>
-      <c r="E161" s="112" t="s">
+      <c r="B161" s="121" t="s">
+        <v>0</v>
+      </c>
+      <c r="C161" s="121"/>
+      <c r="D161" s="121"/>
+      <c r="E161" s="121" t="s">
         <v>1</v>
       </c>
-      <c r="F161" s="112"/>
-      <c r="G161" s="112"/>
+      <c r="F161" s="121"/>
+      <c r="G161" s="121"/>
     </row>
     <row r="162" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A162" s="104"/>
+      <c r="A162" s="119"/>
       <c r="B162" s="63" t="s">
         <v>3</v>
       </c>
@@ -14380,9 +14396,9 @@
       <c r="AB185" s="20"/>
     </row>
     <row r="186" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A186" s="113"/>
-      <c r="B186" s="113"/>
-      <c r="C186" s="113"/>
+      <c r="A186" s="122"/>
+      <c r="B186" s="122"/>
+      <c r="C186" s="122"/>
       <c r="D186" s="20"/>
       <c r="E186" s="20"/>
       <c r="F186" s="20"/>
@@ -14557,39 +14573,39 @@
       <c r="W197" s="37"/>
     </row>
     <row r="198" spans="1:23" s="39" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A198" s="109" t="s">
+      <c r="A198" s="111" t="s">
         <v>73</v>
       </c>
-      <c r="B198" s="109"/>
-      <c r="C198" s="109"/>
-      <c r="D198" s="109"/>
-      <c r="E198" s="109"/>
-      <c r="F198" s="109"/>
+      <c r="B198" s="111"/>
+      <c r="C198" s="111"/>
+      <c r="D198" s="111"/>
+      <c r="E198" s="111"/>
+      <c r="F198" s="111"/>
     </row>
     <row r="199" spans="1:23" s="39" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A199" s="114" t="s">
+      <c r="A199" s="123" t="s">
         <v>74</v>
       </c>
-      <c r="B199" s="114"/>
-      <c r="C199" s="114"/>
-      <c r="D199" s="114"/>
-      <c r="E199" s="114"/>
-      <c r="F199" s="114"/>
+      <c r="B199" s="123"/>
+      <c r="C199" s="123"/>
+      <c r="D199" s="123"/>
+      <c r="E199" s="123"/>
+      <c r="F199" s="123"/>
     </row>
     <row r="200" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A200" s="115" t="s">
+      <c r="A200" s="106" t="s">
         <v>46</v>
       </c>
       <c r="B200" s="43"/>
       <c r="C200" s="43"/>
-      <c r="D200" s="115" t="s">
+      <c r="D200" s="106" t="s">
         <v>51</v>
       </c>
-      <c r="E200" s="115"/>
-      <c r="F200" s="115"/>
+      <c r="E200" s="106"/>
+      <c r="F200" s="106"/>
     </row>
     <row r="201" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A201" s="115"/>
+      <c r="A201" s="106"/>
       <c r="B201" s="43"/>
       <c r="C201" s="44" t="s">
         <v>47</v>
@@ -14603,10 +14619,6 @@
       <c r="F201" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="H201">
-        <f>(365.25/7)*2.4</f>
-        <v>125.22857142857143</v>
-      </c>
     </row>
     <row r="202" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A202" s="45" t="s">
@@ -14623,26 +14635,29 @@
       <c r="F202" s="64">
         <v>0</v>
       </c>
+      <c r="G202">
+        <v>1</v>
+      </c>
       <c r="H202">
-        <f t="shared" ref="H202:H217" si="27">D202*B54</f>
-        <v>0</v>
-      </c>
-      <c r="I202">
-        <f t="shared" ref="I202:I217" si="28">E202*C54</f>
-        <v>0</v>
-      </c>
-      <c r="J202">
-        <f t="shared" ref="J202:J217" si="29">F202*D54</f>
-        <v>0</v>
+        <f>D222*G202</f>
+        <v>0</v>
+      </c>
+      <c r="J202" t="e">
+        <f>D202/E202</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K202" t="e">
+        <f>E202/F202</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="N202" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="O202" s="108" t="s">
+      <c r="O202" s="118" t="s">
         <v>94</v>
       </c>
-      <c r="P202" s="108"/>
-      <c r="Q202" s="108"/>
+      <c r="P202" s="118"/>
+      <c r="Q202" s="118"/>
     </row>
     <row r="203" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A203" s="45" t="s">
@@ -14659,17 +14674,20 @@
       <c r="F203" s="64">
         <v>0</v>
       </c>
+      <c r="G203">
+        <v>1</v>
+      </c>
       <c r="H203">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="I203">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="J203">
-        <f t="shared" si="29"/>
-        <v>0</v>
+        <f t="shared" ref="H203:H217" si="27">D223*G203</f>
+        <v>0</v>
+      </c>
+      <c r="J203" t="e">
+        <f t="shared" ref="J203:J217" si="28">D203/E203</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K203" t="e">
+        <f t="shared" ref="K203:K217" si="29">E203/F203</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="N203" s="45" t="s">
         <v>25</v>
@@ -14701,21 +14719,21 @@
       <c r="F204" s="65">
         <v>1.1232</v>
       </c>
+      <c r="G204">
+        <f t="shared" ref="G203:G217" si="30">D204/D224</f>
+        <v>0.4</v>
+      </c>
       <c r="H204">
         <f t="shared" si="27"/>
-        <v>3.0575999999999999</v>
-      </c>
-      <c r="I204">
+        <v>3.12</v>
+      </c>
+      <c r="J204">
         <f t="shared" si="28"/>
-        <v>2.8080000000000001E-2</v>
-      </c>
-      <c r="J204">
+        <v>1.6666666666666665</v>
+      </c>
+      <c r="K204">
         <f t="shared" si="29"/>
-        <v>5.6160000000000203E-3</v>
-      </c>
-      <c r="K204">
-        <f>SUM(H204:J204)</f>
-        <v>3.0912959999999998</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="N204" s="45" t="s">
         <v>24</v>
@@ -14747,21 +14765,21 @@
       <c r="F205" s="65">
         <v>5.6159999999999997</v>
       </c>
+      <c r="G205">
+        <f t="shared" si="30"/>
+        <v>0.83333333333333337</v>
+      </c>
       <c r="H205">
         <f t="shared" si="27"/>
-        <v>7.9418181818181806</v>
-      </c>
-      <c r="I205">
+        <v>15.6</v>
+      </c>
+      <c r="J205">
         <f t="shared" si="28"/>
-        <v>3.814909090909091</v>
-      </c>
-      <c r="J205">
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="K205">
         <f t="shared" si="29"/>
-        <v>0.46799999999999986</v>
-      </c>
